--- a/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="261">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -586,6 +586,12 @@
     <t>['84']</t>
   </si>
   <si>
+    <t>['48', '60']</t>
+  </si>
+  <si>
+    <t>['22', '45+1', '79', '88']</t>
+  </si>
+  <si>
     <t>['45+7']</t>
   </si>
   <si>
@@ -1152,7 +1158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK141"/>
+  <dimension ref="A1:BK146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1396,7 +1402,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1486,7 +1492,7 @@
         <v>2</v>
       </c>
       <c r="AT2">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1587,7 +1593,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q3">
         <v>11</v>
@@ -1778,7 +1784,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2351,7 +2357,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2438,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT7">
         <v>1</v>
@@ -2542,7 +2548,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q8">
         <v>14</v>
@@ -2823,7 +2829,7 @@
         <v>2.29</v>
       </c>
       <c r="AT9">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2924,7 +2930,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3205,7 +3211,7 @@
         <v>2.13</v>
       </c>
       <c r="AT11">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3393,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT12">
         <v>0.57</v>
@@ -3497,7 +3503,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3587,7 +3593,7 @@
         <v>0.86</v>
       </c>
       <c r="AT13">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3775,7 +3781,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT14">
         <v>0.29</v>
@@ -3966,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT15">
         <v>1.5</v>
@@ -4070,7 +4076,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4160,7 +4166,7 @@
         <v>2.17</v>
       </c>
       <c r="AT16">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4261,7 +4267,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4643,7 +4649,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5025,7 +5031,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5407,7 +5413,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -5494,7 +5500,7 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT23">
         <v>1</v>
@@ -5598,7 +5604,7 @@
         <v>86</v>
       </c>
       <c r="P24" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5789,7 +5795,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -5980,7 +5986,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q26">
         <v>12</v>
@@ -6171,7 +6177,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6362,7 +6368,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6744,7 +6750,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -7126,7 +7132,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7213,10 +7219,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT32">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU32">
         <v>1.94</v>
@@ -7317,7 +7323,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7404,7 +7410,7 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT33">
         <v>0.71</v>
@@ -7508,7 +7514,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7598,7 +7604,7 @@
         <v>1</v>
       </c>
       <c r="AT34">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU34">
         <v>2.02</v>
@@ -7786,7 +7792,7 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT35">
         <v>1</v>
@@ -7890,7 +7896,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -7980,7 +7986,7 @@
         <v>1.14</v>
       </c>
       <c r="AT36">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU36">
         <v>1.06</v>
@@ -8081,7 +8087,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -8171,7 +8177,7 @@
         <v>2.29</v>
       </c>
       <c r="AT37">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU37">
         <v>1.11</v>
@@ -8463,7 +8469,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8654,7 +8660,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8744,7 +8750,7 @@
         <v>2.13</v>
       </c>
       <c r="AT40">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU40">
         <v>1.68</v>
@@ -8845,7 +8851,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9036,7 +9042,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9418,7 +9424,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9800,7 +9806,7 @@
         <v>86</v>
       </c>
       <c r="P46" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -9991,7 +9997,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q47">
         <v>7</v>
@@ -10182,7 +10188,7 @@
         <v>86</v>
       </c>
       <c r="P48" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q48">
         <v>16</v>
@@ -10269,7 +10275,7 @@
         <v>1.5</v>
       </c>
       <c r="AS48">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT48">
         <v>1</v>
@@ -10373,7 +10379,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10842,7 +10848,7 @@
         <v>0.5</v>
       </c>
       <c r="AS51">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT51">
         <v>0.57</v>
@@ -10946,7 +10952,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q52">
         <v>10</v>
@@ -11036,7 +11042,7 @@
         <v>1.14</v>
       </c>
       <c r="AT52">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU52">
         <v>1.47</v>
@@ -11224,10 +11230,10 @@
         <v>1.5</v>
       </c>
       <c r="AS53">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT53">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU53">
         <v>2.57</v>
@@ -11328,7 +11334,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q54">
         <v>15</v>
@@ -11418,7 +11424,7 @@
         <v>2</v>
       </c>
       <c r="AT54">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU54">
         <v>2.16</v>
@@ -11800,7 +11806,7 @@
         <v>0.57</v>
       </c>
       <c r="AT56">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU56">
         <v>1.67</v>
@@ -11901,7 +11907,7 @@
         <v>129</v>
       </c>
       <c r="P57" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12474,7 +12480,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12564,7 +12570,7 @@
         <v>2.29</v>
       </c>
       <c r="AT60">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU60">
         <v>1.36</v>
@@ -12665,7 +12671,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -12856,7 +12862,7 @@
         <v>132</v>
       </c>
       <c r="P62" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13238,7 +13244,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13325,7 +13331,7 @@
         <v>1.67</v>
       </c>
       <c r="AS64">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT64">
         <v>0.71</v>
@@ -13429,7 +13435,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -13620,7 +13626,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -14575,7 +14581,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -14662,10 +14668,10 @@
         <v>1</v>
       </c>
       <c r="AS71">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT71">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU71">
         <v>2.04</v>
@@ -14766,7 +14772,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -15044,7 +15050,7 @@
         <v>1.25</v>
       </c>
       <c r="AS73">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT73">
         <v>0.71</v>
@@ -15148,7 +15154,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q74">
         <v>2</v>
@@ -15339,7 +15345,7 @@
         <v>143</v>
       </c>
       <c r="P75" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -15429,7 +15435,7 @@
         <v>0.86</v>
       </c>
       <c r="AT75">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU75">
         <v>1.39</v>
@@ -15617,7 +15623,7 @@
         <v>0.25</v>
       </c>
       <c r="AS76">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT76">
         <v>0.5</v>
@@ -16193,7 +16199,7 @@
         <v>2.13</v>
       </c>
       <c r="AT79">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU79">
         <v>1.75</v>
@@ -16294,7 +16300,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16763,7 +16769,7 @@
         <v>0.75</v>
       </c>
       <c r="AS82">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT82">
         <v>0.71</v>
@@ -17058,7 +17064,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q84">
         <v>12</v>
@@ -17145,7 +17151,7 @@
         <v>1.75</v>
       </c>
       <c r="AS84">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT84">
         <v>1.57</v>
@@ -17631,7 +17637,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17718,10 +17724,10 @@
         <v>1</v>
       </c>
       <c r="AS87">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT87">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU87">
         <v>2.04</v>
@@ -17822,7 +17828,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q88">
         <v>7</v>
@@ -18013,7 +18019,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18103,7 +18109,7 @@
         <v>1.17</v>
       </c>
       <c r="AT89">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU89">
         <v>1.64</v>
@@ -18204,7 +18210,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q90">
         <v>11</v>
@@ -18294,7 +18300,7 @@
         <v>2</v>
       </c>
       <c r="AT90">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU90">
         <v>2.25</v>
@@ -18395,7 +18401,7 @@
         <v>154</v>
       </c>
       <c r="P91" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18485,7 +18491,7 @@
         <v>0.57</v>
       </c>
       <c r="AT91">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU91">
         <v>2.09</v>
@@ -18676,7 +18682,7 @@
         <v>0.86</v>
       </c>
       <c r="AT92">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU92">
         <v>1.65</v>
@@ -18777,7 +18783,7 @@
         <v>155</v>
       </c>
       <c r="P93" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q93">
         <v>6</v>
@@ -19058,7 +19064,7 @@
         <v>1.5</v>
       </c>
       <c r="AT94">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU94">
         <v>1.72</v>
@@ -19159,7 +19165,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19249,7 +19255,7 @@
         <v>1.29</v>
       </c>
       <c r="AT95">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU95">
         <v>1.8</v>
@@ -19541,7 +19547,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q97">
         <v>7</v>
@@ -19923,7 +19929,7 @@
         <v>86</v>
       </c>
       <c r="P99" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q99">
         <v>8</v>
@@ -20010,7 +20016,7 @@
         <v>1.5</v>
       </c>
       <c r="AS99">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT99">
         <v>1.43</v>
@@ -20114,7 +20120,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20496,7 +20502,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -20583,7 +20589,7 @@
         <v>0.8</v>
       </c>
       <c r="AS102">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT102">
         <v>0.57</v>
@@ -20687,7 +20693,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -20774,7 +20780,7 @@
         <v>1</v>
       </c>
       <c r="AS103">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT103">
         <v>1.14</v>
@@ -20878,7 +20884,7 @@
         <v>86</v>
       </c>
       <c r="P104" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -21069,7 +21075,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21156,7 +21162,7 @@
         <v>2</v>
       </c>
       <c r="AS105">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT105">
         <v>1.57</v>
@@ -21642,7 +21648,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -21833,7 +21839,7 @@
         <v>86</v>
       </c>
       <c r="P109" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q109">
         <v>10</v>
@@ -22024,7 +22030,7 @@
         <v>86</v>
       </c>
       <c r="P110" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q110">
         <v>8</v>
@@ -22305,7 +22311,7 @@
         <v>2.13</v>
       </c>
       <c r="AT111">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU111">
         <v>1.85</v>
@@ -22684,7 +22690,7 @@
         <v>1.83</v>
       </c>
       <c r="AS113">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT113">
         <v>1.57</v>
@@ -22788,7 +22794,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q114">
         <v>9</v>
@@ -22875,7 +22881,7 @@
         <v>0.8</v>
       </c>
       <c r="AS114">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT114">
         <v>0.71</v>
@@ -23066,7 +23072,7 @@
         <v>0.6</v>
       </c>
       <c r="AS115">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT115">
         <v>0.57</v>
@@ -23170,7 +23176,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q116">
         <v>12</v>
@@ -23361,7 +23367,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q117">
         <v>8</v>
@@ -23451,7 +23457,7 @@
         <v>2.13</v>
       </c>
       <c r="AT117">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU117">
         <v>1.97</v>
@@ -23552,7 +23558,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q118">
         <v>2</v>
@@ -23642,7 +23648,7 @@
         <v>1.5</v>
       </c>
       <c r="AT118">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU118">
         <v>1.58</v>
@@ -23934,7 +23940,7 @@
         <v>174</v>
       </c>
       <c r="P120" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -24215,7 +24221,7 @@
         <v>0.57</v>
       </c>
       <c r="AT121">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU121">
         <v>2.06</v>
@@ -24403,7 +24409,7 @@
         <v>1.17</v>
       </c>
       <c r="AS122">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT122">
         <v>1</v>
@@ -24507,7 +24513,7 @@
         <v>177</v>
       </c>
       <c r="P123" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q123">
         <v>7</v>
@@ -25170,7 +25176,7 @@
         <v>1.5</v>
       </c>
       <c r="AT126">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU126">
         <v>1.81</v>
@@ -25271,7 +25277,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25653,7 +25659,7 @@
         <v>181</v>
       </c>
       <c r="P129" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -25934,7 +25940,7 @@
         <v>0.86</v>
       </c>
       <c r="AT130">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU130">
         <v>1.62</v>
@@ -26035,7 +26041,7 @@
         <v>183</v>
       </c>
       <c r="P131" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q131">
         <v>7</v>
@@ -26125,7 +26131,7 @@
         <v>1.17</v>
       </c>
       <c r="AT131">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU131">
         <v>1.72</v>
@@ -26226,7 +26232,7 @@
         <v>184</v>
       </c>
       <c r="P132" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26608,7 +26614,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -26799,7 +26805,7 @@
         <v>86</v>
       </c>
       <c r="P135" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q135">
         <v>10</v>
@@ -27080,7 +27086,7 @@
         <v>2</v>
       </c>
       <c r="AT136">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU136">
         <v>2.2</v>
@@ -27181,7 +27187,7 @@
         <v>187</v>
       </c>
       <c r="P137" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q137">
         <v>8</v>
@@ -27459,7 +27465,7 @@
         <v>1.14</v>
       </c>
       <c r="AS138">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT138">
         <v>1</v>
@@ -27841,7 +27847,7 @@
         <v>0.67</v>
       </c>
       <c r="AS140">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT140">
         <v>0.57</v>
@@ -27945,7 +27951,7 @@
         <v>86</v>
       </c>
       <c r="P141" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q141">
         <v>10</v>
@@ -28087,6 +28093,961 @@
       </c>
       <c r="BK141">
         <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:63">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>5406571</v>
+      </c>
+      <c r="C142" t="s">
+        <v>63</v>
+      </c>
+      <c r="D142" t="s">
+        <v>64</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45122.875</v>
+      </c>
+      <c r="F142">
+        <v>15</v>
+      </c>
+      <c r="G142" t="s">
+        <v>67</v>
+      </c>
+      <c r="H142" t="s">
+        <v>68</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>2</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>2</v>
+      </c>
+      <c r="O142" t="s">
+        <v>190</v>
+      </c>
+      <c r="P142" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q142">
+        <v>4</v>
+      </c>
+      <c r="R142">
+        <v>11</v>
+      </c>
+      <c r="S142">
+        <v>15</v>
+      </c>
+      <c r="T142">
+        <v>2.75</v>
+      </c>
+      <c r="U142">
+        <v>2.1</v>
+      </c>
+      <c r="V142">
+        <v>4.33</v>
+      </c>
+      <c r="W142">
+        <v>1.44</v>
+      </c>
+      <c r="X142">
+        <v>2.63</v>
+      </c>
+      <c r="Y142">
+        <v>3.25</v>
+      </c>
+      <c r="Z142">
+        <v>1.33</v>
+      </c>
+      <c r="AA142">
+        <v>10</v>
+      </c>
+      <c r="AB142">
+        <v>1.06</v>
+      </c>
+      <c r="AC142">
+        <v>1.95</v>
+      </c>
+      <c r="AD142">
+        <v>3.4</v>
+      </c>
+      <c r="AE142">
+        <v>4</v>
+      </c>
+      <c r="AF142">
+        <v>1.06</v>
+      </c>
+      <c r="AG142">
+        <v>7.5</v>
+      </c>
+      <c r="AH142">
+        <v>1.33</v>
+      </c>
+      <c r="AI142">
+        <v>3</v>
+      </c>
+      <c r="AJ142">
+        <v>2.1</v>
+      </c>
+      <c r="AK142">
+        <v>1.73</v>
+      </c>
+      <c r="AL142">
+        <v>1.91</v>
+      </c>
+      <c r="AM142">
+        <v>1.91</v>
+      </c>
+      <c r="AN142">
+        <v>1.3</v>
+      </c>
+      <c r="AO142">
+        <v>1.35</v>
+      </c>
+      <c r="AP142">
+        <v>1.7</v>
+      </c>
+      <c r="AQ142">
+        <v>3</v>
+      </c>
+      <c r="AR142">
+        <v>1.17</v>
+      </c>
+      <c r="AS142">
+        <v>3</v>
+      </c>
+      <c r="AT142">
+        <v>1</v>
+      </c>
+      <c r="AU142">
+        <v>1.98</v>
+      </c>
+      <c r="AV142">
+        <v>1.46</v>
+      </c>
+      <c r="AW142">
+        <v>3.44</v>
+      </c>
+      <c r="AX142">
+        <v>1.67</v>
+      </c>
+      <c r="AY142">
+        <v>8</v>
+      </c>
+      <c r="AZ142">
+        <v>2.55</v>
+      </c>
+      <c r="BA142">
+        <v>1.15</v>
+      </c>
+      <c r="BB142">
+        <v>1.3</v>
+      </c>
+      <c r="BC142">
+        <v>1.83</v>
+      </c>
+      <c r="BD142">
+        <v>1.97</v>
+      </c>
+      <c r="BE142">
+        <v>2.55</v>
+      </c>
+      <c r="BF142">
+        <v>4</v>
+      </c>
+      <c r="BG142">
+        <v>9</v>
+      </c>
+      <c r="BH142">
+        <v>7</v>
+      </c>
+      <c r="BI142">
+        <v>4</v>
+      </c>
+      <c r="BJ142">
+        <v>11</v>
+      </c>
+      <c r="BK142">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="1:63">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>5406575</v>
+      </c>
+      <c r="C143" t="s">
+        <v>63</v>
+      </c>
+      <c r="D143" t="s">
+        <v>64</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45123.45833333334</v>
+      </c>
+      <c r="F143">
+        <v>15</v>
+      </c>
+      <c r="G143" t="s">
+        <v>78</v>
+      </c>
+      <c r="H143" t="s">
+        <v>82</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+      <c r="O143" t="s">
+        <v>86</v>
+      </c>
+      <c r="P143" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q143">
+        <v>11</v>
+      </c>
+      <c r="R143">
+        <v>8</v>
+      </c>
+      <c r="S143">
+        <v>19</v>
+      </c>
+      <c r="T143">
+        <v>2.2</v>
+      </c>
+      <c r="U143">
+        <v>2.2</v>
+      </c>
+      <c r="V143">
+        <v>6</v>
+      </c>
+      <c r="W143">
+        <v>1.4</v>
+      </c>
+      <c r="X143">
+        <v>2.75</v>
+      </c>
+      <c r="Y143">
+        <v>3</v>
+      </c>
+      <c r="Z143">
+        <v>1.36</v>
+      </c>
+      <c r="AA143">
+        <v>8</v>
+      </c>
+      <c r="AB143">
+        <v>1.08</v>
+      </c>
+      <c r="AC143">
+        <v>1.59</v>
+      </c>
+      <c r="AD143">
+        <v>3.75</v>
+      </c>
+      <c r="AE143">
+        <v>4.9</v>
+      </c>
+      <c r="AF143">
+        <v>1.05</v>
+      </c>
+      <c r="AG143">
+        <v>8</v>
+      </c>
+      <c r="AH143">
+        <v>1.3</v>
+      </c>
+      <c r="AI143">
+        <v>3.2</v>
+      </c>
+      <c r="AJ143">
+        <v>2.04</v>
+      </c>
+      <c r="AK143">
+        <v>1.84</v>
+      </c>
+      <c r="AL143">
+        <v>2.05</v>
+      </c>
+      <c r="AM143">
+        <v>1.7</v>
+      </c>
+      <c r="AN143">
+        <v>1.15</v>
+      </c>
+      <c r="AO143">
+        <v>1.2</v>
+      </c>
+      <c r="AP143">
+        <v>2.3</v>
+      </c>
+      <c r="AQ143">
+        <v>1.29</v>
+      </c>
+      <c r="AR143">
+        <v>0.57</v>
+      </c>
+      <c r="AS143">
+        <v>1.25</v>
+      </c>
+      <c r="AT143">
+        <v>0.63</v>
+      </c>
+      <c r="AU143">
+        <v>1.72</v>
+      </c>
+      <c r="AV143">
+        <v>1.33</v>
+      </c>
+      <c r="AW143">
+        <v>3.05</v>
+      </c>
+      <c r="AX143">
+        <v>1.35</v>
+      </c>
+      <c r="AY143">
+        <v>10</v>
+      </c>
+      <c r="AZ143">
+        <v>3.85</v>
+      </c>
+      <c r="BA143">
+        <v>1.11</v>
+      </c>
+      <c r="BB143">
+        <v>1.2</v>
+      </c>
+      <c r="BC143">
+        <v>1.37</v>
+      </c>
+      <c r="BD143">
+        <v>1.64</v>
+      </c>
+      <c r="BE143">
+        <v>2.05</v>
+      </c>
+      <c r="BF143">
+        <v>3</v>
+      </c>
+      <c r="BG143">
+        <v>7</v>
+      </c>
+      <c r="BH143">
+        <v>8</v>
+      </c>
+      <c r="BI143">
+        <v>6</v>
+      </c>
+      <c r="BJ143">
+        <v>11</v>
+      </c>
+      <c r="BK143">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:63">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>5406572</v>
+      </c>
+      <c r="C144" t="s">
+        <v>63</v>
+      </c>
+      <c r="D144" t="s">
+        <v>64</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45123.66666666666</v>
+      </c>
+      <c r="F144">
+        <v>15</v>
+      </c>
+      <c r="G144" t="s">
+        <v>77</v>
+      </c>
+      <c r="H144" t="s">
+        <v>81</v>
+      </c>
+      <c r="I144">
+        <v>2</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>2</v>
+      </c>
+      <c r="L144">
+        <v>4</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+      <c r="N144">
+        <v>5</v>
+      </c>
+      <c r="O144" t="s">
+        <v>191</v>
+      </c>
+      <c r="P144" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q144">
+        <v>4</v>
+      </c>
+      <c r="R144">
+        <v>3</v>
+      </c>
+      <c r="S144">
+        <v>7</v>
+      </c>
+      <c r="T144">
+        <v>2.2</v>
+      </c>
+      <c r="U144">
+        <v>2.1</v>
+      </c>
+      <c r="V144">
+        <v>7</v>
+      </c>
+      <c r="W144">
+        <v>1.5</v>
+      </c>
+      <c r="X144">
+        <v>2.5</v>
+      </c>
+      <c r="Y144">
+        <v>3.5</v>
+      </c>
+      <c r="Z144">
+        <v>1.29</v>
+      </c>
+      <c r="AA144">
+        <v>11</v>
+      </c>
+      <c r="AB144">
+        <v>1.05</v>
+      </c>
+      <c r="AC144">
+        <v>1.75</v>
+      </c>
+      <c r="AD144">
+        <v>3.4</v>
+      </c>
+      <c r="AE144">
+        <v>5</v>
+      </c>
+      <c r="AF144">
+        <v>1.09</v>
+      </c>
+      <c r="AG144">
+        <v>6.75</v>
+      </c>
+      <c r="AH144">
+        <v>1.43</v>
+      </c>
+      <c r="AI144">
+        <v>2.6</v>
+      </c>
+      <c r="AJ144">
+        <v>2.25</v>
+      </c>
+      <c r="AK144">
+        <v>1.57</v>
+      </c>
+      <c r="AL144">
+        <v>2.38</v>
+      </c>
+      <c r="AM144">
+        <v>1.53</v>
+      </c>
+      <c r="AN144">
+        <v>1.14</v>
+      </c>
+      <c r="AO144">
+        <v>1.29</v>
+      </c>
+      <c r="AP144">
+        <v>2.21</v>
+      </c>
+      <c r="AQ144">
+        <v>2.57</v>
+      </c>
+      <c r="AR144">
+        <v>0.67</v>
+      </c>
+      <c r="AS144">
+        <v>2.63</v>
+      </c>
+      <c r="AT144">
+        <v>0.57</v>
+      </c>
+      <c r="AU144">
+        <v>1.84</v>
+      </c>
+      <c r="AV144">
+        <v>1.09</v>
+      </c>
+      <c r="AW144">
+        <v>2.93</v>
+      </c>
+      <c r="AX144">
+        <v>1.3</v>
+      </c>
+      <c r="AY144">
+        <v>10</v>
+      </c>
+      <c r="AZ144">
+        <v>4.35</v>
+      </c>
+      <c r="BA144">
+        <v>1.14</v>
+      </c>
+      <c r="BB144">
+        <v>1.28</v>
+      </c>
+      <c r="BC144">
+        <v>1.49</v>
+      </c>
+      <c r="BD144">
+        <v>1.8</v>
+      </c>
+      <c r="BE144">
+        <v>2.26</v>
+      </c>
+      <c r="BF144">
+        <v>8</v>
+      </c>
+      <c r="BG144">
+        <v>4</v>
+      </c>
+      <c r="BH144">
+        <v>16</v>
+      </c>
+      <c r="BI144">
+        <v>6</v>
+      </c>
+      <c r="BJ144">
+        <v>24</v>
+      </c>
+      <c r="BK144">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:63">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>5406570</v>
+      </c>
+      <c r="C145" t="s">
+        <v>63</v>
+      </c>
+      <c r="D145" t="s">
+        <v>64</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45123.66666666666</v>
+      </c>
+      <c r="F145">
+        <v>15</v>
+      </c>
+      <c r="G145" t="s">
+        <v>75</v>
+      </c>
+      <c r="H145" t="s">
+        <v>72</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+      <c r="O145" t="s">
+        <v>86</v>
+      </c>
+      <c r="P145" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q145">
+        <v>8</v>
+      </c>
+      <c r="R145">
+        <v>1</v>
+      </c>
+      <c r="S145">
+        <v>9</v>
+      </c>
+      <c r="T145">
+        <v>3.4</v>
+      </c>
+      <c r="U145">
+        <v>2.2</v>
+      </c>
+      <c r="V145">
+        <v>3</v>
+      </c>
+      <c r="W145">
+        <v>1.4</v>
+      </c>
+      <c r="X145">
+        <v>2.75</v>
+      </c>
+      <c r="Y145">
+        <v>2.75</v>
+      </c>
+      <c r="Z145">
+        <v>1.4</v>
+      </c>
+      <c r="AA145">
+        <v>8</v>
+      </c>
+      <c r="AB145">
+        <v>1.08</v>
+      </c>
+      <c r="AC145">
+        <v>2.7</v>
+      </c>
+      <c r="AD145">
+        <v>3.2</v>
+      </c>
+      <c r="AE145">
+        <v>2.6</v>
+      </c>
+      <c r="AF145">
+        <v>1.05</v>
+      </c>
+      <c r="AG145">
+        <v>9.25</v>
+      </c>
+      <c r="AH145">
+        <v>1.27</v>
+      </c>
+      <c r="AI145">
+        <v>3.4</v>
+      </c>
+      <c r="AJ145">
+        <v>1.8</v>
+      </c>
+      <c r="AK145">
+        <v>1.9</v>
+      </c>
+      <c r="AL145">
+        <v>1.7</v>
+      </c>
+      <c r="AM145">
+        <v>2.05</v>
+      </c>
+      <c r="AN145">
+        <v>1.56</v>
+      </c>
+      <c r="AO145">
+        <v>1.33</v>
+      </c>
+      <c r="AP145">
+        <v>1.41</v>
+      </c>
+      <c r="AQ145">
+        <v>2.43</v>
+      </c>
+      <c r="AR145">
+        <v>1.43</v>
+      </c>
+      <c r="AS145">
+        <v>2.25</v>
+      </c>
+      <c r="AT145">
+        <v>1.38</v>
+      </c>
+      <c r="AU145">
+        <v>1.84</v>
+      </c>
+      <c r="AV145">
+        <v>1.39</v>
+      </c>
+      <c r="AW145">
+        <v>3.23</v>
+      </c>
+      <c r="AX145">
+        <v>1.8</v>
+      </c>
+      <c r="AY145">
+        <v>8.5</v>
+      </c>
+      <c r="AZ145">
+        <v>2.28</v>
+      </c>
+      <c r="BA145">
+        <v>1.13</v>
+      </c>
+      <c r="BB145">
+        <v>1.26</v>
+      </c>
+      <c r="BC145">
+        <v>1.46</v>
+      </c>
+      <c r="BD145">
+        <v>1.75</v>
+      </c>
+      <c r="BE145">
+        <v>2.2</v>
+      </c>
+      <c r="BF145">
+        <v>10</v>
+      </c>
+      <c r="BG145">
+        <v>5</v>
+      </c>
+      <c r="BH145">
+        <v>8</v>
+      </c>
+      <c r="BI145">
+        <v>5</v>
+      </c>
+      <c r="BJ145">
+        <v>18</v>
+      </c>
+      <c r="BK145">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:63">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>5406578</v>
+      </c>
+      <c r="C146" t="s">
+        <v>63</v>
+      </c>
+      <c r="D146" t="s">
+        <v>64</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45123.66666666666</v>
+      </c>
+      <c r="F146">
+        <v>15</v>
+      </c>
+      <c r="G146" t="s">
+        <v>70</v>
+      </c>
+      <c r="H146" t="s">
+        <v>76</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+      <c r="N146">
+        <v>1</v>
+      </c>
+      <c r="O146" t="s">
+        <v>86</v>
+      </c>
+      <c r="P146" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q146">
+        <v>10</v>
+      </c>
+      <c r="R146">
+        <v>0</v>
+      </c>
+      <c r="S146">
+        <v>10</v>
+      </c>
+      <c r="T146">
+        <v>2.3</v>
+      </c>
+      <c r="U146">
+        <v>2.1</v>
+      </c>
+      <c r="V146">
+        <v>5.5</v>
+      </c>
+      <c r="W146">
+        <v>1.44</v>
+      </c>
+      <c r="X146">
+        <v>2.63</v>
+      </c>
+      <c r="Y146">
+        <v>3.4</v>
+      </c>
+      <c r="Z146">
+        <v>1.3</v>
+      </c>
+      <c r="AA146">
+        <v>10</v>
+      </c>
+      <c r="AB146">
+        <v>1.06</v>
+      </c>
+      <c r="AC146">
+        <v>1.55</v>
+      </c>
+      <c r="AD146">
+        <v>3.9</v>
+      </c>
+      <c r="AE146">
+        <v>6</v>
+      </c>
+      <c r="AF146">
+        <v>1.04</v>
+      </c>
+      <c r="AG146">
+        <v>7.7</v>
+      </c>
+      <c r="AH146">
+        <v>1.36</v>
+      </c>
+      <c r="AI146">
+        <v>2.83</v>
+      </c>
+      <c r="AJ146">
+        <v>2.1</v>
+      </c>
+      <c r="AK146">
+        <v>1.65</v>
+      </c>
+      <c r="AL146">
+        <v>2.1</v>
+      </c>
+      <c r="AM146">
+        <v>1.67</v>
+      </c>
+      <c r="AN146">
+        <v>1.14</v>
+      </c>
+      <c r="AO146">
+        <v>1.27</v>
+      </c>
+      <c r="AP146">
+        <v>2.22</v>
+      </c>
+      <c r="AQ146">
+        <v>2.14</v>
+      </c>
+      <c r="AR146">
+        <v>1.43</v>
+      </c>
+      <c r="AS146">
+        <v>1.88</v>
+      </c>
+      <c r="AT146">
+        <v>1.63</v>
+      </c>
+      <c r="AU146">
+        <v>1.83</v>
+      </c>
+      <c r="AV146">
+        <v>1.46</v>
+      </c>
+      <c r="AW146">
+        <v>3.29</v>
+      </c>
+      <c r="AX146">
+        <v>1.52</v>
+      </c>
+      <c r="AY146">
+        <v>8.5</v>
+      </c>
+      <c r="AZ146">
+        <v>2.95</v>
+      </c>
+      <c r="BA146">
+        <v>1.16</v>
+      </c>
+      <c r="BB146">
+        <v>1.32</v>
+      </c>
+      <c r="BC146">
+        <v>1.91</v>
+      </c>
+      <c r="BD146">
+        <v>1.88</v>
+      </c>
+      <c r="BE146">
+        <v>2.4</v>
+      </c>
+      <c r="BF146">
+        <v>8</v>
+      </c>
+      <c r="BG146">
+        <v>2</v>
+      </c>
+      <c r="BH146">
+        <v>17</v>
+      </c>
+      <c r="BI146">
+        <v>6</v>
+      </c>
+      <c r="BJ146">
+        <v>25</v>
+      </c>
+      <c r="BK146">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="262">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -592,6 +592,9 @@
     <t>['22', '45+1', '79', '88']</t>
   </si>
   <si>
+    <t>['24', '35']</t>
+  </si>
+  <si>
     <t>['45+7']</t>
   </si>
   <si>
@@ -1158,7 +1161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK146"/>
+  <dimension ref="A1:BK149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1402,7 +1405,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1593,7 +1596,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q3">
         <v>11</v>
@@ -1784,7 +1787,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2065,7 +2068,7 @@
         <v>2.13</v>
       </c>
       <c r="AT5">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2253,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT6">
         <v>0.5</v>
@@ -2357,7 +2360,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2548,7 +2551,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q8">
         <v>14</v>
@@ -2930,7 +2933,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3503,7 +3506,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -4076,7 +4079,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4163,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT16">
         <v>1.38</v>
@@ -4267,7 +4270,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4357,7 +4360,7 @@
         <v>0.57</v>
       </c>
       <c r="AT17">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4548,7 +4551,7 @@
         <v>1.5</v>
       </c>
       <c r="AT18">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4649,7 +4652,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4927,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT20">
         <v>0.75</v>
@@ -5031,7 +5034,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5413,7 +5416,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -5604,7 +5607,7 @@
         <v>86</v>
       </c>
       <c r="P24" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5795,7 +5798,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -5986,7 +5989,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q26">
         <v>12</v>
@@ -6177,7 +6180,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6368,7 +6371,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6646,7 +6649,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT29">
         <v>0.5</v>
@@ -6750,7 +6753,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -7031,7 +7034,7 @@
         <v>0.57</v>
       </c>
       <c r="AT31">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU31">
         <v>1.31</v>
@@ -7132,7 +7135,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7323,7 +7326,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7514,7 +7517,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7896,7 +7899,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8087,7 +8090,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -8174,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT37">
         <v>1.38</v>
@@ -8368,7 +8371,7 @@
         <v>3</v>
       </c>
       <c r="AT38">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU38">
         <v>1.26</v>
@@ -8469,7 +8472,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8556,10 +8559,10 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT39">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU39">
         <v>1.92</v>
@@ -8660,7 +8663,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8851,7 +8854,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9042,7 +9045,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9129,7 +9132,7 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT42">
         <v>0.57</v>
@@ -9323,7 +9326,7 @@
         <v>1.5</v>
       </c>
       <c r="AT43">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU43">
         <v>1.33</v>
@@ -9424,7 +9427,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9806,7 +9809,7 @@
         <v>86</v>
       </c>
       <c r="P46" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -9896,7 +9899,7 @@
         <v>0.86</v>
       </c>
       <c r="AT46">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU46">
         <v>1.7</v>
@@ -9997,7 +10000,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q47">
         <v>7</v>
@@ -10188,7 +10191,7 @@
         <v>86</v>
       </c>
       <c r="P48" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q48">
         <v>16</v>
@@ -10379,7 +10382,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10952,7 +10955,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q52">
         <v>10</v>
@@ -11334,7 +11337,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q54">
         <v>15</v>
@@ -11907,7 +11910,7 @@
         <v>129</v>
       </c>
       <c r="P57" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12376,7 +12379,7 @@
         <v>3</v>
       </c>
       <c r="AS59">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT59">
         <v>2.14</v>
@@ -12480,7 +12483,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12567,7 +12570,7 @@
         <v>0</v>
       </c>
       <c r="AS60">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT60">
         <v>0.63</v>
@@ -12671,7 +12674,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -12862,7 +12865,7 @@
         <v>132</v>
       </c>
       <c r="P62" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13244,7 +13247,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13435,7 +13438,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -13626,7 +13629,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13716,7 +13719,7 @@
         <v>0.86</v>
       </c>
       <c r="AT66">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU66">
         <v>1.63</v>
@@ -14098,7 +14101,7 @@
         <v>1.5</v>
       </c>
       <c r="AT68">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU68">
         <v>1.5</v>
@@ -14581,7 +14584,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -14772,7 +14775,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -14859,7 +14862,7 @@
         <v>1</v>
       </c>
       <c r="AS72">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT72">
         <v>1.5</v>
@@ -15154,7 +15157,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q74">
         <v>2</v>
@@ -15345,7 +15348,7 @@
         <v>143</v>
       </c>
       <c r="P75" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -16005,10 +16008,10 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT78">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU78">
         <v>1.65</v>
@@ -16300,7 +16303,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16390,7 +16393,7 @@
         <v>1.29</v>
       </c>
       <c r="AT80">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU80">
         <v>1.95</v>
@@ -16772,7 +16775,7 @@
         <v>1.88</v>
       </c>
       <c r="AT82">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU82">
         <v>2.14</v>
@@ -16960,7 +16963,7 @@
         <v>2</v>
       </c>
       <c r="AS83">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT83">
         <v>2.14</v>
@@ -17064,7 +17067,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q84">
         <v>12</v>
@@ -17154,7 +17157,7 @@
         <v>1.25</v>
       </c>
       <c r="AT84">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU84">
         <v>2.07</v>
@@ -17637,7 +17640,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17828,7 +17831,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q88">
         <v>7</v>
@@ -18019,7 +18022,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18106,7 +18109,7 @@
         <v>1.5</v>
       </c>
       <c r="AS89">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT89">
         <v>1.63</v>
@@ -18210,7 +18213,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q90">
         <v>11</v>
@@ -18401,7 +18404,7 @@
         <v>154</v>
       </c>
       <c r="P91" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18783,7 +18786,7 @@
         <v>155</v>
       </c>
       <c r="P93" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q93">
         <v>6</v>
@@ -19165,7 +19168,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19547,7 +19550,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q97">
         <v>7</v>
@@ -19825,7 +19828,7 @@
         <v>1</v>
       </c>
       <c r="AS98">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT98">
         <v>0.71</v>
@@ -19929,7 +19932,7 @@
         <v>86</v>
       </c>
       <c r="P99" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q99">
         <v>8</v>
@@ -20019,7 +20022,7 @@
         <v>2.63</v>
       </c>
       <c r="AT99">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU99">
         <v>1.67</v>
@@ -20120,7 +20123,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20207,7 +20210,7 @@
         <v>1.2</v>
       </c>
       <c r="AS100">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT100">
         <v>1</v>
@@ -20502,7 +20505,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -20693,7 +20696,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -20884,7 +20887,7 @@
         <v>86</v>
       </c>
       <c r="P104" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -21075,7 +21078,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21165,7 +21168,7 @@
         <v>2.25</v>
       </c>
       <c r="AT105">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU105">
         <v>1.92</v>
@@ -21356,7 +21359,7 @@
         <v>1.14</v>
       </c>
       <c r="AT106">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU106">
         <v>1.76</v>
@@ -21648,7 +21651,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -21839,7 +21842,7 @@
         <v>86</v>
       </c>
       <c r="P109" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q109">
         <v>10</v>
@@ -22030,7 +22033,7 @@
         <v>86</v>
       </c>
       <c r="P110" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q110">
         <v>8</v>
@@ -22499,7 +22502,7 @@
         <v>0.5</v>
       </c>
       <c r="AS112">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT112">
         <v>0.75</v>
@@ -22693,7 +22696,7 @@
         <v>1.88</v>
       </c>
       <c r="AT113">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU113">
         <v>1.99</v>
@@ -22794,7 +22797,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q114">
         <v>9</v>
@@ -22884,7 +22887,7 @@
         <v>2.25</v>
       </c>
       <c r="AT114">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU114">
         <v>1.76</v>
@@ -23176,7 +23179,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q116">
         <v>12</v>
@@ -23367,7 +23370,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q117">
         <v>8</v>
@@ -23558,7 +23561,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q118">
         <v>2</v>
@@ -23940,7 +23943,7 @@
         <v>174</v>
       </c>
       <c r="P120" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -24513,7 +24516,7 @@
         <v>177</v>
       </c>
       <c r="P123" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q123">
         <v>7</v>
@@ -24982,7 +24985,7 @@
         <v>1.6</v>
       </c>
       <c r="AS125">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT125">
         <v>1.71</v>
@@ -25277,7 +25280,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25364,10 +25367,10 @@
         <v>1.5</v>
       </c>
       <c r="AS127">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT127">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU127">
         <v>1.93</v>
@@ -25659,7 +25662,7 @@
         <v>181</v>
       </c>
       <c r="P129" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -26041,7 +26044,7 @@
         <v>183</v>
       </c>
       <c r="P131" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q131">
         <v>7</v>
@@ -26128,7 +26131,7 @@
         <v>0.17</v>
       </c>
       <c r="AS131">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT131">
         <v>0.63</v>
@@ -26232,7 +26235,7 @@
         <v>184</v>
       </c>
       <c r="P132" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26322,7 +26325,7 @@
         <v>0.86</v>
       </c>
       <c r="AT132">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU132">
         <v>1.61</v>
@@ -26614,7 +26617,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -26805,7 +26808,7 @@
         <v>86</v>
       </c>
       <c r="P135" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q135">
         <v>10</v>
@@ -27187,7 +27190,7 @@
         <v>187</v>
       </c>
       <c r="P137" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q137">
         <v>8</v>
@@ -27951,7 +27954,7 @@
         <v>86</v>
       </c>
       <c r="P141" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q141">
         <v>10</v>
@@ -29048,6 +29051,579 @@
       </c>
       <c r="BK146">
         <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:63">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>5406576</v>
+      </c>
+      <c r="C147" t="s">
+        <v>63</v>
+      </c>
+      <c r="D147" t="s">
+        <v>64</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45123.77083333334</v>
+      </c>
+      <c r="F147">
+        <v>15</v>
+      </c>
+      <c r="G147" t="s">
+        <v>79</v>
+      </c>
+      <c r="H147" t="s">
+        <v>65</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+      <c r="O147" t="s">
+        <v>86</v>
+      </c>
+      <c r="P147" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q147">
+        <v>4</v>
+      </c>
+      <c r="R147">
+        <v>7</v>
+      </c>
+      <c r="S147">
+        <v>11</v>
+      </c>
+      <c r="T147">
+        <v>3.6</v>
+      </c>
+      <c r="U147">
+        <v>2.05</v>
+      </c>
+      <c r="V147">
+        <v>3.25</v>
+      </c>
+      <c r="W147">
+        <v>1.44</v>
+      </c>
+      <c r="X147">
+        <v>2.63</v>
+      </c>
+      <c r="Y147">
+        <v>3.4</v>
+      </c>
+      <c r="Z147">
+        <v>1.3</v>
+      </c>
+      <c r="AA147">
+        <v>10</v>
+      </c>
+      <c r="AB147">
+        <v>1.06</v>
+      </c>
+      <c r="AC147">
+        <v>3.2</v>
+      </c>
+      <c r="AD147">
+        <v>3.2</v>
+      </c>
+      <c r="AE147">
+        <v>2.3</v>
+      </c>
+      <c r="AF147">
+        <v>1.04</v>
+      </c>
+      <c r="AG147">
+        <v>7.5</v>
+      </c>
+      <c r="AH147">
+        <v>1.37</v>
+      </c>
+      <c r="AI147">
+        <v>2.79</v>
+      </c>
+      <c r="AJ147">
+        <v>2.1</v>
+      </c>
+      <c r="AK147">
+        <v>1.65</v>
+      </c>
+      <c r="AL147">
+        <v>1.95</v>
+      </c>
+      <c r="AM147">
+        <v>1.8</v>
+      </c>
+      <c r="AN147">
+        <v>1.52</v>
+      </c>
+      <c r="AO147">
+        <v>1.37</v>
+      </c>
+      <c r="AP147">
+        <v>1.28</v>
+      </c>
+      <c r="AQ147">
+        <v>2.17</v>
+      </c>
+      <c r="AR147">
+        <v>1.43</v>
+      </c>
+      <c r="AS147">
+        <v>2</v>
+      </c>
+      <c r="AT147">
+        <v>1.38</v>
+      </c>
+      <c r="AU147">
+        <v>1.44</v>
+      </c>
+      <c r="AV147">
+        <v>1.42</v>
+      </c>
+      <c r="AW147">
+        <v>2.86</v>
+      </c>
+      <c r="AX147">
+        <v>2.1</v>
+      </c>
+      <c r="AY147">
+        <v>8</v>
+      </c>
+      <c r="AZ147">
+        <v>1.95</v>
+      </c>
+      <c r="BA147">
+        <v>1.14</v>
+      </c>
+      <c r="BB147">
+        <v>1.28</v>
+      </c>
+      <c r="BC147">
+        <v>1.49</v>
+      </c>
+      <c r="BD147">
+        <v>1.8</v>
+      </c>
+      <c r="BE147">
+        <v>2.26</v>
+      </c>
+      <c r="BF147">
+        <v>5</v>
+      </c>
+      <c r="BG147">
+        <v>6</v>
+      </c>
+      <c r="BH147">
+        <v>4</v>
+      </c>
+      <c r="BI147">
+        <v>5</v>
+      </c>
+      <c r="BJ147">
+        <v>9</v>
+      </c>
+      <c r="BK147">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:63">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>5406577</v>
+      </c>
+      <c r="C148" t="s">
+        <v>63</v>
+      </c>
+      <c r="D148" t="s">
+        <v>64</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45123.77083333334</v>
+      </c>
+      <c r="F148">
+        <v>15</v>
+      </c>
+      <c r="G148" t="s">
+        <v>69</v>
+      </c>
+      <c r="H148" t="s">
+        <v>84</v>
+      </c>
+      <c r="I148">
+        <v>2</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>2</v>
+      </c>
+      <c r="L148">
+        <v>2</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>2</v>
+      </c>
+      <c r="O148" t="s">
+        <v>192</v>
+      </c>
+      <c r="P148" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q148">
+        <v>5</v>
+      </c>
+      <c r="R148">
+        <v>3</v>
+      </c>
+      <c r="S148">
+        <v>8</v>
+      </c>
+      <c r="T148">
+        <v>2.1</v>
+      </c>
+      <c r="U148">
+        <v>2.3</v>
+      </c>
+      <c r="V148">
+        <v>6</v>
+      </c>
+      <c r="W148">
+        <v>1.44</v>
+      </c>
+      <c r="X148">
+        <v>2.63</v>
+      </c>
+      <c r="Y148">
+        <v>3</v>
+      </c>
+      <c r="Z148">
+        <v>1.36</v>
+      </c>
+      <c r="AA148">
+        <v>9</v>
+      </c>
+      <c r="AB148">
+        <v>1.07</v>
+      </c>
+      <c r="AC148">
+        <v>1.73</v>
+      </c>
+      <c r="AD148">
+        <v>3.5</v>
+      </c>
+      <c r="AE148">
+        <v>5</v>
+      </c>
+      <c r="AF148">
+        <v>1.02</v>
+      </c>
+      <c r="AG148">
+        <v>8.6</v>
+      </c>
+      <c r="AH148">
+        <v>1.31</v>
+      </c>
+      <c r="AI148">
+        <v>3.08</v>
+      </c>
+      <c r="AJ148">
+        <v>1.9</v>
+      </c>
+      <c r="AK148">
+        <v>1.8</v>
+      </c>
+      <c r="AL148">
+        <v>1.95</v>
+      </c>
+      <c r="AM148">
+        <v>1.8</v>
+      </c>
+      <c r="AN148">
+        <v>1.05</v>
+      </c>
+      <c r="AO148">
+        <v>1.27</v>
+      </c>
+      <c r="AP148">
+        <v>2.35</v>
+      </c>
+      <c r="AQ148">
+        <v>2.29</v>
+      </c>
+      <c r="AR148">
+        <v>0.71</v>
+      </c>
+      <c r="AS148">
+        <v>2.38</v>
+      </c>
+      <c r="AT148">
+        <v>0.63</v>
+      </c>
+      <c r="AU148">
+        <v>2.05</v>
+      </c>
+      <c r="AV148">
+        <v>1.31</v>
+      </c>
+      <c r="AW148">
+        <v>3.36</v>
+      </c>
+      <c r="AX148">
+        <v>1.74</v>
+      </c>
+      <c r="AY148">
+        <v>8.5</v>
+      </c>
+      <c r="AZ148">
+        <v>2.4</v>
+      </c>
+      <c r="BA148">
+        <v>1.14</v>
+      </c>
+      <c r="BB148">
+        <v>1.28</v>
+      </c>
+      <c r="BC148">
+        <v>1.49</v>
+      </c>
+      <c r="BD148">
+        <v>1.8</v>
+      </c>
+      <c r="BE148">
+        <v>2.26</v>
+      </c>
+      <c r="BF148">
+        <v>8</v>
+      </c>
+      <c r="BG148">
+        <v>7</v>
+      </c>
+      <c r="BH148">
+        <v>5</v>
+      </c>
+      <c r="BI148">
+        <v>2</v>
+      </c>
+      <c r="BJ148">
+        <v>13</v>
+      </c>
+      <c r="BK148">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:63">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>5406574</v>
+      </c>
+      <c r="C149" t="s">
+        <v>63</v>
+      </c>
+      <c r="D149" t="s">
+        <v>64</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45124.83333333334</v>
+      </c>
+      <c r="F149">
+        <v>15</v>
+      </c>
+      <c r="G149" t="s">
+        <v>83</v>
+      </c>
+      <c r="H149" t="s">
+        <v>71</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+      <c r="O149" t="s">
+        <v>86</v>
+      </c>
+      <c r="P149" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q149">
+        <v>6</v>
+      </c>
+      <c r="R149">
+        <v>4</v>
+      </c>
+      <c r="S149">
+        <v>10</v>
+      </c>
+      <c r="T149">
+        <v>4.75</v>
+      </c>
+      <c r="U149">
+        <v>2.05</v>
+      </c>
+      <c r="V149">
+        <v>2.63</v>
+      </c>
+      <c r="W149">
+        <v>1.53</v>
+      </c>
+      <c r="X149">
+        <v>2.38</v>
+      </c>
+      <c r="Y149">
+        <v>3.5</v>
+      </c>
+      <c r="Z149">
+        <v>1.29</v>
+      </c>
+      <c r="AA149">
+        <v>11</v>
+      </c>
+      <c r="AB149">
+        <v>1.05</v>
+      </c>
+      <c r="AC149">
+        <v>4.2</v>
+      </c>
+      <c r="AD149">
+        <v>3.5</v>
+      </c>
+      <c r="AE149">
+        <v>1.95</v>
+      </c>
+      <c r="AF149">
+        <v>1.08</v>
+      </c>
+      <c r="AG149">
+        <v>8</v>
+      </c>
+      <c r="AH149">
+        <v>1.44</v>
+      </c>
+      <c r="AI149">
+        <v>2.75</v>
+      </c>
+      <c r="AJ149">
+        <v>2.1</v>
+      </c>
+      <c r="AK149">
+        <v>1.73</v>
+      </c>
+      <c r="AL149">
+        <v>1.95</v>
+      </c>
+      <c r="AM149">
+        <v>1.8</v>
+      </c>
+      <c r="AN149">
+        <v>1.91</v>
+      </c>
+      <c r="AO149">
+        <v>1.3</v>
+      </c>
+      <c r="AP149">
+        <v>1.2</v>
+      </c>
+      <c r="AQ149">
+        <v>1.17</v>
+      </c>
+      <c r="AR149">
+        <v>1.57</v>
+      </c>
+      <c r="AS149">
+        <v>1.14</v>
+      </c>
+      <c r="AT149">
+        <v>1.5</v>
+      </c>
+      <c r="AU149">
+        <v>1.79</v>
+      </c>
+      <c r="AV149">
+        <v>1.45</v>
+      </c>
+      <c r="AW149">
+        <v>3.24</v>
+      </c>
+      <c r="AX149">
+        <v>2.55</v>
+      </c>
+      <c r="AY149">
+        <v>8</v>
+      </c>
+      <c r="AZ149">
+        <v>1.65</v>
+      </c>
+      <c r="BA149">
+        <v>1.16</v>
+      </c>
+      <c r="BB149">
+        <v>1.33</v>
+      </c>
+      <c r="BC149">
+        <v>2.2</v>
+      </c>
+      <c r="BD149">
+        <v>2.02</v>
+      </c>
+      <c r="BE149">
+        <v>2.62</v>
+      </c>
+      <c r="BF149">
+        <v>4</v>
+      </c>
+      <c r="BG149">
+        <v>2</v>
+      </c>
+      <c r="BH149">
+        <v>13</v>
+      </c>
+      <c r="BI149">
+        <v>4</v>
+      </c>
+      <c r="BJ149">
+        <v>17</v>
+      </c>
+      <c r="BK149">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="269">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -610,6 +610,9 @@
     <t>['24', '81']</t>
   </si>
   <si>
+    <t>['24', '28']</t>
+  </si>
+  <si>
     <t>['45+7']</t>
   </si>
   <si>
@@ -1179,7 +1182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK158"/>
+  <dimension ref="A1:BK159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1423,7 +1426,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1614,7 +1617,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q3">
         <v>11</v>
@@ -1704,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="AT3">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1805,7 +1808,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2378,7 +2381,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2569,7 +2572,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q8">
         <v>14</v>
@@ -3524,7 +3527,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -4097,7 +4100,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4479,7 +4482,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4670,7 +4673,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4757,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT19">
         <v>1</v>
@@ -5052,7 +5055,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5243,7 +5246,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -5333,7 +5336,7 @@
         <v>1.88</v>
       </c>
       <c r="AT22">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU22">
         <v>1.91</v>
@@ -5521,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT23">
         <v>0.5</v>
@@ -5625,7 +5628,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q24">
         <v>12</v>
@@ -5816,7 +5819,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -6007,7 +6010,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -6198,7 +6201,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6389,7 +6392,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6580,7 +6583,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -7153,7 +7156,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7344,7 +7347,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7535,7 +7538,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7917,7 +7920,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -8108,7 +8111,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8490,7 +8493,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8681,7 +8684,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8872,7 +8875,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9063,7 +9066,7 @@
         <v>119</v>
       </c>
       <c r="P42" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9445,7 +9448,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9827,7 +9830,7 @@
         <v>86</v>
       </c>
       <c r="P46" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10018,7 +10021,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q47">
         <v>16</v>
@@ -10108,7 +10111,7 @@
         <v>1.11</v>
       </c>
       <c r="AT47">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU47">
         <v>1.63</v>
@@ -10209,7 +10212,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10400,7 +10403,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10487,7 +10490,7 @@
         <v>2</v>
       </c>
       <c r="AS49">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT49">
         <v>0.71</v>
@@ -10973,7 +10976,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q52">
         <v>10</v>
@@ -11164,7 +11167,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q53">
         <v>15</v>
@@ -11737,7 +11740,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12501,7 +12504,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12692,7 +12695,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -12883,7 +12886,7 @@
         <v>132</v>
       </c>
       <c r="P62" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13074,7 +13077,7 @@
         <v>133</v>
       </c>
       <c r="P63" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q63">
         <v>1</v>
@@ -13456,7 +13459,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13543,7 +13546,7 @@
         <v>1.33</v>
       </c>
       <c r="AS65">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT65">
         <v>1.33</v>
@@ -13647,7 +13650,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -13928,7 +13931,7 @@
         <v>3</v>
       </c>
       <c r="AT67">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU67">
         <v>1.76</v>
@@ -14602,7 +14605,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -14793,7 +14796,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -15175,7 +15178,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q74">
         <v>2</v>
@@ -15366,7 +15369,7 @@
         <v>143</v>
       </c>
       <c r="P75" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -15838,7 +15841,7 @@
         <v>1.5</v>
       </c>
       <c r="AT77">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU77">
         <v>1.79</v>
@@ -16321,7 +16324,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17276,7 +17279,7 @@
         <v>86</v>
       </c>
       <c r="P85" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q85">
         <v>12</v>
@@ -17658,7 +17661,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17849,7 +17852,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q88">
         <v>7</v>
@@ -18040,7 +18043,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q89">
         <v>11</v>
@@ -18231,7 +18234,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18422,7 +18425,7 @@
         <v>154</v>
       </c>
       <c r="P91" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18700,7 +18703,7 @@
         <v>0.75</v>
       </c>
       <c r="AS92">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT92">
         <v>0.57</v>
@@ -18804,7 +18807,7 @@
         <v>155</v>
       </c>
       <c r="P93" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q93">
         <v>6</v>
@@ -18995,7 +18998,7 @@
         <v>156</v>
       </c>
       <c r="P94" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q94">
         <v>7</v>
@@ -19568,7 +19571,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q97">
         <v>7</v>
@@ -19759,7 +19762,7 @@
         <v>86</v>
       </c>
       <c r="P98" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -20141,7 +20144,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20231,7 +20234,7 @@
         <v>1.14</v>
       </c>
       <c r="AT100">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU100">
         <v>1.59</v>
@@ -20714,7 +20717,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -20905,7 +20908,7 @@
         <v>86</v>
       </c>
       <c r="P104" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -21096,7 +21099,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21669,7 +21672,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q108">
         <v>8</v>
@@ -21860,7 +21863,7 @@
         <v>86</v>
       </c>
       <c r="P109" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -22051,7 +22054,7 @@
         <v>86</v>
       </c>
       <c r="P110" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q110">
         <v>10</v>
@@ -22138,7 +22141,7 @@
         <v>0.4</v>
       </c>
       <c r="AS110">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT110">
         <v>1</v>
@@ -22624,7 +22627,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -23197,7 +23200,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q116">
         <v>12</v>
@@ -23388,7 +23391,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q117">
         <v>8</v>
@@ -23579,7 +23582,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -23770,7 +23773,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q119">
         <v>2</v>
@@ -24433,7 +24436,7 @@
         <v>2.63</v>
       </c>
       <c r="AT122">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU122">
         <v>1.74</v>
@@ -24725,7 +24728,7 @@
         <v>178</v>
       </c>
       <c r="P124" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q124">
         <v>7</v>
@@ -25298,7 +25301,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25489,7 +25492,7 @@
         <v>180</v>
       </c>
       <c r="P128" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q128">
         <v>7</v>
@@ -26062,7 +26065,7 @@
         <v>183</v>
       </c>
       <c r="P131" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q131">
         <v>7</v>
@@ -26253,7 +26256,7 @@
         <v>184</v>
       </c>
       <c r="P132" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26635,7 +26638,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -26722,7 +26725,7 @@
         <v>0.33</v>
       </c>
       <c r="AS134">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT134">
         <v>0.38</v>
@@ -26826,7 +26829,7 @@
         <v>86</v>
       </c>
       <c r="P135" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q135">
         <v>10</v>
@@ -27208,7 +27211,7 @@
         <v>187</v>
       </c>
       <c r="P137" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q137">
         <v>8</v>
@@ -27972,7 +27975,7 @@
         <v>86</v>
       </c>
       <c r="P141" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q141">
         <v>10</v>
@@ -30264,7 +30267,7 @@
         <v>195</v>
       </c>
       <c r="P153" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q153">
         <v>2</v>
@@ -30646,7 +30649,7 @@
         <v>197</v>
       </c>
       <c r="P155" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q155">
         <v>2</v>
@@ -31028,7 +31031,7 @@
         <v>86</v>
       </c>
       <c r="P157" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q157">
         <v>13</v>
@@ -31219,7 +31222,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q158">
         <v>8</v>
@@ -31361,6 +31364,197 @@
       </c>
       <c r="BK158">
         <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:63">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>5406587</v>
+      </c>
+      <c r="C159" t="s">
+        <v>63</v>
+      </c>
+      <c r="D159" t="s">
+        <v>64</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45131.79166666666</v>
+      </c>
+      <c r="F159">
+        <v>16</v>
+      </c>
+      <c r="G159" t="s">
+        <v>82</v>
+      </c>
+      <c r="H159" t="s">
+        <v>75</v>
+      </c>
+      <c r="I159">
+        <v>2</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>2</v>
+      </c>
+      <c r="L159">
+        <v>2</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>2</v>
+      </c>
+      <c r="O159" t="s">
+        <v>198</v>
+      </c>
+      <c r="P159" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q159">
+        <v>7</v>
+      </c>
+      <c r="R159">
+        <v>11</v>
+      </c>
+      <c r="S159">
+        <v>18</v>
+      </c>
+      <c r="T159">
+        <v>4</v>
+      </c>
+      <c r="U159">
+        <v>2</v>
+      </c>
+      <c r="V159">
+        <v>3.1</v>
+      </c>
+      <c r="W159">
+        <v>1.5</v>
+      </c>
+      <c r="X159">
+        <v>2.5</v>
+      </c>
+      <c r="Y159">
+        <v>3.4</v>
+      </c>
+      <c r="Z159">
+        <v>1.3</v>
+      </c>
+      <c r="AA159">
+        <v>10</v>
+      </c>
+      <c r="AB159">
+        <v>1.06</v>
+      </c>
+      <c r="AC159">
+        <v>3.4</v>
+      </c>
+      <c r="AD159">
+        <v>3.1</v>
+      </c>
+      <c r="AE159">
+        <v>2.25</v>
+      </c>
+      <c r="AF159">
+        <v>1.05</v>
+      </c>
+      <c r="AG159">
+        <v>7.5</v>
+      </c>
+      <c r="AH159">
+        <v>1.33</v>
+      </c>
+      <c r="AI159">
+        <v>3</v>
+      </c>
+      <c r="AJ159">
+        <v>2.3</v>
+      </c>
+      <c r="AK159">
+        <v>1.62</v>
+      </c>
+      <c r="AL159">
+        <v>1.95</v>
+      </c>
+      <c r="AM159">
+        <v>1.8</v>
+      </c>
+      <c r="AN159">
+        <v>1.67</v>
+      </c>
+      <c r="AO159">
+        <v>1.34</v>
+      </c>
+      <c r="AP159">
+        <v>1.35</v>
+      </c>
+      <c r="AQ159">
+        <v>0.86</v>
+      </c>
+      <c r="AR159">
+        <v>1</v>
+      </c>
+      <c r="AS159">
+        <v>1.13</v>
+      </c>
+      <c r="AT159">
+        <v>0.88</v>
+      </c>
+      <c r="AU159">
+        <v>1.68</v>
+      </c>
+      <c r="AV159">
+        <v>1.51</v>
+      </c>
+      <c r="AW159">
+        <v>3.19</v>
+      </c>
+      <c r="AX159">
+        <v>1.98</v>
+      </c>
+      <c r="AY159">
+        <v>8.5</v>
+      </c>
+      <c r="AZ159">
+        <v>2.05</v>
+      </c>
+      <c r="BA159">
+        <v>1.18</v>
+      </c>
+      <c r="BB159">
+        <v>1.26</v>
+      </c>
+      <c r="BC159">
+        <v>1.48</v>
+      </c>
+      <c r="BD159">
+        <v>1.8</v>
+      </c>
+      <c r="BE159">
+        <v>2.2</v>
+      </c>
+      <c r="BF159">
+        <v>6</v>
+      </c>
+      <c r="BG159">
+        <v>4</v>
+      </c>
+      <c r="BH159">
+        <v>4</v>
+      </c>
+      <c r="BI159">
+        <v>9</v>
+      </c>
+      <c r="BJ159">
+        <v>10</v>
+      </c>
+      <c r="BK159">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="289">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -628,6 +628,24 @@
     <t>['38']</t>
   </si>
   <si>
+    <t>['90+6']</t>
+  </si>
+  <si>
+    <t>['17', '90+9']</t>
+  </si>
+  <si>
+    <t>['15', '59']</t>
+  </si>
+  <si>
+    <t>['80']</t>
+  </si>
+  <si>
+    <t>['26', '60', '69']</t>
+  </si>
+  <si>
+    <t>['46', '54', '80']</t>
+  </si>
+  <si>
     <t>['45+7']</t>
   </si>
   <si>
@@ -710,9 +728,6 @@
   </si>
   <si>
     <t>['45+2']</t>
-  </si>
-  <si>
-    <t>['80']</t>
   </si>
   <si>
     <t>['23', '29', '45+4']</t>
@@ -857,6 +872,15 @@
   </si>
   <si>
     <t>['18', '26', '53', '59']</t>
+  </si>
+  <si>
+    <t>['30']</t>
+  </si>
+  <si>
+    <t>['13', '86']</t>
+  </si>
+  <si>
+    <t>['4', '69']</t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK169"/>
+  <dimension ref="A1:BK179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1462,7 +1486,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1653,7 +1677,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q3">
         <v>11</v>
@@ -1844,7 +1868,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2417,7 +2441,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2608,7 +2632,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q8">
         <v>14</v>
@@ -3459,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT12">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3563,7 +3587,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3650,10 +3674,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT13">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3841,10 +3865,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT14">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4032,10 +4056,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT15">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4136,7 +4160,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4223,10 +4247,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT16">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4414,10 +4438,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT17">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4518,7 +4542,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4605,10 +4629,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AT18">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4709,7 +4733,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4796,10 +4820,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT19">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4987,10 +5011,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT20">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5091,7 +5115,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5178,10 +5202,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT21">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5282,7 +5306,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -5560,7 +5584,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT23">
         <v>0.5</v>
@@ -5664,7 +5688,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q24">
         <v>12</v>
@@ -5754,7 +5778,7 @@
         <v>2.13</v>
       </c>
       <c r="AT24">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU24">
         <v>1.77</v>
@@ -5855,7 +5879,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -5942,10 +5966,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT25">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU25">
         <v>1.18</v>
@@ -6046,7 +6070,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -6237,7 +6261,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6327,7 +6351,7 @@
         <v>1.13</v>
       </c>
       <c r="AT27">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU27">
         <v>2.44</v>
@@ -6428,7 +6452,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6518,7 +6542,7 @@
         <v>2.13</v>
       </c>
       <c r="AT28">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU28">
         <v>2.3</v>
@@ -6619,7 +6643,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6706,10 +6730,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT29">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU29">
         <v>1.39</v>
@@ -6897,7 +6921,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT30">
         <v>0.78</v>
@@ -7088,7 +7112,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AT31">
         <v>0.67</v>
@@ -7192,7 +7216,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7279,7 +7303,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT32">
         <v>0.5</v>
@@ -7383,7 +7407,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7470,7 +7494,7 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT33">
         <v>0.63</v>
@@ -7574,7 +7598,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7852,7 +7876,7 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT35">
         <v>1</v>
@@ -7956,7 +7980,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -8046,7 +8070,7 @@
         <v>2.22</v>
       </c>
       <c r="AT36">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU36">
         <v>1.11</v>
@@ -8147,7 +8171,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8234,7 +8258,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT37">
         <v>0.5600000000000001</v>
@@ -8428,7 +8452,7 @@
         <v>3</v>
       </c>
       <c r="AT38">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU38">
         <v>1.26</v>
@@ -8529,7 +8553,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8616,10 +8640,10 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT39">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU39">
         <v>1.92</v>
@@ -8720,7 +8744,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8810,7 +8834,7 @@
         <v>2.22</v>
       </c>
       <c r="AT40">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU40">
         <v>1.68</v>
@@ -8911,7 +8935,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9001,7 +9025,7 @@
         <v>1.71</v>
       </c>
       <c r="AT41">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU41">
         <v>1.64</v>
@@ -9102,7 +9126,7 @@
         <v>119</v>
       </c>
       <c r="P42" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9192,7 +9216,7 @@
         <v>2</v>
       </c>
       <c r="AT42">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU42">
         <v>1.58</v>
@@ -9380,7 +9404,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT43">
         <v>0.67</v>
@@ -9484,7 +9508,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9571,10 +9595,10 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT44">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU44">
         <v>1.75</v>
@@ -9866,7 +9890,7 @@
         <v>86</v>
       </c>
       <c r="P46" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -9953,10 +9977,10 @@
         <v>0.5</v>
       </c>
       <c r="AS46">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT46">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU46">
         <v>1.7</v>
@@ -10057,7 +10081,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q47">
         <v>16</v>
@@ -10144,7 +10168,7 @@
         <v>1.5</v>
       </c>
       <c r="AS47">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT47">
         <v>0.88</v>
@@ -10248,7 +10272,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10338,7 +10362,7 @@
         <v>2.13</v>
       </c>
       <c r="AT48">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU48">
         <v>1.81</v>
@@ -10439,7 +10463,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10526,7 +10550,7 @@
         <v>2</v>
       </c>
       <c r="AS49">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT49">
         <v>0.63</v>
@@ -10720,7 +10744,7 @@
         <v>3</v>
       </c>
       <c r="AT50">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU50">
         <v>1.67</v>
@@ -11012,7 +11036,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q52">
         <v>10</v>
@@ -11099,10 +11123,10 @@
         <v>0</v>
       </c>
       <c r="AS52">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT52">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU52">
         <v>1.47</v>
@@ -11290,7 +11314,7 @@
         <v>1.5</v>
       </c>
       <c r="AS53">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT53">
         <v>1.78</v>
@@ -11394,7 +11418,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q54">
         <v>15</v>
@@ -11484,7 +11508,7 @@
         <v>2.13</v>
       </c>
       <c r="AT54">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU54">
         <v>2.16</v>
@@ -11866,7 +11890,7 @@
         <v>2.22</v>
       </c>
       <c r="AT56">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU56">
         <v>1.43</v>
@@ -12054,7 +12078,7 @@
         <v>0</v>
       </c>
       <c r="AS57">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AT57">
         <v>0.5</v>
@@ -12158,7 +12182,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12349,7 +12373,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12627,10 +12651,10 @@
         <v>3</v>
       </c>
       <c r="AS60">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT60">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU60">
         <v>1.78</v>
@@ -12731,7 +12755,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -12922,7 +12946,7 @@
         <v>132</v>
       </c>
       <c r="P62" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13009,7 +13033,7 @@
         <v>0</v>
       </c>
       <c r="AS62">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT62">
         <v>0.78</v>
@@ -13304,7 +13328,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13391,7 +13415,7 @@
         <v>1.67</v>
       </c>
       <c r="AS64">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT64">
         <v>0.63</v>
@@ -13585,7 +13609,7 @@
         <v>2</v>
       </c>
       <c r="AT65">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU65">
         <v>1.78</v>
@@ -13686,7 +13710,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13773,10 +13797,10 @@
         <v>1.33</v>
       </c>
       <c r="AS66">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT66">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU66">
         <v>1.63</v>
@@ -13877,7 +13901,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q67">
         <v>1</v>
@@ -13967,7 +13991,7 @@
         <v>0.88</v>
       </c>
       <c r="AT67">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU67">
         <v>1.88</v>
@@ -14155,10 +14179,10 @@
         <v>2</v>
       </c>
       <c r="AS68">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT68">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU68">
         <v>1.5</v>
@@ -14349,7 +14373,7 @@
         <v>2.13</v>
       </c>
       <c r="AT69">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU69">
         <v>2.5</v>
@@ -14641,7 +14665,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -14728,7 +14752,7 @@
         <v>1</v>
       </c>
       <c r="AS71">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT71">
         <v>1.78</v>
@@ -15023,7 +15047,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q73">
         <v>10</v>
@@ -15113,7 +15137,7 @@
         <v>2.22</v>
       </c>
       <c r="AT73">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU73">
         <v>1.83</v>
@@ -15214,7 +15238,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q74">
         <v>2</v>
@@ -15405,7 +15429,7 @@
         <v>143</v>
       </c>
       <c r="P75" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -15492,7 +15516,7 @@
         <v>0</v>
       </c>
       <c r="AS75">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT75">
         <v>0.5600000000000001</v>
@@ -15683,7 +15707,7 @@
         <v>0.25</v>
       </c>
       <c r="AS76">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT76">
         <v>0.78</v>
@@ -16065,7 +16089,7 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT78">
         <v>0.67</v>
@@ -16360,7 +16384,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16450,7 +16474,7 @@
         <v>1.13</v>
       </c>
       <c r="AT80">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU80">
         <v>1.95</v>
@@ -16641,7 +16665,7 @@
         <v>3</v>
       </c>
       <c r="AT81">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU81">
         <v>1.84</v>
@@ -17023,7 +17047,7 @@
         <v>0.88</v>
       </c>
       <c r="AT83">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU83">
         <v>1.74</v>
@@ -17214,7 +17238,7 @@
         <v>2.22</v>
       </c>
       <c r="AT84">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU84">
         <v>1.85</v>
@@ -17315,7 +17339,7 @@
         <v>86</v>
       </c>
       <c r="P85" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q85">
         <v>12</v>
@@ -17402,10 +17426,10 @@
         <v>1.75</v>
       </c>
       <c r="AS85">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT85">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU85">
         <v>2.07</v>
@@ -17593,7 +17617,7 @@
         <v>0.25</v>
       </c>
       <c r="AS86">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT86">
         <v>1</v>
@@ -17697,7 +17721,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17784,10 +17808,10 @@
         <v>1</v>
       </c>
       <c r="AS87">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT87">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU87">
         <v>2.04</v>
@@ -17888,7 +17912,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q88">
         <v>7</v>
@@ -18079,7 +18103,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q89">
         <v>11</v>
@@ -18270,7 +18294,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18357,7 +18381,7 @@
         <v>1.5</v>
       </c>
       <c r="AS90">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT90">
         <v>1.78</v>
@@ -18461,7 +18485,7 @@
         <v>154</v>
       </c>
       <c r="P91" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18548,10 +18572,10 @@
         <v>1</v>
       </c>
       <c r="AS91">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AT91">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU91">
         <v>2.09</v>
@@ -18739,7 +18763,7 @@
         <v>0.75</v>
       </c>
       <c r="AS92">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT92">
         <v>0.5</v>
@@ -18843,7 +18867,7 @@
         <v>155</v>
       </c>
       <c r="P93" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -18933,7 +18957,7 @@
         <v>1.13</v>
       </c>
       <c r="AT93">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU93">
         <v>1.8</v>
@@ -19034,7 +19058,7 @@
         <v>156</v>
       </c>
       <c r="P94" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19121,7 +19145,7 @@
         <v>1.75</v>
       </c>
       <c r="AS94">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT94">
         <v>1.63</v>
@@ -19506,7 +19530,7 @@
         <v>3</v>
       </c>
       <c r="AT96">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU96">
         <v>1.89</v>
@@ -19607,7 +19631,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q97">
         <v>7</v>
@@ -19697,7 +19721,7 @@
         <v>0.88</v>
       </c>
       <c r="AT97">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU97">
         <v>1.71</v>
@@ -19798,7 +19822,7 @@
         <v>86</v>
       </c>
       <c r="P98" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -19885,10 +19909,10 @@
         <v>1.5</v>
       </c>
       <c r="AS98">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT98">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU98">
         <v>1.67</v>
@@ -20076,7 +20100,7 @@
         <v>1</v>
       </c>
       <c r="AS99">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT99">
         <v>0.63</v>
@@ -20270,7 +20294,7 @@
         <v>2.13</v>
       </c>
       <c r="AT100">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU100">
         <v>2.19</v>
@@ -20371,7 +20395,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20458,7 +20482,7 @@
         <v>1.2</v>
       </c>
       <c r="AS101">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT101">
         <v>0.88</v>
@@ -20649,10 +20673,10 @@
         <v>0.8</v>
       </c>
       <c r="AS102">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT102">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU102">
         <v>1.84</v>
@@ -20753,7 +20777,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -20840,10 +20864,10 @@
         <v>1</v>
       </c>
       <c r="AS103">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT103">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU103">
         <v>2</v>
@@ -20944,7 +20968,7 @@
         <v>86</v>
       </c>
       <c r="P104" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -21031,10 +21055,10 @@
         <v>0</v>
       </c>
       <c r="AS104">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT104">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU104">
         <v>1.58</v>
@@ -21135,7 +21159,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21222,10 +21246,10 @@
         <v>2</v>
       </c>
       <c r="AS105">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT105">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU105">
         <v>1.92</v>
@@ -21413,10 +21437,10 @@
         <v>1.8</v>
       </c>
       <c r="AS106">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT106">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU106">
         <v>1.76</v>
@@ -21607,7 +21631,7 @@
         <v>2.22</v>
       </c>
       <c r="AT107">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU107">
         <v>1.79</v>
@@ -21708,7 +21732,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -21795,10 +21819,10 @@
         <v>1.5</v>
       </c>
       <c r="AS108">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT108">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU108">
         <v>1.37</v>
@@ -21899,7 +21923,7 @@
         <v>86</v>
       </c>
       <c r="P109" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q109">
         <v>8</v>
@@ -21986,7 +22010,7 @@
         <v>0.2</v>
       </c>
       <c r="AS109">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AT109">
         <v>0.78</v>
@@ -22090,7 +22114,7 @@
         <v>86</v>
       </c>
       <c r="P110" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q110">
         <v>10</v>
@@ -22177,7 +22201,7 @@
         <v>0.4</v>
       </c>
       <c r="AS110">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT110">
         <v>1</v>
@@ -22371,7 +22395,7 @@
         <v>2</v>
       </c>
       <c r="AT111">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU111">
         <v>1.85</v>
@@ -22562,7 +22586,7 @@
         <v>2.22</v>
       </c>
       <c r="AT112">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU112">
         <v>1.8</v>
@@ -22663,7 +22687,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -22750,7 +22774,7 @@
         <v>0.8</v>
       </c>
       <c r="AS113">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT113">
         <v>0.67</v>
@@ -22944,7 +22968,7 @@
         <v>1.67</v>
       </c>
       <c r="AT114">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU114">
         <v>1.99</v>
@@ -23132,7 +23156,7 @@
         <v>0.6</v>
       </c>
       <c r="AS115">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT115">
         <v>0.5</v>
@@ -23236,7 +23260,7 @@
         <v>171</v>
       </c>
       <c r="P116" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q116">
         <v>8</v>
@@ -23427,7 +23451,7 @@
         <v>86</v>
       </c>
       <c r="P117" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q117">
         <v>12</v>
@@ -23517,7 +23541,7 @@
         <v>2.13</v>
       </c>
       <c r="AT117">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU117">
         <v>2.21</v>
@@ -23618,7 +23642,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q118">
         <v>2</v>
@@ -23705,10 +23729,10 @@
         <v>1.2</v>
       </c>
       <c r="AS118">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT118">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU118">
         <v>1.58</v>
@@ -23809,7 +23833,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -24278,7 +24302,7 @@
         <v>1.67</v>
       </c>
       <c r="AS121">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AT121">
         <v>1.78</v>
@@ -24469,7 +24493,7 @@
         <v>1.17</v>
       </c>
       <c r="AS122">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT122">
         <v>0.88</v>
@@ -24573,7 +24597,7 @@
         <v>177</v>
       </c>
       <c r="P123" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q123">
         <v>7</v>
@@ -24660,10 +24684,10 @@
         <v>1.2</v>
       </c>
       <c r="AS123">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT123">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU123">
         <v>1.68</v>
@@ -24854,7 +24878,7 @@
         <v>2.13</v>
       </c>
       <c r="AT124">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU124">
         <v>2.06</v>
@@ -25042,7 +25066,7 @@
         <v>1.6</v>
       </c>
       <c r="AS125">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT125">
         <v>1.63</v>
@@ -25236,7 +25260,7 @@
         <v>1.71</v>
       </c>
       <c r="AT126">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU126">
         <v>1.81</v>
@@ -25337,7 +25361,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25427,7 +25451,7 @@
         <v>1.13</v>
       </c>
       <c r="AT127">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU127">
         <v>1.78</v>
@@ -25719,7 +25743,7 @@
         <v>181</v>
       </c>
       <c r="P129" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q129">
         <v>7</v>
@@ -25809,7 +25833,7 @@
         <v>2.22</v>
       </c>
       <c r="AT129">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU129">
         <v>1.93</v>
@@ -25997,7 +26021,7 @@
         <v>0.8</v>
       </c>
       <c r="AS130">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT130">
         <v>0.5</v>
@@ -26101,7 +26125,7 @@
         <v>183</v>
       </c>
       <c r="P131" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q131">
         <v>7</v>
@@ -26188,7 +26212,7 @@
         <v>0.17</v>
       </c>
       <c r="AS131">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT131">
         <v>0.5600000000000001</v>
@@ -26292,7 +26316,7 @@
         <v>184</v>
       </c>
       <c r="P132" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26379,7 +26403,7 @@
         <v>0.67</v>
       </c>
       <c r="AS132">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT132">
         <v>0.67</v>
@@ -26570,7 +26594,7 @@
         <v>1.5</v>
       </c>
       <c r="AS133">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AT133">
         <v>1.63</v>
@@ -26674,7 +26698,7 @@
         <v>86</v>
       </c>
       <c r="P134" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q134">
         <v>10</v>
@@ -26764,7 +26788,7 @@
         <v>1.13</v>
       </c>
       <c r="AT134">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU134">
         <v>1.73</v>
@@ -26865,7 +26889,7 @@
         <v>185</v>
       </c>
       <c r="P135" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q135">
         <v>7</v>
@@ -26952,10 +26976,10 @@
         <v>0.33</v>
       </c>
       <c r="AS135">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT135">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU135">
         <v>1.72</v>
@@ -27146,7 +27170,7 @@
         <v>2.13</v>
       </c>
       <c r="AT136">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU136">
         <v>2.2</v>
@@ -27247,7 +27271,7 @@
         <v>187</v>
       </c>
       <c r="P137" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q137">
         <v>8</v>
@@ -27334,7 +27358,7 @@
         <v>0.57</v>
       </c>
       <c r="AS137">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT137">
         <v>0.78</v>
@@ -27525,7 +27549,7 @@
         <v>1.14</v>
       </c>
       <c r="AS138">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT138">
         <v>1</v>
@@ -27910,7 +27934,7 @@
         <v>1.67</v>
       </c>
       <c r="AT140">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU140">
         <v>1.81</v>
@@ -28011,7 +28035,7 @@
         <v>86</v>
       </c>
       <c r="P141" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q141">
         <v>10</v>
@@ -28101,7 +28125,7 @@
         <v>2.22</v>
       </c>
       <c r="AT141">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU141">
         <v>1.98</v>
@@ -28292,7 +28316,7 @@
         <v>3</v>
       </c>
       <c r="AT142">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU142">
         <v>1.98</v>
@@ -28480,7 +28504,7 @@
         <v>0.57</v>
       </c>
       <c r="AS143">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT143">
         <v>0.5600000000000001</v>
@@ -28671,10 +28695,10 @@
         <v>1.43</v>
       </c>
       <c r="AS144">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT144">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU144">
         <v>1.84</v>
@@ -28862,7 +28886,7 @@
         <v>0.67</v>
       </c>
       <c r="AS145">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT145">
         <v>0.5</v>
@@ -29244,10 +29268,10 @@
         <v>1.43</v>
       </c>
       <c r="AS147">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT147">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU147">
         <v>1.44</v>
@@ -29626,10 +29650,10 @@
         <v>1.57</v>
       </c>
       <c r="AS149">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT149">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU149">
         <v>1.79</v>
@@ -29820,7 +29844,7 @@
         <v>2.13</v>
       </c>
       <c r="AT150">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU150">
         <v>1.94</v>
@@ -30011,7 +30035,7 @@
         <v>2.13</v>
       </c>
       <c r="AT151">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU151">
         <v>2.07</v>
@@ -30199,10 +30223,10 @@
         <v>0.75</v>
       </c>
       <c r="AS152">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT152">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU152">
         <v>1.64</v>
@@ -30303,7 +30327,7 @@
         <v>195</v>
       </c>
       <c r="P153" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q153">
         <v>2</v>
@@ -30390,7 +30414,7 @@
         <v>0.57</v>
       </c>
       <c r="AS153">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT153">
         <v>0.5</v>
@@ -30584,7 +30608,7 @@
         <v>2.22</v>
       </c>
       <c r="AT154">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU154">
         <v>1.96</v>
@@ -30876,7 +30900,7 @@
         <v>86</v>
       </c>
       <c r="P156" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q156">
         <v>13</v>
@@ -30963,7 +30987,7 @@
         <v>0.5</v>
       </c>
       <c r="AS156">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT156">
         <v>0.78</v>
@@ -31067,7 +31091,7 @@
         <v>197</v>
       </c>
       <c r="P157" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q157">
         <v>2</v>
@@ -31154,10 +31178,10 @@
         <v>2.14</v>
       </c>
       <c r="AS157">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT157">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU157">
         <v>1.55</v>
@@ -31258,7 +31282,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q158">
         <v>8</v>
@@ -31345,10 +31369,10 @@
         <v>0.57</v>
       </c>
       <c r="AS158">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AT158">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU158">
         <v>1.82</v>
@@ -31536,7 +31560,7 @@
         <v>1</v>
       </c>
       <c r="AS159">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT159">
         <v>0.88</v>
@@ -31640,7 +31664,7 @@
         <v>199</v>
       </c>
       <c r="P160" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -31831,7 +31855,7 @@
         <v>200</v>
       </c>
       <c r="P161" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q161">
         <v>7</v>
@@ -31918,7 +31942,7 @@
         <v>1.63</v>
       </c>
       <c r="AS161">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT161">
         <v>1.78</v>
@@ -32109,7 +32133,7 @@
         <v>0.57</v>
       </c>
       <c r="AS162">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT162">
         <v>0.5</v>
@@ -32213,7 +32237,7 @@
         <v>201</v>
       </c>
       <c r="P163" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q163">
         <v>0</v>
@@ -32404,7 +32428,7 @@
         <v>86</v>
       </c>
       <c r="P164" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q164">
         <v>2</v>
@@ -32494,7 +32518,7 @@
         <v>1.67</v>
       </c>
       <c r="AT164">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU164">
         <v>1.93</v>
@@ -32595,7 +32619,7 @@
         <v>142</v>
       </c>
       <c r="P165" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -32685,7 +32709,7 @@
         <v>1.13</v>
       </c>
       <c r="AT165">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU165">
         <v>1.75</v>
@@ -32873,7 +32897,7 @@
         <v>0.63</v>
       </c>
       <c r="AS166">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT166">
         <v>0.67</v>
@@ -32977,7 +33001,7 @@
         <v>202</v>
       </c>
       <c r="P167" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q167">
         <v>7</v>
@@ -33168,7 +33192,7 @@
         <v>203</v>
       </c>
       <c r="P168" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q168">
         <v>5</v>
@@ -33258,7 +33282,7 @@
         <v>0.88</v>
       </c>
       <c r="AT168">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU168">
         <v>1.78</v>
@@ -33446,10 +33470,10 @@
         <v>1.5</v>
       </c>
       <c r="AS169">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT169">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU169">
         <v>1.77</v>
@@ -33500,6 +33524,1916 @@
         <v>16</v>
       </c>
       <c r="BK169">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="1:63">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>5406603</v>
+      </c>
+      <c r="C170" t="s">
+        <v>63</v>
+      </c>
+      <c r="D170" t="s">
+        <v>64</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45143.66666666666</v>
+      </c>
+      <c r="F170">
+        <v>18</v>
+      </c>
+      <c r="G170" t="s">
+        <v>80</v>
+      </c>
+      <c r="H170" t="s">
+        <v>69</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>1</v>
+      </c>
+      <c r="K170">
+        <v>1</v>
+      </c>
+      <c r="L170">
+        <v>1</v>
+      </c>
+      <c r="M170">
+        <v>1</v>
+      </c>
+      <c r="N170">
+        <v>2</v>
+      </c>
+      <c r="O170" t="s">
+        <v>204</v>
+      </c>
+      <c r="P170" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q170">
+        <v>3</v>
+      </c>
+      <c r="R170">
+        <v>3</v>
+      </c>
+      <c r="S170">
+        <v>6</v>
+      </c>
+      <c r="T170">
+        <v>3.1</v>
+      </c>
+      <c r="U170">
+        <v>1.91</v>
+      </c>
+      <c r="V170">
+        <v>4.33</v>
+      </c>
+      <c r="W170">
+        <v>1.53</v>
+      </c>
+      <c r="X170">
+        <v>2.38</v>
+      </c>
+      <c r="Y170">
+        <v>3.5</v>
+      </c>
+      <c r="Z170">
+        <v>1.29</v>
+      </c>
+      <c r="AA170">
+        <v>11</v>
+      </c>
+      <c r="AB170">
+        <v>1.05</v>
+      </c>
+      <c r="AC170">
+        <v>2.25</v>
+      </c>
+      <c r="AD170">
+        <v>3.1</v>
+      </c>
+      <c r="AE170">
+        <v>3.5</v>
+      </c>
+      <c r="AF170">
+        <v>1.06</v>
+      </c>
+      <c r="AG170">
+        <v>7</v>
+      </c>
+      <c r="AH170">
+        <v>1.5</v>
+      </c>
+      <c r="AI170">
+        <v>2.55</v>
+      </c>
+      <c r="AJ170">
+        <v>2.75</v>
+      </c>
+      <c r="AK170">
+        <v>1.44</v>
+      </c>
+      <c r="AL170">
+        <v>2.1</v>
+      </c>
+      <c r="AM170">
+        <v>1.67</v>
+      </c>
+      <c r="AN170">
+        <v>1.35</v>
+      </c>
+      <c r="AO170">
+        <v>1.35</v>
+      </c>
+      <c r="AP170">
+        <v>1.6</v>
+      </c>
+      <c r="AQ170">
+        <v>1.44</v>
+      </c>
+      <c r="AR170">
+        <v>0.88</v>
+      </c>
+      <c r="AS170">
+        <v>1.4</v>
+      </c>
+      <c r="AT170">
+        <v>0.89</v>
+      </c>
+      <c r="AU170">
+        <v>1.47</v>
+      </c>
+      <c r="AV170">
+        <v>1.27</v>
+      </c>
+      <c r="AW170">
+        <v>2.74</v>
+      </c>
+      <c r="AX170">
+        <v>1.79</v>
+      </c>
+      <c r="AY170">
+        <v>7.5</v>
+      </c>
+      <c r="AZ170">
+        <v>2.33</v>
+      </c>
+      <c r="BA170">
+        <v>1.22</v>
+      </c>
+      <c r="BB170">
+        <v>1.42</v>
+      </c>
+      <c r="BC170">
+        <v>2.2</v>
+      </c>
+      <c r="BD170">
+        <v>2.17</v>
+      </c>
+      <c r="BE170">
+        <v>2.8</v>
+      </c>
+      <c r="BF170">
+        <v>4</v>
+      </c>
+      <c r="BG170">
+        <v>3</v>
+      </c>
+      <c r="BH170">
+        <v>7</v>
+      </c>
+      <c r="BI170">
+        <v>3</v>
+      </c>
+      <c r="BJ170">
+        <v>11</v>
+      </c>
+      <c r="BK170">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:63">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>5406606</v>
+      </c>
+      <c r="C171" t="s">
+        <v>63</v>
+      </c>
+      <c r="D171" t="s">
+        <v>64</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45143.77083333334</v>
+      </c>
+      <c r="F171">
+        <v>18</v>
+      </c>
+      <c r="G171" t="s">
+        <v>79</v>
+      </c>
+      <c r="H171" t="s">
+        <v>73</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <v>1</v>
+      </c>
+      <c r="K171">
+        <v>2</v>
+      </c>
+      <c r="L171">
+        <v>2</v>
+      </c>
+      <c r="M171">
+        <v>2</v>
+      </c>
+      <c r="N171">
+        <v>4</v>
+      </c>
+      <c r="O171" t="s">
+        <v>205</v>
+      </c>
+      <c r="P171" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q171">
+        <v>1</v>
+      </c>
+      <c r="R171">
+        <v>4</v>
+      </c>
+      <c r="S171">
+        <v>5</v>
+      </c>
+      <c r="T171">
+        <v>3.1</v>
+      </c>
+      <c r="U171">
+        <v>1.91</v>
+      </c>
+      <c r="V171">
+        <v>4.33</v>
+      </c>
+      <c r="W171">
+        <v>1.53</v>
+      </c>
+      <c r="X171">
+        <v>2.38</v>
+      </c>
+      <c r="Y171">
+        <v>3.75</v>
+      </c>
+      <c r="Z171">
+        <v>1.25</v>
+      </c>
+      <c r="AA171">
+        <v>11</v>
+      </c>
+      <c r="AB171">
+        <v>1.05</v>
+      </c>
+      <c r="AC171">
+        <v>2.3</v>
+      </c>
+      <c r="AD171">
+        <v>3.05</v>
+      </c>
+      <c r="AE171">
+        <v>3.2</v>
+      </c>
+      <c r="AF171">
+        <v>1.1</v>
+      </c>
+      <c r="AG171">
+        <v>7</v>
+      </c>
+      <c r="AH171">
+        <v>1.53</v>
+      </c>
+      <c r="AI171">
+        <v>2.4</v>
+      </c>
+      <c r="AJ171">
+        <v>2.55</v>
+      </c>
+      <c r="AK171">
+        <v>1.52</v>
+      </c>
+      <c r="AL171">
+        <v>2.2</v>
+      </c>
+      <c r="AM171">
+        <v>1.62</v>
+      </c>
+      <c r="AN171">
+        <v>1.28</v>
+      </c>
+      <c r="AO171">
+        <v>1.3</v>
+      </c>
+      <c r="AP171">
+        <v>1.7</v>
+      </c>
+      <c r="AQ171">
+        <v>1.75</v>
+      </c>
+      <c r="AR171">
+        <v>0.78</v>
+      </c>
+      <c r="AS171">
+        <v>1.67</v>
+      </c>
+      <c r="AT171">
+        <v>0.8</v>
+      </c>
+      <c r="AU171">
+        <v>1.49</v>
+      </c>
+      <c r="AV171">
+        <v>1.08</v>
+      </c>
+      <c r="AW171">
+        <v>2.57</v>
+      </c>
+      <c r="AX171">
+        <v>1.68</v>
+      </c>
+      <c r="AY171">
+        <v>7.5</v>
+      </c>
+      <c r="AZ171">
+        <v>2.5</v>
+      </c>
+      <c r="BA171">
+        <v>1.3</v>
+      </c>
+      <c r="BB171">
+        <v>1.56</v>
+      </c>
+      <c r="BC171">
+        <v>1.93</v>
+      </c>
+      <c r="BD171">
+        <v>2.48</v>
+      </c>
+      <c r="BE171">
+        <v>3.25</v>
+      </c>
+      <c r="BF171">
+        <v>5</v>
+      </c>
+      <c r="BG171">
+        <v>4</v>
+      </c>
+      <c r="BH171">
+        <v>6</v>
+      </c>
+      <c r="BI171">
+        <v>5</v>
+      </c>
+      <c r="BJ171">
+        <v>11</v>
+      </c>
+      <c r="BK171">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:63">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>5406604</v>
+      </c>
+      <c r="C172" t="s">
+        <v>63</v>
+      </c>
+      <c r="D172" t="s">
+        <v>64</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45143.77083333334</v>
+      </c>
+      <c r="F172">
+        <v>18</v>
+      </c>
+      <c r="G172" t="s">
+        <v>83</v>
+      </c>
+      <c r="H172" t="s">
+        <v>70</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>1</v>
+      </c>
+      <c r="O172" t="s">
+        <v>110</v>
+      </c>
+      <c r="P172" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q172">
+        <v>5</v>
+      </c>
+      <c r="R172">
+        <v>2</v>
+      </c>
+      <c r="S172">
+        <v>7</v>
+      </c>
+      <c r="T172">
+        <v>3.6</v>
+      </c>
+      <c r="U172">
+        <v>2</v>
+      </c>
+      <c r="V172">
+        <v>3.25</v>
+      </c>
+      <c r="W172">
+        <v>1.44</v>
+      </c>
+      <c r="X172">
+        <v>2.63</v>
+      </c>
+      <c r="Y172">
+        <v>3.4</v>
+      </c>
+      <c r="Z172">
+        <v>1.3</v>
+      </c>
+      <c r="AA172">
+        <v>10</v>
+      </c>
+      <c r="AB172">
+        <v>1.06</v>
+      </c>
+      <c r="AC172">
+        <v>2.85</v>
+      </c>
+      <c r="AD172">
+        <v>3.2</v>
+      </c>
+      <c r="AE172">
+        <v>2.45</v>
+      </c>
+      <c r="AF172">
+        <v>1.07</v>
+      </c>
+      <c r="AG172">
+        <v>9</v>
+      </c>
+      <c r="AH172">
+        <v>1.4</v>
+      </c>
+      <c r="AI172">
+        <v>2.95</v>
+      </c>
+      <c r="AJ172">
+        <v>2.12</v>
+      </c>
+      <c r="AK172">
+        <v>1.72</v>
+      </c>
+      <c r="AL172">
+        <v>1.95</v>
+      </c>
+      <c r="AM172">
+        <v>1.8</v>
+      </c>
+      <c r="AN172">
+        <v>1.55</v>
+      </c>
+      <c r="AO172">
+        <v>1.28</v>
+      </c>
+      <c r="AP172">
+        <v>1.44</v>
+      </c>
+      <c r="AQ172">
+        <v>1.13</v>
+      </c>
+      <c r="AR172">
+        <v>1</v>
+      </c>
+      <c r="AS172">
+        <v>1.33</v>
+      </c>
+      <c r="AT172">
+        <v>0.89</v>
+      </c>
+      <c r="AU172">
+        <v>1.75</v>
+      </c>
+      <c r="AV172">
+        <v>1.46</v>
+      </c>
+      <c r="AW172">
+        <v>3.21</v>
+      </c>
+      <c r="AX172">
+        <v>2.05</v>
+      </c>
+      <c r="AY172">
+        <v>8</v>
+      </c>
+      <c r="AZ172">
+        <v>2</v>
+      </c>
+      <c r="BA172">
+        <v>1.19</v>
+      </c>
+      <c r="BB172">
+        <v>1.37</v>
+      </c>
+      <c r="BC172">
+        <v>2.1</v>
+      </c>
+      <c r="BD172">
+        <v>2.02</v>
+      </c>
+      <c r="BE172">
+        <v>2.55</v>
+      </c>
+      <c r="BF172">
+        <v>5</v>
+      </c>
+      <c r="BG172">
+        <v>7</v>
+      </c>
+      <c r="BH172">
+        <v>3</v>
+      </c>
+      <c r="BI172">
+        <v>2</v>
+      </c>
+      <c r="BJ172">
+        <v>8</v>
+      </c>
+      <c r="BK172">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:63">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>5406600</v>
+      </c>
+      <c r="C173" t="s">
+        <v>63</v>
+      </c>
+      <c r="D173" t="s">
+        <v>64</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45143.875</v>
+      </c>
+      <c r="F173">
+        <v>18</v>
+      </c>
+      <c r="G173" t="s">
+        <v>75</v>
+      </c>
+      <c r="H173" t="s">
+        <v>65</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>1</v>
+      </c>
+      <c r="L173">
+        <v>2</v>
+      </c>
+      <c r="M173">
+        <v>1</v>
+      </c>
+      <c r="N173">
+        <v>3</v>
+      </c>
+      <c r="O173" t="s">
+        <v>206</v>
+      </c>
+      <c r="P173" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q173">
+        <v>0</v>
+      </c>
+      <c r="R173">
+        <v>8</v>
+      </c>
+      <c r="S173">
+        <v>8</v>
+      </c>
+      <c r="T173">
+        <v>3.2</v>
+      </c>
+      <c r="U173">
+        <v>2.05</v>
+      </c>
+      <c r="V173">
+        <v>3.6</v>
+      </c>
+      <c r="W173">
+        <v>1.44</v>
+      </c>
+      <c r="X173">
+        <v>2.63</v>
+      </c>
+      <c r="Y173">
+        <v>3.25</v>
+      </c>
+      <c r="Z173">
+        <v>1.33</v>
+      </c>
+      <c r="AA173">
+        <v>9</v>
+      </c>
+      <c r="AB173">
+        <v>1.07</v>
+      </c>
+      <c r="AC173">
+        <v>2.55</v>
+      </c>
+      <c r="AD173">
+        <v>3.25</v>
+      </c>
+      <c r="AE173">
+        <v>2.9</v>
+      </c>
+      <c r="AF173">
+        <v>1.06</v>
+      </c>
+      <c r="AG173">
+        <v>10</v>
+      </c>
+      <c r="AH173">
+        <v>1.35</v>
+      </c>
+      <c r="AI173">
+        <v>3.2</v>
+      </c>
+      <c r="AJ173">
+        <v>2.3</v>
+      </c>
+      <c r="AK173">
+        <v>1.62</v>
+      </c>
+      <c r="AL173">
+        <v>1.95</v>
+      </c>
+      <c r="AM173">
+        <v>1.8</v>
+      </c>
+      <c r="AN173">
+        <v>1.42</v>
+      </c>
+      <c r="AO173">
+        <v>1.32</v>
+      </c>
+      <c r="AP173">
+        <v>1.51</v>
+      </c>
+      <c r="AQ173">
+        <v>2.33</v>
+      </c>
+      <c r="AR173">
+        <v>1.56</v>
+      </c>
+      <c r="AS173">
+        <v>2.4</v>
+      </c>
+      <c r="AT173">
+        <v>1.4</v>
+      </c>
+      <c r="AU173">
+        <v>1.86</v>
+      </c>
+      <c r="AV173">
+        <v>1.48</v>
+      </c>
+      <c r="AW173">
+        <v>3.34</v>
+      </c>
+      <c r="AX173">
+        <v>1.98</v>
+      </c>
+      <c r="AY173">
+        <v>8.5</v>
+      </c>
+      <c r="AZ173">
+        <v>2.02</v>
+      </c>
+      <c r="BA173">
+        <v>1.2</v>
+      </c>
+      <c r="BB173">
+        <v>1.18</v>
+      </c>
+      <c r="BC173">
+        <v>1.32</v>
+      </c>
+      <c r="BD173">
+        <v>1.55</v>
+      </c>
+      <c r="BE173">
+        <v>1.88</v>
+      </c>
+      <c r="BF173">
+        <v>6</v>
+      </c>
+      <c r="BG173">
+        <v>6</v>
+      </c>
+      <c r="BH173">
+        <v>3</v>
+      </c>
+      <c r="BI173">
+        <v>7</v>
+      </c>
+      <c r="BJ173">
+        <v>9</v>
+      </c>
+      <c r="BK173">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="1:63">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>5406601</v>
+      </c>
+      <c r="C174" t="s">
+        <v>63</v>
+      </c>
+      <c r="D174" t="s">
+        <v>64</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45144.66666666666</v>
+      </c>
+      <c r="F174">
+        <v>18</v>
+      </c>
+      <c r="G174" t="s">
+        <v>81</v>
+      </c>
+      <c r="H174" t="s">
+        <v>74</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <v>1</v>
+      </c>
+      <c r="O174" t="s">
+        <v>207</v>
+      </c>
+      <c r="P174" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q174">
+        <v>5</v>
+      </c>
+      <c r="R174">
+        <v>7</v>
+      </c>
+      <c r="S174">
+        <v>12</v>
+      </c>
+      <c r="T174">
+        <v>3.4</v>
+      </c>
+      <c r="U174">
+        <v>2.05</v>
+      </c>
+      <c r="V174">
+        <v>3.4</v>
+      </c>
+      <c r="W174">
+        <v>1.44</v>
+      </c>
+      <c r="X174">
+        <v>2.63</v>
+      </c>
+      <c r="Y174">
+        <v>3.25</v>
+      </c>
+      <c r="Z174">
+        <v>1.33</v>
+      </c>
+      <c r="AA174">
+        <v>9</v>
+      </c>
+      <c r="AB174">
+        <v>1.07</v>
+      </c>
+      <c r="AC174">
+        <v>2.7</v>
+      </c>
+      <c r="AD174">
+        <v>3.25</v>
+      </c>
+      <c r="AE174">
+        <v>2.63</v>
+      </c>
+      <c r="AF174">
+        <v>1.05</v>
+      </c>
+      <c r="AG174">
+        <v>8</v>
+      </c>
+      <c r="AH174">
+        <v>1.33</v>
+      </c>
+      <c r="AI174">
+        <v>3</v>
+      </c>
+      <c r="AJ174">
+        <v>2.2</v>
+      </c>
+      <c r="AK174">
+        <v>1.67</v>
+      </c>
+      <c r="AL174">
+        <v>1.8</v>
+      </c>
+      <c r="AM174">
+        <v>1.95</v>
+      </c>
+      <c r="AN174">
+        <v>1.52</v>
+      </c>
+      <c r="AO174">
+        <v>1.28</v>
+      </c>
+      <c r="AP174">
+        <v>1.45</v>
+      </c>
+      <c r="AQ174">
+        <v>0.5</v>
+      </c>
+      <c r="AR174">
+        <v>1.43</v>
+      </c>
+      <c r="AS174">
+        <v>0.78</v>
+      </c>
+      <c r="AT174">
+        <v>1.25</v>
+      </c>
+      <c r="AU174">
+        <v>1.79</v>
+      </c>
+      <c r="AV174">
+        <v>1.46</v>
+      </c>
+      <c r="AW174">
+        <v>3.25</v>
+      </c>
+      <c r="AX174">
+        <v>1.74</v>
+      </c>
+      <c r="AY174">
+        <v>8</v>
+      </c>
+      <c r="AZ174">
+        <v>2.4</v>
+      </c>
+      <c r="BA174">
+        <v>1.21</v>
+      </c>
+      <c r="BB174">
+        <v>1.3</v>
+      </c>
+      <c r="BC174">
+        <v>2</v>
+      </c>
+      <c r="BD174">
+        <v>1.88</v>
+      </c>
+      <c r="BE174">
+        <v>2.35</v>
+      </c>
+      <c r="BF174">
+        <v>6</v>
+      </c>
+      <c r="BG174">
+        <v>4</v>
+      </c>
+      <c r="BH174">
+        <v>6</v>
+      </c>
+      <c r="BI174">
+        <v>8</v>
+      </c>
+      <c r="BJ174">
+        <v>12</v>
+      </c>
+      <c r="BK174">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="1:63">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>5406602</v>
+      </c>
+      <c r="C175" t="s">
+        <v>63</v>
+      </c>
+      <c r="D175" t="s">
+        <v>64</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45144.66666666666</v>
+      </c>
+      <c r="F175">
+        <v>18</v>
+      </c>
+      <c r="G175" t="s">
+        <v>77</v>
+      </c>
+      <c r="H175" t="s">
+        <v>71</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>1</v>
+      </c>
+      <c r="K175">
+        <v>1</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+      <c r="M175">
+        <v>2</v>
+      </c>
+      <c r="N175">
+        <v>2</v>
+      </c>
+      <c r="O175" t="s">
+        <v>86</v>
+      </c>
+      <c r="P175" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q175">
+        <v>9</v>
+      </c>
+      <c r="R175">
+        <v>3</v>
+      </c>
+      <c r="S175">
+        <v>12</v>
+      </c>
+      <c r="T175">
+        <v>2.88</v>
+      </c>
+      <c r="U175">
+        <v>1.95</v>
+      </c>
+      <c r="V175">
+        <v>4.5</v>
+      </c>
+      <c r="W175">
+        <v>1.53</v>
+      </c>
+      <c r="X175">
+        <v>2.38</v>
+      </c>
+      <c r="Y175">
+        <v>3.5</v>
+      </c>
+      <c r="Z175">
+        <v>1.29</v>
+      </c>
+      <c r="AA175">
+        <v>11</v>
+      </c>
+      <c r="AB175">
+        <v>1.05</v>
+      </c>
+      <c r="AC175">
+        <v>2.15</v>
+      </c>
+      <c r="AD175">
+        <v>3.2</v>
+      </c>
+      <c r="AE175">
+        <v>3.75</v>
+      </c>
+      <c r="AF175">
+        <v>1.09</v>
+      </c>
+      <c r="AG175">
+        <v>7.5</v>
+      </c>
+      <c r="AH175">
+        <v>1.5</v>
+      </c>
+      <c r="AI175">
+        <v>2.45</v>
+      </c>
+      <c r="AJ175">
+        <v>2.5</v>
+      </c>
+      <c r="AK175">
+        <v>1.53</v>
+      </c>
+      <c r="AL175">
+        <v>2.05</v>
+      </c>
+      <c r="AM175">
+        <v>1.7</v>
+      </c>
+      <c r="AN175">
+        <v>1.28</v>
+      </c>
+      <c r="AO175">
+        <v>1.32</v>
+      </c>
+      <c r="AP175">
+        <v>1.56</v>
+      </c>
+      <c r="AQ175">
+        <v>2.44</v>
+      </c>
+      <c r="AR175">
+        <v>1.33</v>
+      </c>
+      <c r="AS175">
+        <v>2.2</v>
+      </c>
+      <c r="AT175">
+        <v>1.5</v>
+      </c>
+      <c r="AU175">
+        <v>1.93</v>
+      </c>
+      <c r="AV175">
+        <v>1.39</v>
+      </c>
+      <c r="AW175">
+        <v>3.32</v>
+      </c>
+      <c r="AX175">
+        <v>1.58</v>
+      </c>
+      <c r="AY175">
+        <v>8.5</v>
+      </c>
+      <c r="AZ175">
+        <v>2.75</v>
+      </c>
+      <c r="BA175">
+        <v>1.24</v>
+      </c>
+      <c r="BB175">
+        <v>1.45</v>
+      </c>
+      <c r="BC175">
+        <v>2</v>
+      </c>
+      <c r="BD175">
+        <v>2.2</v>
+      </c>
+      <c r="BE175">
+        <v>2.85</v>
+      </c>
+      <c r="BF175">
+        <v>5</v>
+      </c>
+      <c r="BG175">
+        <v>3</v>
+      </c>
+      <c r="BH175">
+        <v>15</v>
+      </c>
+      <c r="BI175">
+        <v>6</v>
+      </c>
+      <c r="BJ175">
+        <v>20</v>
+      </c>
+      <c r="BK175">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176" spans="1:63">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>5406605</v>
+      </c>
+      <c r="C176" t="s">
+        <v>63</v>
+      </c>
+      <c r="D176" t="s">
+        <v>64</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45144.77083333334</v>
+      </c>
+      <c r="F176">
+        <v>18</v>
+      </c>
+      <c r="G176" t="s">
+        <v>78</v>
+      </c>
+      <c r="H176" t="s">
+        <v>67</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <v>0</v>
+      </c>
+      <c r="O176" t="s">
+        <v>86</v>
+      </c>
+      <c r="P176" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q176">
+        <v>8</v>
+      </c>
+      <c r="R176">
+        <v>1</v>
+      </c>
+      <c r="S176">
+        <v>9</v>
+      </c>
+      <c r="T176">
+        <v>3.1</v>
+      </c>
+      <c r="U176">
+        <v>2</v>
+      </c>
+      <c r="V176">
+        <v>3.75</v>
+      </c>
+      <c r="W176">
+        <v>1.5</v>
+      </c>
+      <c r="X176">
+        <v>2.5</v>
+      </c>
+      <c r="Y176">
+        <v>3.4</v>
+      </c>
+      <c r="Z176">
+        <v>1.3</v>
+      </c>
+      <c r="AA176">
+        <v>10</v>
+      </c>
+      <c r="AB176">
+        <v>1.06</v>
+      </c>
+      <c r="AC176">
+        <v>2.46</v>
+      </c>
+      <c r="AD176">
+        <v>3.2</v>
+      </c>
+      <c r="AE176">
+        <v>3.02</v>
+      </c>
+      <c r="AF176">
+        <v>1.04</v>
+      </c>
+      <c r="AG176">
+        <v>7.4</v>
+      </c>
+      <c r="AH176">
+        <v>1.38</v>
+      </c>
+      <c r="AI176">
+        <v>2.75</v>
+      </c>
+      <c r="AJ176">
+        <v>2.27</v>
+      </c>
+      <c r="AK176">
+        <v>1.61</v>
+      </c>
+      <c r="AL176">
+        <v>1.95</v>
+      </c>
+      <c r="AM176">
+        <v>1.8</v>
+      </c>
+      <c r="AN176">
+        <v>1.4</v>
+      </c>
+      <c r="AO176">
+        <v>1.35</v>
+      </c>
+      <c r="AP176">
+        <v>1.55</v>
+      </c>
+      <c r="AQ176">
+        <v>1.11</v>
+      </c>
+      <c r="AR176">
+        <v>2</v>
+      </c>
+      <c r="AS176">
+        <v>1.1</v>
+      </c>
+      <c r="AT176">
+        <v>1.89</v>
+      </c>
+      <c r="AU176">
+        <v>1.68</v>
+      </c>
+      <c r="AV176">
+        <v>1.29</v>
+      </c>
+      <c r="AW176">
+        <v>2.97</v>
+      </c>
+      <c r="AX176">
+        <v>1.55</v>
+      </c>
+      <c r="AY176">
+        <v>8.5</v>
+      </c>
+      <c r="AZ176">
+        <v>2.88</v>
+      </c>
+      <c r="BA176">
+        <v>1.21</v>
+      </c>
+      <c r="BB176">
+        <v>1.3</v>
+      </c>
+      <c r="BC176">
+        <v>2.2</v>
+      </c>
+      <c r="BD176">
+        <v>1.89</v>
+      </c>
+      <c r="BE176">
+        <v>2.35</v>
+      </c>
+      <c r="BF176">
+        <v>5</v>
+      </c>
+      <c r="BG176">
+        <v>2</v>
+      </c>
+      <c r="BH176">
+        <v>9</v>
+      </c>
+      <c r="BI176">
+        <v>1</v>
+      </c>
+      <c r="BJ176">
+        <v>14</v>
+      </c>
+      <c r="BK176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:63">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>5406608</v>
+      </c>
+      <c r="C177" t="s">
+        <v>63</v>
+      </c>
+      <c r="D177" t="s">
+        <v>64</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45144.77083333334</v>
+      </c>
+      <c r="F177">
+        <v>18</v>
+      </c>
+      <c r="G177" t="s">
+        <v>84</v>
+      </c>
+      <c r="H177" t="s">
+        <v>66</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>1</v>
+      </c>
+      <c r="L177">
+        <v>3</v>
+      </c>
+      <c r="M177">
+        <v>1</v>
+      </c>
+      <c r="N177">
+        <v>4</v>
+      </c>
+      <c r="O177" t="s">
+        <v>208</v>
+      </c>
+      <c r="P177" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q177">
+        <v>7</v>
+      </c>
+      <c r="R177">
+        <v>2</v>
+      </c>
+      <c r="S177">
+        <v>9</v>
+      </c>
+      <c r="T177">
+        <v>2.6</v>
+      </c>
+      <c r="U177">
+        <v>2.2</v>
+      </c>
+      <c r="V177">
+        <v>4.33</v>
+      </c>
+      <c r="W177">
+        <v>1.36</v>
+      </c>
+      <c r="X177">
+        <v>3</v>
+      </c>
+      <c r="Y177">
+        <v>2.75</v>
+      </c>
+      <c r="Z177">
+        <v>1.4</v>
+      </c>
+      <c r="AA177">
+        <v>8</v>
+      </c>
+      <c r="AB177">
+        <v>1.08</v>
+      </c>
+      <c r="AC177">
+        <v>1.96</v>
+      </c>
+      <c r="AD177">
+        <v>3.56</v>
+      </c>
+      <c r="AE177">
+        <v>3.88</v>
+      </c>
+      <c r="AF177">
+        <v>1.01</v>
+      </c>
+      <c r="AG177">
+        <v>9.4</v>
+      </c>
+      <c r="AH177">
+        <v>1.26</v>
+      </c>
+      <c r="AI177">
+        <v>3.4</v>
+      </c>
+      <c r="AJ177">
+        <v>1.88</v>
+      </c>
+      <c r="AK177">
+        <v>1.88</v>
+      </c>
+      <c r="AL177">
+        <v>1.8</v>
+      </c>
+      <c r="AM177">
+        <v>1.95</v>
+      </c>
+      <c r="AN177">
+        <v>1.3</v>
+      </c>
+      <c r="AO177">
+        <v>1.3</v>
+      </c>
+      <c r="AP177">
+        <v>1.78</v>
+      </c>
+      <c r="AQ177">
+        <v>1.13</v>
+      </c>
+      <c r="AR177">
+        <v>0.38</v>
+      </c>
+      <c r="AS177">
+        <v>1.33</v>
+      </c>
+      <c r="AT177">
+        <v>0.33</v>
+      </c>
+      <c r="AU177">
+        <v>1.67</v>
+      </c>
+      <c r="AV177">
+        <v>1.5</v>
+      </c>
+      <c r="AW177">
+        <v>3.17</v>
+      </c>
+      <c r="AX177">
+        <v>1.66</v>
+      </c>
+      <c r="AY177">
+        <v>8</v>
+      </c>
+      <c r="AZ177">
+        <v>2.55</v>
+      </c>
+      <c r="BA177">
+        <v>1.19</v>
+      </c>
+      <c r="BB177">
+        <v>1.36</v>
+      </c>
+      <c r="BC177">
+        <v>2</v>
+      </c>
+      <c r="BD177">
+        <v>2.02</v>
+      </c>
+      <c r="BE177">
+        <v>2.55</v>
+      </c>
+      <c r="BF177">
+        <v>8</v>
+      </c>
+      <c r="BG177">
+        <v>6</v>
+      </c>
+      <c r="BH177">
+        <v>15</v>
+      </c>
+      <c r="BI177">
+        <v>1</v>
+      </c>
+      <c r="BJ177">
+        <v>23</v>
+      </c>
+      <c r="BK177">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:63">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>5406607</v>
+      </c>
+      <c r="C178" t="s">
+        <v>63</v>
+      </c>
+      <c r="D178" t="s">
+        <v>64</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45144.77083333334</v>
+      </c>
+      <c r="F178">
+        <v>18</v>
+      </c>
+      <c r="G178" t="s">
+        <v>82</v>
+      </c>
+      <c r="H178" t="s">
+        <v>68</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>1</v>
+      </c>
+      <c r="K178">
+        <v>1</v>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+      <c r="N178">
+        <v>1</v>
+      </c>
+      <c r="O178" t="s">
+        <v>86</v>
+      </c>
+      <c r="P178" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q178">
+        <v>3</v>
+      </c>
+      <c r="R178">
+        <v>4</v>
+      </c>
+      <c r="S178">
+        <v>7</v>
+      </c>
+      <c r="T178">
+        <v>3.6</v>
+      </c>
+      <c r="U178">
+        <v>2.1</v>
+      </c>
+      <c r="V178">
+        <v>3.1</v>
+      </c>
+      <c r="W178">
+        <v>1.44</v>
+      </c>
+      <c r="X178">
+        <v>2.63</v>
+      </c>
+      <c r="Y178">
+        <v>3.25</v>
+      </c>
+      <c r="Z178">
+        <v>1.33</v>
+      </c>
+      <c r="AA178">
+        <v>9</v>
+      </c>
+      <c r="AB178">
+        <v>1.07</v>
+      </c>
+      <c r="AC178">
+        <v>2.87</v>
+      </c>
+      <c r="AD178">
+        <v>3.38</v>
+      </c>
+      <c r="AE178">
+        <v>2.47</v>
+      </c>
+      <c r="AF178">
+        <v>1.02</v>
+      </c>
+      <c r="AG178">
+        <v>8.6</v>
+      </c>
+      <c r="AH178">
+        <v>1.3</v>
+      </c>
+      <c r="AI178">
+        <v>3.14</v>
+      </c>
+      <c r="AJ178">
+        <v>2.06</v>
+      </c>
+      <c r="AK178">
+        <v>1.73</v>
+      </c>
+      <c r="AL178">
+        <v>1.8</v>
+      </c>
+      <c r="AM178">
+        <v>1.95</v>
+      </c>
+      <c r="AN178">
+        <v>1.47</v>
+      </c>
+      <c r="AO178">
+        <v>1.28</v>
+      </c>
+      <c r="AP178">
+        <v>1.39</v>
+      </c>
+      <c r="AQ178">
+        <v>1.13</v>
+      </c>
+      <c r="AR178">
+        <v>1.25</v>
+      </c>
+      <c r="AS178">
+        <v>1</v>
+      </c>
+      <c r="AT178">
+        <v>1.44</v>
+      </c>
+      <c r="AU178">
+        <v>1.63</v>
+      </c>
+      <c r="AV178">
+        <v>1.6</v>
+      </c>
+      <c r="AW178">
+        <v>3.23</v>
+      </c>
+      <c r="AX178">
+        <v>2</v>
+      </c>
+      <c r="AY178">
+        <v>8</v>
+      </c>
+      <c r="AZ178">
+        <v>2.02</v>
+      </c>
+      <c r="BA178">
+        <v>1.19</v>
+      </c>
+      <c r="BB178">
+        <v>1.21</v>
+      </c>
+      <c r="BC178">
+        <v>1.38</v>
+      </c>
+      <c r="BD178">
+        <v>1.66</v>
+      </c>
+      <c r="BE178">
+        <v>2.02</v>
+      </c>
+      <c r="BF178">
+        <v>3</v>
+      </c>
+      <c r="BG178">
+        <v>3</v>
+      </c>
+      <c r="BH178">
+        <v>8</v>
+      </c>
+      <c r="BI178">
+        <v>8</v>
+      </c>
+      <c r="BJ178">
+        <v>11</v>
+      </c>
+      <c r="BK178">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" spans="1:63">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>5406609</v>
+      </c>
+      <c r="C179" t="s">
+        <v>63</v>
+      </c>
+      <c r="D179" t="s">
+        <v>64</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45144.83333333334</v>
+      </c>
+      <c r="F179">
+        <v>18</v>
+      </c>
+      <c r="G179" t="s">
+        <v>76</v>
+      </c>
+      <c r="H179" t="s">
+        <v>72</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>3</v>
+      </c>
+      <c r="M179">
+        <v>0</v>
+      </c>
+      <c r="N179">
+        <v>3</v>
+      </c>
+      <c r="O179" t="s">
+        <v>209</v>
+      </c>
+      <c r="P179" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q179">
+        <v>10</v>
+      </c>
+      <c r="R179">
+        <v>6</v>
+      </c>
+      <c r="S179">
+        <v>16</v>
+      </c>
+      <c r="T179">
+        <v>3.75</v>
+      </c>
+      <c r="U179">
+        <v>1.95</v>
+      </c>
+      <c r="V179">
+        <v>3.25</v>
+      </c>
+      <c r="W179">
+        <v>1.5</v>
+      </c>
+      <c r="X179">
+        <v>2.5</v>
+      </c>
+      <c r="Y179">
+        <v>3.4</v>
+      </c>
+      <c r="Z179">
+        <v>1.3</v>
+      </c>
+      <c r="AA179">
+        <v>10</v>
+      </c>
+      <c r="AB179">
+        <v>1.06</v>
+      </c>
+      <c r="AC179">
+        <v>3.1</v>
+      </c>
+      <c r="AD179">
+        <v>3</v>
+      </c>
+      <c r="AE179">
+        <v>2.5</v>
+      </c>
+      <c r="AF179">
+        <v>1.04</v>
+      </c>
+      <c r="AG179">
+        <v>7.5</v>
+      </c>
+      <c r="AH179">
+        <v>1.38</v>
+      </c>
+      <c r="AI179">
+        <v>2.75</v>
+      </c>
+      <c r="AJ179">
+        <v>2.5</v>
+      </c>
+      <c r="AK179">
+        <v>1.53</v>
+      </c>
+      <c r="AL179">
+        <v>2</v>
+      </c>
+      <c r="AM179">
+        <v>1.75</v>
+      </c>
+      <c r="AN179">
+        <v>1.62</v>
+      </c>
+      <c r="AO179">
+        <v>1.35</v>
+      </c>
+      <c r="AP179">
+        <v>1.35</v>
+      </c>
+      <c r="AQ179">
+        <v>1.13</v>
+      </c>
+      <c r="AR179">
+        <v>1.56</v>
+      </c>
+      <c r="AS179">
+        <v>1.33</v>
+      </c>
+      <c r="AT179">
+        <v>1.4</v>
+      </c>
+      <c r="AU179">
+        <v>1.58</v>
+      </c>
+      <c r="AV179">
+        <v>1.35</v>
+      </c>
+      <c r="AW179">
+        <v>2.93</v>
+      </c>
+      <c r="AX179">
+        <v>2.17</v>
+      </c>
+      <c r="AY179">
+        <v>7.5</v>
+      </c>
+      <c r="AZ179">
+        <v>1.91</v>
+      </c>
+      <c r="BA179">
+        <v>1.21</v>
+      </c>
+      <c r="BB179">
+        <v>1.41</v>
+      </c>
+      <c r="BC179">
+        <v>2.1</v>
+      </c>
+      <c r="BD179">
+        <v>2.12</v>
+      </c>
+      <c r="BE179">
+        <v>2.75</v>
+      </c>
+      <c r="BF179">
+        <v>8</v>
+      </c>
+      <c r="BG179">
+        <v>5</v>
+      </c>
+      <c r="BH179">
+        <v>10</v>
+      </c>
+      <c r="BI179">
+        <v>6</v>
+      </c>
+      <c r="BJ179">
+        <v>18</v>
+      </c>
+      <c r="BK179">
         <v>11</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="290">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -646,6 +646,12 @@
     <t>['46', '54', '80']</t>
   </si>
   <si>
+    <t>['55', '58', '73']</t>
+  </si>
+  <si>
+    <t>['49']</t>
+  </si>
+  <si>
     <t>['45+7']</t>
   </si>
   <si>
@@ -761,9 +767,6 @@
   </si>
   <si>
     <t>['5']</t>
-  </si>
-  <si>
-    <t>['49']</t>
   </si>
   <si>
     <t>['52']</t>
@@ -1242,7 +1245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK179"/>
+  <dimension ref="A1:BK181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1486,7 +1489,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1677,7 +1680,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q3">
         <v>11</v>
@@ -1868,7 +1871,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2149,7 +2152,7 @@
         <v>2</v>
       </c>
       <c r="AT5">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2441,7 +2444,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2531,7 +2534,7 @@
         <v>1.67</v>
       </c>
       <c r="AT7">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2632,7 +2635,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q8">
         <v>14</v>
@@ -2719,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT8">
         <v>0.63</v>
@@ -3587,7 +3590,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -4160,7 +4163,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4542,7 +4545,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4733,7 +4736,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5115,7 +5118,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5306,7 +5309,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -5688,7 +5691,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q24">
         <v>12</v>
@@ -5879,7 +5882,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -6070,7 +6073,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -6261,7 +6264,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6348,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT27">
         <v>0.89</v>
@@ -6452,7 +6455,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6643,7 +6646,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -7115,7 +7118,7 @@
         <v>0.78</v>
       </c>
       <c r="AT31">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU31">
         <v>1.31</v>
@@ -7216,7 +7219,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7407,7 +7410,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7598,7 +7601,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7879,7 +7882,7 @@
         <v>2.2</v>
       </c>
       <c r="AT35">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU35">
         <v>1.72</v>
@@ -7980,7 +7983,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -8171,7 +8174,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8553,7 +8556,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8744,7 +8747,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8935,7 +8938,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9126,7 +9129,7 @@
         <v>119</v>
       </c>
       <c r="P42" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9407,7 +9410,7 @@
         <v>1.4</v>
       </c>
       <c r="AT43">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU43">
         <v>1.33</v>
@@ -9508,7 +9511,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9890,7 +9893,7 @@
         <v>86</v>
       </c>
       <c r="P46" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10081,7 +10084,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q47">
         <v>16</v>
@@ -10272,7 +10275,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -11036,7 +11039,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q52">
         <v>10</v>
@@ -11418,7 +11421,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q54">
         <v>15</v>
@@ -11696,10 +11699,10 @@
         <v>0.5</v>
       </c>
       <c r="AS55">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT55">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU55">
         <v>2.15</v>
@@ -12182,7 +12185,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12373,7 +12376,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12755,7 +12758,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -12946,7 +12949,7 @@
         <v>132</v>
       </c>
       <c r="P62" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13328,7 +13331,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13710,7 +13713,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13901,7 +13904,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q67">
         <v>1</v>
@@ -14564,7 +14567,7 @@
         <v>2.22</v>
       </c>
       <c r="AT70">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU70">
         <v>1.55</v>
@@ -14665,7 +14668,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -15047,7 +15050,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q73">
         <v>10</v>
@@ -15238,7 +15241,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q74">
         <v>2</v>
@@ -15429,7 +15432,7 @@
         <v>143</v>
       </c>
       <c r="P75" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -16092,7 +16095,7 @@
         <v>1.67</v>
       </c>
       <c r="AT78">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU78">
         <v>1.65</v>
@@ -16384,7 +16387,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16471,7 +16474,7 @@
         <v>1.67</v>
       </c>
       <c r="AS80">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT80">
         <v>1.4</v>
@@ -16856,7 +16859,7 @@
         <v>1.67</v>
       </c>
       <c r="AT82">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU82">
         <v>2.14</v>
@@ -17339,7 +17342,7 @@
         <v>86</v>
       </c>
       <c r="P85" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q85">
         <v>12</v>
@@ -17620,7 +17623,7 @@
         <v>1.4</v>
       </c>
       <c r="AT86">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU86">
         <v>1.5</v>
@@ -17721,7 +17724,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17912,7 +17915,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q88">
         <v>7</v>
@@ -18103,7 +18106,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q89">
         <v>11</v>
@@ -18294,7 +18297,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18485,7 +18488,7 @@
         <v>154</v>
       </c>
       <c r="P91" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18867,7 +18870,7 @@
         <v>155</v>
       </c>
       <c r="P93" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -18954,7 +18957,7 @@
         <v>0.75</v>
       </c>
       <c r="AS93">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT93">
         <v>1.44</v>
@@ -19058,7 +19061,7 @@
         <v>156</v>
       </c>
       <c r="P94" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19631,7 +19634,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q97">
         <v>7</v>
@@ -19822,7 +19825,7 @@
         <v>86</v>
       </c>
       <c r="P98" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -20395,7 +20398,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20968,7 +20971,7 @@
         <v>86</v>
       </c>
       <c r="P104" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -21159,7 +21162,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21732,7 +21735,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -21923,7 +21926,7 @@
         <v>86</v>
       </c>
       <c r="P109" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q109">
         <v>8</v>
@@ -22114,7 +22117,7 @@
         <v>86</v>
       </c>
       <c r="P110" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q110">
         <v>10</v>
@@ -22204,7 +22207,7 @@
         <v>1</v>
       </c>
       <c r="AT110">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU110">
         <v>1.74</v>
@@ -22687,7 +22690,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -22777,7 +22780,7 @@
         <v>2.4</v>
       </c>
       <c r="AT113">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU113">
         <v>1.76</v>
@@ -23260,7 +23263,7 @@
         <v>171</v>
       </c>
       <c r="P116" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q116">
         <v>8</v>
@@ -23451,7 +23454,7 @@
         <v>86</v>
       </c>
       <c r="P117" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q117">
         <v>12</v>
@@ -23642,7 +23645,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q118">
         <v>2</v>
@@ -23833,7 +23836,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -23923,7 +23926,7 @@
         <v>0.88</v>
       </c>
       <c r="AT119">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU119">
         <v>1.82</v>
@@ -24597,7 +24600,7 @@
         <v>177</v>
       </c>
       <c r="P123" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q123">
         <v>7</v>
@@ -25361,7 +25364,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25448,7 +25451,7 @@
         <v>0.2</v>
       </c>
       <c r="AS127">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT127">
         <v>0.33</v>
@@ -25743,7 +25746,7 @@
         <v>181</v>
       </c>
       <c r="P129" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q129">
         <v>7</v>
@@ -26125,7 +26128,7 @@
         <v>183</v>
       </c>
       <c r="P131" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q131">
         <v>7</v>
@@ -26316,7 +26319,7 @@
         <v>184</v>
       </c>
       <c r="P132" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26406,7 +26409,7 @@
         <v>1.33</v>
       </c>
       <c r="AT132">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU132">
         <v>1.61</v>
@@ -26698,7 +26701,7 @@
         <v>86</v>
       </c>
       <c r="P134" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q134">
         <v>10</v>
@@ -26785,7 +26788,7 @@
         <v>0.43</v>
       </c>
       <c r="AS134">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT134">
         <v>0.8</v>
@@ -26889,7 +26892,7 @@
         <v>185</v>
       </c>
       <c r="P135" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q135">
         <v>7</v>
@@ -27271,7 +27274,7 @@
         <v>187</v>
       </c>
       <c r="P137" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q137">
         <v>8</v>
@@ -27552,7 +27555,7 @@
         <v>2.4</v>
       </c>
       <c r="AT138">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU138">
         <v>1.83</v>
@@ -28035,7 +28038,7 @@
         <v>86</v>
       </c>
       <c r="P141" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q141">
         <v>10</v>
@@ -29462,7 +29465,7 @@
         <v>2.22</v>
       </c>
       <c r="AT148">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU148">
         <v>2.05</v>
@@ -30327,7 +30330,7 @@
         <v>195</v>
       </c>
       <c r="P153" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q153">
         <v>2</v>
@@ -30799,7 +30802,7 @@
         <v>2</v>
       </c>
       <c r="AT155">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU155">
         <v>2.1</v>
@@ -30900,7 +30903,7 @@
         <v>86</v>
       </c>
       <c r="P156" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q156">
         <v>13</v>
@@ -31091,7 +31094,7 @@
         <v>197</v>
       </c>
       <c r="P157" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q157">
         <v>2</v>
@@ -31282,7 +31285,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q158">
         <v>8</v>
@@ -31664,7 +31667,7 @@
         <v>199</v>
       </c>
       <c r="P160" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -31855,7 +31858,7 @@
         <v>200</v>
       </c>
       <c r="P161" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q161">
         <v>7</v>
@@ -32237,7 +32240,7 @@
         <v>201</v>
       </c>
       <c r="P163" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q163">
         <v>0</v>
@@ -32428,7 +32431,7 @@
         <v>86</v>
       </c>
       <c r="P164" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q164">
         <v>2</v>
@@ -32619,7 +32622,7 @@
         <v>142</v>
       </c>
       <c r="P165" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -32706,7 +32709,7 @@
         <v>1.38</v>
       </c>
       <c r="AS165">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT165">
         <v>1.4</v>
@@ -32900,7 +32903,7 @@
         <v>2.2</v>
       </c>
       <c r="AT166">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU166">
         <v>1.9</v>
@@ -33001,7 +33004,7 @@
         <v>202</v>
       </c>
       <c r="P167" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q167">
         <v>7</v>
@@ -33192,7 +33195,7 @@
         <v>203</v>
       </c>
       <c r="P168" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q168">
         <v>5</v>
@@ -33574,7 +33577,7 @@
         <v>204</v>
       </c>
       <c r="P170" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q170">
         <v>3</v>
@@ -33765,7 +33768,7 @@
         <v>205</v>
       </c>
       <c r="P171" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q171">
         <v>1</v>
@@ -34529,7 +34532,7 @@
         <v>86</v>
       </c>
       <c r="P175" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q175">
         <v>9</v>
@@ -34911,7 +34914,7 @@
         <v>208</v>
       </c>
       <c r="P177" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q177">
         <v>7</v>
@@ -35435,6 +35438,388 @@
       </c>
       <c r="BK179">
         <v>11</v>
+      </c>
+    </row>
+    <row r="180" spans="1:63">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>5406611</v>
+      </c>
+      <c r="C180" t="s">
+        <v>63</v>
+      </c>
+      <c r="D180" t="s">
+        <v>64</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45150.875</v>
+      </c>
+      <c r="F180">
+        <v>19</v>
+      </c>
+      <c r="G180" t="s">
+        <v>67</v>
+      </c>
+      <c r="H180" t="s">
+        <v>79</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>1</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+      <c r="L180">
+        <v>3</v>
+      </c>
+      <c r="M180">
+        <v>1</v>
+      </c>
+      <c r="N180">
+        <v>4</v>
+      </c>
+      <c r="O180" t="s">
+        <v>210</v>
+      </c>
+      <c r="P180" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q180">
+        <v>7</v>
+      </c>
+      <c r="R180">
+        <v>3</v>
+      </c>
+      <c r="S180">
+        <v>10</v>
+      </c>
+      <c r="T180">
+        <v>3</v>
+      </c>
+      <c r="U180">
+        <v>1.91</v>
+      </c>
+      <c r="V180">
+        <v>4.33</v>
+      </c>
+      <c r="W180">
+        <v>1.53</v>
+      </c>
+      <c r="X180">
+        <v>2.38</v>
+      </c>
+      <c r="Y180">
+        <v>3.5</v>
+      </c>
+      <c r="Z180">
+        <v>1.29</v>
+      </c>
+      <c r="AA180">
+        <v>11</v>
+      </c>
+      <c r="AB180">
+        <v>1.05</v>
+      </c>
+      <c r="AC180">
+        <v>2.2</v>
+      </c>
+      <c r="AD180">
+        <v>3.2</v>
+      </c>
+      <c r="AE180">
+        <v>3.5</v>
+      </c>
+      <c r="AF180">
+        <v>1.09</v>
+      </c>
+      <c r="AG180">
+        <v>6</v>
+      </c>
+      <c r="AH180">
+        <v>1.5</v>
+      </c>
+      <c r="AI180">
+        <v>2.5</v>
+      </c>
+      <c r="AJ180">
+        <v>2.63</v>
+      </c>
+      <c r="AK180">
+        <v>1.5</v>
+      </c>
+      <c r="AL180">
+        <v>2.1</v>
+      </c>
+      <c r="AM180">
+        <v>1.67</v>
+      </c>
+      <c r="AN180">
+        <v>1.25</v>
+      </c>
+      <c r="AO180">
+        <v>1.3</v>
+      </c>
+      <c r="AP180">
+        <v>1.78</v>
+      </c>
+      <c r="AQ180">
+        <v>3</v>
+      </c>
+      <c r="AR180">
+        <v>1</v>
+      </c>
+      <c r="AS180">
+        <v>3</v>
+      </c>
+      <c r="AT180">
+        <v>0.9</v>
+      </c>
+      <c r="AU180">
+        <v>1.88</v>
+      </c>
+      <c r="AV180">
+        <v>1.33</v>
+      </c>
+      <c r="AW180">
+        <v>3.21</v>
+      </c>
+      <c r="AX180">
+        <v>1.62</v>
+      </c>
+      <c r="AY180">
+        <v>8.5</v>
+      </c>
+      <c r="AZ180">
+        <v>2.65</v>
+      </c>
+      <c r="BA180">
+        <v>1.2</v>
+      </c>
+      <c r="BB180">
+        <v>1.38</v>
+      </c>
+      <c r="BC180">
+        <v>2.2</v>
+      </c>
+      <c r="BD180">
+        <v>2.07</v>
+      </c>
+      <c r="BE180">
+        <v>2.63</v>
+      </c>
+      <c r="BF180">
+        <v>11</v>
+      </c>
+      <c r="BG180">
+        <v>6</v>
+      </c>
+      <c r="BH180">
+        <v>5</v>
+      </c>
+      <c r="BI180">
+        <v>4</v>
+      </c>
+      <c r="BJ180">
+        <v>16</v>
+      </c>
+      <c r="BK180">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:63">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>5406615</v>
+      </c>
+      <c r="C181" t="s">
+        <v>63</v>
+      </c>
+      <c r="D181" t="s">
+        <v>64</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45151.45833333334</v>
+      </c>
+      <c r="F181">
+        <v>19</v>
+      </c>
+      <c r="G181" t="s">
+        <v>71</v>
+      </c>
+      <c r="H181" t="s">
+        <v>84</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>1</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>1</v>
+      </c>
+      <c r="O181" t="s">
+        <v>211</v>
+      </c>
+      <c r="P181" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q181">
+        <v>2</v>
+      </c>
+      <c r="R181">
+        <v>9</v>
+      </c>
+      <c r="S181">
+        <v>11</v>
+      </c>
+      <c r="T181">
+        <v>2.2</v>
+      </c>
+      <c r="U181">
+        <v>2.2</v>
+      </c>
+      <c r="V181">
+        <v>6</v>
+      </c>
+      <c r="W181">
+        <v>1.4</v>
+      </c>
+      <c r="X181">
+        <v>2.75</v>
+      </c>
+      <c r="Y181">
+        <v>2.75</v>
+      </c>
+      <c r="Z181">
+        <v>1.4</v>
+      </c>
+      <c r="AA181">
+        <v>8</v>
+      </c>
+      <c r="AB181">
+        <v>1.08</v>
+      </c>
+      <c r="AC181">
+        <v>1.57</v>
+      </c>
+      <c r="AD181">
+        <v>3.75</v>
+      </c>
+      <c r="AE181">
+        <v>6.5</v>
+      </c>
+      <c r="AF181">
+        <v>1.05</v>
+      </c>
+      <c r="AG181">
+        <v>11</v>
+      </c>
+      <c r="AH181">
+        <v>1.3</v>
+      </c>
+      <c r="AI181">
+        <v>3.4</v>
+      </c>
+      <c r="AJ181">
+        <v>2.1</v>
+      </c>
+      <c r="AK181">
+        <v>1.73</v>
+      </c>
+      <c r="AL181">
+        <v>2.05</v>
+      </c>
+      <c r="AM181">
+        <v>1.7</v>
+      </c>
+      <c r="AN181">
+        <v>1.14</v>
+      </c>
+      <c r="AO181">
+        <v>1.23</v>
+      </c>
+      <c r="AP181">
+        <v>2.37</v>
+      </c>
+      <c r="AQ181">
+        <v>1.13</v>
+      </c>
+      <c r="AR181">
+        <v>0.67</v>
+      </c>
+      <c r="AS181">
+        <v>1.33</v>
+      </c>
+      <c r="AT181">
+        <v>0.6</v>
+      </c>
+      <c r="AU181">
+        <v>1.72</v>
+      </c>
+      <c r="AV181">
+        <v>1.29</v>
+      </c>
+      <c r="AW181">
+        <v>3.01</v>
+      </c>
+      <c r="AX181">
+        <v>1.38</v>
+      </c>
+      <c r="AY181">
+        <v>9.5</v>
+      </c>
+      <c r="AZ181">
+        <v>3.6</v>
+      </c>
+      <c r="BA181">
+        <v>1.12</v>
+      </c>
+      <c r="BB181">
+        <v>1.3</v>
+      </c>
+      <c r="BC181">
+        <v>1.91</v>
+      </c>
+      <c r="BD181">
+        <v>1.89</v>
+      </c>
+      <c r="BE181">
+        <v>2.35</v>
+      </c>
+      <c r="BF181">
+        <v>5</v>
+      </c>
+      <c r="BG181">
+        <v>5</v>
+      </c>
+      <c r="BH181">
+        <v>7</v>
+      </c>
+      <c r="BI181">
+        <v>10</v>
+      </c>
+      <c r="BJ181">
+        <v>12</v>
+      </c>
+      <c r="BK181">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="293">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -652,6 +652,15 @@
     <t>['49']</t>
   </si>
   <si>
+    <t>['25', '45+1']</t>
+  </si>
+  <si>
+    <t>['51', '54', '67']</t>
+  </si>
+  <si>
+    <t>['58', '80', '83', '90+1']</t>
+  </si>
+  <si>
     <t>['45+7']</t>
   </si>
   <si>
@@ -1245,7 +1254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK181"/>
+  <dimension ref="A1:BK186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1489,7 +1498,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1680,7 +1689,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q3">
         <v>11</v>
@@ -1767,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT3">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1871,7 +1880,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1961,7 +1970,7 @@
         <v>3</v>
       </c>
       <c r="AT4">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2343,7 +2352,7 @@
         <v>2.22</v>
       </c>
       <c r="AT6">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2444,7 +2453,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2531,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT7">
         <v>0.9</v>
@@ -2635,7 +2644,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q8">
         <v>14</v>
@@ -2913,10 +2922,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT9">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3104,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT10">
         <v>1.63</v>
@@ -3295,10 +3304,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT11">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3590,7 +3599,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -4163,7 +4172,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4545,7 +4554,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4736,7 +4745,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5118,7 +5127,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5309,7 +5318,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -5396,10 +5405,10 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT22">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU22">
         <v>1.91</v>
@@ -5590,7 +5599,7 @@
         <v>1</v>
       </c>
       <c r="AT23">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU23">
         <v>1.73</v>
@@ -5691,7 +5700,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q24">
         <v>12</v>
@@ -5882,7 +5891,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -6073,7 +6082,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -6264,7 +6273,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6455,7 +6464,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6542,7 +6551,7 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT28">
         <v>1.89</v>
@@ -6646,7 +6655,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6927,7 +6936,7 @@
         <v>1.67</v>
       </c>
       <c r="AT30">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU30">
         <v>1.28</v>
@@ -7219,7 +7228,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7309,7 +7318,7 @@
         <v>1.1</v>
       </c>
       <c r="AT32">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU32">
         <v>1.94</v>
@@ -7410,7 +7419,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7601,7 +7610,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7688,7 +7697,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT34">
         <v>1.78</v>
@@ -7983,7 +7992,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -8174,7 +8183,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8264,7 +8273,7 @@
         <v>1.33</v>
       </c>
       <c r="AT37">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU37">
         <v>1.06</v>
@@ -8556,7 +8565,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8747,7 +8756,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8834,7 +8843,7 @@
         <v>1</v>
       </c>
       <c r="AS40">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT40">
         <v>1.44</v>
@@ -8938,7 +8947,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9025,7 +9034,7 @@
         <v>3</v>
       </c>
       <c r="AS41">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT41">
         <v>0.89</v>
@@ -9129,7 +9138,7 @@
         <v>119</v>
       </c>
       <c r="P42" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9511,7 +9520,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9789,10 +9798,10 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT45">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU45">
         <v>2.7</v>
@@ -9893,7 +9902,7 @@
         <v>86</v>
       </c>
       <c r="P46" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10084,7 +10093,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q47">
         <v>16</v>
@@ -10174,7 +10183,7 @@
         <v>1.1</v>
       </c>
       <c r="AT47">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU47">
         <v>1.63</v>
@@ -10275,7 +10284,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10935,10 +10944,10 @@
         <v>0.5</v>
       </c>
       <c r="AS51">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT51">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU51">
         <v>2.41</v>
@@ -11039,7 +11048,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q52">
         <v>10</v>
@@ -11421,7 +11430,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q54">
         <v>15</v>
@@ -11890,7 +11899,7 @@
         <v>2</v>
       </c>
       <c r="AS56">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT56">
         <v>0.89</v>
@@ -12084,7 +12093,7 @@
         <v>0.78</v>
       </c>
       <c r="AT57">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU57">
         <v>1.67</v>
@@ -12185,7 +12194,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12272,10 +12281,10 @@
         <v>0.67</v>
       </c>
       <c r="AS58">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT58">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU58">
         <v>2.06</v>
@@ -12376,7 +12385,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12466,7 +12475,7 @@
         <v>2.22</v>
       </c>
       <c r="AT59">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU59">
         <v>1.36</v>
@@ -12758,7 +12767,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -12845,7 +12854,7 @@
         <v>1.5</v>
       </c>
       <c r="AS61">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT61">
         <v>1.63</v>
@@ -12949,7 +12958,7 @@
         <v>132</v>
       </c>
       <c r="P62" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13039,7 +13048,7 @@
         <v>1.33</v>
       </c>
       <c r="AT62">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU62">
         <v>1.74</v>
@@ -13230,7 +13239,7 @@
         <v>3</v>
       </c>
       <c r="AT63">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU63">
         <v>1.76</v>
@@ -13331,7 +13340,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13713,7 +13722,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13904,7 +13913,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q67">
         <v>1</v>
@@ -13991,7 +14000,7 @@
         <v>1.67</v>
       </c>
       <c r="AS67">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT67">
         <v>0.89</v>
@@ -14373,7 +14382,7 @@
         <v>0</v>
       </c>
       <c r="AS69">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT69">
         <v>0.8</v>
@@ -14564,7 +14573,7 @@
         <v>0.33</v>
       </c>
       <c r="AS70">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT70">
         <v>0.9</v>
@@ -14668,7 +14677,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -14946,7 +14955,7 @@
         <v>1.25</v>
       </c>
       <c r="AS72">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT72">
         <v>0.63</v>
@@ -15050,7 +15059,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q73">
         <v>10</v>
@@ -15241,7 +15250,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q74">
         <v>2</v>
@@ -15328,7 +15337,7 @@
         <v>2</v>
       </c>
       <c r="AS74">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT74">
         <v>1.63</v>
@@ -15522,7 +15531,7 @@
         <v>1.33</v>
       </c>
       <c r="AT75">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU75">
         <v>1.39</v>
@@ -15713,7 +15722,7 @@
         <v>2.2</v>
       </c>
       <c r="AT76">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU76">
         <v>1.5</v>
@@ -15901,10 +15910,10 @@
         <v>1.5</v>
       </c>
       <c r="AS77">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT77">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU77">
         <v>1.79</v>
@@ -16286,7 +16295,7 @@
         <v>2</v>
       </c>
       <c r="AT79">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU79">
         <v>1.75</v>
@@ -16387,7 +16396,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16856,7 +16865,7 @@
         <v>0.75</v>
       </c>
       <c r="AS82">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT82">
         <v>0.6</v>
@@ -17047,7 +17056,7 @@
         <v>0</v>
       </c>
       <c r="AS83">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT83">
         <v>0.8</v>
@@ -17342,7 +17351,7 @@
         <v>86</v>
       </c>
       <c r="P85" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q85">
         <v>12</v>
@@ -17724,7 +17733,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17915,7 +17924,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q88">
         <v>7</v>
@@ -18002,10 +18011,10 @@
         <v>0.75</v>
       </c>
       <c r="AS88">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT88">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU88">
         <v>1.62</v>
@@ -18106,7 +18115,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q89">
         <v>11</v>
@@ -18196,7 +18205,7 @@
         <v>2.13</v>
       </c>
       <c r="AT89">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU89">
         <v>2.25</v>
@@ -18297,7 +18306,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18488,7 +18497,7 @@
         <v>154</v>
       </c>
       <c r="P91" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18769,7 +18778,7 @@
         <v>1</v>
       </c>
       <c r="AT92">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU92">
         <v>1.65</v>
@@ -18870,7 +18879,7 @@
         <v>155</v>
       </c>
       <c r="P93" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -19061,7 +19070,7 @@
         <v>156</v>
       </c>
       <c r="P94" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19339,7 +19348,7 @@
         <v>1.8</v>
       </c>
       <c r="AS95">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT95">
         <v>1.78</v>
@@ -19634,7 +19643,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q97">
         <v>7</v>
@@ -19721,7 +19730,7 @@
         <v>0.75</v>
       </c>
       <c r="AS97">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT97">
         <v>0.89</v>
@@ -19825,7 +19834,7 @@
         <v>86</v>
       </c>
       <c r="P98" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -20294,7 +20303,7 @@
         <v>1.5</v>
       </c>
       <c r="AS100">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT100">
         <v>1.25</v>
@@ -20398,7 +20407,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20488,7 +20497,7 @@
         <v>1.33</v>
       </c>
       <c r="AT101">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU101">
         <v>1.59</v>
@@ -20971,7 +20980,7 @@
         <v>86</v>
       </c>
       <c r="P104" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -21162,7 +21171,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21631,7 +21640,7 @@
         <v>0.25</v>
       </c>
       <c r="AS107">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT107">
         <v>0.33</v>
@@ -21735,7 +21744,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -21926,7 +21935,7 @@
         <v>86</v>
       </c>
       <c r="P109" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q109">
         <v>8</v>
@@ -22016,7 +22025,7 @@
         <v>0.78</v>
       </c>
       <c r="AT109">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU109">
         <v>1.97</v>
@@ -22117,7 +22126,7 @@
         <v>86</v>
       </c>
       <c r="P110" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q110">
         <v>10</v>
@@ -22690,7 +22699,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -22968,7 +22977,7 @@
         <v>1.83</v>
       </c>
       <c r="AS114">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT114">
         <v>1.5</v>
@@ -23162,7 +23171,7 @@
         <v>1.1</v>
       </c>
       <c r="AT115">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU115">
         <v>1.88</v>
@@ -23263,7 +23272,7 @@
         <v>171</v>
       </c>
       <c r="P116" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q116">
         <v>8</v>
@@ -23350,10 +23359,10 @@
         <v>0.2</v>
       </c>
       <c r="AS116">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT116">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU116">
         <v>1.97</v>
@@ -23454,7 +23463,7 @@
         <v>86</v>
       </c>
       <c r="P117" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q117">
         <v>12</v>
@@ -23645,7 +23654,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q118">
         <v>2</v>
@@ -23836,7 +23845,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -23923,7 +23932,7 @@
         <v>0.83</v>
       </c>
       <c r="AS119">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT119">
         <v>0.9</v>
@@ -24117,7 +24126,7 @@
         <v>2</v>
       </c>
       <c r="AT120">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU120">
         <v>2.07</v>
@@ -24499,7 +24508,7 @@
         <v>2.2</v>
       </c>
       <c r="AT122">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU122">
         <v>1.74</v>
@@ -24600,7 +24609,7 @@
         <v>177</v>
       </c>
       <c r="P123" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q123">
         <v>7</v>
@@ -24878,7 +24887,7 @@
         <v>1.33</v>
       </c>
       <c r="AS124">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT124">
         <v>0.89</v>
@@ -25260,7 +25269,7 @@
         <v>0.8</v>
       </c>
       <c r="AS126">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT126">
         <v>1.44</v>
@@ -25364,7 +25373,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25746,7 +25755,7 @@
         <v>181</v>
       </c>
       <c r="P129" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q129">
         <v>7</v>
@@ -26027,7 +26036,7 @@
         <v>1.33</v>
       </c>
       <c r="AT130">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU130">
         <v>1.62</v>
@@ -26128,7 +26137,7 @@
         <v>183</v>
       </c>
       <c r="P131" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q131">
         <v>7</v>
@@ -26218,7 +26227,7 @@
         <v>1.33</v>
       </c>
       <c r="AT131">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU131">
         <v>1.72</v>
@@ -26319,7 +26328,7 @@
         <v>184</v>
       </c>
       <c r="P132" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26701,7 +26710,7 @@
         <v>86</v>
       </c>
       <c r="P134" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q134">
         <v>10</v>
@@ -26892,7 +26901,7 @@
         <v>185</v>
       </c>
       <c r="P135" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q135">
         <v>7</v>
@@ -27274,7 +27283,7 @@
         <v>187</v>
       </c>
       <c r="P137" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q137">
         <v>8</v>
@@ -27364,7 +27373,7 @@
         <v>1.4</v>
       </c>
       <c r="AT137">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU137">
         <v>1.55</v>
@@ -27746,7 +27755,7 @@
         <v>2</v>
       </c>
       <c r="AT139">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU139">
         <v>2.04</v>
@@ -27934,7 +27943,7 @@
         <v>0.67</v>
       </c>
       <c r="AS140">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT140">
         <v>0.89</v>
@@ -28038,7 +28047,7 @@
         <v>86</v>
       </c>
       <c r="P141" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q141">
         <v>10</v>
@@ -28125,7 +28134,7 @@
         <v>2</v>
       </c>
       <c r="AS141">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT141">
         <v>1.89</v>
@@ -28510,7 +28519,7 @@
         <v>1.1</v>
       </c>
       <c r="AT143">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU143">
         <v>1.72</v>
@@ -28892,7 +28901,7 @@
         <v>2.2</v>
       </c>
       <c r="AT145">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU145">
         <v>1.84</v>
@@ -29080,7 +29089,7 @@
         <v>1.43</v>
       </c>
       <c r="AS146">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT146">
         <v>1.78</v>
@@ -29844,7 +29853,7 @@
         <v>0.29</v>
       </c>
       <c r="AS150">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT150">
         <v>0.33</v>
@@ -30330,7 +30339,7 @@
         <v>195</v>
       </c>
       <c r="P153" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q153">
         <v>2</v>
@@ -30420,7 +30429,7 @@
         <v>1.33</v>
       </c>
       <c r="AT153">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU153">
         <v>1.59</v>
@@ -30608,7 +30617,7 @@
         <v>1.5</v>
       </c>
       <c r="AS154">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT154">
         <v>1.5</v>
@@ -30903,7 +30912,7 @@
         <v>86</v>
       </c>
       <c r="P156" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q156">
         <v>13</v>
@@ -30993,7 +31002,7 @@
         <v>1.1</v>
       </c>
       <c r="AT156">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU156">
         <v>1.66</v>
@@ -31094,7 +31103,7 @@
         <v>197</v>
       </c>
       <c r="P157" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q157">
         <v>2</v>
@@ -31285,7 +31294,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q158">
         <v>8</v>
@@ -31566,7 +31575,7 @@
         <v>1</v>
       </c>
       <c r="AT159">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU159">
         <v>1.68</v>
@@ -31667,7 +31676,7 @@
         <v>199</v>
       </c>
       <c r="P160" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -31858,7 +31867,7 @@
         <v>200</v>
       </c>
       <c r="P161" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q161">
         <v>7</v>
@@ -32139,7 +32148,7 @@
         <v>2.4</v>
       </c>
       <c r="AT162">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU162">
         <v>1.88</v>
@@ -32240,7 +32249,7 @@
         <v>201</v>
       </c>
       <c r="P163" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q163">
         <v>0</v>
@@ -32327,7 +32336,7 @@
         <v>0.71</v>
       </c>
       <c r="AS163">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT163">
         <v>0.63</v>
@@ -32431,7 +32440,7 @@
         <v>86</v>
       </c>
       <c r="P164" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q164">
         <v>2</v>
@@ -32518,7 +32527,7 @@
         <v>1</v>
       </c>
       <c r="AS164">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT164">
         <v>1.44</v>
@@ -32622,7 +32631,7 @@
         <v>142</v>
       </c>
       <c r="P165" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -33004,7 +33013,7 @@
         <v>202</v>
       </c>
       <c r="P167" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q167">
         <v>7</v>
@@ -33094,7 +33103,7 @@
         <v>3</v>
       </c>
       <c r="AT167">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU167">
         <v>1.88</v>
@@ -33195,7 +33204,7 @@
         <v>203</v>
       </c>
       <c r="P168" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q168">
         <v>5</v>
@@ -33282,7 +33291,7 @@
         <v>1.38</v>
       </c>
       <c r="AS168">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT168">
         <v>1.4</v>
@@ -33577,7 +33586,7 @@
         <v>204</v>
       </c>
       <c r="P170" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q170">
         <v>3</v>
@@ -33768,7 +33777,7 @@
         <v>205</v>
       </c>
       <c r="P171" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q171">
         <v>1</v>
@@ -34532,7 +34541,7 @@
         <v>86</v>
       </c>
       <c r="P175" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q175">
         <v>9</v>
@@ -34914,7 +34923,7 @@
         <v>208</v>
       </c>
       <c r="P177" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q177">
         <v>7</v>
@@ -35820,6 +35829,961 @@
       </c>
       <c r="BK181">
         <v>15</v>
+      </c>
+    </row>
+    <row r="182" spans="1:63">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>5406616</v>
+      </c>
+      <c r="C182" t="s">
+        <v>63</v>
+      </c>
+      <c r="D182" t="s">
+        <v>64</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45151.66666666666</v>
+      </c>
+      <c r="F182">
+        <v>19</v>
+      </c>
+      <c r="G182" t="s">
+        <v>74</v>
+      </c>
+      <c r="H182" t="s">
+        <v>75</v>
+      </c>
+      <c r="I182">
+        <v>2</v>
+      </c>
+      <c r="J182">
+        <v>1</v>
+      </c>
+      <c r="K182">
+        <v>3</v>
+      </c>
+      <c r="L182">
+        <v>2</v>
+      </c>
+      <c r="M182">
+        <v>1</v>
+      </c>
+      <c r="N182">
+        <v>3</v>
+      </c>
+      <c r="O182" t="s">
+        <v>212</v>
+      </c>
+      <c r="P182" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q182">
+        <v>3</v>
+      </c>
+      <c r="R182">
+        <v>8</v>
+      </c>
+      <c r="S182">
+        <v>11</v>
+      </c>
+      <c r="T182">
+        <v>2.88</v>
+      </c>
+      <c r="U182">
+        <v>2.2</v>
+      </c>
+      <c r="V182">
+        <v>3.75</v>
+      </c>
+      <c r="W182">
+        <v>1.4</v>
+      </c>
+      <c r="X182">
+        <v>2.75</v>
+      </c>
+      <c r="Y182">
+        <v>3</v>
+      </c>
+      <c r="Z182">
+        <v>1.36</v>
+      </c>
+      <c r="AA182">
+        <v>9</v>
+      </c>
+      <c r="AB182">
+        <v>1.07</v>
+      </c>
+      <c r="AC182">
+        <v>2.15</v>
+      </c>
+      <c r="AD182">
+        <v>3.4</v>
+      </c>
+      <c r="AE182">
+        <v>3.4</v>
+      </c>
+      <c r="AF182">
+        <v>1.05</v>
+      </c>
+      <c r="AG182">
+        <v>10</v>
+      </c>
+      <c r="AH182">
+        <v>1.33</v>
+      </c>
+      <c r="AI182">
+        <v>3.25</v>
+      </c>
+      <c r="AJ182">
+        <v>1.91</v>
+      </c>
+      <c r="AK182">
+        <v>1.91</v>
+      </c>
+      <c r="AL182">
+        <v>1.75</v>
+      </c>
+      <c r="AM182">
+        <v>2</v>
+      </c>
+      <c r="AN182">
+        <v>1.36</v>
+      </c>
+      <c r="AO182">
+        <v>1.28</v>
+      </c>
+      <c r="AP182">
+        <v>1.65</v>
+      </c>
+      <c r="AQ182">
+        <v>2.22</v>
+      </c>
+      <c r="AR182">
+        <v>0.88</v>
+      </c>
+      <c r="AS182">
+        <v>2.3</v>
+      </c>
+      <c r="AT182">
+        <v>0.78</v>
+      </c>
+      <c r="AU182">
+        <v>1.83</v>
+      </c>
+      <c r="AV182">
+        <v>1.55</v>
+      </c>
+      <c r="AW182">
+        <v>3.38</v>
+      </c>
+      <c r="AX182">
+        <v>1.73</v>
+      </c>
+      <c r="AY182">
+        <v>8.5</v>
+      </c>
+      <c r="AZ182">
+        <v>2.38</v>
+      </c>
+      <c r="BA182">
+        <v>1.17</v>
+      </c>
+      <c r="BB182">
+        <v>1.22</v>
+      </c>
+      <c r="BC182">
+        <v>1.41</v>
+      </c>
+      <c r="BD182">
+        <v>1.68</v>
+      </c>
+      <c r="BE182">
+        <v>2.07</v>
+      </c>
+      <c r="BF182">
+        <v>6</v>
+      </c>
+      <c r="BG182">
+        <v>8</v>
+      </c>
+      <c r="BH182">
+        <v>8</v>
+      </c>
+      <c r="BI182">
+        <v>12</v>
+      </c>
+      <c r="BJ182">
+        <v>14</v>
+      </c>
+      <c r="BK182">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="183" spans="1:63">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>5406619</v>
+      </c>
+      <c r="C183" t="s">
+        <v>63</v>
+      </c>
+      <c r="D183" t="s">
+        <v>64</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45151.66666666666</v>
+      </c>
+      <c r="F183">
+        <v>19</v>
+      </c>
+      <c r="G183" t="s">
+        <v>66</v>
+      </c>
+      <c r="H183" t="s">
+        <v>83</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>1</v>
+      </c>
+      <c r="K183">
+        <v>1</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
+      <c r="N183">
+        <v>1</v>
+      </c>
+      <c r="O183" t="s">
+        <v>86</v>
+      </c>
+      <c r="P183" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q183">
+        <v>7</v>
+      </c>
+      <c r="R183">
+        <v>3</v>
+      </c>
+      <c r="S183">
+        <v>10</v>
+      </c>
+      <c r="T183">
+        <v>2.6</v>
+      </c>
+      <c r="U183">
+        <v>2.05</v>
+      </c>
+      <c r="V183">
+        <v>4.75</v>
+      </c>
+      <c r="W183">
+        <v>1.44</v>
+      </c>
+      <c r="X183">
+        <v>2.63</v>
+      </c>
+      <c r="Y183">
+        <v>3.25</v>
+      </c>
+      <c r="Z183">
+        <v>1.33</v>
+      </c>
+      <c r="AA183">
+        <v>9</v>
+      </c>
+      <c r="AB183">
+        <v>1.07</v>
+      </c>
+      <c r="AC183">
+        <v>1.91</v>
+      </c>
+      <c r="AD183">
+        <v>3.5</v>
+      </c>
+      <c r="AE183">
+        <v>4</v>
+      </c>
+      <c r="AF183">
+        <v>1.04</v>
+      </c>
+      <c r="AG183">
+        <v>7.8</v>
+      </c>
+      <c r="AH183">
+        <v>1.3</v>
+      </c>
+      <c r="AI183">
+        <v>3.2</v>
+      </c>
+      <c r="AJ183">
+        <v>2.2</v>
+      </c>
+      <c r="AK183">
+        <v>1.67</v>
+      </c>
+      <c r="AL183">
+        <v>2</v>
+      </c>
+      <c r="AM183">
+        <v>1.75</v>
+      </c>
+      <c r="AN183">
+        <v>1.25</v>
+      </c>
+      <c r="AO183">
+        <v>1.25</v>
+      </c>
+      <c r="AP183">
+        <v>1.87</v>
+      </c>
+      <c r="AQ183">
+        <v>0.88</v>
+      </c>
+      <c r="AR183">
+        <v>0.78</v>
+      </c>
+      <c r="AS183">
+        <v>0.78</v>
+      </c>
+      <c r="AT183">
+        <v>1</v>
+      </c>
+      <c r="AU183">
+        <v>1.81</v>
+      </c>
+      <c r="AV183">
+        <v>1.3</v>
+      </c>
+      <c r="AW183">
+        <v>3.11</v>
+      </c>
+      <c r="AX183">
+        <v>1.55</v>
+      </c>
+      <c r="AY183">
+        <v>8.5</v>
+      </c>
+      <c r="AZ183">
+        <v>2.9</v>
+      </c>
+      <c r="BA183">
+        <v>1.17</v>
+      </c>
+      <c r="BB183">
+        <v>1.32</v>
+      </c>
+      <c r="BC183">
+        <v>1.56</v>
+      </c>
+      <c r="BD183">
+        <v>1.92</v>
+      </c>
+      <c r="BE183">
+        <v>2.4</v>
+      </c>
+      <c r="BF183">
+        <v>3</v>
+      </c>
+      <c r="BG183">
+        <v>4</v>
+      </c>
+      <c r="BH183">
+        <v>10</v>
+      </c>
+      <c r="BI183">
+        <v>3</v>
+      </c>
+      <c r="BJ183">
+        <v>13</v>
+      </c>
+      <c r="BK183">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:63">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>5406613</v>
+      </c>
+      <c r="C184" t="s">
+        <v>63</v>
+      </c>
+      <c r="D184" t="s">
+        <v>64</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45151.66666666666</v>
+      </c>
+      <c r="F184">
+        <v>19</v>
+      </c>
+      <c r="G184" t="s">
+        <v>73</v>
+      </c>
+      <c r="H184" t="s">
+        <v>82</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>1</v>
+      </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
+      <c r="L184">
+        <v>3</v>
+      </c>
+      <c r="M184">
+        <v>1</v>
+      </c>
+      <c r="N184">
+        <v>4</v>
+      </c>
+      <c r="O184" t="s">
+        <v>213</v>
+      </c>
+      <c r="P184" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q184">
+        <v>4</v>
+      </c>
+      <c r="R184">
+        <v>2</v>
+      </c>
+      <c r="S184">
+        <v>6</v>
+      </c>
+      <c r="T184">
+        <v>2.4</v>
+      </c>
+      <c r="U184">
+        <v>2.05</v>
+      </c>
+      <c r="V184">
+        <v>6</v>
+      </c>
+      <c r="W184">
+        <v>1.5</v>
+      </c>
+      <c r="X184">
+        <v>2.5</v>
+      </c>
+      <c r="Y184">
+        <v>3.5</v>
+      </c>
+      <c r="Z184">
+        <v>1.29</v>
+      </c>
+      <c r="AA184">
+        <v>11</v>
+      </c>
+      <c r="AB184">
+        <v>1.05</v>
+      </c>
+      <c r="AC184">
+        <v>1.7</v>
+      </c>
+      <c r="AD184">
+        <v>3.6</v>
+      </c>
+      <c r="AE184">
+        <v>5.25</v>
+      </c>
+      <c r="AF184">
+        <v>1.08</v>
+      </c>
+      <c r="AG184">
+        <v>8</v>
+      </c>
+      <c r="AH184">
+        <v>1.51</v>
+      </c>
+      <c r="AI184">
+        <v>2.39</v>
+      </c>
+      <c r="AJ184">
+        <v>2.38</v>
+      </c>
+      <c r="AK184">
+        <v>1.57</v>
+      </c>
+      <c r="AL184">
+        <v>2.2</v>
+      </c>
+      <c r="AM184">
+        <v>1.62</v>
+      </c>
+      <c r="AN184">
+        <v>1.18</v>
+      </c>
+      <c r="AO184">
+        <v>1.25</v>
+      </c>
+      <c r="AP184">
+        <v>2.1</v>
+      </c>
+      <c r="AQ184">
+        <v>1.71</v>
+      </c>
+      <c r="AR184">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS184">
+        <v>1.88</v>
+      </c>
+      <c r="AT184">
+        <v>0.5</v>
+      </c>
+      <c r="AU184">
+        <v>1.7</v>
+      </c>
+      <c r="AV184">
+        <v>1.37</v>
+      </c>
+      <c r="AW184">
+        <v>3.07</v>
+      </c>
+      <c r="AX184">
+        <v>1.48</v>
+      </c>
+      <c r="AY184">
+        <v>9</v>
+      </c>
+      <c r="AZ184">
+        <v>3.15</v>
+      </c>
+      <c r="BA184">
+        <v>1.17</v>
+      </c>
+      <c r="BB184">
+        <v>1.28</v>
+      </c>
+      <c r="BC184">
+        <v>1.5</v>
+      </c>
+      <c r="BD184">
+        <v>1.82</v>
+      </c>
+      <c r="BE184">
+        <v>2.25</v>
+      </c>
+      <c r="BF184">
+        <v>10</v>
+      </c>
+      <c r="BG184">
+        <v>3</v>
+      </c>
+      <c r="BH184">
+        <v>7</v>
+      </c>
+      <c r="BI184">
+        <v>1</v>
+      </c>
+      <c r="BJ184">
+        <v>17</v>
+      </c>
+      <c r="BK184">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:63">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>5406610</v>
+      </c>
+      <c r="C185" t="s">
+        <v>63</v>
+      </c>
+      <c r="D185" t="s">
+        <v>64</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45151.77083333334</v>
+      </c>
+      <c r="F185">
+        <v>19</v>
+      </c>
+      <c r="G185" t="s">
+        <v>72</v>
+      </c>
+      <c r="H185" t="s">
+        <v>77</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>1</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="L185">
+        <v>1</v>
+      </c>
+      <c r="M185">
+        <v>1</v>
+      </c>
+      <c r="N185">
+        <v>2</v>
+      </c>
+      <c r="O185" t="s">
+        <v>204</v>
+      </c>
+      <c r="P185" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q185">
+        <v>8</v>
+      </c>
+      <c r="R185">
+        <v>2</v>
+      </c>
+      <c r="S185">
+        <v>10</v>
+      </c>
+      <c r="T185">
+        <v>2.3</v>
+      </c>
+      <c r="U185">
+        <v>2.2</v>
+      </c>
+      <c r="V185">
+        <v>5.5</v>
+      </c>
+      <c r="W185">
+        <v>1.44</v>
+      </c>
+      <c r="X185">
+        <v>2.63</v>
+      </c>
+      <c r="Y185">
+        <v>3.25</v>
+      </c>
+      <c r="Z185">
+        <v>1.33</v>
+      </c>
+      <c r="AA185">
+        <v>9</v>
+      </c>
+      <c r="AB185">
+        <v>1.07</v>
+      </c>
+      <c r="AC185">
+        <v>1.62</v>
+      </c>
+      <c r="AD185">
+        <v>4</v>
+      </c>
+      <c r="AE185">
+        <v>7.2</v>
+      </c>
+      <c r="AF185">
+        <v>1.07</v>
+      </c>
+      <c r="AG185">
+        <v>9</v>
+      </c>
+      <c r="AH185">
+        <v>1.36</v>
+      </c>
+      <c r="AI185">
+        <v>3.1</v>
+      </c>
+      <c r="AJ185">
+        <v>1.9</v>
+      </c>
+      <c r="AK185">
+        <v>1.8</v>
+      </c>
+      <c r="AL185">
+        <v>1.95</v>
+      </c>
+      <c r="AM185">
+        <v>1.8</v>
+      </c>
+      <c r="AN185">
+        <v>1.12</v>
+      </c>
+      <c r="AO185">
+        <v>1.22</v>
+      </c>
+      <c r="AP185">
+        <v>2.3</v>
+      </c>
+      <c r="AQ185">
+        <v>2.13</v>
+      </c>
+      <c r="AR185">
+        <v>0.5</v>
+      </c>
+      <c r="AS185">
+        <v>2</v>
+      </c>
+      <c r="AT185">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU185">
+        <v>1.85</v>
+      </c>
+      <c r="AV185">
+        <v>1.5</v>
+      </c>
+      <c r="AW185">
+        <v>3.35</v>
+      </c>
+      <c r="AX185">
+        <v>1.6</v>
+      </c>
+      <c r="AY185">
+        <v>8.5</v>
+      </c>
+      <c r="AZ185">
+        <v>2.7</v>
+      </c>
+      <c r="BA185">
+        <v>1.17</v>
+      </c>
+      <c r="BB185">
+        <v>1.28</v>
+      </c>
+      <c r="BC185">
+        <v>1.5</v>
+      </c>
+      <c r="BD185">
+        <v>1.84</v>
+      </c>
+      <c r="BE185">
+        <v>2.28</v>
+      </c>
+      <c r="BF185">
+        <v>8</v>
+      </c>
+      <c r="BG185">
+        <v>2</v>
+      </c>
+      <c r="BH185">
+        <v>12</v>
+      </c>
+      <c r="BI185">
+        <v>7</v>
+      </c>
+      <c r="BJ185">
+        <v>20</v>
+      </c>
+      <c r="BK185">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:63">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>5406618</v>
+      </c>
+      <c r="C186" t="s">
+        <v>63</v>
+      </c>
+      <c r="D186" t="s">
+        <v>64</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45151.77083333334</v>
+      </c>
+      <c r="F186">
+        <v>19</v>
+      </c>
+      <c r="G186" t="s">
+        <v>70</v>
+      </c>
+      <c r="H186" t="s">
+        <v>80</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>4</v>
+      </c>
+      <c r="M186">
+        <v>0</v>
+      </c>
+      <c r="N186">
+        <v>4</v>
+      </c>
+      <c r="O186" t="s">
+        <v>214</v>
+      </c>
+      <c r="P186" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q186">
+        <v>10</v>
+      </c>
+      <c r="R186">
+        <v>6</v>
+      </c>
+      <c r="S186">
+        <v>16</v>
+      </c>
+      <c r="T186">
+        <v>2.25</v>
+      </c>
+      <c r="U186">
+        <v>2.05</v>
+      </c>
+      <c r="V186">
+        <v>6.5</v>
+      </c>
+      <c r="W186">
+        <v>1.5</v>
+      </c>
+      <c r="X186">
+        <v>2.5</v>
+      </c>
+      <c r="Y186">
+        <v>3.4</v>
+      </c>
+      <c r="Z186">
+        <v>1.3</v>
+      </c>
+      <c r="AA186">
+        <v>10</v>
+      </c>
+      <c r="AB186">
+        <v>1.06</v>
+      </c>
+      <c r="AC186">
+        <v>1.7</v>
+      </c>
+      <c r="AD186">
+        <v>3.6</v>
+      </c>
+      <c r="AE186">
+        <v>5.4</v>
+      </c>
+      <c r="AF186">
+        <v>1.07</v>
+      </c>
+      <c r="AG186">
+        <v>8.5</v>
+      </c>
+      <c r="AH186">
+        <v>1.42</v>
+      </c>
+      <c r="AI186">
+        <v>2.85</v>
+      </c>
+      <c r="AJ186">
+        <v>2.15</v>
+      </c>
+      <c r="AK186">
+        <v>1.62</v>
+      </c>
+      <c r="AL186">
+        <v>2.25</v>
+      </c>
+      <c r="AM186">
+        <v>1.57</v>
+      </c>
+      <c r="AN186">
+        <v>1.14</v>
+      </c>
+      <c r="AO186">
+        <v>1.22</v>
+      </c>
+      <c r="AP186">
+        <v>2.25</v>
+      </c>
+      <c r="AQ186">
+        <v>1.67</v>
+      </c>
+      <c r="AR186">
+        <v>0.5</v>
+      </c>
+      <c r="AS186">
+        <v>1.8</v>
+      </c>
+      <c r="AT186">
+        <v>0.44</v>
+      </c>
+      <c r="AU186">
+        <v>1.82</v>
+      </c>
+      <c r="AV186">
+        <v>1.02</v>
+      </c>
+      <c r="AW186">
+        <v>2.84</v>
+      </c>
+      <c r="AX186">
+        <v>1.37</v>
+      </c>
+      <c r="AY186">
+        <v>9.5</v>
+      </c>
+      <c r="AZ186">
+        <v>3.85</v>
+      </c>
+      <c r="BA186">
+        <v>1.18</v>
+      </c>
+      <c r="BB186">
+        <v>1.35</v>
+      </c>
+      <c r="BC186">
+        <v>2.1</v>
+      </c>
+      <c r="BD186">
+        <v>1.98</v>
+      </c>
+      <c r="BE186">
+        <v>2.48</v>
+      </c>
+      <c r="BF186">
+        <v>11</v>
+      </c>
+      <c r="BG186">
+        <v>4</v>
+      </c>
+      <c r="BH186">
+        <v>15</v>
+      </c>
+      <c r="BI186">
+        <v>6</v>
+      </c>
+      <c r="BJ186">
+        <v>26</v>
+      </c>
+      <c r="BK186">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="296">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -661,6 +661,12 @@
     <t>['58', '80', '83', '90+1']</t>
   </si>
   <si>
+    <t>['45+8']</t>
+  </si>
+  <si>
+    <t>['45', '82']</t>
+  </si>
+  <si>
     <t>['45+7']</t>
   </si>
   <si>
@@ -893,6 +899,9 @@
   </si>
   <si>
     <t>['4', '69']</t>
+  </si>
+  <si>
+    <t>['32']</t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1263,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK186"/>
+  <dimension ref="A1:BK189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1498,7 +1507,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1585,10 +1594,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT2">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1689,7 +1698,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q3">
         <v>11</v>
@@ -1880,7 +1889,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2158,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT5">
         <v>0.6</v>
@@ -2349,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT6">
         <v>1</v>
@@ -2453,7 +2462,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2644,7 +2653,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q8">
         <v>14</v>
@@ -2734,7 +2743,7 @@
         <v>1.33</v>
       </c>
       <c r="AT8">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3116,7 +3125,7 @@
         <v>1.88</v>
       </c>
       <c r="AT10">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3599,7 +3608,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -4172,7 +4181,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4554,7 +4563,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4745,7 +4754,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5127,7 +5136,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5318,7 +5327,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -5700,7 +5709,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q24">
         <v>12</v>
@@ -5787,7 +5796,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT24">
         <v>0.8</v>
@@ -5891,7 +5900,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -6082,7 +6091,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -6169,10 +6178,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT26">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU26">
         <v>1.72</v>
@@ -6273,7 +6282,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6464,7 +6473,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6655,7 +6664,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -7228,7 +7237,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7419,7 +7428,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7509,7 +7518,7 @@
         <v>2.4</v>
       </c>
       <c r="AT33">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU33">
         <v>2.02</v>
@@ -7610,7 +7619,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7700,7 +7709,7 @@
         <v>0.78</v>
       </c>
       <c r="AT34">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU34">
         <v>2.02</v>
@@ -7992,7 +8001,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -8079,7 +8088,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT36">
         <v>1.4</v>
@@ -8183,7 +8192,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8565,7 +8574,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8756,7 +8765,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8947,7 +8956,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9138,7 +9147,7 @@
         <v>119</v>
       </c>
       <c r="P42" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9225,7 +9234,7 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT42">
         <v>0.33</v>
@@ -9520,7 +9529,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9902,7 +9911,7 @@
         <v>86</v>
       </c>
       <c r="P46" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10093,7 +10102,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q47">
         <v>16</v>
@@ -10284,7 +10293,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10371,7 +10380,7 @@
         <v>1.5</v>
       </c>
       <c r="AS48">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT48">
         <v>1.25</v>
@@ -10565,7 +10574,7 @@
         <v>1</v>
       </c>
       <c r="AT49">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU49">
         <v>1.69</v>
@@ -11048,7 +11057,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q52">
         <v>10</v>
@@ -11329,7 +11338,7 @@
         <v>2.4</v>
       </c>
       <c r="AT53">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU53">
         <v>2.57</v>
@@ -11430,7 +11439,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q54">
         <v>15</v>
@@ -11517,7 +11526,7 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT54">
         <v>1.44</v>
@@ -12194,7 +12203,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12385,7 +12394,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12472,7 +12481,7 @@
         <v>0</v>
       </c>
       <c r="AS59">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT59">
         <v>0.5</v>
@@ -12767,7 +12776,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -12857,7 +12866,7 @@
         <v>0.78</v>
       </c>
       <c r="AT61">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU61">
         <v>1.92</v>
@@ -12958,7 +12967,7 @@
         <v>132</v>
       </c>
       <c r="P62" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13340,7 +13349,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13430,7 +13439,7 @@
         <v>2.2</v>
       </c>
       <c r="AT64">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU64">
         <v>1.35</v>
@@ -13618,7 +13627,7 @@
         <v>1</v>
       </c>
       <c r="AS65">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT65">
         <v>0.89</v>
@@ -13722,7 +13731,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13913,7 +13922,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q67">
         <v>1</v>
@@ -14677,7 +14686,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -14767,7 +14776,7 @@
         <v>1.1</v>
       </c>
       <c r="AT71">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU71">
         <v>2.04</v>
@@ -14958,7 +14967,7 @@
         <v>1.8</v>
       </c>
       <c r="AT72">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU72">
         <v>2.18</v>
@@ -15059,7 +15068,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q73">
         <v>10</v>
@@ -15146,7 +15155,7 @@
         <v>1</v>
       </c>
       <c r="AS73">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT73">
         <v>1.25</v>
@@ -15250,7 +15259,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q74">
         <v>2</v>
@@ -15340,7 +15349,7 @@
         <v>2</v>
       </c>
       <c r="AT74">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU74">
         <v>2.29</v>
@@ -16292,7 +16301,7 @@
         <v>1</v>
       </c>
       <c r="AS79">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT79">
         <v>0.44</v>
@@ -16396,7 +16405,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17247,7 +17256,7 @@
         <v>2</v>
       </c>
       <c r="AS84">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT84">
         <v>1.89</v>
@@ -17351,7 +17360,7 @@
         <v>86</v>
       </c>
       <c r="P85" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q85">
         <v>12</v>
@@ -17733,7 +17742,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17924,7 +17933,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q88">
         <v>7</v>
@@ -18115,7 +18124,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q89">
         <v>11</v>
@@ -18202,7 +18211,7 @@
         <v>0.25</v>
       </c>
       <c r="AS89">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT89">
         <v>0.5</v>
@@ -18306,7 +18315,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18396,7 +18405,7 @@
         <v>1.33</v>
       </c>
       <c r="AT90">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU90">
         <v>1.64</v>
@@ -18497,7 +18506,7 @@
         <v>154</v>
       </c>
       <c r="P91" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18879,7 +18888,7 @@
         <v>155</v>
       </c>
       <c r="P93" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -19070,7 +19079,7 @@
         <v>156</v>
       </c>
       <c r="P94" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19160,7 +19169,7 @@
         <v>1.33</v>
       </c>
       <c r="AT94">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU94">
         <v>1.87</v>
@@ -19351,7 +19360,7 @@
         <v>1.88</v>
       </c>
       <c r="AT95">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU95">
         <v>1.72</v>
@@ -19643,7 +19652,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q97">
         <v>7</v>
@@ -19834,7 +19843,7 @@
         <v>86</v>
       </c>
       <c r="P98" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -20115,7 +20124,7 @@
         <v>1.67</v>
       </c>
       <c r="AT99">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU99">
         <v>1.44</v>
@@ -20407,7 +20416,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20980,7 +20989,7 @@
         <v>86</v>
       </c>
       <c r="P104" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -21171,7 +21180,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21744,7 +21753,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -21935,7 +21944,7 @@
         <v>86</v>
       </c>
       <c r="P109" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q109">
         <v>8</v>
@@ -22126,7 +22135,7 @@
         <v>86</v>
       </c>
       <c r="P110" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q110">
         <v>10</v>
@@ -22404,7 +22413,7 @@
         <v>1.5</v>
       </c>
       <c r="AS111">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT111">
         <v>1.4</v>
@@ -22595,7 +22604,7 @@
         <v>0.5</v>
       </c>
       <c r="AS112">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT112">
         <v>0.8</v>
@@ -22699,7 +22708,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -23272,7 +23281,7 @@
         <v>171</v>
       </c>
       <c r="P116" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q116">
         <v>8</v>
@@ -23463,7 +23472,7 @@
         <v>86</v>
       </c>
       <c r="P117" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q117">
         <v>12</v>
@@ -23550,7 +23559,7 @@
         <v>1.8</v>
       </c>
       <c r="AS117">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT117">
         <v>1.89</v>
@@ -23654,7 +23663,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q118">
         <v>2</v>
@@ -23845,7 +23854,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -24123,7 +24132,7 @@
         <v>0.67</v>
       </c>
       <c r="AS120">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT120">
         <v>1</v>
@@ -24317,7 +24326,7 @@
         <v>0.78</v>
       </c>
       <c r="AT121">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU121">
         <v>2.06</v>
@@ -24609,7 +24618,7 @@
         <v>177</v>
       </c>
       <c r="P123" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q123">
         <v>7</v>
@@ -25081,7 +25090,7 @@
         <v>1.67</v>
       </c>
       <c r="AT125">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU125">
         <v>1.39</v>
@@ -25373,7 +25382,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25654,7 +25663,7 @@
         <v>3</v>
       </c>
       <c r="AT128">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU128">
         <v>1.95</v>
@@ -25755,7 +25764,7 @@
         <v>181</v>
       </c>
       <c r="P129" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q129">
         <v>7</v>
@@ -25842,7 +25851,7 @@
         <v>1.5</v>
       </c>
       <c r="AS129">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT129">
         <v>1.4</v>
@@ -26137,7 +26146,7 @@
         <v>183</v>
       </c>
       <c r="P131" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q131">
         <v>7</v>
@@ -26328,7 +26337,7 @@
         <v>184</v>
       </c>
       <c r="P132" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26609,7 +26618,7 @@
         <v>0.78</v>
       </c>
       <c r="AT133">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU133">
         <v>1.91</v>
@@ -26710,7 +26719,7 @@
         <v>86</v>
       </c>
       <c r="P134" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q134">
         <v>10</v>
@@ -26901,7 +26910,7 @@
         <v>185</v>
       </c>
       <c r="P135" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q135">
         <v>7</v>
@@ -27179,7 +27188,7 @@
         <v>1.5</v>
       </c>
       <c r="AS136">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT136">
         <v>1.4</v>
@@ -27283,7 +27292,7 @@
         <v>187</v>
       </c>
       <c r="P137" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q137">
         <v>8</v>
@@ -27752,7 +27761,7 @@
         <v>0.5</v>
       </c>
       <c r="AS139">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT139">
         <v>0.5600000000000001</v>
@@ -28047,7 +28056,7 @@
         <v>86</v>
       </c>
       <c r="P141" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q141">
         <v>10</v>
@@ -29092,7 +29101,7 @@
         <v>1.8</v>
       </c>
       <c r="AT146">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU146">
         <v>1.83</v>
@@ -29471,7 +29480,7 @@
         <v>0.71</v>
       </c>
       <c r="AS148">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT148">
         <v>0.6</v>
@@ -30044,7 +30053,7 @@
         <v>1.14</v>
       </c>
       <c r="AS151">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT151">
         <v>0.89</v>
@@ -30339,7 +30348,7 @@
         <v>195</v>
       </c>
       <c r="P153" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q153">
         <v>2</v>
@@ -30808,7 +30817,7 @@
         <v>1</v>
       </c>
       <c r="AS155">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT155">
         <v>0.9</v>
@@ -30912,7 +30921,7 @@
         <v>86</v>
       </c>
       <c r="P156" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q156">
         <v>13</v>
@@ -31103,7 +31112,7 @@
         <v>197</v>
       </c>
       <c r="P157" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q157">
         <v>2</v>
@@ -31294,7 +31303,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q158">
         <v>8</v>
@@ -31676,7 +31685,7 @@
         <v>199</v>
       </c>
       <c r="P160" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -31763,10 +31772,10 @@
         <v>1.71</v>
       </c>
       <c r="AS160">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT160">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU160">
         <v>2.01</v>
@@ -31867,7 +31876,7 @@
         <v>200</v>
       </c>
       <c r="P161" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q161">
         <v>7</v>
@@ -31957,7 +31966,7 @@
         <v>1.67</v>
       </c>
       <c r="AT161">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU161">
         <v>1.42</v>
@@ -32249,7 +32258,7 @@
         <v>201</v>
       </c>
       <c r="P163" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q163">
         <v>0</v>
@@ -32339,7 +32348,7 @@
         <v>1.88</v>
       </c>
       <c r="AT163">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU163">
         <v>1.71</v>
@@ -32440,7 +32449,7 @@
         <v>86</v>
       </c>
       <c r="P164" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q164">
         <v>2</v>
@@ -32631,7 +32640,7 @@
         <v>142</v>
       </c>
       <c r="P165" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -33013,7 +33022,7 @@
         <v>202</v>
       </c>
       <c r="P167" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q167">
         <v>7</v>
@@ -33204,7 +33213,7 @@
         <v>203</v>
       </c>
       <c r="P168" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q168">
         <v>5</v>
@@ -33586,7 +33595,7 @@
         <v>204</v>
       </c>
       <c r="P170" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q170">
         <v>3</v>
@@ -33777,7 +33786,7 @@
         <v>205</v>
       </c>
       <c r="P171" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q171">
         <v>1</v>
@@ -34541,7 +34550,7 @@
         <v>86</v>
       </c>
       <c r="P175" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q175">
         <v>9</v>
@@ -34923,7 +34932,7 @@
         <v>208</v>
       </c>
       <c r="P177" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q177">
         <v>7</v>
@@ -36260,7 +36269,7 @@
         <v>213</v>
       </c>
       <c r="P184" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q184">
         <v>4</v>
@@ -36784,6 +36793,579 @@
       </c>
       <c r="BK186">
         <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:63">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>5406612</v>
+      </c>
+      <c r="C187" t="s">
+        <v>63</v>
+      </c>
+      <c r="D187" t="s">
+        <v>64</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45152.79166666666</v>
+      </c>
+      <c r="F187">
+        <v>19</v>
+      </c>
+      <c r="G187" t="s">
+        <v>65</v>
+      </c>
+      <c r="H187" t="s">
+        <v>78</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>1</v>
+      </c>
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187">
+        <v>1</v>
+      </c>
+      <c r="O187" t="s">
+        <v>204</v>
+      </c>
+      <c r="P187" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q187">
+        <v>3</v>
+      </c>
+      <c r="R187">
+        <v>5</v>
+      </c>
+      <c r="S187">
+        <v>8</v>
+      </c>
+      <c r="T187">
+        <v>2.2</v>
+      </c>
+      <c r="U187">
+        <v>2.2</v>
+      </c>
+      <c r="V187">
+        <v>6</v>
+      </c>
+      <c r="W187">
+        <v>1.4</v>
+      </c>
+      <c r="X187">
+        <v>2.75</v>
+      </c>
+      <c r="Y187">
+        <v>3</v>
+      </c>
+      <c r="Z187">
+        <v>1.36</v>
+      </c>
+      <c r="AA187">
+        <v>8</v>
+      </c>
+      <c r="AB187">
+        <v>1.08</v>
+      </c>
+      <c r="AC187">
+        <v>1.57</v>
+      </c>
+      <c r="AD187">
+        <v>4</v>
+      </c>
+      <c r="AE187">
+        <v>6</v>
+      </c>
+      <c r="AF187">
+        <v>1.06</v>
+      </c>
+      <c r="AG187">
+        <v>8</v>
+      </c>
+      <c r="AH187">
+        <v>1.36</v>
+      </c>
+      <c r="AI187">
+        <v>3</v>
+      </c>
+      <c r="AJ187">
+        <v>2</v>
+      </c>
+      <c r="AK187">
+        <v>1.8</v>
+      </c>
+      <c r="AL187">
+        <v>2.05</v>
+      </c>
+      <c r="AM187">
+        <v>1.7</v>
+      </c>
+      <c r="AN187">
+        <v>1.04</v>
+      </c>
+      <c r="AO187">
+        <v>1.25</v>
+      </c>
+      <c r="AP187">
+        <v>2.45</v>
+      </c>
+      <c r="AQ187">
+        <v>2.13</v>
+      </c>
+      <c r="AR187">
+        <v>1.63</v>
+      </c>
+      <c r="AS187">
+        <v>2.22</v>
+      </c>
+      <c r="AT187">
+        <v>1.44</v>
+      </c>
+      <c r="AU187">
+        <v>1.94</v>
+      </c>
+      <c r="AV187">
+        <v>1.61</v>
+      </c>
+      <c r="AW187">
+        <v>3.55</v>
+      </c>
+      <c r="AX187">
+        <v>1.53</v>
+      </c>
+      <c r="AY187">
+        <v>9</v>
+      </c>
+      <c r="AZ187">
+        <v>2.9</v>
+      </c>
+      <c r="BA187">
+        <v>1.17</v>
+      </c>
+      <c r="BB187">
+        <v>1.2</v>
+      </c>
+      <c r="BC187">
+        <v>1.37</v>
+      </c>
+      <c r="BD187">
+        <v>1.63</v>
+      </c>
+      <c r="BE187">
+        <v>1.98</v>
+      </c>
+      <c r="BF187">
+        <v>5</v>
+      </c>
+      <c r="BG187">
+        <v>6</v>
+      </c>
+      <c r="BH187">
+        <v>8</v>
+      </c>
+      <c r="BI187">
+        <v>8</v>
+      </c>
+      <c r="BJ187">
+        <v>13</v>
+      </c>
+      <c r="BK187">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="188" spans="1:63">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>5406614</v>
+      </c>
+      <c r="C188" t="s">
+        <v>63</v>
+      </c>
+      <c r="D188" t="s">
+        <v>64</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45152.875</v>
+      </c>
+      <c r="F188">
+        <v>19</v>
+      </c>
+      <c r="G188" t="s">
+        <v>68</v>
+      </c>
+      <c r="H188" t="s">
+        <v>81</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188">
+        <v>1</v>
+      </c>
+      <c r="K188">
+        <v>2</v>
+      </c>
+      <c r="L188">
+        <v>1</v>
+      </c>
+      <c r="M188">
+        <v>1</v>
+      </c>
+      <c r="N188">
+        <v>2</v>
+      </c>
+      <c r="O188" t="s">
+        <v>215</v>
+      </c>
+      <c r="P188" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q188">
+        <v>7</v>
+      </c>
+      <c r="R188">
+        <v>6</v>
+      </c>
+      <c r="S188">
+        <v>13</v>
+      </c>
+      <c r="T188">
+        <v>2.3</v>
+      </c>
+      <c r="U188">
+        <v>2.2</v>
+      </c>
+      <c r="V188">
+        <v>5.5</v>
+      </c>
+      <c r="W188">
+        <v>1.4</v>
+      </c>
+      <c r="X188">
+        <v>2.75</v>
+      </c>
+      <c r="Y188">
+        <v>3</v>
+      </c>
+      <c r="Z188">
+        <v>1.36</v>
+      </c>
+      <c r="AA188">
+        <v>8</v>
+      </c>
+      <c r="AB188">
+        <v>1.08</v>
+      </c>
+      <c r="AC188">
+        <v>1.7</v>
+      </c>
+      <c r="AD188">
+        <v>3.5</v>
+      </c>
+      <c r="AE188">
+        <v>5.75</v>
+      </c>
+      <c r="AF188">
+        <v>1.07</v>
+      </c>
+      <c r="AG188">
+        <v>7.5</v>
+      </c>
+      <c r="AH188">
+        <v>1.36</v>
+      </c>
+      <c r="AI188">
+        <v>3</v>
+      </c>
+      <c r="AJ188">
+        <v>2.1</v>
+      </c>
+      <c r="AK188">
+        <v>1.73</v>
+      </c>
+      <c r="AL188">
+        <v>1.95</v>
+      </c>
+      <c r="AM188">
+        <v>1.8</v>
+      </c>
+      <c r="AN188">
+        <v>1.12</v>
+      </c>
+      <c r="AO188">
+        <v>1.24</v>
+      </c>
+      <c r="AP188">
+        <v>2.4</v>
+      </c>
+      <c r="AQ188">
+        <v>2</v>
+      </c>
+      <c r="AR188">
+        <v>0.63</v>
+      </c>
+      <c r="AS188">
+        <v>1.9</v>
+      </c>
+      <c r="AT188">
+        <v>0.67</v>
+      </c>
+      <c r="AU188">
+        <v>2.11</v>
+      </c>
+      <c r="AV188">
+        <v>1.44</v>
+      </c>
+      <c r="AW188">
+        <v>3.55</v>
+      </c>
+      <c r="AX188">
+        <v>1.42</v>
+      </c>
+      <c r="AY188">
+        <v>9</v>
+      </c>
+      <c r="AZ188">
+        <v>3.45</v>
+      </c>
+      <c r="BA188">
+        <v>1.09</v>
+      </c>
+      <c r="BB188">
+        <v>1.3</v>
+      </c>
+      <c r="BC188">
+        <v>1.53</v>
+      </c>
+      <c r="BD188">
+        <v>1.87</v>
+      </c>
+      <c r="BE188">
+        <v>2.32</v>
+      </c>
+      <c r="BF188">
+        <v>8</v>
+      </c>
+      <c r="BG188">
+        <v>5</v>
+      </c>
+      <c r="BH188">
+        <v>17</v>
+      </c>
+      <c r="BI188">
+        <v>4</v>
+      </c>
+      <c r="BJ188">
+        <v>25</v>
+      </c>
+      <c r="BK188">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189" spans="1:63">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>5406617</v>
+      </c>
+      <c r="C189" t="s">
+        <v>63</v>
+      </c>
+      <c r="D189" t="s">
+        <v>64</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45153.83333333334</v>
+      </c>
+      <c r="F189">
+        <v>19</v>
+      </c>
+      <c r="G189" t="s">
+        <v>69</v>
+      </c>
+      <c r="H189" t="s">
+        <v>76</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>1</v>
+      </c>
+      <c r="L189">
+        <v>2</v>
+      </c>
+      <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189">
+        <v>2</v>
+      </c>
+      <c r="O189" t="s">
+        <v>216</v>
+      </c>
+      <c r="P189" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q189">
+        <v>5</v>
+      </c>
+      <c r="R189">
+        <v>3</v>
+      </c>
+      <c r="S189">
+        <v>8</v>
+      </c>
+      <c r="T189">
+        <v>2.63</v>
+      </c>
+      <c r="U189">
+        <v>1.95</v>
+      </c>
+      <c r="V189">
+        <v>5</v>
+      </c>
+      <c r="W189">
+        <v>1.53</v>
+      </c>
+      <c r="X189">
+        <v>2.38</v>
+      </c>
+      <c r="Y189">
+        <v>3.5</v>
+      </c>
+      <c r="Z189">
+        <v>1.29</v>
+      </c>
+      <c r="AA189">
+        <v>11</v>
+      </c>
+      <c r="AB189">
+        <v>1.05</v>
+      </c>
+      <c r="AC189">
+        <v>1.95</v>
+      </c>
+      <c r="AD189">
+        <v>3.3</v>
+      </c>
+      <c r="AE189">
+        <v>4.33</v>
+      </c>
+      <c r="AF189">
+        <v>1.11</v>
+      </c>
+      <c r="AG189">
+        <v>6</v>
+      </c>
+      <c r="AH189">
+        <v>1.5</v>
+      </c>
+      <c r="AI189">
+        <v>2.5</v>
+      </c>
+      <c r="AJ189">
+        <v>2.5</v>
+      </c>
+      <c r="AK189">
+        <v>1.53</v>
+      </c>
+      <c r="AL189">
+        <v>2.2</v>
+      </c>
+      <c r="AM189">
+        <v>1.62</v>
+      </c>
+      <c r="AN189">
+        <v>1.17</v>
+      </c>
+      <c r="AO189">
+        <v>1.33</v>
+      </c>
+      <c r="AP189">
+        <v>1.95</v>
+      </c>
+      <c r="AQ189">
+        <v>2.22</v>
+      </c>
+      <c r="AR189">
+        <v>1.78</v>
+      </c>
+      <c r="AS189">
+        <v>2.3</v>
+      </c>
+      <c r="AT189">
+        <v>1.6</v>
+      </c>
+      <c r="AU189">
+        <v>1.98</v>
+      </c>
+      <c r="AV189">
+        <v>1.39</v>
+      </c>
+      <c r="AW189">
+        <v>3.37</v>
+      </c>
+      <c r="AX189">
+        <v>1.62</v>
+      </c>
+      <c r="AY189">
+        <v>6.75</v>
+      </c>
+      <c r="AZ189">
+        <v>2.85</v>
+      </c>
+      <c r="BA189">
+        <v>1.14</v>
+      </c>
+      <c r="BB189">
+        <v>1.3</v>
+      </c>
+      <c r="BC189">
+        <v>1.83</v>
+      </c>
+      <c r="BD189">
+        <v>1.93</v>
+      </c>
+      <c r="BE189">
+        <v>2.46</v>
+      </c>
+      <c r="BF189">
+        <v>7</v>
+      </c>
+      <c r="BG189">
+        <v>2</v>
+      </c>
+      <c r="BH189">
+        <v>6</v>
+      </c>
+      <c r="BI189">
+        <v>10</v>
+      </c>
+      <c r="BJ189">
+        <v>13</v>
+      </c>
+      <c r="BK189">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="304">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -667,6 +667,21 @@
     <t>['45', '82']</t>
   </si>
   <si>
+    <t>['58', '65', '89']</t>
+  </si>
+  <si>
+    <t>['5']</t>
+  </si>
+  <si>
+    <t>['63', '90']</t>
+  </si>
+  <si>
+    <t>['15', '46']</t>
+  </si>
+  <si>
+    <t>['9', '38', '60', '84']</t>
+  </si>
+  <si>
     <t>['45+7']</t>
   </si>
   <si>
@@ -779,9 +794,6 @@
   </si>
   <si>
     <t>['31', '49']</t>
-  </si>
-  <si>
-    <t>['5']</t>
   </si>
   <si>
     <t>['52']</t>
@@ -902,6 +914,18 @@
   </si>
   <si>
     <t>['32']</t>
+  </si>
+  <si>
+    <t>['31', '66']</t>
+  </si>
+  <si>
+    <t>['90+8']</t>
+  </si>
+  <si>
+    <t>['46']</t>
+  </si>
+  <si>
+    <t>['19', '31', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -1263,7 +1287,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK189"/>
+  <dimension ref="A1:BK198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1507,7 +1531,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1698,7 +1722,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q3">
         <v>11</v>
@@ -1889,7 +1913,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2462,7 +2486,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2653,7 +2677,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q8">
         <v>14</v>
@@ -3504,7 +3528,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT12">
         <v>0.89</v>
@@ -3608,7 +3632,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3695,10 +3719,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT13">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3886,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT14">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4077,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT15">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4181,7 +4205,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4268,10 +4292,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT16">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4459,10 +4483,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT17">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4563,7 +4587,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4650,10 +4674,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT18">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4754,7 +4778,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4841,10 +4865,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT19">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5035,7 +5059,7 @@
         <v>1.33</v>
       </c>
       <c r="AT20">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5136,7 +5160,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5223,10 +5247,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT21">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5327,7 +5351,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -5605,7 +5629,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT23">
         <v>0.5600000000000001</v>
@@ -5709,7 +5733,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q24">
         <v>12</v>
@@ -5799,7 +5823,7 @@
         <v>2.22</v>
       </c>
       <c r="AT24">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU24">
         <v>1.77</v>
@@ -5900,7 +5924,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -5987,10 +6011,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT25">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU25">
         <v>1.18</v>
@@ -6091,7 +6115,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -6282,7 +6306,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6473,7 +6497,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6563,7 +6587,7 @@
         <v>2</v>
       </c>
       <c r="AT28">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU28">
         <v>2.3</v>
@@ -6664,7 +6688,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6751,10 +6775,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT29">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU29">
         <v>1.39</v>
@@ -6942,7 +6966,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT30">
         <v>1</v>
@@ -7133,7 +7157,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT31">
         <v>0.6</v>
@@ -7237,7 +7261,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7324,7 +7348,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT32">
         <v>0.44</v>
@@ -7428,7 +7452,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7515,7 +7539,7 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT33">
         <v>0.67</v>
@@ -7619,7 +7643,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7897,7 +7921,7 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT35">
         <v>0.9</v>
@@ -8001,7 +8025,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -8091,7 +8115,7 @@
         <v>2.3</v>
       </c>
       <c r="AT36">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU36">
         <v>1.11</v>
@@ -8192,7 +8216,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8279,7 +8303,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT37">
         <v>0.5</v>
@@ -8473,7 +8497,7 @@
         <v>3</v>
       </c>
       <c r="AT38">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU38">
         <v>1.26</v>
@@ -8574,7 +8598,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8664,7 +8688,7 @@
         <v>1.33</v>
       </c>
       <c r="AT39">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU39">
         <v>1.92</v>
@@ -8765,7 +8789,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8855,7 +8879,7 @@
         <v>2.3</v>
       </c>
       <c r="AT40">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU40">
         <v>1.68</v>
@@ -8956,7 +8980,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9046,7 +9070,7 @@
         <v>1.88</v>
       </c>
       <c r="AT41">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU41">
         <v>1.64</v>
@@ -9147,7 +9171,7 @@
         <v>119</v>
       </c>
       <c r="P42" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9237,7 +9261,7 @@
         <v>1.9</v>
       </c>
       <c r="AT42">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU42">
         <v>1.58</v>
@@ -9425,7 +9449,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT43">
         <v>0.6</v>
@@ -9529,7 +9553,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9616,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT44">
         <v>0.89</v>
@@ -9911,7 +9935,7 @@
         <v>86</v>
       </c>
       <c r="P46" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -9998,10 +10022,10 @@
         <v>0.5</v>
       </c>
       <c r="AS46">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT46">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU46">
         <v>1.7</v>
@@ -10102,7 +10126,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q47">
         <v>16</v>
@@ -10189,7 +10213,7 @@
         <v>1.5</v>
       </c>
       <c r="AS47">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT47">
         <v>0.78</v>
@@ -10293,7 +10317,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10383,7 +10407,7 @@
         <v>2.22</v>
       </c>
       <c r="AT48">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU48">
         <v>1.81</v>
@@ -10571,7 +10595,7 @@
         <v>2</v>
       </c>
       <c r="AS49">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT49">
         <v>0.67</v>
@@ -10765,7 +10789,7 @@
         <v>3</v>
       </c>
       <c r="AT50">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU50">
         <v>1.67</v>
@@ -11057,7 +11081,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q52">
         <v>10</v>
@@ -11144,10 +11168,10 @@
         <v>0</v>
       </c>
       <c r="AS52">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT52">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU52">
         <v>1.47</v>
@@ -11335,7 +11359,7 @@
         <v>1.5</v>
       </c>
       <c r="AS53">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT53">
         <v>1.6</v>
@@ -11439,7 +11463,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q54">
         <v>15</v>
@@ -11529,7 +11553,7 @@
         <v>2.22</v>
       </c>
       <c r="AT54">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU54">
         <v>2.16</v>
@@ -11911,7 +11935,7 @@
         <v>2.3</v>
       </c>
       <c r="AT56">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU56">
         <v>1.43</v>
@@ -12099,7 +12123,7 @@
         <v>0</v>
       </c>
       <c r="AS57">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT57">
         <v>0.44</v>
@@ -12203,7 +12227,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12394,7 +12418,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12675,7 +12699,7 @@
         <v>1.33</v>
       </c>
       <c r="AT60">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU60">
         <v>1.78</v>
@@ -12776,7 +12800,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -12967,7 +12991,7 @@
         <v>132</v>
       </c>
       <c r="P62" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13054,7 +13078,7 @@
         <v>0</v>
       </c>
       <c r="AS62">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT62">
         <v>1</v>
@@ -13349,7 +13373,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13436,7 +13460,7 @@
         <v>1.67</v>
       </c>
       <c r="AS64">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT64">
         <v>0.67</v>
@@ -13731,7 +13755,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13818,10 +13842,10 @@
         <v>1.33</v>
       </c>
       <c r="AS66">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT66">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU66">
         <v>1.63</v>
@@ -13922,7 +13946,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q67">
         <v>1</v>
@@ -14012,7 +14036,7 @@
         <v>0.78</v>
       </c>
       <c r="AT67">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU67">
         <v>1.88</v>
@@ -14200,10 +14224,10 @@
         <v>2</v>
       </c>
       <c r="AS68">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT68">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU68">
         <v>1.5</v>
@@ -14394,7 +14418,7 @@
         <v>2</v>
       </c>
       <c r="AT69">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU69">
         <v>2.5</v>
@@ -14686,7 +14710,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -14773,7 +14797,7 @@
         <v>1</v>
       </c>
       <c r="AS71">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT71">
         <v>1.6</v>
@@ -15068,7 +15092,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q73">
         <v>10</v>
@@ -15158,7 +15182,7 @@
         <v>2.3</v>
       </c>
       <c r="AT73">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU73">
         <v>1.83</v>
@@ -15259,7 +15283,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="Q74">
         <v>2</v>
@@ -15537,7 +15561,7 @@
         <v>0</v>
       </c>
       <c r="AS75">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT75">
         <v>0.5</v>
@@ -15728,7 +15752,7 @@
         <v>0.25</v>
       </c>
       <c r="AS76">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT76">
         <v>1</v>
@@ -16110,7 +16134,7 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT78">
         <v>0.6</v>
@@ -16405,7 +16429,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16495,7 +16519,7 @@
         <v>1.33</v>
       </c>
       <c r="AT80">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU80">
         <v>1.95</v>
@@ -16686,7 +16710,7 @@
         <v>3</v>
       </c>
       <c r="AT81">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU81">
         <v>1.84</v>
@@ -17068,7 +17092,7 @@
         <v>0.78</v>
       </c>
       <c r="AT83">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU83">
         <v>1.74</v>
@@ -17259,7 +17283,7 @@
         <v>2.3</v>
       </c>
       <c r="AT84">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU84">
         <v>1.85</v>
@@ -17360,7 +17384,7 @@
         <v>86</v>
       </c>
       <c r="P85" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q85">
         <v>12</v>
@@ -17447,10 +17471,10 @@
         <v>1.75</v>
       </c>
       <c r="AS85">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT85">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU85">
         <v>2.07</v>
@@ -17638,7 +17662,7 @@
         <v>0.25</v>
       </c>
       <c r="AS86">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT86">
         <v>0.9</v>
@@ -17742,7 +17766,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17829,10 +17853,10 @@
         <v>1</v>
       </c>
       <c r="AS87">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT87">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU87">
         <v>2.04</v>
@@ -17933,7 +17957,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q88">
         <v>7</v>
@@ -18124,7 +18148,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q89">
         <v>11</v>
@@ -18315,7 +18339,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18506,7 +18530,7 @@
         <v>154</v>
       </c>
       <c r="P91" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18593,10 +18617,10 @@
         <v>1</v>
       </c>
       <c r="AS91">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT91">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU91">
         <v>2.09</v>
@@ -18784,7 +18808,7 @@
         <v>0.75</v>
       </c>
       <c r="AS92">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT92">
         <v>0.44</v>
@@ -18888,7 +18912,7 @@
         <v>155</v>
       </c>
       <c r="P93" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -18978,7 +19002,7 @@
         <v>1.33</v>
       </c>
       <c r="AT93">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU93">
         <v>1.8</v>
@@ -19079,7 +19103,7 @@
         <v>156</v>
       </c>
       <c r="P94" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19166,7 +19190,7 @@
         <v>1.75</v>
       </c>
       <c r="AS94">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT94">
         <v>1.44</v>
@@ -19551,7 +19575,7 @@
         <v>3</v>
       </c>
       <c r="AT96">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU96">
         <v>1.89</v>
@@ -19652,7 +19676,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q97">
         <v>7</v>
@@ -19843,7 +19867,7 @@
         <v>86</v>
       </c>
       <c r="P98" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -19930,10 +19954,10 @@
         <v>1.5</v>
       </c>
       <c r="AS98">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT98">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU98">
         <v>1.67</v>
@@ -20121,7 +20145,7 @@
         <v>1</v>
       </c>
       <c r="AS99">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT99">
         <v>0.67</v>
@@ -20315,7 +20339,7 @@
         <v>2</v>
       </c>
       <c r="AT100">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU100">
         <v>2.19</v>
@@ -20416,7 +20440,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20694,7 +20718,7 @@
         <v>0.8</v>
       </c>
       <c r="AS102">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT102">
         <v>0.89</v>
@@ -20885,10 +20909,10 @@
         <v>1</v>
       </c>
       <c r="AS103">
+        <v>1.09</v>
+      </c>
+      <c r="AT103">
         <v>1.1</v>
-      </c>
-      <c r="AT103">
-        <v>0.89</v>
       </c>
       <c r="AU103">
         <v>2</v>
@@ -20989,7 +21013,7 @@
         <v>86</v>
       </c>
       <c r="P104" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -21076,10 +21100,10 @@
         <v>0</v>
       </c>
       <c r="AS104">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT104">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU104">
         <v>1.58</v>
@@ -21180,7 +21204,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21267,10 +21291,10 @@
         <v>2</v>
       </c>
       <c r="AS105">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT105">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU105">
         <v>1.92</v>
@@ -21458,10 +21482,10 @@
         <v>1.8</v>
       </c>
       <c r="AS106">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT106">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU106">
         <v>1.76</v>
@@ -21652,7 +21676,7 @@
         <v>2.3</v>
       </c>
       <c r="AT107">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU107">
         <v>1.79</v>
@@ -21753,7 +21777,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -21840,10 +21864,10 @@
         <v>1.5</v>
       </c>
       <c r="AS108">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT108">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU108">
         <v>1.37</v>
@@ -21944,7 +21968,7 @@
         <v>86</v>
       </c>
       <c r="P109" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q109">
         <v>8</v>
@@ -22031,7 +22055,7 @@
         <v>0.2</v>
       </c>
       <c r="AS109">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT109">
         <v>1</v>
@@ -22135,7 +22159,7 @@
         <v>86</v>
       </c>
       <c r="P110" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q110">
         <v>10</v>
@@ -22222,7 +22246,7 @@
         <v>0.4</v>
       </c>
       <c r="AS110">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT110">
         <v>0.9</v>
@@ -22416,7 +22440,7 @@
         <v>1.9</v>
       </c>
       <c r="AT111">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU111">
         <v>1.85</v>
@@ -22607,7 +22631,7 @@
         <v>2.3</v>
       </c>
       <c r="AT112">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU112">
         <v>1.8</v>
@@ -22708,7 +22732,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -22795,7 +22819,7 @@
         <v>0.8</v>
       </c>
       <c r="AS113">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT113">
         <v>0.6</v>
@@ -22989,7 +23013,7 @@
         <v>1.8</v>
       </c>
       <c r="AT114">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU114">
         <v>1.99</v>
@@ -23177,7 +23201,7 @@
         <v>0.6</v>
       </c>
       <c r="AS115">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT115">
         <v>0.5600000000000001</v>
@@ -23281,7 +23305,7 @@
         <v>171</v>
       </c>
       <c r="P116" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q116">
         <v>8</v>
@@ -23472,7 +23496,7 @@
         <v>86</v>
       </c>
       <c r="P117" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q117">
         <v>12</v>
@@ -23562,7 +23586,7 @@
         <v>2.22</v>
       </c>
       <c r="AT117">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU117">
         <v>2.21</v>
@@ -23663,7 +23687,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q118">
         <v>2</v>
@@ -23750,10 +23774,10 @@
         <v>1.2</v>
       </c>
       <c r="AS118">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT118">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU118">
         <v>1.58</v>
@@ -23854,7 +23878,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -24323,7 +24347,7 @@
         <v>1.67</v>
       </c>
       <c r="AS121">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT121">
         <v>1.6</v>
@@ -24514,7 +24538,7 @@
         <v>1.17</v>
       </c>
       <c r="AS122">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT122">
         <v>0.78</v>
@@ -24618,7 +24642,7 @@
         <v>177</v>
       </c>
       <c r="P123" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q123">
         <v>7</v>
@@ -24705,10 +24729,10 @@
         <v>1.2</v>
       </c>
       <c r="AS123">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT123">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU123">
         <v>1.68</v>
@@ -24899,7 +24923,7 @@
         <v>2</v>
       </c>
       <c r="AT124">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU124">
         <v>2.06</v>
@@ -25087,7 +25111,7 @@
         <v>1.6</v>
       </c>
       <c r="AS125">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT125">
         <v>1.44</v>
@@ -25281,7 +25305,7 @@
         <v>1.88</v>
       </c>
       <c r="AT126">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU126">
         <v>1.81</v>
@@ -25382,7 +25406,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25472,7 +25496,7 @@
         <v>1.33</v>
       </c>
       <c r="AT127">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU127">
         <v>1.78</v>
@@ -25764,7 +25788,7 @@
         <v>181</v>
       </c>
       <c r="P129" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q129">
         <v>7</v>
@@ -25854,7 +25878,7 @@
         <v>2.3</v>
       </c>
       <c r="AT129">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU129">
         <v>1.93</v>
@@ -26042,7 +26066,7 @@
         <v>0.8</v>
       </c>
       <c r="AS130">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT130">
         <v>0.44</v>
@@ -26146,7 +26170,7 @@
         <v>183</v>
       </c>
       <c r="P131" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q131">
         <v>7</v>
@@ -26337,7 +26361,7 @@
         <v>184</v>
       </c>
       <c r="P132" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26424,7 +26448,7 @@
         <v>0.67</v>
       </c>
       <c r="AS132">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT132">
         <v>0.6</v>
@@ -26615,7 +26639,7 @@
         <v>1.5</v>
       </c>
       <c r="AS133">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT133">
         <v>1.44</v>
@@ -26719,7 +26743,7 @@
         <v>86</v>
       </c>
       <c r="P134" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q134">
         <v>10</v>
@@ -26809,7 +26833,7 @@
         <v>1.33</v>
       </c>
       <c r="AT134">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU134">
         <v>1.73</v>
@@ -26910,7 +26934,7 @@
         <v>185</v>
       </c>
       <c r="P135" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q135">
         <v>7</v>
@@ -26997,10 +27021,10 @@
         <v>0.33</v>
       </c>
       <c r="AS135">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT135">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU135">
         <v>1.72</v>
@@ -27191,7 +27215,7 @@
         <v>2.22</v>
       </c>
       <c r="AT136">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU136">
         <v>2.2</v>
@@ -27292,7 +27316,7 @@
         <v>187</v>
       </c>
       <c r="P137" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q137">
         <v>8</v>
@@ -27379,7 +27403,7 @@
         <v>0.57</v>
       </c>
       <c r="AS137">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT137">
         <v>1</v>
@@ -27570,7 +27594,7 @@
         <v>1.14</v>
       </c>
       <c r="AS138">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT138">
         <v>0.9</v>
@@ -28056,7 +28080,7 @@
         <v>86</v>
       </c>
       <c r="P141" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q141">
         <v>10</v>
@@ -28146,7 +28170,7 @@
         <v>2.3</v>
       </c>
       <c r="AT141">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU141">
         <v>1.98</v>
@@ -28337,7 +28361,7 @@
         <v>3</v>
       </c>
       <c r="AT142">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU142">
         <v>1.98</v>
@@ -28525,7 +28549,7 @@
         <v>0.57</v>
       </c>
       <c r="AS143">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT143">
         <v>0.5</v>
@@ -28716,10 +28740,10 @@
         <v>1.43</v>
       </c>
       <c r="AS144">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT144">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU144">
         <v>1.84</v>
@@ -28907,7 +28931,7 @@
         <v>0.67</v>
       </c>
       <c r="AS145">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT145">
         <v>0.44</v>
@@ -29289,10 +29313,10 @@
         <v>1.43</v>
       </c>
       <c r="AS147">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT147">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU147">
         <v>1.44</v>
@@ -29674,7 +29698,7 @@
         <v>1.33</v>
       </c>
       <c r="AT149">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU149">
         <v>1.79</v>
@@ -29865,7 +29889,7 @@
         <v>2</v>
       </c>
       <c r="AT150">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU150">
         <v>1.94</v>
@@ -30056,7 +30080,7 @@
         <v>2.22</v>
       </c>
       <c r="AT151">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU151">
         <v>2.07</v>
@@ -30244,10 +30268,10 @@
         <v>0.75</v>
       </c>
       <c r="AS152">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT152">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU152">
         <v>1.64</v>
@@ -30348,7 +30372,7 @@
         <v>195</v>
       </c>
       <c r="P153" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q153">
         <v>2</v>
@@ -30435,7 +30459,7 @@
         <v>0.57</v>
       </c>
       <c r="AS153">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT153">
         <v>0.5600000000000001</v>
@@ -30629,7 +30653,7 @@
         <v>2.3</v>
       </c>
       <c r="AT154">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU154">
         <v>1.96</v>
@@ -30921,7 +30945,7 @@
         <v>86</v>
       </c>
       <c r="P156" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q156">
         <v>13</v>
@@ -31008,7 +31032,7 @@
         <v>0.5</v>
       </c>
       <c r="AS156">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT156">
         <v>1</v>
@@ -31112,7 +31136,7 @@
         <v>197</v>
       </c>
       <c r="P157" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q157">
         <v>2</v>
@@ -31199,10 +31223,10 @@
         <v>2.14</v>
       </c>
       <c r="AS157">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT157">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU157">
         <v>1.55</v>
@@ -31303,7 +31327,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q158">
         <v>8</v>
@@ -31390,7 +31414,7 @@
         <v>0.57</v>
       </c>
       <c r="AS158">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT158">
         <v>0.89</v>
@@ -31581,7 +31605,7 @@
         <v>1</v>
       </c>
       <c r="AS159">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT159">
         <v>0.78</v>
@@ -31685,7 +31709,7 @@
         <v>199</v>
       </c>
       <c r="P160" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -31876,7 +31900,7 @@
         <v>200</v>
       </c>
       <c r="P161" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q161">
         <v>7</v>
@@ -31963,7 +31987,7 @@
         <v>1.63</v>
       </c>
       <c r="AS161">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT161">
         <v>1.6</v>
@@ -32154,7 +32178,7 @@
         <v>0.57</v>
       </c>
       <c r="AS162">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT162">
         <v>0.44</v>
@@ -32258,7 +32282,7 @@
         <v>201</v>
       </c>
       <c r="P163" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q163">
         <v>0</v>
@@ -32449,7 +32473,7 @@
         <v>86</v>
       </c>
       <c r="P164" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q164">
         <v>2</v>
@@ -32539,7 +32563,7 @@
         <v>1.8</v>
       </c>
       <c r="AT164">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU164">
         <v>1.93</v>
@@ -32640,7 +32664,7 @@
         <v>142</v>
       </c>
       <c r="P165" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -32730,7 +32754,7 @@
         <v>1.33</v>
       </c>
       <c r="AT165">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU165">
         <v>1.75</v>
@@ -32918,7 +32942,7 @@
         <v>0.63</v>
       </c>
       <c r="AS166">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT166">
         <v>0.6</v>
@@ -33022,7 +33046,7 @@
         <v>202</v>
       </c>
       <c r="P167" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q167">
         <v>7</v>
@@ -33213,7 +33237,7 @@
         <v>203</v>
       </c>
       <c r="P168" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q168">
         <v>5</v>
@@ -33303,7 +33327,7 @@
         <v>0.78</v>
       </c>
       <c r="AT168">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU168">
         <v>1.78</v>
@@ -33494,7 +33518,7 @@
         <v>1.33</v>
       </c>
       <c r="AT169">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU169">
         <v>1.77</v>
@@ -33595,7 +33619,7 @@
         <v>204</v>
       </c>
       <c r="P170" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q170">
         <v>3</v>
@@ -33682,7 +33706,7 @@
         <v>0.88</v>
       </c>
       <c r="AS170">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT170">
         <v>0.89</v>
@@ -33786,7 +33810,7 @@
         <v>205</v>
       </c>
       <c r="P171" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q171">
         <v>1</v>
@@ -33873,10 +33897,10 @@
         <v>0.78</v>
       </c>
       <c r="AS171">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT171">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU171">
         <v>1.49</v>
@@ -34067,7 +34091,7 @@
         <v>1.33</v>
       </c>
       <c r="AT172">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU172">
         <v>1.75</v>
@@ -34255,10 +34279,10 @@
         <v>1.56</v>
       </c>
       <c r="AS173">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT173">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU173">
         <v>1.86</v>
@@ -34446,10 +34470,10 @@
         <v>1.43</v>
       </c>
       <c r="AS174">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT174">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU174">
         <v>1.79</v>
@@ -34550,7 +34574,7 @@
         <v>86</v>
       </c>
       <c r="P175" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q175">
         <v>9</v>
@@ -34637,10 +34661,10 @@
         <v>1.33</v>
       </c>
       <c r="AS175">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT175">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU175">
         <v>1.93</v>
@@ -34828,10 +34852,10 @@
         <v>2</v>
       </c>
       <c r="AS176">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT176">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU176">
         <v>1.68</v>
@@ -34932,7 +34956,7 @@
         <v>208</v>
       </c>
       <c r="P177" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q177">
         <v>7</v>
@@ -35019,10 +35043,10 @@
         <v>0.38</v>
       </c>
       <c r="AS177">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT177">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU177">
         <v>1.67</v>
@@ -35210,10 +35234,10 @@
         <v>1.25</v>
       </c>
       <c r="AS178">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT178">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU178">
         <v>1.63</v>
@@ -35401,10 +35425,10 @@
         <v>1.56</v>
       </c>
       <c r="AS179">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT179">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU179">
         <v>1.58</v>
@@ -36269,7 +36293,7 @@
         <v>213</v>
       </c>
       <c r="P184" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q184">
         <v>4</v>
@@ -37033,7 +37057,7 @@
         <v>215</v>
       </c>
       <c r="P188" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q188">
         <v>7</v>
@@ -37365,6 +37389,1725 @@
         <v>13</v>
       </c>
       <c r="BK189">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="1:63">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>5406622</v>
+      </c>
+      <c r="C190" t="s">
+        <v>63</v>
+      </c>
+      <c r="D190" t="s">
+        <v>64</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45157.66666666666</v>
+      </c>
+      <c r="F190">
+        <v>20</v>
+      </c>
+      <c r="G190" t="s">
+        <v>77</v>
+      </c>
+      <c r="H190" t="s">
+        <v>67</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>0</v>
+      </c>
+      <c r="M190">
+        <v>0</v>
+      </c>
+      <c r="N190">
+        <v>0</v>
+      </c>
+      <c r="O190" t="s">
+        <v>86</v>
+      </c>
+      <c r="P190" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q190">
+        <v>5</v>
+      </c>
+      <c r="R190">
+        <v>2</v>
+      </c>
+      <c r="S190">
+        <v>7</v>
+      </c>
+      <c r="T190">
+        <v>2.75</v>
+      </c>
+      <c r="U190">
+        <v>2</v>
+      </c>
+      <c r="V190">
+        <v>4.5</v>
+      </c>
+      <c r="W190">
+        <v>1.44</v>
+      </c>
+      <c r="X190">
+        <v>2.63</v>
+      </c>
+      <c r="Y190">
+        <v>3.4</v>
+      </c>
+      <c r="Z190">
+        <v>1.3</v>
+      </c>
+      <c r="AA190">
+        <v>10</v>
+      </c>
+      <c r="AB190">
+        <v>1.06</v>
+      </c>
+      <c r="AC190">
+        <v>2.05</v>
+      </c>
+      <c r="AD190">
+        <v>3.5</v>
+      </c>
+      <c r="AE190">
+        <v>3.6</v>
+      </c>
+      <c r="AF190">
+        <v>1.07</v>
+      </c>
+      <c r="AG190">
+        <v>9</v>
+      </c>
+      <c r="AH190">
+        <v>1.4</v>
+      </c>
+      <c r="AI190">
+        <v>2.95</v>
+      </c>
+      <c r="AJ190">
+        <v>2.3</v>
+      </c>
+      <c r="AK190">
+        <v>1.62</v>
+      </c>
+      <c r="AL190">
+        <v>2.05</v>
+      </c>
+      <c r="AM190">
+        <v>1.7</v>
+      </c>
+      <c r="AN190">
+        <v>1.28</v>
+      </c>
+      <c r="AO190">
+        <v>1.25</v>
+      </c>
+      <c r="AP190">
+        <v>1.78</v>
+      </c>
+      <c r="AQ190">
+        <v>2.2</v>
+      </c>
+      <c r="AR190">
+        <v>1.89</v>
+      </c>
+      <c r="AS190">
+        <v>2.09</v>
+      </c>
+      <c r="AT190">
+        <v>1.8</v>
+      </c>
+      <c r="AU190">
+        <v>1.96</v>
+      </c>
+      <c r="AV190">
+        <v>1.2</v>
+      </c>
+      <c r="AW190">
+        <v>3.16</v>
+      </c>
+      <c r="AX190">
+        <v>1.58</v>
+      </c>
+      <c r="AY190">
+        <v>8.5</v>
+      </c>
+      <c r="AZ190">
+        <v>2.8</v>
+      </c>
+      <c r="BA190">
+        <v>1.18</v>
+      </c>
+      <c r="BB190">
+        <v>1.3</v>
+      </c>
+      <c r="BC190">
+        <v>1.54</v>
+      </c>
+      <c r="BD190">
+        <v>1.96</v>
+      </c>
+      <c r="BE190">
+        <v>2.52</v>
+      </c>
+      <c r="BF190">
+        <v>5</v>
+      </c>
+      <c r="BG190">
+        <v>2</v>
+      </c>
+      <c r="BH190">
+        <v>9</v>
+      </c>
+      <c r="BI190">
+        <v>11</v>
+      </c>
+      <c r="BJ190">
+        <v>14</v>
+      </c>
+      <c r="BK190">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191" spans="1:63">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>5406626</v>
+      </c>
+      <c r="C191" t="s">
+        <v>63</v>
+      </c>
+      <c r="D191" t="s">
+        <v>64</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45157.66666666666</v>
+      </c>
+      <c r="F191">
+        <v>20</v>
+      </c>
+      <c r="G191" t="s">
+        <v>79</v>
+      </c>
+      <c r="H191" t="s">
+        <v>70</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>1</v>
+      </c>
+      <c r="K191">
+        <v>1</v>
+      </c>
+      <c r="L191">
+        <v>0</v>
+      </c>
+      <c r="M191">
+        <v>1</v>
+      </c>
+      <c r="N191">
+        <v>1</v>
+      </c>
+      <c r="O191" t="s">
+        <v>86</v>
+      </c>
+      <c r="P191" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q191">
+        <v>10</v>
+      </c>
+      <c r="R191">
+        <v>6</v>
+      </c>
+      <c r="S191">
+        <v>16</v>
+      </c>
+      <c r="T191">
+        <v>3.1</v>
+      </c>
+      <c r="U191">
+        <v>1.95</v>
+      </c>
+      <c r="V191">
+        <v>4</v>
+      </c>
+      <c r="W191">
+        <v>1.5</v>
+      </c>
+      <c r="X191">
+        <v>2.5</v>
+      </c>
+      <c r="Y191">
+        <v>3.4</v>
+      </c>
+      <c r="Z191">
+        <v>1.3</v>
+      </c>
+      <c r="AA191">
+        <v>10</v>
+      </c>
+      <c r="AB191">
+        <v>1.06</v>
+      </c>
+      <c r="AC191">
+        <v>2.25</v>
+      </c>
+      <c r="AD191">
+        <v>3.2</v>
+      </c>
+      <c r="AE191">
+        <v>3.25</v>
+      </c>
+      <c r="AF191">
+        <v>1.08</v>
+      </c>
+      <c r="AG191">
+        <v>8.5</v>
+      </c>
+      <c r="AH191">
+        <v>1.44</v>
+      </c>
+      <c r="AI191">
+        <v>2.75</v>
+      </c>
+      <c r="AJ191">
+        <v>2.5</v>
+      </c>
+      <c r="AK191">
+        <v>1.53</v>
+      </c>
+      <c r="AL191">
+        <v>2.05</v>
+      </c>
+      <c r="AM191">
+        <v>1.7</v>
+      </c>
+      <c r="AN191">
+        <v>1.28</v>
+      </c>
+      <c r="AO191">
+        <v>1.28</v>
+      </c>
+      <c r="AP191">
+        <v>1.75</v>
+      </c>
+      <c r="AQ191">
+        <v>1.67</v>
+      </c>
+      <c r="AR191">
+        <v>0.89</v>
+      </c>
+      <c r="AS191">
+        <v>1.5</v>
+      </c>
+      <c r="AT191">
+        <v>1.1</v>
+      </c>
+      <c r="AU191">
+        <v>1.49</v>
+      </c>
+      <c r="AV191">
+        <v>1.47</v>
+      </c>
+      <c r="AW191">
+        <v>2.96</v>
+      </c>
+      <c r="AX191">
+        <v>1.64</v>
+      </c>
+      <c r="AY191">
+        <v>8</v>
+      </c>
+      <c r="AZ191">
+        <v>2.63</v>
+      </c>
+      <c r="BA191">
+        <v>1.18</v>
+      </c>
+      <c r="BB191">
+        <v>1.36</v>
+      </c>
+      <c r="BC191">
+        <v>2</v>
+      </c>
+      <c r="BD191">
+        <v>2.12</v>
+      </c>
+      <c r="BE191">
+        <v>2.76</v>
+      </c>
+      <c r="BF191">
+        <v>5</v>
+      </c>
+      <c r="BG191">
+        <v>4</v>
+      </c>
+      <c r="BH191">
+        <v>15</v>
+      </c>
+      <c r="BI191">
+        <v>5</v>
+      </c>
+      <c r="BJ191">
+        <v>20</v>
+      </c>
+      <c r="BK191">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:63">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>5406620</v>
+      </c>
+      <c r="C192" t="s">
+        <v>63</v>
+      </c>
+      <c r="D192" t="s">
+        <v>64</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45157.77083333334</v>
+      </c>
+      <c r="F192">
+        <v>20</v>
+      </c>
+      <c r="G192" t="s">
+        <v>75</v>
+      </c>
+      <c r="H192" t="s">
+        <v>66</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+      <c r="L192">
+        <v>3</v>
+      </c>
+      <c r="M192">
+        <v>1</v>
+      </c>
+      <c r="N192">
+        <v>4</v>
+      </c>
+      <c r="O192" t="s">
+        <v>217</v>
+      </c>
+      <c r="P192" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q192">
+        <v>7</v>
+      </c>
+      <c r="R192">
+        <v>1</v>
+      </c>
+      <c r="S192">
+        <v>8</v>
+      </c>
+      <c r="T192">
+        <v>2</v>
+      </c>
+      <c r="U192">
+        <v>2.38</v>
+      </c>
+      <c r="V192">
+        <v>6.5</v>
+      </c>
+      <c r="W192">
+        <v>1.36</v>
+      </c>
+      <c r="X192">
+        <v>3</v>
+      </c>
+      <c r="Y192">
+        <v>2.75</v>
+      </c>
+      <c r="Z192">
+        <v>1.4</v>
+      </c>
+      <c r="AA192">
+        <v>8</v>
+      </c>
+      <c r="AB192">
+        <v>1.08</v>
+      </c>
+      <c r="AC192">
+        <v>1.46</v>
+      </c>
+      <c r="AD192">
+        <v>4.3</v>
+      </c>
+      <c r="AE192">
+        <v>6.1</v>
+      </c>
+      <c r="AF192">
+        <v>1.04</v>
+      </c>
+      <c r="AG192">
+        <v>12</v>
+      </c>
+      <c r="AH192">
+        <v>1.28</v>
+      </c>
+      <c r="AI192">
+        <v>3.6</v>
+      </c>
+      <c r="AJ192">
+        <v>1.92</v>
+      </c>
+      <c r="AK192">
+        <v>1.97</v>
+      </c>
+      <c r="AL192">
+        <v>1.95</v>
+      </c>
+      <c r="AM192">
+        <v>1.8</v>
+      </c>
+      <c r="AN192">
+        <v>1.12</v>
+      </c>
+      <c r="AO192">
+        <v>1.18</v>
+      </c>
+      <c r="AP192">
+        <v>2.5</v>
+      </c>
+      <c r="AQ192">
+        <v>2.4</v>
+      </c>
+      <c r="AR192">
+        <v>0.33</v>
+      </c>
+      <c r="AS192">
+        <v>2.45</v>
+      </c>
+      <c r="AT192">
+        <v>0.3</v>
+      </c>
+      <c r="AU192">
+        <v>1.79</v>
+      </c>
+      <c r="AV192">
+        <v>1.45</v>
+      </c>
+      <c r="AW192">
+        <v>3.24</v>
+      </c>
+      <c r="AX192">
+        <v>1.35</v>
+      </c>
+      <c r="AY192">
+        <v>9.5</v>
+      </c>
+      <c r="AZ192">
+        <v>3.9</v>
+      </c>
+      <c r="BA192">
+        <v>1.18</v>
+      </c>
+      <c r="BB192">
+        <v>1.25</v>
+      </c>
+      <c r="BC192">
+        <v>1.46</v>
+      </c>
+      <c r="BD192">
+        <v>1.76</v>
+      </c>
+      <c r="BE192">
+        <v>2.15</v>
+      </c>
+      <c r="BF192">
+        <v>6</v>
+      </c>
+      <c r="BG192">
+        <v>4</v>
+      </c>
+      <c r="BH192">
+        <v>15</v>
+      </c>
+      <c r="BI192">
+        <v>10</v>
+      </c>
+      <c r="BJ192">
+        <v>21</v>
+      </c>
+      <c r="BK192">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="193" spans="1:63">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>5406629</v>
+      </c>
+      <c r="C193" t="s">
+        <v>63</v>
+      </c>
+      <c r="D193" t="s">
+        <v>64</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45157.77083333334</v>
+      </c>
+      <c r="F193">
+        <v>20</v>
+      </c>
+      <c r="G193" t="s">
+        <v>76</v>
+      </c>
+      <c r="H193" t="s">
+        <v>65</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="K193">
+        <v>1</v>
+      </c>
+      <c r="L193">
+        <v>0</v>
+      </c>
+      <c r="M193">
+        <v>2</v>
+      </c>
+      <c r="N193">
+        <v>2</v>
+      </c>
+      <c r="O193" t="s">
+        <v>86</v>
+      </c>
+      <c r="P193" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q193">
+        <v>9</v>
+      </c>
+      <c r="R193">
+        <v>2</v>
+      </c>
+      <c r="S193">
+        <v>11</v>
+      </c>
+      <c r="T193">
+        <v>3.75</v>
+      </c>
+      <c r="U193">
+        <v>1.91</v>
+      </c>
+      <c r="V193">
+        <v>3.4</v>
+      </c>
+      <c r="W193">
+        <v>1.57</v>
+      </c>
+      <c r="X193">
+        <v>2.25</v>
+      </c>
+      <c r="Y193">
+        <v>3.75</v>
+      </c>
+      <c r="Z193">
+        <v>1.25</v>
+      </c>
+      <c r="AA193">
+        <v>11</v>
+      </c>
+      <c r="AB193">
+        <v>1.05</v>
+      </c>
+      <c r="AC193">
+        <v>2.98</v>
+      </c>
+      <c r="AD193">
+        <v>3.1</v>
+      </c>
+      <c r="AE193">
+        <v>2.38</v>
+      </c>
+      <c r="AF193">
+        <v>1.09</v>
+      </c>
+      <c r="AG193">
+        <v>7.5</v>
+      </c>
+      <c r="AH193">
+        <v>1.5</v>
+      </c>
+      <c r="AI193">
+        <v>2.5</v>
+      </c>
+      <c r="AJ193">
+        <v>2.29</v>
+      </c>
+      <c r="AK193">
+        <v>1.55</v>
+      </c>
+      <c r="AL193">
+        <v>2.1</v>
+      </c>
+      <c r="AM193">
+        <v>1.67</v>
+      </c>
+      <c r="AN193">
+        <v>1.57</v>
+      </c>
+      <c r="AO193">
+        <v>1.3</v>
+      </c>
+      <c r="AP193">
+        <v>1.38</v>
+      </c>
+      <c r="AQ193">
+        <v>1.33</v>
+      </c>
+      <c r="AR193">
+        <v>1.4</v>
+      </c>
+      <c r="AS193">
+        <v>1.2</v>
+      </c>
+      <c r="AT193">
+        <v>1.55</v>
+      </c>
+      <c r="AU193">
+        <v>1.63</v>
+      </c>
+      <c r="AV193">
+        <v>1.5</v>
+      </c>
+      <c r="AW193">
+        <v>3.13</v>
+      </c>
+      <c r="AX193">
+        <v>2.3</v>
+      </c>
+      <c r="AY193">
+        <v>8</v>
+      </c>
+      <c r="AZ193">
+        <v>1.8</v>
+      </c>
+      <c r="BA193">
+        <v>1.17</v>
+      </c>
+      <c r="BB193">
+        <v>1.35</v>
+      </c>
+      <c r="BC193">
+        <v>1.83</v>
+      </c>
+      <c r="BD193">
+        <v>2.06</v>
+      </c>
+      <c r="BE193">
+        <v>2.69</v>
+      </c>
+      <c r="BF193">
+        <v>3</v>
+      </c>
+      <c r="BG193">
+        <v>6</v>
+      </c>
+      <c r="BH193">
+        <v>11</v>
+      </c>
+      <c r="BI193">
+        <v>13</v>
+      </c>
+      <c r="BJ193">
+        <v>14</v>
+      </c>
+      <c r="BK193">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="194" spans="1:63">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>5406625</v>
+      </c>
+      <c r="C194" t="s">
+        <v>63</v>
+      </c>
+      <c r="D194" t="s">
+        <v>64</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45157.875</v>
+      </c>
+      <c r="F194">
+        <v>20</v>
+      </c>
+      <c r="G194" t="s">
+        <v>78</v>
+      </c>
+      <c r="H194" t="s">
+        <v>73</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>1</v>
+      </c>
+      <c r="L194">
+        <v>1</v>
+      </c>
+      <c r="M194">
+        <v>1</v>
+      </c>
+      <c r="N194">
+        <v>2</v>
+      </c>
+      <c r="O194" t="s">
+        <v>148</v>
+      </c>
+      <c r="P194" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q194">
+        <v>10</v>
+      </c>
+      <c r="R194">
+        <v>3</v>
+      </c>
+      <c r="S194">
+        <v>13</v>
+      </c>
+      <c r="T194">
+        <v>2.5</v>
+      </c>
+      <c r="U194">
+        <v>2</v>
+      </c>
+      <c r="V194">
+        <v>5.5</v>
+      </c>
+      <c r="W194">
+        <v>1.53</v>
+      </c>
+      <c r="X194">
+        <v>2.38</v>
+      </c>
+      <c r="Y194">
+        <v>3.75</v>
+      </c>
+      <c r="Z194">
+        <v>1.25</v>
+      </c>
+      <c r="AA194">
+        <v>11</v>
+      </c>
+      <c r="AB194">
+        <v>1.05</v>
+      </c>
+      <c r="AC194">
+        <v>1.85</v>
+      </c>
+      <c r="AD194">
+        <v>3.6</v>
+      </c>
+      <c r="AE194">
+        <v>4.33</v>
+      </c>
+      <c r="AF194">
+        <v>1.09</v>
+      </c>
+      <c r="AG194">
+        <v>7.9</v>
+      </c>
+      <c r="AH194">
+        <v>1.48</v>
+      </c>
+      <c r="AI194">
+        <v>2.68</v>
+      </c>
+      <c r="AJ194">
+        <v>2.5</v>
+      </c>
+      <c r="AK194">
+        <v>1.53</v>
+      </c>
+      <c r="AL194">
+        <v>2.25</v>
+      </c>
+      <c r="AM194">
+        <v>1.57</v>
+      </c>
+      <c r="AN194">
+        <v>1.28</v>
+      </c>
+      <c r="AO194">
+        <v>1.32</v>
+      </c>
+      <c r="AP194">
+        <v>1.75</v>
+      </c>
+      <c r="AQ194">
+        <v>1.1</v>
+      </c>
+      <c r="AR194">
+        <v>0.8</v>
+      </c>
+      <c r="AS194">
+        <v>1.09</v>
+      </c>
+      <c r="AT194">
+        <v>0.82</v>
+      </c>
+      <c r="AU194">
+        <v>1.67</v>
+      </c>
+      <c r="AV194">
+        <v>1.08</v>
+      </c>
+      <c r="AW194">
+        <v>2.75</v>
+      </c>
+      <c r="AX194">
+        <v>1.4</v>
+      </c>
+      <c r="AY194">
+        <v>9</v>
+      </c>
+      <c r="AZ194">
+        <v>3.6</v>
+      </c>
+      <c r="BA194">
+        <v>1.14</v>
+      </c>
+      <c r="BB194">
+        <v>1.29</v>
+      </c>
+      <c r="BC194">
+        <v>1.53</v>
+      </c>
+      <c r="BD194">
+        <v>1.91</v>
+      </c>
+      <c r="BE194">
+        <v>2.44</v>
+      </c>
+      <c r="BF194">
+        <v>9</v>
+      </c>
+      <c r="BG194">
+        <v>3</v>
+      </c>
+      <c r="BH194">
+        <v>8</v>
+      </c>
+      <c r="BI194">
+        <v>2</v>
+      </c>
+      <c r="BJ194">
+        <v>17</v>
+      </c>
+      <c r="BK194">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:63">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>5406621</v>
+      </c>
+      <c r="C195" t="s">
+        <v>63</v>
+      </c>
+      <c r="D195" t="s">
+        <v>64</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45158.45833333334</v>
+      </c>
+      <c r="F195">
+        <v>20</v>
+      </c>
+      <c r="G195" t="s">
+        <v>81</v>
+      </c>
+      <c r="H195" t="s">
+        <v>71</v>
+      </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>1</v>
+      </c>
+      <c r="L195">
+        <v>1</v>
+      </c>
+      <c r="M195">
+        <v>0</v>
+      </c>
+      <c r="N195">
+        <v>1</v>
+      </c>
+      <c r="O195" t="s">
+        <v>218</v>
+      </c>
+      <c r="P195" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q195">
+        <v>3</v>
+      </c>
+      <c r="R195">
+        <v>7</v>
+      </c>
+      <c r="S195">
+        <v>10</v>
+      </c>
+      <c r="T195">
+        <v>3.5</v>
+      </c>
+      <c r="U195">
+        <v>1.91</v>
+      </c>
+      <c r="V195">
+        <v>3.75</v>
+      </c>
+      <c r="W195">
+        <v>1.53</v>
+      </c>
+      <c r="X195">
+        <v>2.38</v>
+      </c>
+      <c r="Y195">
+        <v>3.75</v>
+      </c>
+      <c r="Z195">
+        <v>1.25</v>
+      </c>
+      <c r="AA195">
+        <v>11</v>
+      </c>
+      <c r="AB195">
+        <v>1.05</v>
+      </c>
+      <c r="AC195">
+        <v>2.55</v>
+      </c>
+      <c r="AD195">
+        <v>3.2</v>
+      </c>
+      <c r="AE195">
+        <v>2.8</v>
+      </c>
+      <c r="AF195">
+        <v>1.09</v>
+      </c>
+      <c r="AG195">
+        <v>7.5</v>
+      </c>
+      <c r="AH195">
+        <v>1.47</v>
+      </c>
+      <c r="AI195">
+        <v>2.7</v>
+      </c>
+      <c r="AJ195">
+        <v>2.63</v>
+      </c>
+      <c r="AK195">
+        <v>1.5</v>
+      </c>
+      <c r="AL195">
+        <v>2.2</v>
+      </c>
+      <c r="AM195">
+        <v>1.62</v>
+      </c>
+      <c r="AN195">
+        <v>1.53</v>
+      </c>
+      <c r="AO195">
+        <v>1.3</v>
+      </c>
+      <c r="AP195">
+        <v>1.42</v>
+      </c>
+      <c r="AQ195">
+        <v>0.78</v>
+      </c>
+      <c r="AR195">
+        <v>1.5</v>
+      </c>
+      <c r="AS195">
+        <v>1</v>
+      </c>
+      <c r="AT195">
+        <v>1.36</v>
+      </c>
+      <c r="AU195">
+        <v>1.75</v>
+      </c>
+      <c r="AV195">
+        <v>1.35</v>
+      </c>
+      <c r="AW195">
+        <v>3.1</v>
+      </c>
+      <c r="AX195">
+        <v>1.95</v>
+      </c>
+      <c r="AY195">
+        <v>7.5</v>
+      </c>
+      <c r="AZ195">
+        <v>2.1</v>
+      </c>
+      <c r="BA195">
+        <v>1.2</v>
+      </c>
+      <c r="BB195">
+        <v>1.38</v>
+      </c>
+      <c r="BC195">
+        <v>2</v>
+      </c>
+      <c r="BD195">
+        <v>2.08</v>
+      </c>
+      <c r="BE195">
+        <v>2.65</v>
+      </c>
+      <c r="BF195">
+        <v>4</v>
+      </c>
+      <c r="BG195">
+        <v>6</v>
+      </c>
+      <c r="BH195">
+        <v>9</v>
+      </c>
+      <c r="BI195">
+        <v>4</v>
+      </c>
+      <c r="BJ195">
+        <v>13</v>
+      </c>
+      <c r="BK195">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:63">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>5406623</v>
+      </c>
+      <c r="C196" t="s">
+        <v>63</v>
+      </c>
+      <c r="D196" t="s">
+        <v>64</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45158.66666666666</v>
+      </c>
+      <c r="F196">
+        <v>20</v>
+      </c>
+      <c r="G196" t="s">
+        <v>80</v>
+      </c>
+      <c r="H196" t="s">
+        <v>74</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>2</v>
+      </c>
+      <c r="M196">
+        <v>1</v>
+      </c>
+      <c r="N196">
+        <v>3</v>
+      </c>
+      <c r="O196" t="s">
+        <v>219</v>
+      </c>
+      <c r="P196" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q196">
+        <v>9</v>
+      </c>
+      <c r="R196">
+        <v>4</v>
+      </c>
+      <c r="S196">
+        <v>13</v>
+      </c>
+      <c r="T196">
+        <v>3.4</v>
+      </c>
+      <c r="U196">
+        <v>2</v>
+      </c>
+      <c r="V196">
+        <v>3.4</v>
+      </c>
+      <c r="W196">
+        <v>1.5</v>
+      </c>
+      <c r="X196">
+        <v>2.5</v>
+      </c>
+      <c r="Y196">
+        <v>3.5</v>
+      </c>
+      <c r="Z196">
+        <v>1.29</v>
+      </c>
+      <c r="AA196">
+        <v>11</v>
+      </c>
+      <c r="AB196">
+        <v>1.05</v>
+      </c>
+      <c r="AC196">
+        <v>2.63</v>
+      </c>
+      <c r="AD196">
+        <v>3.25</v>
+      </c>
+      <c r="AE196">
+        <v>2.63</v>
+      </c>
+      <c r="AF196">
+        <v>1.08</v>
+      </c>
+      <c r="AG196">
+        <v>8</v>
+      </c>
+      <c r="AH196">
+        <v>1.44</v>
+      </c>
+      <c r="AI196">
+        <v>2.75</v>
+      </c>
+      <c r="AJ196">
+        <v>2.3</v>
+      </c>
+      <c r="AK196">
+        <v>1.62</v>
+      </c>
+      <c r="AL196">
+        <v>1.95</v>
+      </c>
+      <c r="AM196">
+        <v>1.8</v>
+      </c>
+      <c r="AN196">
+        <v>1.48</v>
+      </c>
+      <c r="AO196">
+        <v>1.35</v>
+      </c>
+      <c r="AP196">
+        <v>1.45</v>
+      </c>
+      <c r="AQ196">
+        <v>1.4</v>
+      </c>
+      <c r="AR196">
+        <v>1.25</v>
+      </c>
+      <c r="AS196">
+        <v>1.55</v>
+      </c>
+      <c r="AT196">
+        <v>1.11</v>
+      </c>
+      <c r="AU196">
+        <v>1.47</v>
+      </c>
+      <c r="AV196">
+        <v>1.47</v>
+      </c>
+      <c r="AW196">
+        <v>2.94</v>
+      </c>
+      <c r="AX196">
+        <v>2.05</v>
+      </c>
+      <c r="AY196">
+        <v>8</v>
+      </c>
+      <c r="AZ196">
+        <v>1.98</v>
+      </c>
+      <c r="BA196">
+        <v>1.2</v>
+      </c>
+      <c r="BB196">
+        <v>1.38</v>
+      </c>
+      <c r="BC196">
+        <v>1.91</v>
+      </c>
+      <c r="BD196">
+        <v>2.06</v>
+      </c>
+      <c r="BE196">
+        <v>2.6</v>
+      </c>
+      <c r="BF196">
+        <v>8</v>
+      </c>
+      <c r="BG196">
+        <v>4</v>
+      </c>
+      <c r="BH196">
+        <v>12</v>
+      </c>
+      <c r="BI196">
+        <v>6</v>
+      </c>
+      <c r="BJ196">
+        <v>20</v>
+      </c>
+      <c r="BK196">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:63">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>5406627</v>
+      </c>
+      <c r="C197" t="s">
+        <v>63</v>
+      </c>
+      <c r="D197" t="s">
+        <v>64</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45158.66666666666</v>
+      </c>
+      <c r="F197">
+        <v>20</v>
+      </c>
+      <c r="G197" t="s">
+        <v>82</v>
+      </c>
+      <c r="H197" t="s">
+        <v>72</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+      <c r="J197">
+        <v>2</v>
+      </c>
+      <c r="K197">
+        <v>3</v>
+      </c>
+      <c r="L197">
+        <v>2</v>
+      </c>
+      <c r="M197">
+        <v>3</v>
+      </c>
+      <c r="N197">
+        <v>5</v>
+      </c>
+      <c r="O197" t="s">
+        <v>220</v>
+      </c>
+      <c r="P197" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q197">
+        <v>4</v>
+      </c>
+      <c r="R197">
+        <v>5</v>
+      </c>
+      <c r="S197">
+        <v>9</v>
+      </c>
+      <c r="T197">
+        <v>4</v>
+      </c>
+      <c r="U197">
+        <v>2.1</v>
+      </c>
+      <c r="V197">
+        <v>2.75</v>
+      </c>
+      <c r="W197">
+        <v>1.4</v>
+      </c>
+      <c r="X197">
+        <v>2.75</v>
+      </c>
+      <c r="Y197">
+        <v>3</v>
+      </c>
+      <c r="Z197">
+        <v>1.36</v>
+      </c>
+      <c r="AA197">
+        <v>8</v>
+      </c>
+      <c r="AB197">
+        <v>1.08</v>
+      </c>
+      <c r="AC197">
+        <v>3.6</v>
+      </c>
+      <c r="AD197">
+        <v>3.4</v>
+      </c>
+      <c r="AE197">
+        <v>2.1</v>
+      </c>
+      <c r="AF197">
+        <v>1.05</v>
+      </c>
+      <c r="AG197">
+        <v>11</v>
+      </c>
+      <c r="AH197">
+        <v>1.33</v>
+      </c>
+      <c r="AI197">
+        <v>3.3</v>
+      </c>
+      <c r="AJ197">
+        <v>2</v>
+      </c>
+      <c r="AK197">
+        <v>1.8</v>
+      </c>
+      <c r="AL197">
+        <v>1.8</v>
+      </c>
+      <c r="AM197">
+        <v>1.95</v>
+      </c>
+      <c r="AN197">
+        <v>1.72</v>
+      </c>
+      <c r="AO197">
+        <v>1.25</v>
+      </c>
+      <c r="AP197">
+        <v>1.33</v>
+      </c>
+      <c r="AQ197">
+        <v>1</v>
+      </c>
+      <c r="AR197">
+        <v>1.4</v>
+      </c>
+      <c r="AS197">
+        <v>0.9</v>
+      </c>
+      <c r="AT197">
+        <v>1.55</v>
+      </c>
+      <c r="AU197">
+        <v>1.59</v>
+      </c>
+      <c r="AV197">
+        <v>1.38</v>
+      </c>
+      <c r="AW197">
+        <v>2.97</v>
+      </c>
+      <c r="AX197">
+        <v>2.16</v>
+      </c>
+      <c r="AY197">
+        <v>8</v>
+      </c>
+      <c r="AZ197">
+        <v>1.89</v>
+      </c>
+      <c r="BA197">
+        <v>1.2</v>
+      </c>
+      <c r="BB197">
+        <v>1.24</v>
+      </c>
+      <c r="BC197">
+        <v>1.44</v>
+      </c>
+      <c r="BD197">
+        <v>1.75</v>
+      </c>
+      <c r="BE197">
+        <v>2.15</v>
+      </c>
+      <c r="BF197">
+        <v>5</v>
+      </c>
+      <c r="BG197">
+        <v>6</v>
+      </c>
+      <c r="BH197">
+        <v>11</v>
+      </c>
+      <c r="BI197">
+        <v>12</v>
+      </c>
+      <c r="BJ197">
+        <v>16</v>
+      </c>
+      <c r="BK197">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="198" spans="1:63">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>5406628</v>
+      </c>
+      <c r="C198" t="s">
+        <v>63</v>
+      </c>
+      <c r="D198" t="s">
+        <v>64</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45158.66666666666</v>
+      </c>
+      <c r="F198">
+        <v>20</v>
+      </c>
+      <c r="G198" t="s">
+        <v>84</v>
+      </c>
+      <c r="H198" t="s">
+        <v>68</v>
+      </c>
+      <c r="I198">
+        <v>2</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>2</v>
+      </c>
+      <c r="L198">
+        <v>4</v>
+      </c>
+      <c r="M198">
+        <v>0</v>
+      </c>
+      <c r="N198">
+        <v>4</v>
+      </c>
+      <c r="O198" t="s">
+        <v>221</v>
+      </c>
+      <c r="P198" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q198">
+        <v>4</v>
+      </c>
+      <c r="R198">
+        <v>7</v>
+      </c>
+      <c r="S198">
+        <v>11</v>
+      </c>
+      <c r="T198">
+        <v>3.1</v>
+      </c>
+      <c r="U198">
+        <v>2.05</v>
+      </c>
+      <c r="V198">
+        <v>3.6</v>
+      </c>
+      <c r="W198">
+        <v>1.36</v>
+      </c>
+      <c r="X198">
+        <v>3</v>
+      </c>
+      <c r="Y198">
+        <v>2.75</v>
+      </c>
+      <c r="Z198">
+        <v>1.4</v>
+      </c>
+      <c r="AA198">
+        <v>8</v>
+      </c>
+      <c r="AB198">
+        <v>1.08</v>
+      </c>
+      <c r="AC198">
+        <v>2.5</v>
+      </c>
+      <c r="AD198">
+        <v>3.2</v>
+      </c>
+      <c r="AE198">
+        <v>3</v>
+      </c>
+      <c r="AF198">
+        <v>1.05</v>
+      </c>
+      <c r="AG198">
+        <v>11</v>
+      </c>
+      <c r="AH198">
+        <v>1.33</v>
+      </c>
+      <c r="AI198">
+        <v>3.3</v>
+      </c>
+      <c r="AJ198">
+        <v>2.1</v>
+      </c>
+      <c r="AK198">
+        <v>1.73</v>
+      </c>
+      <c r="AL198">
+        <v>1.8</v>
+      </c>
+      <c r="AM198">
+        <v>1.95</v>
+      </c>
+      <c r="AN198">
+        <v>1.52</v>
+      </c>
+      <c r="AO198">
+        <v>1.25</v>
+      </c>
+      <c r="AP198">
+        <v>1.5</v>
+      </c>
+      <c r="AQ198">
+        <v>1.33</v>
+      </c>
+      <c r="AR198">
+        <v>1.44</v>
+      </c>
+      <c r="AS198">
+        <v>1.5</v>
+      </c>
+      <c r="AT198">
+        <v>1.3</v>
+      </c>
+      <c r="AU198">
+        <v>1.76</v>
+      </c>
+      <c r="AV198">
+        <v>1.56</v>
+      </c>
+      <c r="AW198">
+        <v>3.32</v>
+      </c>
+      <c r="AX198">
+        <v>1.94</v>
+      </c>
+      <c r="AY198">
+        <v>8</v>
+      </c>
+      <c r="AZ198">
+        <v>2.1</v>
+      </c>
+      <c r="BA198">
+        <v>1.18</v>
+      </c>
+      <c r="BB198">
+        <v>1.26</v>
+      </c>
+      <c r="BC198">
+        <v>1.46</v>
+      </c>
+      <c r="BD198">
+        <v>1.75</v>
+      </c>
+      <c r="BE198">
+        <v>2.2</v>
+      </c>
+      <c r="BF198">
+        <v>8</v>
+      </c>
+      <c r="BG198">
+        <v>8</v>
+      </c>
+      <c r="BH198">
+        <v>7</v>
+      </c>
+      <c r="BI198">
+        <v>4</v>
+      </c>
+      <c r="BJ198">
+        <v>15</v>
+      </c>
+      <c r="BK198">
         <v>12</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="305">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -927,6 +927,9 @@
   <si>
     <t>['19', '31', '90+4']</t>
   </si>
+  <si>
+    <t>['39']</t>
+  </si>
 </sst>
 </file>
 
@@ -1287,7 +1290,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK198"/>
+  <dimension ref="A1:BK199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3531,7 +3534,7 @@
         <v>2.45</v>
       </c>
       <c r="AT12">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -5056,7 +5059,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT20">
         <v>0.82</v>
@@ -6396,7 +6399,7 @@
         <v>1.33</v>
       </c>
       <c r="AT27">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU27">
         <v>2.44</v>
@@ -8685,7 +8688,7 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT39">
         <v>1.55</v>
@@ -9643,7 +9646,7 @@
         <v>1.5</v>
       </c>
       <c r="AT44">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU44">
         <v>1.75</v>
@@ -12696,7 +12699,7 @@
         <v>3</v>
       </c>
       <c r="AS60">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT60">
         <v>1.8</v>
@@ -13654,7 +13657,7 @@
         <v>1.9</v>
       </c>
       <c r="AT65">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU65">
         <v>1.78</v>
@@ -18426,7 +18429,7 @@
         <v>1.5</v>
       </c>
       <c r="AS90">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT90">
         <v>1.6</v>
@@ -19766,7 +19769,7 @@
         <v>0.78</v>
       </c>
       <c r="AT97">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU97">
         <v>1.71</v>
@@ -20527,7 +20530,7 @@
         <v>1.2</v>
       </c>
       <c r="AS101">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT101">
         <v>0.78</v>
@@ -20721,7 +20724,7 @@
         <v>2.09</v>
       </c>
       <c r="AT102">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU102">
         <v>1.84</v>
@@ -26257,7 +26260,7 @@
         <v>0.17</v>
       </c>
       <c r="AS131">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT131">
         <v>0.5</v>
@@ -27979,7 +27982,7 @@
         <v>1.8</v>
       </c>
       <c r="AT140">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU140">
         <v>1.81</v>
@@ -29695,7 +29698,7 @@
         <v>1.57</v>
       </c>
       <c r="AS149">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT149">
         <v>1.36</v>
@@ -31417,7 +31420,7 @@
         <v>1</v>
       </c>
       <c r="AT158">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU158">
         <v>1.82</v>
@@ -33515,7 +33518,7 @@
         <v>1.5</v>
       </c>
       <c r="AS169">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT169">
         <v>1.11</v>
@@ -33709,7 +33712,7 @@
         <v>1.55</v>
       </c>
       <c r="AT170">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU170">
         <v>1.47</v>
@@ -34088,7 +34091,7 @@
         <v>1</v>
       </c>
       <c r="AS172">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT172">
         <v>1.1</v>
@@ -39109,6 +39112,197 @@
       </c>
       <c r="BK198">
         <v>12</v>
+      </c>
+    </row>
+    <row r="199" spans="1:63">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>5406624</v>
+      </c>
+      <c r="C199" t="s">
+        <v>63</v>
+      </c>
+      <c r="D199" t="s">
+        <v>64</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45159.83333333334</v>
+      </c>
+      <c r="F199">
+        <v>20</v>
+      </c>
+      <c r="G199" t="s">
+        <v>83</v>
+      </c>
+      <c r="H199" t="s">
+        <v>69</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>1</v>
+      </c>
+      <c r="K199">
+        <v>1</v>
+      </c>
+      <c r="L199">
+        <v>1</v>
+      </c>
+      <c r="M199">
+        <v>1</v>
+      </c>
+      <c r="N199">
+        <v>2</v>
+      </c>
+      <c r="O199" t="s">
+        <v>157</v>
+      </c>
+      <c r="P199" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q199">
+        <v>4</v>
+      </c>
+      <c r="R199">
+        <v>7</v>
+      </c>
+      <c r="S199">
+        <v>11</v>
+      </c>
+      <c r="T199">
+        <v>3.6</v>
+      </c>
+      <c r="U199">
+        <v>1.91</v>
+      </c>
+      <c r="V199">
+        <v>3.5</v>
+      </c>
+      <c r="W199">
+        <v>1.53</v>
+      </c>
+      <c r="X199">
+        <v>2.38</v>
+      </c>
+      <c r="Y199">
+        <v>3.75</v>
+      </c>
+      <c r="Z199">
+        <v>1.25</v>
+      </c>
+      <c r="AA199">
+        <v>11</v>
+      </c>
+      <c r="AB199">
+        <v>1.05</v>
+      </c>
+      <c r="AC199">
+        <v>2.75</v>
+      </c>
+      <c r="AD199">
+        <v>3.2</v>
+      </c>
+      <c r="AE199">
+        <v>2.63</v>
+      </c>
+      <c r="AF199">
+        <v>1.07</v>
+      </c>
+      <c r="AG199">
+        <v>6.5</v>
+      </c>
+      <c r="AH199">
+        <v>1.42</v>
+      </c>
+      <c r="AI199">
+        <v>2.6</v>
+      </c>
+      <c r="AJ199">
+        <v>2.63</v>
+      </c>
+      <c r="AK199">
+        <v>1.5</v>
+      </c>
+      <c r="AL199">
+        <v>2.1</v>
+      </c>
+      <c r="AM199">
+        <v>1.67</v>
+      </c>
+      <c r="AN199">
+        <v>1.5</v>
+      </c>
+      <c r="AO199">
+        <v>1.4</v>
+      </c>
+      <c r="AP199">
+        <v>1.27</v>
+      </c>
+      <c r="AQ199">
+        <v>1.33</v>
+      </c>
+      <c r="AR199">
+        <v>0.89</v>
+      </c>
+      <c r="AS199">
+        <v>1.3</v>
+      </c>
+      <c r="AT199">
+        <v>0.9</v>
+      </c>
+      <c r="AU199">
+        <v>1.69</v>
+      </c>
+      <c r="AV199">
+        <v>1.21</v>
+      </c>
+      <c r="AW199">
+        <v>2.9</v>
+      </c>
+      <c r="AX199">
+        <v>1.93</v>
+      </c>
+      <c r="AY199">
+        <v>8</v>
+      </c>
+      <c r="AZ199">
+        <v>2.12</v>
+      </c>
+      <c r="BA199">
+        <v>1.14</v>
+      </c>
+      <c r="BB199">
+        <v>1.3</v>
+      </c>
+      <c r="BC199">
+        <v>1.83</v>
+      </c>
+      <c r="BD199">
+        <v>1.93</v>
+      </c>
+      <c r="BE199">
+        <v>2.46</v>
+      </c>
+      <c r="BF199">
+        <v>4</v>
+      </c>
+      <c r="BG199">
+        <v>6</v>
+      </c>
+      <c r="BH199">
+        <v>10</v>
+      </c>
+      <c r="BI199">
+        <v>9</v>
+      </c>
+      <c r="BJ199">
+        <v>14</v>
+      </c>
+      <c r="BK199">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="316">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -688,6 +688,24 @@
     <t>['55', '83']</t>
   </si>
   <si>
+    <t>['4', '52', '76']</t>
+  </si>
+  <si>
+    <t>['12', '67']</t>
+  </si>
+  <si>
+    <t>['61', '90']</t>
+  </si>
+  <si>
+    <t>['13', '90+3']</t>
+  </si>
+  <si>
+    <t>['42', '45+4', '60']</t>
+  </si>
+  <si>
+    <t>['29', '54', '78']</t>
+  </si>
+  <si>
     <t>['45+7']</t>
   </si>
   <si>
@@ -938,6 +956,12 @@
   </si>
   <si>
     <t>['59']</t>
+  </si>
+  <si>
+    <t>['76', '87']</t>
+  </si>
+  <si>
+    <t>['68']</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1323,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK202"/>
+  <dimension ref="A1:BK209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1543,7 +1567,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1630,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT2">
         <v>1.45</v>
@@ -1734,7 +1758,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q3">
         <v>11</v>
@@ -1821,10 +1845,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT3">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1925,7 +1949,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2015,7 +2039,7 @@
         <v>3</v>
       </c>
       <c r="AT4">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2206,7 +2230,7 @@
         <v>2</v>
       </c>
       <c r="AT5">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2394,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT6">
         <v>1</v>
@@ -2498,7 +2522,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2585,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT7">
         <v>0.91</v>
@@ -2689,7 +2713,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q8">
         <v>14</v>
@@ -2776,10 +2800,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT8">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2970,7 +2994,7 @@
         <v>1.9</v>
       </c>
       <c r="AT9">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3161,7 +3185,7 @@
         <v>1.78</v>
       </c>
       <c r="AT10">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3349,10 +3373,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT11">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3644,7 +3668,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -4217,7 +4241,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4408,7 +4432,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4790,7 +4814,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5172,7 +5196,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5453,7 +5477,7 @@
         <v>0.9</v>
       </c>
       <c r="AT22">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU22">
         <v>1.73</v>
@@ -5554,7 +5578,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -5641,10 +5665,10 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT23">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU23">
         <v>1.91</v>
@@ -5745,7 +5769,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -5936,7 +5960,7 @@
         <v>86</v>
       </c>
       <c r="P25" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -6026,7 +6050,7 @@
         <v>2</v>
       </c>
       <c r="AT25">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU25">
         <v>1.72</v>
@@ -6127,7 +6151,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q26">
         <v>12</v>
@@ -6214,7 +6238,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT26">
         <v>0.82</v>
@@ -6318,7 +6342,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6405,7 +6429,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT27">
         <v>0.9</v>
@@ -6509,7 +6533,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6891,7 +6915,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -7172,7 +7196,7 @@
         <v>1</v>
       </c>
       <c r="AT31">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU31">
         <v>1.31</v>
@@ -7273,7 +7297,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7363,7 +7387,7 @@
         <v>1.09</v>
       </c>
       <c r="AT32">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU32">
         <v>1.94</v>
@@ -7464,7 +7488,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7554,7 +7578,7 @@
         <v>2.45</v>
       </c>
       <c r="AT33">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU33">
         <v>2.02</v>
@@ -7655,7 +7679,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7742,7 +7766,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT34">
         <v>1.45</v>
@@ -8037,7 +8061,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -8124,7 +8148,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT36">
         <v>1.55</v>
@@ -8228,7 +8252,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8318,7 +8342,7 @@
         <v>1.5</v>
       </c>
       <c r="AT37">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU37">
         <v>1.06</v>
@@ -8419,7 +8443,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8506,7 +8530,7 @@
         <v>1</v>
       </c>
       <c r="AS38">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT38">
         <v>1.3</v>
@@ -8801,7 +8825,7 @@
         <v>86</v>
       </c>
       <c r="P40" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8992,7 +9016,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9183,7 +9207,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9374,7 +9398,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9655,7 +9679,7 @@
         <v>1.55</v>
       </c>
       <c r="AT44">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU44">
         <v>1.33</v>
@@ -9756,7 +9780,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10138,7 +10162,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q47">
         <v>16</v>
@@ -10228,7 +10252,7 @@
         <v>1.09</v>
       </c>
       <c r="AT47">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU47">
         <v>1.63</v>
@@ -10329,7 +10353,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10416,7 +10440,7 @@
         <v>1.5</v>
       </c>
       <c r="AS48">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT48">
         <v>1.11</v>
@@ -10610,7 +10634,7 @@
         <v>0.9</v>
       </c>
       <c r="AT49">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU49">
         <v>1.69</v>
@@ -10989,10 +11013,10 @@
         <v>0.5</v>
       </c>
       <c r="AS51">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT51">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU51">
         <v>2.41</v>
@@ -11093,7 +11117,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q52">
         <v>10</v>
@@ -11475,7 +11499,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q54">
         <v>15</v>
@@ -11562,7 +11586,7 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT54">
         <v>1.3</v>
@@ -11753,7 +11777,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT55">
         <v>0.91</v>
@@ -11947,7 +11971,7 @@
         <v>1</v>
       </c>
       <c r="AT56">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU56">
         <v>1.67</v>
@@ -12048,7 +12072,7 @@
         <v>129</v>
       </c>
       <c r="P57" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12138,7 +12162,7 @@
         <v>1.78</v>
       </c>
       <c r="AT57">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU57">
         <v>2.06</v>
@@ -12326,7 +12350,7 @@
         <v>2</v>
       </c>
       <c r="AS58">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT58">
         <v>1.1</v>
@@ -12621,7 +12645,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12708,10 +12732,10 @@
         <v>0</v>
       </c>
       <c r="AS60">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT60">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU60">
         <v>1.36</v>
@@ -12812,7 +12836,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -12899,10 +12923,10 @@
         <v>1.5</v>
       </c>
       <c r="AS61">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT61">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU61">
         <v>1.92</v>
@@ -13003,7 +13027,7 @@
         <v>132</v>
       </c>
       <c r="P62" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13194,7 +13218,7 @@
         <v>133</v>
       </c>
       <c r="P63" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q63">
         <v>1</v>
@@ -13281,7 +13305,7 @@
         <v>1.67</v>
       </c>
       <c r="AS63">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT63">
         <v>1.1</v>
@@ -13385,7 +13409,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13767,7 +13791,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -13857,7 +13881,7 @@
         <v>2.09</v>
       </c>
       <c r="AT66">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU66">
         <v>1.35</v>
@@ -14048,7 +14072,7 @@
         <v>3</v>
       </c>
       <c r="AT67">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU67">
         <v>1.76</v>
@@ -14618,7 +14642,7 @@
         <v>0.33</v>
       </c>
       <c r="AS70">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT70">
         <v>0.91</v>
@@ -14722,7 +14746,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -14913,7 +14937,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -15000,7 +15024,7 @@
         <v>1</v>
       </c>
       <c r="AS72">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT72">
         <v>1.11</v>
@@ -15191,10 +15215,10 @@
         <v>1.25</v>
       </c>
       <c r="AS73">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT73">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU73">
         <v>2.18</v>
@@ -15385,7 +15409,7 @@
         <v>1.9</v>
       </c>
       <c r="AT74">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU74">
         <v>2.29</v>
@@ -15576,7 +15600,7 @@
         <v>1.2</v>
       </c>
       <c r="AT75">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU75">
         <v>1.39</v>
@@ -15958,7 +15982,7 @@
         <v>1.5</v>
       </c>
       <c r="AT77">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU77">
         <v>1.65</v>
@@ -16149,7 +16173,7 @@
         <v>1.78</v>
       </c>
       <c r="AT78">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU78">
         <v>1.79</v>
@@ -16340,7 +16364,7 @@
         <v>2</v>
       </c>
       <c r="AT79">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU79">
         <v>1.75</v>
@@ -16441,7 +16465,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16528,7 +16552,7 @@
         <v>1.67</v>
       </c>
       <c r="AS80">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT80">
         <v>1.55</v>
@@ -16910,10 +16934,10 @@
         <v>0.75</v>
       </c>
       <c r="AS82">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT82">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU82">
         <v>2.14</v>
@@ -17101,7 +17125,7 @@
         <v>0</v>
       </c>
       <c r="AS83">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT83">
         <v>0.82</v>
@@ -17205,7 +17229,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q84">
         <v>12</v>
@@ -17483,7 +17507,7 @@
         <v>2</v>
       </c>
       <c r="AS85">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT85">
         <v>1.8</v>
@@ -17778,7 +17802,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17865,10 +17889,10 @@
         <v>0.75</v>
       </c>
       <c r="AS87">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT87">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU87">
         <v>1.62</v>
@@ -17969,7 +17993,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -18160,7 +18184,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18351,7 +18375,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q90">
         <v>11</v>
@@ -18438,10 +18462,10 @@
         <v>0.25</v>
       </c>
       <c r="AS90">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT90">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU90">
         <v>2.25</v>
@@ -18542,7 +18566,7 @@
         <v>154</v>
       </c>
       <c r="P91" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18823,7 +18847,7 @@
         <v>0.9</v>
       </c>
       <c r="AT92">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU92">
         <v>1.65</v>
@@ -19115,7 +19139,7 @@
         <v>156</v>
       </c>
       <c r="P94" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19205,7 +19229,7 @@
         <v>1.5</v>
       </c>
       <c r="AT94">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU94">
         <v>1.87</v>
@@ -19306,7 +19330,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19393,7 +19417,7 @@
         <v>0.75</v>
       </c>
       <c r="AS95">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT95">
         <v>1.3</v>
@@ -19688,7 +19712,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q97">
         <v>7</v>
@@ -19775,7 +19799,7 @@
         <v>0.75</v>
       </c>
       <c r="AS97">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT97">
         <v>0.9</v>
@@ -19969,7 +19993,7 @@
         <v>1.5</v>
       </c>
       <c r="AT98">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU98">
         <v>1.44</v>
@@ -20070,7 +20094,7 @@
         <v>86</v>
       </c>
       <c r="P99" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q99">
         <v>8</v>
@@ -20452,7 +20476,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20542,7 +20566,7 @@
         <v>1.3</v>
       </c>
       <c r="AT101">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU101">
         <v>1.59</v>
@@ -21025,7 +21049,7 @@
         <v>86</v>
       </c>
       <c r="P104" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -21216,7 +21240,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21685,7 +21709,7 @@
         <v>0.25</v>
       </c>
       <c r="AS107">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT107">
         <v>0.3</v>
@@ -21789,7 +21813,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q108">
         <v>8</v>
@@ -21980,7 +22004,7 @@
         <v>86</v>
       </c>
       <c r="P109" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q109">
         <v>10</v>
@@ -22171,7 +22195,7 @@
         <v>86</v>
       </c>
       <c r="P110" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -22640,7 +22664,7 @@
         <v>0.5</v>
       </c>
       <c r="AS112">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT112">
         <v>0.82</v>
@@ -22831,7 +22855,7 @@
         <v>1.83</v>
       </c>
       <c r="AS113">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT113">
         <v>1.36</v>
@@ -22935,7 +22959,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q114">
         <v>9</v>
@@ -23025,7 +23049,7 @@
         <v>2.45</v>
       </c>
       <c r="AT114">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU114">
         <v>1.76</v>
@@ -23216,7 +23240,7 @@
         <v>1.09</v>
       </c>
       <c r="AT115">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU115">
         <v>1.88</v>
@@ -23317,7 +23341,7 @@
         <v>171</v>
       </c>
       <c r="P116" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q116">
         <v>8</v>
@@ -23404,10 +23428,10 @@
         <v>0.2</v>
       </c>
       <c r="AS116">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT116">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU116">
         <v>1.97</v>
@@ -23508,7 +23532,7 @@
         <v>86</v>
       </c>
       <c r="P117" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q117">
         <v>12</v>
@@ -23595,7 +23619,7 @@
         <v>1.8</v>
       </c>
       <c r="AS117">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT117">
         <v>1.8</v>
@@ -23699,7 +23723,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q118">
         <v>2</v>
@@ -24081,7 +24105,7 @@
         <v>174</v>
       </c>
       <c r="P120" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -24168,7 +24192,7 @@
         <v>0.83</v>
       </c>
       <c r="AS120">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT120">
         <v>0.91</v>
@@ -24553,7 +24577,7 @@
         <v>2.09</v>
       </c>
       <c r="AT122">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU122">
         <v>1.74</v>
@@ -24654,7 +24678,7 @@
         <v>177</v>
       </c>
       <c r="P123" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q123">
         <v>7</v>
@@ -25126,7 +25150,7 @@
         <v>1.5</v>
       </c>
       <c r="AT125">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU125">
         <v>1.39</v>
@@ -25418,7 +25442,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25505,7 +25529,7 @@
         <v>0.2</v>
       </c>
       <c r="AS127">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT127">
         <v>0.3</v>
@@ -25609,7 +25633,7 @@
         <v>180</v>
       </c>
       <c r="P128" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q128">
         <v>7</v>
@@ -25696,7 +25720,7 @@
         <v>1.5</v>
       </c>
       <c r="AS128">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT128">
         <v>1.55</v>
@@ -25890,7 +25914,7 @@
         <v>3</v>
       </c>
       <c r="AT129">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU129">
         <v>1.95</v>
@@ -26081,7 +26105,7 @@
         <v>1.2</v>
       </c>
       <c r="AT130">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU130">
         <v>1.62</v>
@@ -26182,7 +26206,7 @@
         <v>183</v>
       </c>
       <c r="P131" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q131">
         <v>7</v>
@@ -26272,7 +26296,7 @@
         <v>1.3</v>
       </c>
       <c r="AT131">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU131">
         <v>1.72</v>
@@ -26373,7 +26397,7 @@
         <v>184</v>
       </c>
       <c r="P132" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26463,7 +26487,7 @@
         <v>1.2</v>
       </c>
       <c r="AT132">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU132">
         <v>1.61</v>
@@ -26654,7 +26678,7 @@
         <v>1</v>
       </c>
       <c r="AT133">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU133">
         <v>1.91</v>
@@ -26755,7 +26779,7 @@
         <v>86</v>
       </c>
       <c r="P134" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Q134">
         <v>10</v>
@@ -26842,7 +26866,7 @@
         <v>0.43</v>
       </c>
       <c r="AS134">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT134">
         <v>0.82</v>
@@ -26946,7 +26970,7 @@
         <v>185</v>
       </c>
       <c r="P135" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q135">
         <v>7</v>
@@ -27224,7 +27248,7 @@
         <v>1.5</v>
       </c>
       <c r="AS136">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT136">
         <v>1.55</v>
@@ -27328,7 +27352,7 @@
         <v>187</v>
       </c>
       <c r="P137" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q137">
         <v>8</v>
@@ -27800,7 +27824,7 @@
         <v>2</v>
       </c>
       <c r="AT139">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU139">
         <v>2.04</v>
@@ -27988,7 +28012,7 @@
         <v>0.67</v>
       </c>
       <c r="AS140">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT140">
         <v>0.9</v>
@@ -28092,7 +28116,7 @@
         <v>86</v>
       </c>
       <c r="P141" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q141">
         <v>10</v>
@@ -28179,7 +28203,7 @@
         <v>2</v>
       </c>
       <c r="AS141">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT141">
         <v>1.8</v>
@@ -28564,7 +28588,7 @@
         <v>1.09</v>
       </c>
       <c r="AT143">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU143">
         <v>1.72</v>
@@ -28752,7 +28776,7 @@
         <v>1.43</v>
       </c>
       <c r="AS144">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT144">
         <v>1.45</v>
@@ -29137,7 +29161,7 @@
         <v>2.09</v>
       </c>
       <c r="AT146">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU146">
         <v>1.84</v>
@@ -29516,10 +29540,10 @@
         <v>0.71</v>
       </c>
       <c r="AS148">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT148">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU148">
         <v>2.05</v>
@@ -30089,7 +30113,7 @@
         <v>1.14</v>
       </c>
       <c r="AS151">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT151">
         <v>1.1</v>
@@ -30384,7 +30408,7 @@
         <v>195</v>
       </c>
       <c r="P153" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q153">
         <v>2</v>
@@ -30474,7 +30498,7 @@
         <v>1.2</v>
       </c>
       <c r="AT153">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU153">
         <v>1.59</v>
@@ -30662,7 +30686,7 @@
         <v>1.5</v>
       </c>
       <c r="AS154">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT154">
         <v>1.36</v>
@@ -30766,7 +30790,7 @@
         <v>197</v>
       </c>
       <c r="P155" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q155">
         <v>2</v>
@@ -31148,7 +31172,7 @@
         <v>86</v>
       </c>
       <c r="P157" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q157">
         <v>13</v>
@@ -31339,7 +31363,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q158">
         <v>8</v>
@@ -31620,7 +31644,7 @@
         <v>0.9</v>
       </c>
       <c r="AT159">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU159">
         <v>1.68</v>
@@ -31721,7 +31745,7 @@
         <v>199</v>
       </c>
       <c r="P160" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -31808,10 +31832,10 @@
         <v>1.71</v>
       </c>
       <c r="AS160">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT160">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU160">
         <v>2.01</v>
@@ -31912,7 +31936,7 @@
         <v>200</v>
       </c>
       <c r="P161" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q161">
         <v>7</v>
@@ -32193,7 +32217,7 @@
         <v>2.45</v>
       </c>
       <c r="AT162">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU162">
         <v>1.88</v>
@@ -32294,7 +32318,7 @@
         <v>201</v>
       </c>
       <c r="P163" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q163">
         <v>0</v>
@@ -32384,7 +32408,7 @@
         <v>1.78</v>
       </c>
       <c r="AT163">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU163">
         <v>1.71</v>
@@ -32485,7 +32509,7 @@
         <v>86</v>
       </c>
       <c r="P164" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q164">
         <v>2</v>
@@ -32572,7 +32596,7 @@
         <v>1</v>
       </c>
       <c r="AS164">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT164">
         <v>1.3</v>
@@ -32676,7 +32700,7 @@
         <v>142</v>
       </c>
       <c r="P165" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -32763,7 +32787,7 @@
         <v>1.38</v>
       </c>
       <c r="AS165">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT165">
         <v>1.55</v>
@@ -32957,7 +32981,7 @@
         <v>2.09</v>
       </c>
       <c r="AT166">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU166">
         <v>1.9</v>
@@ -33058,7 +33082,7 @@
         <v>202</v>
       </c>
       <c r="P167" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="Q167">
         <v>7</v>
@@ -33148,7 +33172,7 @@
         <v>3</v>
       </c>
       <c r="AT167">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU167">
         <v>1.88</v>
@@ -33249,7 +33273,7 @@
         <v>203</v>
       </c>
       <c r="P168" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q168">
         <v>5</v>
@@ -33336,7 +33360,7 @@
         <v>1.38</v>
       </c>
       <c r="AS168">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT168">
         <v>1.55</v>
@@ -33631,7 +33655,7 @@
         <v>204</v>
       </c>
       <c r="P170" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q170">
         <v>3</v>
@@ -33822,7 +33846,7 @@
         <v>205</v>
       </c>
       <c r="P171" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q171">
         <v>1</v>
@@ -34586,7 +34610,7 @@
         <v>86</v>
       </c>
       <c r="P175" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q175">
         <v>9</v>
@@ -34968,7 +34992,7 @@
         <v>208</v>
       </c>
       <c r="P177" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q177">
         <v>7</v>
@@ -35819,10 +35843,10 @@
         <v>0.67</v>
       </c>
       <c r="AS181">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT181">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU181">
         <v>1.72</v>
@@ -36010,10 +36034,10 @@
         <v>0.88</v>
       </c>
       <c r="AS182">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT182">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU182">
         <v>1.83</v>
@@ -36114,7 +36138,7 @@
         <v>213</v>
       </c>
       <c r="P183" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q183">
         <v>4</v>
@@ -36204,7 +36228,7 @@
         <v>1.78</v>
       </c>
       <c r="AT183">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU183">
         <v>1.7</v>
@@ -36392,7 +36416,7 @@
         <v>0.78</v>
       </c>
       <c r="AS184">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT184">
         <v>1</v>
@@ -36586,7 +36610,7 @@
         <v>1.9</v>
       </c>
       <c r="AT185">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU185">
         <v>1.85</v>
@@ -36774,10 +36798,10 @@
         <v>0.5</v>
       </c>
       <c r="AS186">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT186">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU186">
         <v>1.82</v>
@@ -36965,10 +36989,10 @@
         <v>1.63</v>
       </c>
       <c r="AS187">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT187">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU187">
         <v>1.94</v>
@@ -37069,7 +37093,7 @@
         <v>215</v>
       </c>
       <c r="P188" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Q188">
         <v>7</v>
@@ -37159,7 +37183,7 @@
         <v>2</v>
       </c>
       <c r="AT188">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU188">
         <v>2.11</v>
@@ -37347,7 +37371,7 @@
         <v>1.78</v>
       </c>
       <c r="AS189">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT189">
         <v>1.45</v>
@@ -37833,7 +37857,7 @@
         <v>86</v>
       </c>
       <c r="P192" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="Q192">
         <v>9</v>
@@ -38024,7 +38048,7 @@
         <v>217</v>
       </c>
       <c r="P193" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q193">
         <v>7</v>
@@ -38215,7 +38239,7 @@
         <v>148</v>
       </c>
       <c r="P194" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q194">
         <v>10</v>
@@ -38788,7 +38812,7 @@
         <v>220</v>
       </c>
       <c r="P197" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -38979,7 +39003,7 @@
         <v>221</v>
       </c>
       <c r="P198" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="Q198">
         <v>9</v>
@@ -39170,7 +39194,7 @@
         <v>155</v>
       </c>
       <c r="P199" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Q199">
         <v>4</v>
@@ -39552,7 +39576,7 @@
         <v>222</v>
       </c>
       <c r="P201" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q201">
         <v>7</v>
@@ -39884,6 +39908,1343 @@
         <v>12</v>
       </c>
       <c r="BK202">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:63">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>5406631</v>
+      </c>
+      <c r="C203" t="s">
+        <v>63</v>
+      </c>
+      <c r="D203" t="s">
+        <v>64</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45165.66666666666</v>
+      </c>
+      <c r="F203">
+        <v>21</v>
+      </c>
+      <c r="G203" t="s">
+        <v>67</v>
+      </c>
+      <c r="H203" t="s">
+        <v>84</v>
+      </c>
+      <c r="I203">
+        <v>1</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>1</v>
+      </c>
+      <c r="L203">
+        <v>3</v>
+      </c>
+      <c r="M203">
+        <v>0</v>
+      </c>
+      <c r="N203">
+        <v>3</v>
+      </c>
+      <c r="O203" t="s">
+        <v>224</v>
+      </c>
+      <c r="P203" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q203">
+        <v>4</v>
+      </c>
+      <c r="R203">
+        <v>7</v>
+      </c>
+      <c r="S203">
+        <v>11</v>
+      </c>
+      <c r="T203">
+        <v>2.5</v>
+      </c>
+      <c r="U203">
+        <v>2.2</v>
+      </c>
+      <c r="V203">
+        <v>4.75</v>
+      </c>
+      <c r="W203">
+        <v>1.44</v>
+      </c>
+      <c r="X203">
+        <v>2.63</v>
+      </c>
+      <c r="Y203">
+        <v>3</v>
+      </c>
+      <c r="Z203">
+        <v>1.36</v>
+      </c>
+      <c r="AA203">
+        <v>9</v>
+      </c>
+      <c r="AB203">
+        <v>1.07</v>
+      </c>
+      <c r="AC203">
+        <v>1.85</v>
+      </c>
+      <c r="AD203">
+        <v>3.6</v>
+      </c>
+      <c r="AE203">
+        <v>4.2</v>
+      </c>
+      <c r="AF203">
+        <v>1.03</v>
+      </c>
+      <c r="AG203">
+        <v>8.4</v>
+      </c>
+      <c r="AH203">
+        <v>1.32</v>
+      </c>
+      <c r="AI203">
+        <v>3.04</v>
+      </c>
+      <c r="AJ203">
+        <v>2</v>
+      </c>
+      <c r="AK203">
+        <v>1.8</v>
+      </c>
+      <c r="AL203">
+        <v>1.91</v>
+      </c>
+      <c r="AM203">
+        <v>1.91</v>
+      </c>
+      <c r="AN203">
+        <v>1.12</v>
+      </c>
+      <c r="AO203">
+        <v>1.25</v>
+      </c>
+      <c r="AP203">
+        <v>2.2</v>
+      </c>
+      <c r="AQ203">
+        <v>3</v>
+      </c>
+      <c r="AR203">
+        <v>0.6</v>
+      </c>
+      <c r="AS203">
+        <v>3</v>
+      </c>
+      <c r="AT203">
+        <v>0.55</v>
+      </c>
+      <c r="AU203">
+        <v>1.91</v>
+      </c>
+      <c r="AV203">
+        <v>1.34</v>
+      </c>
+      <c r="AW203">
+        <v>3.25</v>
+      </c>
+      <c r="AX203">
+        <v>1.82</v>
+      </c>
+      <c r="AY203">
+        <v>9</v>
+      </c>
+      <c r="AZ203">
+        <v>2.45</v>
+      </c>
+      <c r="BA203">
+        <v>1.15</v>
+      </c>
+      <c r="BB203">
+        <v>1.31</v>
+      </c>
+      <c r="BC203">
+        <v>1.91</v>
+      </c>
+      <c r="BD203">
+        <v>2</v>
+      </c>
+      <c r="BE203">
+        <v>2.43</v>
+      </c>
+      <c r="BF203">
+        <v>6</v>
+      </c>
+      <c r="BG203">
+        <v>7</v>
+      </c>
+      <c r="BH203">
+        <v>5</v>
+      </c>
+      <c r="BI203">
+        <v>13</v>
+      </c>
+      <c r="BJ203">
+        <v>11</v>
+      </c>
+      <c r="BK203">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="204" spans="1:63">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>5406635</v>
+      </c>
+      <c r="C204" t="s">
+        <v>63</v>
+      </c>
+      <c r="D204" t="s">
+        <v>64</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45165.66666666666</v>
+      </c>
+      <c r="F204">
+        <v>21</v>
+      </c>
+      <c r="G204" t="s">
+        <v>71</v>
+      </c>
+      <c r="H204" t="s">
+        <v>81</v>
+      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>1</v>
+      </c>
+      <c r="L204">
+        <v>2</v>
+      </c>
+      <c r="M204">
+        <v>0</v>
+      </c>
+      <c r="N204">
+        <v>2</v>
+      </c>
+      <c r="O204" t="s">
+        <v>225</v>
+      </c>
+      <c r="P204" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q204">
+        <v>5</v>
+      </c>
+      <c r="R204">
+        <v>2</v>
+      </c>
+      <c r="S204">
+        <v>7</v>
+      </c>
+      <c r="T204">
+        <v>2.1</v>
+      </c>
+      <c r="U204">
+        <v>2.1</v>
+      </c>
+      <c r="V204">
+        <v>7</v>
+      </c>
+      <c r="W204">
+        <v>1.5</v>
+      </c>
+      <c r="X204">
+        <v>2.5</v>
+      </c>
+      <c r="Y204">
+        <v>3.4</v>
+      </c>
+      <c r="Z204">
+        <v>1.3</v>
+      </c>
+      <c r="AA204">
+        <v>10</v>
+      </c>
+      <c r="AB204">
+        <v>1.06</v>
+      </c>
+      <c r="AC204">
+        <v>1.57</v>
+      </c>
+      <c r="AD204">
+        <v>3.6</v>
+      </c>
+      <c r="AE204">
+        <v>7</v>
+      </c>
+      <c r="AF204">
+        <v>1.05</v>
+      </c>
+      <c r="AG204">
+        <v>7.2</v>
+      </c>
+      <c r="AH204">
+        <v>1.41</v>
+      </c>
+      <c r="AI204">
+        <v>2.64</v>
+      </c>
+      <c r="AJ204">
+        <v>2.3</v>
+      </c>
+      <c r="AK204">
+        <v>1.62</v>
+      </c>
+      <c r="AL204">
+        <v>2.25</v>
+      </c>
+      <c r="AM204">
+        <v>1.57</v>
+      </c>
+      <c r="AN204">
+        <v>1.1</v>
+      </c>
+      <c r="AO204">
+        <v>1.26</v>
+      </c>
+      <c r="AP204">
+        <v>2.43</v>
+      </c>
+      <c r="AQ204">
+        <v>1.33</v>
+      </c>
+      <c r="AR204">
+        <v>0.44</v>
+      </c>
+      <c r="AS204">
+        <v>1.5</v>
+      </c>
+      <c r="AT204">
+        <v>0.4</v>
+      </c>
+      <c r="AU204">
+        <v>1.68</v>
+      </c>
+      <c r="AV204">
+        <v>1.03</v>
+      </c>
+      <c r="AW204">
+        <v>2.71</v>
+      </c>
+      <c r="AX204">
+        <v>1.34</v>
+      </c>
+      <c r="AY204">
+        <v>9.5</v>
+      </c>
+      <c r="AZ204">
+        <v>4</v>
+      </c>
+      <c r="BA204">
+        <v>1.2</v>
+      </c>
+      <c r="BB204">
+        <v>1.37</v>
+      </c>
+      <c r="BC204">
+        <v>2.1</v>
+      </c>
+      <c r="BD204">
+        <v>2.02</v>
+      </c>
+      <c r="BE204">
+        <v>2.55</v>
+      </c>
+      <c r="BF204">
+        <v>7</v>
+      </c>
+      <c r="BG204">
+        <v>0</v>
+      </c>
+      <c r="BH204">
+        <v>9</v>
+      </c>
+      <c r="BI204">
+        <v>14</v>
+      </c>
+      <c r="BJ204">
+        <v>16</v>
+      </c>
+      <c r="BK204">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="205" spans="1:63">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>5406639</v>
+      </c>
+      <c r="C205" t="s">
+        <v>63</v>
+      </c>
+      <c r="D205" t="s">
+        <v>64</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45165.66666666666</v>
+      </c>
+      <c r="F205">
+        <v>21</v>
+      </c>
+      <c r="G205" t="s">
+        <v>66</v>
+      </c>
+      <c r="H205" t="s">
+        <v>77</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>0</v>
+      </c>
+      <c r="L205">
+        <v>2</v>
+      </c>
+      <c r="M205">
+        <v>1</v>
+      </c>
+      <c r="N205">
+        <v>3</v>
+      </c>
+      <c r="O205" t="s">
+        <v>226</v>
+      </c>
+      <c r="P205" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q205">
+        <v>4</v>
+      </c>
+      <c r="R205">
+        <v>6</v>
+      </c>
+      <c r="S205">
+        <v>10</v>
+      </c>
+      <c r="T205">
+        <v>3.5</v>
+      </c>
+      <c r="U205">
+        <v>2.1</v>
+      </c>
+      <c r="V205">
+        <v>3.1</v>
+      </c>
+      <c r="W205">
+        <v>1.5</v>
+      </c>
+      <c r="X205">
+        <v>2.5</v>
+      </c>
+      <c r="Y205">
+        <v>3.5</v>
+      </c>
+      <c r="Z205">
+        <v>1.29</v>
+      </c>
+      <c r="AA205">
+        <v>10</v>
+      </c>
+      <c r="AB205">
+        <v>1.06</v>
+      </c>
+      <c r="AC205">
+        <v>2.9</v>
+      </c>
+      <c r="AD205">
+        <v>3.25</v>
+      </c>
+      <c r="AE205">
+        <v>2.5</v>
+      </c>
+      <c r="AF205">
+        <v>1.08</v>
+      </c>
+      <c r="AG205">
+        <v>8.9</v>
+      </c>
+      <c r="AH205">
+        <v>1.41</v>
+      </c>
+      <c r="AI205">
+        <v>2.95</v>
+      </c>
+      <c r="AJ205">
+        <v>2.1</v>
+      </c>
+      <c r="AK205">
+        <v>1.73</v>
+      </c>
+      <c r="AL205">
+        <v>1.8</v>
+      </c>
+      <c r="AM205">
+        <v>1.95</v>
+      </c>
+      <c r="AN205">
+        <v>1.5</v>
+      </c>
+      <c r="AO205">
+        <v>1.33</v>
+      </c>
+      <c r="AP205">
+        <v>1.4</v>
+      </c>
+      <c r="AQ205">
+        <v>0.78</v>
+      </c>
+      <c r="AR205">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS205">
+        <v>1</v>
+      </c>
+      <c r="AT205">
+        <v>0.5</v>
+      </c>
+      <c r="AU205">
+        <v>1.79</v>
+      </c>
+      <c r="AV205">
+        <v>1.43</v>
+      </c>
+      <c r="AW205">
+        <v>3.22</v>
+      </c>
+      <c r="AX205">
+        <v>2.1</v>
+      </c>
+      <c r="AY205">
+        <v>8</v>
+      </c>
+      <c r="AZ205">
+        <v>1.94</v>
+      </c>
+      <c r="BA205">
+        <v>1.19</v>
+      </c>
+      <c r="BB205">
+        <v>1.37</v>
+      </c>
+      <c r="BC205">
+        <v>1.91</v>
+      </c>
+      <c r="BD205">
+        <v>2.05</v>
+      </c>
+      <c r="BE205">
+        <v>2.55</v>
+      </c>
+      <c r="BF205">
+        <v>5</v>
+      </c>
+      <c r="BG205">
+        <v>6</v>
+      </c>
+      <c r="BH205">
+        <v>5</v>
+      </c>
+      <c r="BI205">
+        <v>8</v>
+      </c>
+      <c r="BJ205">
+        <v>10</v>
+      </c>
+      <c r="BK205">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="206" spans="1:63">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>5406632</v>
+      </c>
+      <c r="C206" t="s">
+        <v>63</v>
+      </c>
+      <c r="D206" t="s">
+        <v>64</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45165.77083333334</v>
+      </c>
+      <c r="F206">
+        <v>21</v>
+      </c>
+      <c r="G206" t="s">
+        <v>65</v>
+      </c>
+      <c r="H206" t="s">
+        <v>80</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
+      <c r="L206">
+        <v>1</v>
+      </c>
+      <c r="M206">
+        <v>0</v>
+      </c>
+      <c r="N206">
+        <v>1</v>
+      </c>
+      <c r="O206" t="s">
+        <v>127</v>
+      </c>
+      <c r="P206" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q206">
+        <v>9</v>
+      </c>
+      <c r="R206">
+        <v>2</v>
+      </c>
+      <c r="S206">
+        <v>11</v>
+      </c>
+      <c r="T206">
+        <v>2</v>
+      </c>
+      <c r="U206">
+        <v>2.3</v>
+      </c>
+      <c r="V206">
+        <v>6.5</v>
+      </c>
+      <c r="W206">
+        <v>1.4</v>
+      </c>
+      <c r="X206">
+        <v>2.75</v>
+      </c>
+      <c r="Y206">
+        <v>2.75</v>
+      </c>
+      <c r="Z206">
+        <v>1.4</v>
+      </c>
+      <c r="AA206">
+        <v>8</v>
+      </c>
+      <c r="AB206">
+        <v>1.08</v>
+      </c>
+      <c r="AC206">
+        <v>1.5</v>
+      </c>
+      <c r="AD206">
+        <v>4</v>
+      </c>
+      <c r="AE206">
+        <v>6.5</v>
+      </c>
+      <c r="AF206">
+        <v>1.05</v>
+      </c>
+      <c r="AG206">
+        <v>8</v>
+      </c>
+      <c r="AH206">
+        <v>1.3</v>
+      </c>
+      <c r="AI206">
+        <v>3.2</v>
+      </c>
+      <c r="AJ206">
+        <v>2.05</v>
+      </c>
+      <c r="AK206">
+        <v>1.8</v>
+      </c>
+      <c r="AL206">
+        <v>2</v>
+      </c>
+      <c r="AM206">
+        <v>1.75</v>
+      </c>
+      <c r="AN206">
+        <v>1.03</v>
+      </c>
+      <c r="AO206">
+        <v>1.22</v>
+      </c>
+      <c r="AP206">
+        <v>2.65</v>
+      </c>
+      <c r="AQ206">
+        <v>2.22</v>
+      </c>
+      <c r="AR206">
+        <v>0.67</v>
+      </c>
+      <c r="AS206">
+        <v>2.3</v>
+      </c>
+      <c r="AT206">
+        <v>0.6</v>
+      </c>
+      <c r="AU206">
+        <v>1.89</v>
+      </c>
+      <c r="AV206">
+        <v>1.41</v>
+      </c>
+      <c r="AW206">
+        <v>3.3</v>
+      </c>
+      <c r="AX206">
+        <v>1.34</v>
+      </c>
+      <c r="AY206">
+        <v>10</v>
+      </c>
+      <c r="AZ206">
+        <v>4</v>
+      </c>
+      <c r="BA206">
+        <v>1.15</v>
+      </c>
+      <c r="BB206">
+        <v>1.27</v>
+      </c>
+      <c r="BC206">
+        <v>1.48</v>
+      </c>
+      <c r="BD206">
+        <v>1.8</v>
+      </c>
+      <c r="BE206">
+        <v>2.2</v>
+      </c>
+      <c r="BF206">
+        <v>6</v>
+      </c>
+      <c r="BG206">
+        <v>3</v>
+      </c>
+      <c r="BH206">
+        <v>8</v>
+      </c>
+      <c r="BI206">
+        <v>2</v>
+      </c>
+      <c r="BJ206">
+        <v>14</v>
+      </c>
+      <c r="BK206">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:63">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>5406637</v>
+      </c>
+      <c r="C207" t="s">
+        <v>63</v>
+      </c>
+      <c r="D207" t="s">
+        <v>64</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45165.77083333334</v>
+      </c>
+      <c r="F207">
+        <v>21</v>
+      </c>
+      <c r="G207" t="s">
+        <v>69</v>
+      </c>
+      <c r="H207" t="s">
+        <v>75</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>1</v>
+      </c>
+      <c r="L207">
+        <v>2</v>
+      </c>
+      <c r="M207">
+        <v>2</v>
+      </c>
+      <c r="N207">
+        <v>4</v>
+      </c>
+      <c r="O207" t="s">
+        <v>227</v>
+      </c>
+      <c r="P207" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q207">
+        <v>2</v>
+      </c>
+      <c r="R207">
+        <v>8</v>
+      </c>
+      <c r="S207">
+        <v>10</v>
+      </c>
+      <c r="T207">
+        <v>2.38</v>
+      </c>
+      <c r="U207">
+        <v>2.1</v>
+      </c>
+      <c r="V207">
+        <v>5.5</v>
+      </c>
+      <c r="W207">
+        <v>1.44</v>
+      </c>
+      <c r="X207">
+        <v>2.63</v>
+      </c>
+      <c r="Y207">
+        <v>3.25</v>
+      </c>
+      <c r="Z207">
+        <v>1.33</v>
+      </c>
+      <c r="AA207">
+        <v>10</v>
+      </c>
+      <c r="AB207">
+        <v>1.06</v>
+      </c>
+      <c r="AC207">
+        <v>2.5</v>
+      </c>
+      <c r="AD207">
+        <v>3.25</v>
+      </c>
+      <c r="AE207">
+        <v>2.75</v>
+      </c>
+      <c r="AF207">
+        <v>1.08</v>
+      </c>
+      <c r="AG207">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AH207">
+        <v>1.39</v>
+      </c>
+      <c r="AI207">
+        <v>3.02</v>
+      </c>
+      <c r="AJ207">
+        <v>2.28</v>
+      </c>
+      <c r="AK207">
+        <v>1.56</v>
+      </c>
+      <c r="AL207">
+        <v>2</v>
+      </c>
+      <c r="AM207">
+        <v>1.75</v>
+      </c>
+      <c r="AN207">
+        <v>1.25</v>
+      </c>
+      <c r="AO207">
+        <v>1.32</v>
+      </c>
+      <c r="AP207">
+        <v>1.85</v>
+      </c>
+      <c r="AQ207">
+        <v>2.3</v>
+      </c>
+      <c r="AR207">
+        <v>0.78</v>
+      </c>
+      <c r="AS207">
+        <v>2.18</v>
+      </c>
+      <c r="AT207">
+        <v>0.8</v>
+      </c>
+      <c r="AU207">
+        <v>1.94</v>
+      </c>
+      <c r="AV207">
+        <v>1.62</v>
+      </c>
+      <c r="AW207">
+        <v>3.56</v>
+      </c>
+      <c r="AX207">
+        <v>1.64</v>
+      </c>
+      <c r="AY207">
+        <v>9.9</v>
+      </c>
+      <c r="AZ207">
+        <v>2.78</v>
+      </c>
+      <c r="BA207">
+        <v>1.13</v>
+      </c>
+      <c r="BB207">
+        <v>1.26</v>
+      </c>
+      <c r="BC207">
+        <v>1.46</v>
+      </c>
+      <c r="BD207">
+        <v>1.79</v>
+      </c>
+      <c r="BE207">
+        <v>2.17</v>
+      </c>
+      <c r="BF207">
+        <v>6</v>
+      </c>
+      <c r="BG207">
+        <v>11</v>
+      </c>
+      <c r="BH207">
+        <v>7</v>
+      </c>
+      <c r="BI207">
+        <v>13</v>
+      </c>
+      <c r="BJ207">
+        <v>13</v>
+      </c>
+      <c r="BK207">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="208" spans="1:63">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>5406638</v>
+      </c>
+      <c r="C208" t="s">
+        <v>63</v>
+      </c>
+      <c r="D208" t="s">
+        <v>64</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45165.77083333334</v>
+      </c>
+      <c r="F208">
+        <v>21</v>
+      </c>
+      <c r="G208" t="s">
+        <v>70</v>
+      </c>
+      <c r="H208" t="s">
+        <v>82</v>
+      </c>
+      <c r="I208">
+        <v>2</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>2</v>
+      </c>
+      <c r="L208">
+        <v>3</v>
+      </c>
+      <c r="M208">
+        <v>1</v>
+      </c>
+      <c r="N208">
+        <v>4</v>
+      </c>
+      <c r="O208" t="s">
+        <v>228</v>
+      </c>
+      <c r="P208" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q208">
+        <v>2</v>
+      </c>
+      <c r="R208">
+        <v>3</v>
+      </c>
+      <c r="S208">
+        <v>5</v>
+      </c>
+      <c r="T208">
+        <v>2.2</v>
+      </c>
+      <c r="U208">
+        <v>2.2</v>
+      </c>
+      <c r="V208">
+        <v>6</v>
+      </c>
+      <c r="W208">
+        <v>1.4</v>
+      </c>
+      <c r="X208">
+        <v>2.75</v>
+      </c>
+      <c r="Y208">
+        <v>3</v>
+      </c>
+      <c r="Z208">
+        <v>1.36</v>
+      </c>
+      <c r="AA208">
+        <v>8</v>
+      </c>
+      <c r="AB208">
+        <v>1.08</v>
+      </c>
+      <c r="AC208">
+        <v>1.62</v>
+      </c>
+      <c r="AD208">
+        <v>3.6</v>
+      </c>
+      <c r="AE208">
+        <v>5.5</v>
+      </c>
+      <c r="AF208">
+        <v>1.02</v>
+      </c>
+      <c r="AG208">
+        <v>8.6</v>
+      </c>
+      <c r="AH208">
+        <v>1.31</v>
+      </c>
+      <c r="AI208">
+        <v>3.08</v>
+      </c>
+      <c r="AJ208">
+        <v>2.08</v>
+      </c>
+      <c r="AK208">
+        <v>1.67</v>
+      </c>
+      <c r="AL208">
+        <v>2</v>
+      </c>
+      <c r="AM208">
+        <v>1.75</v>
+      </c>
+      <c r="AN208">
+        <v>1.12</v>
+      </c>
+      <c r="AO208">
+        <v>1.2</v>
+      </c>
+      <c r="AP208">
+        <v>2.4</v>
+      </c>
+      <c r="AQ208">
+        <v>1.8</v>
+      </c>
+      <c r="AR208">
+        <v>0.5</v>
+      </c>
+      <c r="AS208">
+        <v>1.91</v>
+      </c>
+      <c r="AT208">
+        <v>0.45</v>
+      </c>
+      <c r="AU208">
+        <v>1.92</v>
+      </c>
+      <c r="AV208">
+        <v>1.31</v>
+      </c>
+      <c r="AW208">
+        <v>3.23</v>
+      </c>
+      <c r="AX208">
+        <v>1.42</v>
+      </c>
+      <c r="AY208">
+        <v>9</v>
+      </c>
+      <c r="AZ208">
+        <v>3.45</v>
+      </c>
+      <c r="BA208">
+        <v>1.18</v>
+      </c>
+      <c r="BB208">
+        <v>1.33</v>
+      </c>
+      <c r="BC208">
+        <v>1.58</v>
+      </c>
+      <c r="BD208">
+        <v>1.95</v>
+      </c>
+      <c r="BE208">
+        <v>2.45</v>
+      </c>
+      <c r="BF208">
+        <v>7</v>
+      </c>
+      <c r="BG208">
+        <v>3</v>
+      </c>
+      <c r="BH208">
+        <v>6</v>
+      </c>
+      <c r="BI208">
+        <v>8</v>
+      </c>
+      <c r="BJ208">
+        <v>13</v>
+      </c>
+      <c r="BK208">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="209" spans="1:63">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>5406636</v>
+      </c>
+      <c r="C209" t="s">
+        <v>63</v>
+      </c>
+      <c r="D209" t="s">
+        <v>64</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45165.79166666666</v>
+      </c>
+      <c r="F209">
+        <v>21</v>
+      </c>
+      <c r="G209" t="s">
+        <v>74</v>
+      </c>
+      <c r="H209" t="s">
+        <v>78</v>
+      </c>
+      <c r="I209">
+        <v>1</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>1</v>
+      </c>
+      <c r="L209">
+        <v>3</v>
+      </c>
+      <c r="M209">
+        <v>0</v>
+      </c>
+      <c r="N209">
+        <v>3</v>
+      </c>
+      <c r="O209" t="s">
+        <v>229</v>
+      </c>
+      <c r="P209" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q209">
+        <v>6</v>
+      </c>
+      <c r="R209">
+        <v>5</v>
+      </c>
+      <c r="S209">
+        <v>11</v>
+      </c>
+      <c r="T209">
+        <v>2.63</v>
+      </c>
+      <c r="U209">
+        <v>2.1</v>
+      </c>
+      <c r="V209">
+        <v>4.5</v>
+      </c>
+      <c r="W209">
+        <v>1.4</v>
+      </c>
+      <c r="X209">
+        <v>2.75</v>
+      </c>
+      <c r="Y209">
+        <v>3</v>
+      </c>
+      <c r="Z209">
+        <v>1.36</v>
+      </c>
+      <c r="AA209">
+        <v>9</v>
+      </c>
+      <c r="AB209">
+        <v>1.07</v>
+      </c>
+      <c r="AC209">
+        <v>2</v>
+      </c>
+      <c r="AD209">
+        <v>3.4</v>
+      </c>
+      <c r="AE209">
+        <v>4</v>
+      </c>
+      <c r="AF209">
+        <v>1.05</v>
+      </c>
+      <c r="AG209">
+        <v>8</v>
+      </c>
+      <c r="AH209">
+        <v>1.33</v>
+      </c>
+      <c r="AI209">
+        <v>3</v>
+      </c>
+      <c r="AJ209">
+        <v>2.1</v>
+      </c>
+      <c r="AK209">
+        <v>1.73</v>
+      </c>
+      <c r="AL209">
+        <v>1.95</v>
+      </c>
+      <c r="AM209">
+        <v>1.8</v>
+      </c>
+      <c r="AN209">
+        <v>1.14</v>
+      </c>
+      <c r="AO209">
+        <v>1.32</v>
+      </c>
+      <c r="AP209">
+        <v>1.87</v>
+      </c>
+      <c r="AQ209">
+        <v>2.3</v>
+      </c>
+      <c r="AR209">
+        <v>1.44</v>
+      </c>
+      <c r="AS209">
+        <v>2.36</v>
+      </c>
+      <c r="AT209">
+        <v>1.3</v>
+      </c>
+      <c r="AU209">
+        <v>1.8</v>
+      </c>
+      <c r="AV209">
+        <v>1.6</v>
+      </c>
+      <c r="AW209">
+        <v>3.4</v>
+      </c>
+      <c r="AX209">
+        <v>2</v>
+      </c>
+      <c r="AY209">
+        <v>7.5</v>
+      </c>
+      <c r="AZ209">
+        <v>2.15</v>
+      </c>
+      <c r="BA209">
+        <v>1.17</v>
+      </c>
+      <c r="BB209">
+        <v>1.3</v>
+      </c>
+      <c r="BC209">
+        <v>1.5</v>
+      </c>
+      <c r="BD209">
+        <v>1.8</v>
+      </c>
+      <c r="BE209">
+        <v>2.2</v>
+      </c>
+      <c r="BF209">
+        <v>6</v>
+      </c>
+      <c r="BG209">
+        <v>2</v>
+      </c>
+      <c r="BH209">
+        <v>4</v>
+      </c>
+      <c r="BI209">
+        <v>5</v>
+      </c>
+      <c r="BJ209">
+        <v>10</v>
+      </c>
+      <c r="BK209">
         <v>7</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
@@ -673,13 +673,13 @@
     <t>['5']</t>
   </si>
   <si>
-    <t>['9', '38', '60', '84']</t>
+    <t>['63', '90']</t>
   </si>
   <si>
     <t>['15', '46']</t>
   </si>
   <si>
-    <t>['63', '90']</t>
+    <t>['9', '38', '60', '84']</t>
   </si>
   <si>
     <t>['82']</t>
@@ -688,13 +688,13 @@
     <t>['55', '83']</t>
   </si>
   <si>
-    <t>['4', '52', '76']</t>
-  </si>
-  <si>
     <t>['12', '67']</t>
   </si>
   <si>
     <t>['61', '90']</t>
+  </si>
+  <si>
+    <t>['4', '52', '76']</t>
   </si>
   <si>
     <t>['13', '90+3']</t>
@@ -946,10 +946,10 @@
     <t>['90+8']</t>
   </si>
   <si>
-    <t>['19', '31', '90+4']</t>
+    <t>['46']</t>
   </si>
   <si>
-    <t>['46']</t>
+    <t>['19', '31', '90+4']</t>
   </si>
   <si>
     <t>['39']</t>
@@ -37433,7 +37433,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>5406622</v>
+        <v>5406626</v>
       </c>
       <c r="C190" t="s">
         <v>63</v>
@@ -37448,58 +37448,58 @@
         <v>20</v>
       </c>
       <c r="G190" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H190" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I190">
         <v>0</v>
       </c>
       <c r="J190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L190">
         <v>0</v>
       </c>
       <c r="M190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O190" t="s">
         <v>86</v>
       </c>
       <c r="P190" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="Q190">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R190">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S190">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="T190">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="U190">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V190">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="W190">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X190">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y190">
         <v>3.4</v>
@@ -37514,31 +37514,31 @@
         <v>1.06</v>
       </c>
       <c r="AC190">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="AD190">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="AE190">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="AF190">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AG190">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH190">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AI190">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="AJ190">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AK190">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="AL190">
         <v>2.05</v>
@@ -37550,73 +37550,73 @@
         <v>1.28</v>
       </c>
       <c r="AO190">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AP190">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AQ190">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="AR190">
-        <v>1.89</v>
+        <v>0.89</v>
       </c>
       <c r="AS190">
-        <v>2.09</v>
+        <v>1.5</v>
       </c>
       <c r="AT190">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="AU190">
-        <v>1.96</v>
+        <v>1.49</v>
       </c>
       <c r="AV190">
-        <v>1.2</v>
+        <v>1.47</v>
       </c>
       <c r="AW190">
-        <v>3.16</v>
+        <v>2.96</v>
       </c>
       <c r="AX190">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AY190">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AZ190">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="BA190">
         <v>1.18</v>
       </c>
       <c r="BB190">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="BC190">
-        <v>1.54</v>
+        <v>2</v>
       </c>
       <c r="BD190">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="BE190">
-        <v>2.52</v>
+        <v>2.76</v>
       </c>
       <c r="BF190">
         <v>5</v>
       </c>
       <c r="BG190">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH190">
+        <v>15</v>
+      </c>
+      <c r="BI190">
+        <v>5</v>
+      </c>
+      <c r="BJ190">
+        <v>20</v>
+      </c>
+      <c r="BK190">
         <v>9</v>
-      </c>
-      <c r="BI190">
-        <v>11</v>
-      </c>
-      <c r="BJ190">
-        <v>14</v>
-      </c>
-      <c r="BK190">
-        <v>13</v>
       </c>
     </row>
     <row r="191" spans="1:63">
@@ -37624,7 +37624,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>5406626</v>
+        <v>5406622</v>
       </c>
       <c r="C191" t="s">
         <v>63</v>
@@ -37639,58 +37639,58 @@
         <v>20</v>
       </c>
       <c r="G191" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H191" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I191">
         <v>0</v>
       </c>
       <c r="J191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L191">
         <v>0</v>
       </c>
       <c r="M191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O191" t="s">
         <v>86</v>
       </c>
       <c r="P191" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="Q191">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R191">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S191">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="T191">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="U191">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V191">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="W191">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X191">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y191">
         <v>3.4</v>
@@ -37705,31 +37705,31 @@
         <v>1.06</v>
       </c>
       <c r="AC191">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="AD191">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="AE191">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="AF191">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AG191">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH191">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AI191">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="AJ191">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="AK191">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="AL191">
         <v>2.05</v>
@@ -37741,73 +37741,73 @@
         <v>1.28</v>
       </c>
       <c r="AO191">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AP191">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AQ191">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="AR191">
-        <v>0.89</v>
+        <v>1.89</v>
       </c>
       <c r="AS191">
-        <v>1.5</v>
+        <v>2.09</v>
       </c>
       <c r="AT191">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="AU191">
-        <v>1.49</v>
+        <v>1.96</v>
       </c>
       <c r="AV191">
-        <v>1.47</v>
+        <v>1.2</v>
       </c>
       <c r="AW191">
-        <v>2.96</v>
+        <v>3.16</v>
       </c>
       <c r="AX191">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AY191">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AZ191">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="BA191">
         <v>1.18</v>
       </c>
       <c r="BB191">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="BC191">
-        <v>2</v>
+        <v>1.54</v>
       </c>
       <c r="BD191">
-        <v>2.12</v>
+        <v>1.96</v>
       </c>
       <c r="BE191">
-        <v>2.76</v>
+        <v>2.52</v>
       </c>
       <c r="BF191">
         <v>5</v>
       </c>
       <c r="BG191">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BH191">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BI191">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BJ191">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="BK191">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="192" spans="1:63">
@@ -37815,7 +37815,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>5406629</v>
+        <v>5406620</v>
       </c>
       <c r="C192" t="s">
         <v>63</v>
@@ -37830,175 +37830,175 @@
         <v>20</v>
       </c>
       <c r="G192" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H192" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I192">
         <v>0</v>
       </c>
       <c r="J192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L192">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N192">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O192" t="s">
-        <v>86</v>
+        <v>217</v>
       </c>
       <c r="P192" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="Q192">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S192">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="T192">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="U192">
-        <v>1.91</v>
+        <v>2.38</v>
       </c>
       <c r="V192">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="W192">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="X192">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Y192">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="Z192">
+        <v>1.4</v>
+      </c>
+      <c r="AA192">
+        <v>8</v>
+      </c>
+      <c r="AB192">
+        <v>1.08</v>
+      </c>
+      <c r="AC192">
+        <v>1.46</v>
+      </c>
+      <c r="AD192">
+        <v>4.3</v>
+      </c>
+      <c r="AE192">
+        <v>6.1</v>
+      </c>
+      <c r="AF192">
+        <v>1.04</v>
+      </c>
+      <c r="AG192">
+        <v>12</v>
+      </c>
+      <c r="AH192">
+        <v>1.28</v>
+      </c>
+      <c r="AI192">
+        <v>3.6</v>
+      </c>
+      <c r="AJ192">
+        <v>1.92</v>
+      </c>
+      <c r="AK192">
+        <v>1.97</v>
+      </c>
+      <c r="AL192">
+        <v>1.95</v>
+      </c>
+      <c r="AM192">
+        <v>1.8</v>
+      </c>
+      <c r="AN192">
+        <v>1.12</v>
+      </c>
+      <c r="AO192">
+        <v>1.18</v>
+      </c>
+      <c r="AP192">
+        <v>2.5</v>
+      </c>
+      <c r="AQ192">
+        <v>2.4</v>
+      </c>
+      <c r="AR192">
+        <v>0.33</v>
+      </c>
+      <c r="AS192">
+        <v>2.45</v>
+      </c>
+      <c r="AT192">
+        <v>0.3</v>
+      </c>
+      <c r="AU192">
+        <v>1.79</v>
+      </c>
+      <c r="AV192">
+        <v>1.45</v>
+      </c>
+      <c r="AW192">
+        <v>3.24</v>
+      </c>
+      <c r="AX192">
+        <v>1.35</v>
+      </c>
+      <c r="AY192">
+        <v>9.5</v>
+      </c>
+      <c r="AZ192">
+        <v>3.9</v>
+      </c>
+      <c r="BA192">
+        <v>1.18</v>
+      </c>
+      <c r="BB192">
         <v>1.25</v>
       </c>
-      <c r="AA192">
-        <v>11</v>
-      </c>
-      <c r="AB192">
-        <v>1.05</v>
-      </c>
-      <c r="AC192">
-        <v>2.98</v>
-      </c>
-      <c r="AD192">
-        <v>3.1</v>
-      </c>
-      <c r="AE192">
-        <v>2.38</v>
-      </c>
-      <c r="AF192">
-        <v>1.09</v>
-      </c>
-      <c r="AG192">
-        <v>7.5</v>
-      </c>
-      <c r="AH192">
-        <v>1.5</v>
-      </c>
-      <c r="AI192">
-        <v>2.5</v>
-      </c>
-      <c r="AJ192">
-        <v>2.29</v>
-      </c>
-      <c r="AK192">
-        <v>1.55</v>
-      </c>
-      <c r="AL192">
-        <v>2.1</v>
-      </c>
-      <c r="AM192">
-        <v>1.67</v>
-      </c>
-      <c r="AN192">
-        <v>1.57</v>
-      </c>
-      <c r="AO192">
-        <v>1.3</v>
-      </c>
-      <c r="AP192">
-        <v>1.38</v>
-      </c>
-      <c r="AQ192">
-        <v>1.33</v>
-      </c>
-      <c r="AR192">
-        <v>1.4</v>
-      </c>
-      <c r="AS192">
-        <v>1.2</v>
-      </c>
-      <c r="AT192">
-        <v>1.55</v>
-      </c>
-      <c r="AU192">
-        <v>1.63</v>
-      </c>
-      <c r="AV192">
-        <v>1.5</v>
-      </c>
-      <c r="AW192">
-        <v>3.13</v>
-      </c>
-      <c r="AX192">
-        <v>2.3</v>
-      </c>
-      <c r="AY192">
-        <v>8</v>
-      </c>
-      <c r="AZ192">
-        <v>1.8</v>
-      </c>
-      <c r="BA192">
-        <v>1.17</v>
-      </c>
-      <c r="BB192">
-        <v>1.35</v>
-      </c>
       <c r="BC192">
-        <v>1.83</v>
+        <v>1.46</v>
       </c>
       <c r="BD192">
-        <v>2.06</v>
+        <v>1.76</v>
       </c>
       <c r="BE192">
-        <v>2.69</v>
+        <v>2.15</v>
       </c>
       <c r="BF192">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BG192">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BH192">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BI192">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BJ192">
+        <v>21</v>
+      </c>
+      <c r="BK192">
         <v>14</v>
-      </c>
-      <c r="BK192">
-        <v>19</v>
       </c>
     </row>
     <row r="193" spans="1:63">
@@ -38006,7 +38006,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>5406620</v>
+        <v>5406629</v>
       </c>
       <c r="C193" t="s">
         <v>63</v>
@@ -38021,175 +38021,175 @@
         <v>20</v>
       </c>
       <c r="G193" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H193" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I193">
         <v>0</v>
       </c>
       <c r="J193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L193">
+        <v>0</v>
+      </c>
+      <c r="M193">
+        <v>2</v>
+      </c>
+      <c r="N193">
+        <v>2</v>
+      </c>
+      <c r="O193" t="s">
+        <v>86</v>
+      </c>
+      <c r="P193" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q193">
+        <v>9</v>
+      </c>
+      <c r="R193">
+        <v>2</v>
+      </c>
+      <c r="S193">
+        <v>11</v>
+      </c>
+      <c r="T193">
+        <v>3.75</v>
+      </c>
+      <c r="U193">
+        <v>1.91</v>
+      </c>
+      <c r="V193">
+        <v>3.4</v>
+      </c>
+      <c r="W193">
+        <v>1.57</v>
+      </c>
+      <c r="X193">
+        <v>2.25</v>
+      </c>
+      <c r="Y193">
+        <v>3.75</v>
+      </c>
+      <c r="Z193">
+        <v>1.25</v>
+      </c>
+      <c r="AA193">
+        <v>11</v>
+      </c>
+      <c r="AB193">
+        <v>1.05</v>
+      </c>
+      <c r="AC193">
+        <v>2.98</v>
+      </c>
+      <c r="AD193">
+        <v>3.1</v>
+      </c>
+      <c r="AE193">
+        <v>2.38</v>
+      </c>
+      <c r="AF193">
+        <v>1.09</v>
+      </c>
+      <c r="AG193">
+        <v>7.5</v>
+      </c>
+      <c r="AH193">
+        <v>1.5</v>
+      </c>
+      <c r="AI193">
+        <v>2.5</v>
+      </c>
+      <c r="AJ193">
+        <v>2.29</v>
+      </c>
+      <c r="AK193">
+        <v>1.55</v>
+      </c>
+      <c r="AL193">
+        <v>2.1</v>
+      </c>
+      <c r="AM193">
+        <v>1.67</v>
+      </c>
+      <c r="AN193">
+        <v>1.57</v>
+      </c>
+      <c r="AO193">
+        <v>1.3</v>
+      </c>
+      <c r="AP193">
+        <v>1.38</v>
+      </c>
+      <c r="AQ193">
+        <v>1.33</v>
+      </c>
+      <c r="AR193">
+        <v>1.4</v>
+      </c>
+      <c r="AS193">
+        <v>1.2</v>
+      </c>
+      <c r="AT193">
+        <v>1.55</v>
+      </c>
+      <c r="AU193">
+        <v>1.63</v>
+      </c>
+      <c r="AV193">
+        <v>1.5</v>
+      </c>
+      <c r="AW193">
+        <v>3.13</v>
+      </c>
+      <c r="AX193">
+        <v>2.3</v>
+      </c>
+      <c r="AY193">
+        <v>8</v>
+      </c>
+      <c r="AZ193">
+        <v>1.8</v>
+      </c>
+      <c r="BA193">
+        <v>1.17</v>
+      </c>
+      <c r="BB193">
+        <v>1.35</v>
+      </c>
+      <c r="BC193">
+        <v>1.83</v>
+      </c>
+      <c r="BD193">
+        <v>2.06</v>
+      </c>
+      <c r="BE193">
+        <v>2.69</v>
+      </c>
+      <c r="BF193">
         <v>3</v>
       </c>
-      <c r="M193">
-        <v>1</v>
-      </c>
-      <c r="N193">
-        <v>4</v>
-      </c>
-      <c r="O193" t="s">
-        <v>217</v>
-      </c>
-      <c r="P193" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q193">
-        <v>7</v>
-      </c>
-      <c r="R193">
-        <v>1</v>
-      </c>
-      <c r="S193">
-        <v>8</v>
-      </c>
-      <c r="T193">
-        <v>2</v>
-      </c>
-      <c r="U193">
-        <v>2.38</v>
-      </c>
-      <c r="V193">
-        <v>6.5</v>
-      </c>
-      <c r="W193">
-        <v>1.36</v>
-      </c>
-      <c r="X193">
-        <v>3</v>
-      </c>
-      <c r="Y193">
-        <v>2.75</v>
-      </c>
-      <c r="Z193">
-        <v>1.4</v>
-      </c>
-      <c r="AA193">
-        <v>8</v>
-      </c>
-      <c r="AB193">
-        <v>1.08</v>
-      </c>
-      <c r="AC193">
-        <v>1.46</v>
-      </c>
-      <c r="AD193">
-        <v>4.3</v>
-      </c>
-      <c r="AE193">
-        <v>6.1</v>
-      </c>
-      <c r="AF193">
-        <v>1.04</v>
-      </c>
-      <c r="AG193">
-        <v>12</v>
-      </c>
-      <c r="AH193">
-        <v>1.28</v>
-      </c>
-      <c r="AI193">
-        <v>3.6</v>
-      </c>
-      <c r="AJ193">
-        <v>1.92</v>
-      </c>
-      <c r="AK193">
-        <v>1.97</v>
-      </c>
-      <c r="AL193">
-        <v>1.95</v>
-      </c>
-      <c r="AM193">
-        <v>1.8</v>
-      </c>
-      <c r="AN193">
-        <v>1.12</v>
-      </c>
-      <c r="AO193">
-        <v>1.18</v>
-      </c>
-      <c r="AP193">
-        <v>2.5</v>
-      </c>
-      <c r="AQ193">
-        <v>2.4</v>
-      </c>
-      <c r="AR193">
-        <v>0.33</v>
-      </c>
-      <c r="AS193">
-        <v>2.45</v>
-      </c>
-      <c r="AT193">
-        <v>0.3</v>
-      </c>
-      <c r="AU193">
-        <v>1.79</v>
-      </c>
-      <c r="AV193">
-        <v>1.45</v>
-      </c>
-      <c r="AW193">
-        <v>3.24</v>
-      </c>
-      <c r="AX193">
-        <v>1.35</v>
-      </c>
-      <c r="AY193">
-        <v>9.5</v>
-      </c>
-      <c r="AZ193">
-        <v>3.9</v>
-      </c>
-      <c r="BA193">
-        <v>1.18</v>
-      </c>
-      <c r="BB193">
-        <v>1.25</v>
-      </c>
-      <c r="BC193">
-        <v>1.46</v>
-      </c>
-      <c r="BD193">
-        <v>1.76</v>
-      </c>
-      <c r="BE193">
-        <v>2.15</v>
-      </c>
-      <c r="BF193">
+      <c r="BG193">
         <v>6</v>
       </c>
-      <c r="BG193">
-        <v>4</v>
-      </c>
       <c r="BH193">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BI193">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BJ193">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="BK193">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="194" spans="1:63">
@@ -38579,7 +38579,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>5406628</v>
+        <v>5406623</v>
       </c>
       <c r="C196" t="s">
         <v>63</v>
@@ -38594,175 +38594,175 @@
         <v>20</v>
       </c>
       <c r="G196" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H196" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="I196">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J196">
         <v>0</v>
       </c>
       <c r="K196">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L196">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N196">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O196" t="s">
         <v>219</v>
       </c>
       <c r="P196" t="s">
-        <v>86</v>
+        <v>310</v>
       </c>
       <c r="Q196">
+        <v>9</v>
+      </c>
+      <c r="R196">
         <v>4</v>
       </c>
-      <c r="R196">
-        <v>7</v>
-      </c>
       <c r="S196">
+        <v>13</v>
+      </c>
+      <c r="T196">
+        <v>3.4</v>
+      </c>
+      <c r="U196">
+        <v>2</v>
+      </c>
+      <c r="V196">
+        <v>3.4</v>
+      </c>
+      <c r="W196">
+        <v>1.5</v>
+      </c>
+      <c r="X196">
+        <v>2.5</v>
+      </c>
+      <c r="Y196">
+        <v>3.5</v>
+      </c>
+      <c r="Z196">
+        <v>1.29</v>
+      </c>
+      <c r="AA196">
         <v>11</v>
       </c>
-      <c r="T196">
-        <v>3.1</v>
-      </c>
-      <c r="U196">
+      <c r="AB196">
+        <v>1.05</v>
+      </c>
+      <c r="AC196">
+        <v>2.63</v>
+      </c>
+      <c r="AD196">
+        <v>3.25</v>
+      </c>
+      <c r="AE196">
+        <v>2.63</v>
+      </c>
+      <c r="AF196">
+        <v>1.08</v>
+      </c>
+      <c r="AG196">
+        <v>8</v>
+      </c>
+      <c r="AH196">
+        <v>1.44</v>
+      </c>
+      <c r="AI196">
+        <v>2.75</v>
+      </c>
+      <c r="AJ196">
+        <v>2.3</v>
+      </c>
+      <c r="AK196">
+        <v>1.62</v>
+      </c>
+      <c r="AL196">
+        <v>1.95</v>
+      </c>
+      <c r="AM196">
+        <v>1.8</v>
+      </c>
+      <c r="AN196">
+        <v>1.48</v>
+      </c>
+      <c r="AO196">
+        <v>1.35</v>
+      </c>
+      <c r="AP196">
+        <v>1.45</v>
+      </c>
+      <c r="AQ196">
+        <v>1.4</v>
+      </c>
+      <c r="AR196">
+        <v>1.25</v>
+      </c>
+      <c r="AS196">
+        <v>1.55</v>
+      </c>
+      <c r="AT196">
+        <v>1.11</v>
+      </c>
+      <c r="AU196">
+        <v>1.47</v>
+      </c>
+      <c r="AV196">
+        <v>1.47</v>
+      </c>
+      <c r="AW196">
+        <v>2.94</v>
+      </c>
+      <c r="AX196">
         <v>2.05</v>
-      </c>
-      <c r="V196">
-        <v>3.6</v>
-      </c>
-      <c r="W196">
-        <v>1.36</v>
-      </c>
-      <c r="X196">
-        <v>3</v>
-      </c>
-      <c r="Y196">
-        <v>2.75</v>
-      </c>
-      <c r="Z196">
-        <v>1.4</v>
-      </c>
-      <c r="AA196">
-        <v>8</v>
-      </c>
-      <c r="AB196">
-        <v>1.08</v>
-      </c>
-      <c r="AC196">
-        <v>2.5</v>
-      </c>
-      <c r="AD196">
-        <v>3.2</v>
-      </c>
-      <c r="AE196">
-        <v>3</v>
-      </c>
-      <c r="AF196">
-        <v>1.05</v>
-      </c>
-      <c r="AG196">
-        <v>11</v>
-      </c>
-      <c r="AH196">
-        <v>1.33</v>
-      </c>
-      <c r="AI196">
-        <v>3.3</v>
-      </c>
-      <c r="AJ196">
-        <v>2.1</v>
-      </c>
-      <c r="AK196">
-        <v>1.73</v>
-      </c>
-      <c r="AL196">
-        <v>1.8</v>
-      </c>
-      <c r="AM196">
-        <v>1.95</v>
-      </c>
-      <c r="AN196">
-        <v>1.52</v>
-      </c>
-      <c r="AO196">
-        <v>1.25</v>
-      </c>
-      <c r="AP196">
-        <v>1.5</v>
-      </c>
-      <c r="AQ196">
-        <v>1.33</v>
-      </c>
-      <c r="AR196">
-        <v>1.44</v>
-      </c>
-      <c r="AS196">
-        <v>1.5</v>
-      </c>
-      <c r="AT196">
-        <v>1.3</v>
-      </c>
-      <c r="AU196">
-        <v>1.76</v>
-      </c>
-      <c r="AV196">
-        <v>1.56</v>
-      </c>
-      <c r="AW196">
-        <v>3.32</v>
-      </c>
-      <c r="AX196">
-        <v>1.94</v>
       </c>
       <c r="AY196">
         <v>8</v>
       </c>
       <c r="AZ196">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="BA196">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="BB196">
-        <v>1.26</v>
+        <v>1.38</v>
       </c>
       <c r="BC196">
-        <v>1.46</v>
+        <v>1.91</v>
       </c>
       <c r="BD196">
-        <v>1.75</v>
+        <v>2.06</v>
       </c>
       <c r="BE196">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="BF196">
         <v>8</v>
       </c>
       <c r="BG196">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BH196">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BI196">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BJ196">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BK196">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197" spans="1:63">
@@ -38812,7 +38812,7 @@
         <v>220</v>
       </c>
       <c r="P197" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -38961,7 +38961,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>5406623</v>
+        <v>5406628</v>
       </c>
       <c r="C198" t="s">
         <v>63</v>
@@ -38976,175 +38976,175 @@
         <v>20</v>
       </c>
       <c r="G198" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H198" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J198">
         <v>0</v>
       </c>
       <c r="K198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L198">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N198">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O198" t="s">
         <v>221</v>
       </c>
       <c r="P198" t="s">
-        <v>311</v>
+        <v>86</v>
       </c>
       <c r="Q198">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R198">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S198">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="T198">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="U198">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V198">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="W198">
+        <v>1.36</v>
+      </c>
+      <c r="X198">
+        <v>3</v>
+      </c>
+      <c r="Y198">
+        <v>2.75</v>
+      </c>
+      <c r="Z198">
+        <v>1.4</v>
+      </c>
+      <c r="AA198">
+        <v>8</v>
+      </c>
+      <c r="AB198">
+        <v>1.08</v>
+      </c>
+      <c r="AC198">
+        <v>2.5</v>
+      </c>
+      <c r="AD198">
+        <v>3.2</v>
+      </c>
+      <c r="AE198">
+        <v>3</v>
+      </c>
+      <c r="AF198">
+        <v>1.05</v>
+      </c>
+      <c r="AG198">
+        <v>11</v>
+      </c>
+      <c r="AH198">
+        <v>1.33</v>
+      </c>
+      <c r="AI198">
+        <v>3.3</v>
+      </c>
+      <c r="AJ198">
+        <v>2.1</v>
+      </c>
+      <c r="AK198">
+        <v>1.73</v>
+      </c>
+      <c r="AL198">
+        <v>1.8</v>
+      </c>
+      <c r="AM198">
+        <v>1.95</v>
+      </c>
+      <c r="AN198">
+        <v>1.52</v>
+      </c>
+      <c r="AO198">
+        <v>1.25</v>
+      </c>
+      <c r="AP198">
         <v>1.5</v>
       </c>
-      <c r="X198">
-        <v>2.5</v>
-      </c>
-      <c r="Y198">
-        <v>3.5</v>
-      </c>
-      <c r="Z198">
-        <v>1.29</v>
-      </c>
-      <c r="AA198">
-        <v>11</v>
-      </c>
-      <c r="AB198">
-        <v>1.05</v>
-      </c>
-      <c r="AC198">
-        <v>2.63</v>
-      </c>
-      <c r="AD198">
-        <v>3.25</v>
-      </c>
-      <c r="AE198">
-        <v>2.63</v>
-      </c>
-      <c r="AF198">
-        <v>1.08</v>
-      </c>
-      <c r="AG198">
-        <v>8</v>
-      </c>
-      <c r="AH198">
+      <c r="AQ198">
+        <v>1.33</v>
+      </c>
+      <c r="AR198">
         <v>1.44</v>
       </c>
-      <c r="AI198">
-        <v>2.75</v>
-      </c>
-      <c r="AJ198">
-        <v>2.3</v>
-      </c>
-      <c r="AK198">
-        <v>1.62</v>
-      </c>
-      <c r="AL198">
-        <v>1.95</v>
-      </c>
-      <c r="AM198">
-        <v>1.8</v>
-      </c>
-      <c r="AN198">
-        <v>1.48</v>
-      </c>
-      <c r="AO198">
-        <v>1.35</v>
-      </c>
-      <c r="AP198">
-        <v>1.45</v>
-      </c>
-      <c r="AQ198">
-        <v>1.4</v>
-      </c>
-      <c r="AR198">
-        <v>1.25</v>
-      </c>
       <c r="AS198">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT198">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU198">
-        <v>1.47</v>
+        <v>1.76</v>
       </c>
       <c r="AV198">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AW198">
-        <v>2.94</v>
+        <v>3.32</v>
       </c>
       <c r="AX198">
-        <v>2.05</v>
+        <v>1.94</v>
       </c>
       <c r="AY198">
         <v>8</v>
       </c>
       <c r="AZ198">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="BA198">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="BB198">
-        <v>1.38</v>
+        <v>1.26</v>
       </c>
       <c r="BC198">
-        <v>1.91</v>
+        <v>1.46</v>
       </c>
       <c r="BD198">
-        <v>2.06</v>
+        <v>1.75</v>
       </c>
       <c r="BE198">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="BF198">
         <v>8</v>
       </c>
       <c r="BG198">
+        <v>8</v>
+      </c>
+      <c r="BH198">
+        <v>7</v>
+      </c>
+      <c r="BI198">
         <v>4</v>
       </c>
-      <c r="BH198">
+      <c r="BJ198">
+        <v>15</v>
+      </c>
+      <c r="BK198">
         <v>12</v>
-      </c>
-      <c r="BI198">
-        <v>6</v>
-      </c>
-      <c r="BJ198">
-        <v>20</v>
-      </c>
-      <c r="BK198">
-        <v>10</v>
       </c>
     </row>
     <row r="199" spans="1:63">
@@ -39916,7 +39916,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>5406631</v>
+        <v>5406635</v>
       </c>
       <c r="C203" t="s">
         <v>63</v>
@@ -39931,10 +39931,10 @@
         <v>21</v>
       </c>
       <c r="G203" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H203" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I203">
         <v>1</v>
@@ -39946,13 +39946,13 @@
         <v>1</v>
       </c>
       <c r="L203">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M203">
         <v>0</v>
       </c>
       <c r="N203">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O203" t="s">
         <v>224</v>
@@ -39961,145 +39961,145 @@
         <v>86</v>
       </c>
       <c r="Q203">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R203">
+        <v>2</v>
+      </c>
+      <c r="S203">
         <v>7</v>
       </c>
-      <c r="S203">
-        <v>11</v>
-      </c>
       <c r="T203">
+        <v>2.1</v>
+      </c>
+      <c r="U203">
+        <v>2.1</v>
+      </c>
+      <c r="V203">
+        <v>7</v>
+      </c>
+      <c r="W203">
+        <v>1.5</v>
+      </c>
+      <c r="X203">
         <v>2.5</v>
       </c>
-      <c r="U203">
-        <v>2.2</v>
-      </c>
-      <c r="V203">
-        <v>4.75</v>
-      </c>
-      <c r="W203">
-        <v>1.44</v>
-      </c>
-      <c r="X203">
-        <v>2.63</v>
-      </c>
       <c r="Y203">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Z203">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AA203">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB203">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AC203">
-        <v>1.85</v>
+        <v>1.57</v>
       </c>
       <c r="AD203">
         <v>3.6</v>
       </c>
       <c r="AE203">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="AF203">
+        <v>1.05</v>
+      </c>
+      <c r="AG203">
+        <v>7.2</v>
+      </c>
+      <c r="AH203">
+        <v>1.41</v>
+      </c>
+      <c r="AI203">
+        <v>2.64</v>
+      </c>
+      <c r="AJ203">
+        <v>2.3</v>
+      </c>
+      <c r="AK203">
+        <v>1.62</v>
+      </c>
+      <c r="AL203">
+        <v>2.25</v>
+      </c>
+      <c r="AM203">
+        <v>1.57</v>
+      </c>
+      <c r="AN203">
+        <v>1.1</v>
+      </c>
+      <c r="AO203">
+        <v>1.26</v>
+      </c>
+      <c r="AP203">
+        <v>2.43</v>
+      </c>
+      <c r="AQ203">
+        <v>1.33</v>
+      </c>
+      <c r="AR203">
+        <v>0.44</v>
+      </c>
+      <c r="AS203">
+        <v>1.5</v>
+      </c>
+      <c r="AT203">
+        <v>0.4</v>
+      </c>
+      <c r="AU203">
+        <v>1.68</v>
+      </c>
+      <c r="AV203">
         <v>1.03</v>
       </c>
-      <c r="AG203">
-        <v>8.4</v>
-      </c>
-      <c r="AH203">
-        <v>1.32</v>
-      </c>
-      <c r="AI203">
-        <v>3.04</v>
-      </c>
-      <c r="AJ203">
-        <v>2</v>
-      </c>
-      <c r="AK203">
-        <v>1.8</v>
-      </c>
-      <c r="AL203">
-        <v>1.91</v>
-      </c>
-      <c r="AM203">
-        <v>1.91</v>
-      </c>
-      <c r="AN203">
-        <v>1.12</v>
-      </c>
-      <c r="AO203">
-        <v>1.25</v>
-      </c>
-      <c r="AP203">
-        <v>2.2</v>
-      </c>
-      <c r="AQ203">
-        <v>3</v>
-      </c>
-      <c r="AR203">
-        <v>0.6</v>
-      </c>
-      <c r="AS203">
-        <v>3</v>
-      </c>
-      <c r="AT203">
-        <v>0.55</v>
-      </c>
-      <c r="AU203">
-        <v>1.91</v>
-      </c>
-      <c r="AV203">
+      <c r="AW203">
+        <v>2.71</v>
+      </c>
+      <c r="AX203">
         <v>1.34</v>
       </c>
-      <c r="AW203">
-        <v>3.25</v>
-      </c>
-      <c r="AX203">
-        <v>1.82</v>
-      </c>
       <c r="AY203">
+        <v>9.5</v>
+      </c>
+      <c r="AZ203">
+        <v>4</v>
+      </c>
+      <c r="BA203">
+        <v>1.2</v>
+      </c>
+      <c r="BB203">
+        <v>1.37</v>
+      </c>
+      <c r="BC203">
+        <v>2.1</v>
+      </c>
+      <c r="BD203">
+        <v>2.02</v>
+      </c>
+      <c r="BE203">
+        <v>2.55</v>
+      </c>
+      <c r="BF203">
+        <v>7</v>
+      </c>
+      <c r="BG203">
+        <v>0</v>
+      </c>
+      <c r="BH203">
         <v>9</v>
       </c>
-      <c r="AZ203">
-        <v>2.45</v>
-      </c>
-      <c r="BA203">
-        <v>1.15</v>
-      </c>
-      <c r="BB203">
-        <v>1.31</v>
-      </c>
-      <c r="BC203">
-        <v>1.91</v>
-      </c>
-      <c r="BD203">
-        <v>2</v>
-      </c>
-      <c r="BE203">
-        <v>2.43</v>
-      </c>
-      <c r="BF203">
-        <v>6</v>
-      </c>
-      <c r="BG203">
-        <v>7</v>
-      </c>
-      <c r="BH203">
-        <v>5</v>
-      </c>
       <c r="BI203">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BJ203">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BK203">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="204" spans="1:63">
@@ -40107,7 +40107,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>5406635</v>
+        <v>5406639</v>
       </c>
       <c r="C204" t="s">
         <v>63</v>
@@ -40122,52 +40122,52 @@
         <v>21</v>
       </c>
       <c r="G204" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H204" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J204">
         <v>0</v>
       </c>
       <c r="K204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L204">
         <v>2</v>
       </c>
       <c r="M204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N204">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O204" t="s">
         <v>225</v>
       </c>
       <c r="P204" t="s">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="Q204">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R204">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S204">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T204">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="U204">
         <v>2.1</v>
       </c>
       <c r="V204">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="W204">
         <v>1.5</v>
@@ -40176,10 +40176,10 @@
         <v>2.5</v>
       </c>
       <c r="Y204">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Z204">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AA204">
         <v>10</v>
@@ -40188,106 +40188,106 @@
         <v>1.06</v>
       </c>
       <c r="AC204">
-        <v>1.57</v>
+        <v>2.9</v>
       </c>
       <c r="AD204">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="AE204">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="AF204">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="AG204">
-        <v>7.2</v>
+        <v>8.9</v>
       </c>
       <c r="AH204">
         <v>1.41</v>
       </c>
       <c r="AI204">
-        <v>2.64</v>
+        <v>2.95</v>
       </c>
       <c r="AJ204">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="AK204">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AL204">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AM204">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="AN204">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="AO204">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="AP204">
-        <v>2.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ204">
-        <v>1.33</v>
+        <v>0.78</v>
       </c>
       <c r="AR204">
-        <v>0.44</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AS204">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT204">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU204">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="AV204">
-        <v>1.03</v>
+        <v>1.43</v>
       </c>
       <c r="AW204">
-        <v>2.71</v>
+        <v>3.22</v>
       </c>
       <c r="AX204">
-        <v>1.34</v>
+        <v>2.1</v>
       </c>
       <c r="AY204">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AZ204">
-        <v>4</v>
+        <v>1.94</v>
       </c>
       <c r="BA204">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="BB204">
         <v>1.37</v>
       </c>
       <c r="BC204">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="BD204">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="BE204">
         <v>2.55</v>
       </c>
       <c r="BF204">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BG204">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BH204">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BI204">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="BJ204">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="BK204">
         <v>14</v>
@@ -40298,7 +40298,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>5406639</v>
+        <v>5406631</v>
       </c>
       <c r="C205" t="s">
         <v>63</v>
@@ -40313,25 +40313,25 @@
         <v>21</v>
       </c>
       <c r="G205" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H205" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J205">
         <v>0</v>
       </c>
       <c r="K205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L205">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N205">
         <v>3</v>
@@ -40340,148 +40340,148 @@
         <v>226</v>
       </c>
       <c r="P205" t="s">
-        <v>155</v>
+        <v>86</v>
       </c>
       <c r="Q205">
         <v>4</v>
       </c>
       <c r="R205">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S205">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T205">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U205">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V205">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="W205">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X205">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y205">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Z205">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AA205">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB205">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AC205">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="AD205">
+        <v>3.6</v>
+      </c>
+      <c r="AE205">
+        <v>4.2</v>
+      </c>
+      <c r="AF205">
+        <v>1.03</v>
+      </c>
+      <c r="AG205">
+        <v>8.4</v>
+      </c>
+      <c r="AH205">
+        <v>1.32</v>
+      </c>
+      <c r="AI205">
+        <v>3.04</v>
+      </c>
+      <c r="AJ205">
+        <v>2</v>
+      </c>
+      <c r="AK205">
+        <v>1.8</v>
+      </c>
+      <c r="AL205">
+        <v>1.91</v>
+      </c>
+      <c r="AM205">
+        <v>1.91</v>
+      </c>
+      <c r="AN205">
+        <v>1.12</v>
+      </c>
+      <c r="AO205">
+        <v>1.25</v>
+      </c>
+      <c r="AP205">
+        <v>2.2</v>
+      </c>
+      <c r="AQ205">
+        <v>3</v>
+      </c>
+      <c r="AR205">
+        <v>0.6</v>
+      </c>
+      <c r="AS205">
+        <v>3</v>
+      </c>
+      <c r="AT205">
+        <v>0.55</v>
+      </c>
+      <c r="AU205">
+        <v>1.91</v>
+      </c>
+      <c r="AV205">
+        <v>1.34</v>
+      </c>
+      <c r="AW205">
         <v>3.25</v>
       </c>
-      <c r="AE205">
-        <v>2.5</v>
-      </c>
-      <c r="AF205">
-        <v>1.08</v>
-      </c>
-      <c r="AG205">
-        <v>8.9</v>
-      </c>
-      <c r="AH205">
-        <v>1.41</v>
-      </c>
-      <c r="AI205">
-        <v>2.95</v>
-      </c>
-      <c r="AJ205">
-        <v>2.1</v>
-      </c>
-      <c r="AK205">
-        <v>1.73</v>
-      </c>
-      <c r="AL205">
-        <v>1.8</v>
-      </c>
-      <c r="AM205">
-        <v>1.95</v>
-      </c>
-      <c r="AN205">
-        <v>1.5</v>
-      </c>
-      <c r="AO205">
-        <v>1.33</v>
-      </c>
-      <c r="AP205">
-        <v>1.4</v>
-      </c>
-      <c r="AQ205">
-        <v>0.78</v>
-      </c>
-      <c r="AR205">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AS205">
-        <v>1</v>
-      </c>
-      <c r="AT205">
-        <v>0.5</v>
-      </c>
-      <c r="AU205">
-        <v>1.79</v>
-      </c>
-      <c r="AV205">
-        <v>1.43</v>
-      </c>
-      <c r="AW205">
-        <v>3.22</v>
-      </c>
       <c r="AX205">
-        <v>2.1</v>
+        <v>1.82</v>
       </c>
       <c r="AY205">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ205">
-        <v>1.94</v>
+        <v>2.45</v>
       </c>
       <c r="BA205">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="BB205">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="BC205">
         <v>1.91</v>
       </c>
       <c r="BD205">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="BE205">
-        <v>2.55</v>
+        <v>2.43</v>
       </c>
       <c r="BF205">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG205">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BH205">
         <v>5</v>
       </c>
       <c r="BI205">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BJ205">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BK205">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="206" spans="1:63">

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="319">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -706,6 +706,9 @@
     <t>['29', '54', '78']</t>
   </si>
   <si>
+    <t>['78']</t>
+  </si>
+  <si>
     <t>['45+7']</t>
   </si>
   <si>
@@ -962,6 +965,12 @@
   </si>
   <si>
     <t>['68']</t>
+  </si>
+  <si>
+    <t>['6']</t>
+  </si>
+  <si>
+    <t>['2', '73']</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1332,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK209"/>
+  <dimension ref="A1:BK212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1567,7 +1576,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1758,7 +1767,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q3">
         <v>11</v>
@@ -1949,7 +1958,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2036,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AT4">
         <v>0.5</v>
@@ -2418,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT6">
         <v>1</v>
@@ -2522,7 +2531,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2612,7 +2621,7 @@
         <v>1.91</v>
       </c>
       <c r="AT7">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2713,7 +2722,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q8">
         <v>14</v>
@@ -3668,7 +3677,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -4241,7 +4250,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4331,7 +4340,7 @@
         <v>1.5</v>
       </c>
       <c r="AT16">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4432,7 +4441,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4713,7 +4722,7 @@
         <v>1.55</v>
       </c>
       <c r="AT18">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4814,7 +4823,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5092,7 +5101,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT20">
         <v>0.82</v>
@@ -5196,7 +5205,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5578,7 +5587,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -5769,7 +5778,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -5960,7 +5969,7 @@
         <v>86</v>
       </c>
       <c r="P25" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -6151,7 +6160,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q26">
         <v>12</v>
@@ -6342,7 +6351,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6533,7 +6542,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6915,7 +6924,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -7297,7 +7306,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7488,7 +7497,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7679,7 +7688,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7960,7 +7969,7 @@
         <v>2.09</v>
       </c>
       <c r="AT35">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU35">
         <v>1.72</v>
@@ -8061,7 +8070,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -8148,10 +8157,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT36">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU36">
         <v>1.11</v>
@@ -8252,7 +8261,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8443,7 +8452,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8721,10 +8730,10 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AT39">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU39">
         <v>1.26</v>
@@ -8825,7 +8834,7 @@
         <v>86</v>
       </c>
       <c r="P40" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8912,7 +8921,7 @@
         <v>1</v>
       </c>
       <c r="AS40">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT40">
         <v>1.55</v>
@@ -9016,7 +9025,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9207,7 +9216,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9398,7 +9407,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9780,7 +9789,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -9870,7 +9879,7 @@
         <v>1.2</v>
       </c>
       <c r="AT45">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU45">
         <v>1.7</v>
@@ -10162,7 +10171,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q47">
         <v>16</v>
@@ -10353,7 +10362,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10822,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AT50">
         <v>0.82</v>
@@ -11117,7 +11126,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q52">
         <v>10</v>
@@ -11207,7 +11216,7 @@
         <v>1.5</v>
       </c>
       <c r="AT52">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU52">
         <v>1.47</v>
@@ -11499,7 +11508,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q54">
         <v>15</v>
@@ -11780,7 +11789,7 @@
         <v>1.5</v>
       </c>
       <c r="AT55">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU55">
         <v>2.15</v>
@@ -12072,7 +12081,7 @@
         <v>129</v>
       </c>
       <c r="P57" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12541,7 +12550,7 @@
         <v>3</v>
       </c>
       <c r="AS59">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT59">
         <v>1.8</v>
@@ -12645,7 +12654,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12732,7 +12741,7 @@
         <v>0</v>
       </c>
       <c r="AS60">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT60">
         <v>0.45</v>
@@ -12836,7 +12845,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13027,7 +13036,7 @@
         <v>132</v>
       </c>
       <c r="P62" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13218,7 +13227,7 @@
         <v>133</v>
       </c>
       <c r="P63" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q63">
         <v>1</v>
@@ -13409,7 +13418,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13499,7 +13508,7 @@
         <v>0.9</v>
       </c>
       <c r="AT64">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU64">
         <v>1.63</v>
@@ -13791,7 +13800,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -14069,7 +14078,7 @@
         <v>2</v>
       </c>
       <c r="AS67">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AT67">
         <v>0.8</v>
@@ -14645,7 +14654,7 @@
         <v>2.36</v>
       </c>
       <c r="AT70">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU70">
         <v>1.55</v>
@@ -14746,7 +14755,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -14937,7 +14946,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -15024,7 +15033,7 @@
         <v>1</v>
       </c>
       <c r="AS72">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT72">
         <v>1.11</v>
@@ -16465,7 +16474,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16743,7 +16752,7 @@
         <v>0.33</v>
       </c>
       <c r="AS81">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AT81">
         <v>0.3</v>
@@ -17229,7 +17238,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q84">
         <v>12</v>
@@ -17319,7 +17328,7 @@
         <v>1.09</v>
       </c>
       <c r="AT84">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU84">
         <v>2.07</v>
@@ -17507,7 +17516,7 @@
         <v>2</v>
       </c>
       <c r="AS85">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT85">
         <v>1.8</v>
@@ -17701,7 +17710,7 @@
         <v>1.55</v>
       </c>
       <c r="AT86">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU86">
         <v>1.5</v>
@@ -17802,7 +17811,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17993,7 +18002,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -18184,7 +18193,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18271,7 +18280,7 @@
         <v>1.5</v>
       </c>
       <c r="AS89">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT89">
         <v>1.45</v>
@@ -18375,7 +18384,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q90">
         <v>11</v>
@@ -18566,7 +18575,7 @@
         <v>154</v>
       </c>
       <c r="P91" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18656,7 +18665,7 @@
         <v>1</v>
       </c>
       <c r="AT91">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU91">
         <v>2.09</v>
@@ -19139,7 +19148,7 @@
         <v>156</v>
       </c>
       <c r="P94" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19330,7 +19339,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19608,7 +19617,7 @@
         <v>1.25</v>
       </c>
       <c r="AS96">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AT96">
         <v>1.1</v>
@@ -19712,7 +19721,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q97">
         <v>7</v>
@@ -20094,7 +20103,7 @@
         <v>86</v>
       </c>
       <c r="P99" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q99">
         <v>8</v>
@@ -20476,7 +20485,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20563,7 +20572,7 @@
         <v>1.2</v>
       </c>
       <c r="AS101">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT101">
         <v>0.8</v>
@@ -21049,7 +21058,7 @@
         <v>86</v>
       </c>
       <c r="P104" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -21240,7 +21249,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21330,7 +21339,7 @@
         <v>2.45</v>
       </c>
       <c r="AT105">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU105">
         <v>1.92</v>
@@ -21813,7 +21822,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q108">
         <v>8</v>
@@ -22004,7 +22013,7 @@
         <v>86</v>
       </c>
       <c r="P109" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q109">
         <v>10</v>
@@ -22094,7 +22103,7 @@
         <v>0.9</v>
       </c>
       <c r="AT109">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU109">
         <v>1.74</v>
@@ -22195,7 +22204,7 @@
         <v>86</v>
       </c>
       <c r="P110" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -22476,7 +22485,7 @@
         <v>2</v>
       </c>
       <c r="AT111">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU111">
         <v>1.85</v>
@@ -22664,7 +22673,7 @@
         <v>0.5</v>
       </c>
       <c r="AS112">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT112">
         <v>0.82</v>
@@ -22858,7 +22867,7 @@
         <v>1.91</v>
       </c>
       <c r="AT113">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU113">
         <v>1.99</v>
@@ -22959,7 +22968,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q114">
         <v>9</v>
@@ -23341,7 +23350,7 @@
         <v>171</v>
       </c>
       <c r="P116" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q116">
         <v>8</v>
@@ -23532,7 +23541,7 @@
         <v>86</v>
       </c>
       <c r="P117" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q117">
         <v>12</v>
@@ -23723,7 +23732,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q118">
         <v>2</v>
@@ -23813,7 +23822,7 @@
         <v>1.55</v>
       </c>
       <c r="AT118">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU118">
         <v>1.58</v>
@@ -24105,7 +24114,7 @@
         <v>174</v>
       </c>
       <c r="P120" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -24195,7 +24204,7 @@
         <v>1</v>
       </c>
       <c r="AT120">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU120">
         <v>1.82</v>
@@ -24678,7 +24687,7 @@
         <v>177</v>
       </c>
       <c r="P123" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q123">
         <v>7</v>
@@ -25442,7 +25451,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25633,7 +25642,7 @@
         <v>180</v>
       </c>
       <c r="P128" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q128">
         <v>7</v>
@@ -25720,7 +25729,7 @@
         <v>1.5</v>
       </c>
       <c r="AS128">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT128">
         <v>1.55</v>
@@ -25911,7 +25920,7 @@
         <v>0.83</v>
       </c>
       <c r="AS129">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AT129">
         <v>0.6</v>
@@ -26206,7 +26215,7 @@
         <v>183</v>
       </c>
       <c r="P131" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q131">
         <v>7</v>
@@ -26293,7 +26302,7 @@
         <v>0.17</v>
       </c>
       <c r="AS131">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT131">
         <v>0.45</v>
@@ -26397,7 +26406,7 @@
         <v>184</v>
       </c>
       <c r="P132" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26779,7 +26788,7 @@
         <v>86</v>
       </c>
       <c r="P134" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q134">
         <v>10</v>
@@ -26970,7 +26979,7 @@
         <v>185</v>
       </c>
       <c r="P135" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q135">
         <v>7</v>
@@ -27251,7 +27260,7 @@
         <v>2.3</v>
       </c>
       <c r="AT136">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU136">
         <v>2.2</v>
@@ -27352,7 +27361,7 @@
         <v>187</v>
       </c>
       <c r="P137" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q137">
         <v>8</v>
@@ -27633,7 +27642,7 @@
         <v>2.45</v>
       </c>
       <c r="AT138">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU138">
         <v>1.83</v>
@@ -28116,7 +28125,7 @@
         <v>86</v>
       </c>
       <c r="P141" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q141">
         <v>10</v>
@@ -28394,7 +28403,7 @@
         <v>1.17</v>
       </c>
       <c r="AS142">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AT142">
         <v>1.3</v>
@@ -28970,7 +28979,7 @@
         <v>2.45</v>
       </c>
       <c r="AT145">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU145">
         <v>1.84</v>
@@ -29540,7 +29549,7 @@
         <v>0.71</v>
       </c>
       <c r="AS148">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT148">
         <v>0.55</v>
@@ -29731,10 +29740,10 @@
         <v>1.57</v>
       </c>
       <c r="AS149">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT149">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU149">
         <v>1.79</v>
@@ -30408,7 +30417,7 @@
         <v>195</v>
       </c>
       <c r="P153" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q153">
         <v>2</v>
@@ -30689,7 +30698,7 @@
         <v>2.36</v>
       </c>
       <c r="AT154">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU154">
         <v>1.96</v>
@@ -30790,7 +30799,7 @@
         <v>197</v>
       </c>
       <c r="P155" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q155">
         <v>2</v>
@@ -31071,7 +31080,7 @@
         <v>2</v>
       </c>
       <c r="AT156">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU156">
         <v>2.1</v>
@@ -31172,7 +31181,7 @@
         <v>86</v>
       </c>
       <c r="P157" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q157">
         <v>13</v>
@@ -31363,7 +31372,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q158">
         <v>8</v>
@@ -31745,7 +31754,7 @@
         <v>199</v>
       </c>
       <c r="P160" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -31832,7 +31841,7 @@
         <v>1.71</v>
       </c>
       <c r="AS160">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT160">
         <v>1.3</v>
@@ -31936,7 +31945,7 @@
         <v>200</v>
       </c>
       <c r="P161" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q161">
         <v>7</v>
@@ -32318,7 +32327,7 @@
         <v>201</v>
       </c>
       <c r="P163" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q163">
         <v>0</v>
@@ -32509,7 +32518,7 @@
         <v>86</v>
       </c>
       <c r="P164" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q164">
         <v>2</v>
@@ -32700,7 +32709,7 @@
         <v>142</v>
       </c>
       <c r="P165" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -32790,7 +32799,7 @@
         <v>1.5</v>
       </c>
       <c r="AT165">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU165">
         <v>1.75</v>
@@ -33082,7 +33091,7 @@
         <v>202</v>
       </c>
       <c r="P167" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q167">
         <v>7</v>
@@ -33169,7 +33178,7 @@
         <v>0.63</v>
       </c>
       <c r="AS167">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AT167">
         <v>0.45</v>
@@ -33273,7 +33282,7 @@
         <v>203</v>
       </c>
       <c r="P168" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q168">
         <v>5</v>
@@ -33551,7 +33560,7 @@
         <v>1.5</v>
       </c>
       <c r="AS169">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT169">
         <v>1.11</v>
@@ -33655,7 +33664,7 @@
         <v>204</v>
       </c>
       <c r="P170" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q170">
         <v>3</v>
@@ -33846,7 +33855,7 @@
         <v>205</v>
       </c>
       <c r="P171" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q171">
         <v>1</v>
@@ -34124,7 +34133,7 @@
         <v>1</v>
       </c>
       <c r="AS172">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT172">
         <v>1.1</v>
@@ -34610,7 +34619,7 @@
         <v>86</v>
       </c>
       <c r="P175" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q175">
         <v>9</v>
@@ -34700,7 +34709,7 @@
         <v>2.09</v>
       </c>
       <c r="AT175">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU175">
         <v>1.93</v>
@@ -34992,7 +35001,7 @@
         <v>208</v>
       </c>
       <c r="P177" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q177">
         <v>7</v>
@@ -35464,7 +35473,7 @@
         <v>1.2</v>
       </c>
       <c r="AT179">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU179">
         <v>1.58</v>
@@ -35652,10 +35661,10 @@
         <v>1</v>
       </c>
       <c r="AS180">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AT180">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU180">
         <v>1.88</v>
@@ -36138,7 +36147,7 @@
         <v>213</v>
       </c>
       <c r="P183" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q183">
         <v>4</v>
@@ -37093,7 +37102,7 @@
         <v>215</v>
       </c>
       <c r="P188" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q188">
         <v>7</v>
@@ -37371,7 +37380,7 @@
         <v>1.78</v>
       </c>
       <c r="AS189">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT189">
         <v>1.45</v>
@@ -37857,7 +37866,7 @@
         <v>217</v>
       </c>
       <c r="P192" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q192">
         <v>7</v>
@@ -38048,7 +38057,7 @@
         <v>86</v>
       </c>
       <c r="P193" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q193">
         <v>9</v>
@@ -38239,7 +38248,7 @@
         <v>148</v>
       </c>
       <c r="P194" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q194">
         <v>10</v>
@@ -38520,7 +38529,7 @@
         <v>1</v>
       </c>
       <c r="AT195">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU195">
         <v>1.75</v>
@@ -38621,7 +38630,7 @@
         <v>219</v>
       </c>
       <c r="P196" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q196">
         <v>9</v>
@@ -38812,7 +38821,7 @@
         <v>220</v>
       </c>
       <c r="P197" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -38902,7 +38911,7 @@
         <v>0.9</v>
       </c>
       <c r="AT197">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU197">
         <v>1.59</v>
@@ -39194,7 +39203,7 @@
         <v>155</v>
       </c>
       <c r="P199" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q199">
         <v>4</v>
@@ -39281,7 +39290,7 @@
         <v>0.89</v>
       </c>
       <c r="AS199">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT199">
         <v>0.9</v>
@@ -39475,7 +39484,7 @@
         <v>1.9</v>
       </c>
       <c r="AT200">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU200">
         <v>1.92</v>
@@ -39576,7 +39585,7 @@
         <v>222</v>
       </c>
       <c r="P201" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q201">
         <v>7</v>
@@ -40427,7 +40436,7 @@
         <v>0.6</v>
       </c>
       <c r="AS205">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AT205">
         <v>0.55</v>
@@ -40722,7 +40731,7 @@
         <v>227</v>
       </c>
       <c r="P207" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q207">
         <v>2</v>
@@ -40809,7 +40818,7 @@
         <v>0.78</v>
       </c>
       <c r="AS207">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT207">
         <v>0.8</v>
@@ -40913,7 +40922,7 @@
         <v>228</v>
       </c>
       <c r="P208" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q208">
         <v>2</v>
@@ -41246,6 +41255,579 @@
       </c>
       <c r="BK209">
         <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:63">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>5406647</v>
+      </c>
+      <c r="C210" t="s">
+        <v>63</v>
+      </c>
+      <c r="D210" t="s">
+        <v>64</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45171.66666666666</v>
+      </c>
+      <c r="F210">
+        <v>22</v>
+      </c>
+      <c r="G210" t="s">
+        <v>69</v>
+      </c>
+      <c r="H210" t="s">
+        <v>71</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>1</v>
+      </c>
+      <c r="K210">
+        <v>1</v>
+      </c>
+      <c r="L210">
+        <v>1</v>
+      </c>
+      <c r="M210">
+        <v>1</v>
+      </c>
+      <c r="N210">
+        <v>2</v>
+      </c>
+      <c r="O210" t="s">
+        <v>230</v>
+      </c>
+      <c r="P210" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q210">
+        <v>12</v>
+      </c>
+      <c r="R210">
+        <v>7</v>
+      </c>
+      <c r="S210">
+        <v>19</v>
+      </c>
+      <c r="T210">
+        <v>3.1</v>
+      </c>
+      <c r="U210">
+        <v>1.95</v>
+      </c>
+      <c r="V210">
+        <v>4</v>
+      </c>
+      <c r="W210">
+        <v>1.53</v>
+      </c>
+      <c r="X210">
+        <v>2.38</v>
+      </c>
+      <c r="Y210">
+        <v>3.5</v>
+      </c>
+      <c r="Z210">
+        <v>1.29</v>
+      </c>
+      <c r="AA210">
+        <v>11</v>
+      </c>
+      <c r="AB210">
+        <v>1.05</v>
+      </c>
+      <c r="AC210">
+        <v>2.3</v>
+      </c>
+      <c r="AD210">
+        <v>3</v>
+      </c>
+      <c r="AE210">
+        <v>3.5</v>
+      </c>
+      <c r="AF210">
+        <v>1.09</v>
+      </c>
+      <c r="AG210">
+        <v>8</v>
+      </c>
+      <c r="AH210">
+        <v>1.44</v>
+      </c>
+      <c r="AI210">
+        <v>2.37</v>
+      </c>
+      <c r="AJ210">
+        <v>2.5</v>
+      </c>
+      <c r="AK210">
+        <v>1.53</v>
+      </c>
+      <c r="AL210">
+        <v>2</v>
+      </c>
+      <c r="AM210">
+        <v>1.75</v>
+      </c>
+      <c r="AN210">
+        <v>1.31</v>
+      </c>
+      <c r="AO210">
+        <v>1.34</v>
+      </c>
+      <c r="AP210">
+        <v>1.63</v>
+      </c>
+      <c r="AQ210">
+        <v>2.18</v>
+      </c>
+      <c r="AR210">
+        <v>1.36</v>
+      </c>
+      <c r="AS210">
+        <v>2.08</v>
+      </c>
+      <c r="AT210">
+        <v>1.33</v>
+      </c>
+      <c r="AU210">
+        <v>1.89</v>
+      </c>
+      <c r="AV210">
+        <v>1.35</v>
+      </c>
+      <c r="AW210">
+        <v>3.24</v>
+      </c>
+      <c r="AX210">
+        <v>1.85</v>
+      </c>
+      <c r="AY210">
+        <v>8</v>
+      </c>
+      <c r="AZ210">
+        <v>2.23</v>
+      </c>
+      <c r="BA210">
+        <v>1.2</v>
+      </c>
+      <c r="BB210">
+        <v>1.37</v>
+      </c>
+      <c r="BC210">
+        <v>2</v>
+      </c>
+      <c r="BD210">
+        <v>2.02</v>
+      </c>
+      <c r="BE210">
+        <v>2.55</v>
+      </c>
+      <c r="BF210">
+        <v>7</v>
+      </c>
+      <c r="BG210">
+        <v>8</v>
+      </c>
+      <c r="BH210">
+        <v>17</v>
+      </c>
+      <c r="BI210">
+        <v>2</v>
+      </c>
+      <c r="BJ210">
+        <v>24</v>
+      </c>
+      <c r="BK210">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:63">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>5406644</v>
+      </c>
+      <c r="C211" t="s">
+        <v>63</v>
+      </c>
+      <c r="D211" t="s">
+        <v>64</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45171.66666666666</v>
+      </c>
+      <c r="F211">
+        <v>22</v>
+      </c>
+      <c r="G211" t="s">
+        <v>83</v>
+      </c>
+      <c r="H211" t="s">
+        <v>79</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>0</v>
+      </c>
+      <c r="L211">
+        <v>0</v>
+      </c>
+      <c r="M211">
+        <v>0</v>
+      </c>
+      <c r="N211">
+        <v>0</v>
+      </c>
+      <c r="O211" t="s">
+        <v>86</v>
+      </c>
+      <c r="P211" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q211">
+        <v>5</v>
+      </c>
+      <c r="R211">
+        <v>5</v>
+      </c>
+      <c r="S211">
+        <v>10</v>
+      </c>
+      <c r="T211">
+        <v>3.6</v>
+      </c>
+      <c r="U211">
+        <v>1.91</v>
+      </c>
+      <c r="V211">
+        <v>3.6</v>
+      </c>
+      <c r="W211">
+        <v>1.57</v>
+      </c>
+      <c r="X211">
+        <v>2.25</v>
+      </c>
+      <c r="Y211">
+        <v>3.75</v>
+      </c>
+      <c r="Z211">
+        <v>1.25</v>
+      </c>
+      <c r="AA211">
+        <v>11</v>
+      </c>
+      <c r="AB211">
+        <v>1.05</v>
+      </c>
+      <c r="AC211">
+        <v>2.8</v>
+      </c>
+      <c r="AD211">
+        <v>3</v>
+      </c>
+      <c r="AE211">
+        <v>2.8</v>
+      </c>
+      <c r="AF211">
+        <v>1.11</v>
+      </c>
+      <c r="AG211">
+        <v>7</v>
+      </c>
+      <c r="AH211">
+        <v>1.5</v>
+      </c>
+      <c r="AI211">
+        <v>2.45</v>
+      </c>
+      <c r="AJ211">
+        <v>2.75</v>
+      </c>
+      <c r="AK211">
+        <v>1.44</v>
+      </c>
+      <c r="AL211">
+        <v>2.1</v>
+      </c>
+      <c r="AM211">
+        <v>1.67</v>
+      </c>
+      <c r="AN211">
+        <v>1.4</v>
+      </c>
+      <c r="AO211">
+        <v>1.37</v>
+      </c>
+      <c r="AP211">
+        <v>1.47</v>
+      </c>
+      <c r="AQ211">
+        <v>1.3</v>
+      </c>
+      <c r="AR211">
+        <v>0.91</v>
+      </c>
+      <c r="AS211">
+        <v>1.27</v>
+      </c>
+      <c r="AT211">
+        <v>0.92</v>
+      </c>
+      <c r="AU211">
+        <v>1.66</v>
+      </c>
+      <c r="AV211">
+        <v>1.26</v>
+      </c>
+      <c r="AW211">
+        <v>2.92</v>
+      </c>
+      <c r="AX211">
+        <v>1.89</v>
+      </c>
+      <c r="AY211">
+        <v>8</v>
+      </c>
+      <c r="AZ211">
+        <v>2.18</v>
+      </c>
+      <c r="BA211">
+        <v>1.23</v>
+      </c>
+      <c r="BB211">
+        <v>1.43</v>
+      </c>
+      <c r="BC211">
+        <v>2.1</v>
+      </c>
+      <c r="BD211">
+        <v>2.18</v>
+      </c>
+      <c r="BE211">
+        <v>2.8</v>
+      </c>
+      <c r="BF211">
+        <v>3</v>
+      </c>
+      <c r="BG211">
+        <v>3</v>
+      </c>
+      <c r="BH211">
+        <v>9</v>
+      </c>
+      <c r="BI211">
+        <v>9</v>
+      </c>
+      <c r="BJ211">
+        <v>12</v>
+      </c>
+      <c r="BK211">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="212" spans="1:63">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>5406641</v>
+      </c>
+      <c r="C212" t="s">
+        <v>63</v>
+      </c>
+      <c r="D212" t="s">
+        <v>64</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45171.875</v>
+      </c>
+      <c r="F212">
+        <v>22</v>
+      </c>
+      <c r="G212" t="s">
+        <v>67</v>
+      </c>
+      <c r="H212" t="s">
+        <v>72</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212">
+        <v>1</v>
+      </c>
+      <c r="K212">
+        <v>2</v>
+      </c>
+      <c r="L212">
+        <v>1</v>
+      </c>
+      <c r="M212">
+        <v>2</v>
+      </c>
+      <c r="N212">
+        <v>3</v>
+      </c>
+      <c r="O212" t="s">
+        <v>174</v>
+      </c>
+      <c r="P212" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q212">
+        <v>12</v>
+      </c>
+      <c r="R212">
+        <v>6</v>
+      </c>
+      <c r="S212">
+        <v>18</v>
+      </c>
+      <c r="T212">
+        <v>3.1</v>
+      </c>
+      <c r="U212">
+        <v>2.05</v>
+      </c>
+      <c r="V212">
+        <v>3.75</v>
+      </c>
+      <c r="W212">
+        <v>1.44</v>
+      </c>
+      <c r="X212">
+        <v>2.63</v>
+      </c>
+      <c r="Y212">
+        <v>3</v>
+      </c>
+      <c r="Z212">
+        <v>1.36</v>
+      </c>
+      <c r="AA212">
+        <v>9</v>
+      </c>
+      <c r="AB212">
+        <v>1.07</v>
+      </c>
+      <c r="AC212">
+        <v>2.3</v>
+      </c>
+      <c r="AD212">
+        <v>3.2</v>
+      </c>
+      <c r="AE212">
+        <v>3.3</v>
+      </c>
+      <c r="AF212">
+        <v>1.05</v>
+      </c>
+      <c r="AG212">
+        <v>10</v>
+      </c>
+      <c r="AH212">
+        <v>1.33</v>
+      </c>
+      <c r="AI212">
+        <v>3.25</v>
+      </c>
+      <c r="AJ212">
+        <v>2.2</v>
+      </c>
+      <c r="AK212">
+        <v>1.67</v>
+      </c>
+      <c r="AL212">
+        <v>1.95</v>
+      </c>
+      <c r="AM212">
+        <v>1.8</v>
+      </c>
+      <c r="AN212">
+        <v>1.4</v>
+      </c>
+      <c r="AO212">
+        <v>1.33</v>
+      </c>
+      <c r="AP212">
+        <v>1.57</v>
+      </c>
+      <c r="AQ212">
+        <v>3</v>
+      </c>
+      <c r="AR212">
+        <v>1.55</v>
+      </c>
+      <c r="AS212">
+        <v>2.75</v>
+      </c>
+      <c r="AT212">
+        <v>1.67</v>
+      </c>
+      <c r="AU212">
+        <v>1.86</v>
+      </c>
+      <c r="AV212">
+        <v>1.43</v>
+      </c>
+      <c r="AW212">
+        <v>3.29</v>
+      </c>
+      <c r="AX212">
+        <v>1.82</v>
+      </c>
+      <c r="AY212">
+        <v>8</v>
+      </c>
+      <c r="AZ212">
+        <v>2.25</v>
+      </c>
+      <c r="BA212">
+        <v>1.21</v>
+      </c>
+      <c r="BB212">
+        <v>1.41</v>
+      </c>
+      <c r="BC212">
+        <v>2</v>
+      </c>
+      <c r="BD212">
+        <v>2.14</v>
+      </c>
+      <c r="BE212">
+        <v>2.75</v>
+      </c>
+      <c r="BF212">
+        <v>8</v>
+      </c>
+      <c r="BG212">
+        <v>5</v>
+      </c>
+      <c r="BH212">
+        <v>10</v>
+      </c>
+      <c r="BI212">
+        <v>8</v>
+      </c>
+      <c r="BJ212">
+        <v>18</v>
+      </c>
+      <c r="BK212">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="321">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -709,6 +709,15 @@
     <t>['78']</t>
   </si>
   <si>
+    <t>['30', '63']</t>
+  </si>
+  <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['29', '55']</t>
+  </si>
+  <si>
     <t>['45+7']</t>
   </si>
   <si>
@@ -749,9 +758,6 @@
   </si>
   <si>
     <t>['76']</t>
-  </si>
-  <si>
-    <t>['90+2']</t>
   </si>
   <si>
     <t>['30', '45+5', '71']</t>
@@ -1332,7 +1338,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK212"/>
+  <dimension ref="A1:BK218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1576,7 +1582,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1666,7 +1672,7 @@
         <v>2.3</v>
       </c>
       <c r="AT2">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1767,7 +1773,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q3">
         <v>11</v>
@@ -1854,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT3">
         <v>0.8</v>
@@ -1958,7 +1964,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2531,7 +2537,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2722,7 +2728,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q8">
         <v>14</v>
@@ -2812,7 +2818,7 @@
         <v>1.5</v>
       </c>
       <c r="AT8">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3191,7 +3197,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT10">
         <v>1.3</v>
@@ -3382,10 +3388,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT11">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3573,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT12">
         <v>0.9</v>
@@ -3677,7 +3683,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3767,7 +3773,7 @@
         <v>1.2</v>
       </c>
       <c r="AT13">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4146,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT15">
         <v>1.11</v>
@@ -4250,7 +4256,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4441,7 +4447,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4531,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="AT17">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4823,7 +4829,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4913,7 +4919,7 @@
         <v>0.9</v>
       </c>
       <c r="AT19">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5205,7 +5211,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5292,7 +5298,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT21">
         <v>1.8</v>
@@ -5587,7 +5593,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -5778,7 +5784,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -5969,7 +5975,7 @@
         <v>86</v>
       </c>
       <c r="P25" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -6160,7 +6166,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q26">
         <v>12</v>
@@ -6351,7 +6357,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6542,7 +6548,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6924,7 +6930,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -7306,7 +7312,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7393,10 +7399,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT32">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU32">
         <v>1.94</v>
@@ -7497,7 +7503,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7584,10 +7590,10 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT33">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU33">
         <v>2.02</v>
@@ -7688,7 +7694,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7775,10 +7781,10 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT34">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU34">
         <v>2.02</v>
@@ -8070,7 +8076,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -8261,7 +8267,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8348,7 +8354,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT37">
         <v>0.45</v>
@@ -8452,7 +8458,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8539,10 +8545,10 @@
         <v>1</v>
       </c>
       <c r="AS38">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT38">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU38">
         <v>1.68</v>
@@ -8834,7 +8840,7 @@
         <v>86</v>
       </c>
       <c r="P40" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8924,7 +8930,7 @@
         <v>1.27</v>
       </c>
       <c r="AT40">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU40">
         <v>1.92</v>
@@ -9025,7 +9031,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9112,10 +9118,10 @@
         <v>3</v>
       </c>
       <c r="AS41">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT41">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU41">
         <v>1.64</v>
@@ -9216,7 +9222,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9407,7 +9413,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9789,7 +9795,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10171,7 +10177,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q47">
         <v>16</v>
@@ -10258,7 +10264,7 @@
         <v>1.5</v>
       </c>
       <c r="AS47">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT47">
         <v>0.8</v>
@@ -10362,7 +10368,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10643,7 +10649,7 @@
         <v>0.9</v>
       </c>
       <c r="AT49">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU49">
         <v>1.69</v>
@@ -11126,7 +11132,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q52">
         <v>10</v>
@@ -11213,7 +11219,7 @@
         <v>0</v>
       </c>
       <c r="AS52">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT52">
         <v>1.67</v>
@@ -11404,10 +11410,10 @@
         <v>1.5</v>
       </c>
       <c r="AS53">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT53">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU53">
         <v>2.57</v>
@@ -11508,7 +11514,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q54">
         <v>15</v>
@@ -11598,7 +11604,7 @@
         <v>2.3</v>
       </c>
       <c r="AT54">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU54">
         <v>2.16</v>
@@ -11980,7 +11986,7 @@
         <v>1</v>
       </c>
       <c r="AT56">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU56">
         <v>1.67</v>
@@ -12081,7 +12087,7 @@
         <v>129</v>
       </c>
       <c r="P57" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12168,7 +12174,7 @@
         <v>0.67</v>
       </c>
       <c r="AS57">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT57">
         <v>0.5</v>
@@ -12359,10 +12365,10 @@
         <v>2</v>
       </c>
       <c r="AS58">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT58">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU58">
         <v>1.43</v>
@@ -12654,7 +12660,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12845,7 +12851,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -12932,7 +12938,7 @@
         <v>1.5</v>
       </c>
       <c r="AS61">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT61">
         <v>1.3</v>
@@ -13036,7 +13042,7 @@
         <v>132</v>
       </c>
       <c r="P62" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13123,7 +13129,7 @@
         <v>0</v>
       </c>
       <c r="AS62">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT62">
         <v>1</v>
@@ -13227,7 +13233,7 @@
         <v>133</v>
       </c>
       <c r="P63" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q63">
         <v>1</v>
@@ -13314,10 +13320,10 @@
         <v>1.67</v>
       </c>
       <c r="AS63">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT63">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU63">
         <v>1.88</v>
@@ -13418,7 +13424,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13800,7 +13806,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -13890,7 +13896,7 @@
         <v>2.09</v>
       </c>
       <c r="AT66">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU66">
         <v>1.35</v>
@@ -14272,7 +14278,7 @@
         <v>1.55</v>
       </c>
       <c r="AT68">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU68">
         <v>1.5</v>
@@ -14651,7 +14657,7 @@
         <v>0.33</v>
       </c>
       <c r="AS70">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT70">
         <v>0.92</v>
@@ -14755,7 +14761,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -14842,10 +14848,10 @@
         <v>1</v>
       </c>
       <c r="AS71">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT71">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU71">
         <v>2.04</v>
@@ -14946,7 +14952,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -15227,7 +15233,7 @@
         <v>1.91</v>
       </c>
       <c r="AT73">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU73">
         <v>2.18</v>
@@ -16179,7 +16185,7 @@
         <v>1.5</v>
       </c>
       <c r="AS78">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT78">
         <v>0.8</v>
@@ -16373,7 +16379,7 @@
         <v>2</v>
       </c>
       <c r="AT79">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU79">
         <v>1.75</v>
@@ -16474,7 +16480,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16564,7 +16570,7 @@
         <v>1.5</v>
       </c>
       <c r="AT80">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU80">
         <v>1.95</v>
@@ -17134,7 +17140,7 @@
         <v>0</v>
       </c>
       <c r="AS83">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT83">
         <v>0.82</v>
@@ -17238,7 +17244,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q84">
         <v>12</v>
@@ -17325,7 +17331,7 @@
         <v>1.75</v>
       </c>
       <c r="AS84">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT84">
         <v>1.33</v>
@@ -17811,7 +17817,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17898,7 +17904,7 @@
         <v>0.75</v>
       </c>
       <c r="AS87">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT87">
         <v>0.5</v>
@@ -18002,7 +18008,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -18089,10 +18095,10 @@
         <v>1</v>
       </c>
       <c r="AS88">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT88">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU88">
         <v>2.04</v>
@@ -18193,7 +18199,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18283,7 +18289,7 @@
         <v>1.27</v>
       </c>
       <c r="AT89">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU89">
         <v>1.64</v>
@@ -18384,7 +18390,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q90">
         <v>11</v>
@@ -18575,7 +18581,7 @@
         <v>154</v>
       </c>
       <c r="P91" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18856,7 +18862,7 @@
         <v>0.9</v>
       </c>
       <c r="AT92">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU92">
         <v>1.65</v>
@@ -19044,10 +19050,10 @@
         <v>1.8</v>
       </c>
       <c r="AS93">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT93">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU93">
         <v>1.72</v>
@@ -19148,7 +19154,7 @@
         <v>156</v>
       </c>
       <c r="P94" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19235,7 +19241,7 @@
         <v>1.75</v>
       </c>
       <c r="AS94">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT94">
         <v>1.3</v>
@@ -19339,7 +19345,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19429,7 +19435,7 @@
         <v>1.5</v>
       </c>
       <c r="AT95">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU95">
         <v>1.8</v>
@@ -19620,7 +19626,7 @@
         <v>2.75</v>
       </c>
       <c r="AT96">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU96">
         <v>1.89</v>
@@ -19721,7 +19727,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q97">
         <v>7</v>
@@ -19808,7 +19814,7 @@
         <v>0.75</v>
       </c>
       <c r="AS97">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT97">
         <v>0.9</v>
@@ -20002,7 +20008,7 @@
         <v>1.5</v>
       </c>
       <c r="AT98">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU98">
         <v>1.44</v>
@@ -20103,7 +20109,7 @@
         <v>86</v>
       </c>
       <c r="P99" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q99">
         <v>8</v>
@@ -20193,7 +20199,7 @@
         <v>2.09</v>
       </c>
       <c r="AT99">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU99">
         <v>1.67</v>
@@ -20485,7 +20491,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20954,10 +20960,10 @@
         <v>1</v>
       </c>
       <c r="AS103">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT103">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU103">
         <v>2</v>
@@ -21058,7 +21064,7 @@
         <v>86</v>
       </c>
       <c r="P104" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -21249,7 +21255,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21336,7 +21342,7 @@
         <v>2</v>
       </c>
       <c r="AS105">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT105">
         <v>1.33</v>
@@ -21527,10 +21533,10 @@
         <v>1.8</v>
       </c>
       <c r="AS106">
+        <v>1.45</v>
+      </c>
+      <c r="AT106">
         <v>1.5</v>
-      </c>
-      <c r="AT106">
-        <v>1.55</v>
       </c>
       <c r="AU106">
         <v>1.76</v>
@@ -21718,7 +21724,7 @@
         <v>0.25</v>
       </c>
       <c r="AS107">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT107">
         <v>0.3</v>
@@ -21822,7 +21828,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q108">
         <v>8</v>
@@ -22013,7 +22019,7 @@
         <v>86</v>
       </c>
       <c r="P109" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q109">
         <v>10</v>
@@ -22204,7 +22210,7 @@
         <v>86</v>
       </c>
       <c r="P110" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -22968,7 +22974,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q114">
         <v>9</v>
@@ -23055,7 +23061,7 @@
         <v>0.8</v>
       </c>
       <c r="AS114">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT114">
         <v>0.55</v>
@@ -23246,7 +23252,7 @@
         <v>0.6</v>
       </c>
       <c r="AS115">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT115">
         <v>0.5</v>
@@ -23350,7 +23356,7 @@
         <v>171</v>
       </c>
       <c r="P116" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q116">
         <v>8</v>
@@ -23437,7 +23443,7 @@
         <v>0.2</v>
       </c>
       <c r="AS116">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT116">
         <v>0.45</v>
@@ -23541,7 +23547,7 @@
         <v>86</v>
       </c>
       <c r="P117" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q117">
         <v>12</v>
@@ -23732,7 +23738,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q118">
         <v>2</v>
@@ -24114,7 +24120,7 @@
         <v>174</v>
       </c>
       <c r="P120" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -24201,7 +24207,7 @@
         <v>0.83</v>
       </c>
       <c r="AS120">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT120">
         <v>0.92</v>
@@ -24395,7 +24401,7 @@
         <v>1</v>
       </c>
       <c r="AT121">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU121">
         <v>2.06</v>
@@ -24687,7 +24693,7 @@
         <v>177</v>
       </c>
       <c r="P123" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q123">
         <v>7</v>
@@ -24774,7 +24780,7 @@
         <v>1.2</v>
       </c>
       <c r="AS123">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT123">
         <v>1.11</v>
@@ -24968,7 +24974,7 @@
         <v>1.9</v>
       </c>
       <c r="AT124">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU124">
         <v>2.06</v>
@@ -25347,10 +25353,10 @@
         <v>0.8</v>
       </c>
       <c r="AS126">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT126">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU126">
         <v>1.81</v>
@@ -25451,7 +25457,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25642,7 +25648,7 @@
         <v>180</v>
       </c>
       <c r="P128" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q128">
         <v>7</v>
@@ -25732,7 +25738,7 @@
         <v>2.08</v>
       </c>
       <c r="AT128">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU128">
         <v>1.93</v>
@@ -25923,7 +25929,7 @@
         <v>2.75</v>
       </c>
       <c r="AT129">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU129">
         <v>1.95</v>
@@ -26114,7 +26120,7 @@
         <v>1.2</v>
       </c>
       <c r="AT130">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU130">
         <v>1.62</v>
@@ -26215,7 +26221,7 @@
         <v>183</v>
       </c>
       <c r="P131" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q131">
         <v>7</v>
@@ -26406,7 +26412,7 @@
         <v>184</v>
       </c>
       <c r="P132" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26788,7 +26794,7 @@
         <v>86</v>
       </c>
       <c r="P134" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q134">
         <v>10</v>
@@ -26979,7 +26985,7 @@
         <v>185</v>
       </c>
       <c r="P135" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q135">
         <v>7</v>
@@ -27361,7 +27367,7 @@
         <v>187</v>
       </c>
       <c r="P137" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q137">
         <v>8</v>
@@ -27639,7 +27645,7 @@
         <v>1.14</v>
       </c>
       <c r="AS138">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT138">
         <v>0.92</v>
@@ -28125,7 +28131,7 @@
         <v>86</v>
       </c>
       <c r="P141" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q141">
         <v>10</v>
@@ -28212,7 +28218,7 @@
         <v>2</v>
       </c>
       <c r="AS141">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT141">
         <v>1.8</v>
@@ -28406,7 +28412,7 @@
         <v>2.75</v>
       </c>
       <c r="AT142">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU142">
         <v>1.98</v>
@@ -28594,7 +28600,7 @@
         <v>0.57</v>
       </c>
       <c r="AS143">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT143">
         <v>0.45</v>
@@ -28788,7 +28794,7 @@
         <v>1.91</v>
       </c>
       <c r="AT144">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU144">
         <v>1.83</v>
@@ -28976,7 +28982,7 @@
         <v>1.43</v>
       </c>
       <c r="AS145">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT145">
         <v>1.67</v>
@@ -29170,7 +29176,7 @@
         <v>2.09</v>
       </c>
       <c r="AT146">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU146">
         <v>1.84</v>
@@ -29361,7 +29367,7 @@
         <v>1.5</v>
       </c>
       <c r="AT147">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU147">
         <v>1.44</v>
@@ -30125,7 +30131,7 @@
         <v>2.3</v>
       </c>
       <c r="AT151">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU151">
         <v>2.07</v>
@@ -30313,7 +30319,7 @@
         <v>0.75</v>
       </c>
       <c r="AS152">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT152">
         <v>0.82</v>
@@ -30417,7 +30423,7 @@
         <v>195</v>
       </c>
       <c r="P153" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q153">
         <v>2</v>
@@ -30695,7 +30701,7 @@
         <v>1.5</v>
       </c>
       <c r="AS154">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT154">
         <v>1.33</v>
@@ -30799,7 +30805,7 @@
         <v>197</v>
       </c>
       <c r="P155" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q155">
         <v>2</v>
@@ -31181,7 +31187,7 @@
         <v>86</v>
       </c>
       <c r="P157" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q157">
         <v>13</v>
@@ -31268,7 +31274,7 @@
         <v>0.5</v>
       </c>
       <c r="AS157">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT157">
         <v>1</v>
@@ -31372,7 +31378,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q158">
         <v>8</v>
@@ -31754,7 +31760,7 @@
         <v>199</v>
       </c>
       <c r="P160" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -31945,7 +31951,7 @@
         <v>200</v>
       </c>
       <c r="P161" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q161">
         <v>7</v>
@@ -32035,7 +32041,7 @@
         <v>1.5</v>
       </c>
       <c r="AT161">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU161">
         <v>1.42</v>
@@ -32223,10 +32229,10 @@
         <v>0.57</v>
       </c>
       <c r="AS162">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT162">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU162">
         <v>1.88</v>
@@ -32327,7 +32333,7 @@
         <v>201</v>
       </c>
       <c r="P163" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q163">
         <v>0</v>
@@ -32414,10 +32420,10 @@
         <v>0.71</v>
       </c>
       <c r="AS163">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT163">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU163">
         <v>1.71</v>
@@ -32518,7 +32524,7 @@
         <v>86</v>
       </c>
       <c r="P164" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q164">
         <v>2</v>
@@ -32608,7 +32614,7 @@
         <v>1.91</v>
       </c>
       <c r="AT164">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU164">
         <v>1.93</v>
@@ -32709,7 +32715,7 @@
         <v>142</v>
       </c>
       <c r="P165" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -33091,7 +33097,7 @@
         <v>202</v>
       </c>
       <c r="P167" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q167">
         <v>7</v>
@@ -33282,7 +33288,7 @@
         <v>203</v>
       </c>
       <c r="P168" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q168">
         <v>5</v>
@@ -33369,10 +33375,10 @@
         <v>1.38</v>
       </c>
       <c r="AS168">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT168">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU168">
         <v>1.78</v>
@@ -33664,7 +33670,7 @@
         <v>204</v>
       </c>
       <c r="P170" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q170">
         <v>3</v>
@@ -33855,7 +33861,7 @@
         <v>205</v>
       </c>
       <c r="P171" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q171">
         <v>1</v>
@@ -34136,7 +34142,7 @@
         <v>1.27</v>
       </c>
       <c r="AT172">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU172">
         <v>1.75</v>
@@ -34324,10 +34330,10 @@
         <v>1.56</v>
       </c>
       <c r="AS173">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT173">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU173">
         <v>1.86</v>
@@ -34619,7 +34625,7 @@
         <v>86</v>
       </c>
       <c r="P175" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q175">
         <v>9</v>
@@ -34897,7 +34903,7 @@
         <v>2</v>
       </c>
       <c r="AS176">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT176">
         <v>1.8</v>
@@ -35001,7 +35007,7 @@
         <v>208</v>
       </c>
       <c r="P177" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q177">
         <v>7</v>
@@ -35088,7 +35094,7 @@
         <v>0.38</v>
       </c>
       <c r="AS177">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT177">
         <v>0.3</v>
@@ -35282,7 +35288,7 @@
         <v>0.9</v>
       </c>
       <c r="AT178">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU178">
         <v>1.63</v>
@@ -36043,7 +36049,7 @@
         <v>0.88</v>
       </c>
       <c r="AS182">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT182">
         <v>0.8</v>
@@ -36147,7 +36153,7 @@
         <v>213</v>
       </c>
       <c r="P183" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q183">
         <v>4</v>
@@ -36234,7 +36240,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS183">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT183">
         <v>0.45</v>
@@ -36425,7 +36431,7 @@
         <v>0.78</v>
       </c>
       <c r="AS184">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT184">
         <v>1</v>
@@ -36810,7 +36816,7 @@
         <v>1.91</v>
       </c>
       <c r="AT186">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU186">
         <v>1.82</v>
@@ -37102,7 +37108,7 @@
         <v>215</v>
       </c>
       <c r="P188" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q188">
         <v>7</v>
@@ -37192,7 +37198,7 @@
         <v>2</v>
       </c>
       <c r="AT188">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU188">
         <v>2.11</v>
@@ -37383,7 +37389,7 @@
         <v>2.08</v>
       </c>
       <c r="AT189">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU189">
         <v>1.98</v>
@@ -37574,7 +37580,7 @@
         <v>1.5</v>
       </c>
       <c r="AT190">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU190">
         <v>1.49</v>
@@ -37866,7 +37872,7 @@
         <v>217</v>
       </c>
       <c r="P192" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q192">
         <v>7</v>
@@ -37953,7 +37959,7 @@
         <v>0.33</v>
       </c>
       <c r="AS192">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT192">
         <v>0.3</v>
@@ -38057,7 +38063,7 @@
         <v>86</v>
       </c>
       <c r="P193" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q193">
         <v>9</v>
@@ -38147,7 +38153,7 @@
         <v>1.2</v>
       </c>
       <c r="AT193">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU193">
         <v>1.63</v>
@@ -38248,7 +38254,7 @@
         <v>148</v>
       </c>
       <c r="P194" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q194">
         <v>10</v>
@@ -38335,7 +38341,7 @@
         <v>0.8</v>
       </c>
       <c r="AS194">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT194">
         <v>0.82</v>
@@ -38630,7 +38636,7 @@
         <v>219</v>
       </c>
       <c r="P196" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q196">
         <v>9</v>
@@ -38821,7 +38827,7 @@
         <v>220</v>
       </c>
       <c r="P197" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -39099,10 +39105,10 @@
         <v>1.44</v>
       </c>
       <c r="AS198">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT198">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU198">
         <v>1.76</v>
@@ -39203,7 +39209,7 @@
         <v>155</v>
       </c>
       <c r="P199" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q199">
         <v>4</v>
@@ -39585,7 +39591,7 @@
         <v>222</v>
       </c>
       <c r="P201" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q201">
         <v>7</v>
@@ -39672,7 +39678,7 @@
         <v>1</v>
       </c>
       <c r="AS201">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT201">
         <v>1</v>
@@ -39866,7 +39872,7 @@
         <v>2</v>
       </c>
       <c r="AT202">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU202">
         <v>2.17</v>
@@ -40057,7 +40063,7 @@
         <v>1.5</v>
       </c>
       <c r="AT203">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU203">
         <v>1.68</v>
@@ -40245,7 +40251,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS204">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT204">
         <v>0.5</v>
@@ -40630,7 +40636,7 @@
         <v>2.3</v>
       </c>
       <c r="AT206">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU206">
         <v>1.89</v>
@@ -40731,7 +40737,7 @@
         <v>227</v>
       </c>
       <c r="P207" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q207">
         <v>2</v>
@@ -40922,7 +40928,7 @@
         <v>228</v>
       </c>
       <c r="P208" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q208">
         <v>2</v>
@@ -41200,7 +41206,7 @@
         <v>1.44</v>
       </c>
       <c r="AS209">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT209">
         <v>1.3</v>
@@ -41304,7 +41310,7 @@
         <v>230</v>
       </c>
       <c r="P210" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q210">
         <v>12</v>
@@ -41686,7 +41692,7 @@
         <v>174</v>
       </c>
       <c r="P212" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q212">
         <v>12</v>
@@ -41828,6 +41834,1152 @@
       </c>
       <c r="BK212">
         <v>13</v>
+      </c>
+    </row>
+    <row r="213" spans="1:63">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>5406646</v>
+      </c>
+      <c r="C213" t="s">
+        <v>63</v>
+      </c>
+      <c r="D213" t="s">
+        <v>64</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45172.45833333334</v>
+      </c>
+      <c r="F213">
+        <v>22</v>
+      </c>
+      <c r="G213" t="s">
+        <v>74</v>
+      </c>
+      <c r="H213" t="s">
+        <v>76</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>1</v>
+      </c>
+      <c r="L213">
+        <v>2</v>
+      </c>
+      <c r="M213">
+        <v>0</v>
+      </c>
+      <c r="N213">
+        <v>2</v>
+      </c>
+      <c r="O213" t="s">
+        <v>231</v>
+      </c>
+      <c r="P213" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q213">
+        <v>2</v>
+      </c>
+      <c r="R213">
+        <v>8</v>
+      </c>
+      <c r="S213">
+        <v>10</v>
+      </c>
+      <c r="T213">
+        <v>2.38</v>
+      </c>
+      <c r="U213">
+        <v>2.1</v>
+      </c>
+      <c r="V213">
+        <v>5.5</v>
+      </c>
+      <c r="W213">
+        <v>1.44</v>
+      </c>
+      <c r="X213">
+        <v>2.63</v>
+      </c>
+      <c r="Y213">
+        <v>3.25</v>
+      </c>
+      <c r="Z213">
+        <v>1.33</v>
+      </c>
+      <c r="AA213">
+        <v>9</v>
+      </c>
+      <c r="AB213">
+        <v>1.07</v>
+      </c>
+      <c r="AC213">
+        <v>1.7</v>
+      </c>
+      <c r="AD213">
+        <v>3.6</v>
+      </c>
+      <c r="AE213">
+        <v>5.25</v>
+      </c>
+      <c r="AF213">
+        <v>1.05</v>
+      </c>
+      <c r="AG213">
+        <v>8</v>
+      </c>
+      <c r="AH213">
+        <v>1.33</v>
+      </c>
+      <c r="AI213">
+        <v>3</v>
+      </c>
+      <c r="AJ213">
+        <v>2.2</v>
+      </c>
+      <c r="AK213">
+        <v>1.67</v>
+      </c>
+      <c r="AL213">
+        <v>2.05</v>
+      </c>
+      <c r="AM213">
+        <v>1.7</v>
+      </c>
+      <c r="AN213">
+        <v>1.17</v>
+      </c>
+      <c r="AO213">
+        <v>1.29</v>
+      </c>
+      <c r="AP213">
+        <v>2.15</v>
+      </c>
+      <c r="AQ213">
+        <v>2.36</v>
+      </c>
+      <c r="AR213">
+        <v>1.45</v>
+      </c>
+      <c r="AS213">
+        <v>2.42</v>
+      </c>
+      <c r="AT213">
+        <v>1.33</v>
+      </c>
+      <c r="AU213">
+        <v>1.76</v>
+      </c>
+      <c r="AV213">
+        <v>1.32</v>
+      </c>
+      <c r="AW213">
+        <v>3.08</v>
+      </c>
+      <c r="AX213">
+        <v>1.47</v>
+      </c>
+      <c r="AY213">
+        <v>8.5</v>
+      </c>
+      <c r="AZ213">
+        <v>3.2</v>
+      </c>
+      <c r="BA213">
+        <v>1.2</v>
+      </c>
+      <c r="BB213">
+        <v>1.38</v>
+      </c>
+      <c r="BC213">
+        <v>1.83</v>
+      </c>
+      <c r="BD213">
+        <v>2.06</v>
+      </c>
+      <c r="BE213">
+        <v>2.63</v>
+      </c>
+      <c r="BF213">
+        <v>6</v>
+      </c>
+      <c r="BG213">
+        <v>4</v>
+      </c>
+      <c r="BH213">
+        <v>3</v>
+      </c>
+      <c r="BI213">
+        <v>4</v>
+      </c>
+      <c r="BJ213">
+        <v>9</v>
+      </c>
+      <c r="BK213">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:63">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>5406640</v>
+      </c>
+      <c r="C214" t="s">
+        <v>63</v>
+      </c>
+      <c r="D214" t="s">
+        <v>64</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45172.66666666666</v>
+      </c>
+      <c r="F214">
+        <v>22</v>
+      </c>
+      <c r="G214" t="s">
+        <v>75</v>
+      </c>
+      <c r="H214" t="s">
+        <v>70</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+      <c r="L214">
+        <v>1</v>
+      </c>
+      <c r="M214">
+        <v>0</v>
+      </c>
+      <c r="N214">
+        <v>1</v>
+      </c>
+      <c r="O214" t="s">
+        <v>232</v>
+      </c>
+      <c r="P214" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q214">
+        <v>5</v>
+      </c>
+      <c r="R214">
+        <v>7</v>
+      </c>
+      <c r="S214">
+        <v>12</v>
+      </c>
+      <c r="T214">
+        <v>2.5</v>
+      </c>
+      <c r="U214">
+        <v>2.1</v>
+      </c>
+      <c r="V214">
+        <v>4.75</v>
+      </c>
+      <c r="W214">
+        <v>1.44</v>
+      </c>
+      <c r="X214">
+        <v>2.63</v>
+      </c>
+      <c r="Y214">
+        <v>3</v>
+      </c>
+      <c r="Z214">
+        <v>1.36</v>
+      </c>
+      <c r="AA214">
+        <v>9</v>
+      </c>
+      <c r="AB214">
+        <v>1.07</v>
+      </c>
+      <c r="AC214">
+        <v>1.83</v>
+      </c>
+      <c r="AD214">
+        <v>3.5</v>
+      </c>
+      <c r="AE214">
+        <v>4.5</v>
+      </c>
+      <c r="AF214">
+        <v>1.06</v>
+      </c>
+      <c r="AG214">
+        <v>10</v>
+      </c>
+      <c r="AH214">
+        <v>1.36</v>
+      </c>
+      <c r="AI214">
+        <v>3.2</v>
+      </c>
+      <c r="AJ214">
+        <v>2.1</v>
+      </c>
+      <c r="AK214">
+        <v>1.73</v>
+      </c>
+      <c r="AL214">
+        <v>1.91</v>
+      </c>
+      <c r="AM214">
+        <v>1.91</v>
+      </c>
+      <c r="AN214">
+        <v>1.21</v>
+      </c>
+      <c r="AO214">
+        <v>1.29</v>
+      </c>
+      <c r="AP214">
+        <v>1.99</v>
+      </c>
+      <c r="AQ214">
+        <v>2.45</v>
+      </c>
+      <c r="AR214">
+        <v>1.1</v>
+      </c>
+      <c r="AS214">
+        <v>2.5</v>
+      </c>
+      <c r="AT214">
+        <v>1</v>
+      </c>
+      <c r="AU214">
+        <v>1.82</v>
+      </c>
+      <c r="AV214">
+        <v>1.43</v>
+      </c>
+      <c r="AW214">
+        <v>3.25</v>
+      </c>
+      <c r="AX214">
+        <v>1.49</v>
+      </c>
+      <c r="AY214">
+        <v>8.5</v>
+      </c>
+      <c r="AZ214">
+        <v>3.1</v>
+      </c>
+      <c r="BA214">
+        <v>1.18</v>
+      </c>
+      <c r="BB214">
+        <v>1.34</v>
+      </c>
+      <c r="BC214">
+        <v>1.91</v>
+      </c>
+      <c r="BD214">
+        <v>1.97</v>
+      </c>
+      <c r="BE214">
+        <v>2.48</v>
+      </c>
+      <c r="BF214">
+        <v>6</v>
+      </c>
+      <c r="BG214">
+        <v>6</v>
+      </c>
+      <c r="BH214">
+        <v>8</v>
+      </c>
+      <c r="BI214">
+        <v>15</v>
+      </c>
+      <c r="BJ214">
+        <v>14</v>
+      </c>
+      <c r="BK214">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="215" spans="1:63">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>5406643</v>
+      </c>
+      <c r="C215" t="s">
+        <v>63</v>
+      </c>
+      <c r="D215" t="s">
+        <v>64</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45172.66666666666</v>
+      </c>
+      <c r="F215">
+        <v>22</v>
+      </c>
+      <c r="G215" t="s">
+        <v>73</v>
+      </c>
+      <c r="H215" t="s">
+        <v>65</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>0</v>
+      </c>
+      <c r="L215">
+        <v>0</v>
+      </c>
+      <c r="M215">
+        <v>0</v>
+      </c>
+      <c r="N215">
+        <v>0</v>
+      </c>
+      <c r="O215" t="s">
+        <v>86</v>
+      </c>
+      <c r="P215" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q215">
+        <v>2</v>
+      </c>
+      <c r="R215">
+        <v>11</v>
+      </c>
+      <c r="S215">
+        <v>13</v>
+      </c>
+      <c r="T215">
+        <v>4.75</v>
+      </c>
+      <c r="U215">
+        <v>2</v>
+      </c>
+      <c r="V215">
+        <v>2.75</v>
+      </c>
+      <c r="W215">
+        <v>1.53</v>
+      </c>
+      <c r="X215">
+        <v>2.38</v>
+      </c>
+      <c r="Y215">
+        <v>3.5</v>
+      </c>
+      <c r="Z215">
+        <v>1.29</v>
+      </c>
+      <c r="AA215">
+        <v>11</v>
+      </c>
+      <c r="AB215">
+        <v>1.05</v>
+      </c>
+      <c r="AC215">
+        <v>4.2</v>
+      </c>
+      <c r="AD215">
+        <v>3.25</v>
+      </c>
+      <c r="AE215">
+        <v>2</v>
+      </c>
+      <c r="AF215">
+        <v>1.1</v>
+      </c>
+      <c r="AG215">
+        <v>7.5</v>
+      </c>
+      <c r="AH215">
+        <v>1.47</v>
+      </c>
+      <c r="AI215">
+        <v>2.7</v>
+      </c>
+      <c r="AJ215">
+        <v>2.5</v>
+      </c>
+      <c r="AK215">
+        <v>1.53</v>
+      </c>
+      <c r="AL215">
+        <v>2.1</v>
+      </c>
+      <c r="AM215">
+        <v>1.67</v>
+      </c>
+      <c r="AN215">
+        <v>1.65</v>
+      </c>
+      <c r="AO215">
+        <v>1.4</v>
+      </c>
+      <c r="AP215">
+        <v>1.29</v>
+      </c>
+      <c r="AQ215">
+        <v>1.78</v>
+      </c>
+      <c r="AR215">
+        <v>1.55</v>
+      </c>
+      <c r="AS215">
+        <v>1.7</v>
+      </c>
+      <c r="AT215">
+        <v>1.5</v>
+      </c>
+      <c r="AU215">
+        <v>1.76</v>
+      </c>
+      <c r="AV215">
+        <v>1.54</v>
+      </c>
+      <c r="AW215">
+        <v>3.3</v>
+      </c>
+      <c r="AX215">
+        <v>2.43</v>
+      </c>
+      <c r="AY215">
+        <v>8</v>
+      </c>
+      <c r="AZ215">
+        <v>1.73</v>
+      </c>
+      <c r="BA215">
+        <v>1.21</v>
+      </c>
+      <c r="BB215">
+        <v>1.4</v>
+      </c>
+      <c r="BC215">
+        <v>2</v>
+      </c>
+      <c r="BD215">
+        <v>2.1</v>
+      </c>
+      <c r="BE215">
+        <v>2.65</v>
+      </c>
+      <c r="BF215">
+        <v>3</v>
+      </c>
+      <c r="BG215">
+        <v>5</v>
+      </c>
+      <c r="BH215">
+        <v>4</v>
+      </c>
+      <c r="BI215">
+        <v>12</v>
+      </c>
+      <c r="BJ215">
+        <v>7</v>
+      </c>
+      <c r="BK215">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="216" spans="1:63">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>5406648</v>
+      </c>
+      <c r="C216" t="s">
+        <v>63</v>
+      </c>
+      <c r="D216" t="s">
+        <v>64</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45172.77083333334</v>
+      </c>
+      <c r="F216">
+        <v>22</v>
+      </c>
+      <c r="G216" t="s">
+        <v>84</v>
+      </c>
+      <c r="H216" t="s">
+        <v>80</v>
+      </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>1</v>
+      </c>
+      <c r="L216">
+        <v>1</v>
+      </c>
+      <c r="M216">
+        <v>1</v>
+      </c>
+      <c r="N216">
+        <v>2</v>
+      </c>
+      <c r="O216" t="s">
+        <v>148</v>
+      </c>
+      <c r="P216" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q216">
+        <v>6</v>
+      </c>
+      <c r="R216">
+        <v>0</v>
+      </c>
+      <c r="S216">
+        <v>6</v>
+      </c>
+      <c r="T216">
+        <v>2.88</v>
+      </c>
+      <c r="U216">
+        <v>2.05</v>
+      </c>
+      <c r="V216">
+        <v>4.33</v>
+      </c>
+      <c r="W216">
+        <v>1.44</v>
+      </c>
+      <c r="X216">
+        <v>2.63</v>
+      </c>
+      <c r="Y216">
+        <v>3.25</v>
+      </c>
+      <c r="Z216">
+        <v>1.33</v>
+      </c>
+      <c r="AA216">
+        <v>10</v>
+      </c>
+      <c r="AB216">
+        <v>1.06</v>
+      </c>
+      <c r="AC216">
+        <v>2.1</v>
+      </c>
+      <c r="AD216">
+        <v>3.25</v>
+      </c>
+      <c r="AE216">
+        <v>3.5</v>
+      </c>
+      <c r="AF216">
+        <v>1.07</v>
+      </c>
+      <c r="AG216">
+        <v>9</v>
+      </c>
+      <c r="AH216">
+        <v>1.4</v>
+      </c>
+      <c r="AI216">
+        <v>2.95</v>
+      </c>
+      <c r="AJ216">
+        <v>2.2</v>
+      </c>
+      <c r="AK216">
+        <v>1.55</v>
+      </c>
+      <c r="AL216">
+        <v>1.95</v>
+      </c>
+      <c r="AM216">
+        <v>1.8</v>
+      </c>
+      <c r="AN216">
+        <v>1.3</v>
+      </c>
+      <c r="AO216">
+        <v>1.28</v>
+      </c>
+      <c r="AP216">
+        <v>1.75</v>
+      </c>
+      <c r="AQ216">
+        <v>1.5</v>
+      </c>
+      <c r="AR216">
+        <v>0.6</v>
+      </c>
+      <c r="AS216">
+        <v>1.45</v>
+      </c>
+      <c r="AT216">
+        <v>0.64</v>
+      </c>
+      <c r="AU216">
+        <v>1.75</v>
+      </c>
+      <c r="AV216">
+        <v>1.35</v>
+      </c>
+      <c r="AW216">
+        <v>3.1</v>
+      </c>
+      <c r="AX216">
+        <v>1.64</v>
+      </c>
+      <c r="AY216">
+        <v>8</v>
+      </c>
+      <c r="AZ216">
+        <v>2.6</v>
+      </c>
+      <c r="BA216">
+        <v>1.19</v>
+      </c>
+      <c r="BB216">
+        <v>1.3</v>
+      </c>
+      <c r="BC216">
+        <v>1.55</v>
+      </c>
+      <c r="BD216">
+        <v>1.9</v>
+      </c>
+      <c r="BE216">
+        <v>2.35</v>
+      </c>
+      <c r="BF216">
+        <v>5</v>
+      </c>
+      <c r="BG216">
+        <v>2</v>
+      </c>
+      <c r="BH216">
+        <v>7</v>
+      </c>
+      <c r="BI216">
+        <v>5</v>
+      </c>
+      <c r="BJ216">
+        <v>12</v>
+      </c>
+      <c r="BK216">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:63">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>5406649</v>
+      </c>
+      <c r="C217" t="s">
+        <v>63</v>
+      </c>
+      <c r="D217" t="s">
+        <v>64</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45172.77083333334</v>
+      </c>
+      <c r="F217">
+        <v>22</v>
+      </c>
+      <c r="G217" t="s">
+        <v>66</v>
+      </c>
+      <c r="H217" t="s">
+        <v>81</v>
+      </c>
+      <c r="I217">
+        <v>1</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>1</v>
+      </c>
+      <c r="L217">
+        <v>2</v>
+      </c>
+      <c r="M217">
+        <v>0</v>
+      </c>
+      <c r="N217">
+        <v>2</v>
+      </c>
+      <c r="O217" t="s">
+        <v>233</v>
+      </c>
+      <c r="P217" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q217">
+        <v>3</v>
+      </c>
+      <c r="R217">
+        <v>5</v>
+      </c>
+      <c r="S217">
+        <v>8</v>
+      </c>
+      <c r="T217">
+        <v>2.88</v>
+      </c>
+      <c r="U217">
+        <v>2.05</v>
+      </c>
+      <c r="V217">
+        <v>4</v>
+      </c>
+      <c r="W217">
+        <v>1.44</v>
+      </c>
+      <c r="X217">
+        <v>2.63</v>
+      </c>
+      <c r="Y217">
+        <v>3.25</v>
+      </c>
+      <c r="Z217">
+        <v>1.33</v>
+      </c>
+      <c r="AA217">
+        <v>10</v>
+      </c>
+      <c r="AB217">
+        <v>1.06</v>
+      </c>
+      <c r="AC217">
+        <v>2.15</v>
+      </c>
+      <c r="AD217">
+        <v>3.2</v>
+      </c>
+      <c r="AE217">
+        <v>3.4</v>
+      </c>
+      <c r="AF217">
+        <v>1.07</v>
+      </c>
+      <c r="AG217">
+        <v>9</v>
+      </c>
+      <c r="AH217">
+        <v>1.38</v>
+      </c>
+      <c r="AI217">
+        <v>3</v>
+      </c>
+      <c r="AJ217">
+        <v>2.2</v>
+      </c>
+      <c r="AK217">
+        <v>1.55</v>
+      </c>
+      <c r="AL217">
+        <v>1.95</v>
+      </c>
+      <c r="AM217">
+        <v>1.8</v>
+      </c>
+      <c r="AN217">
+        <v>1.3</v>
+      </c>
+      <c r="AO217">
+        <v>1.28</v>
+      </c>
+      <c r="AP217">
+        <v>1.72</v>
+      </c>
+      <c r="AQ217">
+        <v>1</v>
+      </c>
+      <c r="AR217">
+        <v>0.4</v>
+      </c>
+      <c r="AS217">
+        <v>1.18</v>
+      </c>
+      <c r="AT217">
+        <v>0.36</v>
+      </c>
+      <c r="AU217">
+        <v>1.73</v>
+      </c>
+      <c r="AV217">
+        <v>1.04</v>
+      </c>
+      <c r="AW217">
+        <v>2.77</v>
+      </c>
+      <c r="AX217">
+        <v>1.66</v>
+      </c>
+      <c r="AY217">
+        <v>8</v>
+      </c>
+      <c r="AZ217">
+        <v>2.55</v>
+      </c>
+      <c r="BA217">
+        <v>1.2</v>
+      </c>
+      <c r="BB217">
+        <v>1.38</v>
+      </c>
+      <c r="BC217">
+        <v>1.83</v>
+      </c>
+      <c r="BD217">
+        <v>2.07</v>
+      </c>
+      <c r="BE217">
+        <v>2.65</v>
+      </c>
+      <c r="BF217">
+        <v>8</v>
+      </c>
+      <c r="BG217">
+        <v>3</v>
+      </c>
+      <c r="BH217">
+        <v>5</v>
+      </c>
+      <c r="BI217">
+        <v>8</v>
+      </c>
+      <c r="BJ217">
+        <v>13</v>
+      </c>
+      <c r="BK217">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="218" spans="1:63">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>5406645</v>
+      </c>
+      <c r="C218" t="s">
+        <v>63</v>
+      </c>
+      <c r="D218" t="s">
+        <v>64</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45172.77083333334</v>
+      </c>
+      <c r="F218">
+        <v>22</v>
+      </c>
+      <c r="G218" t="s">
+        <v>78</v>
+      </c>
+      <c r="H218" t="s">
+        <v>68</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+      <c r="L218">
+        <v>0</v>
+      </c>
+      <c r="M218">
+        <v>0</v>
+      </c>
+      <c r="N218">
+        <v>0</v>
+      </c>
+      <c r="O218" t="s">
+        <v>86</v>
+      </c>
+      <c r="P218" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q218">
+        <v>8</v>
+      </c>
+      <c r="R218">
+        <v>5</v>
+      </c>
+      <c r="S218">
+        <v>13</v>
+      </c>
+      <c r="T218">
+        <v>3.4</v>
+      </c>
+      <c r="U218">
+        <v>2</v>
+      </c>
+      <c r="V218">
+        <v>3.6</v>
+      </c>
+      <c r="W218">
+        <v>1.5</v>
+      </c>
+      <c r="X218">
+        <v>2.5</v>
+      </c>
+      <c r="Y218">
+        <v>3.5</v>
+      </c>
+      <c r="Z218">
+        <v>1.29</v>
+      </c>
+      <c r="AA218">
+        <v>11</v>
+      </c>
+      <c r="AB218">
+        <v>1.05</v>
+      </c>
+      <c r="AC218">
+        <v>2.45</v>
+      </c>
+      <c r="AD218">
+        <v>3.05</v>
+      </c>
+      <c r="AE218">
+        <v>3</v>
+      </c>
+      <c r="AF218">
+        <v>1.09</v>
+      </c>
+      <c r="AG218">
+        <v>6</v>
+      </c>
+      <c r="AH218">
+        <v>1.43</v>
+      </c>
+      <c r="AI218">
+        <v>2.63</v>
+      </c>
+      <c r="AJ218">
+        <v>2.2</v>
+      </c>
+      <c r="AK218">
+        <v>1.55</v>
+      </c>
+      <c r="AL218">
+        <v>1.95</v>
+      </c>
+      <c r="AM218">
+        <v>1.8</v>
+      </c>
+      <c r="AN218">
+        <v>1.4</v>
+      </c>
+      <c r="AO218">
+        <v>1.3</v>
+      </c>
+      <c r="AP218">
+        <v>1.55</v>
+      </c>
+      <c r="AQ218">
+        <v>1.09</v>
+      </c>
+      <c r="AR218">
+        <v>1.3</v>
+      </c>
+      <c r="AS218">
+        <v>1.08</v>
+      </c>
+      <c r="AT218">
+        <v>1.27</v>
+      </c>
+      <c r="AU218">
+        <v>1.71</v>
+      </c>
+      <c r="AV218">
+        <v>1.58</v>
+      </c>
+      <c r="AW218">
+        <v>3.29</v>
+      </c>
+      <c r="AX218">
+        <v>1.68</v>
+      </c>
+      <c r="AY218">
+        <v>8</v>
+      </c>
+      <c r="AZ218">
+        <v>2.5</v>
+      </c>
+      <c r="BA218">
+        <v>1.16</v>
+      </c>
+      <c r="BB218">
+        <v>1.29</v>
+      </c>
+      <c r="BC218">
+        <v>1.52</v>
+      </c>
+      <c r="BD218">
+        <v>1.85</v>
+      </c>
+      <c r="BE218">
+        <v>2.28</v>
+      </c>
+      <c r="BF218">
+        <v>4</v>
+      </c>
+      <c r="BG218">
+        <v>6</v>
+      </c>
+      <c r="BH218">
+        <v>12</v>
+      </c>
+      <c r="BI218">
+        <v>8</v>
+      </c>
+      <c r="BJ218">
+        <v>16</v>
+      </c>
+      <c r="BK218">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK226"/>
+  <dimension ref="A1:BK234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT8" t="n">
         <v>0.64</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>2.42</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT12" t="n">
         <v>1.09</v>
@@ -3136,7 +3136,7 @@
         <v>1.18</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT14" t="n">
         <v>0.36</v>
@@ -3745,7 +3745,7 @@
         <v>1.64</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT17" t="n">
         <v>1.5</v>
@@ -4354,7 +4354,7 @@
         <v>0.82</v>
       </c>
       <c r="AT19" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT20" t="n">
         <v>0.75</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -5166,7 +5166,7 @@
         <v>2</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU23" t="n">
         <v>1.91</v>
@@ -5572,7 +5572,7 @@
         <v>2.08</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU25" t="n">
         <v>1.72</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT27" t="n">
         <v>1.09</v>
@@ -6181,7 +6181,7 @@
         <v>1.73</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU28" t="n">
         <v>2.3</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT31" t="n">
         <v>0.75</v>
@@ -6993,7 +6993,7 @@
         <v>1.08</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU32" t="n">
         <v>1.94</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT33" t="n">
         <v>0.64</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT34" t="n">
         <v>1.33</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT35" t="n">
         <v>0.92</v>
@@ -7805,7 +7805,7 @@
         <v>2.08</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU36" t="n">
         <v>1.11</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT37" t="n">
         <v>0.45</v>
@@ -8211,7 +8211,7 @@
         <v>2.42</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU38" t="n">
         <v>1.68</v>
@@ -8614,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT40" t="n">
         <v>1.5</v>
@@ -8817,10 +8817,10 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT41" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU41" t="n">
         <v>1.64</v>
@@ -10038,7 +10038,7 @@
         <v>1.08</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU47" t="n">
         <v>1.63</v>
@@ -11050,10 +11050,10 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU52" t="n">
         <v>1.47</v>
@@ -11253,7 +11253,7 @@
         <v>1.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT53" t="n">
         <v>1.33</v>
@@ -11459,7 +11459,7 @@
         <v>2.36</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU54" t="n">
         <v>2.16</v>
@@ -11659,7 +11659,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT55" t="n">
         <v>0.92</v>
@@ -11862,10 +11862,10 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU56" t="n">
         <v>1.67</v>
@@ -12065,7 +12065,7 @@
         <v>0.67</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT57" t="n">
         <v>0.45</v>
@@ -12271,7 +12271,7 @@
         <v>2.42</v>
       </c>
       <c r="AT58" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU58" t="n">
         <v>1.43</v>
@@ -12471,10 +12471,10 @@
         <v>3</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU59" t="n">
         <v>1.78</v>
@@ -12877,10 +12877,10 @@
         <v>1.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU61" t="n">
         <v>1.92</v>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT62" t="n">
         <v>0.92</v>
@@ -13283,10 +13283,10 @@
         <v>1.67</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT63" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU63" t="n">
         <v>1.88</v>
@@ -13892,7 +13892,7 @@
         <v>1.67</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT66" t="n">
         <v>0.64</v>
@@ -14098,7 +14098,7 @@
         <v>2.75</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU67" t="n">
         <v>1.76</v>
@@ -15519,7 +15519,7 @@
         <v>1.73</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU74" t="n">
         <v>2.29</v>
@@ -15922,7 +15922,7 @@
         <v>0.25</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT76" t="n">
         <v>0.92</v>
@@ -16328,10 +16328,10 @@
         <v>1.5</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU78" t="n">
         <v>1.79</v>
@@ -16534,7 +16534,7 @@
         <v>2.08</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU79" t="n">
         <v>1.75</v>
@@ -16734,7 +16734,7 @@
         <v>1.67</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT80" t="n">
         <v>1.5</v>
@@ -17343,7 +17343,7 @@
         <v>0</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT83" t="n">
         <v>0.75</v>
@@ -17752,7 +17752,7 @@
         <v>2.08</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU85" t="n">
         <v>1.85</v>
@@ -18358,10 +18358,10 @@
         <v>1</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU88" t="n">
         <v>2.04</v>
@@ -18561,7 +18561,7 @@
         <v>1.5</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT89" t="n">
         <v>1.33</v>
@@ -18967,10 +18967,10 @@
         <v>1</v>
       </c>
       <c r="AS91" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU91" t="n">
         <v>2.09</v>
@@ -19173,7 +19173,7 @@
         <v>0.82</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU92" t="n">
         <v>1.65</v>
@@ -19373,7 +19373,7 @@
         <v>1.8</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT93" t="n">
         <v>1.33</v>
@@ -19576,10 +19576,10 @@
         <v>1.75</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU94" t="n">
         <v>1.87</v>
@@ -19779,10 +19779,10 @@
         <v>0.75</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU95" t="n">
         <v>1.8</v>
@@ -19985,7 +19985,7 @@
         <v>2.75</v>
       </c>
       <c r="AT96" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU96" t="n">
         <v>1.89</v>
@@ -20185,7 +20185,7 @@
         <v>0.75</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT97" t="n">
         <v>1.09</v>
@@ -20591,7 +20591,7 @@
         <v>1.5</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT99" t="n">
         <v>1.5</v>
@@ -20997,10 +20997,10 @@
         <v>1.2</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU101" t="n">
         <v>1.59</v>
@@ -21200,7 +21200,7 @@
         <v>0.8</v>
       </c>
       <c r="AS102" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT102" t="n">
         <v>1.09</v>
@@ -21406,7 +21406,7 @@
         <v>1.08</v>
       </c>
       <c r="AT103" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU103" t="n">
         <v>2</v>
@@ -21809,7 +21809,7 @@
         <v>2</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT105" t="n">
         <v>1.33</v>
@@ -22012,7 +22012,7 @@
         <v>1.8</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT106" t="n">
         <v>1.5</v>
@@ -22418,7 +22418,7 @@
         <v>0.2</v>
       </c>
       <c r="AS108" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT108" t="n">
         <v>0.92</v>
@@ -22827,7 +22827,7 @@
         <v>1.18</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU110" t="n">
         <v>1.37</v>
@@ -23030,7 +23030,7 @@
         <v>2.08</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU111" t="n">
         <v>1.85</v>
@@ -23636,7 +23636,7 @@
         <v>0.8</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT114" t="n">
         <v>0.75</v>
@@ -24248,7 +24248,7 @@
         <v>2.36</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU117" t="n">
         <v>2.21</v>
@@ -24451,7 +24451,7 @@
         <v>1.42</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU118" t="n">
         <v>1.58</v>
@@ -24854,7 +24854,7 @@
         <v>0.83</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT120" t="n">
         <v>0.92</v>
@@ -25057,7 +25057,7 @@
         <v>1.67</v>
       </c>
       <c r="AS121" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT121" t="n">
         <v>1.33</v>
@@ -25260,10 +25260,10 @@
         <v>1.17</v>
       </c>
       <c r="AS122" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU122" t="n">
         <v>1.74</v>
@@ -25463,7 +25463,7 @@
         <v>1.2</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT123" t="n">
         <v>1</v>
@@ -25669,7 +25669,7 @@
         <v>1.73</v>
       </c>
       <c r="AT124" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU124" t="n">
         <v>2.06</v>
@@ -25872,7 +25872,7 @@
         <v>1.64</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU125" t="n">
         <v>1.39</v>
@@ -26072,10 +26072,10 @@
         <v>0.8</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU126" t="n">
         <v>1.81</v>
@@ -26275,7 +26275,7 @@
         <v>0.2</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT127" t="n">
         <v>0.36</v>
@@ -26887,7 +26887,7 @@
         <v>1.18</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU130" t="n">
         <v>1.62</v>
@@ -27087,7 +27087,7 @@
         <v>0.17</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT131" t="n">
         <v>0.45</v>
@@ -27493,10 +27493,10 @@
         <v>1.5</v>
       </c>
       <c r="AS133" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU133" t="n">
         <v>1.91</v>
@@ -27696,7 +27696,7 @@
         <v>0.43</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT134" t="n">
         <v>0.75</v>
@@ -28105,7 +28105,7 @@
         <v>2.36</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU136" t="n">
         <v>2.2</v>
@@ -28508,7 +28508,7 @@
         <v>1.14</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT138" t="n">
         <v>0.92</v>
@@ -29120,7 +29120,7 @@
         <v>2.42</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU141" t="n">
         <v>1.98</v>
@@ -29323,7 +29323,7 @@
         <v>2.75</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU142" t="n">
         <v>1.98</v>
@@ -29929,10 +29929,10 @@
         <v>1.43</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU145" t="n">
         <v>1.84</v>
@@ -30132,10 +30132,10 @@
         <v>0.67</v>
       </c>
       <c r="AS146" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU146" t="n">
         <v>1.84</v>
@@ -30741,7 +30741,7 @@
         <v>1.57</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT149" t="n">
         <v>1.33</v>
@@ -31150,7 +31150,7 @@
         <v>2.36</v>
       </c>
       <c r="AT151" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU151" t="n">
         <v>2.07</v>
@@ -31350,7 +31350,7 @@
         <v>0.75</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT152" t="n">
         <v>0.75</v>
@@ -31962,7 +31962,7 @@
         <v>1.42</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU155" t="n">
         <v>1.55</v>
@@ -32568,7 +32568,7 @@
         <v>0.57</v>
       </c>
       <c r="AS158" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT158" t="n">
         <v>1.09</v>
@@ -32774,7 +32774,7 @@
         <v>0.82</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU159" t="n">
         <v>1.68</v>
@@ -32977,7 +32977,7 @@
         <v>2.08</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU160" t="n">
         <v>2.01</v>
@@ -33380,10 +33380,10 @@
         <v>0.57</v>
       </c>
       <c r="AS162" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU162" t="n">
         <v>1.88</v>
@@ -33583,7 +33583,7 @@
         <v>0.71</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT163" t="n">
         <v>0.64</v>
@@ -33789,7 +33789,7 @@
         <v>2</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU164" t="n">
         <v>1.93</v>
@@ -33989,10 +33989,10 @@
         <v>1.38</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU165" t="n">
         <v>1.75</v>
@@ -34192,7 +34192,7 @@
         <v>0.63</v>
       </c>
       <c r="AS166" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT166" t="n">
         <v>0.75</v>
@@ -34598,7 +34598,7 @@
         <v>1.38</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT168" t="n">
         <v>1.5</v>
@@ -34801,7 +34801,7 @@
         <v>1.5</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT169" t="n">
         <v>1</v>
@@ -35410,10 +35410,10 @@
         <v>1</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT172" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU172" t="n">
         <v>1.75</v>
@@ -35613,7 +35613,7 @@
         <v>1.56</v>
       </c>
       <c r="AS173" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT173" t="n">
         <v>1.5</v>
@@ -35816,7 +35816,7 @@
         <v>1.43</v>
       </c>
       <c r="AS174" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT174" t="n">
         <v>1</v>
@@ -36019,7 +36019,7 @@
         <v>1.33</v>
       </c>
       <c r="AS175" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT175" t="n">
         <v>1.33</v>
@@ -36225,7 +36225,7 @@
         <v>1.08</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU176" t="n">
         <v>1.68</v>
@@ -36425,7 +36425,7 @@
         <v>0.38</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT177" t="n">
         <v>0.36</v>
@@ -36631,7 +36631,7 @@
         <v>0.82</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU178" t="n">
         <v>1.63</v>
@@ -36834,7 +36834,7 @@
         <v>1.18</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU179" t="n">
         <v>1.58</v>
@@ -37237,7 +37237,7 @@
         <v>0.67</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT181" t="n">
         <v>0.75</v>
@@ -37443,7 +37443,7 @@
         <v>2.42</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU182" t="n">
         <v>1.83</v>
@@ -37643,7 +37643,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT183" t="n">
         <v>0.45</v>
@@ -37846,7 +37846,7 @@
         <v>0.78</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT184" t="n">
         <v>0.92</v>
@@ -38255,7 +38255,7 @@
         <v>2</v>
       </c>
       <c r="AT186" t="n">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU186" t="n">
         <v>1.82</v>
@@ -38458,7 +38458,7 @@
         <v>2.36</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU187" t="n">
         <v>1.94</v>
@@ -39067,7 +39067,7 @@
         <v>1.64</v>
       </c>
       <c r="AT190" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU190" t="n">
         <v>1.49</v>
@@ -39267,10 +39267,10 @@
         <v>1.89</v>
       </c>
       <c r="AS191" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU191" t="n">
         <v>1.96</v>
@@ -39673,7 +39673,7 @@
         <v>0.33</v>
       </c>
       <c r="AS193" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT193" t="n">
         <v>0.36</v>
@@ -40079,7 +40079,7 @@
         <v>1.5</v>
       </c>
       <c r="AS195" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT195" t="n">
         <v>1.33</v>
@@ -40485,10 +40485,10 @@
         <v>1.44</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU197" t="n">
         <v>1.76</v>
@@ -40691,7 +40691,7 @@
         <v>0.82</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU198" t="n">
         <v>1.59</v>
@@ -40891,7 +40891,7 @@
         <v>0.89</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT199" t="n">
         <v>1.09</v>
@@ -41297,7 +41297,7 @@
         <v>1</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT201" t="n">
         <v>0.92</v>
@@ -41703,7 +41703,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT203" t="n">
         <v>0.45</v>
@@ -42109,10 +42109,10 @@
         <v>0.44</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT205" t="n">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU205" t="n">
         <v>1.68</v>
@@ -42721,7 +42721,7 @@
         <v>2.08</v>
       </c>
       <c r="AT208" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU208" t="n">
         <v>1.94</v>
@@ -42924,7 +42924,7 @@
         <v>2.42</v>
       </c>
       <c r="AT209" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU209" t="n">
         <v>1.8</v>
@@ -43327,7 +43327,7 @@
         <v>0.91</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT211" t="n">
         <v>0.92</v>
@@ -43533,7 +43533,7 @@
         <v>2.75</v>
       </c>
       <c r="AT212" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU212" t="n">
         <v>1.86</v>
@@ -43936,10 +43936,10 @@
         <v>1.1</v>
       </c>
       <c r="AS214" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT214" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU214" t="n">
         <v>1.82</v>
@@ -44139,7 +44139,7 @@
         <v>1.55</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT215" t="n">
         <v>1.5</v>
@@ -44342,7 +44342,7 @@
         <v>0.6</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT216" t="n">
         <v>0.64</v>
@@ -44545,10 +44545,10 @@
         <v>0.4</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT217" t="n">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU217" t="n">
         <v>1.73</v>
@@ -44751,7 +44751,7 @@
         <v>1.08</v>
       </c>
       <c r="AT218" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU218" t="n">
         <v>1.71</v>
@@ -45563,7 +45563,7 @@
         <v>1.42</v>
       </c>
       <c r="AT222" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU222" t="n">
         <v>1.54</v>
@@ -46426,6 +46426,1630 @@
         <v>17</v>
       </c>
       <c r="BK226" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="n">
+        <v>5406651</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>45185.66666666666</v>
+      </c>
+      <c r="F227" t="n">
+        <v>23</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Vasco da Gama</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>1</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="n">
+        <v>4</v>
+      </c>
+      <c r="M227" t="n">
+        <v>2</v>
+      </c>
+      <c r="N227" t="n">
+        <v>6</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>['23', '50', '74', '85']</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>['46', '56']</t>
+        </is>
+      </c>
+      <c r="Q227" t="n">
+        <v>4</v>
+      </c>
+      <c r="R227" t="n">
+        <v>11</v>
+      </c>
+      <c r="S227" t="n">
+        <v>15</v>
+      </c>
+      <c r="T227" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U227" t="n">
+        <v>2</v>
+      </c>
+      <c r="V227" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W227" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X227" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE227" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AF227" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH227" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI227" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ227" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK227" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL227" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM227" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN227" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO227" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP227" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ227" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR227" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS227" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT227" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AU227" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV227" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AW227" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AX227" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AY227" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ227" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BA227" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB227" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC227" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD227" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BE227" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF227" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG227" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH227" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI227" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ227" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK227" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="n">
+        <v>5406655</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>45185.875</v>
+      </c>
+      <c r="F228" t="n">
+        <v>23</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Atlético Mineiro</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Botafogo</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="n">
+        <v>0</v>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="n">
+        <v>0</v>
+      </c>
+      <c r="N228" t="n">
+        <v>1</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q228" t="n">
+        <v>5</v>
+      </c>
+      <c r="R228" t="n">
+        <v>3</v>
+      </c>
+      <c r="S228" t="n">
+        <v>8</v>
+      </c>
+      <c r="T228" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U228" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V228" t="n">
+        <v>5</v>
+      </c>
+      <c r="W228" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X228" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB228" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC228" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD228" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE228" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF228" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH228" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI228" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ228" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK228" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AL228" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM228" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN228" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO228" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP228" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ228" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR228" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS228" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT228" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AU228" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV228" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW228" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX228" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AY228" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ228" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA228" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB228" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC228" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD228" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE228" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF228" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH228" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI228" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ228" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK228" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="n">
+        <v>5406668</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>45187.83333333334</v>
+      </c>
+      <c r="F229" t="n">
+        <v>24</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>0</v>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="n">
+        <v>2</v>
+      </c>
+      <c r="N229" t="n">
+        <v>3</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>['73', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q229" t="n">
+        <v>6</v>
+      </c>
+      <c r="R229" t="n">
+        <v>8</v>
+      </c>
+      <c r="S229" t="n">
+        <v>14</v>
+      </c>
+      <c r="T229" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U229" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V229" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W229" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X229" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB229" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC229" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD229" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE229" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF229" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG229" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH229" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI229" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ229" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK229" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL229" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM229" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN229" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO229" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP229" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ229" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR229" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AS229" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT229" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AU229" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV229" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW229" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX229" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AY229" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ229" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BA229" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BB229" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC229" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD229" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BE229" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BF229" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG229" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH229" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI229" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ229" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK229" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="n">
+        <v>5406573</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>45187.875</v>
+      </c>
+      <c r="F230" t="n">
+        <v>15</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Grêmio</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>3</v>
+      </c>
+      <c r="J230" t="n">
+        <v>2</v>
+      </c>
+      <c r="K230" t="n">
+        <v>5</v>
+      </c>
+      <c r="L230" t="n">
+        <v>4</v>
+      </c>
+      <c r="M230" t="n">
+        <v>4</v>
+      </c>
+      <c r="N230" t="n">
+        <v>8</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>['45', '45+4', '45+6', '67']</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>['21', '27', '51', '58']</t>
+        </is>
+      </c>
+      <c r="Q230" t="n">
+        <v>6</v>
+      </c>
+      <c r="R230" t="n">
+        <v>4</v>
+      </c>
+      <c r="S230" t="n">
+        <v>10</v>
+      </c>
+      <c r="T230" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U230" t="n">
+        <v>2</v>
+      </c>
+      <c r="V230" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W230" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X230" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z230" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA230" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB230" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC230" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD230" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE230" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ230" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK230" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL230" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM230" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ230" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AR230" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS230" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT230" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU230" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV230" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW230" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ230" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA230" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB230" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC230" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD230" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE230" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF230" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG230" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH230" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI230" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ230" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK230" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="n">
+        <v>5406669</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>45188.89583333334</v>
+      </c>
+      <c r="F231" t="n">
+        <v>24</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>América Mineiro</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Bragantino</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="n">
+        <v>1</v>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="n">
+        <v>0</v>
+      </c>
+      <c r="M231" t="n">
+        <v>2</v>
+      </c>
+      <c r="N231" t="n">
+        <v>2</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>['36', '90+10']</t>
+        </is>
+      </c>
+      <c r="Q231" t="n">
+        <v>2</v>
+      </c>
+      <c r="R231" t="n">
+        <v>14</v>
+      </c>
+      <c r="S231" t="n">
+        <v>16</v>
+      </c>
+      <c r="T231" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U231" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V231" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W231" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X231" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y231" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z231" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA231" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB231" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC231" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD231" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE231" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF231" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG231" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH231" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI231" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ231" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK231" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL231" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM231" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN231" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO231" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP231" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ231" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR231" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS231" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT231" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AU231" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV231" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AW231" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AX231" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AY231" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ231" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BA231" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB231" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC231" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD231" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BE231" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF231" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG231" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH231" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI231" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ231" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK231" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="n">
+        <v>5406664</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>45189.79166666666</v>
+      </c>
+      <c r="F232" t="n">
+        <v>24</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Goiás</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="n">
+        <v>0</v>
+      </c>
+      <c r="L232" t="n">
+        <v>0</v>
+      </c>
+      <c r="M232" t="n">
+        <v>0</v>
+      </c>
+      <c r="N232" t="n">
+        <v>0</v>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q232" t="n">
+        <v>3</v>
+      </c>
+      <c r="R232" t="n">
+        <v>2</v>
+      </c>
+      <c r="S232" t="n">
+        <v>5</v>
+      </c>
+      <c r="T232" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U232" t="n">
+        <v>2</v>
+      </c>
+      <c r="V232" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W232" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X232" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y232" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z232" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA232" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB232" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC232" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD232" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE232" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF232" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG232" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH232" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI232" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ232" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK232" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL232" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM232" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN232" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO232" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP232" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ232" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR232" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS232" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT232" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AU232" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV232" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW232" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX232" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY232" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ232" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BA232" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB232" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC232" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD232" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE232" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BF232" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG232" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH232" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI232" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ232" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK232" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="n">
+        <v>5406662</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E233" s="2" t="n">
+        <v>45189.89583333334</v>
+      </c>
+      <c r="F233" t="n">
+        <v>24</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>1</v>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="n">
+        <v>2</v>
+      </c>
+      <c r="N233" t="n">
+        <v>3</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>['16', '53']</t>
+        </is>
+      </c>
+      <c r="Q233" t="n">
+        <v>9</v>
+      </c>
+      <c r="R233" t="n">
+        <v>0</v>
+      </c>
+      <c r="S233" t="n">
+        <v>9</v>
+      </c>
+      <c r="T233" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U233" t="n">
+        <v>2</v>
+      </c>
+      <c r="V233" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W233" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X233" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y233" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z233" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA233" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB233" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC233" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD233" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE233" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF233" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG233" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH233" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI233" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AJ233" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK233" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL233" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM233" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN233" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO233" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP233" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ233" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AR233" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS233" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AT233" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU233" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AV233" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW233" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX233" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AY233" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ233" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BA233" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB233" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC233" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BD233" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BE233" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BF233" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG233" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH233" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI233" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ233" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK233" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="n">
+        <v>5406660</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E234" s="2" t="n">
+        <v>45189.89583333334</v>
+      </c>
+      <c r="F234" t="n">
+        <v>24</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="n">
+        <v>0</v>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="n">
+        <v>0</v>
+      </c>
+      <c r="N234" t="n">
+        <v>1</v>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q234" t="n">
+        <v>7</v>
+      </c>
+      <c r="R234" t="n">
+        <v>3</v>
+      </c>
+      <c r="S234" t="n">
+        <v>10</v>
+      </c>
+      <c r="T234" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U234" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V234" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W234" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X234" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y234" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z234" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA234" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB234" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC234" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD234" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE234" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF234" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG234" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH234" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI234" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ234" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AK234" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL234" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM234" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN234" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO234" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP234" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ234" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR234" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS234" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AT234" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU234" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV234" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW234" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AX234" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY234" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ234" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA234" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BB234" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BC234" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BD234" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BE234" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF234" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG234" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH234" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI234" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ234" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK234" t="n">
         <v>7</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK234"/>
+  <dimension ref="A1:BK238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT6" t="n">
         <v>0.92</v>
@@ -1918,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.73</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT10" t="n">
         <v>1.33</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT11" t="n">
         <v>0.58</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>1.33</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -6181,7 +6181,7 @@
         <v>1.73</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU28" t="n">
         <v>2.3</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT31" t="n">
         <v>0.75</v>
@@ -7602,7 +7602,7 @@
         <v>1.92</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU35" t="n">
         <v>1.72</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT36" t="n">
         <v>1.62</v>
@@ -8008,7 +8008,7 @@
         <v>1.33</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU37" t="n">
         <v>1.06</v>
@@ -8208,7 +8208,7 @@
         <v>1</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT38" t="n">
         <v>1.42</v>
@@ -8617,7 +8617,7 @@
         <v>1.25</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU40" t="n">
         <v>1.92</v>
@@ -8817,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT41" t="n">
         <v>1.17</v>
@@ -11662,7 +11662,7 @@
         <v>1.64</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU55" t="n">
         <v>2.15</v>
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT56" t="n">
         <v>0.58</v>
@@ -12065,7 +12065,7 @@
         <v>0.67</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT57" t="n">
         <v>0.45</v>
@@ -12268,7 +12268,7 @@
         <v>2</v>
       </c>
       <c r="AS58" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT58" t="n">
         <v>1.17</v>
@@ -12474,7 +12474,7 @@
         <v>1.25</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU59" t="n">
         <v>1.78</v>
@@ -12674,10 +12674,10 @@
         <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU60" t="n">
         <v>1.36</v>
@@ -14301,7 +14301,7 @@
         <v>1.42</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU68" t="n">
         <v>1.5</v>
@@ -14704,10 +14704,10 @@
         <v>0.33</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU70" t="n">
         <v>1.55</v>
@@ -15110,7 +15110,7 @@
         <v>1</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT72" t="n">
         <v>1</v>
@@ -15722,7 +15722,7 @@
         <v>1.18</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU75" t="n">
         <v>1.39</v>
@@ -16328,7 +16328,7 @@
         <v>1.5</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT78" t="n">
         <v>0.73</v>
@@ -16737,7 +16737,7 @@
         <v>1.64</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU80" t="n">
         <v>1.95</v>
@@ -17749,10 +17749,10 @@
         <v>2</v>
       </c>
       <c r="AS85" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU85" t="n">
         <v>1.85</v>
@@ -17955,7 +17955,7 @@
         <v>1.42</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU86" t="n">
         <v>1.5</v>
@@ -18155,7 +18155,7 @@
         <v>0.75</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT87" t="n">
         <v>0.45</v>
@@ -18767,7 +18767,7 @@
         <v>2.36</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU90" t="n">
         <v>2.25</v>
@@ -18967,7 +18967,7 @@
         <v>1</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT91" t="n">
         <v>1.62</v>
@@ -19373,7 +19373,7 @@
         <v>1.8</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT93" t="n">
         <v>1.33</v>
@@ -20594,7 +20594,7 @@
         <v>1.92</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU99" t="n">
         <v>1.67</v>
@@ -22015,7 +22015,7 @@
         <v>1.33</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU106" t="n">
         <v>1.76</v>
@@ -22215,7 +22215,7 @@
         <v>0.25</v>
       </c>
       <c r="AS107" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT107" t="n">
         <v>0.36</v>
@@ -22418,7 +22418,7 @@
         <v>0.2</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT108" t="n">
         <v>0.92</v>
@@ -22624,7 +22624,7 @@
         <v>0.82</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU109" t="n">
         <v>1.74</v>
@@ -22827,7 +22827,7 @@
         <v>1.18</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU110" t="n">
         <v>1.37</v>
@@ -23230,7 +23230,7 @@
         <v>0.5</v>
       </c>
       <c r="AS112" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT112" t="n">
         <v>0.75</v>
@@ -24042,10 +24042,10 @@
         <v>0.2</v>
       </c>
       <c r="AS116" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU116" t="n">
         <v>1.97</v>
@@ -24248,7 +24248,7 @@
         <v>2.36</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU117" t="n">
         <v>2.21</v>
@@ -24857,7 +24857,7 @@
         <v>1.08</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU120" t="n">
         <v>1.82</v>
@@ -25057,7 +25057,7 @@
         <v>1.67</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT121" t="n">
         <v>1.33</v>
@@ -26072,7 +26072,7 @@
         <v>0.8</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT126" t="n">
         <v>1.42</v>
@@ -26478,10 +26478,10 @@
         <v>1.5</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU128" t="n">
         <v>1.93</v>
@@ -27090,7 +27090,7 @@
         <v>1.25</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU131" t="n">
         <v>1.72</v>
@@ -27493,7 +27493,7 @@
         <v>1.5</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT133" t="n">
         <v>1.33</v>
@@ -28511,7 +28511,7 @@
         <v>2.54</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU138" t="n">
         <v>1.83</v>
@@ -29117,10 +29117,10 @@
         <v>2</v>
       </c>
       <c r="AS141" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU141" t="n">
         <v>1.98</v>
@@ -29526,7 +29526,7 @@
         <v>1.08</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU143" t="n">
         <v>1.72</v>
@@ -30338,7 +30338,7 @@
         <v>1.64</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU147" t="n">
         <v>1.44</v>
@@ -30538,7 +30538,7 @@
         <v>0.71</v>
       </c>
       <c r="AS148" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT148" t="n">
         <v>0.75</v>
@@ -31756,7 +31756,7 @@
         <v>1.5</v>
       </c>
       <c r="AS154" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT154" t="n">
         <v>1.33</v>
@@ -31962,7 +31962,7 @@
         <v>1.42</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU155" t="n">
         <v>1.55</v>
@@ -32165,7 +32165,7 @@
         <v>2.08</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU156" t="n">
         <v>2.1</v>
@@ -32568,7 +32568,7 @@
         <v>0.57</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT158" t="n">
         <v>1.09</v>
@@ -32974,7 +32974,7 @@
         <v>1.71</v>
       </c>
       <c r="AS160" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT160" t="n">
         <v>1.33</v>
@@ -33583,7 +33583,7 @@
         <v>0.71</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT163" t="n">
         <v>0.64</v>
@@ -34398,7 +34398,7 @@
         <v>2.75</v>
       </c>
       <c r="AT167" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU167" t="n">
         <v>1.88</v>
@@ -34601,7 +34601,7 @@
         <v>1.08</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU168" t="n">
         <v>1.78</v>
@@ -35616,7 +35616,7 @@
         <v>2.54</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU173" t="n">
         <v>1.86</v>
@@ -35816,7 +35816,7 @@
         <v>1.43</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT174" t="n">
         <v>1</v>
@@ -36225,7 +36225,7 @@
         <v>1.08</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU176" t="n">
         <v>1.68</v>
@@ -37037,7 +37037,7 @@
         <v>2.75</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU180" t="n">
         <v>1.88</v>
@@ -37440,7 +37440,7 @@
         <v>0.88</v>
       </c>
       <c r="AS182" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT182" t="n">
         <v>0.73</v>
@@ -37643,10 +37643,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU183" t="n">
         <v>1.7</v>
@@ -38861,7 +38861,7 @@
         <v>1.78</v>
       </c>
       <c r="AS189" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT189" t="n">
         <v>1.33</v>
@@ -39270,7 +39270,7 @@
         <v>1.92</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU191" t="n">
         <v>1.96</v>
@@ -39473,7 +39473,7 @@
         <v>1.18</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU192" t="n">
         <v>1.63</v>
@@ -40079,7 +40079,7 @@
         <v>1.5</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT195" t="n">
         <v>1.33</v>
@@ -41097,7 +41097,7 @@
         <v>1.73</v>
       </c>
       <c r="AT200" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU200" t="n">
         <v>1.92</v>
@@ -41297,7 +41297,7 @@
         <v>1</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT201" t="n">
         <v>0.92</v>
@@ -42315,7 +42315,7 @@
         <v>2</v>
       </c>
       <c r="AT206" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU206" t="n">
         <v>1.92</v>
@@ -42718,7 +42718,7 @@
         <v>0.78</v>
       </c>
       <c r="AS208" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT208" t="n">
         <v>0.73</v>
@@ -42921,7 +42921,7 @@
         <v>1.44</v>
       </c>
       <c r="AS209" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT209" t="n">
         <v>1.33</v>
@@ -43124,7 +43124,7 @@
         <v>1.36</v>
       </c>
       <c r="AS210" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT210" t="n">
         <v>1.33</v>
@@ -43330,7 +43330,7 @@
         <v>1.25</v>
       </c>
       <c r="AT211" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU211" t="n">
         <v>1.66</v>
@@ -43733,7 +43733,7 @@
         <v>1.45</v>
       </c>
       <c r="AS213" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT213" t="n">
         <v>1.33</v>
@@ -44139,10 +44139,10 @@
         <v>1.55</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU215" t="n">
         <v>1.76</v>
@@ -46575,7 +46575,7 @@
         <v>0.8</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT227" t="n">
         <v>0.73</v>
@@ -46781,7 +46781,7 @@
         <v>1.64</v>
       </c>
       <c r="AT228" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU228" t="n">
         <v>1.7</v>
@@ -47184,7 +47184,7 @@
         <v>1</v>
       </c>
       <c r="AS230" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT230" t="n">
         <v>1</v>
@@ -48051,6 +48051,818 @@
       </c>
       <c r="BK234" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="n">
+        <v>5406661</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E235" s="2" t="n">
+        <v>45190.79166666666</v>
+      </c>
+      <c r="F235" t="n">
+        <v>24</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Vasco da Gama</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>2</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="n">
+        <v>2</v>
+      </c>
+      <c r="L235" t="n">
+        <v>5</v>
+      </c>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="n">
+        <v>6</v>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>['8', '34', '50', '63', '81']</t>
+        </is>
+      </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="Q235" t="n">
+        <v>6</v>
+      </c>
+      <c r="R235" t="n">
+        <v>0</v>
+      </c>
+      <c r="S235" t="n">
+        <v>6</v>
+      </c>
+      <c r="T235" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U235" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V235" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W235" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X235" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y235" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z235" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA235" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB235" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC235" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD235" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE235" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF235" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG235" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH235" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI235" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ235" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK235" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL235" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM235" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN235" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO235" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP235" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AQ235" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR235" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AS235" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT235" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AU235" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV235" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW235" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX235" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY235" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ235" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BA235" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB235" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC235" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BD235" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE235" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF235" t="n">
+        <v>13</v>
+      </c>
+      <c r="BG235" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH235" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI235" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ235" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK235" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="n">
+        <v>5406667</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="n">
+        <v>45190.8125</v>
+      </c>
+      <c r="F236" t="n">
+        <v>24</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Atlético PR</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I236" t="n">
+        <v>1</v>
+      </c>
+      <c r="J236" t="n">
+        <v>1</v>
+      </c>
+      <c r="K236" t="n">
+        <v>2</v>
+      </c>
+      <c r="L236" t="n">
+        <v>2</v>
+      </c>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="n">
+        <v>3</v>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>['24', '90']</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="Q236" t="n">
+        <v>7</v>
+      </c>
+      <c r="R236" t="n">
+        <v>5</v>
+      </c>
+      <c r="S236" t="n">
+        <v>12</v>
+      </c>
+      <c r="T236" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U236" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V236" t="n">
+        <v>6</v>
+      </c>
+      <c r="W236" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X236" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y236" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z236" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA236" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB236" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC236" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AD236" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE236" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF236" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG236" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH236" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI236" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ236" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK236" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AL236" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM236" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN236" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO236" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP236" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ236" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AR236" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AS236" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AT236" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AU236" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AV236" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW236" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX236" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY236" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ236" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BA236" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB236" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC236" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD236" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE236" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF236" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG236" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH236" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI236" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ236" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK236" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="n">
+        <v>5406666</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="n">
+        <v>45190.89583333334</v>
+      </c>
+      <c r="F237" t="n">
+        <v>24</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Grêmio</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="I237" t="n">
+        <v>1</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="n">
+        <v>0</v>
+      </c>
+      <c r="N237" t="n">
+        <v>1</v>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q237" t="n">
+        <v>2</v>
+      </c>
+      <c r="R237" t="n">
+        <v>11</v>
+      </c>
+      <c r="S237" t="n">
+        <v>13</v>
+      </c>
+      <c r="T237" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U237" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V237" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W237" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X237" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y237" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z237" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA237" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB237" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC237" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AD237" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE237" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF237" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG237" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH237" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI237" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ237" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AK237" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL237" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM237" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN237" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO237" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP237" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ237" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AR237" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS237" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AT237" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU237" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV237" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW237" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AX237" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AY237" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ237" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BA237" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB237" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC237" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD237" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE237" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF237" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG237" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH237" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI237" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ237" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK237" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="n">
+        <v>5406663</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E238" s="2" t="n">
+        <v>45191.83333333334</v>
+      </c>
+      <c r="F238" t="n">
+        <v>24</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Botafogo</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="n">
+        <v>0</v>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="n">
+        <v>0</v>
+      </c>
+      <c r="N238" t="n">
+        <v>1</v>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q238" t="n">
+        <v>6</v>
+      </c>
+      <c r="R238" t="n">
+        <v>1</v>
+      </c>
+      <c r="S238" t="n">
+        <v>7</v>
+      </c>
+      <c r="T238" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U238" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V238" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W238" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X238" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y238" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z238" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA238" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB238" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC238" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD238" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE238" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF238" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG238" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH238" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI238" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ238" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AK238" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL238" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM238" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN238" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AO238" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP238" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ238" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR238" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS238" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT238" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU238" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV238" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW238" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX238" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AY238" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ238" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BA238" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB238" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC238" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD238" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE238" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF238" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG238" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH238" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI238" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ238" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK238" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK238"/>
+  <dimension ref="A1:BK239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.36</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT8" t="n">
         <v>0.64</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT27" t="n">
         <v>1.09</v>
@@ -7399,7 +7399,7 @@
         <v>1.08</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU34" t="n">
         <v>2.02</v>
@@ -11256,7 +11256,7 @@
         <v>2.54</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU53" t="n">
         <v>2.57</v>
@@ -11659,7 +11659,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT55" t="n">
         <v>0.85</v>
@@ -14910,7 +14910,7 @@
         <v>1.08</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU71" t="n">
         <v>2.04</v>
@@ -16734,7 +16734,7 @@
         <v>1.67</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT80" t="n">
         <v>1.38</v>
@@ -18564,7 +18564,7 @@
         <v>1.25</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU89" t="n">
         <v>1.64</v>
@@ -19376,7 +19376,7 @@
         <v>1.75</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU93" t="n">
         <v>1.72</v>
@@ -19779,7 +19779,7 @@
         <v>0.75</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT95" t="n">
         <v>1.42</v>
@@ -25060,7 +25060,7 @@
         <v>1.33</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU121" t="n">
         <v>2.06</v>
@@ -26275,7 +26275,7 @@
         <v>0.2</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT127" t="n">
         <v>0.36</v>
@@ -27696,7 +27696,7 @@
         <v>0.43</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT134" t="n">
         <v>0.75</v>
@@ -29729,7 +29729,7 @@
         <v>2</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU144" t="n">
         <v>1.83</v>
@@ -33180,7 +33180,7 @@
         <v>1.64</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU161" t="n">
         <v>1.42</v>
@@ -33989,7 +33989,7 @@
         <v>1.38</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT165" t="n">
         <v>1.62</v>
@@ -37237,7 +37237,7 @@
         <v>0.67</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT181" t="n">
         <v>0.75</v>
@@ -38864,7 +38864,7 @@
         <v>2.15</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU189" t="n">
         <v>1.98</v>
@@ -41503,7 +41503,7 @@
         <v>2.08</v>
       </c>
       <c r="AT202" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU202" t="n">
         <v>2.17</v>
@@ -42109,7 +42109,7 @@
         <v>0.44</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT205" t="n">
         <v>0.58</v>
@@ -43736,7 +43736,7 @@
         <v>2.46</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU213" t="n">
         <v>1.76</v>
@@ -46778,7 +46778,7 @@
         <v>1.8</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT228" t="n">
         <v>1.5</v>
@@ -48862,6 +48862,209 @@
         <v>20</v>
       </c>
       <c r="BK238" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="n">
+        <v>5406665</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E239" s="2" t="n">
+        <v>45192.875</v>
+      </c>
+      <c r="F239" t="n">
+        <v>24</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Atlético Mineiro</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Cuiabá</t>
+        </is>
+      </c>
+      <c r="I239" t="n">
+        <v>1</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="n">
+        <v>0</v>
+      </c>
+      <c r="N239" t="n">
+        <v>1</v>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q239" t="n">
+        <v>6</v>
+      </c>
+      <c r="R239" t="n">
+        <v>3</v>
+      </c>
+      <c r="S239" t="n">
+        <v>9</v>
+      </c>
+      <c r="T239" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U239" t="n">
+        <v>2</v>
+      </c>
+      <c r="V239" t="n">
+        <v>7</v>
+      </c>
+      <c r="W239" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X239" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y239" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z239" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA239" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB239" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC239" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD239" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE239" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF239" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG239" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH239" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI239" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ239" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AK239" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL239" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AM239" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN239" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO239" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP239" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ239" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR239" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS239" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT239" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AU239" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV239" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW239" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX239" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AY239" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ239" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BA239" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB239" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BC239" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD239" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BE239" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BF239" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG239" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH239" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI239" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ239" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK239" t="n">
         <v>10</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK239"/>
+  <dimension ref="A1:BK240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT3" t="n">
         <v>0.73</v>
@@ -2121,7 +2121,7 @@
         <v>1.75</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -7196,7 +7196,7 @@
         <v>2.54</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU33" t="n">
         <v>2.02</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT34" t="n">
         <v>1.23</v>
@@ -10444,7 +10444,7 @@
         <v>0.82</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU49" t="n">
         <v>1.69</v>
@@ -12877,7 +12877,7 @@
         <v>1.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT61" t="n">
         <v>1.33</v>
@@ -13283,7 +13283,7 @@
         <v>1.67</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT63" t="n">
         <v>1.17</v>
@@ -13895,7 +13895,7 @@
         <v>1.92</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU66" t="n">
         <v>1.35</v>
@@ -15316,7 +15316,7 @@
         <v>2</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU73" t="n">
         <v>2.18</v>
@@ -17343,7 +17343,7 @@
         <v>0</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT83" t="n">
         <v>0.75</v>
@@ -20185,7 +20185,7 @@
         <v>0.75</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT97" t="n">
         <v>1.09</v>
@@ -20391,7 +20391,7 @@
         <v>1.64</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU98" t="n">
         <v>1.44</v>
@@ -24854,7 +24854,7 @@
         <v>0.83</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT120" t="n">
         <v>0.85</v>
@@ -26684,7 +26684,7 @@
         <v>2.75</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU129" t="n">
         <v>1.95</v>
@@ -33586,7 +33586,7 @@
         <v>1.75</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU163" t="n">
         <v>1.71</v>
@@ -34598,7 +34598,7 @@
         <v>1.38</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT168" t="n">
         <v>1.38</v>
@@ -37846,7 +37846,7 @@
         <v>0.78</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT184" t="n">
         <v>0.92</v>
@@ -38661,7 +38661,7 @@
         <v>2.08</v>
       </c>
       <c r="AT188" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU188" t="n">
         <v>2.11</v>
@@ -41703,7 +41703,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT203" t="n">
         <v>0.45</v>
@@ -42518,7 +42518,7 @@
         <v>2.36</v>
       </c>
       <c r="AT207" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU207" t="n">
         <v>1.89</v>
@@ -44345,7 +44345,7 @@
         <v>1.33</v>
       </c>
       <c r="AT216" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU216" t="n">
         <v>1.75</v>
@@ -44545,7 +44545,7 @@
         <v>0.4</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT217" t="n">
         <v>0.58</v>
@@ -47387,7 +47387,7 @@
         <v>1.27</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT231" t="n">
         <v>1.42</v>
@@ -49066,6 +49066,209 @@
       </c>
       <c r="BK239" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="n">
+        <v>5406579</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E240" s="2" t="n">
+        <v>45194.83333333334</v>
+      </c>
+      <c r="F240" t="n">
+        <v>15</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>América Mineiro</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Vasco da Gama</t>
+        </is>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="n">
+        <v>0</v>
+      </c>
+      <c r="L240" t="n">
+        <v>0</v>
+      </c>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="n">
+        <v>1</v>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="Q240" t="n">
+        <v>3</v>
+      </c>
+      <c r="R240" t="n">
+        <v>8</v>
+      </c>
+      <c r="S240" t="n">
+        <v>11</v>
+      </c>
+      <c r="T240" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U240" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V240" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W240" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X240" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y240" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z240" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA240" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB240" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC240" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD240" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE240" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF240" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG240" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH240" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI240" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AJ240" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK240" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL240" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM240" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN240" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO240" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP240" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ240" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR240" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AS240" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT240" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU240" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV240" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW240" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX240" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AY240" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ240" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BA240" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB240" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC240" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD240" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE240" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF240" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG240" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH240" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI240" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ240" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK240" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ240"/>
+  <dimension ref="A1:AZ241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2029,7 +2029,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ14" t="n">
         <v>0.36</v>
@@ -6446,7 +6446,7 @@
         <v>1</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ35" t="n">
         <v>0.85</v>
@@ -6789,7 +6789,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR37" t="n">
         <v>1.06</v>
@@ -10699,7 +10699,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR60" t="n">
         <v>1.36</v>
@@ -11716,7 +11716,7 @@
         <v>1.67</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ66" t="n">
         <v>0.83</v>
@@ -13249,7 +13249,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR75" t="n">
         <v>1.39</v>
@@ -13416,7 +13416,7 @@
         <v>0.25</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ76" t="n">
         <v>0.92</v>
@@ -15799,7 +15799,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ90" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR90" t="n">
         <v>2.25</v>
@@ -17326,7 +17326,7 @@
         <v>1.5</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.38</v>
@@ -17836,7 +17836,7 @@
         <v>0.8</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.09</v>
@@ -20219,7 +20219,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR116" t="n">
         <v>1.97</v>
@@ -21236,7 +21236,7 @@
         <v>1.17</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ122" t="n">
         <v>0.73</v>
@@ -22769,7 +22769,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ131" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR131" t="n">
         <v>1.72</v>
@@ -24809,7 +24809,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ143" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR143" t="n">
         <v>1.72</v>
@@ -25316,7 +25316,7 @@
         <v>0.67</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ146" t="n">
         <v>0.58</v>
@@ -28716,7 +28716,7 @@
         <v>0.63</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ166" t="n">
         <v>0.75</v>
@@ -28889,7 +28889,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ167" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR167" t="n">
         <v>1.88</v>
@@ -30246,7 +30246,7 @@
         <v>1.33</v>
       </c>
       <c r="AP175" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ175" t="n">
         <v>1.33</v>
@@ -31609,7 +31609,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ183" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR183" t="n">
         <v>1.7</v>
@@ -32966,7 +32966,7 @@
         <v>1.89</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ191" t="n">
         <v>1.5</v>
@@ -35519,7 +35519,7 @@
         <v>2</v>
       </c>
       <c r="AQ206" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR206" t="n">
         <v>1.92</v>
@@ -40106,7 +40106,7 @@
         <v>1</v>
       </c>
       <c r="AP233" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ233" t="n">
         <v>1.17</v>
@@ -40449,7 +40449,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ235" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR235" t="n">
         <v>1.66</v>
@@ -41327,6 +41327,176 @@
       </c>
       <c r="AZ240" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="n">
+        <v>5406642</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E241" s="2" t="n">
+        <v>45196.79166666666</v>
+      </c>
+      <c r="F241" t="n">
+        <v>22</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
+        <v>2</v>
+      </c>
+      <c r="J241" t="n">
+        <v>1</v>
+      </c>
+      <c r="K241" t="n">
+        <v>3</v>
+      </c>
+      <c r="L241" t="n">
+        <v>2</v>
+      </c>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="n">
+        <v>3</v>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>['30', '45+13']</t>
+        </is>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>['45+6']</t>
+        </is>
+      </c>
+      <c r="Q241" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R241" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S241" t="n">
+        <v>7</v>
+      </c>
+      <c r="T241" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U241" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V241" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W241" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X241" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y241" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z241" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA241" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB241" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AC241" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD241" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE241" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF241" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG241" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH241" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI241" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ241" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK241" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AL241" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM241" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AN241" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AO241" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AP241" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ241" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AR241" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AS241" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT241" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AU241" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV241" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW241" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX241" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY241" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ241" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ241"/>
+  <dimension ref="A1:AZ246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1009,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ7" t="n">
         <v>0.85</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.38</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.42</v>
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ14" t="n">
         <v>0.36</v>
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.62</v>
@@ -3559,7 +3559,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -3899,7 +3899,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -4406,10 +4406,10 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR23" t="n">
         <v>1.91</v>
@@ -4919,7 +4919,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR26" t="n">
         <v>1.77</v>
@@ -5256,7 +5256,7 @@
         <v>3</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ28" t="n">
         <v>1.5</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ29" t="n">
         <v>0.92</v>
@@ -5596,7 +5596,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ30" t="n">
         <v>1</v>
@@ -5769,7 +5769,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR31" t="n">
         <v>1.31</v>
@@ -6446,7 +6446,7 @@
         <v>1</v>
       </c>
       <c r="AP35" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ35" t="n">
         <v>0.85</v>
@@ -7129,7 +7129,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR39" t="n">
         <v>1.26</v>
@@ -7636,7 +7636,7 @@
         <v>0</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.09</v>
@@ -7979,7 +7979,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR44" t="n">
         <v>1.33</v>
@@ -8146,10 +8146,10 @@
         <v>0.5</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR45" t="n">
         <v>1.7</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ46" t="n">
         <v>0.92</v>
@@ -8489,7 +8489,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR47" t="n">
         <v>1.63</v>
@@ -8999,7 +8999,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR50" t="n">
         <v>1.67</v>
@@ -9166,7 +9166,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ51" t="n">
         <v>0.45</v>
@@ -11379,7 +11379,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR64" t="n">
         <v>1.63</v>
@@ -11716,7 +11716,7 @@
         <v>1.67</v>
       </c>
       <c r="AP66" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ66" t="n">
         <v>0.83</v>
@@ -11889,7 +11889,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR67" t="n">
         <v>1.76</v>
@@ -12226,10 +12226,10 @@
         <v>0</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR69" t="n">
         <v>2.5</v>
@@ -12906,7 +12906,7 @@
         <v>1.25</v>
       </c>
       <c r="AP73" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.83</v>
@@ -13076,7 +13076,7 @@
         <v>2</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ74" t="n">
         <v>1.33</v>
@@ -13246,7 +13246,7 @@
         <v>0</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ75" t="n">
         <v>0.38</v>
@@ -13416,7 +13416,7 @@
         <v>0.25</v>
       </c>
       <c r="AP76" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ76" t="n">
         <v>0.92</v>
@@ -13586,10 +13586,10 @@
         <v>1</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR77" t="n">
         <v>1.65</v>
@@ -13759,7 +13759,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR78" t="n">
         <v>1.79</v>
@@ -14436,10 +14436,10 @@
         <v>0.75</v>
       </c>
       <c r="AP82" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR82" t="n">
         <v>2.14</v>
@@ -14609,7 +14609,7 @@
         <v>1</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR83" t="n">
         <v>1.74</v>
@@ -14779,7 +14779,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR84" t="n">
         <v>2.07</v>
@@ -17156,7 +17156,7 @@
         <v>1</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ98" t="n">
         <v>0.83</v>
@@ -17326,7 +17326,7 @@
         <v>1.5</v>
       </c>
       <c r="AP99" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.38</v>
@@ -17496,7 +17496,7 @@
         <v>1.5</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ100" t="n">
         <v>1</v>
@@ -17669,7 +17669,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ101" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR101" t="n">
         <v>1.59</v>
@@ -17836,7 +17836,7 @@
         <v>0.8</v>
       </c>
       <c r="AP102" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.09</v>
@@ -18179,7 +18179,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR104" t="n">
         <v>1.58</v>
@@ -18349,7 +18349,7 @@
         <v>2.54</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR105" t="n">
         <v>1.92</v>
@@ -19196,7 +19196,7 @@
         <v>1.5</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.5</v>
@@ -19539,7 +19539,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ112" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR112" t="n">
         <v>1.8</v>
@@ -19706,10 +19706,10 @@
         <v>1.83</v>
       </c>
       <c r="AP113" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR113" t="n">
         <v>1.99</v>
@@ -19879,7 +19879,7 @@
         <v>2.54</v>
       </c>
       <c r="AQ114" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR114" t="n">
         <v>1.76</v>
@@ -21236,10 +21236,10 @@
         <v>1.17</v>
       </c>
       <c r="AP122" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ122" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR122" t="n">
         <v>1.74</v>
@@ -21576,7 +21576,7 @@
         <v>1.33</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.17</v>
@@ -21746,7 +21746,7 @@
         <v>1.6</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ125" t="n">
         <v>1.33</v>
@@ -22596,7 +22596,7 @@
         <v>0.8</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ130" t="n">
         <v>0.58</v>
@@ -22936,10 +22936,10 @@
         <v>0.67</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR132" t="n">
         <v>1.61</v>
@@ -23279,7 +23279,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ134" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR134" t="n">
         <v>1.73</v>
@@ -24296,7 +24296,7 @@
         <v>0.67</v>
       </c>
       <c r="AP140" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ140" t="n">
         <v>1.09</v>
@@ -24976,7 +24976,7 @@
         <v>1.43</v>
       </c>
       <c r="AP144" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ144" t="n">
         <v>1.23</v>
@@ -25316,7 +25316,7 @@
         <v>0.67</v>
       </c>
       <c r="AP146" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ146" t="n">
         <v>0.58</v>
@@ -25486,7 +25486,7 @@
         <v>1.43</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ147" t="n">
         <v>1.38</v>
@@ -25659,7 +25659,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ148" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR148" t="n">
         <v>2.05</v>
@@ -25829,7 +25829,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ149" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR149" t="n">
         <v>1.79</v>
@@ -25996,7 +25996,7 @@
         <v>0.29</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ150" t="n">
         <v>0.36</v>
@@ -26339,7 +26339,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ152" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR152" t="n">
         <v>1.64</v>
@@ -26506,7 +26506,7 @@
         <v>0.57</v>
       </c>
       <c r="AP153" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ153" t="n">
         <v>0.45</v>
@@ -26679,7 +26679,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR154" t="n">
         <v>1.96</v>
@@ -27529,7 +27529,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ159" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR159" t="n">
         <v>1.68</v>
@@ -27866,7 +27866,7 @@
         <v>1.63</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ161" t="n">
         <v>1.23</v>
@@ -28376,7 +28376,7 @@
         <v>1</v>
       </c>
       <c r="AP164" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ164" t="n">
         <v>1.42</v>
@@ -28716,10 +28716,10 @@
         <v>0.63</v>
       </c>
       <c r="AP166" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ166" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR166" t="n">
         <v>1.9</v>
@@ -29566,10 +29566,10 @@
         <v>0.78</v>
       </c>
       <c r="AP171" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ171" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR171" t="n">
         <v>1.49</v>
@@ -30246,10 +30246,10 @@
         <v>1.33</v>
       </c>
       <c r="AP175" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ175" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR175" t="n">
         <v>1.93</v>
@@ -30926,7 +30926,7 @@
         <v>1.56</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ179" t="n">
         <v>1.62</v>
@@ -31269,7 +31269,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ181" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR181" t="n">
         <v>1.72</v>
@@ -31439,7 +31439,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ182" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR182" t="n">
         <v>1.83</v>
@@ -31946,7 +31946,7 @@
         <v>0.5</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ185" t="n">
         <v>0.45</v>
@@ -32116,7 +32116,7 @@
         <v>0.5</v>
       </c>
       <c r="AP186" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ186" t="n">
         <v>0.58</v>
@@ -32796,7 +32796,7 @@
         <v>0.89</v>
       </c>
       <c r="AP190" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ190" t="n">
         <v>1.17</v>
@@ -32966,7 +32966,7 @@
         <v>1.89</v>
       </c>
       <c r="AP191" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ191" t="n">
         <v>1.5</v>
@@ -33136,7 +33136,7 @@
         <v>1.4</v>
       </c>
       <c r="AP192" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ192" t="n">
         <v>1.38</v>
@@ -33479,7 +33479,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ194" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR194" t="n">
         <v>1.67</v>
@@ -33649,7 +33649,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ195" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR195" t="n">
         <v>1.75</v>
@@ -34496,7 +34496,7 @@
         <v>0.9</v>
       </c>
       <c r="AP200" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ200" t="n">
         <v>0.85</v>
@@ -35179,7 +35179,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ204" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR204" t="n">
         <v>1.91</v>
@@ -35516,7 +35516,7 @@
         <v>0.5</v>
       </c>
       <c r="AP206" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ206" t="n">
         <v>0.38</v>
@@ -35859,7 +35859,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ208" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR208" t="n">
         <v>1.94</v>
@@ -36199,7 +36199,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ210" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR210" t="n">
         <v>1.89</v>
@@ -37726,7 +37726,7 @@
         <v>0.5</v>
       </c>
       <c r="AP219" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ219" t="n">
         <v>0.45</v>
@@ -37896,7 +37896,7 @@
         <v>0.9</v>
       </c>
       <c r="AP220" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ220" t="n">
         <v>1.09</v>
@@ -38066,10 +38066,10 @@
         <v>0.82</v>
       </c>
       <c r="AP221" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ221" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR221" t="n">
         <v>1.89</v>
@@ -38409,7 +38409,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ223" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR223" t="n">
         <v>1.6</v>
@@ -38746,7 +38746,7 @@
         <v>0.3</v>
       </c>
       <c r="AP225" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ225" t="n">
         <v>0.36</v>
@@ -39089,7 +39089,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ227" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR227" t="n">
         <v>1.72</v>
@@ -40106,7 +40106,7 @@
         <v>1</v>
       </c>
       <c r="AP233" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ233" t="n">
         <v>1.17</v>
@@ -41466,7 +41466,7 @@
         <v>0.42</v>
       </c>
       <c r="AP241" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ241" t="n">
         <v>0.38</v>
@@ -41496,6 +41496,856 @@
         <v>15</v>
       </c>
       <c r="AZ241" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" t="n">
+        <v>5406670</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E242" s="2" t="n">
+        <v>45199.66666666666</v>
+      </c>
+      <c r="F242" t="n">
+        <v>25</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="n">
+        <v>0</v>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="n">
+        <v>0</v>
+      </c>
+      <c r="N242" t="n">
+        <v>1</v>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="P242" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q242" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R242" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S242" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T242" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U242" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V242" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W242" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X242" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y242" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z242" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA242" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB242" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AC242" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD242" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE242" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF242" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG242" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH242" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI242" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ242" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK242" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AL242" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AM242" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AN242" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AO242" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP242" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ242" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR242" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS242" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT242" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AU242" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV242" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW242" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX242" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY242" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ242" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" t="n">
+        <v>5406678</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E243" s="2" t="n">
+        <v>45199.66666666666</v>
+      </c>
+      <c r="F243" t="n">
+        <v>25</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Grêmio</t>
+        </is>
+      </c>
+      <c r="I243" t="n">
+        <v>1</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="n">
+        <v>2</v>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="P243" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="Q243" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R243" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S243" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T243" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U243" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V243" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W243" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X243" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y243" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z243" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AA243" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB243" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AC243" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD243" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE243" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF243" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG243" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH243" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI243" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ243" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK243" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL243" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM243" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN243" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO243" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP243" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AQ243" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR243" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AS243" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT243" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AU243" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV243" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW243" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX243" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY243" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ243" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" t="n">
+        <v>5406679</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E244" s="2" t="n">
+        <v>45199.77083333334</v>
+      </c>
+      <c r="F244" t="n">
+        <v>25</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Cuiabá</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="n">
+        <v>0</v>
+      </c>
+      <c r="L244" t="n">
+        <v>3</v>
+      </c>
+      <c r="M244" t="n">
+        <v>0</v>
+      </c>
+      <c r="N244" t="n">
+        <v>3</v>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>['57', '64', '87']</t>
+        </is>
+      </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q244" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R244" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S244" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T244" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U244" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V244" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W244" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X244" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y244" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z244" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AA244" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB244" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AC244" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD244" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE244" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AF244" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG244" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH244" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI244" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ244" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK244" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL244" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM244" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN244" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO244" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AP244" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ244" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR244" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS244" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT244" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AU244" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV244" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW244" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX244" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY244" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ244" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" t="n">
+        <v>5406672</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E245" s="2" t="n">
+        <v>45199.77083333334</v>
+      </c>
+      <c r="F245" t="n">
+        <v>25</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="I245" t="n">
+        <v>2</v>
+      </c>
+      <c r="J245" t="n">
+        <v>1</v>
+      </c>
+      <c r="K245" t="n">
+        <v>3</v>
+      </c>
+      <c r="L245" t="n">
+        <v>2</v>
+      </c>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="N245" t="n">
+        <v>3</v>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>['40', '45+2']</t>
+        </is>
+      </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="Q245" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R245" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S245" t="n">
+        <v>7</v>
+      </c>
+      <c r="T245" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U245" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V245" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W245" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X245" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y245" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z245" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AA245" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AB245" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AC245" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD245" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE245" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AF245" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AG245" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AH245" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI245" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ245" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK245" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AL245" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM245" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN245" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO245" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP245" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AQ245" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR245" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AS245" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AT245" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AU245" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV245" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW245" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX245" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY245" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ245" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" t="n">
+        <v>5406676</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E246" s="2" t="n">
+        <v>45199.875</v>
+      </c>
+      <c r="F246" t="n">
+        <v>25</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Atlético Mineiro</t>
+        </is>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="n">
+        <v>0</v>
+      </c>
+      <c r="L246" t="n">
+        <v>0</v>
+      </c>
+      <c r="M246" t="n">
+        <v>2</v>
+      </c>
+      <c r="N246" t="n">
+        <v>2</v>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>['73', '81']</t>
+        </is>
+      </c>
+      <c r="Q246" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R246" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S246" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T246" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U246" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V246" t="n">
+        <v>4</v>
+      </c>
+      <c r="W246" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X246" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y246" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z246" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AA246" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AB246" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AC246" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD246" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AE246" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF246" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AG246" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH246" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI246" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ246" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK246" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL246" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM246" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AN246" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AO246" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP246" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ246" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AR246" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS246" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT246" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AU246" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV246" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW246" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX246" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY246" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ246" t="n">
         <v>9</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ246"/>
+  <dimension ref="A1:AZ251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.45</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.6899999999999999</v>
@@ -1859,7 +1859,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>2.54</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -2879,7 +2879,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3389,7 +3389,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ18" t="n">
         <v>1.46</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.17</v>
@@ -4236,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AQ22" t="n">
         <v>0.45</v>
@@ -4576,10 +4576,10 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AR24" t="n">
         <v>1.18</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.33</v>
@@ -5089,7 +5089,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR27" t="n">
         <v>2.44</v>
@@ -6109,7 +6109,7 @@
         <v>2.54</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR33" t="n">
         <v>2.02</v>
@@ -7126,7 +7126,7 @@
         <v>1</v>
       </c>
       <c r="AP39" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.46</v>
@@ -7299,7 +7299,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR40" t="n">
         <v>1.92</v>
@@ -7639,7 +7639,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR42" t="n">
         <v>1.75</v>
@@ -7806,10 +7806,10 @@
         <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AR43" t="n">
         <v>1.58</v>
@@ -7976,7 +7976,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.6899999999999999</v>
@@ -8826,10 +8826,10 @@
         <v>2</v>
       </c>
       <c r="AP49" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR49" t="n">
         <v>1.69</v>
@@ -8996,7 +8996,7 @@
         <v>0</v>
       </c>
       <c r="AP50" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="AQ50" t="n">
         <v>0.6899999999999999</v>
@@ -11376,7 +11376,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.46</v>
@@ -11546,10 +11546,10 @@
         <v>1</v>
       </c>
       <c r="AP65" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR65" t="n">
         <v>1.78</v>
@@ -11719,7 +11719,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR66" t="n">
         <v>1.35</v>
@@ -11886,7 +11886,7 @@
         <v>2</v>
       </c>
       <c r="AP67" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="AQ67" t="n">
         <v>0.67</v>
@@ -12056,10 +12056,10 @@
         <v>2</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR68" t="n">
         <v>1.5</v>
@@ -12909,7 +12909,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR73" t="n">
         <v>2.18</v>
@@ -13926,7 +13926,7 @@
         <v>1</v>
       </c>
       <c r="AP79" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ79" t="n">
         <v>0.58</v>
@@ -14099,7 +14099,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR80" t="n">
         <v>1.95</v>
@@ -14266,10 +14266,10 @@
         <v>0.33</v>
       </c>
       <c r="AP81" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AR81" t="n">
         <v>1.84</v>
@@ -15116,7 +15116,7 @@
         <v>0.25</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ86" t="n">
         <v>0.85</v>
@@ -16136,7 +16136,7 @@
         <v>0.75</v>
       </c>
       <c r="AP92" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AQ92" t="n">
         <v>0.58</v>
@@ -16816,7 +16816,7 @@
         <v>1.25</v>
       </c>
       <c r="AP96" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="AQ96" t="n">
         <v>1.17</v>
@@ -16989,7 +16989,7 @@
         <v>1</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR97" t="n">
         <v>1.71</v>
@@ -17159,7 +17159,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ98" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR98" t="n">
         <v>1.44</v>
@@ -17329,7 +17329,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR99" t="n">
         <v>1.67</v>
@@ -17839,7 +17839,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR102" t="n">
         <v>1.84</v>
@@ -18176,7 +18176,7 @@
         <v>0</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ104" t="n">
         <v>0.6899999999999999</v>
@@ -18519,7 +18519,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR106" t="n">
         <v>1.76</v>
@@ -18689,7 +18689,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AR107" t="n">
         <v>1.79</v>
@@ -19026,7 +19026,7 @@
         <v>0.4</v>
       </c>
       <c r="AP109" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AQ109" t="n">
         <v>0.85</v>
@@ -19366,7 +19366,7 @@
         <v>1.5</v>
       </c>
       <c r="AP111" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ111" t="n">
         <v>1.62</v>
@@ -20556,7 +20556,7 @@
         <v>1.2</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.62</v>
@@ -20726,7 +20726,7 @@
         <v>0.67</v>
       </c>
       <c r="AP119" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ119" t="n">
         <v>0.92</v>
@@ -22089,7 +22089,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ127" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AR127" t="n">
         <v>1.78</v>
@@ -22259,7 +22259,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR128" t="n">
         <v>1.93</v>
@@ -22426,10 +22426,10 @@
         <v>0.83</v>
       </c>
       <c r="AP129" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="AQ129" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR129" t="n">
         <v>1.95</v>
@@ -23446,10 +23446,10 @@
         <v>0.33</v>
       </c>
       <c r="AP135" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AQ135" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AR135" t="n">
         <v>1.72</v>
@@ -23786,7 +23786,7 @@
         <v>0.57</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ137" t="n">
         <v>0.92</v>
@@ -24126,7 +24126,7 @@
         <v>0.5</v>
       </c>
       <c r="AP139" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ139" t="n">
         <v>0.45</v>
@@ -24299,7 +24299,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR140" t="n">
         <v>1.81</v>
@@ -24636,7 +24636,7 @@
         <v>1.17</v>
       </c>
       <c r="AP142" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="AQ142" t="n">
         <v>1.42</v>
@@ -25489,7 +25489,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR147" t="n">
         <v>1.44</v>
@@ -25999,7 +25999,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ150" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AR150" t="n">
         <v>1.94</v>
@@ -26846,7 +26846,7 @@
         <v>2.14</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ155" t="n">
         <v>1.5</v>
@@ -27016,7 +27016,7 @@
         <v>1</v>
       </c>
       <c r="AP156" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ156" t="n">
         <v>0.85</v>
@@ -27359,7 +27359,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ158" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR158" t="n">
         <v>1.82</v>
@@ -27526,7 +27526,7 @@
         <v>1</v>
       </c>
       <c r="AP159" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AQ159" t="n">
         <v>0.67</v>
@@ -28209,7 +28209,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ163" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR163" t="n">
         <v>1.71</v>
@@ -28886,7 +28886,7 @@
         <v>0.63</v>
       </c>
       <c r="AP167" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="AQ167" t="n">
         <v>0.38</v>
@@ -29059,7 +29059,7 @@
         <v>1</v>
       </c>
       <c r="AQ168" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR168" t="n">
         <v>1.78</v>
@@ -29396,10 +29396,10 @@
         <v>0.88</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ170" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR170" t="n">
         <v>1.47</v>
@@ -29909,7 +29909,7 @@
         <v>2.54</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR173" t="n">
         <v>1.86</v>
@@ -30589,7 +30589,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ177" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AR177" t="n">
         <v>1.67</v>
@@ -30756,7 +30756,7 @@
         <v>1.25</v>
       </c>
       <c r="AP178" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AQ178" t="n">
         <v>1.42</v>
@@ -31096,7 +31096,7 @@
         <v>1</v>
       </c>
       <c r="AP180" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="AQ180" t="n">
         <v>0.85</v>
@@ -32456,10 +32456,10 @@
         <v>0.63</v>
       </c>
       <c r="AP188" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ188" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR188" t="n">
         <v>2.11</v>
@@ -33139,7 +33139,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ192" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR192" t="n">
         <v>1.63</v>
@@ -33309,7 +33309,7 @@
         <v>2.54</v>
       </c>
       <c r="AQ193" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AR193" t="n">
         <v>1.79</v>
@@ -33816,7 +33816,7 @@
         <v>1.25</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ196" t="n">
         <v>1</v>
@@ -34156,7 +34156,7 @@
         <v>1.4</v>
       </c>
       <c r="AP198" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AQ198" t="n">
         <v>1.62</v>
@@ -34329,7 +34329,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ199" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR199" t="n">
         <v>1.69</v>
@@ -34836,7 +34836,7 @@
         <v>1.6</v>
       </c>
       <c r="AP202" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ202" t="n">
         <v>1.23</v>
@@ -35176,7 +35176,7 @@
         <v>0.6</v>
       </c>
       <c r="AP204" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="AQ204" t="n">
         <v>0.6899999999999999</v>
@@ -35689,7 +35689,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ207" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR207" t="n">
         <v>1.89</v>
@@ -36536,7 +36536,7 @@
         <v>1.55</v>
       </c>
       <c r="AP212" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="AQ212" t="n">
         <v>1.62</v>
@@ -37049,7 +37049,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ215" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR215" t="n">
         <v>1.76</v>
@@ -37219,7 +37219,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ216" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR216" t="n">
         <v>1.75</v>
@@ -37899,7 +37899,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ220" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR220" t="n">
         <v>1.86</v>
@@ -38236,7 +38236,7 @@
         <v>1.3</v>
       </c>
       <c r="AP222" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ222" t="n">
         <v>1.33</v>
@@ -38406,7 +38406,7 @@
         <v>0.55</v>
       </c>
       <c r="AP223" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AQ223" t="n">
         <v>0.6899999999999999</v>
@@ -38576,7 +38576,7 @@
         <v>1.11</v>
       </c>
       <c r="AP224" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ224" t="n">
         <v>1</v>
@@ -38749,7 +38749,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ225" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AR225" t="n">
         <v>1.62</v>
@@ -40789,7 +40789,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ237" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR237" t="n">
         <v>1.71</v>
@@ -41299,7 +41299,7 @@
         <v>1</v>
       </c>
       <c r="AQ240" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR240" t="n">
         <v>1.66</v>
@@ -42346,6 +42346,856 @@
         <v>12</v>
       </c>
       <c r="AZ246" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B247" t="n">
+        <v>5406673</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E247" s="2" t="n">
+        <v>45200.66666666666</v>
+      </c>
+      <c r="F247" t="n">
+        <v>25</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Vasco da Gama</t>
+        </is>
+      </c>
+      <c r="I247" t="n">
+        <v>3</v>
+      </c>
+      <c r="J247" t="n">
+        <v>1</v>
+      </c>
+      <c r="K247" t="n">
+        <v>4</v>
+      </c>
+      <c r="L247" t="n">
+        <v>4</v>
+      </c>
+      <c r="M247" t="n">
+        <v>1</v>
+      </c>
+      <c r="N247" t="n">
+        <v>5</v>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>['15', '45+1', '45+3', '75']</t>
+        </is>
+      </c>
+      <c r="P247" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="Q247" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R247" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S247" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T247" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U247" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V247" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W247" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X247" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y247" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z247" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AA247" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB247" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AC247" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD247" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE247" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF247" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AG247" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AH247" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI247" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ247" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK247" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL247" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AM247" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN247" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO247" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AP247" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AQ247" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AR247" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS247" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT247" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AU247" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV247" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW247" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX247" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY247" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ247" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B248" t="n">
+        <v>5406675</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E248" s="2" t="n">
+        <v>45200.66666666666</v>
+      </c>
+      <c r="F248" t="n">
+        <v>25</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>América Mineiro</t>
+        </is>
+      </c>
+      <c r="I248" t="n">
+        <v>1</v>
+      </c>
+      <c r="J248" t="n">
+        <v>1</v>
+      </c>
+      <c r="K248" t="n">
+        <v>2</v>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="n">
+        <v>1</v>
+      </c>
+      <c r="N248" t="n">
+        <v>2</v>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="P248" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="Q248" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R248" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S248" t="n">
+        <v>5</v>
+      </c>
+      <c r="T248" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U248" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V248" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W248" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X248" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y248" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z248" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AA248" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB248" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="AC248" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD248" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE248" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF248" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG248" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH248" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI248" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ248" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK248" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL248" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AM248" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN248" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO248" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AP248" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AQ248" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AR248" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS248" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT248" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AU248" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV248" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW248" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX248" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY248" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ248" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B249" t="n">
+        <v>5406677</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E249" s="2" t="n">
+        <v>45200.66666666666</v>
+      </c>
+      <c r="F249" t="n">
+        <v>25</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Atlético PR</t>
+        </is>
+      </c>
+      <c r="I249" t="n">
+        <v>2</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" t="n">
+        <v>2</v>
+      </c>
+      <c r="L249" t="n">
+        <v>2</v>
+      </c>
+      <c r="M249" t="n">
+        <v>0</v>
+      </c>
+      <c r="N249" t="n">
+        <v>2</v>
+      </c>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>['14', '45+3']</t>
+        </is>
+      </c>
+      <c r="P249" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q249" t="n">
+        <v>4</v>
+      </c>
+      <c r="R249" t="n">
+        <v>2</v>
+      </c>
+      <c r="S249" t="n">
+        <v>3</v>
+      </c>
+      <c r="T249" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U249" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V249" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W249" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X249" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y249" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z249" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AA249" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB249" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC249" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD249" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE249" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF249" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG249" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AH249" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI249" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ249" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK249" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AL249" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM249" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AN249" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AO249" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP249" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ249" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR249" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS249" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT249" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AU249" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV249" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW249" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX249" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY249" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ249" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B250" t="n">
+        <v>5406674</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E250" s="2" t="n">
+        <v>45200.77083333334</v>
+      </c>
+      <c r="F250" t="n">
+        <v>25</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>Bragantino</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="n">
+        <v>1</v>
+      </c>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="n">
+        <v>2</v>
+      </c>
+      <c r="M250" t="n">
+        <v>1</v>
+      </c>
+      <c r="N250" t="n">
+        <v>3</v>
+      </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>['61', '90']</t>
+        </is>
+      </c>
+      <c r="P250" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="Q250" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R250" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S250" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T250" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U250" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V250" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W250" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X250" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y250" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z250" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA250" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB250" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AC250" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD250" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE250" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF250" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG250" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AH250" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI250" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ250" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK250" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL250" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM250" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN250" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AO250" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP250" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ250" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR250" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AS250" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AT250" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AU250" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV250" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW250" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX250" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY250" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ250" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B251" t="n">
+        <v>5406671</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E251" s="2" t="n">
+        <v>45201.83333333334</v>
+      </c>
+      <c r="F251" t="n">
+        <v>25</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>Botafogo</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Goiás</t>
+        </is>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="n">
+        <v>1</v>
+      </c>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="n">
+        <v>1</v>
+      </c>
+      <c r="N251" t="n">
+        <v>2</v>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="P251" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="Q251" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R251" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S251" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T251" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U251" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V251" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W251" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X251" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y251" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z251" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA251" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB251" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC251" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD251" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AE251" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF251" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AG251" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH251" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI251" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ251" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK251" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AL251" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AM251" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AN251" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AO251" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AP251" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AQ251" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR251" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AS251" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT251" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AU251" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV251" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW251" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX251" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY251" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ251" t="n">
         <v>9</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP251"/>
+  <dimension ref="A1:BP254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>2.62</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ10" t="n">
         <v>1.33</v>
@@ -3971,7 +3971,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.29</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ20" t="n">
         <v>0.6899999999999999</v>
@@ -5279,7 +5279,7 @@
         <v>1</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR22" t="n">
         <v>1.73</v>
@@ -7238,10 +7238,10 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR31" t="n">
         <v>1.31</v>
@@ -8331,7 +8331,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AR36" t="n">
         <v>1.11</v>
@@ -9200,7 +9200,7 @@
         <v>1</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.29</v>
@@ -9418,7 +9418,7 @@
         <v>3</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.17</v>
@@ -10075,7 +10075,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR44" t="n">
         <v>1.33</v>
@@ -11601,7 +11601,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR51" t="n">
         <v>2.41</v>
@@ -11819,7 +11819,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AR52" t="n">
         <v>1.47</v>
@@ -12688,7 +12688,7 @@
         <v>0</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ56" t="n">
         <v>0.58</v>
@@ -12906,10 +12906,10 @@
         <v>0.67</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR57" t="n">
         <v>2.06</v>
@@ -13342,7 +13342,7 @@
         <v>3</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.5</v>
@@ -17269,7 +17269,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR77" t="n">
         <v>1.65</v>
@@ -17484,7 +17484,7 @@
         <v>1.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ78" t="n">
         <v>0.67</v>
@@ -18359,7 +18359,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR82" t="n">
         <v>2.14</v>
@@ -19449,7 +19449,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ87" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR87" t="n">
         <v>1.62</v>
@@ -19882,7 +19882,7 @@
         <v>1.5</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.23</v>
@@ -20318,10 +20318,10 @@
         <v>1</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AR91" t="n">
         <v>2.09</v>
@@ -20754,7 +20754,7 @@
         <v>1.8</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ93" t="n">
         <v>1.23</v>
@@ -22498,7 +22498,7 @@
         <v>1.2</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ101" t="n">
         <v>0.67</v>
@@ -24024,7 +24024,7 @@
         <v>0.2</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ108" t="n">
         <v>0.92</v>
@@ -24681,7 +24681,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AR111" t="n">
         <v>1.85</v>
@@ -25335,7 +25335,7 @@
         <v>2.54</v>
       </c>
       <c r="AQ114" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR114" t="n">
         <v>1.76</v>
@@ -25553,7 +25553,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ115" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR115" t="n">
         <v>1.88</v>
@@ -26207,7 +26207,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AR118" t="n">
         <v>1.58</v>
@@ -26858,7 +26858,7 @@
         <v>1.67</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ121" t="n">
         <v>1.23</v>
@@ -27948,7 +27948,7 @@
         <v>0.8</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ126" t="n">
         <v>1.42</v>
@@ -29038,7 +29038,7 @@
         <v>0.17</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ131" t="n">
         <v>0.38</v>
@@ -29259,7 +29259,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR132" t="n">
         <v>1.61</v>
@@ -29474,7 +29474,7 @@
         <v>1.5</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ133" t="n">
         <v>1.33</v>
@@ -30131,7 +30131,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AR136" t="n">
         <v>2.2</v>
@@ -30785,7 +30785,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ139" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR139" t="n">
         <v>2.04</v>
@@ -32093,7 +32093,7 @@
         <v>2.54</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AR145" t="n">
         <v>1.84</v>
@@ -32747,7 +32747,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ148" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR148" t="n">
         <v>2.05</v>
@@ -32962,7 +32962,7 @@
         <v>1.57</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ149" t="n">
         <v>1.46</v>
@@ -33837,7 +33837,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ153" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR153" t="n">
         <v>1.59</v>
@@ -34924,7 +34924,7 @@
         <v>0.57</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ158" t="n">
         <v>1</v>
@@ -36014,7 +36014,7 @@
         <v>0.71</v>
       </c>
       <c r="AP163" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ163" t="n">
         <v>0.77</v>
@@ -36453,7 +36453,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ165" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AR165" t="n">
         <v>1.75</v>
@@ -36671,7 +36671,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ166" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR166" t="n">
         <v>1.9</v>
@@ -37322,7 +37322,7 @@
         <v>1.5</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ169" t="n">
         <v>1</v>
@@ -37976,7 +37976,7 @@
         <v>1</v>
       </c>
       <c r="AP172" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ172" t="n">
         <v>1.17</v>
@@ -38412,7 +38412,7 @@
         <v>1.43</v>
       </c>
       <c r="AP174" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ174" t="n">
         <v>1</v>
@@ -39505,7 +39505,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ179" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AR179" t="n">
         <v>1.58</v>
@@ -39941,7 +39941,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ181" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR181" t="n">
         <v>1.72</v>
@@ -40374,7 +40374,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ183" t="n">
         <v>0.38</v>
@@ -40813,7 +40813,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ185" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR185" t="n">
         <v>1.85</v>
@@ -42990,7 +42990,7 @@
         <v>1.5</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ195" t="n">
         <v>1.46</v>
@@ -43647,7 +43647,7 @@
         <v>1</v>
       </c>
       <c r="AQ198" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AR198" t="n">
         <v>1.59</v>
@@ -43862,7 +43862,7 @@
         <v>0.89</v>
       </c>
       <c r="AP199" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ199" t="n">
         <v>1</v>
@@ -44298,7 +44298,7 @@
         <v>1</v>
       </c>
       <c r="AP201" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ201" t="n">
         <v>0.92</v>
@@ -44737,7 +44737,7 @@
         <v>1</v>
       </c>
       <c r="AQ203" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR203" t="n">
         <v>1.79</v>
@@ -44955,7 +44955,7 @@
         <v>2.62</v>
       </c>
       <c r="AQ204" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR204" t="n">
         <v>1.91</v>
@@ -46478,7 +46478,7 @@
         <v>0.91</v>
       </c>
       <c r="AP211" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ211" t="n">
         <v>0.85</v>
@@ -46699,7 +46699,7 @@
         <v>2.62</v>
       </c>
       <c r="AQ212" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AR212" t="n">
         <v>1.86</v>
@@ -47350,7 +47350,7 @@
         <v>1.55</v>
       </c>
       <c r="AP215" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ215" t="n">
         <v>1.29</v>
@@ -48225,7 +48225,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ219" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR219" t="n">
         <v>1.54</v>
@@ -49097,7 +49097,7 @@
         <v>1</v>
       </c>
       <c r="AQ223" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR223" t="n">
         <v>1.6</v>
@@ -49966,7 +49966,7 @@
         <v>0.8</v>
       </c>
       <c r="AP227" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ227" t="n">
         <v>0.67</v>
@@ -50620,7 +50620,7 @@
         <v>1</v>
       </c>
       <c r="AP230" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ230" t="n">
         <v>1</v>
@@ -51056,10 +51056,10 @@
         <v>1.67</v>
       </c>
       <c r="AP232" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ232" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AR232" t="n">
         <v>1.63</v>
@@ -51710,7 +51710,7 @@
         <v>0.45</v>
       </c>
       <c r="AP235" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ235" t="n">
         <v>0.38</v>
@@ -52364,7 +52364,7 @@
         <v>1.64</v>
       </c>
       <c r="AP238" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ238" t="n">
         <v>1.5</v>
@@ -53239,7 +53239,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ242" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR242" t="n">
         <v>1.8</v>
@@ -55277,6 +55277,660 @@
       </c>
       <c r="BP251" t="n">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" t="n">
+        <v>5406684</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E252" s="2" t="n">
+        <v>45206.66666666666</v>
+      </c>
+      <c r="F252" t="n">
+        <v>26</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Goiás</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="I252" t="n">
+        <v>3</v>
+      </c>
+      <c r="J252" t="n">
+        <v>3</v>
+      </c>
+      <c r="K252" t="n">
+        <v>6</v>
+      </c>
+      <c r="L252" t="n">
+        <v>4</v>
+      </c>
+      <c r="M252" t="n">
+        <v>6</v>
+      </c>
+      <c r="N252" t="n">
+        <v>10</v>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>['27', '45+2', '45+4', '50']</t>
+        </is>
+      </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>['15', '18', '37', '53', '56', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q252" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R252" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S252" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T252" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U252" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V252" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W252" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X252" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y252" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z252" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA252" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB252" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC252" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD252" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE252" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF252" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG252" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH252" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AI252" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ252" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK252" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL252" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM252" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN252" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO252" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP252" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AQ252" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR252" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS252" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT252" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU252" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV252" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW252" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX252" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY252" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ252" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA252" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB252" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC252" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD252" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BE252" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF252" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BG252" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH252" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BI252" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ252" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK252" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL252" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BM252" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN252" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BO252" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BP252" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" t="n">
+        <v>5406681</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E253" s="2" t="n">
+        <v>45206.77083333334</v>
+      </c>
+      <c r="F253" t="n">
+        <v>26</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>Vasco da Gama</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" t="n">
+        <v>0</v>
+      </c>
+      <c r="L253" t="n">
+        <v>0</v>
+      </c>
+      <c r="M253" t="n">
+        <v>0</v>
+      </c>
+      <c r="N253" t="n">
+        <v>0</v>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q253" t="n">
+        <v>3</v>
+      </c>
+      <c r="R253" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S253" t="n">
+        <v>4</v>
+      </c>
+      <c r="T253" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U253" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V253" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W253" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X253" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y253" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z253" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AA253" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB253" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AC253" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD253" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE253" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF253" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG253" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AH253" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AI253" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ253" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK253" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL253" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM253" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN253" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO253" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AP253" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AQ253" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR253" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AS253" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT253" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU253" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV253" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW253" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX253" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY253" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ253" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA253" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB253" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC253" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD253" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BE253" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF253" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BG253" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH253" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BI253" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ253" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK253" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL253" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BM253" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN253" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO253" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BP253" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B254" t="n">
+        <v>5406683</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E254" s="2" t="n">
+        <v>45206.875</v>
+      </c>
+      <c r="F254" t="n">
+        <v>26</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" t="n">
+        <v>0</v>
+      </c>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="n">
+        <v>1</v>
+      </c>
+      <c r="N254" t="n">
+        <v>2</v>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="Q254" t="n">
+        <v>4</v>
+      </c>
+      <c r="R254" t="n">
+        <v>2</v>
+      </c>
+      <c r="S254" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T254" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U254" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V254" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W254" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X254" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y254" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z254" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AA254" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB254" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AC254" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD254" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE254" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF254" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG254" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH254" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI254" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ254" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK254" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL254" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM254" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AN254" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO254" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AP254" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AQ254" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR254" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AS254" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT254" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AU254" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV254" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW254" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX254" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY254" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ254" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA254" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB254" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC254" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD254" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BE254" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF254" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BG254" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH254" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="BI254" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ254" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BK254" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL254" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BM254" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BN254" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BO254" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BP254" t="n">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP254"/>
+  <dimension ref="A1:BP260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.23</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.92</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ7" t="n">
         <v>0.85</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.77</v>
@@ -2445,7 +2445,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AQ12" t="n">
         <v>1</v>
@@ -3317,7 +3317,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.57</v>
@@ -5061,7 +5061,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -5494,7 +5494,7 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ23" t="n">
         <v>0.67</v>
@@ -5715,7 +5715,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR24" t="n">
         <v>1.18</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AQ26" t="n">
         <v>0.6899999999999999</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ27" t="n">
         <v>1</v>
@@ -6587,7 +6587,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AR28" t="n">
         <v>2.3</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ29" t="n">
         <v>0.92</v>
@@ -7023,7 +7023,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR30" t="n">
         <v>1.39</v>
@@ -7459,7 +7459,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AR32" t="n">
         <v>1.94</v>
@@ -7674,7 +7674,7 @@
         <v>3</v>
       </c>
       <c r="AP33" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AQ33" t="n">
         <v>0.77</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ36" t="n">
         <v>1.57</v>
@@ -8549,7 +8549,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AR37" t="n">
         <v>1.06</v>
@@ -8767,7 +8767,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR38" t="n">
         <v>1.68</v>
@@ -9636,7 +9636,7 @@
         <v>0</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ42" t="n">
         <v>1</v>
@@ -9857,7 +9857,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR43" t="n">
         <v>1.58</v>
@@ -10944,10 +10944,10 @@
         <v>1.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR48" t="n">
         <v>1.81</v>
@@ -11598,7 +11598,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ51" t="n">
         <v>0.5</v>
@@ -12034,7 +12034,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.23</v>
@@ -12252,10 +12252,10 @@
         <v>1</v>
       </c>
       <c r="AP54" t="n">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR54" t="n">
         <v>2.16</v>
@@ -12470,7 +12470,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.85</v>
@@ -12691,7 +12691,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ56" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AR56" t="n">
         <v>1.67</v>
@@ -13345,7 +13345,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AR59" t="n">
         <v>1.78</v>
@@ -13560,10 +13560,10 @@
         <v>0</v>
       </c>
       <c r="AP60" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AR60" t="n">
         <v>1.36</v>
@@ -16176,10 +16176,10 @@
         <v>1</v>
       </c>
       <c r="AP72" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR72" t="n">
         <v>1.83</v>
@@ -16394,7 +16394,7 @@
         <v>1.25</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.77</v>
@@ -16833,7 +16833,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AR75" t="n">
         <v>1.39</v>
@@ -17266,7 +17266,7 @@
         <v>1</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ77" t="n">
         <v>0.86</v>
@@ -17705,7 +17705,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AR79" t="n">
         <v>1.75</v>
@@ -17920,7 +17920,7 @@
         <v>1.67</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.29</v>
@@ -18141,7 +18141,7 @@
         <v>2.62</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR81" t="n">
         <v>1.84</v>
@@ -18356,7 +18356,7 @@
         <v>0.75</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ82" t="n">
         <v>0.86</v>
@@ -19010,10 +19010,10 @@
         <v>2</v>
       </c>
       <c r="AP85" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AR85" t="n">
         <v>1.85</v>
@@ -19664,10 +19664,10 @@
         <v>1</v>
       </c>
       <c r="AP88" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR88" t="n">
         <v>2.04</v>
@@ -20100,10 +20100,10 @@
         <v>0.25</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AQ90" t="n">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AR90" t="n">
         <v>2.25</v>
@@ -20539,7 +20539,7 @@
         <v>1</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AR92" t="n">
         <v>1.65</v>
@@ -21190,10 +21190,10 @@
         <v>0.75</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR95" t="n">
         <v>1.8</v>
@@ -21844,7 +21844,7 @@
         <v>1</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ98" t="n">
         <v>0.77</v>
@@ -22283,7 +22283,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR100" t="n">
         <v>2.19</v>
@@ -23370,7 +23370,7 @@
         <v>2</v>
       </c>
       <c r="AP105" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AQ105" t="n">
         <v>1.46</v>
@@ -23809,7 +23809,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR107" t="n">
         <v>1.79</v>
@@ -24463,7 +24463,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AR110" t="n">
         <v>1.37</v>
@@ -24896,7 +24896,7 @@
         <v>0.5</v>
       </c>
       <c r="AP112" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ112" t="n">
         <v>0.6899999999999999</v>
@@ -25114,7 +25114,7 @@
         <v>1.83</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ113" t="n">
         <v>1.46</v>
@@ -25332,7 +25332,7 @@
         <v>0.8</v>
       </c>
       <c r="AP114" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AQ114" t="n">
         <v>0.86</v>
@@ -25771,7 +25771,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AR116" t="n">
         <v>1.97</v>
@@ -25986,10 +25986,10 @@
         <v>1.8</v>
       </c>
       <c r="AP117" t="n">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AR117" t="n">
         <v>2.21</v>
@@ -27297,7 +27297,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR123" t="n">
         <v>1.68</v>
@@ -27730,7 +27730,7 @@
         <v>1.6</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ125" t="n">
         <v>1.33</v>
@@ -27951,7 +27951,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR126" t="n">
         <v>1.81</v>
@@ -28166,10 +28166,10 @@
         <v>0.2</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ127" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR127" t="n">
         <v>1.78</v>
@@ -28384,7 +28384,7 @@
         <v>1.5</v>
       </c>
       <c r="AP128" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ128" t="n">
         <v>1.29</v>
@@ -28823,7 +28823,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ130" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AR130" t="n">
         <v>1.62</v>
@@ -29041,7 +29041,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ131" t="n">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AR131" t="n">
         <v>1.72</v>
@@ -29692,7 +29692,7 @@
         <v>0.43</v>
       </c>
       <c r="AP134" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ134" t="n">
         <v>0.6899999999999999</v>
@@ -29913,7 +29913,7 @@
         <v>1</v>
       </c>
       <c r="AQ135" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR135" t="n">
         <v>1.72</v>
@@ -30128,7 +30128,7 @@
         <v>1.5</v>
       </c>
       <c r="AP136" t="n">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.57</v>
@@ -30564,7 +30564,7 @@
         <v>1.14</v>
       </c>
       <c r="AP138" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AQ138" t="n">
         <v>0.85</v>
@@ -31000,7 +31000,7 @@
         <v>0.67</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ140" t="n">
         <v>1</v>
@@ -31221,7 +31221,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AR141" t="n">
         <v>1.98</v>
@@ -31439,7 +31439,7 @@
         <v>2.62</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR142" t="n">
         <v>1.98</v>
@@ -31657,7 +31657,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ143" t="n">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AR143" t="n">
         <v>1.72</v>
@@ -31872,7 +31872,7 @@
         <v>1.43</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ144" t="n">
         <v>1.23</v>
@@ -32090,7 +32090,7 @@
         <v>1.43</v>
       </c>
       <c r="AP145" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AQ145" t="n">
         <v>1.57</v>
@@ -32311,7 +32311,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ146" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AR146" t="n">
         <v>1.84</v>
@@ -32526,7 +32526,7 @@
         <v>1.43</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ147" t="n">
         <v>1.29</v>
@@ -32744,7 +32744,7 @@
         <v>0.71</v>
       </c>
       <c r="AP148" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ148" t="n">
         <v>0.86</v>
@@ -33183,7 +33183,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ150" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR150" t="n">
         <v>1.94</v>
@@ -33398,7 +33398,7 @@
         <v>1.14</v>
       </c>
       <c r="AP151" t="n">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AQ151" t="n">
         <v>1.17</v>
@@ -34273,7 +34273,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AR155" t="n">
         <v>1.55</v>
@@ -35360,7 +35360,7 @@
         <v>1.71</v>
       </c>
       <c r="AP160" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ160" t="n">
         <v>1.33</v>
@@ -35578,7 +35578,7 @@
         <v>1.63</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ161" t="n">
         <v>1.23</v>
@@ -35796,10 +35796,10 @@
         <v>0.57</v>
       </c>
       <c r="AP162" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AQ162" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AR162" t="n">
         <v>1.88</v>
@@ -36232,10 +36232,10 @@
         <v>1</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR164" t="n">
         <v>1.93</v>
@@ -36450,7 +36450,7 @@
         <v>1.38</v>
       </c>
       <c r="AP165" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ165" t="n">
         <v>1.57</v>
@@ -36889,7 +36889,7 @@
         <v>2.62</v>
       </c>
       <c r="AQ167" t="n">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AR167" t="n">
         <v>1.88</v>
@@ -37325,7 +37325,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ169" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR169" t="n">
         <v>1.77</v>
@@ -37758,7 +37758,7 @@
         <v>0.78</v>
       </c>
       <c r="AP171" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ171" t="n">
         <v>0.6899999999999999</v>
@@ -38194,7 +38194,7 @@
         <v>1.56</v>
       </c>
       <c r="AP173" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AQ173" t="n">
         <v>1.29</v>
@@ -38415,7 +38415,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ174" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR174" t="n">
         <v>1.79</v>
@@ -38851,7 +38851,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AR176" t="n">
         <v>1.68</v>
@@ -39069,7 +39069,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ177" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR177" t="n">
         <v>1.67</v>
@@ -39287,7 +39287,7 @@
         <v>1</v>
       </c>
       <c r="AQ178" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR178" t="n">
         <v>1.63</v>
@@ -39938,7 +39938,7 @@
         <v>0.67</v>
       </c>
       <c r="AP181" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ181" t="n">
         <v>0.86</v>
@@ -40377,7 +40377,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ183" t="n">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AR183" t="n">
         <v>1.7</v>
@@ -41028,10 +41028,10 @@
         <v>0.5</v>
       </c>
       <c r="AP186" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ186" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AR186" t="n">
         <v>1.82</v>
@@ -41246,7 +41246,7 @@
         <v>1.63</v>
       </c>
       <c r="AP187" t="n">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AQ187" t="n">
         <v>1.33</v>
@@ -41682,7 +41682,7 @@
         <v>1.78</v>
       </c>
       <c r="AP189" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ189" t="n">
         <v>1.23</v>
@@ -41900,7 +41900,7 @@
         <v>0.89</v>
       </c>
       <c r="AP190" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ190" t="n">
         <v>1.17</v>
@@ -42121,7 +42121,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ191" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AR191" t="n">
         <v>1.96</v>
@@ -42204,7 +42204,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>5406629</v>
+        <v>5406620</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -42224,197 +42224,197 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>Cuiabá</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>América Mineiro</t>
         </is>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
       <c r="J192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L192" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N192" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['58', '65', '89']</t>
         </is>
       </c>
       <c r="P192" t="inlineStr">
         <is>
-          <t>['31', '66']</t>
+          <t>['52']</t>
         </is>
       </c>
       <c r="Q192" t="n">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="R192" t="n">
-        <v>1.91</v>
+        <v>2.38</v>
       </c>
       <c r="S192" t="n">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="T192" t="n">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="U192" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="V192" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="W192" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X192" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD192" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AI192" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ192" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AL192" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN192" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AO192" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AP192" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AQ192" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AR192" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AS192" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT192" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AU192" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW192" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX192" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY192" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ192" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA192" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB192" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC192" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD192" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BE192" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF192" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BG192" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH192" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BI192" t="n">
         <v>1.25</v>
       </c>
-      <c r="X192" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y192" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Z192" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="AA192" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AB192" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AC192" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AD192" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE192" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AF192" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AG192" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="AH192" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AI192" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AJ192" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AK192" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AL192" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AM192" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AN192" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AO192" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AP192" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AQ192" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AR192" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AS192" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AT192" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="AU192" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV192" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW192" t="n">
-        <v>11</v>
-      </c>
-      <c r="AX192" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY192" t="n">
-        <v>14</v>
-      </c>
-      <c r="AZ192" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA192" t="n">
-        <v>9</v>
-      </c>
-      <c r="BB192" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC192" t="n">
-        <v>11</v>
-      </c>
-      <c r="BD192" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="BE192" t="n">
-        <v>8</v>
-      </c>
-      <c r="BF192" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="BG192" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="BH192" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="BI192" t="n">
-        <v>1.35</v>
-      </c>
       <c r="BJ192" t="n">
-        <v>2.84</v>
+        <v>3.25</v>
       </c>
       <c r="BK192" t="n">
-        <v>1.83</v>
+        <v>1.46</v>
       </c>
       <c r="BL192" t="n">
-        <v>2.14</v>
+        <v>2.43</v>
       </c>
       <c r="BM192" t="n">
-        <v>2.06</v>
+        <v>1.76</v>
       </c>
       <c r="BN192" t="n">
-        <v>1.71</v>
+        <v>1.93</v>
       </c>
       <c r="BO192" t="n">
-        <v>2.69</v>
+        <v>2.15</v>
       </c>
       <c r="BP192" t="n">
-        <v>1.41</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="193">
@@ -42422,7 +42422,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>5406620</v>
+        <v>5406629</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -42442,197 +42442,197 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Cuiabá</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>América Mineiro</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
       <c r="J193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L193" t="n">
+        <v>0</v>
+      </c>
+      <c r="M193" t="n">
+        <v>2</v>
+      </c>
+      <c r="N193" t="n">
+        <v>2</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>['31', '66']</t>
+        </is>
+      </c>
+      <c r="Q193" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R193" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S193" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T193" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U193" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V193" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W193" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X193" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD193" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE193" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI193" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ193" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK193" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL193" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM193" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AN193" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO193" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP193" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ193" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR193" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS193" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT193" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AU193" t="n">
         <v>3</v>
       </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="n">
-        <v>4</v>
-      </c>
-      <c r="O193" t="inlineStr">
-        <is>
-          <t>['58', '65', '89']</t>
-        </is>
-      </c>
-      <c r="P193" t="inlineStr">
-        <is>
-          <t>['52']</t>
-        </is>
-      </c>
-      <c r="Q193" t="n">
-        <v>2</v>
-      </c>
-      <c r="R193" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="S193" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="T193" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U193" t="n">
-        <v>3</v>
-      </c>
-      <c r="V193" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W193" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X193" t="n">
+      <c r="AV193" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW193" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX193" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY193" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ193" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA193" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB193" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC193" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD193" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE193" t="n">
         <v>8</v>
       </c>
-      <c r="Y193" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Z193" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AA193" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AB193" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AC193" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AD193" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE193" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AF193" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AG193" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AH193" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="AI193" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AJ193" t="n">
+      <c r="BF193" t="n">
         <v>1.8</v>
       </c>
-      <c r="AK193" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AL193" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AM193" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AN193" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AO193" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AP193" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AQ193" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AR193" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AS193" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AT193" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="AU193" t="n">
-        <v>6</v>
-      </c>
-      <c r="AV193" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW193" t="n">
-        <v>15</v>
-      </c>
-      <c r="AX193" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY193" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ193" t="n">
-        <v>14</v>
-      </c>
-      <c r="BA193" t="n">
-        <v>7</v>
-      </c>
-      <c r="BB193" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC193" t="n">
-        <v>8</v>
-      </c>
-      <c r="BD193" t="n">
+      <c r="BG193" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH193" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI193" t="n">
         <v>1.35</v>
       </c>
-      <c r="BE193" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="BF193" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="BG193" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="BH193" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="BI193" t="n">
-        <v>1.25</v>
-      </c>
       <c r="BJ193" t="n">
-        <v>3.25</v>
+        <v>2.84</v>
       </c>
       <c r="BK193" t="n">
-        <v>1.46</v>
+        <v>1.83</v>
       </c>
       <c r="BL193" t="n">
-        <v>2.43</v>
+        <v>2.14</v>
       </c>
       <c r="BM193" t="n">
-        <v>1.76</v>
+        <v>2.06</v>
       </c>
       <c r="BN193" t="n">
-        <v>1.93</v>
+        <v>1.71</v>
       </c>
       <c r="BO193" t="n">
-        <v>2.15</v>
+        <v>2.69</v>
       </c>
       <c r="BP193" t="n">
-        <v>1.58</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="194">
@@ -43211,7 +43211,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ196" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR196" t="n">
         <v>1.47</v>
@@ -43294,7 +43294,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>5406628</v>
+        <v>5406627</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -43314,62 +43314,62 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="I197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K197" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L197" t="n">
+        <v>2</v>
+      </c>
+      <c r="M197" t="n">
+        <v>3</v>
+      </c>
+      <c r="N197" t="n">
+        <v>5</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>['15', '46']</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>['19', '31', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q197" t="n">
         <v>4</v>
       </c>
-      <c r="M197" t="n">
-        <v>0</v>
-      </c>
-      <c r="N197" t="n">
-        <v>4</v>
-      </c>
-      <c r="O197" t="inlineStr">
-        <is>
-          <t>['9', '38', '60', '84']</t>
-        </is>
-      </c>
-      <c r="P197" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="Q197" t="n">
-        <v>3.1</v>
-      </c>
       <c r="R197" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S197" t="n">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="T197" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U197" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V197" t="n">
+        <v>3</v>
+      </c>
+      <c r="W197" t="n">
         <v>1.36</v>
-      </c>
-      <c r="U197" t="n">
-        <v>3</v>
-      </c>
-      <c r="V197" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W197" t="n">
-        <v>1.4</v>
       </c>
       <c r="X197" t="n">
         <v>8</v>
@@ -43378,13 +43378,13 @@
         <v>1.08</v>
       </c>
       <c r="Z197" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="AA197" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AB197" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="AC197" t="n">
         <v>1.05</v>
@@ -43399,10 +43399,10 @@
         <v>3.3</v>
       </c>
       <c r="AG197" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AH197" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AI197" t="n">
         <v>1.8</v>
@@ -43411,100 +43411,100 @@
         <v>1.95</v>
       </c>
       <c r="AK197" t="n">
-        <v>1.52</v>
+        <v>1.72</v>
       </c>
       <c r="AL197" t="n">
         <v>1.25</v>
       </c>
       <c r="AM197" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AN197" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO197" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AP197" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ197" t="n">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="AR197" t="n">
-        <v>1.76</v>
+        <v>1.59</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.56</v>
+        <v>1.38</v>
       </c>
       <c r="AT197" t="n">
-        <v>3.32</v>
+        <v>2.97</v>
       </c>
       <c r="AU197" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AV197" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW197" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AX197" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AY197" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ197" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BA197" t="n">
         <v>4</v>
       </c>
       <c r="BB197" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BC197" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BD197" t="n">
-        <v>1.94</v>
+        <v>2.16</v>
       </c>
       <c r="BE197" t="n">
         <v>8</v>
       </c>
       <c r="BF197" t="n">
-        <v>2.1</v>
+        <v>1.89</v>
       </c>
       <c r="BG197" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="BH197" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="BI197" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="BJ197" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="BK197" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="BL197" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="BM197" t="n">
         <v>1.75</v>
       </c>
       <c r="BN197" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="BO197" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="BP197" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="198">
@@ -43512,7 +43512,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="n">
-        <v>5406627</v>
+        <v>5406628</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -43532,62 +43532,62 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K198" t="n">
+        <v>2</v>
+      </c>
+      <c r="L198" t="n">
+        <v>4</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0</v>
+      </c>
+      <c r="N198" t="n">
+        <v>4</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>['9', '38', '60', '84']</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q198" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R198" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S198" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T198" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U198" t="n">
         <v>3</v>
       </c>
-      <c r="L198" t="n">
-        <v>2</v>
-      </c>
-      <c r="M198" t="n">
-        <v>3</v>
-      </c>
-      <c r="N198" t="n">
-        <v>5</v>
-      </c>
-      <c r="O198" t="inlineStr">
-        <is>
-          <t>['15', '46']</t>
-        </is>
-      </c>
-      <c r="P198" t="inlineStr">
-        <is>
-          <t>['19', '31', '90+4']</t>
-        </is>
-      </c>
-      <c r="Q198" t="n">
-        <v>4</v>
-      </c>
-      <c r="R198" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S198" t="n">
+      <c r="V198" t="n">
         <v>2.75</v>
       </c>
-      <c r="T198" t="n">
+      <c r="W198" t="n">
         <v>1.4</v>
-      </c>
-      <c r="U198" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V198" t="n">
-        <v>3</v>
-      </c>
-      <c r="W198" t="n">
-        <v>1.36</v>
       </c>
       <c r="X198" t="n">
         <v>8</v>
@@ -43596,13 +43596,13 @@
         <v>1.08</v>
       </c>
       <c r="Z198" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="AA198" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AB198" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="AC198" t="n">
         <v>1.05</v>
@@ -43617,10 +43617,10 @@
         <v>3.3</v>
       </c>
       <c r="AG198" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AH198" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AI198" t="n">
         <v>1.8</v>
@@ -43629,100 +43629,100 @@
         <v>1.95</v>
       </c>
       <c r="AK198" t="n">
-        <v>1.72</v>
+        <v>1.52</v>
       </c>
       <c r="AL198" t="n">
         <v>1.25</v>
       </c>
       <c r="AM198" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN198" t="n">
         <v>1.33</v>
       </c>
-      <c r="AN198" t="n">
-        <v>1</v>
-      </c>
       <c r="AO198" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AP198" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ198" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR198" t="n">
-        <v>1.59</v>
+        <v>1.76</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT198" t="n">
-        <v>2.97</v>
+        <v>3.32</v>
       </c>
       <c r="AU198" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AV198" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW198" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AX198" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY198" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ198" t="n">
         <v>12</v>
-      </c>
-      <c r="AY198" t="n">
-        <v>16</v>
-      </c>
-      <c r="AZ198" t="n">
-        <v>18</v>
       </c>
       <c r="BA198" t="n">
         <v>4</v>
       </c>
       <c r="BB198" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BC198" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD198" t="n">
-        <v>2.16</v>
+        <v>1.94</v>
       </c>
       <c r="BE198" t="n">
         <v>8</v>
       </c>
       <c r="BF198" t="n">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="BG198" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="BH198" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="BI198" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="BJ198" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="BK198" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="BL198" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="BM198" t="n">
         <v>1.75</v>
       </c>
       <c r="BN198" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="BO198" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="BP198" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="199">
@@ -44602,7 +44602,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="n">
-        <v>5406639</v>
+        <v>5406635</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -44622,50 +44622,50 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>América Mineiro</t>
+          <t>Atlético Mineiro</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203" t="n">
         <v>0</v>
       </c>
       <c r="K203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L203" t="n">
         <v>2</v>
       </c>
       <c r="M203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N203" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>['61', '90']</t>
+          <t>['12', '67']</t>
         </is>
       </c>
       <c r="P203" t="inlineStr">
         <is>
-          <t>['81']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q203" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="R203" t="n">
         <v>2.1</v>
       </c>
       <c r="S203" t="n">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="T203" t="n">
         <v>1.5</v>
@@ -44674,10 +44674,10 @@
         <v>2.5</v>
       </c>
       <c r="V203" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W203" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X203" t="n">
         <v>10</v>
@@ -44686,109 +44686,109 @@
         <v>1.06</v>
       </c>
       <c r="Z203" t="n">
-        <v>2.9</v>
+        <v>1.57</v>
       </c>
       <c r="AA203" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="AB203" t="n">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="AC203" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="AD203" t="n">
-        <v>8.9</v>
+        <v>7.2</v>
       </c>
       <c r="AE203" t="n">
         <v>1.41</v>
       </c>
       <c r="AF203" t="n">
-        <v>2.95</v>
+        <v>2.64</v>
       </c>
       <c r="AG203" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AH203" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="AI203" t="n">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="AJ203" t="n">
-        <v>1.95</v>
+        <v>1.57</v>
       </c>
       <c r="AK203" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="AL203" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AN203" t="n">
         <v>1.33</v>
       </c>
-      <c r="AM203" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AN203" t="n">
-        <v>0.78</v>
-      </c>
       <c r="AO203" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="AP203" t="n">
-        <v>1</v>
+        <v>1.62</v>
       </c>
       <c r="AQ203" t="n">
-        <v>0.5</v>
+        <v>0.77</v>
       </c>
       <c r="AR203" t="n">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.43</v>
+        <v>1.03</v>
       </c>
       <c r="AT203" t="n">
-        <v>3.22</v>
+        <v>2.71</v>
       </c>
       <c r="AU203" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV203" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AW203" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AX203" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AY203" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AZ203" t="n">
         <v>14</v>
       </c>
       <c r="BA203" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF203" t="n">
         <v>4</v>
       </c>
-      <c r="BB203" t="n">
-        <v>6</v>
-      </c>
-      <c r="BC203" t="n">
-        <v>10</v>
-      </c>
-      <c r="BD203" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BE203" t="n">
-        <v>8</v>
-      </c>
-      <c r="BF203" t="n">
-        <v>1.94</v>
-      </c>
       <c r="BG203" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="BH203" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="BI203" t="n">
         <v>1.37</v>
@@ -44797,22 +44797,22 @@
         <v>2.7</v>
       </c>
       <c r="BK203" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="BL203" t="n">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="BM203" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="BN203" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="BO203" t="n">
         <v>2.55</v>
       </c>
       <c r="BP203" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="204">
@@ -44820,7 +44820,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="n">
-        <v>5406631</v>
+        <v>5406639</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -44840,197 +44840,197 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>Botafogo</t>
+          <t>América Mineiro</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>São Paulo</t>
         </is>
       </c>
       <c r="I204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J204" t="n">
         <v>0</v>
       </c>
       <c r="K204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N204" t="n">
         <v>3</v>
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>['4', '52', '76']</t>
+          <t>['61', '90']</t>
         </is>
       </c>
       <c r="P204" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['81']</t>
         </is>
       </c>
       <c r="Q204" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R204" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S204" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T204" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U204" t="n">
         <v>2.5</v>
       </c>
-      <c r="R204" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S204" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="T204" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U204" t="n">
-        <v>2.63</v>
-      </c>
       <c r="V204" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="W204" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="X204" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y204" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="Z204" t="n">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="AA204" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="AB204" t="n">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="AC204" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="AD204" t="n">
-        <v>8.4</v>
+        <v>8.9</v>
       </c>
       <c r="AE204" t="n">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="AF204" t="n">
-        <v>3.04</v>
+        <v>2.95</v>
       </c>
       <c r="AG204" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AH204" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI204" t="n">
         <v>1.8</v>
       </c>
-      <c r="AI204" t="n">
-        <v>1.91</v>
-      </c>
       <c r="AJ204" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AK204" t="n">
-        <v>1.12</v>
+        <v>1.5</v>
       </c>
       <c r="AL204" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AM204" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="AN204" t="n">
-        <v>3</v>
+        <v>0.78</v>
       </c>
       <c r="AO204" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP204" t="n">
-        <v>2.62</v>
+        <v>1</v>
       </c>
       <c r="AQ204" t="n">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="AR204" t="n">
-        <v>1.91</v>
+        <v>1.79</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
       <c r="AT204" t="n">
-        <v>3.25</v>
+        <v>3.22</v>
       </c>
       <c r="AU204" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV204" t="n">
         <v>6</v>
-      </c>
-      <c r="AV204" t="n">
-        <v>7</v>
       </c>
       <c r="AW204" t="n">
         <v>5</v>
       </c>
       <c r="AX204" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AY204" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ204" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="BA204" t="n">
         <v>4</v>
       </c>
       <c r="BB204" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC204" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD204" t="n">
-        <v>1.82</v>
+        <v>2.1</v>
       </c>
       <c r="BE204" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BF204" t="n">
-        <v>2.45</v>
+        <v>1.94</v>
       </c>
       <c r="BG204" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="BH204" t="n">
-        <v>4.5</v>
+        <v>3.85</v>
       </c>
       <c r="BI204" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="BJ204" t="n">
-        <v>3.04</v>
+        <v>2.7</v>
       </c>
       <c r="BK204" t="n">
         <v>1.91</v>
       </c>
       <c r="BL204" t="n">
-        <v>2.27</v>
+        <v>2.06</v>
       </c>
       <c r="BM204" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="BN204" t="n">
-        <v>1.81</v>
+        <v>1.66</v>
       </c>
       <c r="BO204" t="n">
-        <v>2.43</v>
+        <v>2.55</v>
       </c>
       <c r="BP204" t="n">
-        <v>1.54</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="205">
@@ -45038,7 +45038,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="n">
-        <v>5406635</v>
+        <v>5406631</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -45058,12 +45058,12 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>Atlético Mineiro</t>
+          <t>Botafogo</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="I205" t="n">
@@ -45076,17 +45076,17 @@
         <v>1</v>
       </c>
       <c r="L205" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M205" t="n">
         <v>0</v>
       </c>
       <c r="N205" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>['12', '67']</t>
+          <t>['4', '52', '76']</t>
         </is>
       </c>
       <c r="P205" t="inlineStr">
@@ -45095,160 +45095,160 @@
         </is>
       </c>
       <c r="Q205" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="R205" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S205" t="n">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="T205" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U205" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V205" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="W205" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="X205" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y205" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="Z205" t="n">
-        <v>1.57</v>
+        <v>1.85</v>
       </c>
       <c r="AA205" t="n">
         <v>3.6</v>
       </c>
       <c r="AB205" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV205" t="n">
         <v>7</v>
       </c>
-      <c r="AC205" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AD205" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AE205" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AF205" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="AG205" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AH205" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AI205" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AJ205" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AK205" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AL205" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AM205" t="n">
+      <c r="AW205" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF205" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BG205" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH205" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI205" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ205" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BK205" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL205" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BM205" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN205" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BO205" t="n">
         <v>2.43</v>
       </c>
-      <c r="AN205" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AO205" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AP205" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AQ205" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AR205" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AS205" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AT205" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="AU205" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV205" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW205" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX205" t="n">
-        <v>14</v>
-      </c>
-      <c r="AY205" t="n">
-        <v>16</v>
-      </c>
-      <c r="AZ205" t="n">
-        <v>14</v>
-      </c>
-      <c r="BA205" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB205" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC205" t="n">
-        <v>7</v>
-      </c>
-      <c r="BD205" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="BE205" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="BF205" t="n">
-        <v>4</v>
-      </c>
-      <c r="BG205" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="BH205" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="BI205" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="BJ205" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="BK205" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BL205" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="BM205" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="BN205" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="BO205" t="n">
-        <v>2.55</v>
-      </c>
       <c r="BP205" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="206">
@@ -45256,7 +45256,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="n">
-        <v>5406638</v>
+        <v>5406632</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -45276,50 +45276,50 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
       <c r="I206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J206" t="n">
         <v>0</v>
       </c>
       <c r="K206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L206" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N206" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>['42', '45+4', '60']</t>
+          <t>['65']</t>
         </is>
       </c>
       <c r="P206" t="inlineStr">
         <is>
-          <t>['68']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q206" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="R206" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S206" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="T206" t="n">
         <v>1.4</v>
@@ -45328,10 +45328,10 @@
         <v>2.75</v>
       </c>
       <c r="V206" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W206" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X206" t="n">
         <v>8</v>
@@ -45340,31 +45340,31 @@
         <v>1.08</v>
       </c>
       <c r="Z206" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AA206" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AB206" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AC206" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="AD206" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AE206" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AF206" t="n">
-        <v>3.08</v>
+        <v>3.2</v>
       </c>
       <c r="AG206" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="AH206" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AI206" t="n">
         <v>2</v>
@@ -45373,100 +45373,100 @@
         <v>1.75</v>
       </c>
       <c r="AK206" t="n">
-        <v>1.12</v>
+        <v>1.03</v>
       </c>
       <c r="AL206" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AM206" t="n">
-        <v>2.4</v>
+        <v>2.65</v>
       </c>
       <c r="AN206" t="n">
-        <v>1.8</v>
+        <v>2.22</v>
       </c>
       <c r="AO206" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AP206" t="n">
-        <v>1.92</v>
+        <v>2.17</v>
       </c>
       <c r="AQ206" t="n">
-        <v>0.38</v>
+        <v>0.77</v>
       </c>
       <c r="AR206" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT206" t="n">
-        <v>3.23</v>
+        <v>3.3</v>
       </c>
       <c r="AU206" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV206" t="n">
         <v>3</v>
       </c>
       <c r="AW206" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX206" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AY206" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ206" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA206" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB206" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC206" t="n">
         <v>11</v>
       </c>
-      <c r="BA206" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB206" t="n">
-        <v>3</v>
-      </c>
-      <c r="BC206" t="n">
-        <v>5</v>
-      </c>
       <c r="BD206" t="n">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="BE206" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BF206" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="BG206" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="BH206" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="BI206" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="BJ206" t="n">
-        <v>2.85</v>
+        <v>3.15</v>
       </c>
       <c r="BK206" t="n">
-        <v>1.58</v>
+        <v>1.48</v>
       </c>
       <c r="BL206" t="n">
-        <v>2.17</v>
+        <v>2.35</v>
       </c>
       <c r="BM206" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="BN206" t="n">
-        <v>1.74</v>
+        <v>1.89</v>
       </c>
       <c r="BO206" t="n">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="BP206" t="n">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="207">
@@ -45474,7 +45474,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="n">
-        <v>5406632</v>
+        <v>5406637</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -45494,95 +45494,95 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Atlético PR</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J207" t="n">
         <v>0</v>
       </c>
       <c r="K207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N207" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>['65']</t>
+          <t>['13', '90+3']</t>
         </is>
       </c>
       <c r="P207" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['76', '87']</t>
         </is>
       </c>
       <c r="Q207" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="R207" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="S207" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="T207" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U207" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V207" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W207" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X207" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB207" t="n">
         <v>2.75</v>
       </c>
-      <c r="V207" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W207" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X207" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y207" t="n">
+      <c r="AC207" t="n">
         <v>1.08</v>
       </c>
-      <c r="Z207" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA207" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB207" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AC207" t="n">
-        <v>1.05</v>
-      </c>
       <c r="AD207" t="n">
-        <v>8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AE207" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="AF207" t="n">
-        <v>3.2</v>
+        <v>3.02</v>
       </c>
       <c r="AG207" t="n">
-        <v>2.05</v>
+        <v>2.28</v>
       </c>
       <c r="AH207" t="n">
-        <v>1.8</v>
+        <v>1.56</v>
       </c>
       <c r="AI207" t="n">
         <v>2</v>
@@ -45591,100 +45591,100 @@
         <v>1.75</v>
       </c>
       <c r="AK207" t="n">
-        <v>1.03</v>
+        <v>1.25</v>
       </c>
       <c r="AL207" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AM207" t="n">
-        <v>2.65</v>
+        <v>1.85</v>
       </c>
       <c r="AN207" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AO207" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AP207" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AQ207" t="n">
         <v>0.67</v>
       </c>
-      <c r="AP207" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="AQ207" t="n">
-        <v>0.77</v>
-      </c>
       <c r="AR207" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.41</v>
+        <v>1.62</v>
       </c>
       <c r="AT207" t="n">
-        <v>3.3</v>
+        <v>3.56</v>
       </c>
       <c r="AU207" t="n">
         <v>6</v>
       </c>
       <c r="AV207" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AW207" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX207" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ207" t="n">
+        <v>24</v>
+      </c>
+      <c r="BA207" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB207" t="n">
         <v>8</v>
       </c>
-      <c r="AX207" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY207" t="n">
-        <v>14</v>
-      </c>
-      <c r="AZ207" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA207" t="n">
-        <v>9</v>
-      </c>
-      <c r="BB207" t="n">
-        <v>2</v>
-      </c>
       <c r="BC207" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD207" t="n">
-        <v>1.34</v>
+        <v>1.64</v>
       </c>
       <c r="BE207" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="BF207" t="n">
-        <v>4</v>
+        <v>2.78</v>
       </c>
       <c r="BG207" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="BH207" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="BI207" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="BJ207" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="BK207" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="BL207" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="BM207" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="BN207" t="n">
-        <v>1.89</v>
+        <v>2.01</v>
       </c>
       <c r="BO207" t="n">
-        <v>2.2</v>
+        <v>2.17</v>
       </c>
       <c r="BP207" t="n">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="208">
@@ -45692,7 +45692,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="n">
-        <v>5406637</v>
+        <v>5406638</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -45712,95 +45712,95 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>Atlético PR</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="I208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J208" t="n">
         <v>0</v>
       </c>
       <c r="K208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L208" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N208" t="n">
         <v>4</v>
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>['13', '90+3']</t>
+          <t>['42', '45+4', '60']</t>
         </is>
       </c>
       <c r="P208" t="inlineStr">
         <is>
-          <t>['76', '87']</t>
+          <t>['68']</t>
         </is>
       </c>
       <c r="Q208" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="R208" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S208" t="n">
+        <v>6</v>
+      </c>
+      <c r="T208" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U208" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V208" t="n">
+        <v>3</v>
+      </c>
+      <c r="W208" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X208" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB208" t="n">
         <v>5.5</v>
       </c>
-      <c r="T208" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U208" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V208" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W208" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X208" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y208" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Z208" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AA208" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AB208" t="n">
-        <v>2.75</v>
-      </c>
       <c r="AC208" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="AD208" t="n">
-        <v>9.300000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AE208" t="n">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="AF208" t="n">
-        <v>3.02</v>
+        <v>3.08</v>
       </c>
       <c r="AG208" t="n">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="AH208" t="n">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="AI208" t="n">
         <v>2</v>
@@ -45809,100 +45809,100 @@
         <v>1.75</v>
       </c>
       <c r="AK208" t="n">
-        <v>1.25</v>
+        <v>1.12</v>
       </c>
       <c r="AL208" t="n">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="AM208" t="n">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="AN208" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="AO208" t="n">
-        <v>0.78</v>
+        <v>0.5</v>
       </c>
       <c r="AP208" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AQ208" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR208" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.62</v>
+        <v>1.31</v>
       </c>
       <c r="AT208" t="n">
-        <v>3.56</v>
+        <v>3.23</v>
       </c>
       <c r="AU208" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW208" t="n">
         <v>6</v>
       </c>
-      <c r="AV208" t="n">
-        <v>11</v>
-      </c>
-      <c r="AW208" t="n">
-        <v>7</v>
-      </c>
       <c r="AX208" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AY208" t="n">
         <v>13</v>
       </c>
       <c r="AZ208" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="BA208" t="n">
         <v>2</v>
       </c>
       <c r="BB208" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BC208" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BD208" t="n">
-        <v>1.64</v>
+        <v>1.42</v>
       </c>
       <c r="BE208" t="n">
-        <v>9.9</v>
+        <v>9</v>
       </c>
       <c r="BF208" t="n">
-        <v>2.78</v>
+        <v>3.45</v>
       </c>
       <c r="BG208" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="BH208" t="n">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="BI208" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="BJ208" t="n">
-        <v>3.5</v>
+        <v>2.85</v>
       </c>
       <c r="BK208" t="n">
-        <v>1.46</v>
+        <v>1.58</v>
       </c>
       <c r="BL208" t="n">
-        <v>2.5</v>
+        <v>2.17</v>
       </c>
       <c r="BM208" t="n">
-        <v>1.79</v>
+        <v>1.95</v>
       </c>
       <c r="BN208" t="n">
-        <v>2.01</v>
+        <v>1.74</v>
       </c>
       <c r="BO208" t="n">
-        <v>2.17</v>
+        <v>2.45</v>
       </c>
       <c r="BP208" t="n">
-        <v>1.68</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="209">
@@ -46260,7 +46260,7 @@
         <v>1.36</v>
       </c>
       <c r="AP210" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ210" t="n">
         <v>1.46</v>
@@ -47132,7 +47132,7 @@
         <v>1.1</v>
       </c>
       <c r="AP214" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AQ214" t="n">
         <v>1.17</v>
@@ -47789,7 +47789,7 @@
         <v>1</v>
       </c>
       <c r="AQ217" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AR217" t="n">
         <v>1.73</v>
@@ -48007,7 +48007,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ218" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR218" t="n">
         <v>1.71</v>
@@ -48222,7 +48222,7 @@
         <v>0.5</v>
       </c>
       <c r="AP219" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ219" t="n">
         <v>0.5</v>
@@ -48658,7 +48658,7 @@
         <v>0.82</v>
       </c>
       <c r="AP221" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ221" t="n">
         <v>0.6899999999999999</v>
@@ -49315,7 +49315,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ224" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR224" t="n">
         <v>2.13</v>
@@ -49533,7 +49533,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ225" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR225" t="n">
         <v>1.62</v>
@@ -49748,7 +49748,7 @@
         <v>1</v>
       </c>
       <c r="AP226" t="n">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AQ226" t="n">
         <v>0.92</v>
@@ -50184,10 +50184,10 @@
         <v>1.8</v>
       </c>
       <c r="AP228" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ228" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AR228" t="n">
         <v>1.7</v>
@@ -50405,7 +50405,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ229" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AR229" t="n">
         <v>1.72</v>
@@ -50623,7 +50623,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ230" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR230" t="n">
         <v>1.67</v>
@@ -50841,7 +50841,7 @@
         <v>1</v>
       </c>
       <c r="AQ231" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR231" t="n">
         <v>1.73</v>
@@ -51142,7 +51142,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="n">
-        <v>5406662</v>
+        <v>5406660</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -51162,197 +51162,197 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
       <c r="J233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
       <c r="M233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N233" t="n">
+        <v>1</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q233" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R233" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S233" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T233" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U233" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V233" t="n">
         <v>3</v>
       </c>
-      <c r="O233" t="inlineStr">
-        <is>
-          <t>['79']</t>
-        </is>
-      </c>
-      <c r="P233" t="inlineStr">
-        <is>
-          <t>['16', '53']</t>
-        </is>
-      </c>
-      <c r="Q233" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="R233" t="n">
-        <v>2</v>
-      </c>
-      <c r="S233" t="n">
+      <c r="W233" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X233" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y233" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z233" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA233" t="n">
         <v>3.6</v>
       </c>
-      <c r="T233" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U233" t="n">
+      <c r="AB233" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AC233" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD233" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE233" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF233" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG233" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AH233" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI233" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ233" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK233" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL233" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM233" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN233" t="n">
         <v>2.5</v>
       </c>
-      <c r="V233" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W233" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X233" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y233" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Z233" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AA233" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AB233" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AC233" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AD233" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE233" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AF233" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AG233" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AH233" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AI233" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AJ233" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AK233" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AL233" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AM233" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AN233" t="n">
-        <v>2.09</v>
-      </c>
       <c r="AO233" t="n">
-        <v>1</v>
+        <v>1.45</v>
       </c>
       <c r="AP233" t="n">
-        <v>2.07</v>
+        <v>2.36</v>
       </c>
       <c r="AQ233" t="n">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AR233" t="n">
-        <v>1.92</v>
+        <v>1.81</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AT233" t="n">
-        <v>3.4</v>
+        <v>3.36</v>
       </c>
       <c r="AU233" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AV233" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW233" t="n">
         <v>5</v>
-      </c>
-      <c r="AW233" t="n">
-        <v>6</v>
       </c>
       <c r="AX233" t="n">
         <v>3</v>
       </c>
       <c r="AY233" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AZ233" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA233" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BB233" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC233" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD233" t="n">
-        <v>1.66</v>
+        <v>1.82</v>
       </c>
       <c r="BE233" t="n">
         <v>8.5</v>
       </c>
       <c r="BF233" t="n">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="BG233" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="BH233" t="n">
-        <v>4.75</v>
+        <v>5.2</v>
       </c>
       <c r="BI233" t="n">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="BJ233" t="n">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="BK233" t="n">
-        <v>1.49</v>
+        <v>1.37</v>
       </c>
       <c r="BL233" t="n">
-        <v>2.35</v>
+        <v>2.65</v>
       </c>
       <c r="BM233" t="n">
-        <v>1.81</v>
+        <v>1.63</v>
       </c>
       <c r="BN233" t="n">
-        <v>1.88</v>
+        <v>2.08</v>
       </c>
       <c r="BO233" t="n">
-        <v>2.23</v>
+        <v>2</v>
       </c>
       <c r="BP233" t="n">
-        <v>1.54</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="234">
@@ -51360,7 +51360,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="n">
-        <v>5406660</v>
+        <v>5406662</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -51380,197 +51380,197 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>São Paulo</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
       <c r="J234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
       <c r="M234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N234" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>['67']</t>
+          <t>['79']</t>
         </is>
       </c>
       <c r="P234" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['16', '53']</t>
         </is>
       </c>
       <c r="Q234" t="n">
-        <v>2.63</v>
+        <v>3.2</v>
       </c>
       <c r="R234" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S234" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="T234" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U234" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V234" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="W234" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X234" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y234" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z234" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA234" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB234" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC234" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD234" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE234" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF234" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AG234" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH234" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI234" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ234" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK234" t="n">
         <v>1.36</v>
       </c>
-      <c r="X234" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y234" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Z234" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AA234" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AB234" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AC234" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AD234" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE234" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AF234" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AG234" t="n">
+      <c r="AL234" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM234" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN234" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AO234" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP234" t="n">
         <v>2.07</v>
       </c>
-      <c r="AH234" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AI234" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AJ234" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AK234" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AL234" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AM234" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AN234" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AO234" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AP234" t="n">
-        <v>2.54</v>
-      </c>
       <c r="AQ234" t="n">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AR234" t="n">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AT234" t="n">
-        <v>3.36</v>
+        <v>3.4</v>
       </c>
       <c r="AU234" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV234" t="n">
         <v>5</v>
       </c>
-      <c r="AV234" t="n">
-        <v>4</v>
-      </c>
       <c r="AW234" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX234" t="n">
         <v>3</v>
       </c>
       <c r="AY234" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ234" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA234" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BB234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BC234" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD234" t="n">
-        <v>1.82</v>
+        <v>1.66</v>
       </c>
       <c r="BE234" t="n">
         <v>8.5</v>
       </c>
       <c r="BF234" t="n">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="BG234" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="BH234" t="n">
-        <v>5.2</v>
+        <v>4.75</v>
       </c>
       <c r="BI234" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="BJ234" t="n">
-        <v>3.65</v>
+        <v>3.15</v>
       </c>
       <c r="BK234" t="n">
-        <v>1.37</v>
+        <v>1.49</v>
       </c>
       <c r="BL234" t="n">
-        <v>2.65</v>
+        <v>2.35</v>
       </c>
       <c r="BM234" t="n">
-        <v>1.63</v>
+        <v>1.81</v>
       </c>
       <c r="BN234" t="n">
-        <v>2.08</v>
+        <v>1.88</v>
       </c>
       <c r="BO234" t="n">
-        <v>2</v>
+        <v>2.23</v>
       </c>
       <c r="BP234" t="n">
-        <v>1.7</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="235">
@@ -51713,7 +51713,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ235" t="n">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AR235" t="n">
         <v>1.66</v>
@@ -51928,7 +51928,7 @@
         <v>0.92</v>
       </c>
       <c r="AP236" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ236" t="n">
         <v>0.85</v>
@@ -52367,7 +52367,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ238" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AR238" t="n">
         <v>1.71</v>
@@ -52582,7 +52582,7 @@
         <v>1.33</v>
       </c>
       <c r="AP239" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ239" t="n">
         <v>1.23</v>
@@ -53021,7 +53021,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ241" t="n">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AR241" t="n">
         <v>1.92</v>
@@ -53454,10 +53454,10 @@
         <v>1</v>
       </c>
       <c r="AP243" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ243" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR243" t="n">
         <v>1.9</v>
@@ -53540,7 +53540,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="n">
-        <v>5406679</v>
+        <v>5406672</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -53560,50 +53560,50 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>Cuiabá</t>
+          <t>São Paulo</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K244" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L244" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N244" t="n">
         <v>3</v>
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>['57', '64', '87']</t>
+          <t>['40', '45+2']</t>
         </is>
       </c>
       <c r="P244" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['3']</t>
         </is>
       </c>
       <c r="Q244" t="n">
-        <v>2.88</v>
+        <v>2.2</v>
       </c>
       <c r="R244" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S244" t="n">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="T244" t="n">
         <v>1.53</v>
@@ -53624,13 +53624,13 @@
         <v>1.05</v>
       </c>
       <c r="Z244" t="n">
-        <v>2.08</v>
+        <v>1.59</v>
       </c>
       <c r="AA244" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="AB244" t="n">
-        <v>3.65</v>
+        <v>5.9</v>
       </c>
       <c r="AC244" t="n">
         <v>1.09</v>
@@ -53642,115 +53642,115 @@
         <v>1.47</v>
       </c>
       <c r="AF244" t="n">
-        <v>2.7</v>
+        <v>2.38</v>
       </c>
       <c r="AG244" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AH244" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI244" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ244" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK244" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AL244" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM244" t="n">
         <v>2.2</v>
       </c>
-      <c r="AH244" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AI244" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AJ244" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AK244" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AL244" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AM244" t="n">
-        <v>1.68</v>
-      </c>
       <c r="AN244" t="n">
-        <v>1.18</v>
+        <v>2</v>
       </c>
       <c r="AO244" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AP244" t="n">
-        <v>1.33</v>
+        <v>2.07</v>
       </c>
       <c r="AQ244" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR244" t="n">
-        <v>1.69</v>
+        <v>1.92</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.8</v>
+        <v>1.05</v>
       </c>
       <c r="AT244" t="n">
-        <v>3.49</v>
+        <v>2.97</v>
       </c>
       <c r="AU244" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AV244" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW244" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AX244" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY244" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AZ244" t="n">
         <v>8</v>
       </c>
       <c r="BA244" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BB244" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC244" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="BD244" t="n">
-        <v>1.6</v>
+        <v>1.36</v>
       </c>
       <c r="BE244" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="BF244" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BG244" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH244" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI244" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ244" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK244" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BL244" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM244" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN244" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO244" t="n">
         <v>2.7</v>
       </c>
-      <c r="BG244" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="BH244" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="BI244" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="BJ244" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="BK244" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="BL244" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="BM244" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="BN244" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="BO244" t="n">
-        <v>2.63</v>
-      </c>
       <c r="BP244" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="245">
@@ -53758,7 +53758,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="n">
-        <v>5406672</v>
+        <v>5406679</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
@@ -53778,50 +53778,50 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Cuiabá</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K245" t="n">
+        <v>0</v>
+      </c>
+      <c r="L245" t="n">
         <v>3</v>
       </c>
-      <c r="L245" t="n">
-        <v>2</v>
-      </c>
       <c r="M245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N245" t="n">
         <v>3</v>
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>['40', '45+2']</t>
+          <t>['57', '64', '87']</t>
         </is>
       </c>
       <c r="P245" t="inlineStr">
         <is>
-          <t>['3']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q245" t="n">
-        <v>2.2</v>
+        <v>2.88</v>
       </c>
       <c r="R245" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S245" t="n">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="T245" t="n">
         <v>1.53</v>
@@ -53842,13 +53842,13 @@
         <v>1.05</v>
       </c>
       <c r="Z245" t="n">
-        <v>1.59</v>
+        <v>2.08</v>
       </c>
       <c r="AA245" t="n">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="AB245" t="n">
-        <v>5.9</v>
+        <v>3.65</v>
       </c>
       <c r="AC245" t="n">
         <v>1.09</v>
@@ -53860,115 +53860,115 @@
         <v>1.47</v>
       </c>
       <c r="AF245" t="n">
-        <v>2.38</v>
+        <v>2.7</v>
       </c>
       <c r="AG245" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="AH245" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AI245" t="n">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="AJ245" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AK245" t="n">
-        <v>1.12</v>
+        <v>1.3</v>
       </c>
       <c r="AL245" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AM245" t="n">
-        <v>2.2</v>
+        <v>1.68</v>
       </c>
       <c r="AN245" t="n">
-        <v>2</v>
+        <v>1.18</v>
       </c>
       <c r="AO245" t="n">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="AP245" t="n">
-        <v>2.07</v>
+        <v>1.33</v>
       </c>
       <c r="AQ245" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="AR245" t="n">
-        <v>1.92</v>
+        <v>1.69</v>
       </c>
       <c r="AS245" t="n">
-        <v>1.05</v>
+        <v>1.8</v>
       </c>
       <c r="AT245" t="n">
-        <v>2.97</v>
+        <v>3.49</v>
       </c>
       <c r="AU245" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV245" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW245" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AX245" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY245" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AZ245" t="n">
         <v>8</v>
       </c>
       <c r="BA245" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BB245" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BC245" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="BD245" t="n">
-        <v>1.36</v>
+        <v>1.6</v>
       </c>
       <c r="BE245" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="BF245" t="n">
-        <v>3.85</v>
+        <v>2.7</v>
       </c>
       <c r="BG245" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="BH245" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="BI245" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="BJ245" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="BK245" t="n">
-        <v>2.25</v>
+        <v>1.66</v>
       </c>
       <c r="BL245" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="BM245" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="BN245" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="BO245" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="BP245" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="246">
@@ -54108,7 +54108,7 @@
         <v>1.33</v>
       </c>
       <c r="AP246" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ246" t="n">
         <v>1.46</v>
@@ -54547,7 +54547,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ248" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR248" t="n">
         <v>1.71</v>
@@ -55931,6 +55931,1314 @@
       </c>
       <c r="BP254" t="n">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B255" t="n">
+        <v>5406682</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E255" s="2" t="n">
+        <v>45207.66666666666</v>
+      </c>
+      <c r="F255" t="n">
+        <v>26</v>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="I255" t="n">
+        <v>1</v>
+      </c>
+      <c r="J255" t="n">
+        <v>1</v>
+      </c>
+      <c r="K255" t="n">
+        <v>2</v>
+      </c>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="n">
+        <v>2</v>
+      </c>
+      <c r="N255" t="n">
+        <v>3</v>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="P255" t="inlineStr">
+        <is>
+          <t>['45+1', '70']</t>
+        </is>
+      </c>
+      <c r="Q255" t="n">
+        <v>2</v>
+      </c>
+      <c r="R255" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S255" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T255" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U255" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V255" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W255" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X255" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y255" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z255" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA255" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB255" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC255" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD255" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE255" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF255" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG255" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH255" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI255" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ255" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK255" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AL255" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM255" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AN255" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AO255" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AP255" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AQ255" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AR255" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AS255" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT255" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AU255" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV255" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW255" t="n">
+        <v>18</v>
+      </c>
+      <c r="AX255" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY255" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ255" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA255" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB255" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC255" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD255" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BE255" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF255" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BG255" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH255" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BI255" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ255" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BK255" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BL255" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM255" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN255" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BO255" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BP255" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B256" t="n">
+        <v>5406680</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E256" s="2" t="n">
+        <v>45207.66666666666</v>
+      </c>
+      <c r="F256" t="n">
+        <v>26</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Botafogo</t>
+        </is>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="n">
+        <v>2</v>
+      </c>
+      <c r="K256" t="n">
+        <v>2</v>
+      </c>
+      <c r="L256" t="n">
+        <v>0</v>
+      </c>
+      <c r="M256" t="n">
+        <v>2</v>
+      </c>
+      <c r="N256" t="n">
+        <v>2</v>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P256" t="inlineStr">
+        <is>
+          <t>['20', '22']</t>
+        </is>
+      </c>
+      <c r="Q256" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R256" t="n">
+        <v>2</v>
+      </c>
+      <c r="S256" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T256" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U256" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V256" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W256" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X256" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y256" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z256" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA256" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB256" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC256" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD256" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE256" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AF256" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AG256" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH256" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI256" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ256" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK256" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL256" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM256" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN256" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AO256" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP256" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AQ256" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AR256" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AS256" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT256" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AU256" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV256" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW256" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX256" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY256" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ256" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA256" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB256" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC256" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD256" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BE256" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF256" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BG256" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH256" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI256" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ256" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK256" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL256" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BM256" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BN256" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO256" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BP256" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B257" t="n">
+        <v>5406686</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E257" s="2" t="n">
+        <v>45207.66666666666</v>
+      </c>
+      <c r="F257" t="n">
+        <v>26</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Grêmio</t>
+        </is>
+      </c>
+      <c r="I257" t="n">
+        <v>1</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="n">
+        <v>3</v>
+      </c>
+      <c r="M257" t="n">
+        <v>2</v>
+      </c>
+      <c r="N257" t="n">
+        <v>5</v>
+      </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>['6', '49', '70']</t>
+        </is>
+      </c>
+      <c r="P257" t="inlineStr">
+        <is>
+          <t>['67', '74']</t>
+        </is>
+      </c>
+      <c r="Q257" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R257" t="n">
+        <v>2</v>
+      </c>
+      <c r="S257" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T257" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U257" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V257" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W257" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X257" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y257" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z257" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AA257" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB257" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC257" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD257" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE257" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF257" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG257" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH257" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI257" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ257" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK257" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL257" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM257" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AN257" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO257" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP257" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ257" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR257" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS257" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT257" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AU257" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV257" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW257" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX257" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY257" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ257" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA257" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB257" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC257" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD257" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE257" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF257" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BG257" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH257" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BI257" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ257" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BK257" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BL257" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BM257" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN257" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BO257" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP257" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B258" t="n">
+        <v>5406685</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E258" s="2" t="n">
+        <v>45207.77083333334</v>
+      </c>
+      <c r="F258" t="n">
+        <v>26</v>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>Atlético Mineiro</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
+      <c r="K258" t="n">
+        <v>0</v>
+      </c>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="n">
+        <v>2</v>
+      </c>
+      <c r="N258" t="n">
+        <v>3</v>
+      </c>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="P258" t="inlineStr">
+        <is>
+          <t>['64', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q258" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R258" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S258" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="T258" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U258" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V258" t="n">
+        <v>3</v>
+      </c>
+      <c r="W258" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X258" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y258" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z258" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA258" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB258" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC258" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD258" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AE258" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AF258" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG258" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH258" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI258" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ258" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK258" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AL258" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM258" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AN258" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO258" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AP258" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ258" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AR258" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS258" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT258" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AU258" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV258" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW258" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX258" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY258" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ258" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA258" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB258" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC258" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD258" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BE258" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BF258" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BG258" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH258" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI258" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ258" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BK258" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL258" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BM258" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN258" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BO258" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BP258" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B259" t="n">
+        <v>5406687</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E259" s="2" t="n">
+        <v>45207.77083333334</v>
+      </c>
+      <c r="F259" t="n">
+        <v>26</v>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>Atlético PR</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>Bragantino</t>
+        </is>
+      </c>
+      <c r="I259" t="n">
+        <v>1</v>
+      </c>
+      <c r="J259" t="n">
+        <v>1</v>
+      </c>
+      <c r="K259" t="n">
+        <v>2</v>
+      </c>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="n">
+        <v>1</v>
+      </c>
+      <c r="N259" t="n">
+        <v>2</v>
+      </c>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="P259" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="Q259" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R259" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S259" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T259" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U259" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V259" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W259" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X259" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y259" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z259" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA259" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB259" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC259" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD259" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE259" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF259" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG259" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AH259" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AI259" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ259" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK259" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL259" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM259" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN259" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AO259" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AP259" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AQ259" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR259" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AS259" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AT259" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AU259" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV259" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW259" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX259" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY259" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ259" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA259" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB259" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC259" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD259" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BE259" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF259" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BG259" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH259" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI259" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ259" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK259" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL259" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM259" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN259" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BO259" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BP259" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B260" t="n">
+        <v>5406688</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E260" s="2" t="n">
+        <v>45207.77083333334</v>
+      </c>
+      <c r="F260" t="n">
+        <v>26</v>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>América Mineiro</t>
+        </is>
+      </c>
+      <c r="I260" t="n">
+        <v>1</v>
+      </c>
+      <c r="J260" t="n">
+        <v>2</v>
+      </c>
+      <c r="K260" t="n">
+        <v>3</v>
+      </c>
+      <c r="L260" t="n">
+        <v>3</v>
+      </c>
+      <c r="M260" t="n">
+        <v>2</v>
+      </c>
+      <c r="N260" t="n">
+        <v>5</v>
+      </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>['31', '56', '68']</t>
+        </is>
+      </c>
+      <c r="P260" t="inlineStr">
+        <is>
+          <t>['18', '23']</t>
+        </is>
+      </c>
+      <c r="Q260" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R260" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S260" t="n">
+        <v>6</v>
+      </c>
+      <c r="T260" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U260" t="n">
+        <v>3</v>
+      </c>
+      <c r="V260" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W260" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X260" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y260" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z260" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA260" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB260" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC260" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD260" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE260" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF260" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG260" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AH260" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI260" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ260" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK260" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AL260" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM260" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN260" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AO260" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AP260" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ260" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AR260" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AS260" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT260" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AU260" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV260" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW260" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX260" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY260" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ260" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA260" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB260" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC260" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD260" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BE260" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF260" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BG260" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH260" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BI260" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ260" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK260" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL260" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM260" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BN260" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BO260" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BP260" t="n">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP260"/>
+  <dimension ref="A1:BP261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2663,7 +2663,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.38</v>
@@ -5933,7 +5933,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR25" t="n">
         <v>1.72</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.92</v>
@@ -10290,7 +10290,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.46</v>
@@ -13781,7 +13781,7 @@
         <v>1</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR61" t="n">
         <v>1.92</v>
@@ -16615,7 +16615,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR74" t="n">
         <v>2.29</v>
@@ -16830,7 +16830,7 @@
         <v>0</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ75" t="n">
         <v>0.57</v>
@@ -20975,7 +20975,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR94" t="n">
         <v>1.87</v>
@@ -24460,7 +24460,7 @@
         <v>1.5</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.62</v>
@@ -27733,7 +27733,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR125" t="n">
         <v>1.39</v>
@@ -28820,7 +28820,7 @@
         <v>0.8</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ130" t="n">
         <v>0.77</v>
@@ -29256,7 +29256,7 @@
         <v>0.67</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ132" t="n">
         <v>0.86</v>
@@ -29477,7 +29477,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR133" t="n">
         <v>1.91</v>
@@ -33834,7 +33834,7 @@
         <v>0.57</v>
       </c>
       <c r="AP153" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ153" t="n">
         <v>0.5</v>
@@ -35363,7 +35363,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR160" t="n">
         <v>2.01</v>
@@ -39502,7 +39502,7 @@
         <v>1.56</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ179" t="n">
         <v>1.57</v>
@@ -41249,7 +41249,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ187" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR187" t="n">
         <v>1.94</v>
@@ -42554,7 +42554,7 @@
         <v>1.4</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ193" t="n">
         <v>1.29</v>
@@ -46045,7 +46045,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ209" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR209" t="n">
         <v>1.8</v>
@@ -48879,7 +48879,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ222" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR222" t="n">
         <v>1.54</v>
@@ -49530,7 +49530,7 @@
         <v>0.3</v>
       </c>
       <c r="AP225" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ225" t="n">
         <v>0.38</v>
@@ -51277,7 +51277,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ233" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR233" t="n">
         <v>1.81</v>
@@ -53890,7 +53890,7 @@
         <v>0.73</v>
       </c>
       <c r="AP245" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ245" t="n">
         <v>0.67</v>
@@ -57239,6 +57239,224 @@
       </c>
       <c r="BP260" t="n">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B261" t="n">
+        <v>5406689</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E261" s="2" t="n">
+        <v>45213.875</v>
+      </c>
+      <c r="F261" t="n">
+        <v>26</v>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>Cuiabá</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" t="n">
+        <v>0</v>
+      </c>
+      <c r="L261" t="n">
+        <v>0</v>
+      </c>
+      <c r="M261" t="n">
+        <v>0</v>
+      </c>
+      <c r="N261" t="n">
+        <v>0</v>
+      </c>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P261" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q261" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R261" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S261" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T261" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U261" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V261" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W261" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X261" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y261" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z261" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AA261" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB261" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC261" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD261" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE261" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AF261" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AG261" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AH261" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AI261" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ261" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK261" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL261" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM261" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN261" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO261" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP261" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AQ261" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR261" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AS261" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT261" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AU261" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV261" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW261" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX261" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY261" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ261" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA261" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB261" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC261" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD261" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE261" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF261" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG261" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH261" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BI261" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BJ261" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BK261" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BL261" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BM261" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BN261" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO261" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BP261" t="n">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP261"/>
+  <dimension ref="A1:BP271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.67</v>
@@ -1355,7 +1355,7 @@
         <v>2.62</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>2</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ11" t="n">
         <v>0.77</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.92</v>
@@ -3971,7 +3971,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.29</v>
@@ -4404,10 +4404,10 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4622,10 +4622,10 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -4840,10 +4840,10 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -5276,10 +5276,10 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR22" t="n">
         <v>1.73</v>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ24" t="n">
         <v>0.38</v>
@@ -6148,10 +6148,10 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR26" t="n">
         <v>1.77</v>
@@ -6369,7 +6369,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR27" t="n">
         <v>2.44</v>
@@ -6587,7 +6587,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR28" t="n">
         <v>2.3</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.86</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ32" t="n">
         <v>0.77</v>
@@ -7674,7 +7674,7 @@
         <v>3</v>
       </c>
       <c r="AP33" t="n">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="AQ33" t="n">
         <v>0.77</v>
@@ -7892,10 +7892,10 @@
         <v>0</v>
       </c>
       <c r="AP34" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR34" t="n">
         <v>2.02</v>
@@ -8113,7 +8113,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR35" t="n">
         <v>1.72</v>
@@ -8331,7 +8331,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR36" t="n">
         <v>1.11</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ37" t="n">
         <v>0.57</v>
@@ -8764,10 +8764,10 @@
         <v>1</v>
       </c>
       <c r="AP38" t="n">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR38" t="n">
         <v>1.68</v>
@@ -8985,7 +8985,7 @@
         <v>2.62</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR39" t="n">
         <v>1.26</v>
@@ -9200,7 +9200,7 @@
         <v>1</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.29</v>
@@ -9421,7 +9421,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR41" t="n">
         <v>1.64</v>
@@ -9639,7 +9639,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR42" t="n">
         <v>1.75</v>
@@ -10072,7 +10072,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.86</v>
@@ -10293,7 +10293,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR45" t="n">
         <v>1.7</v>
@@ -10726,7 +10726,7 @@
         <v>1.5</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ47" t="n">
         <v>0.67</v>
@@ -10944,7 +10944,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.92</v>
@@ -11162,7 +11162,7 @@
         <v>2</v>
       </c>
       <c r="AP49" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ49" t="n">
         <v>0.77</v>
@@ -11383,7 +11383,7 @@
         <v>2.62</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR50" t="n">
         <v>1.67</v>
@@ -11601,7 +11601,7 @@
         <v>2</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR51" t="n">
         <v>2.41</v>
@@ -11816,10 +11816,10 @@
         <v>0</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR52" t="n">
         <v>1.47</v>
@@ -12034,10 +12034,10 @@
         <v>1.5</v>
       </c>
       <c r="AP53" t="n">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR53" t="n">
         <v>2.57</v>
@@ -12252,10 +12252,10 @@
         <v>1</v>
       </c>
       <c r="AP54" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR54" t="n">
         <v>2.16</v>
@@ -12473,7 +12473,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR55" t="n">
         <v>2.15</v>
@@ -12688,7 +12688,7 @@
         <v>0</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ56" t="n">
         <v>0.77</v>
@@ -12909,7 +12909,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR57" t="n">
         <v>2.06</v>
@@ -13124,10 +13124,10 @@
         <v>2</v>
       </c>
       <c r="AP58" t="n">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR58" t="n">
         <v>1.43</v>
@@ -13342,10 +13342,10 @@
         <v>3</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR59" t="n">
         <v>1.78</v>
@@ -13778,7 +13778,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.31</v>
@@ -13996,7 +13996,7 @@
         <v>0</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ62" t="n">
         <v>0.92</v>
@@ -14214,10 +14214,10 @@
         <v>1.67</v>
       </c>
       <c r="AP63" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR63" t="n">
         <v>1.88</v>
@@ -14432,10 +14432,10 @@
         <v>1.33</v>
       </c>
       <c r="AP64" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR64" t="n">
         <v>1.63</v>
@@ -14653,7 +14653,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR65" t="n">
         <v>1.78</v>
@@ -15304,7 +15304,7 @@
         <v>2</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ68" t="n">
         <v>1.29</v>
@@ -15525,7 +15525,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR69" t="n">
         <v>2.5</v>
@@ -15740,10 +15740,10 @@
         <v>0.33</v>
       </c>
       <c r="AP70" t="n">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR70" t="n">
         <v>1.55</v>
@@ -15958,10 +15958,10 @@
         <v>1</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR71" t="n">
         <v>2.04</v>
@@ -18574,10 +18574,10 @@
         <v>0</v>
       </c>
       <c r="AP83" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR83" t="n">
         <v>1.74</v>
@@ -18792,10 +18792,10 @@
         <v>1.75</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR84" t="n">
         <v>2.07</v>
@@ -19013,7 +19013,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR85" t="n">
         <v>1.85</v>
@@ -19228,10 +19228,10 @@
         <v>0.25</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR86" t="n">
         <v>1.5</v>
@@ -19446,10 +19446,10 @@
         <v>0.75</v>
       </c>
       <c r="AP87" t="n">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ87" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR87" t="n">
         <v>1.62</v>
@@ -19664,10 +19664,10 @@
         <v>1</v>
       </c>
       <c r="AP88" t="n">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR88" t="n">
         <v>2.04</v>
@@ -19882,10 +19882,10 @@
         <v>1.5</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR89" t="n">
         <v>1.64</v>
@@ -20100,7 +20100,7 @@
         <v>0.25</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ90" t="n">
         <v>0.57</v>
@@ -20318,10 +20318,10 @@
         <v>1</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR91" t="n">
         <v>2.09</v>
@@ -20536,7 +20536,7 @@
         <v>0.75</v>
       </c>
       <c r="AP92" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ92" t="n">
         <v>0.77</v>
@@ -20757,7 +20757,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR93" t="n">
         <v>1.72</v>
@@ -20972,7 +20972,7 @@
         <v>1.75</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.31</v>
@@ -21193,7 +21193,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR95" t="n">
         <v>1.8</v>
@@ -21411,7 +21411,7 @@
         <v>2.62</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR96" t="n">
         <v>1.89</v>
@@ -21626,10 +21626,10 @@
         <v>0.75</v>
       </c>
       <c r="AP97" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR97" t="n">
         <v>1.71</v>
@@ -22498,7 +22498,7 @@
         <v>1.2</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ101" t="n">
         <v>0.67</v>
@@ -22719,7 +22719,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR102" t="n">
         <v>1.84</v>
@@ -22934,10 +22934,10 @@
         <v>1</v>
       </c>
       <c r="AP103" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ103" t="n">
         <v>1.08</v>
-      </c>
-      <c r="AQ103" t="n">
-        <v>1.17</v>
       </c>
       <c r="AR103" t="n">
         <v>2</v>
@@ -23152,10 +23152,10 @@
         <v>0</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR104" t="n">
         <v>1.58</v>
@@ -23370,10 +23370,10 @@
         <v>2</v>
       </c>
       <c r="AP105" t="n">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR105" t="n">
         <v>1.92</v>
@@ -23588,7 +23588,7 @@
         <v>1.8</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ106" t="n">
         <v>1.29</v>
@@ -23806,7 +23806,7 @@
         <v>0.25</v>
       </c>
       <c r="AP107" t="n">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ107" t="n">
         <v>0.38</v>
@@ -24024,7 +24024,7 @@
         <v>0.2</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ108" t="n">
         <v>0.92</v>
@@ -24242,10 +24242,10 @@
         <v>0.4</v>
       </c>
       <c r="AP109" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR109" t="n">
         <v>1.74</v>
@@ -24463,7 +24463,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR110" t="n">
         <v>1.37</v>
@@ -24681,7 +24681,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR111" t="n">
         <v>1.85</v>
@@ -24899,7 +24899,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ112" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR112" t="n">
         <v>1.8</v>
@@ -25117,7 +25117,7 @@
         <v>2</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR113" t="n">
         <v>1.99</v>
@@ -25332,7 +25332,7 @@
         <v>0.8</v>
       </c>
       <c r="AP114" t="n">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="AQ114" t="n">
         <v>0.86</v>
@@ -25550,10 +25550,10 @@
         <v>0.6</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ115" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR115" t="n">
         <v>1.88</v>
@@ -25768,7 +25768,7 @@
         <v>0.2</v>
       </c>
       <c r="AP116" t="n">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ116" t="n">
         <v>0.57</v>
@@ -25986,10 +25986,10 @@
         <v>1.8</v>
       </c>
       <c r="AP117" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR117" t="n">
         <v>2.21</v>
@@ -26204,10 +26204,10 @@
         <v>1.2</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR118" t="n">
         <v>1.58</v>
@@ -26640,10 +26640,10 @@
         <v>0.83</v>
       </c>
       <c r="AP120" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ120" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR120" t="n">
         <v>1.82</v>
@@ -26858,10 +26858,10 @@
         <v>1.67</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR121" t="n">
         <v>2.06</v>
@@ -27294,7 +27294,7 @@
         <v>1.2</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ123" t="n">
         <v>0.92</v>
@@ -27515,7 +27515,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR124" t="n">
         <v>2.06</v>
@@ -27951,7 +27951,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR126" t="n">
         <v>1.81</v>
@@ -29038,7 +29038,7 @@
         <v>0.17</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ131" t="n">
         <v>0.57</v>
@@ -29474,7 +29474,7 @@
         <v>1.5</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ133" t="n">
         <v>1.31</v>
@@ -29695,7 +29695,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ134" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR134" t="n">
         <v>1.73</v>
@@ -29910,7 +29910,7 @@
         <v>0.33</v>
       </c>
       <c r="AP135" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ135" t="n">
         <v>0.38</v>
@@ -30128,10 +30128,10 @@
         <v>1.5</v>
       </c>
       <c r="AP136" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR136" t="n">
         <v>2.2</v>
@@ -30346,7 +30346,7 @@
         <v>0.57</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ137" t="n">
         <v>0.92</v>
@@ -30564,10 +30564,10 @@
         <v>1.14</v>
       </c>
       <c r="AP138" t="n">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="AQ138" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR138" t="n">
         <v>1.83</v>
@@ -30785,7 +30785,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ139" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR139" t="n">
         <v>2.04</v>
@@ -31003,7 +31003,7 @@
         <v>2</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR140" t="n">
         <v>1.81</v>
@@ -31218,10 +31218,10 @@
         <v>2</v>
       </c>
       <c r="AP141" t="n">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR141" t="n">
         <v>1.98</v>
@@ -31439,7 +31439,7 @@
         <v>2.62</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR142" t="n">
         <v>1.98</v>
@@ -31654,7 +31654,7 @@
         <v>0.57</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ143" t="n">
         <v>0.57</v>
@@ -31875,7 +31875,7 @@
         <v>2</v>
       </c>
       <c r="AQ144" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR144" t="n">
         <v>1.83</v>
@@ -32090,10 +32090,10 @@
         <v>1.43</v>
       </c>
       <c r="AP145" t="n">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR145" t="n">
         <v>1.84</v>
@@ -32962,10 +32962,10 @@
         <v>1.57</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ149" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR149" t="n">
         <v>1.79</v>
@@ -33398,10 +33398,10 @@
         <v>1.14</v>
       </c>
       <c r="AP151" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR151" t="n">
         <v>2.07</v>
@@ -33616,10 +33616,10 @@
         <v>0.75</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ152" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR152" t="n">
         <v>1.64</v>
@@ -33837,7 +33837,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ153" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR153" t="n">
         <v>1.59</v>
@@ -34052,10 +34052,10 @@
         <v>1.5</v>
       </c>
       <c r="AP154" t="n">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR154" t="n">
         <v>1.96</v>
@@ -34270,10 +34270,10 @@
         <v>2.14</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR155" t="n">
         <v>1.55</v>
@@ -34491,7 +34491,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ156" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR156" t="n">
         <v>2.1</v>
@@ -34706,7 +34706,7 @@
         <v>0.5</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ157" t="n">
         <v>0.92</v>
@@ -34924,10 +34924,10 @@
         <v>0.57</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ158" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR158" t="n">
         <v>1.82</v>
@@ -35142,7 +35142,7 @@
         <v>1</v>
       </c>
       <c r="AP159" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ159" t="n">
         <v>0.67</v>
@@ -35581,7 +35581,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR161" t="n">
         <v>1.42</v>
@@ -35796,7 +35796,7 @@
         <v>0.57</v>
       </c>
       <c r="AP162" t="n">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="AQ162" t="n">
         <v>0.77</v>
@@ -36235,7 +36235,7 @@
         <v>2</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR164" t="n">
         <v>1.93</v>
@@ -36453,7 +36453,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ165" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR165" t="n">
         <v>1.75</v>
@@ -37104,7 +37104,7 @@
         <v>1.38</v>
       </c>
       <c r="AP168" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ168" t="n">
         <v>1.29</v>
@@ -37322,7 +37322,7 @@
         <v>1.5</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ169" t="n">
         <v>0.92</v>
@@ -37540,10 +37540,10 @@
         <v>0.88</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ170" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR170" t="n">
         <v>1.47</v>
@@ -37761,7 +37761,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ171" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR171" t="n">
         <v>1.49</v>
@@ -37976,10 +37976,10 @@
         <v>1</v>
       </c>
       <c r="AP172" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ172" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR172" t="n">
         <v>1.75</v>
@@ -38194,7 +38194,7 @@
         <v>1.56</v>
       </c>
       <c r="AP173" t="n">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="AQ173" t="n">
         <v>1.29</v>
@@ -38412,7 +38412,7 @@
         <v>1.43</v>
       </c>
       <c r="AP174" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ174" t="n">
         <v>0.92</v>
@@ -38633,7 +38633,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ175" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR175" t="n">
         <v>1.93</v>
@@ -38848,10 +38848,10 @@
         <v>2</v>
       </c>
       <c r="AP176" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR176" t="n">
         <v>1.68</v>
@@ -39066,7 +39066,7 @@
         <v>0.38</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ177" t="n">
         <v>0.38</v>
@@ -39284,10 +39284,10 @@
         <v>1.25</v>
       </c>
       <c r="AP178" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ178" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR178" t="n">
         <v>1.63</v>
@@ -39505,7 +39505,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ179" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR179" t="n">
         <v>1.58</v>
@@ -39723,7 +39723,7 @@
         <v>2.62</v>
       </c>
       <c r="AQ180" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR180" t="n">
         <v>1.88</v>
@@ -40156,7 +40156,7 @@
         <v>0.88</v>
       </c>
       <c r="AP182" t="n">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ182" t="n">
         <v>0.67</v>
@@ -40592,7 +40592,7 @@
         <v>0.78</v>
       </c>
       <c r="AP184" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ184" t="n">
         <v>0.92</v>
@@ -40813,7 +40813,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ185" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR185" t="n">
         <v>1.85</v>
@@ -41246,7 +41246,7 @@
         <v>1.63</v>
       </c>
       <c r="AP187" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ187" t="n">
         <v>1.31</v>
@@ -41685,7 +41685,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ189" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR189" t="n">
         <v>1.98</v>
@@ -41903,7 +41903,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ190" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR190" t="n">
         <v>1.49</v>
@@ -42121,7 +42121,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ191" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR191" t="n">
         <v>1.96</v>
@@ -42336,7 +42336,7 @@
         <v>0.33</v>
       </c>
       <c r="AP192" t="n">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="AQ192" t="n">
         <v>0.38</v>
@@ -42772,10 +42772,10 @@
         <v>0.8</v>
       </c>
       <c r="AP194" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ194" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR194" t="n">
         <v>1.67</v>
@@ -42990,10 +42990,10 @@
         <v>1.5</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ195" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR195" t="n">
         <v>1.75</v>
@@ -43208,7 +43208,7 @@
         <v>1.25</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ196" t="n">
         <v>0.92</v>
@@ -43426,10 +43426,10 @@
         <v>1.4</v>
       </c>
       <c r="AP197" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ197" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR197" t="n">
         <v>1.59</v>
@@ -43644,10 +43644,10 @@
         <v>1.44</v>
       </c>
       <c r="AP198" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ198" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR198" t="n">
         <v>1.76</v>
@@ -43862,10 +43862,10 @@
         <v>0.89</v>
       </c>
       <c r="AP199" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ199" t="n">
         <v>1.15</v>
-      </c>
-      <c r="AQ199" t="n">
-        <v>1</v>
       </c>
       <c r="AR199" t="n">
         <v>1.69</v>
@@ -44083,7 +44083,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ200" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR200" t="n">
         <v>1.92</v>
@@ -44519,7 +44519,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ202" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR202" t="n">
         <v>2.17</v>
@@ -44952,10 +44952,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP204" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ204" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR204" t="n">
         <v>1.79</v>
@@ -45388,7 +45388,7 @@
         <v>0.67</v>
       </c>
       <c r="AP206" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ206" t="n">
         <v>0.77</v>
@@ -46042,7 +46042,7 @@
         <v>1.44</v>
       </c>
       <c r="AP209" t="n">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ209" t="n">
         <v>1.31</v>
@@ -46263,7 +46263,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ210" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR210" t="n">
         <v>1.89</v>
@@ -46478,10 +46478,10 @@
         <v>0.91</v>
       </c>
       <c r="AP211" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ211" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR211" t="n">
         <v>1.66</v>
@@ -46699,7 +46699,7 @@
         <v>2.62</v>
       </c>
       <c r="AQ212" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR212" t="n">
         <v>1.86</v>
@@ -46914,10 +46914,10 @@
         <v>1.45</v>
       </c>
       <c r="AP213" t="n">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ213" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR213" t="n">
         <v>1.76</v>
@@ -47132,10 +47132,10 @@
         <v>1.1</v>
       </c>
       <c r="AP214" t="n">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="AQ214" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR214" t="n">
         <v>1.82</v>
@@ -47568,7 +47568,7 @@
         <v>0.6</v>
       </c>
       <c r="AP216" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ216" t="n">
         <v>0.77</v>
@@ -47786,7 +47786,7 @@
         <v>0.4</v>
       </c>
       <c r="AP217" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ217" t="n">
         <v>0.77</v>
@@ -48004,10 +48004,10 @@
         <v>1.3</v>
       </c>
       <c r="AP218" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ218" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR218" t="n">
         <v>1.71</v>
@@ -48225,7 +48225,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ219" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR219" t="n">
         <v>1.54</v>
@@ -48443,7 +48443,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ220" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR220" t="n">
         <v>1.86</v>
@@ -48661,7 +48661,7 @@
         <v>2</v>
       </c>
       <c r="AQ221" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR221" t="n">
         <v>1.89</v>
@@ -48876,7 +48876,7 @@
         <v>1.3</v>
       </c>
       <c r="AP222" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ222" t="n">
         <v>1.31</v>
@@ -49094,7 +49094,7 @@
         <v>0.55</v>
       </c>
       <c r="AP223" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ223" t="n">
         <v>0.86</v>
@@ -49748,7 +49748,7 @@
         <v>1</v>
       </c>
       <c r="AP226" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ226" t="n">
         <v>0.92</v>
@@ -49966,7 +49966,7 @@
         <v>0.8</v>
       </c>
       <c r="AP227" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ227" t="n">
         <v>0.67</v>
@@ -50187,7 +50187,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ228" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR228" t="n">
         <v>1.7</v>
@@ -50402,7 +50402,7 @@
         <v>0.36</v>
       </c>
       <c r="AP229" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ229" t="n">
         <v>0.77</v>
@@ -50838,10 +50838,10 @@
         <v>1.27</v>
       </c>
       <c r="AP231" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ231" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR231" t="n">
         <v>1.73</v>
@@ -51056,10 +51056,10 @@
         <v>1.67</v>
       </c>
       <c r="AP232" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ232" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR232" t="n">
         <v>1.63</v>
@@ -51274,7 +51274,7 @@
         <v>1.45</v>
       </c>
       <c r="AP233" t="n">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="AQ233" t="n">
         <v>1.31</v>
@@ -51495,7 +51495,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ234" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR234" t="n">
         <v>1.92</v>
@@ -51710,7 +51710,7 @@
         <v>0.45</v>
       </c>
       <c r="AP235" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ235" t="n">
         <v>0.57</v>
@@ -51931,7 +51931,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ236" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR236" t="n">
         <v>1.94</v>
@@ -52146,7 +52146,7 @@
         <v>1.5</v>
       </c>
       <c r="AP237" t="n">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ237" t="n">
         <v>1.29</v>
@@ -52367,7 +52367,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ238" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR238" t="n">
         <v>1.71</v>
@@ -52585,7 +52585,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ239" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR239" t="n">
         <v>1.69</v>
@@ -52800,7 +52800,7 @@
         <v>0.64</v>
       </c>
       <c r="AP240" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ240" t="n">
         <v>0.77</v>
@@ -53675,7 +53675,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ244" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR244" t="n">
         <v>1.92</v>
@@ -54111,7 +54111,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ246" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR246" t="n">
         <v>1.56</v>
@@ -54326,7 +54326,7 @@
         <v>0.83</v>
       </c>
       <c r="AP247" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ247" t="n">
         <v>0.77</v>
@@ -54544,7 +54544,7 @@
         <v>0.36</v>
       </c>
       <c r="AP248" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ248" t="n">
         <v>0.38</v>
@@ -54762,10 +54762,10 @@
         <v>1.09</v>
       </c>
       <c r="AP249" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ249" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR249" t="n">
         <v>1.62</v>
@@ -55416,7 +55416,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP252" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ252" t="n">
         <v>0.86</v>
@@ -55634,10 +55634,10 @@
         <v>0.45</v>
       </c>
       <c r="AP253" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ253" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR253" t="n">
         <v>1.74</v>
@@ -55855,7 +55855,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ254" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR254" t="n">
         <v>1.74</v>
@@ -56070,7 +56070,7 @@
         <v>0.58</v>
       </c>
       <c r="AP255" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ255" t="n">
         <v>0.77</v>
@@ -56288,10 +56288,10 @@
         <v>1.5</v>
       </c>
       <c r="AP256" t="n">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="AQ256" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR256" t="n">
         <v>1.77</v>
@@ -56945,7 +56945,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ259" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR259" t="n">
         <v>1.91</v>
@@ -57457,6 +57457,2186 @@
       </c>
       <c r="BP261" t="n">
         <v>1.6</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B262" t="n">
+        <v>5406696</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E262" s="2" t="n">
+        <v>45217.79166666666</v>
+      </c>
+      <c r="F262" t="n">
+        <v>27</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>Grêmio</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Atlético PR</t>
+        </is>
+      </c>
+      <c r="I262" t="n">
+        <v>1</v>
+      </c>
+      <c r="J262" t="n">
+        <v>1</v>
+      </c>
+      <c r="K262" t="n">
+        <v>2</v>
+      </c>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="n">
+        <v>2</v>
+      </c>
+      <c r="N262" t="n">
+        <v>3</v>
+      </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="P262" t="inlineStr">
+        <is>
+          <t>['38', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q262" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R262" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S262" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T262" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U262" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V262" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W262" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X262" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y262" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z262" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA262" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB262" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AC262" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD262" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE262" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF262" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG262" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH262" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI262" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ262" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK262" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AL262" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM262" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN262" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AO262" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP262" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AQ262" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AR262" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS262" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT262" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AU262" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV262" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW262" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX262" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY262" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ262" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA262" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB262" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC262" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD262" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BE262" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF262" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BG262" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH262" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI262" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ262" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BK262" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BL262" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BM262" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BN262" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BO262" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BP262" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B263" t="n">
+        <v>5406699</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E263" s="2" t="n">
+        <v>45217.83333333334</v>
+      </c>
+      <c r="F263" t="n">
+        <v>27</v>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>América Mineiro</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Botafogo</t>
+        </is>
+      </c>
+      <c r="I263" t="n">
+        <v>1</v>
+      </c>
+      <c r="J263" t="n">
+        <v>1</v>
+      </c>
+      <c r="K263" t="n">
+        <v>2</v>
+      </c>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="n">
+        <v>2</v>
+      </c>
+      <c r="N263" t="n">
+        <v>3</v>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="P263" t="inlineStr">
+        <is>
+          <t>['22', '50']</t>
+        </is>
+      </c>
+      <c r="Q263" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R263" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S263" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T263" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U263" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V263" t="n">
+        <v>3</v>
+      </c>
+      <c r="W263" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X263" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y263" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z263" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA263" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB263" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AC263" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD263" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE263" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF263" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG263" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AH263" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI263" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ263" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK263" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL263" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM263" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AN263" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO263" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AP263" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AQ263" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR263" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AS263" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT263" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AU263" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV263" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW263" t="n">
+        <v>17</v>
+      </c>
+      <c r="AX263" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY263" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ263" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA263" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB263" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC263" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD263" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE263" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF263" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BG263" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH263" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BI263" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ263" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BK263" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL263" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BM263" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BN263" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO263" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BP263" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B264" t="n">
+        <v>5406697</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E264" s="2" t="n">
+        <v>45217.83333333334</v>
+      </c>
+      <c r="F264" t="n">
+        <v>27</v>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Cuiabá</t>
+        </is>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="n">
+        <v>1</v>
+      </c>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="n">
+        <v>0</v>
+      </c>
+      <c r="M264" t="n">
+        <v>3</v>
+      </c>
+      <c r="N264" t="n">
+        <v>3</v>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P264" t="inlineStr">
+        <is>
+          <t>['24', '82', '88']</t>
+        </is>
+      </c>
+      <c r="Q264" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R264" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S264" t="n">
+        <v>4</v>
+      </c>
+      <c r="T264" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U264" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V264" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W264" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X264" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y264" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z264" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AA264" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AB264" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC264" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD264" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE264" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF264" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AG264" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AH264" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI264" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ264" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK264" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL264" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AM264" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN264" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO264" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP264" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AQ264" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR264" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS264" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT264" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AU264" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV264" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW264" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX264" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY264" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ264" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA264" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB264" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC264" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD264" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE264" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF264" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BG264" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH264" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI264" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ264" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK264" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL264" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM264" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN264" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO264" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP264" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B265" t="n">
+        <v>5406691</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E265" s="2" t="n">
+        <v>45217.89583333334</v>
+      </c>
+      <c r="F265" t="n">
+        <v>27</v>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>Vasco da Gama</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0</v>
+      </c>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="n">
+        <v>0</v>
+      </c>
+      <c r="N265" t="n">
+        <v>1</v>
+      </c>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="P265" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q265" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R265" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S265" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T265" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U265" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V265" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W265" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X265" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y265" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z265" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA265" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB265" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AC265" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD265" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE265" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF265" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG265" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH265" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI265" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ265" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK265" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL265" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM265" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN265" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO265" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP265" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ265" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR265" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS265" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT265" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AU265" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV265" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW265" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX265" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY265" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ265" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA265" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB265" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC265" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD265" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BE265" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF265" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BG265" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH265" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BI265" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BJ265" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK265" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL265" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BM265" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BN265" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BO265" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BP265" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B266" t="n">
+        <v>5406698</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E266" s="2" t="n">
+        <v>45217.89583333334</v>
+      </c>
+      <c r="F266" t="n">
+        <v>27</v>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I266" t="n">
+        <v>1</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="n">
+        <v>0</v>
+      </c>
+      <c r="N266" t="n">
+        <v>1</v>
+      </c>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="P266" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q266" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R266" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S266" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T266" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U266" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V266" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W266" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X266" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y266" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z266" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA266" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB266" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AC266" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD266" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE266" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF266" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG266" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH266" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI266" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ266" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK266" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL266" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM266" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN266" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO266" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AP266" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ266" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AR266" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS266" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT266" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU266" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV266" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW266" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX266" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY266" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ266" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA266" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB266" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC266" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD266" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE266" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF266" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BG266" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH266" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BI266" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BJ266" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BK266" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BL266" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BM266" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BN266" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO266" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BP266" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B267" t="n">
+        <v>5406694</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E267" s="2" t="n">
+        <v>45217.89583333334</v>
+      </c>
+      <c r="F267" t="n">
+        <v>27</v>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>Goiás</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="I267" t="n">
+        <v>2</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
+      <c r="K267" t="n">
+        <v>2</v>
+      </c>
+      <c r="L267" t="n">
+        <v>2</v>
+      </c>
+      <c r="M267" t="n">
+        <v>0</v>
+      </c>
+      <c r="N267" t="n">
+        <v>2</v>
+      </c>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>['10', '45+5']</t>
+        </is>
+      </c>
+      <c r="P267" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q267" t="n">
+        <v>4</v>
+      </c>
+      <c r="R267" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S267" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T267" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U267" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V267" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W267" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X267" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y267" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z267" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AA267" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB267" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AC267" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD267" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE267" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF267" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AG267" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH267" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI267" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ267" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK267" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL267" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AM267" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AN267" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO267" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP267" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ267" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AR267" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS267" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT267" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AU267" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV267" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW267" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX267" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY267" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ267" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA267" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB267" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC267" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD267" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BE267" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF267" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BG267" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH267" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI267" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ267" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK267" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL267" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM267" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN267" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BO267" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BP267" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B268" t="n">
+        <v>5406692</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E268" s="2" t="n">
+        <v>45218.79166666666</v>
+      </c>
+      <c r="F268" t="n">
+        <v>27</v>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Atlético Mineiro</t>
+        </is>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" t="n">
+        <v>1</v>
+      </c>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="n">
+        <v>0</v>
+      </c>
+      <c r="M268" t="n">
+        <v>2</v>
+      </c>
+      <c r="N268" t="n">
+        <v>2</v>
+      </c>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P268" t="inlineStr">
+        <is>
+          <t>['2', '76']</t>
+        </is>
+      </c>
+      <c r="Q268" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R268" t="n">
+        <v>2</v>
+      </c>
+      <c r="S268" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T268" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U268" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V268" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W268" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X268" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y268" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z268" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA268" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB268" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC268" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD268" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE268" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF268" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG268" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AH268" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI268" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ268" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK268" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL268" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM268" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN268" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AO268" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AP268" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ268" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR268" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AS268" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT268" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AU268" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV268" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW268" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX268" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY268" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ268" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA268" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB268" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC268" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD268" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE268" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF268" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BG268" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH268" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BI268" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BJ268" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BK268" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL268" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BM268" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BN268" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BO268" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BP268" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B269" t="n">
+        <v>5406695</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E269" s="2" t="n">
+        <v>45218.79166666666</v>
+      </c>
+      <c r="F269" t="n">
+        <v>27</v>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="I269" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" t="n">
+        <v>2</v>
+      </c>
+      <c r="K269" t="n">
+        <v>2</v>
+      </c>
+      <c r="L269" t="n">
+        <v>0</v>
+      </c>
+      <c r="M269" t="n">
+        <v>2</v>
+      </c>
+      <c r="N269" t="n">
+        <v>2</v>
+      </c>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P269" t="inlineStr">
+        <is>
+          <t>['39', '44']</t>
+        </is>
+      </c>
+      <c r="Q269" t="n">
+        <v>4</v>
+      </c>
+      <c r="R269" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S269" t="n">
+        <v>3</v>
+      </c>
+      <c r="T269" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U269" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V269" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W269" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X269" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y269" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z269" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AA269" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB269" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC269" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD269" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE269" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF269" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AG269" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH269" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI269" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ269" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK269" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL269" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM269" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AN269" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO269" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AP269" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ269" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR269" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AS269" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT269" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AU269" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV269" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW269" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX269" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY269" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ269" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA269" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB269" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC269" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD269" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BE269" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF269" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BG269" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH269" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BI269" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BJ269" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BK269" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BL269" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BM269" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BN269" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BO269" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BP269" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B270" t="n">
+        <v>5406693</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E270" s="2" t="n">
+        <v>45218.83333333334</v>
+      </c>
+      <c r="F270" t="n">
+        <v>27</v>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Bragantino</t>
+        </is>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="n">
+        <v>2</v>
+      </c>
+      <c r="K270" t="n">
+        <v>2</v>
+      </c>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="n">
+        <v>3</v>
+      </c>
+      <c r="N270" t="n">
+        <v>4</v>
+      </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="P270" t="inlineStr">
+        <is>
+          <t>['9', '29', '47']</t>
+        </is>
+      </c>
+      <c r="Q270" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R270" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S270" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T270" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U270" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V270" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W270" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X270" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y270" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z270" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AA270" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AB270" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AC270" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD270" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE270" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF270" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG270" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH270" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI270" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ270" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK270" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL270" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM270" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AN270" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AO270" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP270" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ270" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR270" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS270" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT270" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AU270" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV270" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW270" t="n">
+        <v>19</v>
+      </c>
+      <c r="AX270" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY270" t="n">
+        <v>27</v>
+      </c>
+      <c r="AZ270" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA270" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB270" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC270" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD270" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE270" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF270" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BG270" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH270" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BI270" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ270" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BK270" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BL270" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BM270" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BN270" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BO270" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BP270" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B271" t="n">
+        <v>5406690</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E271" s="2" t="n">
+        <v>45218.89583333334</v>
+      </c>
+      <c r="F271" t="n">
+        <v>27</v>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="I271" t="n">
+        <v>1</v>
+      </c>
+      <c r="J271" t="n">
+        <v>3</v>
+      </c>
+      <c r="K271" t="n">
+        <v>4</v>
+      </c>
+      <c r="L271" t="n">
+        <v>3</v>
+      </c>
+      <c r="M271" t="n">
+        <v>3</v>
+      </c>
+      <c r="N271" t="n">
+        <v>6</v>
+      </c>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>['22', '56', '84']</t>
+        </is>
+      </c>
+      <c r="P271" t="inlineStr">
+        <is>
+          <t>['10', '27', '32']</t>
+        </is>
+      </c>
+      <c r="Q271" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R271" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S271" t="n">
+        <v>6</v>
+      </c>
+      <c r="T271" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U271" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V271" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W271" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X271" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y271" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z271" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AA271" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="AB271" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AC271" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD271" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE271" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF271" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG271" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH271" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI271" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ271" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK271" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AL271" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM271" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN271" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AO271" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP271" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AQ271" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR271" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS271" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AT271" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AU271" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV271" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW271" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX271" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY271" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ271" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA271" t="n">
+        <v>15</v>
+      </c>
+      <c r="BB271" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC271" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD271" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BE271" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF271" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BG271" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH271" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BI271" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BJ271" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK271" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL271" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BM271" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BN271" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BO271" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BP271" t="n">
+        <v>1.62</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP271"/>
+  <dimension ref="A1:BP274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1791,7 +1791,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.5</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ14" t="n">
         <v>0.38</v>
@@ -3753,7 +3753,7 @@
         <v>1</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.71</v>
@@ -6805,7 +6805,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR29" t="n">
         <v>1.28</v>
@@ -7020,10 +7020,10 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR30" t="n">
         <v>1.39</v>
@@ -8110,7 +8110,7 @@
         <v>1</v>
       </c>
       <c r="AP35" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ35" t="n">
         <v>0.79</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ37" t="n">
         <v>0.57</v>
@@ -9421,7 +9421,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR41" t="n">
         <v>1.64</v>
@@ -10290,7 +10290,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.57</v>
@@ -10511,7 +10511,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR46" t="n">
         <v>2.7</v>
@@ -10947,7 +10947,7 @@
         <v>2</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR48" t="n">
         <v>1.81</v>
@@ -11816,7 +11816,7 @@
         <v>0</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.67</v>
@@ -13127,7 +13127,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR58" t="n">
         <v>1.43</v>
@@ -13996,10 +13996,10 @@
         <v>0</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR62" t="n">
         <v>1.74</v>
@@ -14217,7 +14217,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR63" t="n">
         <v>1.88</v>
@@ -14868,7 +14868,7 @@
         <v>1.67</v>
       </c>
       <c r="AP66" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ66" t="n">
         <v>0.77</v>
@@ -16179,7 +16179,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR72" t="n">
         <v>1.83</v>
@@ -16830,7 +16830,7 @@
         <v>0</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ75" t="n">
         <v>0.57</v>
@@ -17048,10 +17048,10 @@
         <v>0.25</v>
       </c>
       <c r="AP76" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ76" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR76" t="n">
         <v>1.5</v>
@@ -20972,7 +20972,7 @@
         <v>1.75</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.31</v>
@@ -21411,7 +21411,7 @@
         <v>2.62</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR96" t="n">
         <v>1.89</v>
@@ -22062,7 +22062,7 @@
         <v>1.5</v>
       </c>
       <c r="AP99" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.29</v>
@@ -22283,7 +22283,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ100" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR100" t="n">
         <v>2.19</v>
@@ -22716,7 +22716,7 @@
         <v>0.8</v>
       </c>
       <c r="AP102" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.15</v>
@@ -22937,7 +22937,7 @@
         <v>1</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR103" t="n">
         <v>2</v>
@@ -23588,7 +23588,7 @@
         <v>1.8</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ106" t="n">
         <v>1.29</v>
@@ -24027,7 +24027,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR108" t="n">
         <v>1.97</v>
@@ -24460,7 +24460,7 @@
         <v>1.5</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.71</v>
@@ -26425,7 +26425,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ119" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR119" t="n">
         <v>2.07</v>
@@ -27076,7 +27076,7 @@
         <v>1.17</v>
       </c>
       <c r="AP122" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ122" t="n">
         <v>0.67</v>
@@ -27294,10 +27294,10 @@
         <v>1.2</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ123" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR123" t="n">
         <v>1.68</v>
@@ -27515,7 +27515,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR124" t="n">
         <v>2.06</v>
@@ -28820,7 +28820,7 @@
         <v>0.8</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ130" t="n">
         <v>0.77</v>
@@ -29256,7 +29256,7 @@
         <v>0.67</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ132" t="n">
         <v>0.86</v>
@@ -30349,7 +30349,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ137" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR137" t="n">
         <v>1.55</v>
@@ -32308,7 +32308,7 @@
         <v>0.67</v>
       </c>
       <c r="AP146" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ146" t="n">
         <v>0.77</v>
@@ -33401,7 +33401,7 @@
         <v>2</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR151" t="n">
         <v>2.07</v>
@@ -33616,7 +33616,7 @@
         <v>0.75</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ152" t="n">
         <v>0.71</v>
@@ -33834,7 +33834,7 @@
         <v>0.57</v>
       </c>
       <c r="AP153" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ153" t="n">
         <v>0.46</v>
@@ -34709,7 +34709,7 @@
         <v>1</v>
       </c>
       <c r="AQ157" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR157" t="n">
         <v>1.66</v>
@@ -36668,7 +36668,7 @@
         <v>0.63</v>
       </c>
       <c r="AP166" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ166" t="n">
         <v>0.86</v>
@@ -37325,7 +37325,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ169" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR169" t="n">
         <v>1.77</v>
@@ -37979,7 +37979,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ172" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR172" t="n">
         <v>1.75</v>
@@ -38415,7 +38415,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ174" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR174" t="n">
         <v>1.79</v>
@@ -38630,7 +38630,7 @@
         <v>1.33</v>
       </c>
       <c r="AP175" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ175" t="n">
         <v>1.57</v>
@@ -39066,7 +39066,7 @@
         <v>0.38</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ177" t="n">
         <v>0.38</v>
@@ -39502,7 +39502,7 @@
         <v>1.56</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ179" t="n">
         <v>1.67</v>
@@ -40595,7 +40595,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ184" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR184" t="n">
         <v>1.81</v>
@@ -41903,7 +41903,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ190" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR190" t="n">
         <v>1.49</v>
@@ -42118,7 +42118,7 @@
         <v>1.89</v>
       </c>
       <c r="AP191" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ191" t="n">
         <v>1.71</v>
@@ -42554,7 +42554,7 @@
         <v>1.4</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ193" t="n">
         <v>1.29</v>
@@ -43211,7 +43211,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ196" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR196" t="n">
         <v>1.47</v>
@@ -43644,7 +43644,7 @@
         <v>1.44</v>
       </c>
       <c r="AP198" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ198" t="n">
         <v>1.5</v>
@@ -44301,7 +44301,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ201" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR201" t="n">
         <v>1.75</v>
@@ -47135,7 +47135,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ214" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR214" t="n">
         <v>1.82</v>
@@ -47568,7 +47568,7 @@
         <v>0.6</v>
       </c>
       <c r="AP216" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ216" t="n">
         <v>0.77</v>
@@ -49315,7 +49315,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ224" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR224" t="n">
         <v>2.13</v>
@@ -49530,7 +49530,7 @@
         <v>0.3</v>
       </c>
       <c r="AP225" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ225" t="n">
         <v>0.38</v>
@@ -49751,7 +49751,7 @@
         <v>2</v>
       </c>
       <c r="AQ226" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR226" t="n">
         <v>1.87</v>
@@ -50402,7 +50402,7 @@
         <v>0.36</v>
       </c>
       <c r="AP229" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ229" t="n">
         <v>0.77</v>
@@ -50623,7 +50623,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ230" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR230" t="n">
         <v>1.67</v>
@@ -51492,10 +51492,10 @@
         <v>1</v>
       </c>
       <c r="AP234" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ234" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR234" t="n">
         <v>1.92</v>
@@ -53018,7 +53018,7 @@
         <v>0.42</v>
       </c>
       <c r="AP241" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ241" t="n">
         <v>0.57</v>
@@ -53457,7 +53457,7 @@
         <v>2</v>
       </c>
       <c r="AQ243" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR243" t="n">
         <v>1.9</v>
@@ -53672,7 +53672,7 @@
         <v>0.75</v>
       </c>
       <c r="AP244" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ244" t="n">
         <v>0.71</v>
@@ -53890,7 +53890,7 @@
         <v>0.73</v>
       </c>
       <c r="AP245" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ245" t="n">
         <v>0.67</v>
@@ -55201,7 +55201,7 @@
         <v>2.62</v>
       </c>
       <c r="AQ251" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR251" t="n">
         <v>1.88</v>
@@ -56509,7 +56509,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ257" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR257" t="n">
         <v>1.56</v>
@@ -57378,7 +57378,7 @@
         <v>1.33</v>
       </c>
       <c r="AP261" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ261" t="n">
         <v>1.31</v>
@@ -58253,7 +58253,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ265" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR265" t="n">
         <v>1.69</v>
@@ -58468,7 +58468,7 @@
         <v>0.85</v>
       </c>
       <c r="AP266" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ266" t="n">
         <v>0.79</v>
@@ -59155,13 +59155,13 @@
         <v>9</v>
       </c>
       <c r="BA269" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB269" t="n">
         <v>3</v>
       </c>
       <c r="BC269" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD269" t="n">
         <v>1.68</v>
@@ -59637,6 +59637,660 @@
       </c>
       <c r="BP271" t="n">
         <v>1.62</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B272" t="n">
+        <v>5406709</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E272" s="2" t="n">
+        <v>45220.77083333334</v>
+      </c>
+      <c r="F272" t="n">
+        <v>28</v>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>Cuiabá</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Goiás</t>
+        </is>
+      </c>
+      <c r="I272" t="n">
+        <v>0</v>
+      </c>
+      <c r="J272" t="n">
+        <v>1</v>
+      </c>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="n">
+        <v>1</v>
+      </c>
+      <c r="N272" t="n">
+        <v>2</v>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>['46']</t>
+        </is>
+      </c>
+      <c r="P272" t="inlineStr">
+        <is>
+          <t>['45+8']</t>
+        </is>
+      </c>
+      <c r="Q272" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R272" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S272" t="n">
+        <v>5</v>
+      </c>
+      <c r="T272" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U272" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V272" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W272" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X272" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y272" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z272" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA272" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB272" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC272" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD272" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE272" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AF272" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AG272" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH272" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI272" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ272" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK272" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL272" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AM272" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN272" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO272" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AP272" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ272" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AR272" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS272" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT272" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AU272" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV272" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW272" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX272" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY272" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ272" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA272" t="n">
+        <v>13</v>
+      </c>
+      <c r="BB272" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC272" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD272" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BE272" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF272" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG272" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH272" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI272" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ272" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BK272" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL272" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BM272" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BN272" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO272" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP272" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B273" t="n">
+        <v>5406702</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E273" s="2" t="n">
+        <v>45220.77083333334</v>
+      </c>
+      <c r="F273" t="n">
+        <v>28</v>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Grêmio</t>
+        </is>
+      </c>
+      <c r="I273" t="n">
+        <v>1</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="n">
+        <v>3</v>
+      </c>
+      <c r="M273" t="n">
+        <v>0</v>
+      </c>
+      <c r="N273" t="n">
+        <v>3</v>
+      </c>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>['21', '68', '90+7']</t>
+        </is>
+      </c>
+      <c r="P273" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q273" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R273" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S273" t="n">
+        <v>5</v>
+      </c>
+      <c r="T273" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U273" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V273" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W273" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X273" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y273" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z273" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA273" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB273" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC273" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD273" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE273" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF273" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG273" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH273" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI273" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ273" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK273" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AL273" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM273" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN273" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AO273" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AP273" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AQ273" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR273" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AS273" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT273" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AU273" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV273" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW273" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX273" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY273" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ273" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA273" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB273" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC273" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD273" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE273" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF273" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BG273" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH273" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="BI273" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ273" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BK273" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BL273" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BM273" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN273" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BO273" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BP273" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B274" t="n">
+        <v>5406708</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E274" s="2" t="n">
+        <v>45220.77083333334</v>
+      </c>
+      <c r="F274" t="n">
+        <v>28</v>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="I274" t="n">
+        <v>1</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="n">
+        <v>2</v>
+      </c>
+      <c r="M274" t="n">
+        <v>0</v>
+      </c>
+      <c r="N274" t="n">
+        <v>2</v>
+      </c>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>['22', '90+6']</t>
+        </is>
+      </c>
+      <c r="P274" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q274" t="n">
+        <v>3</v>
+      </c>
+      <c r="R274" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S274" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T274" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U274" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V274" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W274" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X274" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y274" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z274" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA274" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB274" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC274" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD274" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE274" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF274" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG274" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH274" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI274" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ274" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK274" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL274" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM274" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN274" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO274" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP274" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ274" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR274" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AS274" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT274" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AU274" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV274" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW274" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX274" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY274" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ274" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA274" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB274" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC274" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD274" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE274" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF274" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BG274" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH274" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="BI274" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ274" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BK274" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL274" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BM274" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BN274" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BO274" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BP274" t="n">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP274"/>
+  <dimension ref="A1:BP281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.46</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.86</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.57</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.67</v>
@@ -4189,7 +4189,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ19" t="n">
         <v>1</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ22" t="n">
         <v>0.46</v>
@@ -5497,7 +5497,7 @@
         <v>2</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR23" t="n">
         <v>1.91</v>
@@ -5715,7 +5715,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AR24" t="n">
         <v>1.18</v>
@@ -5930,10 +5930,10 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR25" t="n">
         <v>1.72</v>
@@ -6366,10 +6366,10 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR27" t="n">
         <v>2.44</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ28" t="n">
         <v>1.71</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ29" t="n">
         <v>0.93</v>
@@ -7459,7 +7459,7 @@
         <v>1</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR32" t="n">
         <v>1.94</v>
@@ -7677,7 +7677,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR33" t="n">
         <v>2.02</v>
@@ -8982,7 +8982,7 @@
         <v>1</v>
       </c>
       <c r="AP39" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.57</v>
@@ -9203,7 +9203,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR40" t="n">
         <v>1.92</v>
@@ -9418,7 +9418,7 @@
         <v>3</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ41" t="n">
         <v>1</v>
@@ -9636,10 +9636,10 @@
         <v>0</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR42" t="n">
         <v>1.75</v>
@@ -9854,10 +9854,10 @@
         <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AR43" t="n">
         <v>1.58</v>
@@ -10508,7 +10508,7 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ46" t="n">
         <v>0.93</v>
@@ -10729,7 +10729,7 @@
         <v>1</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR47" t="n">
         <v>1.63</v>
@@ -11162,10 +11162,10 @@
         <v>2</v>
       </c>
       <c r="AP49" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR49" t="n">
         <v>1.69</v>
@@ -11380,7 +11380,7 @@
         <v>0</v>
       </c>
       <c r="AP50" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="AQ50" t="n">
         <v>0.71</v>
@@ -12470,7 +12470,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.79</v>
@@ -12691,7 +12691,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ56" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR56" t="n">
         <v>1.67</v>
@@ -12906,7 +12906,7 @@
         <v>0.67</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ57" t="n">
         <v>0.46</v>
@@ -13781,7 +13781,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR61" t="n">
         <v>1.92</v>
@@ -14432,7 +14432,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.57</v>
@@ -14650,10 +14650,10 @@
         <v>1</v>
       </c>
       <c r="AP65" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR65" t="n">
         <v>1.78</v>
@@ -14871,7 +14871,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR66" t="n">
         <v>1.35</v>
@@ -15086,10 +15086,10 @@
         <v>2</v>
       </c>
       <c r="AP67" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR67" t="n">
         <v>1.76</v>
@@ -15307,7 +15307,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR68" t="n">
         <v>1.5</v>
@@ -15522,7 +15522,7 @@
         <v>0</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.71</v>
@@ -16397,7 +16397,7 @@
         <v>2</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR73" t="n">
         <v>2.18</v>
@@ -16612,10 +16612,10 @@
         <v>2</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR74" t="n">
         <v>2.29</v>
@@ -17266,7 +17266,7 @@
         <v>1</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ77" t="n">
         <v>0.86</v>
@@ -17484,10 +17484,10 @@
         <v>1.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR78" t="n">
         <v>1.79</v>
@@ -17702,10 +17702,10 @@
         <v>1</v>
       </c>
       <c r="AP79" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR79" t="n">
         <v>1.75</v>
@@ -17920,10 +17920,10 @@
         <v>1.67</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR80" t="n">
         <v>1.95</v>
@@ -18138,10 +18138,10 @@
         <v>0.33</v>
       </c>
       <c r="AP81" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AR81" t="n">
         <v>1.84</v>
@@ -20536,10 +20536,10 @@
         <v>0.75</v>
       </c>
       <c r="AP92" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR92" t="n">
         <v>1.65</v>
@@ -20754,7 +20754,7 @@
         <v>1.8</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ93" t="n">
         <v>1.36</v>
@@ -20975,7 +20975,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR94" t="n">
         <v>1.87</v>
@@ -21190,7 +21190,7 @@
         <v>0.75</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.5</v>
@@ -21408,7 +21408,7 @@
         <v>1.25</v>
       </c>
       <c r="AP96" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="AQ96" t="n">
         <v>1</v>
@@ -21629,7 +21629,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR97" t="n">
         <v>1.71</v>
@@ -21844,10 +21844,10 @@
         <v>1</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ98" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR98" t="n">
         <v>1.44</v>
@@ -22065,7 +22065,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR99" t="n">
         <v>1.67</v>
@@ -22280,7 +22280,7 @@
         <v>1.5</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ100" t="n">
         <v>0.86</v>
@@ -22501,7 +22501,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ101" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR101" t="n">
         <v>1.59</v>
@@ -22719,7 +22719,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR102" t="n">
         <v>1.84</v>
@@ -23591,7 +23591,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR106" t="n">
         <v>1.76</v>
@@ -23809,7 +23809,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AR107" t="n">
         <v>1.79</v>
@@ -24242,7 +24242,7 @@
         <v>0.4</v>
       </c>
       <c r="AP109" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ109" t="n">
         <v>0.79</v>
@@ -24678,7 +24678,7 @@
         <v>1.5</v>
       </c>
       <c r="AP111" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ111" t="n">
         <v>1.67</v>
@@ -26422,7 +26422,7 @@
         <v>0.67</v>
       </c>
       <c r="AP119" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ119" t="n">
         <v>0.93</v>
@@ -27079,7 +27079,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ122" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR122" t="n">
         <v>1.74</v>
@@ -27512,7 +27512,7 @@
         <v>1.33</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ124" t="n">
         <v>1</v>
@@ -27730,10 +27730,10 @@
         <v>1.6</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR125" t="n">
         <v>1.39</v>
@@ -27948,7 +27948,7 @@
         <v>0.8</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ126" t="n">
         <v>1.5</v>
@@ -28166,10 +28166,10 @@
         <v>0.2</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ127" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AR127" t="n">
         <v>1.78</v>
@@ -28387,7 +28387,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR128" t="n">
         <v>1.93</v>
@@ -28602,10 +28602,10 @@
         <v>0.83</v>
       </c>
       <c r="AP129" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="AQ129" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR129" t="n">
         <v>1.95</v>
@@ -28823,7 +28823,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ130" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR130" t="n">
         <v>1.62</v>
@@ -29477,7 +29477,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR133" t="n">
         <v>1.91</v>
@@ -29692,7 +29692,7 @@
         <v>0.43</v>
       </c>
       <c r="AP134" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ134" t="n">
         <v>0.71</v>
@@ -29910,10 +29910,10 @@
         <v>0.33</v>
       </c>
       <c r="AP135" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ135" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AR135" t="n">
         <v>1.72</v>
@@ -30782,7 +30782,7 @@
         <v>0.5</v>
       </c>
       <c r="AP139" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ139" t="n">
         <v>0.46</v>
@@ -31003,7 +31003,7 @@
         <v>2</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR140" t="n">
         <v>1.81</v>
@@ -31436,7 +31436,7 @@
         <v>1.17</v>
       </c>
       <c r="AP142" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="AQ142" t="n">
         <v>1.5</v>
@@ -32311,7 +32311,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ146" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR146" t="n">
         <v>1.84</v>
@@ -32526,10 +32526,10 @@
         <v>1.43</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR147" t="n">
         <v>1.44</v>
@@ -33180,10 +33180,10 @@
         <v>0.29</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ150" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AR150" t="n">
         <v>1.94</v>
@@ -34488,7 +34488,7 @@
         <v>1</v>
       </c>
       <c r="AP156" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ156" t="n">
         <v>0.79</v>
@@ -34927,7 +34927,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ158" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR158" t="n">
         <v>1.82</v>
@@ -35142,10 +35142,10 @@
         <v>1</v>
       </c>
       <c r="AP159" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ159" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR159" t="n">
         <v>1.68</v>
@@ -35363,7 +35363,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR160" t="n">
         <v>2.01</v>
@@ -35578,7 +35578,7 @@
         <v>1.63</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ161" t="n">
         <v>1.36</v>
@@ -35799,7 +35799,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ162" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR162" t="n">
         <v>1.88</v>
@@ -36014,10 +36014,10 @@
         <v>0.71</v>
       </c>
       <c r="AP163" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ163" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR163" t="n">
         <v>1.71</v>
@@ -36450,7 +36450,7 @@
         <v>1.38</v>
       </c>
       <c r="AP165" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ165" t="n">
         <v>1.67</v>
@@ -36886,7 +36886,7 @@
         <v>0.63</v>
       </c>
       <c r="AP167" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="AQ167" t="n">
         <v>0.57</v>
@@ -37107,7 +37107,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ168" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR168" t="n">
         <v>1.78</v>
@@ -37543,7 +37543,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ170" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR170" t="n">
         <v>1.47</v>
@@ -37758,7 +37758,7 @@
         <v>0.78</v>
       </c>
       <c r="AP171" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ171" t="n">
         <v>0.71</v>
@@ -38197,7 +38197,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR173" t="n">
         <v>1.86</v>
@@ -39069,7 +39069,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ177" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AR177" t="n">
         <v>1.67</v>
@@ -39284,7 +39284,7 @@
         <v>1.25</v>
       </c>
       <c r="AP178" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ178" t="n">
         <v>1.5</v>
@@ -39720,7 +39720,7 @@
         <v>1</v>
       </c>
       <c r="AP180" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="AQ180" t="n">
         <v>0.79</v>
@@ -39938,7 +39938,7 @@
         <v>0.67</v>
       </c>
       <c r="AP181" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ181" t="n">
         <v>0.86</v>
@@ -40159,7 +40159,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ182" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR182" t="n">
         <v>1.83</v>
@@ -40374,7 +40374,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ183" t="n">
         <v>0.57</v>
@@ -40810,7 +40810,7 @@
         <v>0.5</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ185" t="n">
         <v>0.46</v>
@@ -41031,7 +41031,7 @@
         <v>2</v>
       </c>
       <c r="AQ186" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR186" t="n">
         <v>1.82</v>
@@ -41249,7 +41249,7 @@
         <v>2</v>
       </c>
       <c r="AQ187" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR187" t="n">
         <v>1.94</v>
@@ -41464,10 +41464,10 @@
         <v>0.63</v>
       </c>
       <c r="AP188" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ188" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR188" t="n">
         <v>2.11</v>
@@ -41900,7 +41900,7 @@
         <v>0.89</v>
       </c>
       <c r="AP190" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ190" t="n">
         <v>1</v>
@@ -42339,7 +42339,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ192" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AR192" t="n">
         <v>1.79</v>
@@ -42557,7 +42557,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ193" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR193" t="n">
         <v>1.63</v>
@@ -43426,7 +43426,7 @@
         <v>1.4</v>
       </c>
       <c r="AP197" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ197" t="n">
         <v>1.67</v>
@@ -43865,7 +43865,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ199" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR199" t="n">
         <v>1.69</v>
@@ -44080,7 +44080,7 @@
         <v>0.9</v>
       </c>
       <c r="AP200" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ200" t="n">
         <v>0.79</v>
@@ -44298,7 +44298,7 @@
         <v>1</v>
       </c>
       <c r="AP201" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ201" t="n">
         <v>0.93</v>
@@ -44516,7 +44516,7 @@
         <v>1.6</v>
       </c>
       <c r="AP202" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ202" t="n">
         <v>1.36</v>
@@ -44734,10 +44734,10 @@
         <v>0.44</v>
       </c>
       <c r="AP203" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ203" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR203" t="n">
         <v>1.68</v>
@@ -45170,7 +45170,7 @@
         <v>0.6</v>
       </c>
       <c r="AP205" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="AQ205" t="n">
         <v>0.86</v>
@@ -45391,7 +45391,7 @@
         <v>2</v>
       </c>
       <c r="AQ206" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR206" t="n">
         <v>1.89</v>
@@ -45609,7 +45609,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ207" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR207" t="n">
         <v>1.94</v>
@@ -46045,7 +46045,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ209" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR209" t="n">
         <v>1.8</v>
@@ -46696,7 +46696,7 @@
         <v>1.55</v>
       </c>
       <c r="AP212" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="AQ212" t="n">
         <v>1.67</v>
@@ -47350,10 +47350,10 @@
         <v>1.55</v>
       </c>
       <c r="AP215" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ215" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR215" t="n">
         <v>1.76</v>
@@ -47571,7 +47571,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ216" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR216" t="n">
         <v>1.75</v>
@@ -47789,7 +47789,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ217" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR217" t="n">
         <v>1.73</v>
@@ -48222,7 +48222,7 @@
         <v>0.5</v>
       </c>
       <c r="AP219" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ219" t="n">
         <v>0.46</v>
@@ -48440,10 +48440,10 @@
         <v>0.9</v>
       </c>
       <c r="AP220" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ220" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR220" t="n">
         <v>1.86</v>
@@ -48879,7 +48879,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ222" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR222" t="n">
         <v>1.54</v>
@@ -49094,7 +49094,7 @@
         <v>0.55</v>
       </c>
       <c r="AP223" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ223" t="n">
         <v>0.86</v>
@@ -49312,7 +49312,7 @@
         <v>1.11</v>
       </c>
       <c r="AP224" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ224" t="n">
         <v>0.86</v>
@@ -49533,7 +49533,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ225" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AR225" t="n">
         <v>1.62</v>
@@ -49969,7 +49969,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ227" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR227" t="n">
         <v>1.72</v>
@@ -50184,7 +50184,7 @@
         <v>1.8</v>
       </c>
       <c r="AP228" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ228" t="n">
         <v>1.71</v>
@@ -50405,7 +50405,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ229" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR229" t="n">
         <v>1.72</v>
@@ -50620,7 +50620,7 @@
         <v>1</v>
       </c>
       <c r="AP230" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ230" t="n">
         <v>0.86</v>
@@ -51277,7 +51277,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ233" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR233" t="n">
         <v>1.81</v>
@@ -52149,7 +52149,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ237" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR237" t="n">
         <v>1.71</v>
@@ -52364,7 +52364,7 @@
         <v>1.64</v>
       </c>
       <c r="AP238" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ238" t="n">
         <v>1.71</v>
@@ -52582,7 +52582,7 @@
         <v>1.33</v>
       </c>
       <c r="AP239" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ239" t="n">
         <v>1.36</v>
@@ -52803,7 +52803,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ240" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR240" t="n">
         <v>1.66</v>
@@ -53236,7 +53236,7 @@
         <v>0.75</v>
       </c>
       <c r="AP242" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ242" t="n">
         <v>0.86</v>
@@ -53893,7 +53893,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ245" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR245" t="n">
         <v>1.69</v>
@@ -54108,7 +54108,7 @@
         <v>1.33</v>
       </c>
       <c r="AP246" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ246" t="n">
         <v>1.57</v>
@@ -54329,7 +54329,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ247" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR247" t="n">
         <v>1.52</v>
@@ -54547,7 +54547,7 @@
         <v>1</v>
       </c>
       <c r="AQ248" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AR248" t="n">
         <v>1.71</v>
@@ -54762,10 +54762,10 @@
         <v>1.09</v>
       </c>
       <c r="AP249" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ249" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR249" t="n">
         <v>1.62</v>
@@ -54980,10 +54980,10 @@
         <v>1.38</v>
       </c>
       <c r="AP250" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ250" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR250" t="n">
         <v>2.11</v>
@@ -55198,7 +55198,7 @@
         <v>0.92</v>
       </c>
       <c r="AP251" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="AQ251" t="n">
         <v>0.93</v>
@@ -55852,7 +55852,7 @@
         <v>1.62</v>
       </c>
       <c r="AP254" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ254" t="n">
         <v>1.67</v>
@@ -56073,7 +56073,7 @@
         <v>2</v>
       </c>
       <c r="AQ255" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR255" t="n">
         <v>1.89</v>
@@ -56506,7 +56506,7 @@
         <v>1</v>
       </c>
       <c r="AP257" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ257" t="n">
         <v>0.86</v>
@@ -56724,7 +56724,7 @@
         <v>0.38</v>
       </c>
       <c r="AP258" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ258" t="n">
         <v>0.57</v>
@@ -57163,7 +57163,7 @@
         <v>2</v>
       </c>
       <c r="AQ260" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AR260" t="n">
         <v>1.91</v>
@@ -57381,7 +57381,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ261" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR261" t="n">
         <v>1.72</v>
@@ -57599,7 +57599,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ262" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR262" t="n">
         <v>1.65</v>
@@ -58032,7 +58032,7 @@
         <v>1.23</v>
       </c>
       <c r="AP264" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ264" t="n">
         <v>1.36</v>
@@ -60291,6 +60291,1532 @@
       </c>
       <c r="BP274" t="n">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B275" t="n">
+        <v>5406701</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E275" s="2" t="n">
+        <v>45221.625</v>
+      </c>
+      <c r="F275" t="n">
+        <v>28</v>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>Botafogo</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Atlético PR</t>
+        </is>
+      </c>
+      <c r="I275" t="n">
+        <v>1</v>
+      </c>
+      <c r="J275" t="n">
+        <v>1</v>
+      </c>
+      <c r="K275" t="n">
+        <v>2</v>
+      </c>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="n">
+        <v>1</v>
+      </c>
+      <c r="N275" t="n">
+        <v>2</v>
+      </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="P275" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="Q275" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R275" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S275" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T275" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U275" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V275" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W275" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X275" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y275" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z275" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA275" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB275" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC275" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD275" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE275" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF275" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG275" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH275" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI275" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ275" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK275" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AL275" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM275" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN275" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AO275" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP275" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ275" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR275" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AS275" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT275" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AU275" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV275" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW275" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX275" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY275" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ275" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA275" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB275" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC275" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD275" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE275" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF275" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BG275" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH275" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI275" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ275" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BK275" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BL275" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BM275" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN275" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BO275" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP275" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B276" t="n">
+        <v>5406700</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E276" s="2" t="n">
+        <v>45221.66666666666</v>
+      </c>
+      <c r="F276" t="n">
+        <v>28</v>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Vasco da Gama</t>
+        </is>
+      </c>
+      <c r="I276" t="n">
+        <v>0</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0</v>
+      </c>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="n">
+        <v>0</v>
+      </c>
+      <c r="N276" t="n">
+        <v>1</v>
+      </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="P276" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q276" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R276" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S276" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T276" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U276" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V276" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W276" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X276" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y276" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z276" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA276" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB276" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AC276" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD276" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE276" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF276" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG276" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH276" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI276" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ276" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK276" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AL276" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM276" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN276" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO276" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AP276" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AQ276" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR276" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AS276" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT276" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AU276" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV276" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW276" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX276" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY276" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ276" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA276" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB276" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC276" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD276" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BE276" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF276" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BG276" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH276" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BI276" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ276" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BK276" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL276" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BM276" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN276" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BO276" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BP276" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B277" t="n">
+        <v>5406705</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E277" s="2" t="n">
+        <v>45221.66666666666</v>
+      </c>
+      <c r="F277" t="n">
+        <v>28</v>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>Atlético Mineiro</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="I277" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0</v>
+      </c>
+      <c r="L277" t="n">
+        <v>0</v>
+      </c>
+      <c r="M277" t="n">
+        <v>1</v>
+      </c>
+      <c r="N277" t="n">
+        <v>1</v>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P277" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="Q277" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R277" t="n">
+        <v>2</v>
+      </c>
+      <c r="S277" t="n">
+        <v>6</v>
+      </c>
+      <c r="T277" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U277" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V277" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W277" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X277" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y277" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z277" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA277" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB277" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AC277" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD277" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE277" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF277" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG277" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH277" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI277" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ277" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK277" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AL277" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM277" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN277" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO277" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP277" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ277" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR277" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS277" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AT277" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AU277" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV277" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW277" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX277" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY277" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ277" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA277" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB277" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC277" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD277" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BE277" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF277" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BG277" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH277" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI277" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ277" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK277" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL277" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM277" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BN277" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BO277" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP277" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B278" t="n">
+        <v>5406706</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E278" s="2" t="n">
+        <v>45221.66666666666</v>
+      </c>
+      <c r="F278" t="n">
+        <v>28</v>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="I278" t="n">
+        <v>4</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
+      <c r="K278" t="n">
+        <v>4</v>
+      </c>
+      <c r="L278" t="n">
+        <v>7</v>
+      </c>
+      <c r="M278" t="n">
+        <v>1</v>
+      </c>
+      <c r="N278" t="n">
+        <v>8</v>
+      </c>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>['1', '14', '27', '39', '54', '61', '75']</t>
+        </is>
+      </c>
+      <c r="P278" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="Q278" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R278" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S278" t="n">
+        <v>6</v>
+      </c>
+      <c r="T278" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U278" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V278" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W278" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X278" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y278" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z278" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA278" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB278" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC278" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD278" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE278" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF278" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG278" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH278" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI278" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ278" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK278" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AL278" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM278" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN278" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO278" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AP278" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ278" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR278" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS278" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT278" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU278" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV278" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW278" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX278" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY278" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ278" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA278" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB278" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC278" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD278" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BE278" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF278" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BG278" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH278" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI278" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ278" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BK278" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL278" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM278" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BN278" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BO278" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BP278" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B279" t="n">
+        <v>5406707</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E279" s="2" t="n">
+        <v>45221.77083333334</v>
+      </c>
+      <c r="F279" t="n">
+        <v>28</v>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="I279" t="n">
+        <v>0</v>
+      </c>
+      <c r="J279" t="n">
+        <v>2</v>
+      </c>
+      <c r="K279" t="n">
+        <v>2</v>
+      </c>
+      <c r="L279" t="n">
+        <v>0</v>
+      </c>
+      <c r="M279" t="n">
+        <v>2</v>
+      </c>
+      <c r="N279" t="n">
+        <v>2</v>
+      </c>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P279" t="inlineStr">
+        <is>
+          <t>['33', '45+3']</t>
+        </is>
+      </c>
+      <c r="Q279" t="n">
+        <v>5</v>
+      </c>
+      <c r="R279" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S279" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T279" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U279" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V279" t="n">
+        <v>3</v>
+      </c>
+      <c r="W279" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X279" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y279" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z279" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA279" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB279" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AC279" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD279" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE279" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF279" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG279" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH279" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI279" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ279" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK279" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL279" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM279" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AN279" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AO279" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP279" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AQ279" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR279" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS279" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT279" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AU279" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV279" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW279" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX279" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY279" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ279" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA279" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB279" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC279" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD279" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE279" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF279" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BG279" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH279" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BI279" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ279" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BK279" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL279" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BM279" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BN279" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BO279" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BP279" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B280" t="n">
+        <v>5406703</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E280" s="2" t="n">
+        <v>45221.77083333334</v>
+      </c>
+      <c r="F280" t="n">
+        <v>28</v>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>América Mineiro</t>
+        </is>
+      </c>
+      <c r="I280" t="n">
+        <v>0</v>
+      </c>
+      <c r="J280" t="n">
+        <v>1</v>
+      </c>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="n">
+        <v>1</v>
+      </c>
+      <c r="N280" t="n">
+        <v>2</v>
+      </c>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>['90+9']</t>
+        </is>
+      </c>
+      <c r="P280" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="Q280" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R280" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S280" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T280" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U280" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V280" t="n">
+        <v>3</v>
+      </c>
+      <c r="W280" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X280" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y280" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z280" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA280" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB280" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AC280" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD280" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE280" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF280" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG280" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH280" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI280" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ280" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK280" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AL280" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM280" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN280" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AO280" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AP280" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ280" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AR280" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS280" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT280" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AU280" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV280" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW280" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX280" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY280" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ280" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA280" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB280" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC280" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD280" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BE280" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF280" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BG280" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH280" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI280" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ280" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK280" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL280" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM280" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BN280" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO280" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP280" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B281" t="n">
+        <v>5406704</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E281" s="2" t="n">
+        <v>45221.77083333334</v>
+      </c>
+      <c r="F281" t="n">
+        <v>28</v>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>Bragantino</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="I281" t="n">
+        <v>1</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="n">
+        <v>0</v>
+      </c>
+      <c r="N281" t="n">
+        <v>1</v>
+      </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="P281" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q281" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R281" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S281" t="n">
+        <v>5</v>
+      </c>
+      <c r="T281" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U281" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V281" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W281" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X281" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y281" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z281" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA281" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB281" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC281" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD281" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE281" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF281" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG281" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH281" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI281" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ281" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK281" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL281" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM281" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN281" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AO281" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP281" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AQ281" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AR281" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AS281" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AT281" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AU281" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV281" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW281" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX281" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY281" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ281" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA281" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB281" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC281" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD281" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BE281" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF281" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BG281" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BH281" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BI281" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ281" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BK281" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BL281" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BM281" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BN281" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BO281" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BP281" t="n">
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP295"/>
+  <dimension ref="A1:BP298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.47</v>
@@ -2445,7 +2445,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ10" t="n">
         <v>1.43</v>
@@ -2881,7 +2881,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.56</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ29" t="n">
         <v>0.87</v>
@@ -7459,7 +7459,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR32" t="n">
         <v>1.94</v>
@@ -7895,7 +7895,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR34" t="n">
         <v>2.02</v>
@@ -8549,7 +8549,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR37" t="n">
         <v>1.06</v>
@@ -8982,7 +8982,7 @@
         <v>1</v>
       </c>
       <c r="AP39" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.67</v>
@@ -9418,7 +9418,7 @@
         <v>3</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ41" t="n">
         <v>1</v>
@@ -9636,7 +9636,7 @@
         <v>0</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.14</v>
@@ -11380,7 +11380,7 @@
         <v>0</v>
       </c>
       <c r="AP50" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ50" t="n">
         <v>0.87</v>
@@ -12037,7 +12037,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR53" t="n">
         <v>2.57</v>
@@ -12691,7 +12691,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ56" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR56" t="n">
         <v>1.67</v>
@@ -12906,7 +12906,7 @@
         <v>0.67</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ57" t="n">
         <v>0.47</v>
@@ -13563,7 +13563,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR60" t="n">
         <v>1.36</v>
@@ -15086,7 +15086,7 @@
         <v>2</v>
       </c>
       <c r="AP67" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ67" t="n">
         <v>0.57</v>
@@ -15961,7 +15961,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR71" t="n">
         <v>2.04</v>
@@ -16833,7 +16833,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR75" t="n">
         <v>1.39</v>
@@ -17266,7 +17266,7 @@
         <v>1</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ77" t="n">
         <v>0.75</v>
@@ -17484,7 +17484,7 @@
         <v>1.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ78" t="n">
         <v>0.57</v>
@@ -17705,7 +17705,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR79" t="n">
         <v>1.75</v>
@@ -18138,7 +18138,7 @@
         <v>0.33</v>
       </c>
       <c r="AP81" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ81" t="n">
         <v>0.4</v>
@@ -19885,7 +19885,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR89" t="n">
         <v>1.64</v>
@@ -20103,7 +20103,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ90" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR90" t="n">
         <v>2.25</v>
@@ -20539,7 +20539,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR92" t="n">
         <v>1.65</v>
@@ -20754,10 +20754,10 @@
         <v>1.8</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR93" t="n">
         <v>1.72</v>
@@ -21408,7 +21408,7 @@
         <v>1.25</v>
       </c>
       <c r="AP96" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ96" t="n">
         <v>1</v>
@@ -21844,7 +21844,7 @@
         <v>1</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ98" t="n">
         <v>0.73</v>
@@ -25771,7 +25771,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR116" t="n">
         <v>1.97</v>
@@ -26861,7 +26861,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR121" t="n">
         <v>2.06</v>
@@ -27730,7 +27730,7 @@
         <v>1.6</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ125" t="n">
         <v>1.43</v>
@@ -27948,7 +27948,7 @@
         <v>0.8</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ126" t="n">
         <v>1.5</v>
@@ -28602,7 +28602,7 @@
         <v>0.83</v>
       </c>
       <c r="AP129" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ129" t="n">
         <v>0.73</v>
@@ -28823,7 +28823,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ130" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR130" t="n">
         <v>1.62</v>
@@ -29041,7 +29041,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ131" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR131" t="n">
         <v>1.72</v>
@@ -31436,7 +31436,7 @@
         <v>1.17</v>
       </c>
       <c r="AP142" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ142" t="n">
         <v>1.5</v>
@@ -31657,7 +31657,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ143" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR143" t="n">
         <v>1.72</v>
@@ -31875,7 +31875,7 @@
         <v>2</v>
       </c>
       <c r="AQ144" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR144" t="n">
         <v>1.83</v>
@@ -32311,7 +32311,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ146" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR146" t="n">
         <v>1.84</v>
@@ -32526,7 +32526,7 @@
         <v>1.43</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ147" t="n">
         <v>1.4</v>
@@ -35578,10 +35578,10 @@
         <v>1.63</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR161" t="n">
         <v>1.42</v>
@@ -35799,7 +35799,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ162" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR162" t="n">
         <v>1.88</v>
@@ -36014,7 +36014,7 @@
         <v>0.71</v>
       </c>
       <c r="AP163" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ163" t="n">
         <v>0.73</v>
@@ -36886,10 +36886,10 @@
         <v>0.63</v>
       </c>
       <c r="AP167" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ167" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR167" t="n">
         <v>1.88</v>
@@ -37758,7 +37758,7 @@
         <v>0.78</v>
       </c>
       <c r="AP171" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ171" t="n">
         <v>0.87</v>
@@ -39720,7 +39720,7 @@
         <v>1</v>
       </c>
       <c r="AP180" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ180" t="n">
         <v>0.93</v>
@@ -40374,10 +40374,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ183" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR183" t="n">
         <v>1.7</v>
@@ -41031,7 +41031,7 @@
         <v>2</v>
       </c>
       <c r="AQ186" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR186" t="n">
         <v>1.82</v>
@@ -41685,7 +41685,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ189" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR189" t="n">
         <v>1.98</v>
@@ -42118,7 +42118,7 @@
         <v>0.89</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ191" t="n">
         <v>1</v>
@@ -44298,7 +44298,7 @@
         <v>1</v>
       </c>
       <c r="AP201" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ201" t="n">
         <v>0.87</v>
@@ -44519,7 +44519,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ202" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR202" t="n">
         <v>2.17</v>
@@ -44952,7 +44952,7 @@
         <v>0.6</v>
       </c>
       <c r="AP204" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ204" t="n">
         <v>0.75</v>
@@ -45173,7 +45173,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ205" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR205" t="n">
         <v>1.68</v>
@@ -45391,7 +45391,7 @@
         <v>2</v>
       </c>
       <c r="AQ206" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR206" t="n">
         <v>1.92</v>
@@ -46696,7 +46696,7 @@
         <v>1.55</v>
       </c>
       <c r="AP212" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ212" t="n">
         <v>1.56</v>
@@ -46917,7 +46917,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ213" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR213" t="n">
         <v>1.76</v>
@@ -47350,7 +47350,7 @@
         <v>1.55</v>
       </c>
       <c r="AP215" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ215" t="n">
         <v>1.4</v>
@@ -48007,7 +48007,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ218" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR218" t="n">
         <v>1.73</v>
@@ -48222,7 +48222,7 @@
         <v>0.5</v>
       </c>
       <c r="AP219" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ219" t="n">
         <v>0.47</v>
@@ -50405,7 +50405,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ229" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR229" t="n">
         <v>1.72</v>
@@ -50620,7 +50620,7 @@
         <v>1</v>
       </c>
       <c r="AP230" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ230" t="n">
         <v>1</v>
@@ -51713,7 +51713,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ235" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR235" t="n">
         <v>1.66</v>
@@ -52364,7 +52364,7 @@
         <v>1.64</v>
       </c>
       <c r="AP238" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ238" t="n">
         <v>1.71</v>
@@ -52585,7 +52585,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ239" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR239" t="n">
         <v>1.69</v>
@@ -53021,7 +53021,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ241" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR241" t="n">
         <v>1.92</v>
@@ -54108,7 +54108,7 @@
         <v>1.33</v>
       </c>
       <c r="AP246" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ246" t="n">
         <v>1.67</v>
@@ -55198,7 +55198,7 @@
         <v>0.92</v>
       </c>
       <c r="AP251" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ251" t="n">
         <v>0.87</v>
@@ -55852,7 +55852,7 @@
         <v>1.62</v>
       </c>
       <c r="AP254" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ254" t="n">
         <v>1.56</v>
@@ -56291,7 +56291,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ256" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR256" t="n">
         <v>1.89</v>
@@ -56506,7 +56506,7 @@
         <v>1</v>
       </c>
       <c r="AP257" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ257" t="n">
         <v>1</v>
@@ -57163,7 +57163,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ260" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR260" t="n">
         <v>1.65</v>
@@ -57817,7 +57817,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ263" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR263" t="n">
         <v>1.56</v>
@@ -60430,7 +60430,7 @@
         <v>1.15</v>
       </c>
       <c r="AP275" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ275" t="n">
         <v>1.14</v>
@@ -60866,10 +60866,10 @@
         <v>0.77</v>
       </c>
       <c r="AP277" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ277" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR277" t="n">
         <v>1.58</v>
@@ -61738,7 +61738,7 @@
         <v>0.38</v>
       </c>
       <c r="AP281" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ281" t="n">
         <v>0.4</v>
@@ -63703,7 +63703,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ290" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR290" t="n">
         <v>1.6</v>
@@ -64869,6 +64869,660 @@
       </c>
       <c r="BP295" t="n">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B296" t="n">
+        <v>5406723</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E296" s="2" t="n">
+        <v>45228.77083333334</v>
+      </c>
+      <c r="F296" t="n">
+        <v>30</v>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="I296" t="n">
+        <v>0</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0</v>
+      </c>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="n">
+        <v>1</v>
+      </c>
+      <c r="N296" t="n">
+        <v>2</v>
+      </c>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="P296" t="inlineStr">
+        <is>
+          <t>['90+9']</t>
+        </is>
+      </c>
+      <c r="Q296" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R296" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S296" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T296" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U296" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V296" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W296" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X296" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y296" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z296" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA296" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB296" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AC296" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD296" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AE296" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF296" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AG296" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH296" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI296" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ296" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK296" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL296" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM296" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN296" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AO296" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AP296" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ296" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AR296" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AS296" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT296" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AU296" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV296" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW296" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX296" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY296" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ296" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA296" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB296" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC296" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD296" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BE296" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF296" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BG296" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH296" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI296" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ296" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BK296" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL296" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BM296" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN296" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BO296" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BP296" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B297" t="n">
+        <v>5406726</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E297" s="2" t="n">
+        <v>45228.77083333334</v>
+      </c>
+      <c r="F297" t="n">
+        <v>30</v>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="I297" t="n">
+        <v>1</v>
+      </c>
+      <c r="J297" t="n">
+        <v>2</v>
+      </c>
+      <c r="K297" t="n">
+        <v>3</v>
+      </c>
+      <c r="L297" t="n">
+        <v>3</v>
+      </c>
+      <c r="M297" t="n">
+        <v>4</v>
+      </c>
+      <c r="N297" t="n">
+        <v>7</v>
+      </c>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>['43', '83', '90+12']</t>
+        </is>
+      </c>
+      <c r="P297" t="inlineStr">
+        <is>
+          <t>['28', '45+4', '70', '90']</t>
+        </is>
+      </c>
+      <c r="Q297" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R297" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S297" t="n">
+        <v>8</v>
+      </c>
+      <c r="T297" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U297" t="n">
+        <v>3</v>
+      </c>
+      <c r="V297" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W297" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X297" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y297" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z297" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA297" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB297" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC297" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD297" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE297" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF297" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG297" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH297" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI297" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ297" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK297" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AL297" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AM297" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AN297" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO297" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AP297" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ297" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR297" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS297" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT297" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AU297" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV297" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW297" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX297" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY297" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ297" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA297" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB297" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC297" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD297" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BE297" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF297" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BG297" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH297" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BI297" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BJ297" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BK297" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL297" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BM297" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BN297" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO297" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BP297" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B298" t="n">
+        <v>5406721</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E298" s="2" t="n">
+        <v>45228.83333333334</v>
+      </c>
+      <c r="F298" t="n">
+        <v>30</v>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>Botafogo</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>Cuiabá</t>
+        </is>
+      </c>
+      <c r="I298" t="n">
+        <v>0</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0</v>
+      </c>
+      <c r="L298" t="n">
+        <v>0</v>
+      </c>
+      <c r="M298" t="n">
+        <v>1</v>
+      </c>
+      <c r="N298" t="n">
+        <v>1</v>
+      </c>
+      <c r="O298" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P298" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="Q298" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R298" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S298" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T298" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U298" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V298" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W298" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X298" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y298" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z298" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AA298" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB298" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AC298" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD298" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="AE298" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF298" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AG298" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH298" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI298" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ298" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK298" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AL298" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM298" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AN298" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO298" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP298" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ298" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AR298" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AS298" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT298" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AU298" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV298" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW298" t="n">
+        <v>23</v>
+      </c>
+      <c r="AX298" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY298" t="n">
+        <v>32</v>
+      </c>
+      <c r="AZ298" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA298" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB298" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC298" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD298" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BE298" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF298" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BG298" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH298" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BI298" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ298" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BK298" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL298" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BM298" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BN298" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BO298" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BP298" t="n">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP298"/>
+  <dimension ref="A1:BP299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.71</v>
@@ -5497,7 +5497,7 @@
         <v>2</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR23" t="n">
         <v>1.91</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ37" t="n">
         <v>0.6899999999999999</v>
@@ -10729,7 +10729,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR47" t="n">
         <v>1.63</v>
@@ -11816,7 +11816,7 @@
         <v>0</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.56</v>
@@ -13996,7 +13996,7 @@
         <v>0</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ62" t="n">
         <v>0.87</v>
@@ -15089,7 +15089,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR67" t="n">
         <v>1.76</v>
@@ -17487,7 +17487,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR78" t="n">
         <v>1.79</v>
@@ -20972,7 +20972,7 @@
         <v>1.75</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.43</v>
@@ -22501,7 +22501,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ101" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR101" t="n">
         <v>1.59</v>
@@ -23588,7 +23588,7 @@
         <v>1.8</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ106" t="n">
         <v>1.4</v>
@@ -27079,7 +27079,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ122" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR122" t="n">
         <v>1.74</v>
@@ -27294,7 +27294,7 @@
         <v>1.2</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ123" t="n">
         <v>1</v>
@@ -33616,7 +33616,7 @@
         <v>0.75</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ152" t="n">
         <v>0.87</v>
@@ -35145,7 +35145,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ159" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR159" t="n">
         <v>1.68</v>
@@ -39066,7 +39066,7 @@
         <v>0.38</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ177" t="n">
         <v>0.4</v>
@@ -40159,7 +40159,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ182" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR182" t="n">
         <v>1.83</v>
@@ -43208,7 +43208,7 @@
         <v>1.44</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ196" t="n">
         <v>1.5</v>
@@ -45827,7 +45827,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ208" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR208" t="n">
         <v>1.94</v>
@@ -47568,7 +47568,7 @@
         <v>0.6</v>
       </c>
       <c r="AP216" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ216" t="n">
         <v>0.73</v>
@@ -49969,7 +49969,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ227" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR227" t="n">
         <v>1.72</v>
@@ -50402,7 +50402,7 @@
         <v>0.36</v>
       </c>
       <c r="AP229" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ229" t="n">
         <v>0.73</v>
@@ -53675,7 +53675,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ244" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR244" t="n">
         <v>1.69</v>
@@ -58686,7 +58686,7 @@
         <v>0.85</v>
       </c>
       <c r="AP267" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ267" t="n">
         <v>0.93</v>
@@ -60212,7 +60212,7 @@
         <v>1.08</v>
       </c>
       <c r="AP274" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ274" t="n">
         <v>1</v>
@@ -61305,7 +61305,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ279" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR279" t="n">
         <v>2.12</v>
@@ -64357,7 +64357,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ293" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR293" t="n">
         <v>1.6</v>
@@ -65523,6 +65523,224 @@
       </c>
       <c r="BP298" t="n">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B299" t="n">
+        <v>5406738</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E299" s="2" t="n">
+        <v>45230.79166666666</v>
+      </c>
+      <c r="F299" t="n">
+        <v>31</v>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="I299" t="n">
+        <v>1</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="n">
+        <v>0</v>
+      </c>
+      <c r="N299" t="n">
+        <v>1</v>
+      </c>
+      <c r="O299" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="P299" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q299" t="n">
+        <v>2</v>
+      </c>
+      <c r="R299" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S299" t="n">
+        <v>6</v>
+      </c>
+      <c r="T299" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U299" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V299" t="n">
+        <v>3</v>
+      </c>
+      <c r="W299" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X299" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y299" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z299" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA299" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB299" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC299" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD299" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE299" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF299" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG299" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH299" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI299" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ299" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK299" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AL299" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM299" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AN299" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO299" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AP299" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ299" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AR299" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AS299" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT299" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AU299" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV299" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW299" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX299" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY299" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ299" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA299" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB299" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC299" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD299" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BE299" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF299" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BG299" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH299" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="BI299" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ299" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK299" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BL299" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM299" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BN299" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BO299" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BP299" t="n">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP299"/>
+  <dimension ref="A1:BP308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.47</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.6899999999999999</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.56</v>
@@ -4189,7 +4189,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4622,10 +4622,10 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ20" t="n">
         <v>0.87</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ22" t="n">
         <v>0.47</v>
@@ -5715,7 +5715,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AR24" t="n">
         <v>1.18</v>
@@ -5933,7 +5933,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR25" t="n">
         <v>1.72</v>
@@ -6366,10 +6366,10 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR27" t="n">
         <v>2.44</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ28" t="n">
         <v>1.71</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ29" t="n">
         <v>0.87</v>
@@ -7020,10 +7020,10 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR30" t="n">
         <v>1.39</v>
@@ -7459,7 +7459,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR32" t="n">
         <v>1.94</v>
@@ -7677,7 +7677,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR33" t="n">
         <v>2.02</v>
@@ -8110,7 +8110,7 @@
         <v>1</v>
       </c>
       <c r="AP35" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ35" t="n">
         <v>0.93</v>
@@ -8767,7 +8767,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR38" t="n">
         <v>1.68</v>
@@ -8982,7 +8982,7 @@
         <v>1</v>
       </c>
       <c r="AP39" t="n">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.67</v>
@@ -9200,10 +9200,10 @@
         <v>1</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR40" t="n">
         <v>1.92</v>
@@ -9418,10 +9418,10 @@
         <v>3</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR41" t="n">
         <v>1.64</v>
@@ -9636,10 +9636,10 @@
         <v>0</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR42" t="n">
         <v>1.75</v>
@@ -9857,7 +9857,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AR43" t="n">
         <v>1.58</v>
@@ -10290,7 +10290,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.67</v>
@@ -10508,7 +10508,7 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ46" t="n">
         <v>0.87</v>
@@ -10947,7 +10947,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR48" t="n">
         <v>1.81</v>
@@ -11162,10 +11162,10 @@
         <v>2</v>
       </c>
       <c r="AP49" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR49" t="n">
         <v>1.69</v>
@@ -11380,7 +11380,7 @@
         <v>0</v>
       </c>
       <c r="AP50" t="n">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AQ50" t="n">
         <v>0.87</v>
@@ -12255,7 +12255,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR54" t="n">
         <v>2.16</v>
@@ -12470,7 +12470,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.93</v>
@@ -12691,7 +12691,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ56" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR56" t="n">
         <v>1.67</v>
@@ -12906,7 +12906,7 @@
         <v>0.67</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ57" t="n">
         <v>0.47</v>
@@ -13127,7 +13127,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR58" t="n">
         <v>1.43</v>
@@ -13342,7 +13342,7 @@
         <v>3</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.71</v>
@@ -13781,7 +13781,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR61" t="n">
         <v>1.92</v>
@@ -14217,7 +14217,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR63" t="n">
         <v>1.88</v>
@@ -14432,7 +14432,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.67</v>
@@ -14653,7 +14653,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR65" t="n">
         <v>1.78</v>
@@ -14868,10 +14868,10 @@
         <v>1.67</v>
       </c>
       <c r="AP66" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR66" t="n">
         <v>1.35</v>
@@ -15086,7 +15086,7 @@
         <v>2</v>
       </c>
       <c r="AP67" t="n">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AQ67" t="n">
         <v>0.53</v>
@@ -15307,7 +15307,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR68" t="n">
         <v>1.5</v>
@@ -15522,7 +15522,7 @@
         <v>0</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.87</v>
@@ -16179,7 +16179,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR72" t="n">
         <v>1.83</v>
@@ -16397,7 +16397,7 @@
         <v>2</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR73" t="n">
         <v>2.18</v>
@@ -16612,10 +16612,10 @@
         <v>2</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR74" t="n">
         <v>2.29</v>
@@ -16830,7 +16830,7 @@
         <v>0</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ75" t="n">
         <v>0.6899999999999999</v>
@@ -17048,7 +17048,7 @@
         <v>0.25</v>
       </c>
       <c r="AP76" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ76" t="n">
         <v>0.87</v>
@@ -17266,7 +17266,7 @@
         <v>1</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ77" t="n">
         <v>0.75</v>
@@ -17484,7 +17484,7 @@
         <v>1.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ78" t="n">
         <v>0.53</v>
@@ -17705,7 +17705,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR79" t="n">
         <v>1.75</v>
@@ -17920,10 +17920,10 @@
         <v>1.67</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR80" t="n">
         <v>1.95</v>
@@ -18138,10 +18138,10 @@
         <v>0.33</v>
       </c>
       <c r="AP81" t="n">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AR81" t="n">
         <v>1.84</v>
@@ -19667,7 +19667,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR88" t="n">
         <v>2.04</v>
@@ -19882,7 +19882,7 @@
         <v>1.5</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.47</v>
@@ -20536,10 +20536,10 @@
         <v>0.75</v>
       </c>
       <c r="AP92" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR92" t="n">
         <v>1.65</v>
@@ -20754,7 +20754,7 @@
         <v>1.8</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ93" t="n">
         <v>1.47</v>
@@ -20975,7 +20975,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR94" t="n">
         <v>1.87</v>
@@ -21190,10 +21190,10 @@
         <v>0.75</v>
       </c>
       <c r="AP95" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AQ95" t="n">
         <v>1.6</v>
-      </c>
-      <c r="AQ95" t="n">
-        <v>1.5</v>
       </c>
       <c r="AR95" t="n">
         <v>1.8</v>
@@ -21408,10 +21408,10 @@
         <v>1.25</v>
       </c>
       <c r="AP96" t="n">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR96" t="n">
         <v>1.89</v>
@@ -21629,7 +21629,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR97" t="n">
         <v>1.71</v>
@@ -21844,10 +21844,10 @@
         <v>1</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ98" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR98" t="n">
         <v>1.44</v>
@@ -22062,10 +22062,10 @@
         <v>1.5</v>
       </c>
       <c r="AP99" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR99" t="n">
         <v>1.67</v>
@@ -22280,10 +22280,10 @@
         <v>1.5</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR100" t="n">
         <v>2.19</v>
@@ -22498,7 +22498,7 @@
         <v>1.2</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ101" t="n">
         <v>0.53</v>
@@ -22716,10 +22716,10 @@
         <v>0.8</v>
       </c>
       <c r="AP102" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR102" t="n">
         <v>1.84</v>
@@ -22937,7 +22937,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR103" t="n">
         <v>2</v>
@@ -23591,7 +23591,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR106" t="n">
         <v>1.76</v>
@@ -23809,7 +23809,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AR107" t="n">
         <v>1.79</v>
@@ -24242,7 +24242,7 @@
         <v>0.4</v>
       </c>
       <c r="AP109" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ109" t="n">
         <v>0.93</v>
@@ -24460,7 +24460,7 @@
         <v>1.5</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.71</v>
@@ -27076,7 +27076,7 @@
         <v>1.17</v>
       </c>
       <c r="AP122" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ122" t="n">
         <v>0.53</v>
@@ -27297,7 +27297,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR123" t="n">
         <v>1.68</v>
@@ -27512,10 +27512,10 @@
         <v>1.33</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR124" t="n">
         <v>2.06</v>
@@ -27730,10 +27730,10 @@
         <v>1.6</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR125" t="n">
         <v>1.39</v>
@@ -27948,10 +27948,10 @@
         <v>0.8</v>
       </c>
       <c r="AP126" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AQ126" t="n">
         <v>1.6</v>
-      </c>
-      <c r="AQ126" t="n">
-        <v>1.5</v>
       </c>
       <c r="AR126" t="n">
         <v>1.81</v>
@@ -28166,10 +28166,10 @@
         <v>0.2</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ127" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AR127" t="n">
         <v>1.78</v>
@@ -28387,7 +28387,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR128" t="n">
         <v>1.93</v>
@@ -28602,10 +28602,10 @@
         <v>0.83</v>
       </c>
       <c r="AP129" t="n">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AQ129" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR129" t="n">
         <v>1.95</v>
@@ -28820,10 +28820,10 @@
         <v>0.8</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ130" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR130" t="n">
         <v>1.62</v>
@@ -29038,7 +29038,7 @@
         <v>0.17</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ131" t="n">
         <v>0.6899999999999999</v>
@@ -29256,7 +29256,7 @@
         <v>0.67</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ132" t="n">
         <v>0.75</v>
@@ -29477,7 +29477,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR133" t="n">
         <v>1.91</v>
@@ -29692,7 +29692,7 @@
         <v>0.43</v>
       </c>
       <c r="AP134" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ134" t="n">
         <v>0.87</v>
@@ -29910,10 +29910,10 @@
         <v>0.33</v>
       </c>
       <c r="AP135" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ135" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AR135" t="n">
         <v>1.72</v>
@@ -31003,7 +31003,7 @@
         <v>2</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR140" t="n">
         <v>1.81</v>
@@ -31436,10 +31436,10 @@
         <v>1.17</v>
       </c>
       <c r="AP142" t="n">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR142" t="n">
         <v>1.98</v>
@@ -32308,10 +32308,10 @@
         <v>0.67</v>
       </c>
       <c r="AP146" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ146" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR146" t="n">
         <v>1.84</v>
@@ -32526,10 +32526,10 @@
         <v>1.43</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR147" t="n">
         <v>1.44</v>
@@ -32962,7 +32962,7 @@
         <v>1.57</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ149" t="n">
         <v>1.67</v>
@@ -33180,10 +33180,10 @@
         <v>0.29</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ150" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AR150" t="n">
         <v>1.94</v>
@@ -33401,7 +33401,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR151" t="n">
         <v>2.07</v>
@@ -33834,7 +33834,7 @@
         <v>0.57</v>
       </c>
       <c r="AP153" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ153" t="n">
         <v>0.47</v>
@@ -34927,7 +34927,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ158" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR158" t="n">
         <v>1.82</v>
@@ -35142,7 +35142,7 @@
         <v>1</v>
       </c>
       <c r="AP159" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ159" t="n">
         <v>0.53</v>
@@ -35363,7 +35363,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR160" t="n">
         <v>2.01</v>
@@ -35578,7 +35578,7 @@
         <v>1.63</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ161" t="n">
         <v>1.47</v>
@@ -35799,7 +35799,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ162" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR162" t="n">
         <v>1.88</v>
@@ -36014,10 +36014,10 @@
         <v>0.71</v>
       </c>
       <c r="AP163" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ163" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR163" t="n">
         <v>1.71</v>
@@ -36235,7 +36235,7 @@
         <v>2</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR164" t="n">
         <v>1.93</v>
@@ -36450,7 +36450,7 @@
         <v>1.38</v>
       </c>
       <c r="AP165" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ165" t="n">
         <v>1.56</v>
@@ -36668,7 +36668,7 @@
         <v>0.63</v>
       </c>
       <c r="AP166" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ166" t="n">
         <v>0.75</v>
@@ -36886,7 +36886,7 @@
         <v>0.63</v>
       </c>
       <c r="AP167" t="n">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AQ167" t="n">
         <v>0.6899999999999999</v>
@@ -37107,7 +37107,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ168" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR168" t="n">
         <v>1.78</v>
@@ -37322,10 +37322,10 @@
         <v>1.5</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ169" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR169" t="n">
         <v>1.77</v>
@@ -37543,7 +37543,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ170" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR170" t="n">
         <v>1.47</v>
@@ -37758,7 +37758,7 @@
         <v>0.78</v>
       </c>
       <c r="AP171" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ171" t="n">
         <v>0.87</v>
@@ -37976,10 +37976,10 @@
         <v>1</v>
       </c>
       <c r="AP172" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ172" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR172" t="n">
         <v>1.75</v>
@@ -38197,7 +38197,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR173" t="n">
         <v>1.86</v>
@@ -38415,7 +38415,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ174" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR174" t="n">
         <v>1.79</v>
@@ -38630,7 +38630,7 @@
         <v>1.33</v>
       </c>
       <c r="AP175" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ175" t="n">
         <v>1.67</v>
@@ -39069,7 +39069,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ177" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AR177" t="n">
         <v>1.67</v>
@@ -39284,10 +39284,10 @@
         <v>1.25</v>
       </c>
       <c r="AP178" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ178" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR178" t="n">
         <v>1.63</v>
@@ -39502,7 +39502,7 @@
         <v>1.56</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ179" t="n">
         <v>1.56</v>
@@ -39720,7 +39720,7 @@
         <v>1</v>
       </c>
       <c r="AP180" t="n">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AQ180" t="n">
         <v>0.93</v>
@@ -39938,7 +39938,7 @@
         <v>0.67</v>
       </c>
       <c r="AP181" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ181" t="n">
         <v>0.75</v>
@@ -40374,7 +40374,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ183" t="n">
         <v>0.6899999999999999</v>
@@ -40810,7 +40810,7 @@
         <v>0.5</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ185" t="n">
         <v>0.47</v>
@@ -41031,7 +41031,7 @@
         <v>2</v>
       </c>
       <c r="AQ186" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR186" t="n">
         <v>1.82</v>
@@ -41249,7 +41249,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ187" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR187" t="n">
         <v>1.94</v>
@@ -41467,7 +41467,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ188" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR188" t="n">
         <v>2.11</v>
@@ -41900,7 +41900,7 @@
         <v>1.89</v>
       </c>
       <c r="AP190" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ190" t="n">
         <v>1.71</v>
@@ -42118,10 +42118,10 @@
         <v>0.89</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ191" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR191" t="n">
         <v>1.49</v>
@@ -42336,10 +42336,10 @@
         <v>1.4</v>
       </c>
       <c r="AP192" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ192" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR192" t="n">
         <v>1.63</v>
@@ -42557,7 +42557,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ193" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AR193" t="n">
         <v>1.79</v>
@@ -43211,7 +43211,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ196" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR196" t="n">
         <v>1.76</v>
@@ -43429,7 +43429,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ197" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR197" t="n">
         <v>1.47</v>
@@ -43644,7 +43644,7 @@
         <v>1.4</v>
       </c>
       <c r="AP198" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ198" t="n">
         <v>1.56</v>
@@ -43862,10 +43862,10 @@
         <v>0.89</v>
       </c>
       <c r="AP199" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ199" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR199" t="n">
         <v>1.69</v>
@@ -44080,7 +44080,7 @@
         <v>0.9</v>
       </c>
       <c r="AP200" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ200" t="n">
         <v>0.93</v>
@@ -44298,7 +44298,7 @@
         <v>1</v>
       </c>
       <c r="AP201" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ201" t="n">
         <v>0.87</v>
@@ -44952,7 +44952,7 @@
         <v>0.6</v>
       </c>
       <c r="AP204" t="n">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AQ204" t="n">
         <v>0.75</v>
@@ -45170,10 +45170,10 @@
         <v>0.44</v>
       </c>
       <c r="AP205" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ205" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR205" t="n">
         <v>1.68</v>
@@ -45609,7 +45609,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ207" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR207" t="n">
         <v>1.89</v>
@@ -46045,7 +46045,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ209" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR209" t="n">
         <v>1.8</v>
@@ -46260,7 +46260,7 @@
         <v>0.91</v>
       </c>
       <c r="AP210" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ210" t="n">
         <v>0.93</v>
@@ -46696,7 +46696,7 @@
         <v>1.55</v>
       </c>
       <c r="AP212" t="n">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AQ212" t="n">
         <v>1.56</v>
@@ -47135,7 +47135,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ214" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR214" t="n">
         <v>1.82</v>
@@ -47350,10 +47350,10 @@
         <v>1.55</v>
       </c>
       <c r="AP215" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ215" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR215" t="n">
         <v>1.76</v>
@@ -47571,7 +47571,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ216" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR216" t="n">
         <v>1.75</v>
@@ -47789,7 +47789,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ217" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR217" t="n">
         <v>1.71</v>
@@ -48007,7 +48007,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ218" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR218" t="n">
         <v>1.73</v>
@@ -48222,7 +48222,7 @@
         <v>0.5</v>
       </c>
       <c r="AP219" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ219" t="n">
         <v>0.47</v>
@@ -48440,10 +48440,10 @@
         <v>0.9</v>
       </c>
       <c r="AP220" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ220" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR220" t="n">
         <v>1.86</v>
@@ -48879,7 +48879,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ222" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR222" t="n">
         <v>1.54</v>
@@ -49094,7 +49094,7 @@
         <v>0.55</v>
       </c>
       <c r="AP223" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ223" t="n">
         <v>0.75</v>
@@ -49315,7 +49315,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ224" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR224" t="n">
         <v>2.13</v>
@@ -49530,10 +49530,10 @@
         <v>0.3</v>
       </c>
       <c r="AP225" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ225" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AR225" t="n">
         <v>1.62</v>
@@ -50184,7 +50184,7 @@
         <v>1.8</v>
       </c>
       <c r="AP228" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ228" t="n">
         <v>1.71</v>
@@ -50405,7 +50405,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ229" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR229" t="n">
         <v>1.72</v>
@@ -50620,10 +50620,10 @@
         <v>1</v>
       </c>
       <c r="AP230" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ230" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR230" t="n">
         <v>1.67</v>
@@ -50841,7 +50841,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ231" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR231" t="n">
         <v>1.73</v>
@@ -51056,7 +51056,7 @@
         <v>1.67</v>
       </c>
       <c r="AP232" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ232" t="n">
         <v>1.56</v>
@@ -51274,10 +51274,10 @@
         <v>1</v>
       </c>
       <c r="AP233" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ233" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR233" t="n">
         <v>1.92</v>
@@ -51495,7 +51495,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ234" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR234" t="n">
         <v>1.81</v>
@@ -52149,7 +52149,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ237" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR237" t="n">
         <v>1.71</v>
@@ -52364,7 +52364,7 @@
         <v>1.64</v>
       </c>
       <c r="AP238" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ238" t="n">
         <v>1.71</v>
@@ -52582,7 +52582,7 @@
         <v>1.33</v>
       </c>
       <c r="AP239" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ239" t="n">
         <v>1.47</v>
@@ -52803,7 +52803,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ240" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR240" t="n">
         <v>1.66</v>
@@ -53018,7 +53018,7 @@
         <v>0.42</v>
       </c>
       <c r="AP241" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ241" t="n">
         <v>0.6899999999999999</v>
@@ -53236,7 +53236,7 @@
         <v>0.75</v>
       </c>
       <c r="AP242" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ242" t="n">
         <v>0.75</v>
@@ -53457,7 +53457,7 @@
         <v>2</v>
       </c>
       <c r="AQ243" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR243" t="n">
         <v>1.9</v>
@@ -53672,7 +53672,7 @@
         <v>0.73</v>
       </c>
       <c r="AP244" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ244" t="n">
         <v>0.53</v>
@@ -53890,7 +53890,7 @@
         <v>0.75</v>
       </c>
       <c r="AP245" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ245" t="n">
         <v>0.87</v>
@@ -54108,7 +54108,7 @@
         <v>1.33</v>
       </c>
       <c r="AP246" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ246" t="n">
         <v>1.67</v>
@@ -54326,10 +54326,10 @@
         <v>1.09</v>
       </c>
       <c r="AP247" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ247" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR247" t="n">
         <v>1.62</v>
@@ -54547,7 +54547,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ248" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR248" t="n">
         <v>1.52</v>
@@ -54765,7 +54765,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ249" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AR249" t="n">
         <v>1.71</v>
@@ -54983,7 +54983,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ250" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR250" t="n">
         <v>2.11</v>
@@ -55198,7 +55198,7 @@
         <v>0.92</v>
       </c>
       <c r="AP251" t="n">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AQ251" t="n">
         <v>0.87</v>
@@ -55416,7 +55416,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP252" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ252" t="n">
         <v>0.75</v>
@@ -55852,7 +55852,7 @@
         <v>1.62</v>
       </c>
       <c r="AP254" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ254" t="n">
         <v>1.56</v>
@@ -56291,7 +56291,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ256" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR256" t="n">
         <v>1.89</v>
@@ -56506,10 +56506,10 @@
         <v>1</v>
       </c>
       <c r="AP257" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ257" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR257" t="n">
         <v>1.56</v>
@@ -56727,7 +56727,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ258" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR258" t="n">
         <v>1.91</v>
@@ -56945,7 +56945,7 @@
         <v>2</v>
       </c>
       <c r="AQ259" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AR259" t="n">
         <v>1.91</v>
@@ -57160,7 +57160,7 @@
         <v>0.38</v>
       </c>
       <c r="AP260" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ260" t="n">
         <v>0.6899999999999999</v>
@@ -57378,10 +57378,10 @@
         <v>1.33</v>
       </c>
       <c r="AP261" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ261" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR261" t="n">
         <v>1.72</v>
@@ -57599,7 +57599,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ262" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR262" t="n">
         <v>1.65</v>
@@ -57814,7 +57814,7 @@
         <v>1.23</v>
       </c>
       <c r="AP263" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ263" t="n">
         <v>1.47</v>
@@ -58253,7 +58253,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ265" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR265" t="n">
         <v>1.69</v>
@@ -58468,7 +58468,7 @@
         <v>0.5</v>
       </c>
       <c r="AP266" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ266" t="n">
         <v>0.47</v>
@@ -59343,7 +59343,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ270" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR270" t="n">
         <v>1.52</v>
@@ -59776,10 +59776,10 @@
         <v>0.92</v>
       </c>
       <c r="AP272" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ272" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR272" t="n">
         <v>1.96</v>
@@ -59994,7 +59994,7 @@
         <v>0.92</v>
       </c>
       <c r="AP273" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ273" t="n">
         <v>0.87</v>
@@ -60215,7 +60215,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ274" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR274" t="n">
         <v>1.73</v>
@@ -60430,10 +60430,10 @@
         <v>1.15</v>
       </c>
       <c r="AP275" t="n">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AQ275" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR275" t="n">
         <v>1.9</v>
@@ -60648,10 +60648,10 @@
         <v>1.31</v>
       </c>
       <c r="AP276" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ276" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR276" t="n">
         <v>1.65</v>
@@ -60866,10 +60866,10 @@
         <v>0.77</v>
       </c>
       <c r="AP277" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ277" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR277" t="n">
         <v>1.58</v>
@@ -61084,10 +61084,10 @@
         <v>0.77</v>
       </c>
       <c r="AP278" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ278" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR278" t="n">
         <v>1.82</v>
@@ -61520,10 +61520,10 @@
         <v>1.29</v>
       </c>
       <c r="AP280" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ280" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR280" t="n">
         <v>1.6</v>
@@ -61738,10 +61738,10 @@
         <v>0.38</v>
       </c>
       <c r="AP281" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ281" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AR281" t="n">
         <v>1.71</v>
@@ -61959,7 +61959,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ282" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AR282" t="n">
         <v>1.93</v>
@@ -63046,7 +63046,7 @@
         <v>0.71</v>
       </c>
       <c r="AP287" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ287" t="n">
         <v>0.87</v>
@@ -64139,7 +64139,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ292" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR292" t="n">
         <v>1.76</v>
@@ -64354,7 +64354,7 @@
         <v>0.62</v>
       </c>
       <c r="AP293" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ293" t="n">
         <v>0.53</v>
@@ -64572,10 +64572,10 @@
         <v>0.71</v>
       </c>
       <c r="AP294" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ294" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR294" t="n">
         <v>1.6</v>
@@ -65008,10 +65008,10 @@
         <v>0.71</v>
       </c>
       <c r="AP296" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ296" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR296" t="n">
         <v>1.72</v>
@@ -65226,7 +65226,7 @@
         <v>0.53</v>
       </c>
       <c r="AP297" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ297" t="n">
         <v>0.6899999999999999</v>
@@ -65444,7 +65444,7 @@
         <v>1.36</v>
       </c>
       <c r="AP298" t="n">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AQ298" t="n">
         <v>1.47</v>
@@ -65741,6 +65741,1968 @@
       </c>
       <c r="BP299" t="n">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B300" t="n">
+        <v>5406733</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E300" s="2" t="n">
+        <v>45231.79166666666</v>
+      </c>
+      <c r="F300" t="n">
+        <v>31</v>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>Atlético PR</t>
+        </is>
+      </c>
+      <c r="I300" t="n">
+        <v>0</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0</v>
+      </c>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="n">
+        <v>0</v>
+      </c>
+      <c r="N300" t="n">
+        <v>1</v>
+      </c>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="P300" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q300" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R300" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S300" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T300" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U300" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V300" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W300" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X300" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y300" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z300" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA300" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB300" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC300" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD300" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE300" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF300" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG300" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AH300" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI300" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ300" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK300" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AL300" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AM300" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN300" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO300" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP300" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AQ300" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR300" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AS300" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT300" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AU300" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV300" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW300" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX300" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY300" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ300" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA300" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB300" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC300" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD300" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BE300" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF300" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BG300" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH300" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BI300" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BJ300" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK300" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL300" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BM300" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BN300" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BO300" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BP300" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B301" t="n">
+        <v>5406736</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E301" s="2" t="n">
+        <v>45231.79166666666</v>
+      </c>
+      <c r="F301" t="n">
+        <v>31</v>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>América Mineiro</t>
+        </is>
+      </c>
+      <c r="I301" t="n">
+        <v>1</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0</v>
+      </c>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="n">
+        <v>1</v>
+      </c>
+      <c r="N301" t="n">
+        <v>2</v>
+      </c>
+      <c r="O301" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="P301" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="Q301" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R301" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S301" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T301" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U301" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V301" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W301" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X301" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y301" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z301" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA301" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB301" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AC301" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD301" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE301" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF301" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG301" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AH301" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AI301" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ301" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK301" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AL301" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM301" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AN301" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO301" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AP301" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ301" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AR301" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS301" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT301" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AU301" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV301" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW301" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX301" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY301" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ301" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA301" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB301" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC301" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD301" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BE301" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF301" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BG301" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH301" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI301" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ301" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK301" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL301" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BM301" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BN301" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BO301" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BP301" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B302" t="n">
+        <v>5406730</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E302" s="2" t="n">
+        <v>45231.83333333334</v>
+      </c>
+      <c r="F302" t="n">
+        <v>31</v>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="I302" t="n">
+        <v>1</v>
+      </c>
+      <c r="J302" t="n">
+        <v>1</v>
+      </c>
+      <c r="K302" t="n">
+        <v>2</v>
+      </c>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="n">
+        <v>2</v>
+      </c>
+      <c r="N302" t="n">
+        <v>3</v>
+      </c>
+      <c r="O302" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="P302" t="inlineStr">
+        <is>
+          <t>['33', '89']</t>
+        </is>
+      </c>
+      <c r="Q302" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R302" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S302" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T302" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U302" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V302" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W302" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X302" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y302" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z302" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA302" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB302" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC302" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD302" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE302" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF302" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG302" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH302" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI302" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ302" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK302" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AL302" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM302" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AN302" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AO302" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AP302" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AQ302" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR302" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS302" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT302" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AU302" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV302" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW302" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX302" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY302" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ302" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA302" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB302" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC302" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD302" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BE302" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF302" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BG302" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH302" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BI302" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ302" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK302" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL302" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BM302" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BN302" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BO302" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BP302" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B303" t="n">
+        <v>5406737</v>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E303" s="2" t="n">
+        <v>45231.83333333334</v>
+      </c>
+      <c r="F303" t="n">
+        <v>31</v>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>Grêmio</t>
+        </is>
+      </c>
+      <c r="I303" t="n">
+        <v>0</v>
+      </c>
+      <c r="J303" t="n">
+        <v>1</v>
+      </c>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="n">
+        <v>2</v>
+      </c>
+      <c r="N303" t="n">
+        <v>3</v>
+      </c>
+      <c r="O303" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="P303" t="inlineStr">
+        <is>
+          <t>['27', '83']</t>
+        </is>
+      </c>
+      <c r="Q303" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R303" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S303" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T303" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U303" t="n">
+        <v>3</v>
+      </c>
+      <c r="V303" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W303" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X303" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y303" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z303" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AA303" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB303" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AC303" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD303" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE303" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF303" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG303" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AH303" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AI303" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ303" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK303" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL303" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM303" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AN303" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AO303" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP303" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AQ303" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR303" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS303" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT303" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AU303" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV303" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW303" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX303" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY303" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ303" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA303" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB303" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC303" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD303" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE303" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF303" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG303" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH303" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BI303" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ303" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BK303" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BL303" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BM303" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BN303" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BO303" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BP303" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B304" t="n">
+        <v>5406731</v>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E304" s="2" t="n">
+        <v>45231.89583333334</v>
+      </c>
+      <c r="F304" t="n">
+        <v>31</v>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>Botafogo</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="I304" t="n">
+        <v>3</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0</v>
+      </c>
+      <c r="K304" t="n">
+        <v>3</v>
+      </c>
+      <c r="L304" t="n">
+        <v>3</v>
+      </c>
+      <c r="M304" t="n">
+        <v>4</v>
+      </c>
+      <c r="N304" t="n">
+        <v>7</v>
+      </c>
+      <c r="O304" t="inlineStr">
+        <is>
+          <t>['21', '30', '36']</t>
+        </is>
+      </c>
+      <c r="P304" t="inlineStr">
+        <is>
+          <t>['49', '84', '89', '90+9']</t>
+        </is>
+      </c>
+      <c r="Q304" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R304" t="n">
+        <v>2</v>
+      </c>
+      <c r="S304" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T304" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U304" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V304" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W304" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X304" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y304" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z304" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AA304" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB304" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AC304" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD304" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE304" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF304" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG304" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AH304" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI304" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ304" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK304" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL304" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AM304" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN304" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO304" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP304" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AQ304" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR304" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AS304" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT304" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AU304" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV304" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW304" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX304" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY304" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ304" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA304" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB304" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC304" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD304" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE304" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF304" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BG304" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH304" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI304" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ304" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK304" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL304" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM304" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BN304" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BO304" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BP304" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B305" t="n">
+        <v>5406735</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E305" s="2" t="n">
+        <v>45231.89583333334</v>
+      </c>
+      <c r="F305" t="n">
+        <v>31</v>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>Atlético Mineiro</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="I305" t="n">
+        <v>1</v>
+      </c>
+      <c r="J305" t="n">
+        <v>1</v>
+      </c>
+      <c r="K305" t="n">
+        <v>2</v>
+      </c>
+      <c r="L305" t="n">
+        <v>3</v>
+      </c>
+      <c r="M305" t="n">
+        <v>1</v>
+      </c>
+      <c r="N305" t="n">
+        <v>4</v>
+      </c>
+      <c r="O305" t="inlineStr">
+        <is>
+          <t>['16', '56', '61']</t>
+        </is>
+      </c>
+      <c r="P305" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="Q305" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R305" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S305" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T305" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U305" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V305" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W305" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X305" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y305" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z305" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA305" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB305" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC305" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD305" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE305" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF305" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG305" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AH305" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI305" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ305" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK305" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AL305" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM305" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN305" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO305" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP305" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AQ305" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AR305" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AS305" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT305" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AU305" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV305" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW305" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX305" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY305" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ305" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA305" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB305" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC305" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD305" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE305" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF305" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BG305" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH305" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BI305" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ305" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK305" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL305" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM305" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN305" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO305" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP305" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B306" t="n">
+        <v>5406739</v>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E306" s="2" t="n">
+        <v>45232.70833333334</v>
+      </c>
+      <c r="F306" t="n">
+        <v>31</v>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>Cuiabá</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>Vasco da Gama</t>
+        </is>
+      </c>
+      <c r="I306" t="n">
+        <v>0</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0</v>
+      </c>
+      <c r="L306" t="n">
+        <v>0</v>
+      </c>
+      <c r="M306" t="n">
+        <v>2</v>
+      </c>
+      <c r="N306" t="n">
+        <v>2</v>
+      </c>
+      <c r="O306" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P306" t="inlineStr">
+        <is>
+          <t>['57', '90+10']</t>
+        </is>
+      </c>
+      <c r="Q306" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R306" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S306" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T306" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U306" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V306" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W306" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X306" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y306" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z306" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA306" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB306" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC306" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD306" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE306" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AF306" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AG306" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AH306" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI306" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ306" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK306" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AL306" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AM306" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN306" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO306" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AP306" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ306" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR306" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AS306" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT306" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AU306" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV306" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW306" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX306" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY306" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ306" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA306" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB306" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC306" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD306" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BE306" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF306" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BG306" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH306" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI306" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ306" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK306" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BL306" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM306" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN306" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO306" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP306" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B307" t="n">
+        <v>5406734</v>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E307" s="2" t="n">
+        <v>45232.75</v>
+      </c>
+      <c r="F307" t="n">
+        <v>31</v>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>Goiás</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>Bragantino</t>
+        </is>
+      </c>
+      <c r="I307" t="n">
+        <v>0</v>
+      </c>
+      <c r="J307" t="n">
+        <v>1</v>
+      </c>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="n">
+        <v>0</v>
+      </c>
+      <c r="M307" t="n">
+        <v>2</v>
+      </c>
+      <c r="N307" t="n">
+        <v>2</v>
+      </c>
+      <c r="O307" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P307" t="inlineStr">
+        <is>
+          <t>['45', '90']</t>
+        </is>
+      </c>
+      <c r="Q307" t="n">
+        <v>4</v>
+      </c>
+      <c r="R307" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S307" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T307" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U307" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V307" t="n">
+        <v>3</v>
+      </c>
+      <c r="W307" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X307" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y307" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z307" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AA307" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB307" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AC307" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD307" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE307" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF307" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG307" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH307" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI307" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ307" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK307" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL307" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM307" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AN307" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO307" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP307" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AQ307" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR307" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS307" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AT307" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AU307" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV307" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW307" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX307" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY307" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ307" t="n">
+        <v>24</v>
+      </c>
+      <c r="BA307" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB307" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC307" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD307" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE307" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF307" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG307" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH307" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI307" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ307" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BK307" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BL307" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BM307" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BN307" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO307" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP307" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B308" t="n">
+        <v>5406732</v>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E308" s="2" t="n">
+        <v>45232.83333333334</v>
+      </c>
+      <c r="F308" t="n">
+        <v>31</v>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="I308" t="n">
+        <v>0</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0</v>
+      </c>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="n">
+        <v>0</v>
+      </c>
+      <c r="N308" t="n">
+        <v>1</v>
+      </c>
+      <c r="O308" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="P308" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q308" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R308" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S308" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T308" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U308" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V308" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W308" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X308" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y308" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z308" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA308" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB308" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AC308" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD308" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE308" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF308" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG308" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AH308" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI308" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ308" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK308" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL308" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM308" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN308" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AO308" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AP308" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AQ308" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR308" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AS308" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT308" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AU308" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV308" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW308" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX308" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY308" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ308" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA308" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB308" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC308" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD308" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BE308" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF308" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BG308" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH308" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI308" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ308" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BK308" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BL308" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BM308" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BN308" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO308" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BP308" t="n">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP308"/>
+  <dimension ref="A1:BP317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.53</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ11" t="n">
         <v>0.88</v>
@@ -3099,7 +3099,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.13</v>
@@ -3971,7 +3971,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.5</v>
@@ -4404,10 +4404,10 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ19" t="n">
         <v>0.93</v>
@@ -4843,7 +4843,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -5061,7 +5061,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ22" t="n">
         <v>0.47</v>
@@ -5494,7 +5494,7 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ23" t="n">
         <v>0.53</v>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ24" t="n">
         <v>0.44</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.33</v>
@@ -6148,10 +6148,10 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR26" t="n">
         <v>1.77</v>
@@ -6369,7 +6369,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR27" t="n">
         <v>2.44</v>
@@ -6587,7 +6587,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR28" t="n">
         <v>2.3</v>
@@ -6805,7 +6805,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR29" t="n">
         <v>1.28</v>
@@ -7238,10 +7238,10 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR31" t="n">
         <v>1.31</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ32" t="n">
         <v>0.88</v>
@@ -7892,10 +7892,10 @@
         <v>0</v>
       </c>
       <c r="AP34" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR34" t="n">
         <v>2.02</v>
@@ -8113,7 +8113,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR35" t="n">
         <v>1.72</v>
@@ -8331,7 +8331,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR36" t="n">
         <v>1.11</v>
@@ -8764,7 +8764,7 @@
         <v>1</v>
       </c>
       <c r="AP38" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.6</v>
@@ -8985,7 +8985,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR39" t="n">
         <v>1.26</v>
@@ -9639,7 +9639,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR42" t="n">
         <v>1.75</v>
@@ -9854,7 +9854,7 @@
         <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ43" t="n">
         <v>0.44</v>
@@ -10072,10 +10072,10 @@
         <v>1.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR44" t="n">
         <v>1.33</v>
@@ -10293,7 +10293,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR45" t="n">
         <v>1.7</v>
@@ -10511,7 +10511,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR46" t="n">
         <v>2.7</v>
@@ -10726,7 +10726,7 @@
         <v>1.5</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ47" t="n">
         <v>0.53</v>
@@ -10944,7 +10944,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.13</v>
@@ -11162,7 +11162,7 @@
         <v>2</v>
       </c>
       <c r="AP49" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ49" t="n">
         <v>0.88</v>
@@ -11383,7 +11383,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR50" t="n">
         <v>1.67</v>
@@ -11598,7 +11598,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ51" t="n">
         <v>0.47</v>
@@ -11819,7 +11819,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR52" t="n">
         <v>1.47</v>
@@ -12037,7 +12037,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR53" t="n">
         <v>2.57</v>
@@ -12252,7 +12252,7 @@
         <v>1</v>
       </c>
       <c r="AP54" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.6</v>
@@ -12473,7 +12473,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR55" t="n">
         <v>2.15</v>
@@ -12688,7 +12688,7 @@
         <v>0</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ56" t="n">
         <v>0.88</v>
@@ -13124,7 +13124,7 @@
         <v>2</v>
       </c>
       <c r="AP58" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.93</v>
@@ -13345,7 +13345,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR59" t="n">
         <v>1.78</v>
@@ -13778,7 +13778,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.33</v>
@@ -13999,7 +13999,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR62" t="n">
         <v>1.74</v>
@@ -14214,7 +14214,7 @@
         <v>1.67</v>
       </c>
       <c r="AP63" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ63" t="n">
         <v>0.93</v>
@@ -14432,10 +14432,10 @@
         <v>1.33</v>
       </c>
       <c r="AP64" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR64" t="n">
         <v>1.63</v>
@@ -14650,10 +14650,10 @@
         <v>1</v>
       </c>
       <c r="AP65" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR65" t="n">
         <v>1.78</v>
@@ -15304,7 +15304,7 @@
         <v>2</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ68" t="n">
         <v>1.5</v>
@@ -15525,7 +15525,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR69" t="n">
         <v>2.5</v>
@@ -15740,10 +15740,10 @@
         <v>0.33</v>
       </c>
       <c r="AP70" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR70" t="n">
         <v>1.55</v>
@@ -15958,10 +15958,10 @@
         <v>1</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR71" t="n">
         <v>2.04</v>
@@ -16394,7 +16394,7 @@
         <v>1.25</v>
       </c>
       <c r="AP73" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.88</v>
@@ -17051,7 +17051,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ76" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR76" t="n">
         <v>1.5</v>
@@ -17269,7 +17269,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR77" t="n">
         <v>1.65</v>
@@ -17702,7 +17702,7 @@
         <v>1</v>
       </c>
       <c r="AP79" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ79" t="n">
         <v>0.88</v>
@@ -18356,10 +18356,10 @@
         <v>0.75</v>
       </c>
       <c r="AP82" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR82" t="n">
         <v>2.14</v>
@@ -18574,10 +18574,10 @@
         <v>0</v>
       </c>
       <c r="AP83" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR83" t="n">
         <v>1.74</v>
@@ -18792,10 +18792,10 @@
         <v>1.75</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR84" t="n">
         <v>2.07</v>
@@ -19013,7 +19013,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR85" t="n">
         <v>1.85</v>
@@ -19228,10 +19228,10 @@
         <v>0.25</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR86" t="n">
         <v>1.5</v>
@@ -19446,7 +19446,7 @@
         <v>0.75</v>
       </c>
       <c r="AP87" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ87" t="n">
         <v>0.47</v>
@@ -19885,7 +19885,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR89" t="n">
         <v>1.64</v>
@@ -20100,7 +20100,7 @@
         <v>0.25</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ90" t="n">
         <v>0.6899999999999999</v>
@@ -20318,10 +20318,10 @@
         <v>1</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR91" t="n">
         <v>2.09</v>
@@ -20536,7 +20536,7 @@
         <v>0.75</v>
       </c>
       <c r="AP92" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ92" t="n">
         <v>0.88</v>
@@ -20757,7 +20757,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR93" t="n">
         <v>1.72</v>
@@ -21626,10 +21626,10 @@
         <v>0.75</v>
       </c>
       <c r="AP97" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR97" t="n">
         <v>1.71</v>
@@ -22719,7 +22719,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR102" t="n">
         <v>1.84</v>
@@ -22934,7 +22934,7 @@
         <v>1</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ103" t="n">
         <v>0.93</v>
@@ -23152,10 +23152,10 @@
         <v>0</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR104" t="n">
         <v>1.58</v>
@@ -23373,7 +23373,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR105" t="n">
         <v>1.92</v>
@@ -23806,7 +23806,7 @@
         <v>0.25</v>
       </c>
       <c r="AP107" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ107" t="n">
         <v>0.44</v>
@@ -24024,10 +24024,10 @@
         <v>0.2</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR108" t="n">
         <v>1.97</v>
@@ -24242,10 +24242,10 @@
         <v>0.4</v>
       </c>
       <c r="AP109" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR109" t="n">
         <v>1.74</v>
@@ -24463,7 +24463,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR110" t="n">
         <v>1.37</v>
@@ -24678,10 +24678,10 @@
         <v>1.5</v>
       </c>
       <c r="AP111" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR111" t="n">
         <v>1.85</v>
@@ -24899,7 +24899,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ112" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR112" t="n">
         <v>1.8</v>
@@ -25114,10 +25114,10 @@
         <v>1.83</v>
       </c>
       <c r="AP113" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR113" t="n">
         <v>1.99</v>
@@ -25335,7 +25335,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ114" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR114" t="n">
         <v>1.76</v>
@@ -25550,7 +25550,7 @@
         <v>0.6</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ115" t="n">
         <v>0.47</v>
@@ -25768,7 +25768,7 @@
         <v>0.2</v>
       </c>
       <c r="AP116" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ116" t="n">
         <v>0.6899999999999999</v>
@@ -25986,10 +25986,10 @@
         <v>1.8</v>
       </c>
       <c r="AP117" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR117" t="n">
         <v>2.21</v>
@@ -26204,10 +26204,10 @@
         <v>1.2</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR118" t="n">
         <v>1.58</v>
@@ -26422,10 +26422,10 @@
         <v>0.67</v>
       </c>
       <c r="AP119" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ119" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR119" t="n">
         <v>2.07</v>
@@ -26640,10 +26640,10 @@
         <v>0.83</v>
       </c>
       <c r="AP120" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ120" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR120" t="n">
         <v>1.82</v>
@@ -26858,10 +26858,10 @@
         <v>1.67</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR121" t="n">
         <v>2.06</v>
@@ -29259,7 +29259,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR132" t="n">
         <v>1.61</v>
@@ -29474,7 +29474,7 @@
         <v>1.5</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ133" t="n">
         <v>1.33</v>
@@ -29695,7 +29695,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ134" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR134" t="n">
         <v>1.73</v>
@@ -29910,7 +29910,7 @@
         <v>0.33</v>
       </c>
       <c r="AP135" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ135" t="n">
         <v>0.44</v>
@@ -30128,10 +30128,10 @@
         <v>1.5</v>
       </c>
       <c r="AP136" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR136" t="n">
         <v>2.2</v>
@@ -30346,10 +30346,10 @@
         <v>0.57</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ137" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR137" t="n">
         <v>1.55</v>
@@ -30567,7 +30567,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ138" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR138" t="n">
         <v>1.83</v>
@@ -30782,7 +30782,7 @@
         <v>0.5</v>
       </c>
       <c r="AP139" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ139" t="n">
         <v>0.47</v>
@@ -31000,10 +31000,10 @@
         <v>0.67</v>
       </c>
       <c r="AP140" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR140" t="n">
         <v>1.81</v>
@@ -31218,10 +31218,10 @@
         <v>2</v>
       </c>
       <c r="AP141" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR141" t="n">
         <v>1.98</v>
@@ -31654,7 +31654,7 @@
         <v>0.57</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ143" t="n">
         <v>0.6899999999999999</v>
@@ -31872,10 +31872,10 @@
         <v>1.43</v>
       </c>
       <c r="AP144" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ144" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR144" t="n">
         <v>1.83</v>
@@ -32093,7 +32093,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR145" t="n">
         <v>1.84</v>
@@ -32747,7 +32747,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ148" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR148" t="n">
         <v>2.05</v>
@@ -32965,7 +32965,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ149" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR149" t="n">
         <v>1.79</v>
@@ -33398,7 +33398,7 @@
         <v>1.14</v>
       </c>
       <c r="AP151" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ151" t="n">
         <v>0.93</v>
@@ -33619,7 +33619,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ152" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR152" t="n">
         <v>1.64</v>
@@ -34052,10 +34052,10 @@
         <v>1.5</v>
       </c>
       <c r="AP154" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR154" t="n">
         <v>1.96</v>
@@ -34270,10 +34270,10 @@
         <v>2.14</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR155" t="n">
         <v>1.55</v>
@@ -34488,10 +34488,10 @@
         <v>1</v>
       </c>
       <c r="AP156" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ156" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR156" t="n">
         <v>2.1</v>
@@ -34706,10 +34706,10 @@
         <v>0.5</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ157" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR157" t="n">
         <v>1.66</v>
@@ -34924,10 +34924,10 @@
         <v>0.57</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ158" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR158" t="n">
         <v>1.82</v>
@@ -35142,7 +35142,7 @@
         <v>1</v>
       </c>
       <c r="AP159" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ159" t="n">
         <v>0.53</v>
@@ -35581,7 +35581,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR161" t="n">
         <v>1.42</v>
@@ -36232,7 +36232,7 @@
         <v>1</v>
       </c>
       <c r="AP164" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ164" t="n">
         <v>1.6</v>
@@ -36453,7 +36453,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ165" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR165" t="n">
         <v>1.75</v>
@@ -36671,7 +36671,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ166" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR166" t="n">
         <v>1.9</v>
@@ -37104,7 +37104,7 @@
         <v>1.38</v>
       </c>
       <c r="AP168" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ168" t="n">
         <v>1.5</v>
@@ -37540,10 +37540,10 @@
         <v>0.88</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ170" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR170" t="n">
         <v>1.47</v>
@@ -37761,7 +37761,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ171" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR171" t="n">
         <v>1.49</v>
@@ -38412,7 +38412,7 @@
         <v>1.43</v>
       </c>
       <c r="AP174" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ174" t="n">
         <v>1.13</v>
@@ -38633,7 +38633,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ175" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR175" t="n">
         <v>1.93</v>
@@ -38848,10 +38848,10 @@
         <v>2</v>
       </c>
       <c r="AP176" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR176" t="n">
         <v>1.68</v>
@@ -39284,7 +39284,7 @@
         <v>1.25</v>
       </c>
       <c r="AP178" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ178" t="n">
         <v>1.6</v>
@@ -39505,7 +39505,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ179" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR179" t="n">
         <v>1.58</v>
@@ -39723,7 +39723,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ180" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR180" t="n">
         <v>1.88</v>
@@ -39941,7 +39941,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ181" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR181" t="n">
         <v>1.72</v>
@@ -40156,7 +40156,7 @@
         <v>0.88</v>
       </c>
       <c r="AP182" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ182" t="n">
         <v>0.53</v>
@@ -40592,10 +40592,10 @@
         <v>0.78</v>
       </c>
       <c r="AP184" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ184" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR184" t="n">
         <v>1.81</v>
@@ -41028,7 +41028,7 @@
         <v>0.5</v>
       </c>
       <c r="AP186" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ186" t="n">
         <v>0.88</v>
@@ -41246,7 +41246,7 @@
         <v>1.63</v>
       </c>
       <c r="AP187" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ187" t="n">
         <v>1.33</v>
@@ -41464,7 +41464,7 @@
         <v>0.63</v>
       </c>
       <c r="AP188" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ188" t="n">
         <v>0.88</v>
@@ -41685,7 +41685,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ189" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR189" t="n">
         <v>1.98</v>
@@ -41903,7 +41903,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ190" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR190" t="n">
         <v>1.96</v>
@@ -42772,10 +42772,10 @@
         <v>0.8</v>
       </c>
       <c r="AP194" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ194" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR194" t="n">
         <v>1.67</v>
@@ -42990,10 +42990,10 @@
         <v>1.5</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ195" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR195" t="n">
         <v>1.75</v>
@@ -43426,7 +43426,7 @@
         <v>1.25</v>
       </c>
       <c r="AP197" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ197" t="n">
         <v>1.13</v>
@@ -43644,10 +43644,10 @@
         <v>1.4</v>
       </c>
       <c r="AP198" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ198" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR198" t="n">
         <v>1.59</v>
@@ -43865,7 +43865,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ199" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR199" t="n">
         <v>1.69</v>
@@ -44083,7 +44083,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ200" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR200" t="n">
         <v>1.92</v>
@@ -44301,7 +44301,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ201" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR201" t="n">
         <v>1.75</v>
@@ -44516,10 +44516,10 @@
         <v>1.6</v>
       </c>
       <c r="AP202" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ202" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR202" t="n">
         <v>2.17</v>
@@ -44734,7 +44734,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP203" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ203" t="n">
         <v>0.47</v>
@@ -44955,7 +44955,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ204" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR204" t="n">
         <v>1.91</v>
@@ -45388,7 +45388,7 @@
         <v>0.5</v>
       </c>
       <c r="AP206" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ206" t="n">
         <v>0.6899999999999999</v>
@@ -45606,7 +45606,7 @@
         <v>0.67</v>
       </c>
       <c r="AP207" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ207" t="n">
         <v>0.88</v>
@@ -46042,7 +46042,7 @@
         <v>1.44</v>
       </c>
       <c r="AP209" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ209" t="n">
         <v>1.33</v>
@@ -46263,7 +46263,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ210" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR210" t="n">
         <v>1.66</v>
@@ -46481,7 +46481,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ211" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR211" t="n">
         <v>1.89</v>
@@ -46699,7 +46699,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ212" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR212" t="n">
         <v>1.86</v>
@@ -46914,10 +46914,10 @@
         <v>1.45</v>
       </c>
       <c r="AP213" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ213" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR213" t="n">
         <v>1.76</v>
@@ -47786,7 +47786,7 @@
         <v>1.3</v>
       </c>
       <c r="AP217" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ217" t="n">
         <v>1.6</v>
@@ -48004,7 +48004,7 @@
         <v>0.4</v>
       </c>
       <c r="AP218" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ218" t="n">
         <v>0.88</v>
@@ -48443,7 +48443,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ220" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR220" t="n">
         <v>1.86</v>
@@ -48658,10 +48658,10 @@
         <v>0.82</v>
       </c>
       <c r="AP221" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ221" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR221" t="n">
         <v>1.89</v>
@@ -48876,7 +48876,7 @@
         <v>1.3</v>
       </c>
       <c r="AP222" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ222" t="n">
         <v>1.33</v>
@@ -49094,10 +49094,10 @@
         <v>0.55</v>
       </c>
       <c r="AP223" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ223" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR223" t="n">
         <v>1.6</v>
@@ -49312,7 +49312,7 @@
         <v>1.11</v>
       </c>
       <c r="AP224" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ224" t="n">
         <v>1.13</v>
@@ -49748,10 +49748,10 @@
         <v>1</v>
       </c>
       <c r="AP226" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ226" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR226" t="n">
         <v>1.87</v>
@@ -49966,7 +49966,7 @@
         <v>0.8</v>
       </c>
       <c r="AP227" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ227" t="n">
         <v>0.53</v>
@@ -50187,7 +50187,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ228" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR228" t="n">
         <v>1.7</v>
@@ -50838,7 +50838,7 @@
         <v>1.27</v>
       </c>
       <c r="AP231" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ231" t="n">
         <v>1.6</v>
@@ -51059,7 +51059,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ232" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR232" t="n">
         <v>1.63</v>
@@ -51710,7 +51710,7 @@
         <v>0.45</v>
       </c>
       <c r="AP235" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ235" t="n">
         <v>0.6899999999999999</v>
@@ -51931,7 +51931,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ236" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR236" t="n">
         <v>1.94</v>
@@ -52146,7 +52146,7 @@
         <v>1.5</v>
       </c>
       <c r="AP237" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ237" t="n">
         <v>1.5</v>
@@ -52367,7 +52367,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ238" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR238" t="n">
         <v>1.71</v>
@@ -52585,7 +52585,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ239" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR239" t="n">
         <v>1.69</v>
@@ -52800,7 +52800,7 @@
         <v>0.64</v>
       </c>
       <c r="AP240" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ240" t="n">
         <v>0.88</v>
@@ -53239,7 +53239,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ242" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR242" t="n">
         <v>1.8</v>
@@ -53454,7 +53454,7 @@
         <v>1</v>
       </c>
       <c r="AP243" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ243" t="n">
         <v>1.13</v>
@@ -53893,7 +53893,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ245" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR245" t="n">
         <v>1.92</v>
@@ -54111,7 +54111,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ246" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR246" t="n">
         <v>1.56</v>
@@ -54326,10 +54326,10 @@
         <v>1.09</v>
       </c>
       <c r="AP247" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ247" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR247" t="n">
         <v>1.62</v>
@@ -54544,7 +54544,7 @@
         <v>0.83</v>
       </c>
       <c r="AP248" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ248" t="n">
         <v>0.88</v>
@@ -54762,7 +54762,7 @@
         <v>0.36</v>
       </c>
       <c r="AP249" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ249" t="n">
         <v>0.44</v>
@@ -54980,7 +54980,7 @@
         <v>1.38</v>
       </c>
       <c r="AP250" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ250" t="n">
         <v>1.5</v>
@@ -55201,7 +55201,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ251" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR251" t="n">
         <v>1.88</v>
@@ -55419,7 +55419,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ252" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR252" t="n">
         <v>1.57</v>
@@ -55634,7 +55634,7 @@
         <v>0.45</v>
       </c>
       <c r="AP253" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ253" t="n">
         <v>0.47</v>
@@ -55855,7 +55855,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ254" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR254" t="n">
         <v>1.74</v>
@@ -56073,7 +56073,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ255" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR255" t="n">
         <v>1.77</v>
@@ -56288,7 +56288,7 @@
         <v>0.58</v>
       </c>
       <c r="AP256" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ256" t="n">
         <v>0.88</v>
@@ -56942,7 +56942,7 @@
         <v>0.42</v>
       </c>
       <c r="AP259" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AQ259" t="n">
         <v>0.44</v>
@@ -57596,10 +57596,10 @@
         <v>1</v>
       </c>
       <c r="AP262" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ262" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR262" t="n">
         <v>1.65</v>
@@ -57814,10 +57814,10 @@
         <v>1.23</v>
       </c>
       <c r="AP263" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ263" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR263" t="n">
         <v>1.56</v>
@@ -58032,10 +58032,10 @@
         <v>1.62</v>
       </c>
       <c r="AP264" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ264" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR264" t="n">
         <v>1.7</v>
@@ -58250,7 +58250,7 @@
         <v>1.17</v>
       </c>
       <c r="AP265" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ265" t="n">
         <v>0.93</v>
@@ -58689,7 +58689,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ267" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR267" t="n">
         <v>1.75</v>
@@ -58904,10 +58904,10 @@
         <v>1.46</v>
       </c>
       <c r="AP268" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ268" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR268" t="n">
         <v>1.93</v>
@@ -59122,10 +59122,10 @@
         <v>1.57</v>
       </c>
       <c r="AP269" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ269" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR269" t="n">
         <v>1.68</v>
@@ -59340,7 +59340,7 @@
         <v>1.38</v>
       </c>
       <c r="AP270" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ270" t="n">
         <v>1.6</v>
@@ -59561,7 +59561,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ271" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR271" t="n">
         <v>1.8</v>
@@ -59997,7 +59997,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ273" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR273" t="n">
         <v>1.69</v>
@@ -60433,7 +60433,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ275" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR275" t="n">
         <v>1.9</v>
@@ -61302,7 +61302,7 @@
         <v>0.67</v>
       </c>
       <c r="AP279" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ279" t="n">
         <v>0.53</v>
@@ -61520,7 +61520,7 @@
         <v>1.29</v>
       </c>
       <c r="AP280" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ280" t="n">
         <v>1.5</v>
@@ -62177,7 +62177,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ283" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR283" t="n">
         <v>1.88</v>
@@ -62392,10 +62392,10 @@
         <v>1.57</v>
       </c>
       <c r="AP284" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ284" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR284" t="n">
         <v>2.08</v>
@@ -62610,10 +62610,10 @@
         <v>0.86</v>
       </c>
       <c r="AP285" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ285" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR285" t="n">
         <v>1.67</v>
@@ -62828,7 +62828,7 @@
         <v>0.46</v>
       </c>
       <c r="AP286" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ286" t="n">
         <v>0.47</v>
@@ -63049,7 +63049,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ287" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR287" t="n">
         <v>1.71</v>
@@ -63264,10 +63264,10 @@
         <v>1.67</v>
       </c>
       <c r="AP288" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ288" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR288" t="n">
         <v>1.65</v>
@@ -63482,10 +63482,10 @@
         <v>0.79</v>
       </c>
       <c r="AP289" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ289" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR289" t="n">
         <v>1.71</v>
@@ -63700,7 +63700,7 @@
         <v>0.57</v>
       </c>
       <c r="AP290" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ290" t="n">
         <v>0.6899999999999999</v>
@@ -63918,10 +63918,10 @@
         <v>0.8</v>
       </c>
       <c r="AP291" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ291" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR291" t="n">
         <v>1.89</v>
@@ -64136,7 +64136,7 @@
         <v>0.86</v>
       </c>
       <c r="AP292" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ292" t="n">
         <v>1.13</v>
@@ -65447,7 +65447,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ298" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR298" t="n">
         <v>1.84</v>
@@ -65883,7 +65883,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ300" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR300" t="n">
         <v>1.74</v>
@@ -66534,7 +66534,7 @@
         <v>1</v>
       </c>
       <c r="AP303" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ303" t="n">
         <v>1.13</v>
@@ -67702,6 +67702,1968 @@
         <v>2.35</v>
       </c>
       <c r="BP308" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B309" t="n">
+        <v>5406749</v>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E309" s="2" t="n">
+        <v>45234.8125</v>
+      </c>
+      <c r="F309" t="n">
+        <v>32</v>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>América Mineiro</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>Atlético Mineiro</t>
+        </is>
+      </c>
+      <c r="I309" t="n">
+        <v>0</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0</v>
+      </c>
+      <c r="K309" t="n">
+        <v>0</v>
+      </c>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="n">
+        <v>1</v>
+      </c>
+      <c r="N309" t="n">
+        <v>2</v>
+      </c>
+      <c r="O309" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="P309" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="Q309" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="R309" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S309" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T309" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U309" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V309" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W309" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X309" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y309" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z309" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AA309" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB309" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AC309" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD309" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AE309" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF309" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG309" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH309" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI309" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ309" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK309" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL309" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AM309" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AN309" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AO309" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP309" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AQ309" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR309" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AS309" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT309" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU309" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV309" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW309" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX309" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY309" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ309" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA309" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB309" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC309" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD309" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE309" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF309" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BG309" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH309" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI309" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ309" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK309" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL309" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BM309" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BN309" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BO309" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BP309" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B310" t="n">
+        <v>5406746</v>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E310" s="2" t="n">
+        <v>45234.8125</v>
+      </c>
+      <c r="F310" t="n">
+        <v>32</v>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>Grêmio</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="I310" t="n">
+        <v>0</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0</v>
+      </c>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="n">
+        <v>0</v>
+      </c>
+      <c r="N310" t="n">
+        <v>1</v>
+      </c>
+      <c r="O310" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="P310" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q310" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R310" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S310" t="n">
+        <v>5</v>
+      </c>
+      <c r="T310" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U310" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V310" t="n">
+        <v>3</v>
+      </c>
+      <c r="W310" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X310" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y310" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z310" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA310" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB310" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC310" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD310" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AE310" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF310" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AG310" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH310" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI310" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ310" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK310" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL310" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM310" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN310" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO310" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP310" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AQ310" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR310" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS310" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT310" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AU310" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV310" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW310" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX310" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY310" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ310" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA310" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB310" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC310" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD310" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE310" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF310" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BG310" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH310" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI310" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ310" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BK310" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BL310" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BM310" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BN310" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO310" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BP310" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B311" t="n">
+        <v>5406742</v>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E311" s="2" t="n">
+        <v>45234.89583333334</v>
+      </c>
+      <c r="F311" t="n">
+        <v>32</v>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>Atlético PR</t>
+        </is>
+      </c>
+      <c r="I311" t="n">
+        <v>1</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0</v>
+      </c>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="n">
+        <v>0</v>
+      </c>
+      <c r="N311" t="n">
+        <v>1</v>
+      </c>
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="P311" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q311" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R311" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S311" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T311" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U311" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V311" t="n">
+        <v>3</v>
+      </c>
+      <c r="W311" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X311" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y311" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z311" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA311" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB311" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AC311" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD311" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE311" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF311" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG311" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH311" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI311" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ311" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK311" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AL311" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM311" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN311" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AO311" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AP311" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AQ311" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR311" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AS311" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT311" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AU311" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV311" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW311" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX311" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY311" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ311" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA311" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB311" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC311" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD311" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BE311" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF311" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BG311" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH311" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BI311" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BJ311" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BK311" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BL311" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BM311" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BN311" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BO311" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BP311" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B312" t="n">
+        <v>5406744</v>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E312" s="2" t="n">
+        <v>45235.66666666666</v>
+      </c>
+      <c r="F312" t="n">
+        <v>32</v>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>Bragantino</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="I312" t="n">
+        <v>1</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0</v>
+      </c>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="n">
+        <v>0</v>
+      </c>
+      <c r="N312" t="n">
+        <v>1</v>
+      </c>
+      <c r="O312" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="P312" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q312" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R312" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S312" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T312" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U312" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V312" t="n">
+        <v>3</v>
+      </c>
+      <c r="W312" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X312" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y312" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z312" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA312" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB312" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC312" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD312" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE312" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF312" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG312" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH312" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI312" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ312" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK312" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AL312" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM312" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AN312" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AO312" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AP312" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AQ312" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR312" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AS312" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AT312" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AU312" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV312" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW312" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX312" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY312" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ312" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA312" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB312" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC312" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD312" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BE312" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BF312" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG312" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH312" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI312" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ312" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK312" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BL312" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BM312" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BN312" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO312" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BP312" t="n">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B313" t="n">
+        <v>5406745</v>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E313" s="2" t="n">
+        <v>45235.66666666666</v>
+      </c>
+      <c r="F313" t="n">
+        <v>32</v>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I313" t="n">
+        <v>0</v>
+      </c>
+      <c r="J313" t="n">
+        <v>1</v>
+      </c>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="n">
+        <v>2</v>
+      </c>
+      <c r="N313" t="n">
+        <v>3</v>
+      </c>
+      <c r="O313" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="P313" t="inlineStr">
+        <is>
+          <t>['14', '52']</t>
+        </is>
+      </c>
+      <c r="Q313" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R313" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S313" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T313" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U313" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V313" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W313" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X313" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y313" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z313" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA313" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB313" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC313" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD313" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE313" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AF313" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG313" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AH313" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI313" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ313" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK313" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL313" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM313" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN313" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO313" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AP313" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AQ313" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR313" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AS313" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT313" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU313" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV313" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW313" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX313" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY313" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ313" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA313" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB313" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC313" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD313" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BE313" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF313" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BG313" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH313" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI313" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ313" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BK313" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BL313" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BM313" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BN313" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO313" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BP313" t="n">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B314" t="n">
+        <v>5406748</v>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E314" s="2" t="n">
+        <v>45235.66666666666</v>
+      </c>
+      <c r="F314" t="n">
+        <v>32</v>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="I314" t="n">
+        <v>0</v>
+      </c>
+      <c r="J314" t="n">
+        <v>1</v>
+      </c>
+      <c r="K314" t="n">
+        <v>1</v>
+      </c>
+      <c r="L314" t="n">
+        <v>0</v>
+      </c>
+      <c r="M314" t="n">
+        <v>2</v>
+      </c>
+      <c r="N314" t="n">
+        <v>2</v>
+      </c>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P314" t="inlineStr">
+        <is>
+          <t>['45', '87']</t>
+        </is>
+      </c>
+      <c r="Q314" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R314" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S314" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T314" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U314" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V314" t="n">
+        <v>3</v>
+      </c>
+      <c r="W314" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X314" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y314" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z314" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AA314" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB314" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC314" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD314" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE314" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF314" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG314" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH314" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI314" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ314" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK314" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL314" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM314" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AN314" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO314" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AP314" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ314" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AR314" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AS314" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT314" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AU314" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV314" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW314" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX314" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY314" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ314" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA314" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB314" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC314" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD314" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE314" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF314" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG314" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH314" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI314" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ314" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK314" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL314" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BM314" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN314" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BO314" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BP314" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B315" t="n">
+        <v>5406747</v>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E315" s="2" t="n">
+        <v>45235.77083333334</v>
+      </c>
+      <c r="F315" t="n">
+        <v>32</v>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>Goiás</t>
+        </is>
+      </c>
+      <c r="I315" t="n">
+        <v>0</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0</v>
+      </c>
+      <c r="K315" t="n">
+        <v>0</v>
+      </c>
+      <c r="L315" t="n">
+        <v>0</v>
+      </c>
+      <c r="M315" t="n">
+        <v>1</v>
+      </c>
+      <c r="N315" t="n">
+        <v>1</v>
+      </c>
+      <c r="O315" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P315" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="Q315" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R315" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S315" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T315" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U315" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V315" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W315" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X315" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y315" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z315" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA315" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB315" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AC315" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD315" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE315" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF315" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG315" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH315" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI315" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ315" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK315" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL315" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM315" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN315" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AO315" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AP315" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AQ315" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR315" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS315" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT315" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AU315" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV315" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW315" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX315" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY315" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ315" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA315" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB315" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC315" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD315" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BE315" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF315" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BG315" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH315" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI315" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ315" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BK315" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BL315" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BM315" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN315" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BO315" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BP315" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B316" t="n">
+        <v>5406741</v>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E316" s="2" t="n">
+        <v>45236.79166666666</v>
+      </c>
+      <c r="F316" t="n">
+        <v>32</v>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>Vasco da Gama</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>Botafogo</t>
+        </is>
+      </c>
+      <c r="I316" t="n">
+        <v>1</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0</v>
+      </c>
+      <c r="K316" t="n">
+        <v>1</v>
+      </c>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="n">
+        <v>0</v>
+      </c>
+      <c r="N316" t="n">
+        <v>1</v>
+      </c>
+      <c r="O316" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="P316" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q316" t="n">
+        <v>3</v>
+      </c>
+      <c r="R316" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S316" t="n">
+        <v>4</v>
+      </c>
+      <c r="T316" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U316" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V316" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W316" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X316" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y316" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z316" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA316" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB316" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC316" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD316" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE316" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF316" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG316" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH316" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI316" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ316" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK316" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL316" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM316" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN316" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO316" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AP316" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ316" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR316" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AS316" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT316" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AU316" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV316" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW316" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX316" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY316" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ316" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA316" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB316" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC316" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD316" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BE316" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF316" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BG316" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH316" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI316" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ316" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BK316" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL316" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BM316" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BN316" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO316" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BP316" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B317" t="n">
+        <v>5406743</v>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E317" s="2" t="n">
+        <v>45236.875</v>
+      </c>
+      <c r="F317" t="n">
+        <v>32</v>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>Cuiabá</t>
+        </is>
+      </c>
+      <c r="I317" t="n">
+        <v>0</v>
+      </c>
+      <c r="J317" t="n">
+        <v>0</v>
+      </c>
+      <c r="K317" t="n">
+        <v>0</v>
+      </c>
+      <c r="L317" t="n">
+        <v>0</v>
+      </c>
+      <c r="M317" t="n">
+        <v>0</v>
+      </c>
+      <c r="N317" t="n">
+        <v>0</v>
+      </c>
+      <c r="O317" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P317" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q317" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R317" t="n">
+        <v>2</v>
+      </c>
+      <c r="S317" t="n">
+        <v>5</v>
+      </c>
+      <c r="T317" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U317" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V317" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W317" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X317" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y317" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z317" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA317" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB317" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC317" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD317" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE317" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF317" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG317" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH317" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI317" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ317" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK317" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AL317" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM317" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN317" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO317" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AP317" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ317" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR317" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS317" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT317" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AU317" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV317" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW317" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX317" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY317" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ317" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA317" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB317" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC317" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD317" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BE317" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF317" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG317" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH317" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BI317" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ317" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BK317" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL317" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BM317" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BN317" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO317" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BP317" t="n">
         <v>1.49</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP326"/>
+  <dimension ref="A1:BP336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.53</v>
@@ -1137,7 +1137,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.71</v>
@@ -1791,7 +1791,7 @@
         <v>2</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.88</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.82</v>
@@ -2663,7 +2663,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AQ11" t="n">
         <v>1</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.5</v>
@@ -3535,7 +3535,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.41</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ18" t="n">
         <v>1.59</v>
@@ -4622,10 +4622,10 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -4843,7 +4843,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ21" t="n">
         <v>1.56</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>1.6</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -5276,10 +5276,10 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR22" t="n">
         <v>1.73</v>
@@ -5497,7 +5497,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR23" t="n">
         <v>1.91</v>
@@ -5712,10 +5712,10 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR24" t="n">
         <v>1.18</v>
@@ -5930,10 +5930,10 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR25" t="n">
         <v>1.72</v>
@@ -6148,10 +6148,10 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR26" t="n">
         <v>1.77</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ27" t="n">
         <v>1</v>
@@ -6584,10 +6584,10 @@
         <v>3</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR28" t="n">
         <v>2.3</v>
@@ -6805,7 +6805,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR29" t="n">
         <v>1.28</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.24</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.71</v>
@@ -8113,7 +8113,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR35" t="n">
         <v>1.72</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ37" t="n">
         <v>0.82</v>
@@ -8764,7 +8764,7 @@
         <v>1</v>
       </c>
       <c r="AP38" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.5</v>
@@ -9421,7 +9421,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR41" t="n">
         <v>1.64</v>
@@ -9854,10 +9854,10 @@
         <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR43" t="n">
         <v>1.58</v>
@@ -10072,7 +10072,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.71</v>
@@ -10290,7 +10290,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.59</v>
@@ -10508,10 +10508,10 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR46" t="n">
         <v>2.7</v>
@@ -10729,7 +10729,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR47" t="n">
         <v>1.63</v>
@@ -10944,7 +10944,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.24</v>
@@ -11162,7 +11162,7 @@
         <v>2</v>
       </c>
       <c r="AP49" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ49" t="n">
         <v>0.88</v>
@@ -11383,7 +11383,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR50" t="n">
         <v>1.67</v>
@@ -11601,7 +11601,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR51" t="n">
         <v>2.41</v>
@@ -11816,7 +11816,7 @@
         <v>0</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.65</v>
@@ -12252,7 +12252,7 @@
         <v>1</v>
       </c>
       <c r="AP54" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.5</v>
@@ -12470,10 +12470,10 @@
         <v>0.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR55" t="n">
         <v>2.15</v>
@@ -12688,7 +12688,7 @@
         <v>0</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ56" t="n">
         <v>1</v>
@@ -12909,7 +12909,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR57" t="n">
         <v>2.06</v>
@@ -13124,10 +13124,10 @@
         <v>2</v>
       </c>
       <c r="AP58" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR58" t="n">
         <v>1.43</v>
@@ -13345,7 +13345,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR59" t="n">
         <v>1.78</v>
@@ -13781,7 +13781,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR61" t="n">
         <v>1.92</v>
@@ -13996,10 +13996,10 @@
         <v>0</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR62" t="n">
         <v>1.74</v>
@@ -14217,7 +14217,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR63" t="n">
         <v>1.88</v>
@@ -14432,7 +14432,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.59</v>
@@ -14650,7 +14650,7 @@
         <v>1</v>
       </c>
       <c r="AP65" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ65" t="n">
         <v>1</v>
@@ -15089,7 +15089,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR67" t="n">
         <v>1.76</v>
@@ -15304,7 +15304,7 @@
         <v>2</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ68" t="n">
         <v>1.41</v>
@@ -15522,10 +15522,10 @@
         <v>0</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR69" t="n">
         <v>2.5</v>
@@ -15740,10 +15740,10 @@
         <v>0.33</v>
       </c>
       <c r="AP70" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR70" t="n">
         <v>1.55</v>
@@ -16612,10 +16612,10 @@
         <v>2</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR74" t="n">
         <v>2.29</v>
@@ -16830,7 +16830,7 @@
         <v>0</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ75" t="n">
         <v>0.82</v>
@@ -17051,7 +17051,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR76" t="n">
         <v>1.5</v>
@@ -17487,7 +17487,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR78" t="n">
         <v>1.79</v>
@@ -17702,7 +17702,7 @@
         <v>1</v>
       </c>
       <c r="AP79" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ79" t="n">
         <v>1</v>
@@ -17920,7 +17920,7 @@
         <v>1.67</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.41</v>
@@ -18141,7 +18141,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR81" t="n">
         <v>1.84</v>
@@ -18577,7 +18577,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR83" t="n">
         <v>1.74</v>
@@ -19013,7 +19013,7 @@
         <v>2</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR85" t="n">
         <v>1.85</v>
@@ -19228,10 +19228,10 @@
         <v>0.25</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR86" t="n">
         <v>1.5</v>
@@ -19446,10 +19446,10 @@
         <v>0.75</v>
       </c>
       <c r="AP87" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AQ87" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR87" t="n">
         <v>1.62</v>
@@ -20100,7 +20100,7 @@
         <v>0.25</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ90" t="n">
         <v>0.82</v>
@@ -20318,7 +20318,7 @@
         <v>1</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.65</v>
@@ -20536,7 +20536,7 @@
         <v>0.75</v>
       </c>
       <c r="AP92" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ92" t="n">
         <v>1</v>
@@ -20972,10 +20972,10 @@
         <v>1.75</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR94" t="n">
         <v>1.87</v>
@@ -21190,7 +21190,7 @@
         <v>0.75</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.5</v>
@@ -21411,7 +21411,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR96" t="n">
         <v>1.89</v>
@@ -22280,7 +22280,7 @@
         <v>1.5</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.24</v>
@@ -22501,7 +22501,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ101" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR101" t="n">
         <v>1.59</v>
@@ -22937,7 +22937,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR103" t="n">
         <v>2</v>
@@ -23152,10 +23152,10 @@
         <v>0</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR104" t="n">
         <v>1.58</v>
@@ -23588,7 +23588,7 @@
         <v>1.8</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ106" t="n">
         <v>1.41</v>
@@ -23806,10 +23806,10 @@
         <v>0.25</v>
       </c>
       <c r="AP107" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR107" t="n">
         <v>1.79</v>
@@ -24024,10 +24024,10 @@
         <v>0.2</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR108" t="n">
         <v>1.97</v>
@@ -24242,10 +24242,10 @@
         <v>0.4</v>
       </c>
       <c r="AP109" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR109" t="n">
         <v>1.74</v>
@@ -24460,10 +24460,10 @@
         <v>1.5</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR110" t="n">
         <v>1.37</v>
@@ -24678,7 +24678,7 @@
         <v>1.5</v>
       </c>
       <c r="AP111" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ111" t="n">
         <v>1.65</v>
@@ -24899,7 +24899,7 @@
         <v>2</v>
       </c>
       <c r="AQ112" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR112" t="n">
         <v>1.8</v>
@@ -25553,7 +25553,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ115" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR115" t="n">
         <v>1.88</v>
@@ -25768,7 +25768,7 @@
         <v>0.2</v>
       </c>
       <c r="AP116" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AQ116" t="n">
         <v>0.82</v>
@@ -25986,10 +25986,10 @@
         <v>1.8</v>
       </c>
       <c r="AP117" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR117" t="n">
         <v>2.21</v>
@@ -26204,7 +26204,7 @@
         <v>1.2</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.65</v>
@@ -26422,10 +26422,10 @@
         <v>0.67</v>
       </c>
       <c r="AP119" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR119" t="n">
         <v>2.07</v>
@@ -26643,7 +26643,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR120" t="n">
         <v>1.82</v>
@@ -26858,7 +26858,7 @@
         <v>1.67</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ121" t="n">
         <v>1.53</v>
@@ -27079,7 +27079,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ122" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR122" t="n">
         <v>1.74</v>
@@ -27294,7 +27294,7 @@
         <v>1.2</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ123" t="n">
         <v>1.24</v>
@@ -27512,10 +27512,10 @@
         <v>1.33</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ124" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR124" t="n">
         <v>2.06</v>
@@ -27733,7 +27733,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR125" t="n">
         <v>1.39</v>
@@ -28166,10 +28166,10 @@
         <v>0.2</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ127" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR127" t="n">
         <v>1.78</v>
@@ -28820,7 +28820,7 @@
         <v>0.8</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ130" t="n">
         <v>1</v>
@@ -29256,7 +29256,7 @@
         <v>0.67</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ132" t="n">
         <v>0.71</v>
@@ -29474,10 +29474,10 @@
         <v>1.5</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR133" t="n">
         <v>1.91</v>
@@ -29692,10 +29692,10 @@
         <v>0.43</v>
       </c>
       <c r="AP134" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ134" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR134" t="n">
         <v>1.73</v>
@@ -29910,10 +29910,10 @@
         <v>0.33</v>
       </c>
       <c r="AP135" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ135" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR135" t="n">
         <v>1.72</v>
@@ -30128,7 +30128,7 @@
         <v>1.5</v>
       </c>
       <c r="AP136" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.65</v>
@@ -30346,10 +30346,10 @@
         <v>0.57</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR137" t="n">
         <v>1.55</v>
@@ -30567,7 +30567,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR138" t="n">
         <v>1.83</v>
@@ -30782,10 +30782,10 @@
         <v>0.5</v>
       </c>
       <c r="AP139" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ139" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR139" t="n">
         <v>2.04</v>
@@ -31218,10 +31218,10 @@
         <v>2</v>
       </c>
       <c r="AP141" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR141" t="n">
         <v>1.98</v>
@@ -33180,10 +33180,10 @@
         <v>0.29</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ150" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR150" t="n">
         <v>1.94</v>
@@ -33398,10 +33398,10 @@
         <v>1.14</v>
       </c>
       <c r="AP151" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ151" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR151" t="n">
         <v>2.07</v>
@@ -33616,10 +33616,10 @@
         <v>0.75</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ152" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR152" t="n">
         <v>1.64</v>
@@ -33834,10 +33834,10 @@
         <v>0.57</v>
       </c>
       <c r="AP153" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ153" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR153" t="n">
         <v>1.59</v>
@@ -34052,7 +34052,7 @@
         <v>1.5</v>
       </c>
       <c r="AP154" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AQ154" t="n">
         <v>1.59</v>
@@ -34270,10 +34270,10 @@
         <v>2.14</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR155" t="n">
         <v>1.55</v>
@@ -34488,10 +34488,10 @@
         <v>1</v>
       </c>
       <c r="AP156" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR156" t="n">
         <v>2.1</v>
@@ -34709,7 +34709,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR157" t="n">
         <v>1.66</v>
@@ -34924,7 +34924,7 @@
         <v>0.57</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ158" t="n">
         <v>1</v>
@@ -35142,10 +35142,10 @@
         <v>1</v>
       </c>
       <c r="AP159" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ159" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR159" t="n">
         <v>1.68</v>
@@ -35363,7 +35363,7 @@
         <v>2</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR160" t="n">
         <v>2.01</v>
@@ -36450,7 +36450,7 @@
         <v>1.38</v>
       </c>
       <c r="AP165" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ165" t="n">
         <v>1.65</v>
@@ -37540,7 +37540,7 @@
         <v>0.88</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ170" t="n">
         <v>1</v>
@@ -37761,7 +37761,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ171" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR171" t="n">
         <v>1.49</v>
@@ -37979,7 +37979,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ172" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR172" t="n">
         <v>1.75</v>
@@ -38412,7 +38412,7 @@
         <v>1.43</v>
       </c>
       <c r="AP174" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ174" t="n">
         <v>1.24</v>
@@ -38851,7 +38851,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR176" t="n">
         <v>1.68</v>
@@ -39066,10 +39066,10 @@
         <v>0.38</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ177" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR177" t="n">
         <v>1.67</v>
@@ -39284,7 +39284,7 @@
         <v>1.25</v>
       </c>
       <c r="AP178" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ178" t="n">
         <v>1.5</v>
@@ -39502,7 +39502,7 @@
         <v>1.56</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ179" t="n">
         <v>1.65</v>
@@ -39723,7 +39723,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ180" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR180" t="n">
         <v>1.88</v>
@@ -39938,7 +39938,7 @@
         <v>0.67</v>
       </c>
       <c r="AP181" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ181" t="n">
         <v>0.71</v>
@@ -40156,10 +40156,10 @@
         <v>0.88</v>
       </c>
       <c r="AP182" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AQ182" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR182" t="n">
         <v>1.83</v>
@@ -40595,7 +40595,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ184" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR184" t="n">
         <v>1.81</v>
@@ -40810,10 +40810,10 @@
         <v>0.5</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ185" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR185" t="n">
         <v>1.85</v>
@@ -41246,10 +41246,10 @@
         <v>1.63</v>
       </c>
       <c r="AP187" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ187" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR187" t="n">
         <v>1.94</v>
@@ -41464,7 +41464,7 @@
         <v>0.63</v>
       </c>
       <c r="AP188" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ188" t="n">
         <v>0.88</v>
@@ -41903,7 +41903,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ190" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR190" t="n">
         <v>1.96</v>
@@ -42121,7 +42121,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ191" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR191" t="n">
         <v>1.49</v>
@@ -42336,7 +42336,7 @@
         <v>1.4</v>
       </c>
       <c r="AP192" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ192" t="n">
         <v>1.41</v>
@@ -42557,7 +42557,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ193" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR193" t="n">
         <v>1.79</v>
@@ -42775,7 +42775,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ194" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR194" t="n">
         <v>1.67</v>
@@ -42990,7 +42990,7 @@
         <v>1.5</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ195" t="n">
         <v>1.59</v>
@@ -43208,7 +43208,7 @@
         <v>1.44</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ196" t="n">
         <v>1.5</v>
@@ -43426,7 +43426,7 @@
         <v>1.25</v>
       </c>
       <c r="AP197" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ197" t="n">
         <v>1.24</v>
@@ -43644,7 +43644,7 @@
         <v>1.4</v>
       </c>
       <c r="AP198" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ198" t="n">
         <v>1.65</v>
@@ -44080,10 +44080,10 @@
         <v>0.9</v>
       </c>
       <c r="AP200" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ200" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR200" t="n">
         <v>1.92</v>
@@ -44301,7 +44301,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ201" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR201" t="n">
         <v>1.75</v>
@@ -44516,7 +44516,7 @@
         <v>1.6</v>
       </c>
       <c r="AP202" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ202" t="n">
         <v>1.53</v>
@@ -44737,7 +44737,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ203" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR203" t="n">
         <v>1.79</v>
@@ -45170,7 +45170,7 @@
         <v>0.44</v>
       </c>
       <c r="AP205" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ205" t="n">
         <v>1</v>
@@ -45606,7 +45606,7 @@
         <v>0.67</v>
       </c>
       <c r="AP207" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ207" t="n">
         <v>0.88</v>
@@ -45827,7 +45827,7 @@
         <v>2</v>
       </c>
       <c r="AQ208" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR208" t="n">
         <v>1.94</v>
@@ -46042,10 +46042,10 @@
         <v>1.44</v>
       </c>
       <c r="AP209" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AQ209" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR209" t="n">
         <v>1.8</v>
@@ -46263,7 +46263,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ210" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR210" t="n">
         <v>1.66</v>
@@ -46914,7 +46914,7 @@
         <v>1.45</v>
       </c>
       <c r="AP213" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AQ213" t="n">
         <v>1.53</v>
@@ -47135,7 +47135,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ214" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR214" t="n">
         <v>1.82</v>
@@ -47568,7 +47568,7 @@
         <v>0.6</v>
       </c>
       <c r="AP216" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ216" t="n">
         <v>0.88</v>
@@ -48225,7 +48225,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ219" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR219" t="n">
         <v>1.54</v>
@@ -48440,7 +48440,7 @@
         <v>0.9</v>
       </c>
       <c r="AP220" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ220" t="n">
         <v>1</v>
@@ -48661,7 +48661,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ221" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR221" t="n">
         <v>1.89</v>
@@ -48876,10 +48876,10 @@
         <v>1.3</v>
       </c>
       <c r="AP222" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ222" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR222" t="n">
         <v>1.54</v>
@@ -49094,7 +49094,7 @@
         <v>0.55</v>
       </c>
       <c r="AP223" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ223" t="n">
         <v>0.71</v>
@@ -49312,7 +49312,7 @@
         <v>1.11</v>
       </c>
       <c r="AP224" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ224" t="n">
         <v>1.24</v>
@@ -49530,10 +49530,10 @@
         <v>0.3</v>
       </c>
       <c r="AP225" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ225" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR225" t="n">
         <v>1.62</v>
@@ -49748,10 +49748,10 @@
         <v>1</v>
       </c>
       <c r="AP226" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ226" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR226" t="n">
         <v>1.87</v>
@@ -49966,10 +49966,10 @@
         <v>0.8</v>
       </c>
       <c r="AP227" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ227" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR227" t="n">
         <v>1.72</v>
@@ -50184,10 +50184,10 @@
         <v>1.8</v>
       </c>
       <c r="AP228" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ228" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR228" t="n">
         <v>1.7</v>
@@ -50402,7 +50402,7 @@
         <v>0.36</v>
       </c>
       <c r="AP229" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ229" t="n">
         <v>1</v>
@@ -51277,7 +51277,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ233" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR233" t="n">
         <v>1.92</v>
@@ -51495,7 +51495,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ234" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR234" t="n">
         <v>1.81</v>
@@ -51710,7 +51710,7 @@
         <v>0.45</v>
       </c>
       <c r="AP235" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ235" t="n">
         <v>0.82</v>
@@ -51931,7 +51931,7 @@
         <v>2</v>
       </c>
       <c r="AQ236" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR236" t="n">
         <v>1.94</v>
@@ -52146,7 +52146,7 @@
         <v>1.5</v>
       </c>
       <c r="AP237" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AQ237" t="n">
         <v>1.41</v>
@@ -52367,7 +52367,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ238" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR238" t="n">
         <v>1.71</v>
@@ -52582,7 +52582,7 @@
         <v>1.33</v>
       </c>
       <c r="AP239" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ239" t="n">
         <v>1.53</v>
@@ -53236,7 +53236,7 @@
         <v>0.75</v>
       </c>
       <c r="AP242" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ242" t="n">
         <v>0.71</v>
@@ -53672,10 +53672,10 @@
         <v>0.73</v>
       </c>
       <c r="AP244" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ244" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR244" t="n">
         <v>1.69</v>
@@ -53893,7 +53893,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ245" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR245" t="n">
         <v>1.92</v>
@@ -54326,7 +54326,7 @@
         <v>1.09</v>
       </c>
       <c r="AP247" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ247" t="n">
         <v>1</v>
@@ -54544,7 +54544,7 @@
         <v>0.83</v>
       </c>
       <c r="AP248" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ248" t="n">
         <v>0.88</v>
@@ -54765,7 +54765,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ249" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR249" t="n">
         <v>1.71</v>
@@ -54980,7 +54980,7 @@
         <v>1.38</v>
       </c>
       <c r="AP250" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ250" t="n">
         <v>1.41</v>
@@ -55201,7 +55201,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ251" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR251" t="n">
         <v>1.88</v>
@@ -55634,10 +55634,10 @@
         <v>0.45</v>
       </c>
       <c r="AP253" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ253" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR253" t="n">
         <v>1.74</v>
@@ -56073,7 +56073,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ255" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR255" t="n">
         <v>1.77</v>
@@ -56288,7 +56288,7 @@
         <v>0.58</v>
       </c>
       <c r="AP256" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ256" t="n">
         <v>1</v>
@@ -56945,7 +56945,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ259" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR259" t="n">
         <v>1.91</v>
@@ -57160,7 +57160,7 @@
         <v>0.38</v>
       </c>
       <c r="AP260" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ260" t="n">
         <v>0.82</v>
@@ -57378,10 +57378,10 @@
         <v>1.33</v>
       </c>
       <c r="AP261" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ261" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR261" t="n">
         <v>1.72</v>
@@ -57596,7 +57596,7 @@
         <v>1</v>
       </c>
       <c r="AP262" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AQ262" t="n">
         <v>1</v>
@@ -57814,7 +57814,7 @@
         <v>1.23</v>
       </c>
       <c r="AP263" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ263" t="n">
         <v>1.53</v>
@@ -58035,7 +58035,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ264" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR264" t="n">
         <v>1.7</v>
@@ -58250,10 +58250,10 @@
         <v>1.17</v>
       </c>
       <c r="AP265" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ265" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR265" t="n">
         <v>1.69</v>
@@ -58471,7 +58471,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ266" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR266" t="n">
         <v>1.63</v>
@@ -58686,10 +58686,10 @@
         <v>0.85</v>
       </c>
       <c r="AP267" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ267" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR267" t="n">
         <v>1.75</v>
@@ -58904,7 +58904,7 @@
         <v>1.46</v>
       </c>
       <c r="AP268" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ268" t="n">
         <v>1.59</v>
@@ -59340,7 +59340,7 @@
         <v>1.38</v>
       </c>
       <c r="AP270" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ270" t="n">
         <v>1.5</v>
@@ -59561,7 +59561,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ271" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR271" t="n">
         <v>1.8</v>
@@ -59994,10 +59994,10 @@
         <v>0.92</v>
       </c>
       <c r="AP273" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ273" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR273" t="n">
         <v>1.69</v>
@@ -60212,10 +60212,10 @@
         <v>1.08</v>
       </c>
       <c r="AP274" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ274" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR274" t="n">
         <v>1.73</v>
@@ -60648,10 +60648,10 @@
         <v>1.31</v>
       </c>
       <c r="AP276" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ276" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR276" t="n">
         <v>1.65</v>
@@ -61084,7 +61084,7 @@
         <v>0.77</v>
       </c>
       <c r="AP278" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ278" t="n">
         <v>0.88</v>
@@ -61302,10 +61302,10 @@
         <v>0.67</v>
       </c>
       <c r="AP279" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ279" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR279" t="n">
         <v>2.12</v>
@@ -61520,7 +61520,7 @@
         <v>1.29</v>
       </c>
       <c r="AP280" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ280" t="n">
         <v>1.41</v>
@@ -61741,7 +61741,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ281" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR281" t="n">
         <v>1.71</v>
@@ -61959,7 +61959,7 @@
         <v>2</v>
       </c>
       <c r="AQ282" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR282" t="n">
         <v>1.93</v>
@@ -62177,7 +62177,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ283" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR283" t="n">
         <v>1.88</v>
@@ -62392,7 +62392,7 @@
         <v>1.57</v>
       </c>
       <c r="AP284" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ284" t="n">
         <v>1.59</v>
@@ -62828,10 +62828,10 @@
         <v>0.46</v>
       </c>
       <c r="AP286" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ286" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR286" t="n">
         <v>1.91</v>
@@ -63046,10 +63046,10 @@
         <v>0.71</v>
       </c>
       <c r="AP287" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ287" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR287" t="n">
         <v>1.71</v>
@@ -63264,7 +63264,7 @@
         <v>1.67</v>
       </c>
       <c r="AP288" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AQ288" t="n">
         <v>1.65</v>
@@ -63482,10 +63482,10 @@
         <v>0.79</v>
       </c>
       <c r="AP289" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ289" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR289" t="n">
         <v>1.71</v>
@@ -63700,7 +63700,7 @@
         <v>0.57</v>
       </c>
       <c r="AP290" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ290" t="n">
         <v>0.82</v>
@@ -63918,7 +63918,7 @@
         <v>0.8</v>
       </c>
       <c r="AP291" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ291" t="n">
         <v>0.71</v>
@@ -64354,10 +64354,10 @@
         <v>0.62</v>
       </c>
       <c r="AP293" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ293" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR293" t="n">
         <v>1.6</v>
@@ -64793,7 +64793,7 @@
         <v>2</v>
       </c>
       <c r="AQ295" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR295" t="n">
         <v>1.97</v>
@@ -65662,10 +65662,10 @@
         <v>0.57</v>
       </c>
       <c r="AP299" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ299" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR299" t="n">
         <v>1.72</v>
@@ -66101,7 +66101,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ301" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR301" t="n">
         <v>1.62</v>
@@ -66316,7 +66316,7 @@
         <v>0.73</v>
       </c>
       <c r="AP302" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ302" t="n">
         <v>1</v>
@@ -66534,7 +66534,7 @@
         <v>1</v>
       </c>
       <c r="AP303" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ303" t="n">
         <v>1.24</v>
@@ -66970,10 +66970,10 @@
         <v>1</v>
       </c>
       <c r="AP305" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ305" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR305" t="n">
         <v>1.59</v>
@@ -67188,7 +67188,7 @@
         <v>0.73</v>
       </c>
       <c r="AP306" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ306" t="n">
         <v>0.88</v>
@@ -67627,7 +67627,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ308" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR308" t="n">
         <v>1.99</v>
@@ -68060,7 +68060,7 @@
         <v>0.75</v>
       </c>
       <c r="AP310" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AQ310" t="n">
         <v>0.71</v>
@@ -68278,7 +68278,7 @@
         <v>1.07</v>
       </c>
       <c r="AP311" t="n">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ311" t="n">
         <v>1</v>
@@ -68496,10 +68496,10 @@
         <v>0.87</v>
       </c>
       <c r="AP312" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ312" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR312" t="n">
         <v>2.06</v>
@@ -68717,7 +68717,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ313" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR313" t="n">
         <v>1.68</v>
@@ -69150,10 +69150,10 @@
         <v>0.87</v>
       </c>
       <c r="AP315" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ315" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR315" t="n">
         <v>1.55</v>
@@ -69368,10 +69368,10 @@
         <v>1.71</v>
       </c>
       <c r="AP316" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ316" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR316" t="n">
         <v>1.72</v>
@@ -69586,7 +69586,7 @@
         <v>1.47</v>
       </c>
       <c r="AP317" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ317" t="n">
         <v>1.53</v>
@@ -69807,7 +69807,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ318" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR318" t="n">
         <v>1.63</v>
@@ -70243,7 +70243,7 @@
         <v>2</v>
       </c>
       <c r="AQ320" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR320" t="n">
         <v>1.96</v>
@@ -70676,7 +70676,7 @@
         <v>1.5</v>
       </c>
       <c r="AP322" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ322" t="n">
         <v>1.41</v>
@@ -71330,7 +71330,7 @@
         <v>1.44</v>
       </c>
       <c r="AP325" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ325" t="n">
         <v>1.53</v>
@@ -71627,6 +71627,2186 @@
       </c>
       <c r="BP326" t="n">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B327" t="n">
+        <v>5406767</v>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E327" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F327" t="n">
+        <v>34</v>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="I327" t="n">
+        <v>0</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0</v>
+      </c>
+      <c r="K327" t="n">
+        <v>0</v>
+      </c>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="n">
+        <v>0</v>
+      </c>
+      <c r="N327" t="n">
+        <v>1</v>
+      </c>
+      <c r="O327" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="P327" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q327" t="n">
+        <v>4</v>
+      </c>
+      <c r="R327" t="n">
+        <v>2</v>
+      </c>
+      <c r="S327" t="n">
+        <v>3</v>
+      </c>
+      <c r="T327" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U327" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V327" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W327" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X327" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y327" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z327" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AA327" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB327" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AC327" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD327" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE327" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF327" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG327" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH327" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AI327" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ327" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK327" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL327" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM327" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN327" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AO327" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP327" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AQ327" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR327" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS327" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AT327" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AU327" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV327" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW327" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX327" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY327" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ327" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA327" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB327" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC327" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD327" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE327" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF327" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BG327" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH327" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BI327" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ327" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK327" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BL327" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BM327" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BN327" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO327" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BP327" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B328" t="n">
+        <v>5406760</v>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E328" s="2" t="n">
+        <v>45241.77083333334</v>
+      </c>
+      <c r="F328" t="n">
+        <v>34</v>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="I328" t="n">
+        <v>1</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0</v>
+      </c>
+      <c r="K328" t="n">
+        <v>1</v>
+      </c>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="n">
+        <v>1</v>
+      </c>
+      <c r="N328" t="n">
+        <v>2</v>
+      </c>
+      <c r="O328" t="inlineStr">
+        <is>
+          <t>['45+2']</t>
+        </is>
+      </c>
+      <c r="P328" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="Q328" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R328" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S328" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T328" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U328" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V328" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W328" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X328" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y328" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z328" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AA328" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AB328" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="AC328" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD328" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE328" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF328" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG328" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH328" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AI328" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ328" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK328" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL328" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM328" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN328" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AO328" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP328" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AQ328" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AR328" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AS328" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AT328" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AU328" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV328" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW328" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX328" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY328" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ328" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA328" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB328" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC328" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD328" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BE328" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF328" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BG328" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH328" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="BI328" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BJ328" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BK328" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BL328" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BM328" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BN328" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BO328" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BP328" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B329" t="n">
+        <v>5406762</v>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E329" s="2" t="n">
+        <v>45241.875</v>
+      </c>
+      <c r="F329" t="n">
+        <v>34</v>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I329" t="n">
+        <v>1</v>
+      </c>
+      <c r="J329" t="n">
+        <v>0</v>
+      </c>
+      <c r="K329" t="n">
+        <v>1</v>
+      </c>
+      <c r="L329" t="n">
+        <v>3</v>
+      </c>
+      <c r="M329" t="n">
+        <v>0</v>
+      </c>
+      <c r="N329" t="n">
+        <v>3</v>
+      </c>
+      <c r="O329" t="inlineStr">
+        <is>
+          <t>['38', '59', '88']</t>
+        </is>
+      </c>
+      <c r="P329" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q329" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R329" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S329" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T329" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U329" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V329" t="n">
+        <v>3</v>
+      </c>
+      <c r="W329" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X329" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y329" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z329" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA329" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB329" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AC329" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD329" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AE329" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF329" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AG329" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AH329" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI329" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ329" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK329" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AL329" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AM329" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AN329" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AO329" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AP329" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AQ329" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR329" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AS329" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT329" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AU329" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV329" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW329" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX329" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY329" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ329" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA329" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB329" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC329" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD329" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE329" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF329" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BG329" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH329" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BI329" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ329" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BK329" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL329" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM329" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BN329" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BO329" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="BP329" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B330" t="n">
+        <v>5406766</v>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E330" s="2" t="n">
+        <v>45242.66666666666</v>
+      </c>
+      <c r="F330" t="n">
+        <v>34</v>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>Grêmio</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="I330" t="n">
+        <v>0</v>
+      </c>
+      <c r="J330" t="n">
+        <v>1</v>
+      </c>
+      <c r="K330" t="n">
+        <v>1</v>
+      </c>
+      <c r="L330" t="n">
+        <v>0</v>
+      </c>
+      <c r="M330" t="n">
+        <v>1</v>
+      </c>
+      <c r="N330" t="n">
+        <v>1</v>
+      </c>
+      <c r="O330" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P330" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="Q330" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R330" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S330" t="n">
+        <v>5</v>
+      </c>
+      <c r="T330" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U330" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V330" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W330" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X330" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y330" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z330" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA330" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB330" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AC330" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD330" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE330" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF330" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG330" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AH330" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI330" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ330" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK330" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL330" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM330" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN330" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AO330" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AP330" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AQ330" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR330" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AS330" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AT330" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AU330" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV330" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW330" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX330" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY330" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ330" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA330" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB330" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC330" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD330" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE330" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF330" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BG330" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH330" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="BI330" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ330" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BK330" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BL330" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BM330" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BN330" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BO330" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BP330" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B331" t="n">
+        <v>5406764</v>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E331" s="2" t="n">
+        <v>45242.66666666666</v>
+      </c>
+      <c r="F331" t="n">
+        <v>34</v>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>Bragantino</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>Botafogo</t>
+        </is>
+      </c>
+      <c r="I331" t="n">
+        <v>1</v>
+      </c>
+      <c r="J331" t="n">
+        <v>2</v>
+      </c>
+      <c r="K331" t="n">
+        <v>3</v>
+      </c>
+      <c r="L331" t="n">
+        <v>2</v>
+      </c>
+      <c r="M331" t="n">
+        <v>2</v>
+      </c>
+      <c r="N331" t="n">
+        <v>4</v>
+      </c>
+      <c r="O331" t="inlineStr">
+        <is>
+          <t>['3', '90+6']</t>
+        </is>
+      </c>
+      <c r="P331" t="inlineStr">
+        <is>
+          <t>['35', '37']</t>
+        </is>
+      </c>
+      <c r="Q331" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R331" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S331" t="n">
+        <v>5</v>
+      </c>
+      <c r="T331" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U331" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V331" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W331" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X331" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y331" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z331" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA331" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB331" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AC331" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD331" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE331" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF331" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AG331" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH331" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI331" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ331" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK331" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL331" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM331" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN331" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AO331" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AP331" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AQ331" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR331" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AS331" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT331" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU331" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV331" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW331" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX331" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY331" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ331" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA331" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB331" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC331" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD331" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BE331" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF331" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BG331" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH331" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="BI331" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ331" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BK331" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL331" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BM331" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BN331" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO331" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BP331" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B332" t="n">
+        <v>5406768</v>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E332" s="2" t="n">
+        <v>45242.77083333334</v>
+      </c>
+      <c r="F332" t="n">
+        <v>34</v>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>Atlético PR</t>
+        </is>
+      </c>
+      <c r="I332" t="n">
+        <v>0</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0</v>
+      </c>
+      <c r="K332" t="n">
+        <v>0</v>
+      </c>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="n">
+        <v>1</v>
+      </c>
+      <c r="N332" t="n">
+        <v>2</v>
+      </c>
+      <c r="O332" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="P332" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="Q332" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R332" t="n">
+        <v>2</v>
+      </c>
+      <c r="S332" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T332" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U332" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V332" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W332" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X332" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y332" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z332" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AA332" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB332" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AC332" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD332" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AE332" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AF332" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG332" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH332" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI332" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ332" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK332" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL332" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM332" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN332" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AO332" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP332" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ332" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR332" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS332" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT332" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AU332" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV332" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW332" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX332" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY332" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ332" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA332" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB332" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC332" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD332" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BE332" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF332" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG332" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH332" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BI332" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BJ332" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK332" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL332" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM332" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN332" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BO332" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BP332" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B333" t="n">
+        <v>5406761</v>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E333" s="2" t="n">
+        <v>45242.77083333334</v>
+      </c>
+      <c r="F333" t="n">
+        <v>34</v>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>Vasco da Gama</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>América Mineiro</t>
+        </is>
+      </c>
+      <c r="I333" t="n">
+        <v>1</v>
+      </c>
+      <c r="J333" t="n">
+        <v>1</v>
+      </c>
+      <c r="K333" t="n">
+        <v>2</v>
+      </c>
+      <c r="L333" t="n">
+        <v>2</v>
+      </c>
+      <c r="M333" t="n">
+        <v>1</v>
+      </c>
+      <c r="N333" t="n">
+        <v>3</v>
+      </c>
+      <c r="O333" t="inlineStr">
+        <is>
+          <t>['4', '90+4']</t>
+        </is>
+      </c>
+      <c r="P333" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="Q333" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R333" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S333" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="T333" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U333" t="n">
+        <v>3</v>
+      </c>
+      <c r="V333" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W333" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X333" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y333" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z333" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA333" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB333" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC333" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD333" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE333" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF333" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG333" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH333" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI333" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ333" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK333" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AL333" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AM333" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AN333" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO333" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AP333" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ333" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AR333" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AS333" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT333" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AU333" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV333" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW333" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX333" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY333" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ333" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA333" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB333" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC333" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD333" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BE333" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BF333" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BG333" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH333" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI333" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ333" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BK333" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BL333" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BM333" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BN333" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO333" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BP333" t="n">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B334" t="n">
+        <v>5406769</v>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E334" s="2" t="n">
+        <v>45242.77083333334</v>
+      </c>
+      <c r="F334" t="n">
+        <v>34</v>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>Cuiabá</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="I334" t="n">
+        <v>1</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0</v>
+      </c>
+      <c r="K334" t="n">
+        <v>1</v>
+      </c>
+      <c r="L334" t="n">
+        <v>2</v>
+      </c>
+      <c r="M334" t="n">
+        <v>1</v>
+      </c>
+      <c r="N334" t="n">
+        <v>3</v>
+      </c>
+      <c r="O334" t="inlineStr">
+        <is>
+          <t>['6', '90+2']</t>
+        </is>
+      </c>
+      <c r="P334" t="inlineStr">
+        <is>
+          <t>['90+8']</t>
+        </is>
+      </c>
+      <c r="Q334" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R334" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S334" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T334" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U334" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V334" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W334" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X334" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y334" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z334" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AA334" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB334" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC334" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD334" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AE334" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF334" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AG334" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AH334" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI334" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ334" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK334" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL334" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM334" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN334" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO334" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP334" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AQ334" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR334" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS334" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT334" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AU334" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV334" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW334" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX334" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY334" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ334" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA334" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB334" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC334" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD334" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE334" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF334" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG334" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH334" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI334" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ334" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK334" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL334" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BM334" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BN334" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO334" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP334" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B335" t="n">
+        <v>5406765</v>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E335" s="2" t="n">
+        <v>45242.77083333334</v>
+      </c>
+      <c r="F335" t="n">
+        <v>34</v>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>Atlético Mineiro</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>Goiás</t>
+        </is>
+      </c>
+      <c r="I335" t="n">
+        <v>1</v>
+      </c>
+      <c r="J335" t="n">
+        <v>0</v>
+      </c>
+      <c r="K335" t="n">
+        <v>1</v>
+      </c>
+      <c r="L335" t="n">
+        <v>2</v>
+      </c>
+      <c r="M335" t="n">
+        <v>1</v>
+      </c>
+      <c r="N335" t="n">
+        <v>3</v>
+      </c>
+      <c r="O335" t="inlineStr">
+        <is>
+          <t>['41', '70']</t>
+        </is>
+      </c>
+      <c r="P335" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="Q335" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R335" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S335" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T335" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U335" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V335" t="n">
+        <v>3</v>
+      </c>
+      <c r="W335" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X335" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y335" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z335" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA335" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB335" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AC335" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD335" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AE335" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AF335" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG335" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH335" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI335" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ335" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK335" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AL335" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM335" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AN335" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AO335" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP335" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AQ335" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR335" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS335" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT335" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AU335" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV335" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW335" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX335" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY335" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ335" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA335" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB335" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC335" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD335" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BE335" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BF335" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BG335" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH335" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI335" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ335" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BK335" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL335" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM335" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BN335" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BO335" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BP335" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B336" t="n">
+        <v>5406763</v>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E336" s="2" t="n">
+        <v>45242.77083333334</v>
+      </c>
+      <c r="F336" t="n">
+        <v>34</v>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="I336" t="n">
+        <v>0</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0</v>
+      </c>
+      <c r="K336" t="n">
+        <v>0</v>
+      </c>
+      <c r="L336" t="n">
+        <v>0</v>
+      </c>
+      <c r="M336" t="n">
+        <v>0</v>
+      </c>
+      <c r="N336" t="n">
+        <v>0</v>
+      </c>
+      <c r="O336" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P336" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q336" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R336" t="n">
+        <v>2</v>
+      </c>
+      <c r="S336" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T336" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U336" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V336" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W336" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X336" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y336" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z336" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AA336" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB336" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC336" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD336" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AE336" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF336" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AG336" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH336" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI336" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ336" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK336" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL336" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM336" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN336" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO336" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AP336" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ336" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR336" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS336" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT336" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AU336" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV336" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW336" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX336" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY336" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ336" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA336" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB336" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC336" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD336" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE336" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF336" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BG336" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH336" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BI336" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ336" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK336" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL336" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BM336" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN336" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO336" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BP336" t="n">
+        <v>1.54</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP336"/>
+  <dimension ref="A1:BP337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
@@ -2663,7 +2663,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -5494,7 +5494,7 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AQ23" t="n">
         <v>0.59</v>
@@ -5933,7 +5933,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR25" t="n">
         <v>1.72</v>
@@ -11598,7 +11598,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AQ51" t="n">
         <v>0.5</v>
@@ -13781,7 +13781,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR61" t="n">
         <v>1.92</v>
@@ -16394,7 +16394,7 @@
         <v>1.25</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.88</v>
@@ -16615,7 +16615,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR74" t="n">
         <v>2.29</v>
@@ -18356,7 +18356,7 @@
         <v>0.75</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AQ82" t="n">
         <v>0.71</v>
@@ -20975,7 +20975,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR94" t="n">
         <v>1.87</v>
@@ -25114,7 +25114,7 @@
         <v>1.83</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AQ113" t="n">
         <v>1.59</v>
@@ -27733,7 +27733,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR125" t="n">
         <v>1.39</v>
@@ -29477,7 +29477,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR133" t="n">
         <v>1.91</v>
@@ -31000,7 +31000,7 @@
         <v>0.67</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AQ140" t="n">
         <v>1</v>
@@ -31872,7 +31872,7 @@
         <v>1.43</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AQ144" t="n">
         <v>1.53</v>
@@ -35363,7 +35363,7 @@
         <v>2</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR160" t="n">
         <v>2.01</v>
@@ -36232,7 +36232,7 @@
         <v>1</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AQ164" t="n">
         <v>1.5</v>
@@ -41028,7 +41028,7 @@
         <v>0.5</v>
       </c>
       <c r="AP186" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AQ186" t="n">
         <v>1</v>
@@ -41249,7 +41249,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ187" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR187" t="n">
         <v>1.94</v>
@@ -45388,7 +45388,7 @@
         <v>0.5</v>
       </c>
       <c r="AP206" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AQ206" t="n">
         <v>0.82</v>
@@ -46045,7 +46045,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ209" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR209" t="n">
         <v>1.8</v>
@@ -48658,7 +48658,7 @@
         <v>0.82</v>
       </c>
       <c r="AP221" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AQ221" t="n">
         <v>0.9399999999999999</v>
@@ -48879,7 +48879,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ222" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR222" t="n">
         <v>1.54</v>
@@ -51495,7 +51495,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ234" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR234" t="n">
         <v>1.81</v>
@@ -53454,7 +53454,7 @@
         <v>1</v>
       </c>
       <c r="AP243" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AQ243" t="n">
         <v>1.24</v>
@@ -56942,7 +56942,7 @@
         <v>0.42</v>
       </c>
       <c r="AP259" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AQ259" t="n">
         <v>0.41</v>
@@ -57381,7 +57381,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ261" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR261" t="n">
         <v>1.72</v>
@@ -60651,7 +60651,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ276" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR276" t="n">
         <v>1.65</v>
@@ -67627,7 +67627,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ308" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR308" t="n">
         <v>1.99</v>
@@ -68932,7 +68932,7 @@
         <v>1.56</v>
       </c>
       <c r="AP314" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AQ314" t="n">
         <v>1.65</v>
@@ -71769,7 +71769,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ327" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR327" t="n">
         <v>1.52</v>
@@ -73807,6 +73807,224 @@
       </c>
       <c r="BP336" t="n">
         <v>1.54</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B337" t="n">
+        <v>5406728</v>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E337" s="2" t="n">
+        <v>45248.77083333334</v>
+      </c>
+      <c r="F337" t="n">
+        <v>30</v>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="I337" t="n">
+        <v>0</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0</v>
+      </c>
+      <c r="K337" t="n">
+        <v>0</v>
+      </c>
+      <c r="L337" t="n">
+        <v>0</v>
+      </c>
+      <c r="M337" t="n">
+        <v>1</v>
+      </c>
+      <c r="N337" t="n">
+        <v>1</v>
+      </c>
+      <c r="O337" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P337" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="Q337" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R337" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S337" t="n">
+        <v>5</v>
+      </c>
+      <c r="T337" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U337" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="V337" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W337" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X337" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y337" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z337" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA337" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB337" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC337" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD337" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE337" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF337" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AG337" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AH337" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI337" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ337" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK337" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AL337" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM337" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN337" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AO337" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP337" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ337" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AR337" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AS337" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT337" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AU337" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV337" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW337" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX337" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY337" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ337" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA337" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB337" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC337" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD337" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE337" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF337" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BG337" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH337" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI337" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ337" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BK337" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL337" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BM337" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BN337" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO337" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BP337" t="n">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP337"/>
+  <dimension ref="A1:BP339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ12" t="n">
         <v>1</v>
@@ -5279,7 +5279,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR22" t="n">
         <v>1.73</v>
@@ -7674,7 +7674,7 @@
         <v>3</v>
       </c>
       <c r="AP33" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ33" t="n">
         <v>0.88</v>
@@ -11601,7 +11601,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR51" t="n">
         <v>2.41</v>
@@ -12034,7 +12034,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.53</v>
@@ -12909,7 +12909,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR57" t="n">
         <v>2.06</v>
@@ -19449,7 +19449,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ87" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR87" t="n">
         <v>1.62</v>
@@ -19664,7 +19664,7 @@
         <v>1</v>
       </c>
       <c r="AP88" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ88" t="n">
         <v>1.5</v>
@@ -23370,7 +23370,7 @@
         <v>2</v>
       </c>
       <c r="AP105" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ105" t="n">
         <v>1.59</v>
@@ -25332,7 +25332,7 @@
         <v>0.8</v>
       </c>
       <c r="AP114" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ114" t="n">
         <v>0.71</v>
@@ -25553,7 +25553,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ115" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR115" t="n">
         <v>1.88</v>
@@ -30564,7 +30564,7 @@
         <v>1.14</v>
       </c>
       <c r="AP138" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ138" t="n">
         <v>1</v>
@@ -30785,7 +30785,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ139" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR139" t="n">
         <v>2.04</v>
@@ -32090,7 +32090,7 @@
         <v>1.43</v>
       </c>
       <c r="AP145" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ145" t="n">
         <v>1.65</v>
@@ -33837,7 +33837,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ153" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR153" t="n">
         <v>1.59</v>
@@ -35796,7 +35796,7 @@
         <v>0.57</v>
       </c>
       <c r="AP162" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ162" t="n">
         <v>1</v>
@@ -38194,7 +38194,7 @@
         <v>1.56</v>
       </c>
       <c r="AP173" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ173" t="n">
         <v>1.41</v>
@@ -40813,7 +40813,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ185" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR185" t="n">
         <v>1.85</v>
@@ -42554,7 +42554,7 @@
         <v>0.33</v>
       </c>
       <c r="AP193" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ193" t="n">
         <v>0.41</v>
@@ -44737,7 +44737,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ203" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR203" t="n">
         <v>1.79</v>
@@ -47132,7 +47132,7 @@
         <v>1.1</v>
       </c>
       <c r="AP214" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ214" t="n">
         <v>0.88</v>
@@ -48225,7 +48225,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ219" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR219" t="n">
         <v>1.54</v>
@@ -51492,7 +51492,7 @@
         <v>1.45</v>
       </c>
       <c r="AP234" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ234" t="n">
         <v>1.35</v>
@@ -55637,7 +55637,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ253" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR253" t="n">
         <v>1.74</v>
@@ -56070,7 +56070,7 @@
         <v>1.5</v>
       </c>
       <c r="AP255" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ255" t="n">
         <v>1.56</v>
@@ -58471,7 +58471,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ266" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR266" t="n">
         <v>1.63</v>
@@ -59558,7 +59558,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP271" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ271" t="n">
         <v>0.9399999999999999</v>
@@ -62174,7 +62174,7 @@
         <v>0.93</v>
       </c>
       <c r="AP283" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ283" t="n">
         <v>0.9399999999999999</v>
@@ -62831,7 +62831,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ286" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR286" t="n">
         <v>1.91</v>
@@ -64793,7 +64793,7 @@
         <v>2</v>
       </c>
       <c r="AQ295" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR295" t="n">
         <v>1.97</v>
@@ -73731,7 +73731,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ336" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR336" t="n">
         <v>1.63</v>
@@ -74025,6 +74025,442 @@
       </c>
       <c r="BP337" t="n">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B338" t="n">
+        <v>5406755</v>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E338" s="2" t="n">
+        <v>45252.79166666666</v>
+      </c>
+      <c r="F338" t="n">
+        <v>33</v>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>Vasco da Gama</t>
+        </is>
+      </c>
+      <c r="I338" t="n">
+        <v>2</v>
+      </c>
+      <c r="J338" t="n">
+        <v>1</v>
+      </c>
+      <c r="K338" t="n">
+        <v>3</v>
+      </c>
+      <c r="L338" t="n">
+        <v>2</v>
+      </c>
+      <c r="M338" t="n">
+        <v>2</v>
+      </c>
+      <c r="N338" t="n">
+        <v>4</v>
+      </c>
+      <c r="O338" t="inlineStr">
+        <is>
+          <t>['41', '45+9']</t>
+        </is>
+      </c>
+      <c r="P338" t="inlineStr">
+        <is>
+          <t>['15', '77']</t>
+        </is>
+      </c>
+      <c r="Q338" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R338" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S338" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T338" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U338" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V338" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W338" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X338" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y338" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z338" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA338" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB338" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AC338" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD338" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE338" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AF338" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AG338" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AH338" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI338" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ338" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK338" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AL338" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM338" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN338" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO338" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AP338" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AQ338" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR338" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS338" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT338" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AU338" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV338" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW338" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX338" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY338" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ338" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA338" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB338" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC338" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD338" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE338" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF338" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BG338" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH338" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI338" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ338" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK338" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BL338" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BM338" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN338" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO338" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP338" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B339" t="n">
+        <v>5406740</v>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E339" s="2" t="n">
+        <v>45252.89583333334</v>
+      </c>
+      <c r="F339" t="n">
+        <v>32</v>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="I339" t="n">
+        <v>0</v>
+      </c>
+      <c r="J339" t="n">
+        <v>0</v>
+      </c>
+      <c r="K339" t="n">
+        <v>0</v>
+      </c>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="n">
+        <v>0</v>
+      </c>
+      <c r="N339" t="n">
+        <v>1</v>
+      </c>
+      <c r="O339" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="P339" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q339" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R339" t="n">
+        <v>2</v>
+      </c>
+      <c r="S339" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T339" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U339" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V339" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W339" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X339" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y339" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z339" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA339" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AB339" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AC339" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD339" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE339" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AF339" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG339" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AH339" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI339" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ339" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK339" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL339" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AM339" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN339" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AO339" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP339" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AQ339" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AR339" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AS339" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT339" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AU339" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV339" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW339" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX339" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY339" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ339" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA339" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB339" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC339" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD339" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BE339" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF339" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BG339" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH339" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI339" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ339" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK339" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL339" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BM339" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BN339" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO339" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP339" t="n">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP339"/>
+  <dimension ref="A1:BP342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1573,7 +1573,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.82</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ10" t="n">
         <v>1.35</v>
@@ -3317,7 +3317,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -5061,7 +5061,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -5494,7 +5494,7 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ23" t="n">
         <v>0.59</v>
@@ -6584,10 +6584,10 @@
         <v>3</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR28" t="n">
         <v>2.3</v>
@@ -7241,7 +7241,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR31" t="n">
         <v>1.31</v>
@@ -8767,7 +8767,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR38" t="n">
         <v>1.68</v>
@@ -9418,7 +9418,7 @@
         <v>3</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ41" t="n">
         <v>0.88</v>
@@ -10075,7 +10075,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR44" t="n">
         <v>1.33</v>
@@ -10508,7 +10508,7 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ46" t="n">
         <v>0.9399999999999999</v>
@@ -11598,7 +11598,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ51" t="n">
         <v>0.47</v>
@@ -12255,7 +12255,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR54" t="n">
         <v>2.16</v>
@@ -12906,7 +12906,7 @@
         <v>0.67</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ57" t="n">
         <v>0.47</v>
@@ -13345,7 +13345,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR59" t="n">
         <v>1.78</v>
@@ -15522,7 +15522,7 @@
         <v>0</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.9399999999999999</v>
@@ -16394,7 +16394,7 @@
         <v>1.25</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.88</v>
@@ -16612,7 +16612,7 @@
         <v>2</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ74" t="n">
         <v>1.35</v>
@@ -17269,7 +17269,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR77" t="n">
         <v>1.65</v>
@@ -17484,7 +17484,7 @@
         <v>1.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ78" t="n">
         <v>0.59</v>
@@ -18356,10 +18356,10 @@
         <v>0.75</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR82" t="n">
         <v>2.14</v>
@@ -19013,7 +19013,7 @@
         <v>2</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR85" t="n">
         <v>1.85</v>
@@ -19667,7 +19667,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR88" t="n">
         <v>2.04</v>
@@ -20754,7 +20754,7 @@
         <v>1.8</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ93" t="n">
         <v>1.53</v>
@@ -21193,7 +21193,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR95" t="n">
         <v>1.8</v>
@@ -22280,7 +22280,7 @@
         <v>1.5</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.24</v>
@@ -24463,7 +24463,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR110" t="n">
         <v>1.37</v>
@@ -25114,7 +25114,7 @@
         <v>1.83</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ113" t="n">
         <v>1.59</v>
@@ -25335,7 +25335,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ114" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR114" t="n">
         <v>1.76</v>
@@ -25989,7 +25989,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR117" t="n">
         <v>2.21</v>
@@ -27512,7 +27512,7 @@
         <v>1.33</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ124" t="n">
         <v>0.88</v>
@@ -27948,10 +27948,10 @@
         <v>0.8</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR126" t="n">
         <v>1.81</v>
@@ -29259,7 +29259,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR132" t="n">
         <v>1.61</v>
@@ -31000,7 +31000,7 @@
         <v>0.67</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ140" t="n">
         <v>1</v>
@@ -31221,7 +31221,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR141" t="n">
         <v>1.98</v>
@@ -31439,7 +31439,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR142" t="n">
         <v>1.98</v>
@@ -31872,7 +31872,7 @@
         <v>1.43</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ144" t="n">
         <v>1.53</v>
@@ -32747,7 +32747,7 @@
         <v>2</v>
       </c>
       <c r="AQ148" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR148" t="n">
         <v>2.05</v>
@@ -33180,7 +33180,7 @@
         <v>0.29</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ150" t="n">
         <v>0.41</v>
@@ -34273,7 +34273,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR155" t="n">
         <v>1.55</v>
@@ -36014,7 +36014,7 @@
         <v>0.71</v>
       </c>
       <c r="AP163" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ163" t="n">
         <v>0.88</v>
@@ -36232,10 +36232,10 @@
         <v>1</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR164" t="n">
         <v>1.93</v>
@@ -36671,7 +36671,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ166" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR166" t="n">
         <v>1.9</v>
@@ -38851,7 +38851,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR176" t="n">
         <v>1.68</v>
@@ -39287,7 +39287,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ178" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR178" t="n">
         <v>1.63</v>
@@ -39941,7 +39941,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ181" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR181" t="n">
         <v>1.72</v>
@@ -40374,7 +40374,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ183" t="n">
         <v>0.82</v>
@@ -40810,7 +40810,7 @@
         <v>0.5</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ185" t="n">
         <v>0.47</v>
@@ -41028,7 +41028,7 @@
         <v>0.5</v>
       </c>
       <c r="AP186" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ186" t="n">
         <v>1</v>
@@ -41903,7 +41903,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ190" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR190" t="n">
         <v>1.96</v>
@@ -43211,7 +43211,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ196" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR196" t="n">
         <v>1.76</v>
@@ -44080,7 +44080,7 @@
         <v>0.9</v>
       </c>
       <c r="AP200" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ200" t="n">
         <v>1</v>
@@ -44298,7 +44298,7 @@
         <v>1</v>
       </c>
       <c r="AP201" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ201" t="n">
         <v>0.9399999999999999</v>
@@ -44955,7 +44955,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ204" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR204" t="n">
         <v>1.91</v>
@@ -45388,7 +45388,7 @@
         <v>0.5</v>
       </c>
       <c r="AP206" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ206" t="n">
         <v>0.82</v>
@@ -47350,7 +47350,7 @@
         <v>1.55</v>
       </c>
       <c r="AP215" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ215" t="n">
         <v>1.41</v>
@@ -47789,7 +47789,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ217" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR217" t="n">
         <v>1.71</v>
@@ -48440,7 +48440,7 @@
         <v>0.9</v>
       </c>
       <c r="AP220" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ220" t="n">
         <v>1</v>
@@ -48658,7 +48658,7 @@
         <v>0.82</v>
       </c>
       <c r="AP221" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ221" t="n">
         <v>0.9399999999999999</v>
@@ -49097,7 +49097,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ223" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR223" t="n">
         <v>1.6</v>
@@ -50187,7 +50187,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ228" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR228" t="n">
         <v>1.7</v>
@@ -50620,7 +50620,7 @@
         <v>1</v>
       </c>
       <c r="AP230" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ230" t="n">
         <v>1.24</v>
@@ -50841,7 +50841,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ231" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR231" t="n">
         <v>1.73</v>
@@ -52364,10 +52364,10 @@
         <v>1.64</v>
       </c>
       <c r="AP238" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ238" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR238" t="n">
         <v>1.71</v>
@@ -53236,10 +53236,10 @@
         <v>0.75</v>
       </c>
       <c r="AP242" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ242" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR242" t="n">
         <v>1.8</v>
@@ -53454,7 +53454,7 @@
         <v>1</v>
       </c>
       <c r="AP243" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ243" t="n">
         <v>1.24</v>
@@ -55419,7 +55419,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ252" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR252" t="n">
         <v>1.57</v>
@@ -55852,7 +55852,7 @@
         <v>1.62</v>
       </c>
       <c r="AP254" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ254" t="n">
         <v>1.65</v>
@@ -56073,7 +56073,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ255" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR255" t="n">
         <v>1.77</v>
@@ -56727,7 +56727,7 @@
         <v>2</v>
       </c>
       <c r="AQ258" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR258" t="n">
         <v>1.91</v>
@@ -56942,7 +56942,7 @@
         <v>0.42</v>
       </c>
       <c r="AP259" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ259" t="n">
         <v>0.41</v>
@@ -58035,7 +58035,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ264" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR264" t="n">
         <v>1.7</v>
@@ -59343,7 +59343,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ270" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR270" t="n">
         <v>1.52</v>
@@ -61084,7 +61084,7 @@
         <v>0.77</v>
       </c>
       <c r="AP278" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ278" t="n">
         <v>0.88</v>
@@ -61738,7 +61738,7 @@
         <v>0.38</v>
       </c>
       <c r="AP281" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ281" t="n">
         <v>0.41</v>
@@ -62613,7 +62613,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ285" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR285" t="n">
         <v>1.67</v>
@@ -63921,7 +63921,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ291" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR291" t="n">
         <v>1.89</v>
@@ -65008,7 +65008,7 @@
         <v>0.71</v>
       </c>
       <c r="AP296" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ296" t="n">
         <v>1</v>
@@ -65880,7 +65880,7 @@
         <v>1.14</v>
       </c>
       <c r="AP300" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ300" t="n">
         <v>1</v>
@@ -66316,7 +66316,7 @@
         <v>0.73</v>
       </c>
       <c r="AP302" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ302" t="n">
         <v>1</v>
@@ -67409,7 +67409,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ307" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR307" t="n">
         <v>1.63</v>
@@ -68063,7 +68063,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ310" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR310" t="n">
         <v>1.64</v>
@@ -68932,7 +68932,7 @@
         <v>1.56</v>
       </c>
       <c r="AP314" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ314" t="n">
         <v>1.65</v>
@@ -69371,7 +69371,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ316" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR316" t="n">
         <v>1.72</v>
@@ -70461,7 +70461,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ321" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR321" t="n">
         <v>1.97</v>
@@ -70676,7 +70676,7 @@
         <v>1.5</v>
       </c>
       <c r="AP322" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ322" t="n">
         <v>1.41</v>
@@ -70894,7 +70894,7 @@
         <v>1.63</v>
       </c>
       <c r="AP323" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ323" t="n">
         <v>1.59</v>
@@ -71984,7 +71984,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP328" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ328" t="n">
         <v>0.59</v>
@@ -72641,7 +72641,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ331" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR331" t="n">
         <v>2.06</v>
@@ -73946,7 +73946,7 @@
         <v>1.25</v>
       </c>
       <c r="AP337" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ337" t="n">
         <v>1.35</v>
@@ -74461,6 +74461,660 @@
       </c>
       <c r="BP339" t="n">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B340" t="n">
+        <v>5406718</v>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E340" s="2" t="n">
+        <v>45253.79166666666</v>
+      </c>
+      <c r="F340" t="n">
+        <v>29</v>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>Botafogo</t>
+        </is>
+      </c>
+      <c r="I340" t="n">
+        <v>2</v>
+      </c>
+      <c r="J340" t="n">
+        <v>1</v>
+      </c>
+      <c r="K340" t="n">
+        <v>3</v>
+      </c>
+      <c r="L340" t="n">
+        <v>2</v>
+      </c>
+      <c r="M340" t="n">
+        <v>2</v>
+      </c>
+      <c r="N340" t="n">
+        <v>4</v>
+      </c>
+      <c r="O340" t="inlineStr">
+        <is>
+          <t>['8', '41']</t>
+        </is>
+      </c>
+      <c r="P340" t="inlineStr">
+        <is>
+          <t>['20', '78']</t>
+        </is>
+      </c>
+      <c r="Q340" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R340" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S340" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T340" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U340" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V340" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W340" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X340" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y340" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z340" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA340" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB340" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC340" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD340" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="AE340" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF340" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AG340" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH340" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI340" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ340" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK340" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AL340" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM340" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AN340" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO340" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AP340" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ340" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AR340" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AS340" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT340" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU340" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV340" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW340" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX340" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY340" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ340" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA340" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB340" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC340" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD340" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE340" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF340" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BG340" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH340" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="BI340" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ340" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BK340" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BL340" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BM340" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BN340" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BO340" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BP340" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B341" t="n">
+        <v>5406720</v>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E341" s="2" t="n">
+        <v>45253.89583333334</v>
+      </c>
+      <c r="F341" t="n">
+        <v>30</v>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>Bragantino</t>
+        </is>
+      </c>
+      <c r="I341" t="n">
+        <v>0</v>
+      </c>
+      <c r="J341" t="n">
+        <v>0</v>
+      </c>
+      <c r="K341" t="n">
+        <v>0</v>
+      </c>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="n">
+        <v>0</v>
+      </c>
+      <c r="N341" t="n">
+        <v>1</v>
+      </c>
+      <c r="O341" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="P341" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q341" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R341" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S341" t="n">
+        <v>4</v>
+      </c>
+      <c r="T341" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U341" t="n">
+        <v>3</v>
+      </c>
+      <c r="V341" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W341" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X341" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y341" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z341" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA341" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AB341" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AC341" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD341" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE341" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF341" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG341" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH341" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI341" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ341" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK341" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL341" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM341" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN341" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AO341" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP341" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ341" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AR341" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS341" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT341" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AU341" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV341" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW341" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX341" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY341" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ341" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA341" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB341" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC341" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD341" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE341" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF341" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BG341" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH341" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI341" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ341" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BK341" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BL341" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BM341" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN341" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BO341" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP341" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B342" t="n">
+        <v>5406773</v>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E342" s="2" t="n">
+        <v>45254.875</v>
+      </c>
+      <c r="F342" t="n">
+        <v>35</v>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="I342" t="n">
+        <v>0</v>
+      </c>
+      <c r="J342" t="n">
+        <v>3</v>
+      </c>
+      <c r="K342" t="n">
+        <v>3</v>
+      </c>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="n">
+        <v>5</v>
+      </c>
+      <c r="N342" t="n">
+        <v>6</v>
+      </c>
+      <c r="O342" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="P342" t="inlineStr">
+        <is>
+          <t>['4', '16', '29', '75', '85']</t>
+        </is>
+      </c>
+      <c r="Q342" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R342" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S342" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T342" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U342" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V342" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W342" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X342" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y342" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z342" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA342" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB342" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC342" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD342" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE342" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF342" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG342" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH342" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI342" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ342" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK342" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL342" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM342" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN342" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO342" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AP342" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ342" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR342" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AS342" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT342" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AU342" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV342" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW342" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX342" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY342" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ342" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA342" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB342" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC342" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD342" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE342" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF342" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BG342" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH342" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI342" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ342" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK342" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL342" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BM342" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BN342" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO342" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP342" t="n">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP346"/>
+  <dimension ref="A1:BP350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.59</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
@@ -3317,7 +3317,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ14" t="n">
         <v>0.41</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -5494,7 +5494,7 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ23" t="n">
         <v>0.59</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ29" t="n">
         <v>0.9399999999999999</v>
@@ -7892,10 +7892,10 @@
         <v>0</v>
       </c>
       <c r="AP34" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR34" t="n">
         <v>2.02</v>
@@ -8110,7 +8110,7 @@
         <v>1</v>
       </c>
       <c r="AP35" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ35" t="n">
         <v>1</v>
@@ -8331,7 +8331,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AR36" t="n">
         <v>1.11</v>
@@ -8767,7 +8767,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR38" t="n">
         <v>1.68</v>
@@ -9203,7 +9203,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR40" t="n">
         <v>1.92</v>
@@ -9636,7 +9636,7 @@
         <v>0</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ42" t="n">
         <v>1</v>
@@ -11598,7 +11598,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ51" t="n">
         <v>0.47</v>
@@ -11819,7 +11819,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AR52" t="n">
         <v>1.47</v>
@@ -12037,7 +12037,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR53" t="n">
         <v>2.57</v>
@@ -12255,7 +12255,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR54" t="n">
         <v>2.16</v>
@@ -13778,7 +13778,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.35</v>
@@ -14214,7 +14214,7 @@
         <v>1.67</v>
       </c>
       <c r="AP63" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ63" t="n">
         <v>0.88</v>
@@ -14868,7 +14868,7 @@
         <v>1.67</v>
       </c>
       <c r="AP66" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ66" t="n">
         <v>0.89</v>
@@ -15307,7 +15307,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR68" t="n">
         <v>1.5</v>
@@ -15961,7 +15961,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR71" t="n">
         <v>2.04</v>
@@ -16394,7 +16394,7 @@
         <v>1.25</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.89</v>
@@ -17048,7 +17048,7 @@
         <v>0.25</v>
       </c>
       <c r="AP76" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ76" t="n">
         <v>0.9399999999999999</v>
@@ -17266,7 +17266,7 @@
         <v>1</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ77" t="n">
         <v>0.83</v>
@@ -17923,7 +17923,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR80" t="n">
         <v>1.95</v>
@@ -18356,7 +18356,7 @@
         <v>0.75</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ82" t="n">
         <v>0.83</v>
@@ -18574,7 +18574,7 @@
         <v>0</v>
       </c>
       <c r="AP83" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ83" t="n">
         <v>0.9399999999999999</v>
@@ -19667,7 +19667,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR88" t="n">
         <v>2.04</v>
@@ -19885,7 +19885,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR89" t="n">
         <v>1.64</v>
@@ -20321,7 +20321,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AR91" t="n">
         <v>2.09</v>
@@ -20757,7 +20757,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR93" t="n">
         <v>1.72</v>
@@ -21193,7 +21193,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR95" t="n">
         <v>1.8</v>
@@ -21626,7 +21626,7 @@
         <v>0.75</v>
       </c>
       <c r="AP97" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ97" t="n">
         <v>1</v>
@@ -21844,7 +21844,7 @@
         <v>1</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ98" t="n">
         <v>0.89</v>
@@ -22062,10 +22062,10 @@
         <v>1.5</v>
       </c>
       <c r="AP99" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR99" t="n">
         <v>1.67</v>
@@ -22716,7 +22716,7 @@
         <v>0.8</v>
       </c>
       <c r="AP102" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ102" t="n">
         <v>1</v>
@@ -23591,7 +23591,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR106" t="n">
         <v>1.76</v>
@@ -24681,7 +24681,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AR111" t="n">
         <v>1.85</v>
@@ -25114,7 +25114,7 @@
         <v>1.83</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ113" t="n">
         <v>1.59</v>
@@ -26207,7 +26207,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AR118" t="n">
         <v>1.58</v>
@@ -26640,7 +26640,7 @@
         <v>0.83</v>
       </c>
       <c r="AP120" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ120" t="n">
         <v>1</v>
@@ -26861,7 +26861,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR121" t="n">
         <v>2.06</v>
@@ -27076,7 +27076,7 @@
         <v>1.17</v>
       </c>
       <c r="AP122" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ122" t="n">
         <v>0.59</v>
@@ -27730,7 +27730,7 @@
         <v>1.6</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ125" t="n">
         <v>1.35</v>
@@ -27951,7 +27951,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR126" t="n">
         <v>1.81</v>
@@ -28387,7 +28387,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR128" t="n">
         <v>1.93</v>
@@ -30131,7 +30131,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AR136" t="n">
         <v>2.2</v>
@@ -31000,7 +31000,7 @@
         <v>0.67</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ140" t="n">
         <v>1</v>
@@ -31439,7 +31439,7 @@
         <v>2</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR142" t="n">
         <v>1.98</v>
@@ -31872,10 +31872,10 @@
         <v>1.43</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ144" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR144" t="n">
         <v>1.83</v>
@@ -32093,7 +32093,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AR145" t="n">
         <v>1.84</v>
@@ -32308,7 +32308,7 @@
         <v>0.67</v>
       </c>
       <c r="AP146" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ146" t="n">
         <v>1</v>
@@ -32526,10 +32526,10 @@
         <v>1.43</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR147" t="n">
         <v>1.44</v>
@@ -35578,10 +35578,10 @@
         <v>1.63</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR161" t="n">
         <v>1.42</v>
@@ -36232,10 +36232,10 @@
         <v>1</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR164" t="n">
         <v>1.93</v>
@@ -36453,7 +36453,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ165" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AR165" t="n">
         <v>1.75</v>
@@ -36668,7 +36668,7 @@
         <v>0.63</v>
       </c>
       <c r="AP166" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ166" t="n">
         <v>0.83</v>
@@ -37104,10 +37104,10 @@
         <v>1.38</v>
       </c>
       <c r="AP168" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ168" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR168" t="n">
         <v>1.78</v>
@@ -37758,7 +37758,7 @@
         <v>0.78</v>
       </c>
       <c r="AP171" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ171" t="n">
         <v>0.9399999999999999</v>
@@ -38197,7 +38197,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR173" t="n">
         <v>1.86</v>
@@ -38630,7 +38630,7 @@
         <v>1.33</v>
       </c>
       <c r="AP175" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ175" t="n">
         <v>1.59</v>
@@ -39287,7 +39287,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ178" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR178" t="n">
         <v>1.63</v>
@@ -39505,7 +39505,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ179" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AR179" t="n">
         <v>1.58</v>
@@ -40592,7 +40592,7 @@
         <v>0.78</v>
       </c>
       <c r="AP184" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ184" t="n">
         <v>0.9399999999999999</v>
@@ -41028,7 +41028,7 @@
         <v>0.5</v>
       </c>
       <c r="AP186" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ186" t="n">
         <v>1</v>
@@ -41685,7 +41685,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ189" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR189" t="n">
         <v>1.98</v>
@@ -41900,7 +41900,7 @@
         <v>1.89</v>
       </c>
       <c r="AP190" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ190" t="n">
         <v>1.53</v>
@@ -42118,7 +42118,7 @@
         <v>0.89</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ191" t="n">
         <v>0.88</v>
@@ -42339,7 +42339,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ192" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR192" t="n">
         <v>1.63</v>
@@ -43211,7 +43211,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ196" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR196" t="n">
         <v>1.76</v>
@@ -43647,7 +43647,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ198" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AR198" t="n">
         <v>1.59</v>
@@ -44519,7 +44519,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ202" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR202" t="n">
         <v>2.17</v>
@@ -44734,7 +44734,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP203" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ203" t="n">
         <v>0.47</v>
@@ -45388,7 +45388,7 @@
         <v>0.5</v>
       </c>
       <c r="AP206" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ206" t="n">
         <v>0.78</v>
@@ -46699,7 +46699,7 @@
         <v>2</v>
       </c>
       <c r="AQ212" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AR212" t="n">
         <v>1.86</v>
@@ -46917,7 +46917,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ213" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR213" t="n">
         <v>1.76</v>
@@ -47353,7 +47353,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ215" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR215" t="n">
         <v>1.76</v>
@@ -47789,7 +47789,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ217" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR217" t="n">
         <v>1.71</v>
@@ -48004,7 +48004,7 @@
         <v>0.4</v>
       </c>
       <c r="AP218" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ218" t="n">
         <v>1</v>
@@ -48222,7 +48222,7 @@
         <v>0.5</v>
       </c>
       <c r="AP219" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ219" t="n">
         <v>0.47</v>
@@ -48658,7 +48658,7 @@
         <v>0.82</v>
       </c>
       <c r="AP221" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ221" t="n">
         <v>0.9399999999999999</v>
@@ -50838,10 +50838,10 @@
         <v>1.27</v>
       </c>
       <c r="AP231" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ231" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR231" t="n">
         <v>1.73</v>
@@ -51059,7 +51059,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ232" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AR232" t="n">
         <v>1.63</v>
@@ -51274,7 +51274,7 @@
         <v>1</v>
       </c>
       <c r="AP233" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ233" t="n">
         <v>0.88</v>
@@ -52149,7 +52149,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ237" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR237" t="n">
         <v>1.71</v>
@@ -52585,7 +52585,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ239" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR239" t="n">
         <v>1.69</v>
@@ -52800,7 +52800,7 @@
         <v>0.64</v>
       </c>
       <c r="AP240" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ240" t="n">
         <v>0.89</v>
@@ -53018,7 +53018,7 @@
         <v>0.42</v>
       </c>
       <c r="AP241" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ241" t="n">
         <v>0.78</v>
@@ -53454,7 +53454,7 @@
         <v>1</v>
       </c>
       <c r="AP243" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ243" t="n">
         <v>1.17</v>
@@ -53890,7 +53890,7 @@
         <v>0.75</v>
       </c>
       <c r="AP245" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ245" t="n">
         <v>0.9399999999999999</v>
@@ -54108,7 +54108,7 @@
         <v>1.33</v>
       </c>
       <c r="AP246" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ246" t="n">
         <v>1.59</v>
@@ -54983,7 +54983,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ250" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR250" t="n">
         <v>2.11</v>
@@ -55855,7 +55855,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ254" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AR254" t="n">
         <v>1.74</v>
@@ -56506,7 +56506,7 @@
         <v>1</v>
       </c>
       <c r="AP257" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ257" t="n">
         <v>1.17</v>
@@ -56727,7 +56727,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ258" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR258" t="n">
         <v>1.91</v>
@@ -56942,7 +56942,7 @@
         <v>0.42</v>
       </c>
       <c r="AP259" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ259" t="n">
         <v>0.41</v>
@@ -57817,7 +57817,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ263" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR263" t="n">
         <v>1.56</v>
@@ -58032,7 +58032,7 @@
         <v>1.62</v>
       </c>
       <c r="AP264" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ264" t="n">
         <v>1.53</v>
@@ -59125,7 +59125,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ269" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AR269" t="n">
         <v>1.68</v>
@@ -59343,7 +59343,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ270" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR270" t="n">
         <v>1.52</v>
@@ -59776,7 +59776,7 @@
         <v>0.92</v>
       </c>
       <c r="AP272" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ272" t="n">
         <v>1.17</v>
@@ -60866,7 +60866,7 @@
         <v>0.77</v>
       </c>
       <c r="AP277" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ277" t="n">
         <v>1</v>
@@ -61523,7 +61523,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ280" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR280" t="n">
         <v>1.6</v>
@@ -63267,7 +63267,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ288" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AR288" t="n">
         <v>1.65</v>
@@ -64136,7 +64136,7 @@
         <v>0.86</v>
       </c>
       <c r="AP292" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ292" t="n">
         <v>1.17</v>
@@ -65226,7 +65226,7 @@
         <v>0.53</v>
       </c>
       <c r="AP297" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ297" t="n">
         <v>0.78</v>
@@ -65447,7 +65447,7 @@
         <v>2</v>
       </c>
       <c r="AQ298" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR298" t="n">
         <v>1.84</v>
@@ -66098,7 +66098,7 @@
         <v>0.4</v>
       </c>
       <c r="AP301" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ301" t="n">
         <v>0.41</v>
@@ -66755,7 +66755,7 @@
         <v>2</v>
       </c>
       <c r="AQ304" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR304" t="n">
         <v>1.94</v>
@@ -67409,7 +67409,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ307" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR307" t="n">
         <v>1.63</v>
@@ -67624,7 +67624,7 @@
         <v>1.43</v>
       </c>
       <c r="AP308" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ308" t="n">
         <v>1.35</v>
@@ -67842,7 +67842,7 @@
         <v>1.67</v>
       </c>
       <c r="AP309" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ309" t="n">
         <v>1.59</v>
@@ -68932,10 +68932,10 @@
         <v>1.56</v>
       </c>
       <c r="AP314" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ314" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AR314" t="n">
         <v>1.92</v>
@@ -69589,7 +69589,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ317" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR317" t="n">
         <v>1.67</v>
@@ -69804,7 +69804,7 @@
         <v>0.53</v>
       </c>
       <c r="AP318" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ318" t="n">
         <v>0.59</v>
@@ -70022,7 +70022,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP319" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ319" t="n">
         <v>0.78</v>
@@ -70458,10 +70458,10 @@
         <v>1.6</v>
       </c>
       <c r="AP321" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ321" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR321" t="n">
         <v>1.97</v>
@@ -70679,7 +70679,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ322" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR322" t="n">
         <v>1.73</v>
@@ -71333,7 +71333,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ325" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR325" t="n">
         <v>1.68</v>
@@ -73946,7 +73946,7 @@
         <v>1.25</v>
       </c>
       <c r="AP337" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ337" t="n">
         <v>1.35</v>
@@ -74600,7 +74600,7 @@
         <v>1.56</v>
       </c>
       <c r="AP340" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ340" t="n">
         <v>1.53</v>
@@ -74821,7 +74821,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ341" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR341" t="n">
         <v>1.71</v>
@@ -75987,6 +75987,878 @@
       </c>
       <c r="BP346" t="n">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B347" t="n">
+        <v>5406772</v>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E347" s="2" t="n">
+        <v>45256.77083333334</v>
+      </c>
+      <c r="F347" t="n">
+        <v>35</v>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>Cuiabá</t>
+        </is>
+      </c>
+      <c r="I347" t="n">
+        <v>0</v>
+      </c>
+      <c r="J347" t="n">
+        <v>0</v>
+      </c>
+      <c r="K347" t="n">
+        <v>0</v>
+      </c>
+      <c r="L347" t="n">
+        <v>0</v>
+      </c>
+      <c r="M347" t="n">
+        <v>0</v>
+      </c>
+      <c r="N347" t="n">
+        <v>0</v>
+      </c>
+      <c r="O347" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P347" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q347" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R347" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S347" t="n">
+        <v>6</v>
+      </c>
+      <c r="T347" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U347" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V347" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W347" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X347" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y347" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z347" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA347" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB347" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AC347" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD347" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE347" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF347" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AG347" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AH347" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI347" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ347" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK347" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AL347" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM347" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN347" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AO347" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AP347" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AQ347" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR347" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AS347" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT347" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU347" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV347" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW347" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX347" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY347" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ347" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA347" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB347" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC347" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD347" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BE347" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF347" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BG347" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH347" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BI347" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BJ347" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BK347" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL347" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BM347" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN347" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO347" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BP347" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B348" t="n">
+        <v>5406776</v>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E348" s="2" t="n">
+        <v>45256.77083333334</v>
+      </c>
+      <c r="F348" t="n">
+        <v>35</v>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>Bragantino</t>
+        </is>
+      </c>
+      <c r="I348" t="n">
+        <v>1</v>
+      </c>
+      <c r="J348" t="n">
+        <v>0</v>
+      </c>
+      <c r="K348" t="n">
+        <v>1</v>
+      </c>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="n">
+        <v>0</v>
+      </c>
+      <c r="N348" t="n">
+        <v>1</v>
+      </c>
+      <c r="O348" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="P348" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q348" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R348" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S348" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T348" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U348" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V348" t="n">
+        <v>3</v>
+      </c>
+      <c r="W348" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X348" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y348" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z348" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AA348" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB348" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AC348" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD348" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE348" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF348" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG348" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH348" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI348" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ348" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK348" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL348" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM348" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AN348" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO348" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AP348" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AQ348" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR348" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AS348" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT348" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AU348" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV348" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW348" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX348" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY348" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ348" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA348" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB348" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC348" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD348" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BE348" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF348" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BG348" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH348" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BI348" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ348" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BK348" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL348" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BM348" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN348" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BO348" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BP348" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B349" t="n">
+        <v>5406778</v>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E349" s="2" t="n">
+        <v>45256.77083333334</v>
+      </c>
+      <c r="F349" t="n">
+        <v>35</v>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="I349" t="n">
+        <v>1</v>
+      </c>
+      <c r="J349" t="n">
+        <v>0</v>
+      </c>
+      <c r="K349" t="n">
+        <v>1</v>
+      </c>
+      <c r="L349" t="n">
+        <v>2</v>
+      </c>
+      <c r="M349" t="n">
+        <v>2</v>
+      </c>
+      <c r="N349" t="n">
+        <v>4</v>
+      </c>
+      <c r="O349" t="inlineStr">
+        <is>
+          <t>['20', '70']</t>
+        </is>
+      </c>
+      <c r="P349" t="inlineStr">
+        <is>
+          <t>['66', '77']</t>
+        </is>
+      </c>
+      <c r="Q349" t="n">
+        <v>4</v>
+      </c>
+      <c r="R349" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S349" t="n">
+        <v>3</v>
+      </c>
+      <c r="T349" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U349" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V349" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W349" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X349" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y349" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z349" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AA349" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB349" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC349" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD349" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE349" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF349" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG349" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH349" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI349" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ349" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK349" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL349" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM349" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AN349" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO349" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AP349" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ349" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AR349" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AS349" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT349" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AU349" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV349" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW349" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX349" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY349" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ349" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA349" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB349" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC349" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD349" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE349" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF349" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BG349" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH349" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BI349" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ349" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK349" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL349" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM349" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BN349" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO349" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BP349" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B350" t="n">
+        <v>5406779</v>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E350" s="2" t="n">
+        <v>45256.77083333334</v>
+      </c>
+      <c r="F350" t="n">
+        <v>35</v>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>América Mineiro</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="I350" t="n">
+        <v>0</v>
+      </c>
+      <c r="J350" t="n">
+        <v>1</v>
+      </c>
+      <c r="K350" t="n">
+        <v>1</v>
+      </c>
+      <c r="L350" t="n">
+        <v>0</v>
+      </c>
+      <c r="M350" t="n">
+        <v>3</v>
+      </c>
+      <c r="N350" t="n">
+        <v>3</v>
+      </c>
+      <c r="O350" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P350" t="inlineStr">
+        <is>
+          <t>['29', '50', '85']</t>
+        </is>
+      </c>
+      <c r="Q350" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="R350" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S350" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T350" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U350" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V350" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W350" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X350" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y350" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z350" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA350" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB350" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AC350" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD350" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE350" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF350" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG350" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH350" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI350" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ350" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK350" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AL350" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM350" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AN350" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AO350" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AP350" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AQ350" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AR350" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AS350" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT350" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU350" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV350" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW350" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX350" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY350" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ350" t="n">
+        <v>25</v>
+      </c>
+      <c r="BA350" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB350" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC350" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD350" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BE350" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF350" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BG350" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH350" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI350" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ350" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BK350" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL350" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BM350" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BN350" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BO350" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BP350" t="n">
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP350"/>
+  <dimension ref="A1:BP352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2663,7 +2663,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.39</v>
@@ -4840,10 +4840,10 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -5933,7 +5933,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR25" t="n">
         <v>1.72</v>
@@ -6151,7 +6151,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR26" t="n">
         <v>1.77</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.83</v>
@@ -9200,7 +9200,7 @@
         <v>1</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.39</v>
@@ -11383,7 +11383,7 @@
         <v>2</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR50" t="n">
         <v>1.67</v>
@@ -12688,7 +12688,7 @@
         <v>0</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ56" t="n">
         <v>1</v>
@@ -13342,7 +13342,7 @@
         <v>3</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.53</v>
@@ -13781,7 +13781,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR61" t="n">
         <v>1.92</v>
@@ -15525,7 +15525,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR69" t="n">
         <v>2.5</v>
@@ -16615,7 +16615,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR74" t="n">
         <v>2.29</v>
@@ -18577,7 +18577,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR83" t="n">
         <v>1.74</v>
@@ -19882,7 +19882,7 @@
         <v>1.5</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.5</v>
@@ -20318,7 +20318,7 @@
         <v>1</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.72</v>
@@ -20975,7 +20975,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR94" t="n">
         <v>1.87</v>
@@ -22498,7 +22498,7 @@
         <v>1.2</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ101" t="n">
         <v>0.59</v>
@@ -23155,7 +23155,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR104" t="n">
         <v>1.58</v>
@@ -24024,7 +24024,7 @@
         <v>0.2</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ108" t="n">
         <v>0.9399999999999999</v>
@@ -24899,7 +24899,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ112" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR112" t="n">
         <v>1.8</v>
@@ -26858,7 +26858,7 @@
         <v>1.67</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ121" t="n">
         <v>1.5</v>
@@ -27733,7 +27733,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR125" t="n">
         <v>1.39</v>
@@ -29038,7 +29038,7 @@
         <v>0.17</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ131" t="n">
         <v>0.78</v>
@@ -29474,10 +29474,10 @@
         <v>1.5</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR133" t="n">
         <v>1.91</v>
@@ -29695,7 +29695,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ134" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR134" t="n">
         <v>1.73</v>
@@ -32962,7 +32962,7 @@
         <v>1.57</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ149" t="n">
         <v>1.59</v>
@@ -33619,7 +33619,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ152" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR152" t="n">
         <v>1.64</v>
@@ -34924,7 +34924,7 @@
         <v>0.57</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ158" t="n">
         <v>1</v>
@@ -35363,7 +35363,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR160" t="n">
         <v>2.01</v>
@@ -37322,7 +37322,7 @@
         <v>1.5</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ169" t="n">
         <v>1.17</v>
@@ -37761,7 +37761,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ171" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR171" t="n">
         <v>1.49</v>
@@ -37976,7 +37976,7 @@
         <v>1</v>
       </c>
       <c r="AP172" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ172" t="n">
         <v>0.88</v>
@@ -38412,7 +38412,7 @@
         <v>1.43</v>
       </c>
       <c r="AP174" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ174" t="n">
         <v>1.17</v>
@@ -41249,7 +41249,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ187" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR187" t="n">
         <v>1.94</v>
@@ -42775,7 +42775,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ194" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR194" t="n">
         <v>1.67</v>
@@ -42990,7 +42990,7 @@
         <v>1.5</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ195" t="n">
         <v>1.59</v>
@@ -43862,7 +43862,7 @@
         <v>0.89</v>
       </c>
       <c r="AP199" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ199" t="n">
         <v>1</v>
@@ -46045,7 +46045,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ209" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR209" t="n">
         <v>1.8</v>
@@ -46260,7 +46260,7 @@
         <v>0.91</v>
       </c>
       <c r="AP210" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ210" t="n">
         <v>1</v>
@@ -48661,7 +48661,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ221" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR221" t="n">
         <v>1.89</v>
@@ -48879,7 +48879,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ222" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR222" t="n">
         <v>1.54</v>
@@ -49966,7 +49966,7 @@
         <v>0.8</v>
       </c>
       <c r="AP227" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ227" t="n">
         <v>0.59</v>
@@ -51056,7 +51056,7 @@
         <v>1.67</v>
       </c>
       <c r="AP232" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ232" t="n">
         <v>1.72</v>
@@ -51495,7 +51495,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ234" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR234" t="n">
         <v>1.81</v>
@@ -51710,7 +51710,7 @@
         <v>0.45</v>
       </c>
       <c r="AP235" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ235" t="n">
         <v>0.78</v>
@@ -53893,7 +53893,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ245" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR245" t="n">
         <v>1.92</v>
@@ -55416,7 +55416,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP252" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ252" t="n">
         <v>0.83</v>
@@ -55634,7 +55634,7 @@
         <v>0.45</v>
       </c>
       <c r="AP253" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ253" t="n">
         <v>0.47</v>
@@ -57381,7 +57381,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ261" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR261" t="n">
         <v>1.72</v>
@@ -58250,7 +58250,7 @@
         <v>1.17</v>
       </c>
       <c r="AP265" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ265" t="n">
         <v>0.88</v>
@@ -58468,7 +58468,7 @@
         <v>0.5</v>
       </c>
       <c r="AP266" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ266" t="n">
         <v>0.47</v>
@@ -59561,7 +59561,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ271" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR271" t="n">
         <v>1.8</v>
@@ -60651,7 +60651,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ276" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR276" t="n">
         <v>1.65</v>
@@ -63049,7 +63049,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ287" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR287" t="n">
         <v>1.71</v>
@@ -63482,7 +63482,7 @@
         <v>0.79</v>
       </c>
       <c r="AP289" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ289" t="n">
         <v>1</v>
@@ -64572,7 +64572,7 @@
         <v>0.71</v>
       </c>
       <c r="AP294" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ294" t="n">
         <v>0.89</v>
@@ -67406,7 +67406,7 @@
         <v>1.5</v>
       </c>
       <c r="AP307" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ307" t="n">
         <v>1.33</v>
@@ -67627,7 +67627,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ308" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR308" t="n">
         <v>1.99</v>
@@ -68499,7 +68499,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ312" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR312" t="n">
         <v>2.06</v>
@@ -69368,7 +69368,7 @@
         <v>1.71</v>
       </c>
       <c r="AP316" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ316" t="n">
         <v>1.53</v>
@@ -71112,7 +71112,7 @@
         <v>0.88</v>
       </c>
       <c r="AP324" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ324" t="n">
         <v>1</v>
@@ -71769,7 +71769,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ327" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR327" t="n">
         <v>1.52</v>
@@ -72423,7 +72423,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ330" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR330" t="n">
         <v>1.61</v>
@@ -73074,7 +73074,7 @@
         <v>0.44</v>
       </c>
       <c r="AP333" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ333" t="n">
         <v>0.41</v>
@@ -73949,7 +73949,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ337" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR337" t="n">
         <v>1.91</v>
@@ -76859,6 +76859,442 @@
       </c>
       <c r="BP350" t="n">
         <v>1.55</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B351" t="n">
+        <v>5406774</v>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E351" s="2" t="n">
+        <v>45257.875</v>
+      </c>
+      <c r="F351" t="n">
+        <v>35</v>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>Goiás</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="I351" t="n">
+        <v>0</v>
+      </c>
+      <c r="J351" t="n">
+        <v>0</v>
+      </c>
+      <c r="K351" t="n">
+        <v>0</v>
+      </c>
+      <c r="L351" t="n">
+        <v>0</v>
+      </c>
+      <c r="M351" t="n">
+        <v>1</v>
+      </c>
+      <c r="N351" t="n">
+        <v>1</v>
+      </c>
+      <c r="O351" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P351" t="inlineStr">
+        <is>
+          <t>['90+6']</t>
+        </is>
+      </c>
+      <c r="Q351" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R351" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S351" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T351" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U351" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V351" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W351" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X351" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y351" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z351" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AA351" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AB351" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AC351" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD351" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE351" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF351" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AG351" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AH351" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI351" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ351" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK351" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL351" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM351" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN351" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO351" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP351" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AQ351" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR351" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS351" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT351" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AU351" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV351" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW351" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX351" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY351" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ351" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA351" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB351" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC351" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD351" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BE351" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF351" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BG351" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH351" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI351" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ351" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK351" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL351" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BM351" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BN351" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BO351" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BP351" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B352" t="n">
+        <v>5406781</v>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E352" s="2" t="n">
+        <v>45258.89583333334</v>
+      </c>
+      <c r="F352" t="n">
+        <v>36</v>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>Vasco da Gama</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="I352" t="n">
+        <v>2</v>
+      </c>
+      <c r="J352" t="n">
+        <v>2</v>
+      </c>
+      <c r="K352" t="n">
+        <v>4</v>
+      </c>
+      <c r="L352" t="n">
+        <v>2</v>
+      </c>
+      <c r="M352" t="n">
+        <v>4</v>
+      </c>
+      <c r="N352" t="n">
+        <v>6</v>
+      </c>
+      <c r="O352" t="inlineStr">
+        <is>
+          <t>['3', '25']</t>
+        </is>
+      </c>
+      <c r="P352" t="inlineStr">
+        <is>
+          <t>['13', '45', '61', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q352" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R352" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S352" t="n">
+        <v>5</v>
+      </c>
+      <c r="T352" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U352" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V352" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W352" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X352" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y352" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z352" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA352" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB352" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC352" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AD352" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE352" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AF352" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AG352" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH352" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI352" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ352" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK352" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AL352" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM352" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN352" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO352" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP352" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ352" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR352" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AS352" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AT352" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU352" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV352" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW352" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX352" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY352" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ352" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA352" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB352" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC352" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD352" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BE352" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF352" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="BG352" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH352" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI352" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ352" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BK352" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL352" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM352" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN352" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO352" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BP352" t="n">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP352"/>
+  <dimension ref="A1:BP361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.5</v>
@@ -1137,7 +1137,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>2</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.83</v>
@@ -1791,7 +1791,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.78</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ11" t="n">
         <v>1</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.33</v>
@@ -3535,7 +3535,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -4404,10 +4404,10 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4622,10 +4622,10 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -5276,10 +5276,10 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR22" t="n">
         <v>1.73</v>
@@ -5497,7 +5497,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR23" t="n">
         <v>1.91</v>
@@ -5712,10 +5712,10 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR24" t="n">
         <v>1.18</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.44</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.06</v>
@@ -6584,10 +6584,10 @@
         <v>3</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR28" t="n">
         <v>2.3</v>
@@ -6805,7 +6805,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR29" t="n">
         <v>1.28</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.17</v>
@@ -8113,7 +8113,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR35" t="n">
         <v>1.72</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ37" t="n">
         <v>0.78</v>
@@ -8764,7 +8764,7 @@
         <v>1</v>
       </c>
       <c r="AP38" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.33</v>
@@ -8985,7 +8985,7 @@
         <v>2</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR39" t="n">
         <v>1.26</v>
@@ -9421,7 +9421,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR41" t="n">
         <v>1.64</v>
@@ -9854,10 +9854,10 @@
         <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR43" t="n">
         <v>1.58</v>
@@ -10072,7 +10072,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.83</v>
@@ -10290,10 +10290,10 @@
         <v>0.5</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR45" t="n">
         <v>1.7</v>
@@ -10508,10 +10508,10 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR46" t="n">
         <v>2.7</v>
@@ -10729,7 +10729,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR47" t="n">
         <v>1.63</v>
@@ -10944,7 +10944,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.17</v>
@@ -11162,7 +11162,7 @@
         <v>2</v>
       </c>
       <c r="AP49" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ49" t="n">
         <v>0.89</v>
@@ -11601,7 +11601,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR51" t="n">
         <v>2.41</v>
@@ -11816,7 +11816,7 @@
         <v>0</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.72</v>
@@ -12252,7 +12252,7 @@
         <v>1</v>
       </c>
       <c r="AP54" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.33</v>
@@ -12473,7 +12473,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR55" t="n">
         <v>2.15</v>
@@ -12909,7 +12909,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR57" t="n">
         <v>2.06</v>
@@ -13124,10 +13124,10 @@
         <v>2</v>
       </c>
       <c r="AP58" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR58" t="n">
         <v>1.43</v>
@@ -13345,7 +13345,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR59" t="n">
         <v>1.78</v>
@@ -13996,10 +13996,10 @@
         <v>0</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR62" t="n">
         <v>1.74</v>
@@ -14217,7 +14217,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR63" t="n">
         <v>1.88</v>
@@ -14432,10 +14432,10 @@
         <v>1.33</v>
       </c>
       <c r="AP64" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR64" t="n">
         <v>1.63</v>
@@ -14650,7 +14650,7 @@
         <v>1</v>
       </c>
       <c r="AP65" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ65" t="n">
         <v>1</v>
@@ -15089,7 +15089,7 @@
         <v>2</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR67" t="n">
         <v>1.76</v>
@@ -15304,7 +15304,7 @@
         <v>2</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ68" t="n">
         <v>1.39</v>
@@ -15522,7 +15522,7 @@
         <v>0</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.06</v>
@@ -15740,10 +15740,10 @@
         <v>0.33</v>
       </c>
       <c r="AP70" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR70" t="n">
         <v>1.55</v>
@@ -16612,7 +16612,7 @@
         <v>2</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ74" t="n">
         <v>1.44</v>
@@ -16830,7 +16830,7 @@
         <v>0</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ75" t="n">
         <v>0.78</v>
@@ -17051,7 +17051,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ76" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR76" t="n">
         <v>1.5</v>
@@ -17487,7 +17487,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR78" t="n">
         <v>1.79</v>
@@ -17702,7 +17702,7 @@
         <v>1</v>
       </c>
       <c r="AP79" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ79" t="n">
         <v>1</v>
@@ -18141,7 +18141,7 @@
         <v>2</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR81" t="n">
         <v>1.84</v>
@@ -18795,7 +18795,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR84" t="n">
         <v>2.07</v>
@@ -19013,7 +19013,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR85" t="n">
         <v>1.85</v>
@@ -19228,10 +19228,10 @@
         <v>0.25</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR86" t="n">
         <v>1.5</v>
@@ -19446,10 +19446,10 @@
         <v>0.75</v>
       </c>
       <c r="AP87" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ87" t="n">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR87" t="n">
         <v>1.62</v>
@@ -20100,7 +20100,7 @@
         <v>0.25</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ90" t="n">
         <v>0.78</v>
@@ -20536,7 +20536,7 @@
         <v>0.75</v>
       </c>
       <c r="AP92" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ92" t="n">
         <v>1</v>
@@ -20972,7 +20972,7 @@
         <v>1.75</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.44</v>
@@ -21411,7 +21411,7 @@
         <v>2</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR96" t="n">
         <v>1.89</v>
@@ -22280,7 +22280,7 @@
         <v>1.5</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.17</v>
@@ -22501,7 +22501,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ101" t="n">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR101" t="n">
         <v>1.59</v>
@@ -22937,7 +22937,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR103" t="n">
         <v>2</v>
@@ -23152,7 +23152,7 @@
         <v>0</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ104" t="n">
         <v>1.06</v>
@@ -23373,7 +23373,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR105" t="n">
         <v>1.92</v>
@@ -23588,7 +23588,7 @@
         <v>1.8</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ106" t="n">
         <v>1.39</v>
@@ -23806,10 +23806,10 @@
         <v>0.25</v>
       </c>
       <c r="AP107" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR107" t="n">
         <v>1.79</v>
@@ -24027,7 +24027,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR108" t="n">
         <v>1.97</v>
@@ -24242,10 +24242,10 @@
         <v>0.4</v>
       </c>
       <c r="AP109" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR109" t="n">
         <v>1.74</v>
@@ -24460,10 +24460,10 @@
         <v>1.5</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR110" t="n">
         <v>1.37</v>
@@ -24678,7 +24678,7 @@
         <v>1.5</v>
       </c>
       <c r="AP111" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ111" t="n">
         <v>1.72</v>
@@ -25117,7 +25117,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR113" t="n">
         <v>1.99</v>
@@ -25553,7 +25553,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ115" t="n">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR115" t="n">
         <v>1.88</v>
@@ -25768,7 +25768,7 @@
         <v>0.2</v>
       </c>
       <c r="AP116" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ116" t="n">
         <v>0.78</v>
@@ -25986,10 +25986,10 @@
         <v>1.8</v>
       </c>
       <c r="AP117" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR117" t="n">
         <v>2.21</v>
@@ -26204,7 +26204,7 @@
         <v>1.2</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.72</v>
@@ -26422,10 +26422,10 @@
         <v>0.67</v>
       </c>
       <c r="AP119" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ119" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR119" t="n">
         <v>2.07</v>
@@ -26643,7 +26643,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR120" t="n">
         <v>1.82</v>
@@ -27079,7 +27079,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ122" t="n">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR122" t="n">
         <v>1.74</v>
@@ -27294,7 +27294,7 @@
         <v>1.2</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ123" t="n">
         <v>1.17</v>
@@ -27512,10 +27512,10 @@
         <v>1.33</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ124" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR124" t="n">
         <v>2.06</v>
@@ -28169,7 +28169,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ127" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR127" t="n">
         <v>1.78</v>
@@ -28820,7 +28820,7 @@
         <v>0.8</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ130" t="n">
         <v>1</v>
@@ -29256,7 +29256,7 @@
         <v>0.67</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ132" t="n">
         <v>0.83</v>
@@ -29910,10 +29910,10 @@
         <v>0.33</v>
       </c>
       <c r="AP135" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ135" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR135" t="n">
         <v>1.72</v>
@@ -30128,7 +30128,7 @@
         <v>1.5</v>
       </c>
       <c r="AP136" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.72</v>
@@ -30346,10 +30346,10 @@
         <v>0.57</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ137" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR137" t="n">
         <v>1.55</v>
@@ -30567,7 +30567,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR138" t="n">
         <v>1.83</v>
@@ -30782,10 +30782,10 @@
         <v>0.5</v>
       </c>
       <c r="AP139" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ139" t="n">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR139" t="n">
         <v>2.04</v>
@@ -31218,10 +31218,10 @@
         <v>2</v>
       </c>
       <c r="AP141" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR141" t="n">
         <v>1.98</v>
@@ -32965,7 +32965,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ149" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR149" t="n">
         <v>1.79</v>
@@ -33180,10 +33180,10 @@
         <v>0.29</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ150" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR150" t="n">
         <v>1.94</v>
@@ -33398,10 +33398,10 @@
         <v>1.14</v>
       </c>
       <c r="AP151" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ151" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR151" t="n">
         <v>2.07</v>
@@ -33616,7 +33616,7 @@
         <v>0.75</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ152" t="n">
         <v>1.06</v>
@@ -33834,10 +33834,10 @@
         <v>0.57</v>
       </c>
       <c r="AP153" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ153" t="n">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR153" t="n">
         <v>1.59</v>
@@ -34052,10 +34052,10 @@
         <v>1.5</v>
       </c>
       <c r="AP154" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR154" t="n">
         <v>1.96</v>
@@ -34270,10 +34270,10 @@
         <v>2.14</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR155" t="n">
         <v>1.55</v>
@@ -34488,10 +34488,10 @@
         <v>1</v>
       </c>
       <c r="AP156" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR156" t="n">
         <v>2.1</v>
@@ -34709,7 +34709,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ157" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR157" t="n">
         <v>1.66</v>
@@ -35142,10 +35142,10 @@
         <v>1</v>
       </c>
       <c r="AP159" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ159" t="n">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR159" t="n">
         <v>1.68</v>
@@ -37540,7 +37540,7 @@
         <v>0.88</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ170" t="n">
         <v>1</v>
@@ -37979,7 +37979,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ172" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR172" t="n">
         <v>1.75</v>
@@ -38633,7 +38633,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ175" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR175" t="n">
         <v>1.93</v>
@@ -38851,7 +38851,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR176" t="n">
         <v>1.68</v>
@@ -39066,10 +39066,10 @@
         <v>0.38</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ177" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR177" t="n">
         <v>1.67</v>
@@ -39284,7 +39284,7 @@
         <v>1.25</v>
       </c>
       <c r="AP178" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ178" t="n">
         <v>1.33</v>
@@ -39502,7 +39502,7 @@
         <v>1.56</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ179" t="n">
         <v>1.72</v>
@@ -39723,7 +39723,7 @@
         <v>2</v>
       </c>
       <c r="AQ180" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR180" t="n">
         <v>1.88</v>
@@ -40156,10 +40156,10 @@
         <v>0.88</v>
       </c>
       <c r="AP182" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ182" t="n">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR182" t="n">
         <v>1.83</v>
@@ -40595,7 +40595,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ184" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR184" t="n">
         <v>1.81</v>
@@ -40810,10 +40810,10 @@
         <v>0.5</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ185" t="n">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR185" t="n">
         <v>1.85</v>
@@ -41246,7 +41246,7 @@
         <v>1.63</v>
       </c>
       <c r="AP187" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ187" t="n">
         <v>1.44</v>
@@ -41464,7 +41464,7 @@
         <v>0.63</v>
       </c>
       <c r="AP188" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ188" t="n">
         <v>0.89</v>
@@ -41903,7 +41903,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ190" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR190" t="n">
         <v>1.96</v>
@@ -42121,7 +42121,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ191" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR191" t="n">
         <v>1.49</v>
@@ -42336,7 +42336,7 @@
         <v>1.4</v>
       </c>
       <c r="AP192" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ192" t="n">
         <v>1.39</v>
@@ -42557,7 +42557,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ193" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR193" t="n">
         <v>1.79</v>
@@ -42993,7 +42993,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ195" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR195" t="n">
         <v>1.75</v>
@@ -43208,7 +43208,7 @@
         <v>1.44</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ196" t="n">
         <v>1.33</v>
@@ -43426,7 +43426,7 @@
         <v>1.25</v>
       </c>
       <c r="AP197" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ197" t="n">
         <v>1.17</v>
@@ -43644,7 +43644,7 @@
         <v>1.4</v>
       </c>
       <c r="AP198" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ198" t="n">
         <v>1.72</v>
@@ -44080,10 +44080,10 @@
         <v>0.9</v>
       </c>
       <c r="AP200" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ200" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR200" t="n">
         <v>1.92</v>
@@ -44301,7 +44301,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ201" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR201" t="n">
         <v>1.75</v>
@@ -44516,7 +44516,7 @@
         <v>1.6</v>
       </c>
       <c r="AP202" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ202" t="n">
         <v>1.5</v>
@@ -44737,7 +44737,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ203" t="n">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR203" t="n">
         <v>1.79</v>
@@ -45606,7 +45606,7 @@
         <v>0.67</v>
       </c>
       <c r="AP207" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ207" t="n">
         <v>0.89</v>
@@ -45827,7 +45827,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ208" t="n">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR208" t="n">
         <v>1.94</v>
@@ -46042,7 +46042,7 @@
         <v>1.44</v>
       </c>
       <c r="AP209" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ209" t="n">
         <v>1.44</v>
@@ -46263,7 +46263,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ210" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR210" t="n">
         <v>1.66</v>
@@ -46481,7 +46481,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ211" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR211" t="n">
         <v>1.89</v>
@@ -46914,7 +46914,7 @@
         <v>1.45</v>
       </c>
       <c r="AP213" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ213" t="n">
         <v>1.5</v>
@@ -47135,7 +47135,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ214" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR214" t="n">
         <v>1.82</v>
@@ -47568,7 +47568,7 @@
         <v>0.6</v>
       </c>
       <c r="AP216" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ216" t="n">
         <v>0.89</v>
@@ -48225,7 +48225,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ219" t="n">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR219" t="n">
         <v>1.54</v>
@@ -48440,7 +48440,7 @@
         <v>0.9</v>
       </c>
       <c r="AP220" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ220" t="n">
         <v>1</v>
@@ -48876,7 +48876,7 @@
         <v>1.3</v>
       </c>
       <c r="AP222" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ222" t="n">
         <v>1.44</v>
@@ -49094,7 +49094,7 @@
         <v>0.55</v>
       </c>
       <c r="AP223" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ223" t="n">
         <v>0.83</v>
@@ -49312,7 +49312,7 @@
         <v>1.11</v>
       </c>
       <c r="AP224" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ224" t="n">
         <v>1.17</v>
@@ -49530,10 +49530,10 @@
         <v>0.3</v>
       </c>
       <c r="AP225" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ225" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR225" t="n">
         <v>1.62</v>
@@ -49748,10 +49748,10 @@
         <v>1</v>
       </c>
       <c r="AP226" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ226" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR226" t="n">
         <v>1.87</v>
@@ -49969,7 +49969,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ227" t="n">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR227" t="n">
         <v>1.72</v>
@@ -50187,7 +50187,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ228" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR228" t="n">
         <v>1.7</v>
@@ -50402,7 +50402,7 @@
         <v>0.36</v>
       </c>
       <c r="AP229" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ229" t="n">
         <v>1</v>
@@ -51277,7 +51277,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ233" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR233" t="n">
         <v>1.92</v>
@@ -51931,7 +51931,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ236" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR236" t="n">
         <v>1.94</v>
@@ -52146,7 +52146,7 @@
         <v>1.5</v>
       </c>
       <c r="AP237" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ237" t="n">
         <v>1.39</v>
@@ -52367,7 +52367,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ238" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR238" t="n">
         <v>1.71</v>
@@ -53236,7 +53236,7 @@
         <v>0.75</v>
       </c>
       <c r="AP242" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ242" t="n">
         <v>0.83</v>
@@ -53672,10 +53672,10 @@
         <v>0.73</v>
       </c>
       <c r="AP244" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ244" t="n">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR244" t="n">
         <v>1.69</v>
@@ -54111,7 +54111,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ246" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR246" t="n">
         <v>1.56</v>
@@ -54326,7 +54326,7 @@
         <v>1.09</v>
       </c>
       <c r="AP247" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ247" t="n">
         <v>1</v>
@@ -54544,7 +54544,7 @@
         <v>0.83</v>
       </c>
       <c r="AP248" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ248" t="n">
         <v>0.89</v>
@@ -54765,7 +54765,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ249" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR249" t="n">
         <v>1.71</v>
@@ -54980,7 +54980,7 @@
         <v>1.38</v>
       </c>
       <c r="AP250" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ250" t="n">
         <v>1.39</v>
@@ -55201,7 +55201,7 @@
         <v>2</v>
       </c>
       <c r="AQ251" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR251" t="n">
         <v>1.88</v>
@@ -55637,7 +55637,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ253" t="n">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR253" t="n">
         <v>1.74</v>
@@ -56073,7 +56073,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ255" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR255" t="n">
         <v>1.77</v>
@@ -56288,7 +56288,7 @@
         <v>0.58</v>
       </c>
       <c r="AP256" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ256" t="n">
         <v>1</v>
@@ -56945,7 +56945,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ259" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR259" t="n">
         <v>1.91</v>
@@ -57378,7 +57378,7 @@
         <v>1.33</v>
       </c>
       <c r="AP261" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ261" t="n">
         <v>1.44</v>
@@ -57596,7 +57596,7 @@
         <v>1</v>
       </c>
       <c r="AP262" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ262" t="n">
         <v>1</v>
@@ -57814,7 +57814,7 @@
         <v>1.23</v>
       </c>
       <c r="AP263" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ263" t="n">
         <v>1.5</v>
@@ -58035,7 +58035,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ264" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR264" t="n">
         <v>1.7</v>
@@ -58253,7 +58253,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ265" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR265" t="n">
         <v>1.69</v>
@@ -58471,7 +58471,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ266" t="n">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR266" t="n">
         <v>1.63</v>
@@ -58686,10 +58686,10 @@
         <v>0.85</v>
       </c>
       <c r="AP267" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ267" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR267" t="n">
         <v>1.75</v>
@@ -58904,10 +58904,10 @@
         <v>1.46</v>
       </c>
       <c r="AP268" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ268" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR268" t="n">
         <v>1.93</v>
@@ -59340,7 +59340,7 @@
         <v>1.38</v>
       </c>
       <c r="AP270" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ270" t="n">
         <v>1.33</v>
@@ -59994,10 +59994,10 @@
         <v>0.92</v>
       </c>
       <c r="AP273" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ273" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR273" t="n">
         <v>1.69</v>
@@ -60212,10 +60212,10 @@
         <v>1.08</v>
       </c>
       <c r="AP274" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ274" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR274" t="n">
         <v>1.73</v>
@@ -61084,7 +61084,7 @@
         <v>0.77</v>
       </c>
       <c r="AP278" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ278" t="n">
         <v>0.89</v>
@@ -61302,10 +61302,10 @@
         <v>0.67</v>
       </c>
       <c r="AP279" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ279" t="n">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR279" t="n">
         <v>2.12</v>
@@ -61520,7 +61520,7 @@
         <v>1.29</v>
       </c>
       <c r="AP280" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ280" t="n">
         <v>1.39</v>
@@ -61741,7 +61741,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ281" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR281" t="n">
         <v>1.71</v>
@@ -61959,7 +61959,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ282" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR282" t="n">
         <v>1.93</v>
@@ -62177,7 +62177,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ283" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR283" t="n">
         <v>1.88</v>
@@ -62392,10 +62392,10 @@
         <v>1.57</v>
       </c>
       <c r="AP284" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ284" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR284" t="n">
         <v>2.08</v>
@@ -62828,10 +62828,10 @@
         <v>0.46</v>
       </c>
       <c r="AP286" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ286" t="n">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR286" t="n">
         <v>1.91</v>
@@ -63046,7 +63046,7 @@
         <v>0.71</v>
       </c>
       <c r="AP287" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ287" t="n">
         <v>1.06</v>
@@ -63264,7 +63264,7 @@
         <v>1.67</v>
       </c>
       <c r="AP288" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ288" t="n">
         <v>1.72</v>
@@ -63485,7 +63485,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ289" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR289" t="n">
         <v>1.71</v>
@@ -63700,7 +63700,7 @@
         <v>0.57</v>
       </c>
       <c r="AP290" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ290" t="n">
         <v>0.78</v>
@@ -63918,7 +63918,7 @@
         <v>0.8</v>
       </c>
       <c r="AP291" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ291" t="n">
         <v>0.83</v>
@@ -64357,7 +64357,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ293" t="n">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR293" t="n">
         <v>1.6</v>
@@ -64793,7 +64793,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ295" t="n">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR295" t="n">
         <v>1.97</v>
@@ -65662,10 +65662,10 @@
         <v>0.57</v>
       </c>
       <c r="AP299" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ299" t="n">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR299" t="n">
         <v>1.72</v>
@@ -66101,7 +66101,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ301" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR301" t="n">
         <v>1.62</v>
@@ -66316,7 +66316,7 @@
         <v>0.73</v>
       </c>
       <c r="AP302" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ302" t="n">
         <v>1</v>
@@ -66534,7 +66534,7 @@
         <v>1</v>
       </c>
       <c r="AP303" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ303" t="n">
         <v>1.17</v>
@@ -66973,7 +66973,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ305" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR305" t="n">
         <v>1.59</v>
@@ -67188,7 +67188,7 @@
         <v>0.73</v>
       </c>
       <c r="AP306" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ306" t="n">
         <v>0.89</v>
@@ -67845,7 +67845,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ309" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR309" t="n">
         <v>1.77</v>
@@ -68060,7 +68060,7 @@
         <v>0.75</v>
       </c>
       <c r="AP310" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ310" t="n">
         <v>0.83</v>
@@ -68278,7 +68278,7 @@
         <v>1.07</v>
       </c>
       <c r="AP311" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ311" t="n">
         <v>1</v>
@@ -68496,7 +68496,7 @@
         <v>0.87</v>
       </c>
       <c r="AP312" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ312" t="n">
         <v>1.06</v>
@@ -68717,7 +68717,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ313" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR313" t="n">
         <v>1.68</v>
@@ -69150,10 +69150,10 @@
         <v>0.87</v>
       </c>
       <c r="AP315" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ315" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR315" t="n">
         <v>1.55</v>
@@ -69371,7 +69371,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ316" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR316" t="n">
         <v>1.72</v>
@@ -69586,7 +69586,7 @@
         <v>1.47</v>
       </c>
       <c r="AP317" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ317" t="n">
         <v>1.5</v>
@@ -69807,7 +69807,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ318" t="n">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR318" t="n">
         <v>1.63</v>
@@ -70243,7 +70243,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ320" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR320" t="n">
         <v>1.96</v>
@@ -70676,7 +70676,7 @@
         <v>1.5</v>
       </c>
       <c r="AP322" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ322" t="n">
         <v>1.39</v>
@@ -70897,7 +70897,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ323" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR323" t="n">
         <v>1.72</v>
@@ -71330,7 +71330,7 @@
         <v>1.44</v>
       </c>
       <c r="AP325" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ325" t="n">
         <v>1.5</v>
@@ -71766,7 +71766,7 @@
         <v>1.33</v>
       </c>
       <c r="AP327" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ327" t="n">
         <v>1.44</v>
@@ -71984,10 +71984,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP328" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ328" t="n">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR328" t="n">
         <v>1.72</v>
@@ -72202,10 +72202,10 @@
         <v>1.06</v>
       </c>
       <c r="AP329" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ329" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR329" t="n">
         <v>1.94</v>
@@ -72420,7 +72420,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AP330" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ330" t="n">
         <v>1.06</v>
@@ -72638,10 +72638,10 @@
         <v>1.6</v>
       </c>
       <c r="AP331" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ331" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR331" t="n">
         <v>2.06</v>
@@ -72856,7 +72856,7 @@
         <v>1</v>
       </c>
       <c r="AP332" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ332" t="n">
         <v>1</v>
@@ -73077,7 +73077,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ333" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR333" t="n">
         <v>1.7</v>
@@ -73292,10 +73292,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP334" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ334" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR334" t="n">
         <v>1.71</v>
@@ -73513,7 +73513,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ335" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR335" t="n">
         <v>1.58</v>
@@ -73728,10 +73728,10 @@
         <v>0.47</v>
       </c>
       <c r="AP336" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ336" t="n">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR336" t="n">
         <v>1.63</v>
@@ -74385,7 +74385,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ339" t="n">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR339" t="n">
         <v>1.9</v>
@@ -74603,7 +74603,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ340" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR340" t="n">
         <v>1.92</v>
@@ -74818,7 +74818,7 @@
         <v>1.5</v>
       </c>
       <c r="AP341" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ341" t="n">
         <v>1.33</v>
@@ -77295,6 +77295,1968 @@
       </c>
       <c r="BP352" t="n">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B353" t="n">
+        <v>5406783</v>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E353" s="2" t="n">
+        <v>45259.79166666666</v>
+      </c>
+      <c r="F353" t="n">
+        <v>36</v>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="I353" t="n">
+        <v>0</v>
+      </c>
+      <c r="J353" t="n">
+        <v>2</v>
+      </c>
+      <c r="K353" t="n">
+        <v>2</v>
+      </c>
+      <c r="L353" t="n">
+        <v>0</v>
+      </c>
+      <c r="M353" t="n">
+        <v>3</v>
+      </c>
+      <c r="N353" t="n">
+        <v>3</v>
+      </c>
+      <c r="O353" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P353" t="inlineStr">
+        <is>
+          <t>['10', '36', '59']</t>
+        </is>
+      </c>
+      <c r="Q353" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R353" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S353" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T353" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U353" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V353" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W353" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X353" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y353" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z353" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AA353" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB353" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC353" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD353" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE353" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF353" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG353" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH353" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI353" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ353" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK353" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL353" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM353" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN353" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO353" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AP353" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AQ353" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AR353" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS353" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT353" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU353" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV353" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW353" t="n">
+        <v>18</v>
+      </c>
+      <c r="AX353" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY353" t="n">
+        <v>28</v>
+      </c>
+      <c r="AZ353" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA353" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB353" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC353" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD353" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BE353" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF353" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BG353" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH353" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI353" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ353" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK353" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL353" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM353" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BN353" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BO353" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BP353" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B354" t="n">
+        <v>5406780</v>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E354" s="2" t="n">
+        <v>45259.8125</v>
+      </c>
+      <c r="F354" t="n">
+        <v>36</v>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>Atlético Mineiro</t>
+        </is>
+      </c>
+      <c r="I354" t="n">
+        <v>0</v>
+      </c>
+      <c r="J354" t="n">
+        <v>1</v>
+      </c>
+      <c r="K354" t="n">
+        <v>1</v>
+      </c>
+      <c r="L354" t="n">
+        <v>0</v>
+      </c>
+      <c r="M354" t="n">
+        <v>3</v>
+      </c>
+      <c r="N354" t="n">
+        <v>3</v>
+      </c>
+      <c r="O354" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P354" t="inlineStr">
+        <is>
+          <t>['8', '47', '82']</t>
+        </is>
+      </c>
+      <c r="Q354" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R354" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S354" t="n">
+        <v>5</v>
+      </c>
+      <c r="T354" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U354" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V354" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W354" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X354" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y354" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z354" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA354" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB354" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC354" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD354" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE354" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF354" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG354" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH354" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI354" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ354" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK354" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AL354" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM354" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN354" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO354" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AP354" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ354" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR354" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS354" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT354" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AU354" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV354" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW354" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX354" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY354" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ354" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA354" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB354" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC354" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD354" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE354" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF354" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG354" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH354" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI354" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ354" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK354" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL354" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BM354" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN354" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BO354" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BP354" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B355" t="n">
+        <v>5406789</v>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E355" s="2" t="n">
+        <v>45259.83333333334</v>
+      </c>
+      <c r="F355" t="n">
+        <v>36</v>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>Cuiabá</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I355" t="n">
+        <v>0</v>
+      </c>
+      <c r="J355" t="n">
+        <v>0</v>
+      </c>
+      <c r="K355" t="n">
+        <v>0</v>
+      </c>
+      <c r="L355" t="n">
+        <v>0</v>
+      </c>
+      <c r="M355" t="n">
+        <v>2</v>
+      </c>
+      <c r="N355" t="n">
+        <v>2</v>
+      </c>
+      <c r="O355" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P355" t="inlineStr">
+        <is>
+          <t>['52', '89']</t>
+        </is>
+      </c>
+      <c r="Q355" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R355" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S355" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T355" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U355" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V355" t="n">
+        <v>4</v>
+      </c>
+      <c r="W355" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X355" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y355" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z355" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AA355" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AB355" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AC355" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AD355" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE355" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF355" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AG355" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AH355" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI355" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ355" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK355" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AL355" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AM355" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN355" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO355" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP355" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ355" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR355" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS355" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT355" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AU355" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV355" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW355" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX355" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY355" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ355" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA355" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB355" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC355" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD355" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BE355" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF355" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BG355" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH355" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BI355" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ355" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BK355" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL355" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM355" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BN355" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO355" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BP355" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B356" t="n">
+        <v>5406788</v>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E356" s="2" t="n">
+        <v>45259.83333333334</v>
+      </c>
+      <c r="F356" t="n">
+        <v>36</v>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="I356" t="n">
+        <v>0</v>
+      </c>
+      <c r="J356" t="n">
+        <v>0</v>
+      </c>
+      <c r="K356" t="n">
+        <v>0</v>
+      </c>
+      <c r="L356" t="n">
+        <v>0</v>
+      </c>
+      <c r="M356" t="n">
+        <v>1</v>
+      </c>
+      <c r="N356" t="n">
+        <v>1</v>
+      </c>
+      <c r="O356" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P356" t="inlineStr">
+        <is>
+          <t>['90+7']</t>
+        </is>
+      </c>
+      <c r="Q356" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R356" t="n">
+        <v>2</v>
+      </c>
+      <c r="S356" t="n">
+        <v>4</v>
+      </c>
+      <c r="T356" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U356" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V356" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W356" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X356" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y356" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z356" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA356" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB356" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC356" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD356" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE356" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF356" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG356" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH356" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI356" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ356" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK356" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AL356" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM356" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN356" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO356" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AP356" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ356" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AR356" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AS356" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT356" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU356" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV356" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW356" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX356" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY356" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ356" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA356" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB356" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC356" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD356" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BE356" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF356" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BG356" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH356" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BI356" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ356" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BK356" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL356" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BM356" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BN356" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO356" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BP356" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B357" t="n">
+        <v>5406782</v>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E357" s="2" t="n">
+        <v>45259.89583333334</v>
+      </c>
+      <c r="F357" t="n">
+        <v>36</v>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>América Mineiro</t>
+        </is>
+      </c>
+      <c r="I357" t="n">
+        <v>2</v>
+      </c>
+      <c r="J357" t="n">
+        <v>0</v>
+      </c>
+      <c r="K357" t="n">
+        <v>2</v>
+      </c>
+      <c r="L357" t="n">
+        <v>4</v>
+      </c>
+      <c r="M357" t="n">
+        <v>0</v>
+      </c>
+      <c r="N357" t="n">
+        <v>4</v>
+      </c>
+      <c r="O357" t="inlineStr">
+        <is>
+          <t>['2', '40', '88', '90+2']</t>
+        </is>
+      </c>
+      <c r="P357" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q357" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R357" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S357" t="n">
+        <v>10</v>
+      </c>
+      <c r="T357" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U357" t="n">
+        <v>4</v>
+      </c>
+      <c r="V357" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W357" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X357" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y357" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Z357" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AA357" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AB357" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="AC357" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD357" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE357" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AF357" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AG357" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AH357" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI357" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ357" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK357" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AL357" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AM357" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AN357" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AO357" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AP357" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AQ357" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AR357" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AS357" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT357" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AU357" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV357" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW357" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX357" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY357" t="n">
+        <v>27</v>
+      </c>
+      <c r="AZ357" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA357" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB357" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC357" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD357" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BE357" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF357" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="BG357" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH357" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="BI357" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ357" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BK357" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BL357" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BM357" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BN357" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BO357" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BP357" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B358" t="n">
+        <v>5406787</v>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E358" s="2" t="n">
+        <v>45259.89583333334</v>
+      </c>
+      <c r="F358" t="n">
+        <v>36</v>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>Botafogo</t>
+        </is>
+      </c>
+      <c r="I358" t="n">
+        <v>0</v>
+      </c>
+      <c r="J358" t="n">
+        <v>0</v>
+      </c>
+      <c r="K358" t="n">
+        <v>0</v>
+      </c>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="n">
+        <v>1</v>
+      </c>
+      <c r="N358" t="n">
+        <v>2</v>
+      </c>
+      <c r="O358" t="inlineStr">
+        <is>
+          <t>['90+9']</t>
+        </is>
+      </c>
+      <c r="P358" t="inlineStr">
+        <is>
+          <t>['90+7']</t>
+        </is>
+      </c>
+      <c r="Q358" t="n">
+        <v>5</v>
+      </c>
+      <c r="R358" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S358" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T358" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U358" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V358" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W358" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X358" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y358" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z358" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AA358" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB358" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AC358" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD358" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE358" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF358" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG358" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH358" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AI358" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ358" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK358" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AL358" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM358" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AN358" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AO358" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AP358" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AQ358" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR358" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS358" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT358" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU358" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV358" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW358" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX358" t="n">
+        <v>18</v>
+      </c>
+      <c r="AY358" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ358" t="n">
+        <v>25</v>
+      </c>
+      <c r="BA358" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB358" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC358" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD358" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BE358" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF358" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BG358" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH358" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BI358" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ358" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BK358" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL358" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BM358" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN358" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BO358" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BP358" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B359" t="n">
+        <v>5406786</v>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E359" s="2" t="n">
+        <v>45260.79166666666</v>
+      </c>
+      <c r="F359" t="n">
+        <v>36</v>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>Grêmio</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>Goiás</t>
+        </is>
+      </c>
+      <c r="I359" t="n">
+        <v>0</v>
+      </c>
+      <c r="J359" t="n">
+        <v>1</v>
+      </c>
+      <c r="K359" t="n">
+        <v>1</v>
+      </c>
+      <c r="L359" t="n">
+        <v>2</v>
+      </c>
+      <c r="M359" t="n">
+        <v>1</v>
+      </c>
+      <c r="N359" t="n">
+        <v>3</v>
+      </c>
+      <c r="O359" t="inlineStr">
+        <is>
+          <t>['50', '56']</t>
+        </is>
+      </c>
+      <c r="P359" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="Q359" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R359" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S359" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T359" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U359" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="V359" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W359" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X359" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y359" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z359" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA359" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB359" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC359" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD359" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE359" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF359" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG359" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH359" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI359" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ359" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK359" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AL359" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM359" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AN359" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AO359" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP359" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AQ359" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR359" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS359" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT359" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AU359" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV359" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW359" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX359" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY359" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ359" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA359" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB359" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC359" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD359" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BE359" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF359" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BG359" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH359" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BI359" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ359" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BK359" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BL359" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BM359" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN359" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BO359" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BP359" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B360" t="n">
+        <v>5406785</v>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E360" s="2" t="n">
+        <v>45260.83333333334</v>
+      </c>
+      <c r="F360" t="n">
+        <v>36</v>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>Atlético PR</t>
+        </is>
+      </c>
+      <c r="I360" t="n">
+        <v>0</v>
+      </c>
+      <c r="J360" t="n">
+        <v>0</v>
+      </c>
+      <c r="K360" t="n">
+        <v>0</v>
+      </c>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="n">
+        <v>1</v>
+      </c>
+      <c r="N360" t="n">
+        <v>2</v>
+      </c>
+      <c r="O360" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="P360" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="Q360" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R360" t="n">
+        <v>2</v>
+      </c>
+      <c r="S360" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T360" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U360" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V360" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="W360" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X360" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y360" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z360" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA360" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB360" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AC360" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD360" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE360" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF360" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AG360" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AH360" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI360" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ360" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK360" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL360" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AM360" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN360" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO360" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP360" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AQ360" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR360" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS360" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT360" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AU360" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV360" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW360" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX360" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY360" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ360" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA360" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB360" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC360" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD360" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BE360" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF360" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BG360" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH360" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BI360" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BJ360" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK360" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BL360" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BM360" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BN360" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO360" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BP360" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B361" t="n">
+        <v>5406784</v>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E361" s="2" t="n">
+        <v>45260.85416666666</v>
+      </c>
+      <c r="F361" t="n">
+        <v>36</v>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>Bragantino</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="I361" t="n">
+        <v>1</v>
+      </c>
+      <c r="J361" t="n">
+        <v>2</v>
+      </c>
+      <c r="K361" t="n">
+        <v>3</v>
+      </c>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="n">
+        <v>2</v>
+      </c>
+      <c r="N361" t="n">
+        <v>3</v>
+      </c>
+      <c r="O361" t="inlineStr">
+        <is>
+          <t>['45+3']</t>
+        </is>
+      </c>
+      <c r="P361" t="inlineStr">
+        <is>
+          <t>['14', '23']</t>
+        </is>
+      </c>
+      <c r="Q361" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R361" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S361" t="n">
+        <v>5</v>
+      </c>
+      <c r="T361" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U361" t="n">
+        <v>3</v>
+      </c>
+      <c r="V361" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W361" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X361" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y361" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z361" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA361" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB361" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC361" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD361" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE361" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF361" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AG361" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH361" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AI361" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ361" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK361" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AL361" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM361" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN361" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AO361" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AP361" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AQ361" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR361" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AS361" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT361" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AU361" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV361" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW361" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX361" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY361" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ361" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA361" t="n">
+        <v>15</v>
+      </c>
+      <c r="BB361" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC361" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD361" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BE361" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF361" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BG361" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH361" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BI361" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ361" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BK361" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL361" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BM361" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BN361" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BO361" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BP361" t="n">
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP361"/>
+  <dimension ref="A1:BP371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -5279,7 +5279,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR22" t="n">
         <v>1.73</v>
@@ -5494,10 +5494,10 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR23" t="n">
         <v>1.91</v>
@@ -5930,10 +5930,10 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR25" t="n">
         <v>1.72</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.06</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AQ27" t="n">
         <v>1</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ28" t="n">
         <v>1.5</v>
@@ -6805,7 +6805,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR29" t="n">
         <v>1.28</v>
@@ -7241,7 +7241,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR31" t="n">
         <v>1.31</v>
@@ -7459,7 +7459,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR32" t="n">
         <v>1.94</v>
@@ -7677,7 +7677,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR33" t="n">
         <v>2.02</v>
@@ -7892,10 +7892,10 @@
         <v>0</v>
       </c>
       <c r="AP34" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR34" t="n">
         <v>2.02</v>
@@ -8113,7 +8113,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR35" t="n">
         <v>1.72</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ36" t="n">
         <v>1.72</v>
@@ -8549,7 +8549,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR37" t="n">
         <v>1.06</v>
@@ -8764,7 +8764,7 @@
         <v>1</v>
       </c>
       <c r="AP38" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.33</v>
@@ -8982,7 +8982,7 @@
         <v>1</v>
       </c>
       <c r="AP39" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.67</v>
@@ -9418,7 +9418,7 @@
         <v>3</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ41" t="n">
         <v>1</v>
@@ -9854,7 +9854,7 @@
         <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ43" t="n">
         <v>0.39</v>
@@ -10075,7 +10075,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR44" t="n">
         <v>1.33</v>
@@ -10508,10 +10508,10 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR46" t="n">
         <v>2.7</v>
@@ -10729,7 +10729,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR47" t="n">
         <v>1.63</v>
@@ -10944,7 +10944,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.17</v>
@@ -11165,7 +11165,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR49" t="n">
         <v>1.69</v>
@@ -11380,7 +11380,7 @@
         <v>0</v>
       </c>
       <c r="AP50" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.06</v>
@@ -11598,10 +11598,10 @@
         <v>0.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR51" t="n">
         <v>2.41</v>
@@ -12037,7 +12037,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR53" t="n">
         <v>2.57</v>
@@ -12252,7 +12252,7 @@
         <v>1</v>
       </c>
       <c r="AP54" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.33</v>
@@ -12470,10 +12470,10 @@
         <v>0.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR55" t="n">
         <v>2.15</v>
@@ -12691,7 +12691,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR56" t="n">
         <v>1.67</v>
@@ -12906,10 +12906,10 @@
         <v>0.67</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR57" t="n">
         <v>2.06</v>
@@ -13124,7 +13124,7 @@
         <v>2</v>
       </c>
       <c r="AP58" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ58" t="n">
         <v>1</v>
@@ -13560,10 +13560,10 @@
         <v>0</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR60" t="n">
         <v>1.36</v>
@@ -13778,10 +13778,10 @@
         <v>1.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR61" t="n">
         <v>1.92</v>
@@ -13999,7 +13999,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR62" t="n">
         <v>1.74</v>
@@ -14214,7 +14214,7 @@
         <v>1.67</v>
       </c>
       <c r="AP63" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AQ63" t="n">
         <v>1</v>
@@ -14650,7 +14650,7 @@
         <v>1</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ65" t="n">
         <v>1</v>
@@ -14871,7 +14871,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR66" t="n">
         <v>1.35</v>
@@ -15086,10 +15086,10 @@
         <v>2</v>
       </c>
       <c r="AP67" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR67" t="n">
         <v>1.76</v>
@@ -15522,7 +15522,7 @@
         <v>0</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.06</v>
@@ -15740,10 +15740,10 @@
         <v>0.33</v>
       </c>
       <c r="AP70" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR70" t="n">
         <v>1.55</v>
@@ -15961,7 +15961,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR71" t="n">
         <v>2.04</v>
@@ -16176,7 +16176,7 @@
         <v>1</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.17</v>
@@ -16394,10 +16394,10 @@
         <v>1.25</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR73" t="n">
         <v>2.18</v>
@@ -16612,10 +16612,10 @@
         <v>2</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR74" t="n">
         <v>2.29</v>
@@ -16833,7 +16833,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR75" t="n">
         <v>1.39</v>
@@ -17051,7 +17051,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ76" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR76" t="n">
         <v>1.5</v>
@@ -17269,7 +17269,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR77" t="n">
         <v>1.65</v>
@@ -17484,10 +17484,10 @@
         <v>1.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR78" t="n">
         <v>1.79</v>
@@ -17702,10 +17702,10 @@
         <v>1</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR79" t="n">
         <v>1.75</v>
@@ -17920,7 +17920,7 @@
         <v>1.67</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.39</v>
@@ -18138,7 +18138,7 @@
         <v>0.33</v>
       </c>
       <c r="AP81" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ81" t="n">
         <v>0.39</v>
@@ -18356,10 +18356,10 @@
         <v>0.75</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR82" t="n">
         <v>2.14</v>
@@ -18574,7 +18574,7 @@
         <v>0</v>
       </c>
       <c r="AP83" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AQ83" t="n">
         <v>1.06</v>
@@ -19010,7 +19010,7 @@
         <v>2</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ85" t="n">
         <v>1.5</v>
@@ -19231,7 +19231,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR86" t="n">
         <v>1.5</v>
@@ -19446,10 +19446,10 @@
         <v>0.75</v>
       </c>
       <c r="AP87" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ87" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR87" t="n">
         <v>1.62</v>
@@ -19885,7 +19885,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR89" t="n">
         <v>1.64</v>
@@ -20100,10 +20100,10 @@
         <v>0.25</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ90" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR90" t="n">
         <v>2.25</v>
@@ -20539,7 +20539,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR92" t="n">
         <v>1.65</v>
@@ -20754,10 +20754,10 @@
         <v>1.8</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR93" t="n">
         <v>1.72</v>
@@ -20975,7 +20975,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR94" t="n">
         <v>1.87</v>
@@ -21190,7 +21190,7 @@
         <v>0.75</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.33</v>
@@ -21408,7 +21408,7 @@
         <v>1.25</v>
       </c>
       <c r="AP96" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ96" t="n">
         <v>1</v>
@@ -21626,7 +21626,7 @@
         <v>0.75</v>
       </c>
       <c r="AP97" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AQ97" t="n">
         <v>1</v>
@@ -21847,7 +21847,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ98" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR98" t="n">
         <v>1.44</v>
@@ -22280,7 +22280,7 @@
         <v>1.5</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.17</v>
@@ -22501,7 +22501,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ101" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR101" t="n">
         <v>1.59</v>
@@ -23806,7 +23806,7 @@
         <v>0.25</v>
       </c>
       <c r="AP107" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ107" t="n">
         <v>0.39</v>
@@ -24027,7 +24027,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR108" t="n">
         <v>1.97</v>
@@ -24245,7 +24245,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR109" t="n">
         <v>1.74</v>
@@ -24678,7 +24678,7 @@
         <v>1.5</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ111" t="n">
         <v>1.72</v>
@@ -24896,7 +24896,7 @@
         <v>0.5</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ112" t="n">
         <v>1.06</v>
@@ -25114,7 +25114,7 @@
         <v>1.83</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ113" t="n">
         <v>1.67</v>
@@ -25335,7 +25335,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ114" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR114" t="n">
         <v>1.76</v>
@@ -25553,7 +25553,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ115" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR115" t="n">
         <v>1.88</v>
@@ -25768,10 +25768,10 @@
         <v>0.2</v>
       </c>
       <c r="AP116" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR116" t="n">
         <v>1.97</v>
@@ -25986,7 +25986,7 @@
         <v>1.8</v>
       </c>
       <c r="AP117" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ117" t="n">
         <v>1.5</v>
@@ -26422,10 +26422,10 @@
         <v>0.67</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ119" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR119" t="n">
         <v>2.07</v>
@@ -26640,10 +26640,10 @@
         <v>0.83</v>
       </c>
       <c r="AP120" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR120" t="n">
         <v>1.82</v>
@@ -26861,7 +26861,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR121" t="n">
         <v>2.06</v>
@@ -27079,7 +27079,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ122" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR122" t="n">
         <v>1.74</v>
@@ -27512,7 +27512,7 @@
         <v>1.33</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ124" t="n">
         <v>1</v>
@@ -27733,7 +27733,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR125" t="n">
         <v>1.39</v>
@@ -27948,7 +27948,7 @@
         <v>0.8</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ126" t="n">
         <v>1.33</v>
@@ -28166,7 +28166,7 @@
         <v>0.2</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AQ127" t="n">
         <v>0.39</v>
@@ -28384,7 +28384,7 @@
         <v>1.5</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ128" t="n">
         <v>1.39</v>
@@ -28602,10 +28602,10 @@
         <v>0.83</v>
       </c>
       <c r="AP129" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ129" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR129" t="n">
         <v>1.95</v>
@@ -28823,7 +28823,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR130" t="n">
         <v>1.62</v>
@@ -29041,7 +29041,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ131" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR131" t="n">
         <v>1.72</v>
@@ -29259,7 +29259,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR132" t="n">
         <v>1.61</v>
@@ -29477,7 +29477,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR133" t="n">
         <v>1.91</v>
@@ -29692,7 +29692,7 @@
         <v>0.43</v>
       </c>
       <c r="AP134" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AQ134" t="n">
         <v>1.06</v>
@@ -30128,7 +30128,7 @@
         <v>1.5</v>
       </c>
       <c r="AP136" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.72</v>
@@ -30349,7 +30349,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ137" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR137" t="n">
         <v>1.55</v>
@@ -30567,7 +30567,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR138" t="n">
         <v>1.83</v>
@@ -30782,10 +30782,10 @@
         <v>0.5</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ139" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR139" t="n">
         <v>2.04</v>
@@ -31000,7 +31000,7 @@
         <v>0.67</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ140" t="n">
         <v>1</v>
@@ -31218,7 +31218,7 @@
         <v>2</v>
       </c>
       <c r="AP141" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ141" t="n">
         <v>1.5</v>
@@ -31436,7 +31436,7 @@
         <v>1.17</v>
       </c>
       <c r="AP142" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ142" t="n">
         <v>1.33</v>
@@ -31657,7 +31657,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ143" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR143" t="n">
         <v>1.72</v>
@@ -31872,10 +31872,10 @@
         <v>1.43</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ144" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR144" t="n">
         <v>1.83</v>
@@ -32311,7 +32311,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR146" t="n">
         <v>1.84</v>
@@ -32744,10 +32744,10 @@
         <v>0.71</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ148" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR148" t="n">
         <v>2.05</v>
@@ -33180,7 +33180,7 @@
         <v>0.29</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ150" t="n">
         <v>0.39</v>
@@ -33398,7 +33398,7 @@
         <v>1.14</v>
       </c>
       <c r="AP151" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ151" t="n">
         <v>1</v>
@@ -33837,7 +33837,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ153" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR153" t="n">
         <v>1.59</v>
@@ -34052,7 +34052,7 @@
         <v>1.5</v>
       </c>
       <c r="AP154" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ154" t="n">
         <v>1.67</v>
@@ -34488,10 +34488,10 @@
         <v>1</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR156" t="n">
         <v>2.1</v>
@@ -34709,7 +34709,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ157" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR157" t="n">
         <v>1.66</v>
@@ -35145,7 +35145,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ159" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR159" t="n">
         <v>1.68</v>
@@ -35360,10 +35360,10 @@
         <v>1.71</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR160" t="n">
         <v>2.01</v>
@@ -35581,7 +35581,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR161" t="n">
         <v>1.42</v>
@@ -35799,7 +35799,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ162" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR162" t="n">
         <v>1.88</v>
@@ -36014,10 +36014,10 @@
         <v>0.71</v>
       </c>
       <c r="AP163" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ163" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR163" t="n">
         <v>1.71</v>
@@ -36232,7 +36232,7 @@
         <v>1</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ164" t="n">
         <v>1.33</v>
@@ -36450,7 +36450,7 @@
         <v>1.38</v>
       </c>
       <c r="AP165" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AQ165" t="n">
         <v>1.72</v>
@@ -36671,7 +36671,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ166" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR166" t="n">
         <v>1.9</v>
@@ -36886,10 +36886,10 @@
         <v>0.63</v>
       </c>
       <c r="AP167" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ167" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR167" t="n">
         <v>1.88</v>
@@ -37104,7 +37104,7 @@
         <v>1.38</v>
       </c>
       <c r="AP168" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AQ168" t="n">
         <v>1.39</v>
@@ -39720,10 +39720,10 @@
         <v>1</v>
       </c>
       <c r="AP180" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ180" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR180" t="n">
         <v>1.88</v>
@@ -39938,10 +39938,10 @@
         <v>0.67</v>
       </c>
       <c r="AP181" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AQ181" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR181" t="n">
         <v>1.72</v>
@@ -40156,10 +40156,10 @@
         <v>0.88</v>
       </c>
       <c r="AP182" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ182" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR182" t="n">
         <v>1.83</v>
@@ -40374,10 +40374,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ183" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR183" t="n">
         <v>1.7</v>
@@ -40592,10 +40592,10 @@
         <v>0.78</v>
       </c>
       <c r="AP184" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AQ184" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR184" t="n">
         <v>1.81</v>
@@ -40810,10 +40810,10 @@
         <v>0.5</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ185" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR185" t="n">
         <v>1.85</v>
@@ -41028,10 +41028,10 @@
         <v>0.5</v>
       </c>
       <c r="AP186" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ186" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR186" t="n">
         <v>1.82</v>
@@ -41246,10 +41246,10 @@
         <v>1.63</v>
       </c>
       <c r="AP187" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ187" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR187" t="n">
         <v>1.94</v>
@@ -41464,10 +41464,10 @@
         <v>0.63</v>
       </c>
       <c r="AP188" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ188" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR188" t="n">
         <v>2.11</v>
@@ -41682,10 +41682,10 @@
         <v>1.78</v>
       </c>
       <c r="AP189" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ189" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR189" t="n">
         <v>1.98</v>
@@ -44080,10 +44080,10 @@
         <v>0.9</v>
       </c>
       <c r="AP200" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ200" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR200" t="n">
         <v>1.92</v>
@@ -44298,10 +44298,10 @@
         <v>1</v>
       </c>
       <c r="AP201" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ201" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR201" t="n">
         <v>1.75</v>
@@ -44516,10 +44516,10 @@
         <v>1.6</v>
       </c>
       <c r="AP202" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ202" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR202" t="n">
         <v>2.17</v>
@@ -44734,10 +44734,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP203" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AQ203" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR203" t="n">
         <v>1.79</v>
@@ -44952,10 +44952,10 @@
         <v>0.6</v>
       </c>
       <c r="AP204" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ204" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR204" t="n">
         <v>1.91</v>
@@ -45170,10 +45170,10 @@
         <v>0.44</v>
       </c>
       <c r="AP205" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AQ205" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR205" t="n">
         <v>1.68</v>
@@ -45388,10 +45388,10 @@
         <v>0.5</v>
       </c>
       <c r="AP206" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ206" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR206" t="n">
         <v>1.92</v>
@@ -45606,10 +45606,10 @@
         <v>0.67</v>
       </c>
       <c r="AP207" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ207" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR207" t="n">
         <v>1.89</v>
@@ -45824,10 +45824,10 @@
         <v>0.78</v>
       </c>
       <c r="AP208" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ208" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR208" t="n">
         <v>1.94</v>
@@ -46042,10 +46042,10 @@
         <v>1.44</v>
       </c>
       <c r="AP209" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ209" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR209" t="n">
         <v>1.8</v>
@@ -46263,7 +46263,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ210" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR210" t="n">
         <v>1.66</v>
@@ -46478,7 +46478,7 @@
         <v>1.36</v>
       </c>
       <c r="AP211" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ211" t="n">
         <v>1.67</v>
@@ -46696,7 +46696,7 @@
         <v>1.55</v>
       </c>
       <c r="AP212" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ212" t="n">
         <v>1.72</v>
@@ -46914,10 +46914,10 @@
         <v>1.45</v>
       </c>
       <c r="AP213" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ213" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR213" t="n">
         <v>1.76</v>
@@ -47350,7 +47350,7 @@
         <v>1.55</v>
       </c>
       <c r="AP215" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ215" t="n">
         <v>1.39</v>
@@ -47571,7 +47571,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ216" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR216" t="n">
         <v>1.75</v>
@@ -48004,10 +48004,10 @@
         <v>0.4</v>
       </c>
       <c r="AP218" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AQ218" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR218" t="n">
         <v>1.73</v>
@@ -48225,7 +48225,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ219" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR219" t="n">
         <v>1.54</v>
@@ -48440,7 +48440,7 @@
         <v>0.9</v>
       </c>
       <c r="AP220" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ220" t="n">
         <v>1</v>
@@ -48658,7 +48658,7 @@
         <v>0.82</v>
       </c>
       <c r="AP221" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ221" t="n">
         <v>1.06</v>
@@ -48879,7 +48879,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ222" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR222" t="n">
         <v>1.54</v>
@@ -49097,7 +49097,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ223" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR223" t="n">
         <v>1.6</v>
@@ -49312,7 +49312,7 @@
         <v>1.11</v>
       </c>
       <c r="AP224" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ224" t="n">
         <v>1.17</v>
@@ -49748,10 +49748,10 @@
         <v>1</v>
       </c>
       <c r="AP226" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ226" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR226" t="n">
         <v>1.87</v>
@@ -49969,7 +49969,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ227" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR227" t="n">
         <v>1.72</v>
@@ -50184,7 +50184,7 @@
         <v>1.8</v>
       </c>
       <c r="AP228" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AQ228" t="n">
         <v>1.5</v>
@@ -50405,7 +50405,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ229" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR229" t="n">
         <v>1.72</v>
@@ -50620,7 +50620,7 @@
         <v>1</v>
       </c>
       <c r="AP230" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ230" t="n">
         <v>1.17</v>
@@ -50838,7 +50838,7 @@
         <v>1.27</v>
       </c>
       <c r="AP231" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AQ231" t="n">
         <v>1.33</v>
@@ -51495,7 +51495,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ234" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR234" t="n">
         <v>1.81</v>
@@ -51713,7 +51713,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ235" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR235" t="n">
         <v>1.66</v>
@@ -51928,10 +51928,10 @@
         <v>0.92</v>
       </c>
       <c r="AP236" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ236" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR236" t="n">
         <v>1.94</v>
@@ -52146,7 +52146,7 @@
         <v>1.5</v>
       </c>
       <c r="AP237" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ237" t="n">
         <v>1.39</v>
@@ -52364,7 +52364,7 @@
         <v>1.64</v>
       </c>
       <c r="AP238" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ238" t="n">
         <v>1.5</v>
@@ -52582,10 +52582,10 @@
         <v>1.33</v>
       </c>
       <c r="AP239" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AQ239" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR239" t="n">
         <v>1.69</v>
@@ -52800,10 +52800,10 @@
         <v>0.64</v>
       </c>
       <c r="AP240" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AQ240" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR240" t="n">
         <v>1.66</v>
@@ -53021,7 +53021,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ241" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR241" t="n">
         <v>1.92</v>
@@ -53236,10 +53236,10 @@
         <v>0.75</v>
       </c>
       <c r="AP242" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ242" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR242" t="n">
         <v>1.8</v>
@@ -53454,7 +53454,7 @@
         <v>1</v>
       </c>
       <c r="AP243" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ243" t="n">
         <v>1.17</v>
@@ -53675,7 +53675,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ244" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR244" t="n">
         <v>1.69</v>
@@ -54547,7 +54547,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ248" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR248" t="n">
         <v>1.52</v>
@@ -54980,7 +54980,7 @@
         <v>1.38</v>
       </c>
       <c r="AP250" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ250" t="n">
         <v>1.39</v>
@@ -55198,10 +55198,10 @@
         <v>0.92</v>
       </c>
       <c r="AP251" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ251" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR251" t="n">
         <v>1.88</v>
@@ -55419,7 +55419,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ252" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR252" t="n">
         <v>1.57</v>
@@ -55637,7 +55637,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ253" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR253" t="n">
         <v>1.74</v>
@@ -55852,7 +55852,7 @@
         <v>1.62</v>
       </c>
       <c r="AP254" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ254" t="n">
         <v>1.72</v>
@@ -56288,10 +56288,10 @@
         <v>0.58</v>
       </c>
       <c r="AP256" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ256" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR256" t="n">
         <v>1.89</v>
@@ -56724,7 +56724,7 @@
         <v>1.42</v>
       </c>
       <c r="AP258" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ258" t="n">
         <v>1.33</v>
@@ -56942,7 +56942,7 @@
         <v>0.42</v>
       </c>
       <c r="AP259" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ259" t="n">
         <v>0.39</v>
@@ -57160,10 +57160,10 @@
         <v>0.38</v>
       </c>
       <c r="AP260" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AQ260" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR260" t="n">
         <v>1.65</v>
@@ -57381,7 +57381,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ261" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR261" t="n">
         <v>1.72</v>
@@ -57596,7 +57596,7 @@
         <v>1</v>
       </c>
       <c r="AP262" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ262" t="n">
         <v>1</v>
@@ -57817,7 +57817,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ263" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR263" t="n">
         <v>1.56</v>
@@ -58032,7 +58032,7 @@
         <v>1.62</v>
       </c>
       <c r="AP264" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AQ264" t="n">
         <v>1.5</v>
@@ -58471,7 +58471,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ266" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR266" t="n">
         <v>1.63</v>
@@ -58689,7 +58689,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ267" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR267" t="n">
         <v>1.75</v>
@@ -58904,7 +58904,7 @@
         <v>1.46</v>
       </c>
       <c r="AP268" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ268" t="n">
         <v>1.67</v>
@@ -59997,7 +59997,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ273" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR273" t="n">
         <v>1.69</v>
@@ -60430,7 +60430,7 @@
         <v>1.15</v>
       </c>
       <c r="AP275" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ275" t="n">
         <v>1</v>
@@ -60648,10 +60648,10 @@
         <v>1.31</v>
       </c>
       <c r="AP276" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AQ276" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR276" t="n">
         <v>1.65</v>
@@ -60869,7 +60869,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ277" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR277" t="n">
         <v>1.58</v>
@@ -61084,10 +61084,10 @@
         <v>0.77</v>
       </c>
       <c r="AP278" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ278" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR278" t="n">
         <v>1.82</v>
@@ -61302,10 +61302,10 @@
         <v>0.67</v>
       </c>
       <c r="AP279" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ279" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR279" t="n">
         <v>2.12</v>
@@ -61738,7 +61738,7 @@
         <v>0.38</v>
       </c>
       <c r="AP281" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ281" t="n">
         <v>0.39</v>
@@ -61956,7 +61956,7 @@
         <v>0.43</v>
       </c>
       <c r="AP282" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ282" t="n">
         <v>0.39</v>
@@ -62177,7 +62177,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ283" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR283" t="n">
         <v>1.88</v>
@@ -62392,7 +62392,7 @@
         <v>1.57</v>
       </c>
       <c r="AP284" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ284" t="n">
         <v>1.67</v>
@@ -62613,7 +62613,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ285" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR285" t="n">
         <v>1.67</v>
@@ -62828,10 +62828,10 @@
         <v>0.46</v>
       </c>
       <c r="AP286" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ286" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR286" t="n">
         <v>1.91</v>
@@ -63264,7 +63264,7 @@
         <v>1.67</v>
       </c>
       <c r="AP288" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ288" t="n">
         <v>1.72</v>
@@ -63485,7 +63485,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ289" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR289" t="n">
         <v>1.71</v>
@@ -63703,7 +63703,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ290" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR290" t="n">
         <v>1.6</v>
@@ -63918,10 +63918,10 @@
         <v>0.8</v>
       </c>
       <c r="AP291" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ291" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR291" t="n">
         <v>1.89</v>
@@ -64136,7 +64136,7 @@
         <v>0.86</v>
       </c>
       <c r="AP292" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AQ292" t="n">
         <v>1.17</v>
@@ -64354,10 +64354,10 @@
         <v>0.62</v>
       </c>
       <c r="AP293" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AQ293" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR293" t="n">
         <v>1.6</v>
@@ -64575,7 +64575,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ294" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR294" t="n">
         <v>1.6</v>
@@ -64790,10 +64790,10 @@
         <v>0.43</v>
       </c>
       <c r="AP295" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ295" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR295" t="n">
         <v>1.97</v>
@@ -65008,10 +65008,10 @@
         <v>0.71</v>
       </c>
       <c r="AP296" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ296" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR296" t="n">
         <v>1.72</v>
@@ -65229,7 +65229,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ297" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR297" t="n">
         <v>1.57</v>
@@ -65444,10 +65444,10 @@
         <v>1.36</v>
       </c>
       <c r="AP298" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ298" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR298" t="n">
         <v>1.84</v>
@@ -65665,7 +65665,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ299" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR299" t="n">
         <v>1.72</v>
@@ -65880,7 +65880,7 @@
         <v>1.14</v>
       </c>
       <c r="AP300" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ300" t="n">
         <v>1</v>
@@ -66316,10 +66316,10 @@
         <v>0.73</v>
       </c>
       <c r="AP302" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ302" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR302" t="n">
         <v>1.78</v>
@@ -66752,7 +66752,7 @@
         <v>1.4</v>
       </c>
       <c r="AP304" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ304" t="n">
         <v>1.39</v>
@@ -66970,7 +66970,7 @@
         <v>1</v>
       </c>
       <c r="AP305" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AQ305" t="n">
         <v>1</v>
@@ -67191,7 +67191,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ306" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR306" t="n">
         <v>1.72</v>
@@ -67627,7 +67627,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ308" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR308" t="n">
         <v>1.99</v>
@@ -67842,7 +67842,7 @@
         <v>1.67</v>
       </c>
       <c r="AP309" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AQ309" t="n">
         <v>1.67</v>
@@ -68060,10 +68060,10 @@
         <v>0.75</v>
       </c>
       <c r="AP310" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ310" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR310" t="n">
         <v>1.64</v>
@@ -68278,7 +68278,7 @@
         <v>1.07</v>
       </c>
       <c r="AP311" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ311" t="n">
         <v>1</v>
@@ -68496,7 +68496,7 @@
         <v>0.87</v>
       </c>
       <c r="AP312" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ312" t="n">
         <v>1.06</v>
@@ -68717,7 +68717,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ313" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR313" t="n">
         <v>1.68</v>
@@ -68932,7 +68932,7 @@
         <v>1.56</v>
       </c>
       <c r="AP314" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ314" t="n">
         <v>1.72</v>
@@ -69153,7 +69153,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ315" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR315" t="n">
         <v>1.55</v>
@@ -69589,7 +69589,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ317" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR317" t="n">
         <v>1.67</v>
@@ -69807,7 +69807,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ318" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR318" t="n">
         <v>1.63</v>
@@ -70022,10 +70022,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP319" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AQ319" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR319" t="n">
         <v>1.73</v>
@@ -70240,7 +70240,7 @@
         <v>0.93</v>
       </c>
       <c r="AP320" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ320" t="n">
         <v>1</v>
@@ -70676,7 +70676,7 @@
         <v>1.5</v>
       </c>
       <c r="AP322" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ322" t="n">
         <v>1.39</v>
@@ -70894,7 +70894,7 @@
         <v>1.63</v>
       </c>
       <c r="AP323" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ323" t="n">
         <v>1.67</v>
@@ -71115,7 +71115,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ324" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR324" t="n">
         <v>1.66</v>
@@ -71333,7 +71333,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ325" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR325" t="n">
         <v>1.68</v>
@@ -71548,7 +71548,7 @@
         <v>1.13</v>
       </c>
       <c r="AP326" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ326" t="n">
         <v>1.17</v>
@@ -71769,7 +71769,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ327" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR327" t="n">
         <v>1.52</v>
@@ -71984,10 +71984,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP328" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ328" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR328" t="n">
         <v>1.72</v>
@@ -72202,10 +72202,10 @@
         <v>1.06</v>
       </c>
       <c r="AP329" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ329" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR329" t="n">
         <v>1.94</v>
@@ -72420,7 +72420,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AP330" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ330" t="n">
         <v>1.06</v>
@@ -72638,7 +72638,7 @@
         <v>1.6</v>
       </c>
       <c r="AP331" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ331" t="n">
         <v>1.5</v>
@@ -73510,10 +73510,10 @@
         <v>1</v>
       </c>
       <c r="AP335" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AQ335" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR335" t="n">
         <v>1.58</v>
@@ -73731,7 +73731,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ336" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR336" t="n">
         <v>1.63</v>
@@ -73946,10 +73946,10 @@
         <v>1.25</v>
       </c>
       <c r="AP337" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ337" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR337" t="n">
         <v>1.91</v>
@@ -74167,7 +74167,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ338" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR338" t="n">
         <v>1.69</v>
@@ -74385,7 +74385,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ339" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR339" t="n">
         <v>1.9</v>
@@ -74600,7 +74600,7 @@
         <v>1.56</v>
       </c>
       <c r="AP340" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ340" t="n">
         <v>1.5</v>
@@ -74818,7 +74818,7 @@
         <v>1.5</v>
       </c>
       <c r="AP341" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ341" t="n">
         <v>1.33</v>
@@ -75036,10 +75036,10 @@
         <v>0.71</v>
       </c>
       <c r="AP342" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ342" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR342" t="n">
         <v>1.74</v>
@@ -75254,10 +75254,10 @@
         <v>0.88</v>
       </c>
       <c r="AP343" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ343" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR343" t="n">
         <v>1.96</v>
@@ -75475,7 +75475,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ344" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR344" t="n">
         <v>1.95</v>
@@ -75690,10 +75690,10 @@
         <v>1</v>
       </c>
       <c r="AP345" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ345" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR345" t="n">
         <v>1.91</v>
@@ -75908,7 +75908,7 @@
         <v>1.24</v>
       </c>
       <c r="AP346" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AQ346" t="n">
         <v>1.17</v>
@@ -76129,7 +76129,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ347" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR347" t="n">
         <v>1.95</v>
@@ -76562,7 +76562,7 @@
         <v>1.41</v>
       </c>
       <c r="AP349" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ349" t="n">
         <v>1.39</v>
@@ -76780,7 +76780,7 @@
         <v>1.65</v>
       </c>
       <c r="AP350" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AQ350" t="n">
         <v>1.72</v>
@@ -77001,7 +77001,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ351" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR351" t="n">
         <v>1.65</v>
@@ -77437,7 +77437,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ353" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR353" t="n">
         <v>1.6</v>
@@ -77652,7 +77652,7 @@
         <v>1.59</v>
       </c>
       <c r="AP354" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ354" t="n">
         <v>1.67</v>
@@ -77873,7 +77873,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ355" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR355" t="n">
         <v>1.67</v>
@@ -78091,7 +78091,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ356" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR356" t="n">
         <v>1.73</v>
@@ -78306,7 +78306,7 @@
         <v>0.41</v>
       </c>
       <c r="AP357" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ357" t="n">
         <v>0.39</v>
@@ -78742,10 +78742,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP359" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AQ359" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR359" t="n">
         <v>1.69</v>
@@ -79178,7 +79178,7 @@
         <v>0.88</v>
       </c>
       <c r="AP361" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ361" t="n">
         <v>1</v>
@@ -79257,6 +79257,2186 @@
       </c>
       <c r="BP361" t="n">
         <v>1.55</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B362" t="n">
+        <v>5406793</v>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E362" s="2" t="n">
+        <v>45262.75</v>
+      </c>
+      <c r="F362" t="n">
+        <v>37</v>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I362" t="n">
+        <v>0</v>
+      </c>
+      <c r="J362" t="n">
+        <v>1</v>
+      </c>
+      <c r="K362" t="n">
+        <v>1</v>
+      </c>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="n">
+        <v>2</v>
+      </c>
+      <c r="N362" t="n">
+        <v>3</v>
+      </c>
+      <c r="O362" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="P362" t="inlineStr">
+        <is>
+          <t>['35', '66']</t>
+        </is>
+      </c>
+      <c r="Q362" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R362" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S362" t="n">
+        <v>4</v>
+      </c>
+      <c r="T362" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U362" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V362" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W362" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X362" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y362" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z362" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA362" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB362" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC362" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD362" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE362" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF362" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AG362" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AH362" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI362" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ362" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK362" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL362" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AM362" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN362" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AO362" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP362" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ362" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AR362" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AS362" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT362" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AU362" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV362" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW362" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX362" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY362" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ362" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA362" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB362" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC362" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD362" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BE362" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF362" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BG362" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH362" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BI362" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ362" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BK362" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL362" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BM362" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BN362" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BO362" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BP362" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B363" t="n">
+        <v>5406795</v>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E363" s="2" t="n">
+        <v>45262.875</v>
+      </c>
+      <c r="F363" t="n">
+        <v>37</v>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>Atlético Mineiro</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="I363" t="n">
+        <v>0</v>
+      </c>
+      <c r="J363" t="n">
+        <v>0</v>
+      </c>
+      <c r="K363" t="n">
+        <v>0</v>
+      </c>
+      <c r="L363" t="n">
+        <v>2</v>
+      </c>
+      <c r="M363" t="n">
+        <v>1</v>
+      </c>
+      <c r="N363" t="n">
+        <v>3</v>
+      </c>
+      <c r="O363" t="inlineStr">
+        <is>
+          <t>['77', '90+4']</t>
+        </is>
+      </c>
+      <c r="P363" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="Q363" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R363" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S363" t="n">
+        <v>6</v>
+      </c>
+      <c r="T363" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U363" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V363" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="W363" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X363" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y363" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z363" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA363" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB363" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AC363" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD363" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE363" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF363" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AG363" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AH363" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI363" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ363" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK363" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AL363" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM363" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN363" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO363" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AP363" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AQ363" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AR363" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS363" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT363" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AU363" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV363" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW363" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX363" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY363" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ363" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA363" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB363" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC363" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD363" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BE363" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF363" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BG363" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH363" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI363" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ363" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BK363" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL363" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM363" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BN363" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO363" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP363" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B364" t="n">
+        <v>5406790</v>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E364" s="2" t="n">
+        <v>45263.66666666666</v>
+      </c>
+      <c r="F364" t="n">
+        <v>37</v>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>Cuiabá</t>
+        </is>
+      </c>
+      <c r="I364" t="n">
+        <v>2</v>
+      </c>
+      <c r="J364" t="n">
+        <v>0</v>
+      </c>
+      <c r="K364" t="n">
+        <v>2</v>
+      </c>
+      <c r="L364" t="n">
+        <v>2</v>
+      </c>
+      <c r="M364" t="n">
+        <v>1</v>
+      </c>
+      <c r="N364" t="n">
+        <v>3</v>
+      </c>
+      <c r="O364" t="inlineStr">
+        <is>
+          <t>['6', '45+4']</t>
+        </is>
+      </c>
+      <c r="P364" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="Q364" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R364" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S364" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="T364" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U364" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V364" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W364" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X364" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y364" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z364" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA364" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB364" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC364" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD364" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE364" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF364" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AG364" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH364" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI364" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ364" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK364" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AL364" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM364" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AN364" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AO364" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP364" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AQ364" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AR364" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS364" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT364" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AU364" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV364" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW364" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX364" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY364" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ364" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA364" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB364" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC364" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD364" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BE364" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF364" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="BG364" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH364" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI364" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ364" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK364" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL364" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BM364" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BN364" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BO364" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BP364" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B365" t="n">
+        <v>5406792</v>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E365" s="2" t="n">
+        <v>45263.66666666666</v>
+      </c>
+      <c r="F365" t="n">
+        <v>37</v>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="I365" t="n">
+        <v>1</v>
+      </c>
+      <c r="J365" t="n">
+        <v>0</v>
+      </c>
+      <c r="K365" t="n">
+        <v>1</v>
+      </c>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="n">
+        <v>0</v>
+      </c>
+      <c r="N365" t="n">
+        <v>1</v>
+      </c>
+      <c r="O365" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="P365" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q365" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R365" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S365" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="T365" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U365" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V365" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W365" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X365" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y365" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z365" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA365" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB365" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC365" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD365" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE365" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AF365" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AG365" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH365" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI365" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ365" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK365" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AL365" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM365" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN365" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AO365" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AP365" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AQ365" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AR365" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AS365" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT365" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AU365" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV365" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW365" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX365" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY365" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ365" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA365" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB365" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC365" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD365" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BE365" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BF365" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="BG365" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH365" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI365" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ365" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK365" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BL365" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BM365" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BN365" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO365" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP365" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B366" t="n">
+        <v>5406791</v>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E366" s="2" t="n">
+        <v>45263.77083333334</v>
+      </c>
+      <c r="F366" t="n">
+        <v>37</v>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>Botafogo</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="I366" t="n">
+        <v>0</v>
+      </c>
+      <c r="J366" t="n">
+        <v>0</v>
+      </c>
+      <c r="K366" t="n">
+        <v>0</v>
+      </c>
+      <c r="L366" t="n">
+        <v>0</v>
+      </c>
+      <c r="M366" t="n">
+        <v>0</v>
+      </c>
+      <c r="N366" t="n">
+        <v>0</v>
+      </c>
+      <c r="O366" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P366" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q366" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R366" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S366" t="n">
+        <v>4</v>
+      </c>
+      <c r="T366" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U366" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V366" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W366" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X366" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y366" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z366" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA366" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB366" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC366" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD366" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AE366" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF366" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AG366" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH366" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI366" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ366" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK366" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL366" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM366" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AN366" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO366" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AP366" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ366" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AR366" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AS366" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AT366" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AU366" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV366" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW366" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX366" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY366" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ366" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA366" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB366" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC366" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD366" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE366" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF366" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BG366" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH366" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI366" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ366" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BK366" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL366" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BM366" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN366" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BO366" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BP366" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B367" t="n">
+        <v>5406794</v>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E367" s="2" t="n">
+        <v>45263.77083333334</v>
+      </c>
+      <c r="F367" t="n">
+        <v>37</v>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>Bragantino</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="I367" t="n">
+        <v>0</v>
+      </c>
+      <c r="J367" t="n">
+        <v>0</v>
+      </c>
+      <c r="K367" t="n">
+        <v>0</v>
+      </c>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="n">
+        <v>0</v>
+      </c>
+      <c r="N367" t="n">
+        <v>1</v>
+      </c>
+      <c r="O367" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="P367" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q367" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R367" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S367" t="n">
+        <v>9</v>
+      </c>
+      <c r="T367" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U367" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V367" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W367" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X367" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y367" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z367" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA367" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB367" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC367" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD367" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE367" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF367" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AG367" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH367" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AI367" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ367" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK367" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AL367" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AM367" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AN367" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AO367" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AP367" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ367" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AR367" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AS367" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT367" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AU367" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV367" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW367" t="n">
+        <v>18</v>
+      </c>
+      <c r="AX367" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY367" t="n">
+        <v>28</v>
+      </c>
+      <c r="AZ367" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA367" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB367" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC367" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD367" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BE367" t="n">
+        <v>21</v>
+      </c>
+      <c r="BF367" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="BG367" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BH367" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="BI367" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BJ367" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="BK367" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BL367" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BM367" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BN367" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BO367" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BP367" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B368" t="n">
+        <v>5406796</v>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E368" s="2" t="n">
+        <v>45263.77083333334</v>
+      </c>
+      <c r="F368" t="n">
+        <v>37</v>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>Grêmio</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>Vasco da Gama</t>
+        </is>
+      </c>
+      <c r="I368" t="n">
+        <v>0</v>
+      </c>
+      <c r="J368" t="n">
+        <v>0</v>
+      </c>
+      <c r="K368" t="n">
+        <v>0</v>
+      </c>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="n">
+        <v>0</v>
+      </c>
+      <c r="N368" t="n">
+        <v>1</v>
+      </c>
+      <c r="O368" t="inlineStr">
+        <is>
+          <t>['46']</t>
+        </is>
+      </c>
+      <c r="P368" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q368" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R368" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S368" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T368" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U368" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V368" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W368" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X368" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y368" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z368" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AA368" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB368" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC368" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD368" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE368" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF368" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AG368" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH368" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI368" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ368" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK368" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AL368" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM368" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AN368" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AO368" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AP368" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AQ368" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AR368" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AS368" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT368" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AU368" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV368" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW368" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX368" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY368" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ368" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA368" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB368" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC368" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD368" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE368" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="BF368" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BG368" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH368" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BI368" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BJ368" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BK368" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BL368" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BM368" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BN368" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BO368" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BP368" t="n">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B369" t="n">
+        <v>5406797</v>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E369" s="2" t="n">
+        <v>45263.77083333334</v>
+      </c>
+      <c r="F369" t="n">
+        <v>37</v>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>Atlético PR</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="I369" t="n">
+        <v>1</v>
+      </c>
+      <c r="J369" t="n">
+        <v>0</v>
+      </c>
+      <c r="K369" t="n">
+        <v>1</v>
+      </c>
+      <c r="L369" t="n">
+        <v>3</v>
+      </c>
+      <c r="M369" t="n">
+        <v>0</v>
+      </c>
+      <c r="N369" t="n">
+        <v>3</v>
+      </c>
+      <c r="O369" t="inlineStr">
+        <is>
+          <t>['45+6', '75', '90+3']</t>
+        </is>
+      </c>
+      <c r="P369" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q369" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R369" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S369" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T369" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U369" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V369" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W369" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X369" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y369" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z369" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA369" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB369" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC369" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD369" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AE369" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF369" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG369" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH369" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI369" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ369" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK369" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AL369" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM369" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN369" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AO369" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP369" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ369" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AR369" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AS369" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT369" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AU369" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV369" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW369" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX369" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY369" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ369" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA369" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB369" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC369" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD369" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE369" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BF369" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="BG369" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH369" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="BI369" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ369" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BK369" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL369" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BM369" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN369" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BO369" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BP369" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B370" t="n">
+        <v>5406798</v>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E370" s="2" t="n">
+        <v>45263.77083333334</v>
+      </c>
+      <c r="F370" t="n">
+        <v>37</v>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>Goiás</t>
+        </is>
+      </c>
+      <c r="I370" t="n">
+        <v>1</v>
+      </c>
+      <c r="J370" t="n">
+        <v>0</v>
+      </c>
+      <c r="K370" t="n">
+        <v>1</v>
+      </c>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="n">
+        <v>0</v>
+      </c>
+      <c r="N370" t="n">
+        <v>1</v>
+      </c>
+      <c r="O370" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="P370" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q370" t="n">
+        <v>2</v>
+      </c>
+      <c r="R370" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S370" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T370" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U370" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V370" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W370" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X370" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y370" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z370" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA370" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB370" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AC370" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD370" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE370" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AF370" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AG370" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH370" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI370" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ370" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK370" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AL370" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AM370" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AN370" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO370" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AP370" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AQ370" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AR370" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AS370" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT370" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU370" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV370" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW370" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX370" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY370" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ370" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA370" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB370" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC370" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD370" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BE370" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BF370" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BG370" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH370" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BI370" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ370" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BK370" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL370" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BM370" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BN370" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO370" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BP370" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B371" t="n">
+        <v>5406799</v>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E371" s="2" t="n">
+        <v>45263.77083333334</v>
+      </c>
+      <c r="F371" t="n">
+        <v>37</v>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>América Mineiro</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="I371" t="n">
+        <v>2</v>
+      </c>
+      <c r="J371" t="n">
+        <v>1</v>
+      </c>
+      <c r="K371" t="n">
+        <v>3</v>
+      </c>
+      <c r="L371" t="n">
+        <v>3</v>
+      </c>
+      <c r="M371" t="n">
+        <v>2</v>
+      </c>
+      <c r="N371" t="n">
+        <v>5</v>
+      </c>
+      <c r="O371" t="inlineStr">
+        <is>
+          <t>['29', '38', '47']</t>
+        </is>
+      </c>
+      <c r="P371" t="inlineStr">
+        <is>
+          <t>['26', '57']</t>
+        </is>
+      </c>
+      <c r="Q371" t="n">
+        <v>4</v>
+      </c>
+      <c r="R371" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S371" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T371" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U371" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V371" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W371" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X371" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y371" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z371" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AA371" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB371" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AC371" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD371" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE371" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF371" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG371" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH371" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI371" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ371" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK371" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AL371" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM371" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN371" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AO371" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AP371" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AQ371" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AR371" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS371" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT371" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AU371" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV371" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW371" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX371" t="n">
+        <v>20</v>
+      </c>
+      <c r="AY371" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ371" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA371" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB371" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC371" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD371" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BE371" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF371" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BG371" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH371" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BI371" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ371" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK371" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL371" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BM371" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN371" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO371" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BP371" t="n">
+        <v>1.54</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Brazil Serie A_2023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
